--- a/resultados_tp5_volumen_area.xlsx
+++ b/resultados_tp5_volumen_area.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,50 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Error_vol_spline_trapecio</t>
+          <t>Volumen_poly_trapecio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Error_vol_spline_simpson</t>
+          <t>Volumen_poly_simpson</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Volumen_poly_trapecio</t>
+          <t>Area_spline_trapecio</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Volumen_poly_simpson</t>
+          <t>Area_spline_simpson</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Error_vol_poly_trapecio</t>
+          <t>Area_poly_trapecio</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Error_vol_poly_simpson</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Area_spline_trapecio</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Area_spline_simpson</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Area_poly_trapecio</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Area_poly_simpson</t>
         </is>
@@ -521,33 +501,21 @@
         <v>13576506.49069018</v>
       </c>
       <c r="E2" t="n">
-        <v>4.939758570864797</v>
+        <v>13671234.85354545</v>
       </c>
       <c r="F2" t="n">
-        <v>4.939721245318651</v>
+        <v>13671236.43875088</v>
       </c>
       <c r="G2" t="n">
-        <v>13671234.85354545</v>
+        <v>289091.8379063499</v>
       </c>
       <c r="H2" t="n">
-        <v>13671236.43875088</v>
+        <v>289089.2018575309</v>
       </c>
       <c r="I2" t="n">
-        <v>1.585200248286128</v>
+        <v>222898.2470645884</v>
       </c>
       <c r="J2" t="n">
-        <v>1.585205432027578</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289091.8379063499</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289089.2018575309</v>
-      </c>
-      <c r="M2" t="n">
-        <v>222898.2470645884</v>
-      </c>
-      <c r="N2" t="n">
         <v>222897.8773938827</v>
       </c>
     </row>
@@ -567,33 +535,21 @@
         <v>35096261.23282584</v>
       </c>
       <c r="E3" t="n">
-        <v>32.6947408169508</v>
+        <v>35173625.20118196</v>
       </c>
       <c r="F3" t="n">
-        <v>32.69666283577681</v>
+        <v>35173632.41226266</v>
       </c>
       <c r="G3" t="n">
-        <v>35173625.20118196</v>
+        <v>464883.7816033585</v>
       </c>
       <c r="H3" t="n">
-        <v>35173632.41226266</v>
+        <v>464870.0069659057</v>
       </c>
       <c r="I3" t="n">
-        <v>7.211146429181099</v>
+        <v>384330.18877752</v>
       </c>
       <c r="J3" t="n">
-        <v>7.211080700159073</v>
-      </c>
-      <c r="K3" t="n">
-        <v>464883.7816033585</v>
-      </c>
-      <c r="L3" t="n">
-        <v>464870.0069659057</v>
-      </c>
-      <c r="M3" t="n">
-        <v>384330.18877752</v>
-      </c>
-      <c r="N3" t="n">
         <v>384329.3489369216</v>
       </c>
     </row>
@@ -613,33 +569,21 @@
         <v>61200379.37659945</v>
       </c>
       <c r="E4" t="n">
-        <v>54.43435773998499</v>
+        <v>61328600.32076827</v>
       </c>
       <c r="F4" t="n">
-        <v>54.44054812937975</v>
+        <v>61328611.32315633</v>
       </c>
       <c r="G4" t="n">
-        <v>61328600.32076827</v>
+        <v>550305.109418297</v>
       </c>
       <c r="H4" t="n">
-        <v>61328611.32315633</v>
+        <v>550274.0462687544</v>
       </c>
       <c r="I4" t="n">
-        <v>11.00245615839958</v>
+        <v>491205.1337141296</v>
       </c>
       <c r="J4" t="n">
-        <v>11.00238806009293</v>
-      </c>
-      <c r="K4" t="n">
-        <v>550305.109418297</v>
-      </c>
-      <c r="L4" t="n">
-        <v>550274.0462687544</v>
-      </c>
-      <c r="M4" t="n">
-        <v>491205.1337141296</v>
-      </c>
-      <c r="N4" t="n">
         <v>491204.5625945422</v>
       </c>
     </row>
@@ -659,33 +603,21 @@
         <v>86996137.23051356</v>
       </c>
       <c r="E5" t="n">
-        <v>127.4973455816507</v>
+        <v>87062293.48314619</v>
       </c>
       <c r="F5" t="n">
-        <v>127.5305716246367</v>
+        <v>87062314.4909289</v>
       </c>
       <c r="G5" t="n">
-        <v>87062293.48314619</v>
+        <v>688837.2293591483</v>
       </c>
       <c r="H5" t="n">
-        <v>87062314.4909289</v>
+        <v>688776.2985302766</v>
       </c>
       <c r="I5" t="n">
-        <v>21.00791452825069</v>
+        <v>612489.3374069366</v>
       </c>
       <c r="J5" t="n">
-        <v>21.00778271257877</v>
-      </c>
-      <c r="K5" t="n">
-        <v>688837.2293591483</v>
-      </c>
-      <c r="L5" t="n">
-        <v>688776.2985302766</v>
-      </c>
-      <c r="M5" t="n">
-        <v>612489.3374069366</v>
-      </c>
-      <c r="N5" t="n">
         <v>612488.4463304154</v>
       </c>
     </row>
@@ -705,33 +637,21 @@
         <v>113208180.275783</v>
       </c>
       <c r="E6" t="n">
-        <v>241.1289913356304</v>
+        <v>113205962.2264806</v>
       </c>
       <c r="F6" t="n">
-        <v>240.977554127574</v>
+        <v>113205991.5385292</v>
       </c>
       <c r="G6" t="n">
-        <v>113205962.2264806</v>
+        <v>809287.209786807</v>
       </c>
       <c r="H6" t="n">
-        <v>113205991.5385292</v>
+        <v>809191.4074757555</v>
       </c>
       <c r="I6" t="n">
-        <v>29.31221759319305</v>
+        <v>706581.9324515152</v>
       </c>
       <c r="J6" t="n">
-        <v>29.31204868853092</v>
-      </c>
-      <c r="K6" t="n">
-        <v>809287.209786807</v>
-      </c>
-      <c r="L6" t="n">
-        <v>809191.4074757555</v>
-      </c>
-      <c r="M6" t="n">
-        <v>706581.9324515152</v>
-      </c>
-      <c r="N6" t="n">
         <v>706581.0042783063</v>
       </c>
     </row>
@@ -751,33 +671,21 @@
         <v>142331557.175945</v>
       </c>
       <c r="E7" t="n">
-        <v>245.0388813614845</v>
+        <v>142460849.3727039</v>
       </c>
       <c r="F7" t="n">
-        <v>245.1310162842274</v>
+        <v>142460887.0285391</v>
       </c>
       <c r="G7" t="n">
-        <v>142460849.3727039</v>
+        <v>892414.476522809</v>
       </c>
       <c r="H7" t="n">
-        <v>142460887.0285391</v>
+        <v>892280.703783091</v>
       </c>
       <c r="I7" t="n">
-        <v>37.65602493286133</v>
+        <v>810002.8649417402</v>
       </c>
       <c r="J7" t="n">
-        <v>37.65583527088165</v>
-      </c>
-      <c r="K7" t="n">
-        <v>892414.476522809</v>
-      </c>
-      <c r="L7" t="n">
-        <v>892280.703783091</v>
-      </c>
-      <c r="M7" t="n">
-        <v>810002.8649417402</v>
-      </c>
-      <c r="N7" t="n">
         <v>810002.0217207605</v>
       </c>
     </row>
@@ -797,33 +705,21 @@
         <v>168344168.6900259</v>
       </c>
       <c r="E8" t="n">
-        <v>462.3322915434837</v>
+        <v>168225412.156076</v>
       </c>
       <c r="F8" t="n">
-        <v>462.7481445074081</v>
+        <v>168225465.1612153</v>
       </c>
       <c r="G8" t="n">
-        <v>168225412.156076</v>
+        <v>1027884.874451545</v>
       </c>
       <c r="H8" t="n">
-        <v>168225465.1612153</v>
+        <v>1027691.46063488</v>
       </c>
       <c r="I8" t="n">
-        <v>53.0053488612175</v>
+        <v>917956.0114549139</v>
       </c>
       <c r="J8" t="n">
-        <v>53.00513932108879</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1027884.874451545</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1027691.46063488</v>
-      </c>
-      <c r="M8" t="n">
-        <v>917956.0114549139</v>
-      </c>
-      <c r="N8" t="n">
         <v>917954.9853954599</v>
       </c>
     </row>
@@ -843,33 +739,21 @@
         <v>195772582.9598201</v>
       </c>
       <c r="E9" t="n">
-        <v>6801.109847396612</v>
+        <v>195162958.4170243</v>
       </c>
       <c r="F9" t="n">
-        <v>6965.979715406895</v>
+        <v>195163020.1555664</v>
       </c>
       <c r="G9" t="n">
-        <v>195162958.4170243</v>
+        <v>2643812.88822309</v>
       </c>
       <c r="H9" t="n">
-        <v>195163020.1555664</v>
+        <v>2643026.474423937</v>
       </c>
       <c r="I9" t="n">
-        <v>61.73871538043022</v>
+        <v>1017917.130132487</v>
       </c>
       <c r="J9" t="n">
-        <v>61.73854210972786</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2643812.88822309</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2643026.474423937</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1017917.130132487</v>
-      </c>
-      <c r="N9" t="n">
         <v>1017916.271369113</v>
       </c>
     </row>
@@ -889,33 +773,21 @@
         <v>218211045.6093037</v>
       </c>
       <c r="E10" t="n">
-        <v>701.8540669381618</v>
+        <v>217876246.3881739</v>
       </c>
       <c r="F10" t="n">
-        <v>702.5147063732147</v>
+        <v>217876330.3960341</v>
       </c>
       <c r="G10" t="n">
-        <v>217876246.3881739</v>
+        <v>1254595.425494676</v>
       </c>
       <c r="H10" t="n">
-        <v>217876330.3960341</v>
+        <v>1254266.686258977</v>
       </c>
       <c r="I10" t="n">
-        <v>84.00796070694923</v>
+        <v>1145335.981312065</v>
       </c>
       <c r="J10" t="n">
-        <v>84.00786012411118</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1254595.425494676</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1254266.686258977</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1145335.981312065</v>
-      </c>
-      <c r="N10" t="n">
         <v>1145334.944883573</v>
       </c>
     </row>
@@ -935,33 +807,21 @@
         <v>3170128440.145091</v>
       </c>
       <c r="E11" t="n">
-        <v>181533888.825213</v>
+        <v>239284653.5429944</v>
       </c>
       <c r="F11" t="n">
-        <v>15420143.45571947</v>
+        <v>239284762.3352039</v>
       </c>
       <c r="G11" t="n">
-        <v>239284653.5429944</v>
+        <v>5536981051.208784</v>
       </c>
       <c r="H11" t="n">
-        <v>239284762.3352039</v>
+        <v>5789617532.045051</v>
       </c>
       <c r="I11" t="n">
-        <v>108.7919659614563</v>
+        <v>1309799.812308541</v>
       </c>
       <c r="J11" t="n">
-        <v>108.7922095060349</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5178764854.73762</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5449688461.72023</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1309799.812308541</v>
-      </c>
-      <c r="N11" t="n">
         <v>1309798.797915835</v>
       </c>
     </row>
@@ -981,33 +841,21 @@
         <v>240925968.8693092</v>
       </c>
       <c r="E12" t="n">
-        <v>19847.17639526725</v>
+        <v>239286933.6605518</v>
       </c>
       <c r="F12" t="n">
-        <v>23779.90768641233</v>
+        <v>239287073.2679894</v>
       </c>
       <c r="G12" t="n">
-        <v>239286933.6605518</v>
+        <v>4434189.789636517</v>
       </c>
       <c r="H12" t="n">
-        <v>239287073.2679894</v>
+        <v>4420634.45065772</v>
       </c>
       <c r="I12" t="n">
-        <v>139.6061862111092</v>
+        <v>1413878.925348994</v>
       </c>
       <c r="J12" t="n">
-        <v>139.6074376106262</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4434189.789636517</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4420634.45065772</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1413878.925348994</v>
-      </c>
-      <c r="N12" t="n">
         <v>1413877.624295071</v>
       </c>
     </row>
@@ -1027,33 +875,21 @@
         <v>244088759.6825572</v>
       </c>
       <c r="E13" t="n">
-        <v>29369.9419978857</v>
+        <v>241559871.3132816</v>
       </c>
       <c r="F13" t="n">
-        <v>31998.31396532059</v>
+        <v>241560009.2543059</v>
       </c>
       <c r="G13" t="n">
-        <v>241559871.3132816</v>
+        <v>6458697.86190021</v>
       </c>
       <c r="H13" t="n">
-        <v>241560009.2543059</v>
+        <v>6489380.362165432</v>
       </c>
       <c r="I13" t="n">
-        <v>137.9398374259472</v>
+        <v>1422219.774501668</v>
       </c>
       <c r="J13" t="n">
-        <v>137.9410243332386</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6458697.86190021</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6489380.362165432</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1422219.774501668</v>
-      </c>
-      <c r="N13" t="n">
         <v>1422218.561188692</v>
       </c>
     </row>
@@ -1073,33 +909,21 @@
         <v>240265127.9827567</v>
       </c>
       <c r="E14" t="n">
-        <v>13022.07414439321</v>
+        <v>238960109.2401633</v>
       </c>
       <c r="F14" t="n">
-        <v>14565.0121126771</v>
+        <v>238960251.4083806</v>
       </c>
       <c r="G14" t="n">
-        <v>238960109.2401633</v>
+        <v>3388854.705851993</v>
       </c>
       <c r="H14" t="n">
-        <v>238960251.4083806</v>
+        <v>3370038.246860617</v>
       </c>
       <c r="I14" t="n">
-        <v>142.1668798327446</v>
+        <v>1422195.889000447</v>
       </c>
       <c r="J14" t="n">
-        <v>142.168217331171</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3388854.705851993</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3370038.246860617</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1422195.889000447</v>
-      </c>
-      <c r="N14" t="n">
         <v>1422194.574575236</v>
       </c>
     </row>
@@ -1119,33 +943,21 @@
         <v>241500639.3107599</v>
       </c>
       <c r="E15" t="n">
-        <v>6222.739360392094</v>
+        <v>240896000.5004645</v>
       </c>
       <c r="F15" t="n">
-        <v>6225.643697500229</v>
+        <v>240896136.8911576</v>
       </c>
       <c r="G15" t="n">
-        <v>240896000.5004645</v>
+        <v>2232449.875914831</v>
       </c>
       <c r="H15" t="n">
-        <v>240896136.8911576</v>
+        <v>2222674.774159642</v>
       </c>
       <c r="I15" t="n">
-        <v>136.3895481824875</v>
+        <v>1415631.280281145</v>
       </c>
       <c r="J15" t="n">
-        <v>136.390693128109</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2232449.875914831</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2222674.774159642</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1415631.280281145</v>
-      </c>
-      <c r="N15" t="n">
         <v>1415630.079661374</v>
       </c>
     </row>
@@ -1165,33 +977,21 @@
         <v>239470358.0875855</v>
       </c>
       <c r="E16" t="n">
-        <v>14092.89154776931</v>
+        <v>238113234.8300065</v>
       </c>
       <c r="F16" t="n">
-        <v>15949.66988629103</v>
+        <v>238113374.9519467</v>
       </c>
       <c r="G16" t="n">
-        <v>238113234.8300065</v>
+        <v>3545601.84448638</v>
       </c>
       <c r="H16" t="n">
-        <v>238113374.9519467</v>
+        <v>3527091.386296456</v>
       </c>
       <c r="I16" t="n">
-        <v>140.1206594407558</v>
+        <v>1414849.341191189</v>
       </c>
       <c r="J16" t="n">
-        <v>140.1219401359558</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3545601.84448638</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3527091.386296456</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1414849.341191189</v>
-      </c>
-      <c r="N16" t="n">
         <v>1414848.049451358</v>
       </c>
     </row>
@@ -1211,33 +1011,21 @@
         <v>240919703.4591996</v>
       </c>
       <c r="E17" t="n">
-        <v>2815.539900779724</v>
+        <v>240408242.0376758</v>
       </c>
       <c r="F17" t="n">
-        <v>2816.278086036444</v>
+        <v>240408379.8434939</v>
       </c>
       <c r="G17" t="n">
-        <v>240408242.0376758</v>
+        <v>1862531.682221355</v>
       </c>
       <c r="H17" t="n">
-        <v>240408379.8434939</v>
+        <v>1859135.585044679</v>
       </c>
       <c r="I17" t="n">
-        <v>137.8045876026154</v>
+        <v>1419849.763820369</v>
       </c>
       <c r="J17" t="n">
-        <v>137.8058181107044</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1862531.682221355</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1859135.585044679</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1419849.763820369</v>
-      </c>
-      <c r="N17" t="n">
         <v>1419848.557876915</v>
       </c>
     </row>
@@ -1257,33 +1045,21 @@
         <v>238186325.8970512</v>
       </c>
       <c r="E18" t="n">
-        <v>2460.664857298136</v>
+        <v>237421636.5188718</v>
       </c>
       <c r="F18" t="n">
-        <v>2217.662956804037</v>
+        <v>237421777.661876</v>
       </c>
       <c r="G18" t="n">
-        <v>237421636.5188718</v>
+        <v>1805916.830464343</v>
       </c>
       <c r="H18" t="n">
-        <v>237421777.661876</v>
+        <v>1803587.032815922</v>
       </c>
       <c r="I18" t="n">
-        <v>141.1416619420052</v>
+        <v>1418545.460076989</v>
       </c>
       <c r="J18" t="n">
-        <v>141.1430042088032</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1805916.830464343</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1803587.032815922</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1418545.460076989</v>
-      </c>
-      <c r="N18" t="n">
         <v>1418544.17324968</v>
       </c>
     </row>
@@ -1303,33 +1079,21 @@
         <v>307805795.4266994</v>
       </c>
       <c r="E19" t="n">
-        <v>58130719.39617944</v>
+        <v>226906277.9735352</v>
       </c>
       <c r="F19" t="n">
-        <v>86731.45657062531</v>
+        <v>226906400.8115563</v>
       </c>
       <c r="G19" t="n">
-        <v>226906277.9735352</v>
+        <v>85133179.60302259</v>
       </c>
       <c r="H19" t="n">
-        <v>226906400.8115563</v>
+        <v>84091047.28893574</v>
       </c>
       <c r="I19" t="n">
-        <v>122.8371374607086</v>
+        <v>1436631.686388727</v>
       </c>
       <c r="J19" t="n">
-        <v>122.8380210697651</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-30452500.94147152</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-35039760.1365034</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1436631.686388727</v>
-      </c>
-      <c r="N19" t="n">
         <v>1436630.890974492</v>
       </c>
     </row>
@@ -1349,33 +1113,21 @@
         <v>67336258.86394042</v>
       </c>
       <c r="E20" t="n">
-        <v>2537.677490606904</v>
+        <v>63449524.74280728</v>
       </c>
       <c r="F20" t="n">
-        <v>2419.313655644655</v>
+        <v>63449480.73621068</v>
       </c>
       <c r="G20" t="n">
-        <v>63449524.74280728</v>
+        <v>9399434.143206432</v>
       </c>
       <c r="H20" t="n">
-        <v>63449480.73621068</v>
+        <v>9395793.610375164</v>
       </c>
       <c r="I20" t="n">
-        <v>44.00621549040079</v>
+        <v>815237.343450599</v>
       </c>
       <c r="J20" t="n">
-        <v>44.00659660249949</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9399434.143206432</v>
-      </c>
-      <c r="L20" t="n">
-        <v>9395793.610375164</v>
-      </c>
-      <c r="M20" t="n">
-        <v>815237.343450599</v>
-      </c>
-      <c r="N20" t="n">
         <v>815236.3798983097</v>
       </c>
     </row>
@@ -1395,33 +1147,21 @@
         <v>68381852.05245648</v>
       </c>
       <c r="E21" t="n">
-        <v>3847.805994674563</v>
+        <v>65690433.75905633</v>
       </c>
       <c r="F21" t="n">
-        <v>3897.728020265698</v>
+        <v>65690347.67828522</v>
       </c>
       <c r="G21" t="n">
-        <v>65690433.75905633</v>
+        <v>21438844.25208955</v>
       </c>
       <c r="H21" t="n">
-        <v>65690347.67828522</v>
+        <v>21446067.86881521</v>
       </c>
       <c r="I21" t="n">
-        <v>86.08207198232412</v>
+        <v>883431.9174511253</v>
       </c>
       <c r="J21" t="n">
-        <v>86.0807711109519</v>
-      </c>
-      <c r="K21" t="n">
-        <v>21438844.25208955</v>
-      </c>
-      <c r="L21" t="n">
-        <v>21446067.86881521</v>
-      </c>
-      <c r="M21" t="n">
-        <v>883431.9174511253</v>
-      </c>
-      <c r="N21" t="n">
         <v>883427.2199264733</v>
       </c>
     </row>
@@ -1441,33 +1181,21 @@
         <v>57771467.27276205</v>
       </c>
       <c r="E22" t="n">
-        <v>2440.432290062308</v>
+        <v>56575787.62804133</v>
       </c>
       <c r="F22" t="n">
-        <v>2437.118603460491</v>
+        <v>56575721.94572949</v>
       </c>
       <c r="G22" t="n">
-        <v>56575787.62804133</v>
+        <v>16431103.9753981</v>
       </c>
       <c r="H22" t="n">
-        <v>56575721.94572949</v>
+        <v>16437782.36749394</v>
       </c>
       <c r="I22" t="n">
-        <v>65.68316409736872</v>
+        <v>885837.3609082042</v>
       </c>
       <c r="J22" t="n">
-        <v>65.6823118403554</v>
-      </c>
-      <c r="K22" t="n">
-        <v>16431103.9753981</v>
-      </c>
-      <c r="L22" t="n">
-        <v>16437782.36749394</v>
-      </c>
-      <c r="M22" t="n">
-        <v>885837.3609082042</v>
-      </c>
-      <c r="N22" t="n">
         <v>885832.9586720216</v>
       </c>
     </row>
@@ -1487,33 +1215,21 @@
         <v>39964222.77084029</v>
       </c>
       <c r="E23" t="n">
-        <v>906.0094296857715</v>
+        <v>39580255.8443131</v>
       </c>
       <c r="F23" t="n">
-        <v>894.6394672989845</v>
+        <v>39580199.31000742</v>
       </c>
       <c r="G23" t="n">
-        <v>39580255.8443131</v>
+        <v>9513192.091031535</v>
       </c>
       <c r="H23" t="n">
-        <v>39580199.31000742</v>
+        <v>9510144.854128439</v>
       </c>
       <c r="I23" t="n">
-        <v>56.53439026325941</v>
+        <v>903322.7535171235</v>
       </c>
       <c r="J23" t="n">
-        <v>56.53430568426847</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9513192.091031535</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9510144.854128439</v>
-      </c>
-      <c r="M23" t="n">
-        <v>903322.7535171235</v>
-      </c>
-      <c r="N23" t="n">
         <v>903319.2629180161</v>
       </c>
     </row>
@@ -1533,33 +1249,21 @@
         <v>447043902.4820572</v>
       </c>
       <c r="E24" t="n">
-        <v>275828846.7403439</v>
+        <v>143333435.5272071</v>
       </c>
       <c r="F24" t="n">
-        <v>31588.56373053789</v>
+        <v>143333496.136027</v>
       </c>
       <c r="G24" t="n">
-        <v>143333435.5272071</v>
+        <v>301569399.001492</v>
       </c>
       <c r="H24" t="n">
-        <v>143333496.136027</v>
+        <v>300852333.4627348</v>
       </c>
       <c r="I24" t="n">
-        <v>60.60867381095886</v>
+        <v>1638499.799134139</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60881996154785</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-242659747.7305</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-250447576.8304406</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1638499.799134139</v>
-      </c>
-      <c r="N24" t="n">
         <v>1638500.270086046</v>
       </c>
     </row>
@@ -1579,33 +1283,21 @@
         <v>37218609.52202796</v>
       </c>
       <c r="E25" t="n">
-        <v>1131.433986201882</v>
+        <v>37787128.66721278</v>
       </c>
       <c r="F25" t="n">
-        <v>1151.918754272163</v>
+        <v>37787114.93384383</v>
       </c>
       <c r="G25" t="n">
-        <v>37787128.66721278</v>
+        <v>8062939.47318078</v>
       </c>
       <c r="H25" t="n">
-        <v>37787114.93384383</v>
+        <v>8065989.09699454</v>
       </c>
       <c r="I25" t="n">
-        <v>13.73294571042061</v>
+        <v>708838.2712250324</v>
       </c>
       <c r="J25" t="n">
-        <v>13.733368948102</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8062939.47318078</v>
-      </c>
-      <c r="L25" t="n">
-        <v>8065989.09699454</v>
-      </c>
-      <c r="M25" t="n">
-        <v>708838.2712250324</v>
-      </c>
-      <c r="N25" t="n">
         <v>708837.2992883446</v>
       </c>
     </row>
@@ -1625,33 +1317,21 @@
         <v>174164474.5890959</v>
       </c>
       <c r="E26" t="n">
-        <v>9928.958322316408</v>
+        <v>167258036.4049728</v>
       </c>
       <c r="F26" t="n">
-        <v>10954.95104002953</v>
+        <v>167258066.2713251</v>
       </c>
       <c r="G26" t="n">
-        <v>167258036.4049728</v>
+        <v>17851929.76726681</v>
       </c>
       <c r="H26" t="n">
-        <v>167258066.2713251</v>
+        <v>17925406.68913725</v>
       </c>
       <c r="I26" t="n">
-        <v>29.86505052447319</v>
+        <v>1564066.747083427</v>
       </c>
       <c r="J26" t="n">
-        <v>29.86635226011276</v>
-      </c>
-      <c r="K26" t="n">
-        <v>17851929.76726681</v>
-      </c>
-      <c r="L26" t="n">
-        <v>17925406.68913725</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1564066.747083427</v>
-      </c>
-      <c r="N26" t="n">
         <v>1564065.441396498</v>
       </c>
     </row>
@@ -1671,33 +1351,21 @@
         <v>197164694.7432871</v>
       </c>
       <c r="E27" t="n">
-        <v>36500.13476282358</v>
+        <v>176334967.363141</v>
       </c>
       <c r="F27" t="n">
-        <v>44855.28028208017</v>
+        <v>176334998.251375</v>
       </c>
       <c r="G27" t="n">
-        <v>176334967.363141</v>
+        <v>36763615.57066438</v>
       </c>
       <c r="H27" t="n">
-        <v>176334998.251375</v>
+        <v>37395753.13809381</v>
       </c>
       <c r="I27" t="n">
-        <v>30.88678190112114</v>
+        <v>1557914.846597781</v>
       </c>
       <c r="J27" t="n">
-        <v>30.88823401927948</v>
-      </c>
-      <c r="K27" t="n">
-        <v>36755352.3270472</v>
-      </c>
-      <c r="L27" t="n">
-        <v>37388932.83149491</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1557914.846597781</v>
-      </c>
-      <c r="N27" t="n">
         <v>1557913.43172825</v>
       </c>
     </row>
@@ -1717,33 +1385,21 @@
         <v>56950370.23209874</v>
       </c>
       <c r="E28" t="n">
-        <v>1591.971516638994</v>
+        <v>60120074.10219419</v>
       </c>
       <c r="F28" t="n">
-        <v>1518.935838699341</v>
+        <v>60120050.55945648</v>
       </c>
       <c r="G28" t="n">
-        <v>60120074.10219419</v>
+        <v>11932043.43294721</v>
       </c>
       <c r="H28" t="n">
-        <v>60120050.55945648</v>
+        <v>11929762.18317456</v>
       </c>
       <c r="I28" t="n">
-        <v>23.54273741692305</v>
+        <v>818599.4816650747</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54273770749569</v>
-      </c>
-      <c r="K28" t="n">
-        <v>11932043.43294721</v>
-      </c>
-      <c r="L28" t="n">
-        <v>11929762.18317456</v>
-      </c>
-      <c r="M28" t="n">
-        <v>818599.4816650747</v>
-      </c>
-      <c r="N28" t="n">
         <v>818597.5675981458</v>
       </c>
     </row>
@@ -1763,33 +1419,21 @@
         <v>59150844.90158423</v>
       </c>
       <c r="E29" t="n">
-        <v>8071.353204108775</v>
+        <v>59599581.22321495</v>
       </c>
       <c r="F29" t="n">
-        <v>8011.917841680348</v>
+        <v>59599562.43830725</v>
       </c>
       <c r="G29" t="n">
-        <v>59599581.22321495</v>
+        <v>12789036.89818128</v>
       </c>
       <c r="H29" t="n">
-        <v>59599562.43830725</v>
+        <v>12771126.98352575</v>
       </c>
       <c r="I29" t="n">
-        <v>18.7844680249691</v>
+        <v>766172.6672391531</v>
       </c>
       <c r="J29" t="n">
-        <v>18.78490770608187</v>
-      </c>
-      <c r="K29" t="n">
-        <v>12789036.89818128</v>
-      </c>
-      <c r="L29" t="n">
-        <v>12771126.98352575</v>
-      </c>
-      <c r="M29" t="n">
-        <v>766172.6672391531</v>
-      </c>
-      <c r="N29" t="n">
         <v>766171.7054387406</v>
       </c>
     </row>
@@ -1809,33 +1453,21 @@
         <v>5.085423781190501e+25</v>
       </c>
       <c r="E30" t="n">
-        <v>7.110517245554716e+26</v>
+        <v>58405461.12410803</v>
       </c>
       <c r="F30" t="n">
-        <v>1.230144915952088e+23</v>
+        <v>58405415.17599526</v>
       </c>
       <c r="G30" t="n">
-        <v>58405461.12410803</v>
+        <v>9.491916466624927e+25</v>
       </c>
       <c r="H30" t="n">
-        <v>58405415.17599526</v>
+        <v>9.320255029087387e+25</v>
       </c>
       <c r="I30" t="n">
-        <v>45.94762137532234</v>
+        <v>774896.999072621</v>
       </c>
       <c r="J30" t="n">
-        <v>45.94811277091503</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-1.224847281717062e+27</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-1.300803681738774e+27</v>
-      </c>
-      <c r="M30" t="n">
-        <v>774896.999072621</v>
-      </c>
-      <c r="N30" t="n">
         <v>774896.8800360073</v>
       </c>
     </row>
@@ -1855,33 +1487,21 @@
         <v>1.840369386019615e+17</v>
       </c>
       <c r="E31" t="n">
-        <v>2.587114049673218e+18</v>
+        <v>213987630.2922677</v>
       </c>
       <c r="F31" t="n">
-        <v>1157915580620608</v>
+        <v>213987736.9735402</v>
       </c>
       <c r="G31" t="n">
-        <v>213987630.2922677</v>
+        <v>3.82702256677038e+17</v>
       </c>
       <c r="H31" t="n">
-        <v>213987736.9735402</v>
+        <v>3.842634704556686e+17</v>
       </c>
       <c r="I31" t="n">
-        <v>106.6807891130447</v>
+        <v>1460168.603257811</v>
       </c>
       <c r="J31" t="n">
-        <v>106.6812724769115</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-4.450207140953073e+18</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-4.73586786900717e+18</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1460168.603257811</v>
-      </c>
-      <c r="N31" t="n">
         <v>1460168.048173486</v>
       </c>
     </row>
@@ -1901,33 +1521,21 @@
         <v>2.137290677805826e+20</v>
       </c>
       <c r="E32" t="n">
-        <v>2.998149591423777e+21</v>
+        <v>59181476.35801642</v>
       </c>
       <c r="F32" t="n">
-        <v>1.410389468869329e+18</v>
+        <v>59181375.2131362</v>
       </c>
       <c r="G32" t="n">
-        <v>59181476.35801642</v>
+        <v>4.436652174770095e+20</v>
       </c>
       <c r="H32" t="n">
-        <v>59181375.2131362</v>
+        <v>4.472509741920995e+20</v>
       </c>
       <c r="I32" t="n">
-        <v>101.1464235037565</v>
+        <v>810889.6265632722</v>
       </c>
       <c r="J32" t="n">
-        <v>101.144880220294</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-5.19979497842309e+21</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-5.521397587369722e+21</v>
-      </c>
-      <c r="M32" t="n">
-        <v>810889.6265632722</v>
-      </c>
-      <c r="N32" t="n">
         <v>810887.1712136874</v>
       </c>
     </row>
@@ -1947,33 +1555,21 @@
         <v>230173039.6323703</v>
       </c>
       <c r="E33" t="n">
-        <v>12798.55893817544</v>
+        <v>226381490.323786</v>
       </c>
       <c r="F33" t="n">
-        <v>12229.28130289912</v>
+        <v>226381629.7518133</v>
       </c>
       <c r="G33" t="n">
-        <v>226381490.323786</v>
+        <v>6695965.458714391</v>
       </c>
       <c r="H33" t="n">
-        <v>226381629.7518133</v>
+        <v>6631820.217025845</v>
       </c>
       <c r="I33" t="n">
-        <v>139.4265452921391</v>
+        <v>1487609.319371484</v>
       </c>
       <c r="J33" t="n">
-        <v>139.4280272722244</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6688875.497357293</v>
-      </c>
-      <c r="L33" t="n">
-        <v>6624642.3879844</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1487609.319371484</v>
-      </c>
-      <c r="N33" t="n">
         <v>1487608.294856499</v>
       </c>
     </row>
@@ -1993,33 +1589,21 @@
         <v>59790998.79705922</v>
       </c>
       <c r="E34" t="n">
-        <v>5017.333815649152</v>
+        <v>60343824.35069921</v>
       </c>
       <c r="F34" t="n">
-        <v>4587.589112117887</v>
+        <v>60343694.68170651</v>
       </c>
       <c r="G34" t="n">
-        <v>60343824.35069921</v>
+        <v>2356366.030374773</v>
       </c>
       <c r="H34" t="n">
-        <v>60343694.68170651</v>
+        <v>2351279.585928755</v>
       </c>
       <c r="I34" t="n">
-        <v>129.6720643043518</v>
+        <v>835256.0974546161</v>
       </c>
       <c r="J34" t="n">
-        <v>129.6689926981926</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2356366.030374773</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2351279.585928755</v>
-      </c>
-      <c r="M34" t="n">
-        <v>835256.0974546161</v>
-      </c>
-      <c r="N34" t="n">
         <v>835252.2203296571</v>
       </c>
     </row>
@@ -2039,33 +1623,21 @@
         <v>221196661100.1944</v>
       </c>
       <c r="E35" t="n">
-        <v>15852642974.71606</v>
+        <v>62752579.63108918</v>
       </c>
       <c r="F35" t="n">
-        <v>2980323042.04071</v>
+        <v>62752426.91999086</v>
       </c>
       <c r="G35" t="n">
-        <v>62752579.63108918</v>
+        <v>414528513097.1771</v>
       </c>
       <c r="H35" t="n">
-        <v>62752426.91999086</v>
+        <v>435880317408.6152</v>
       </c>
       <c r="I35" t="n">
-        <v>152.715023547411</v>
+        <v>894265.4141216472</v>
       </c>
       <c r="J35" t="n">
-        <v>152.7110983207822</v>
-      </c>
-      <c r="K35" t="n">
-        <v>384627275042.6824</v>
-      </c>
-      <c r="L35" t="n">
-        <v>405411447249.7284</v>
-      </c>
-      <c r="M35" t="n">
-        <v>894265.4141216472</v>
-      </c>
-      <c r="N35" t="n">
         <v>894260.6643954378</v>
       </c>
     </row>
@@ -2085,33 +1657,21 @@
         <v>151650001.7033318</v>
       </c>
       <c r="E36" t="n">
-        <v>982015406.8691545</v>
+        <v>63231593.48818815</v>
       </c>
       <c r="F36" t="n">
-        <v>149503.5474756062</v>
+        <v>63231445.82938556</v>
       </c>
       <c r="G36" t="n">
-        <v>63231593.48818815</v>
+        <v>187564986.4665549</v>
       </c>
       <c r="H36" t="n">
-        <v>63231445.82938556</v>
+        <v>188479925.38477</v>
       </c>
       <c r="I36" t="n">
-        <v>147.6624352708459</v>
+        <v>880603.3692949598</v>
       </c>
       <c r="J36" t="n">
-        <v>147.6588025912642</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-1705976455.455536</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-1807046755.639728</v>
-      </c>
-      <c r="M36" t="n">
-        <v>880603.3692949598</v>
-      </c>
-      <c r="N36" t="n">
         <v>880598.8154289866</v>
       </c>
     </row>
@@ -2131,33 +1691,21 @@
         <v>3628177093.895501</v>
       </c>
       <c r="E37" t="n">
-        <v>225991543.1627402</v>
+        <v>63129415.60476179</v>
       </c>
       <c r="F37" t="n">
-        <v>14690392.3635397</v>
+        <v>63129272.90833144</v>
       </c>
       <c r="G37" t="n">
-        <v>63129415.60476179</v>
+        <v>6734075063.779067</v>
       </c>
       <c r="H37" t="n">
-        <v>63129272.90833144</v>
+        <v>6972199436.964797</v>
       </c>
       <c r="I37" t="n">
-        <v>142.6998908147216</v>
+        <v>864261.0470568505</v>
       </c>
       <c r="J37" t="n">
-        <v>142.6964303478599</v>
-      </c>
-      <c r="K37" t="n">
-        <v>6293520468.874963</v>
-      </c>
-      <c r="L37" t="n">
-        <v>6538687714.910762</v>
-      </c>
-      <c r="M37" t="n">
-        <v>864261.0470568505</v>
-      </c>
-      <c r="N37" t="n">
         <v>864256.6698233214</v>
       </c>
     </row>
@@ -2177,33 +1725,21 @@
         <v>63310407.74764449</v>
       </c>
       <c r="E38" t="n">
-        <v>7510.464506015182</v>
+        <v>63638170.50316823</v>
       </c>
       <c r="F38" t="n">
-        <v>7136.293827839196</v>
+        <v>63638021.94643094</v>
       </c>
       <c r="G38" t="n">
-        <v>63638170.50316823</v>
+        <v>2298226.207859971</v>
       </c>
       <c r="H38" t="n">
-        <v>63638021.94643094</v>
+        <v>2273968.386076724</v>
       </c>
       <c r="I38" t="n">
-        <v>148.5603797510266</v>
+        <v>877315.4798036133</v>
       </c>
       <c r="J38" t="n">
-        <v>148.5567372888327</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2298226.207859971</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2273968.386076724</v>
-      </c>
-      <c r="M38" t="n">
-        <v>877315.4798036133</v>
-      </c>
-      <c r="N38" t="n">
         <v>877310.822616009</v>
       </c>
     </row>
@@ -2223,33 +1759,21 @@
         <v>62809723.25214972</v>
       </c>
       <c r="E39" t="n">
-        <v>17757.3006631285</v>
+        <v>63830747.75957254</v>
       </c>
       <c r="F39" t="n">
-        <v>16735.66042613983</v>
+        <v>63830607.09262532</v>
       </c>
       <c r="G39" t="n">
-        <v>63830747.75957254</v>
+        <v>2464911.500426261</v>
       </c>
       <c r="H39" t="n">
-        <v>63830607.09262532</v>
+        <v>2399986.952499111</v>
       </c>
       <c r="I39" t="n">
-        <v>140.6703393831849</v>
+        <v>862372.3337149136</v>
       </c>
       <c r="J39" t="n">
-        <v>140.6669472232461</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2464911.500426261</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2399986.952499111</v>
-      </c>
-      <c r="M39" t="n">
-        <v>862372.3337149136</v>
-      </c>
-      <c r="N39" t="n">
         <v>862368.0528222044</v>
       </c>
     </row>
@@ -2269,33 +1793,21 @@
         <v>65078467.34122866</v>
       </c>
       <c r="E40" t="n">
-        <v>259.1452713906765</v>
+        <v>64890925.12546063</v>
       </c>
       <c r="F40" t="n">
-        <v>302.0754111856222</v>
+        <v>64890775.20792327</v>
       </c>
       <c r="G40" t="n">
-        <v>64890925.12546063</v>
+        <v>2228790.452071705</v>
       </c>
       <c r="H40" t="n">
-        <v>64890775.20792327</v>
+        <v>2220470.824502671</v>
       </c>
       <c r="I40" t="n">
-        <v>149.9212293252349</v>
+        <v>891906.8397691373</v>
       </c>
       <c r="J40" t="n">
-        <v>149.9175373613834</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2228790.452071705</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2220470.824502671</v>
-      </c>
-      <c r="M40" t="n">
-        <v>891906.8397691373</v>
-      </c>
-      <c r="N40" t="n">
         <v>891902.1999666026</v>
       </c>
     </row>
@@ -2315,33 +1827,21 @@
         <v>66132838.15867721</v>
       </c>
       <c r="E41" t="n">
-        <v>6891.131739377975</v>
+        <v>65353672.12561676</v>
       </c>
       <c r="F41" t="n">
-        <v>6903.546122759581</v>
+        <v>65353519.49790646</v>
       </c>
       <c r="G41" t="n">
-        <v>65353672.12561676</v>
+        <v>2593178.60054742</v>
       </c>
       <c r="H41" t="n">
-        <v>65353519.49790646</v>
+        <v>2595677.06930609</v>
       </c>
       <c r="I41" t="n">
-        <v>152.6316286250949</v>
+        <v>898135.8079853914</v>
       </c>
       <c r="J41" t="n">
-        <v>152.6277102977037</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2593178.60054742</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2595677.06930609</v>
-      </c>
-      <c r="M41" t="n">
-        <v>898135.8079853914</v>
-      </c>
-      <c r="N41" t="n">
         <v>898131.0357125297</v>
       </c>
     </row>
@@ -2361,33 +1861,21 @@
         <v>331698019.6744288</v>
       </c>
       <c r="E42" t="n">
-        <v>3127876159.226939</v>
+        <v>64600942.47758065</v>
       </c>
       <c r="F42" t="n">
-        <v>451994.1986738443</v>
+        <v>64600788.2188273</v>
       </c>
       <c r="G42" t="n">
-        <v>64600942.47758065</v>
+        <v>531416203.6339785</v>
       </c>
       <c r="H42" t="n">
-        <v>64600788.2188273</v>
+        <v>530315477.9416847</v>
       </c>
       <c r="I42" t="n">
-        <v>154.2626663520932</v>
+        <v>901715.8041664611</v>
       </c>
       <c r="J42" t="n">
-        <v>154.2587533518672</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-5459403531.40221</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-5788793961.546515</v>
-      </c>
-      <c r="M42" t="n">
-        <v>901715.8041664611</v>
-      </c>
-      <c r="N42" t="n">
         <v>901710.846914822</v>
       </c>
     </row>
@@ -2407,33 +1895,21 @@
         <v>65314736.60381041</v>
       </c>
       <c r="E43" t="n">
-        <v>1311.014790222049</v>
+        <v>64435012.58275726</v>
       </c>
       <c r="F43" t="n">
-        <v>1310.21406313777</v>
+        <v>64434869.7989656</v>
       </c>
       <c r="G43" t="n">
-        <v>64435012.58275726</v>
+        <v>1658804.934228495</v>
       </c>
       <c r="H43" t="n">
-        <v>64434869.7989656</v>
+        <v>1657744.80653864</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7874261289835</v>
+        <v>881872.2756511031</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7837916612625</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1658804.934228495</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1657744.80653864</v>
-      </c>
-      <c r="M43" t="n">
-        <v>881872.2756511031</v>
-      </c>
-      <c r="N43" t="n">
         <v>881867.8505189791</v>
       </c>
     </row>
@@ -2453,33 +1929,21 @@
         <v>62778064.12474717</v>
       </c>
       <c r="E44" t="n">
-        <v>8850.791661962867</v>
+        <v>63530211.26401339</v>
       </c>
       <c r="F44" t="n">
-        <v>7899.723734550178</v>
+        <v>63530074.88149215</v>
       </c>
       <c r="G44" t="n">
-        <v>63530211.26401339</v>
+        <v>2846355.781007519</v>
       </c>
       <c r="H44" t="n">
-        <v>63530074.88149215</v>
+        <v>2834701.064619639</v>
       </c>
       <c r="I44" t="n">
-        <v>136.3859122544527</v>
+        <v>862238.9690139883</v>
       </c>
       <c r="J44" t="n">
-        <v>136.3825212419033</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2846355.781007519</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2834701.064619639</v>
-      </c>
-      <c r="M44" t="n">
-        <v>862238.9690139883</v>
-      </c>
-      <c r="N44" t="n">
         <v>862234.7027557053</v>
       </c>
     </row>
@@ -2499,33 +1963,21 @@
         <v>244639966.5581222</v>
       </c>
       <c r="E45" t="n">
-        <v>556682.5611526072</v>
+        <v>237694810.6148672</v>
       </c>
       <c r="F45" t="n">
-        <v>14972.15411651134</v>
+        <v>237694960.826801</v>
       </c>
       <c r="G45" t="n">
-        <v>237694810.6148672</v>
+        <v>10811320.16524776</v>
       </c>
       <c r="H45" t="n">
-        <v>237694960.826801</v>
+        <v>10578571.73811661</v>
       </c>
       <c r="I45" t="n">
-        <v>150.2102944254875</v>
+        <v>1530483.455655502</v>
       </c>
       <c r="J45" t="n">
-        <v>150.2119337916374</v>
-      </c>
-      <c r="K45" t="n">
-        <v>9142373.874374326</v>
-      </c>
-      <c r="L45" t="n">
-        <v>8903797.174372144</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1530483.455655502</v>
-      </c>
-      <c r="N45" t="n">
         <v>1530482.236780835</v>
       </c>
     </row>
@@ -2545,33 +1997,21 @@
         <v>314220941.686881</v>
       </c>
       <c r="E46" t="n">
-        <v>54406513.85689372</v>
+        <v>235833697.6093971</v>
       </c>
       <c r="F46" t="n">
-        <v>4526.673762857914</v>
+        <v>235833845.9647392</v>
       </c>
       <c r="G46" t="n">
-        <v>235833697.6093971</v>
+        <v>81387787.33724709</v>
       </c>
       <c r="H46" t="n">
-        <v>235833845.9647392</v>
+        <v>78938701.7630033</v>
       </c>
       <c r="I46" t="n">
-        <v>148.3538161814213</v>
+        <v>1524275.307569313</v>
       </c>
       <c r="J46" t="n">
-        <v>148.3553421199322</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-24807164.13547468</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-28244838.30961009</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1524275.307569313</v>
-      </c>
-      <c r="N46" t="n">
         <v>1524274.064226138</v>
       </c>
     </row>
@@ -2591,33 +2031,21 @@
         <v>67083400.2896709</v>
       </c>
       <c r="E47" t="n">
-        <v>10672520.3754461</v>
+        <v>65083007.02420274</v>
       </c>
       <c r="F47" t="n">
-        <v>36305.11204750836</v>
+        <v>65082895.23596372</v>
       </c>
       <c r="G47" t="n">
-        <v>65083007.02420274</v>
+        <v>13018670.67880704</v>
       </c>
       <c r="H47" t="n">
-        <v>65082895.23596372</v>
+        <v>11859228.25190411</v>
       </c>
       <c r="I47" t="n">
-        <v>111.7900226861238</v>
+        <v>858948.1288175122</v>
       </c>
       <c r="J47" t="n">
-        <v>111.7882390245795</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-9854000.965375595</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-10944770.99702127</v>
-      </c>
-      <c r="M47" t="n">
-        <v>858948.1288175122</v>
-      </c>
-      <c r="N47" t="n">
         <v>858945.2308605792</v>
       </c>
     </row>
@@ -2637,33 +2065,21 @@
         <v>235627707.5692888</v>
       </c>
       <c r="E48" t="n">
-        <v>5160.910334795713</v>
+        <v>234072178.0425506</v>
       </c>
       <c r="F48" t="n">
-        <v>5252.573310136795</v>
+        <v>234072309.9634335</v>
       </c>
       <c r="G48" t="n">
-        <v>234072178.0425506</v>
+        <v>5434688.862209758</v>
       </c>
       <c r="H48" t="n">
-        <v>234072309.9634335</v>
+        <v>5424763.829464996</v>
       </c>
       <c r="I48" t="n">
-        <v>131.9198406934738</v>
+        <v>1494799.829770346</v>
       </c>
       <c r="J48" t="n">
-        <v>131.9208828806877</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5434688.862209758</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5424763.829464996</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1494799.829770346</v>
-      </c>
-      <c r="N48" t="n">
         <v>1494798.73177316</v>
       </c>
     </row>
@@ -2683,33 +2099,21 @@
         <v>3.579650945931454e+21</v>
       </c>
       <c r="E49" t="n">
-        <v>5.032150651243e+22</v>
+        <v>67410079.45439079</v>
       </c>
       <c r="F49" t="n">
-        <v>2.252237626726312e+19</v>
+        <v>67409978.57143769</v>
       </c>
       <c r="G49" t="n">
-        <v>67410079.45439079</v>
+        <v>7.443824772855978e+21</v>
       </c>
       <c r="H49" t="n">
-        <v>67409978.57143769</v>
+        <v>7.474193156771444e+21</v>
       </c>
       <c r="I49" t="n">
-        <v>100.8837413340807</v>
+        <v>894094.6417941598</v>
       </c>
       <c r="J49" t="n">
-        <v>100.882953107357</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-8.656022341078716e+22</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-9.211655373938628e+22</v>
-      </c>
-      <c r="M49" t="n">
-        <v>894094.6417941598</v>
-      </c>
-      <c r="N49" t="n">
         <v>894092.4602816348</v>
       </c>
     </row>
@@ -2729,33 +2133,21 @@
         <v>435534129.520348</v>
       </c>
       <c r="E50" t="n">
-        <v>180409847.3191196</v>
+        <v>232529333.1035877</v>
       </c>
       <c r="F50" t="n">
-        <v>137389.9843045473</v>
+        <v>232529466.7060832</v>
       </c>
       <c r="G50" t="n">
-        <v>232529333.1035877</v>
+        <v>210104214.4517142</v>
       </c>
       <c r="H50" t="n">
-        <v>232529466.7060832</v>
+        <v>206992821.735686</v>
       </c>
       <c r="I50" t="n">
-        <v>133.6015188992023</v>
+        <v>1523292.389713078</v>
       </c>
       <c r="J50" t="n">
-        <v>133.6024955511093</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-131066278.8022813</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-137711956.5497252</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1523292.389713078</v>
-      </c>
-      <c r="N50" t="n">
         <v>1523291.319573205</v>
       </c>
     </row>
@@ -2775,33 +2167,21 @@
         <v>236389107.5489152</v>
       </c>
       <c r="E51" t="n">
-        <v>130.4551433622837</v>
+        <v>232934639.3017256</v>
       </c>
       <c r="F51" t="n">
-        <v>104.4431610703468</v>
+        <v>232934772.3480613</v>
       </c>
       <c r="G51" t="n">
-        <v>232934639.3017256</v>
+        <v>6194724.8330028</v>
       </c>
       <c r="H51" t="n">
-        <v>232934772.3480613</v>
+        <v>6207992.418959835</v>
       </c>
       <c r="I51" t="n">
-        <v>133.0453798770905</v>
+        <v>1530271.851072168</v>
       </c>
       <c r="J51" t="n">
-        <v>133.0463357567787</v>
-      </c>
-      <c r="K51" t="n">
-        <v>6194724.8330028</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6207992.418959835</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1530271.851072168</v>
-      </c>
-      <c r="N51" t="n">
         <v>1530270.810805156</v>
       </c>
     </row>
@@ -2821,33 +2201,21 @@
         <v>69286718.50343551</v>
       </c>
       <c r="E52" t="n">
-        <v>1477.172041192651</v>
+        <v>67917003.06185444</v>
       </c>
       <c r="F52" t="n">
-        <v>1462.59468652308</v>
+        <v>67916943.50189933</v>
       </c>
       <c r="G52" t="n">
-        <v>67917003.06185444</v>
+        <v>4449163.326021673</v>
       </c>
       <c r="H52" t="n">
-        <v>67916943.50189933</v>
+        <v>4454887.702147873</v>
       </c>
       <c r="I52" t="n">
-        <v>59.55986326932907</v>
+        <v>800937.2131633965</v>
       </c>
       <c r="J52" t="n">
-        <v>59.55995510518551</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4449163.326021673</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4454887.702147873</v>
-      </c>
-      <c r="M52" t="n">
-        <v>800937.2131633965</v>
-      </c>
-      <c r="N52" t="n">
         <v>800936.6852674773</v>
       </c>
     </row>
@@ -2867,33 +2235,21 @@
         <v>344258855.8010007</v>
       </c>
       <c r="E53" t="n">
-        <v>81122673.08909798</v>
+        <v>235867921.0715325</v>
       </c>
       <c r="F53" t="n">
-        <v>44473.37427181005</v>
+        <v>235868065.6200089</v>
       </c>
       <c r="G53" t="n">
-        <v>235867921.0715325</v>
+        <v>113446940.0977616</v>
       </c>
       <c r="H53" t="n">
-        <v>235868065.6200089</v>
+        <v>111287460.8344104</v>
       </c>
       <c r="I53" t="n">
-        <v>144.5471838712692</v>
+        <v>1541066.507897027</v>
       </c>
       <c r="J53" t="n">
-        <v>144.5484763681889</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-42500630.47871443</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-45776960.13826812</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1541066.507897027</v>
-      </c>
-      <c r="N53" t="n">
         <v>1541065.258251683</v>
       </c>
     </row>
@@ -2913,33 +2269,21 @@
         <v>65933218.624983</v>
       </c>
       <c r="E54" t="n">
-        <v>3354.4551467821</v>
+        <v>68081300.41297916</v>
       </c>
       <c r="F54" t="n">
-        <v>3310.465780362487</v>
+        <v>68081231.10813878</v>
       </c>
       <c r="G54" t="n">
-        <v>68081300.41297916</v>
+        <v>5573138.512439487</v>
       </c>
       <c r="H54" t="n">
-        <v>68081231.10813878</v>
+        <v>5565059.339664692</v>
       </c>
       <c r="I54" t="n">
-        <v>69.30507273972034</v>
+        <v>808675.8753299172</v>
       </c>
       <c r="J54" t="n">
-        <v>69.30484037101269</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5573138.512439487</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5565059.339664692</v>
-      </c>
-      <c r="M54" t="n">
-        <v>808675.8753299172</v>
-      </c>
-      <c r="N54" t="n">
         <v>808674.9077931467</v>
       </c>
     </row>
@@ -2959,33 +2303,21 @@
         <v>67282782.84762123</v>
       </c>
       <c r="E55" t="n">
-        <v>1659.535599380732</v>
+        <v>70705462.52105591</v>
       </c>
       <c r="F55" t="n">
-        <v>1657.988301113248</v>
+        <v>70705396.06861676</v>
       </c>
       <c r="G55" t="n">
-        <v>70705462.52105591</v>
+        <v>4334202.452091604</v>
       </c>
       <c r="H55" t="n">
-        <v>70705396.06861676</v>
+        <v>4328222.771349217</v>
       </c>
       <c r="I55" t="n">
-        <v>66.45249709486961</v>
+        <v>823289.6594513584</v>
       </c>
       <c r="J55" t="n">
-        <v>66.45243914425373</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4334202.452091604</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4328222.771349217</v>
-      </c>
-      <c r="M55" t="n">
-        <v>823289.6594513584</v>
-      </c>
-      <c r="N55" t="n">
         <v>823288.9149090658</v>
       </c>
     </row>
@@ -3005,33 +2337,21 @@
         <v>343596970.9805071</v>
       </c>
       <c r="E56" t="n">
-        <v>75039376.59883732</v>
+        <v>241298143.2391334</v>
       </c>
       <c r="F56" t="n">
-        <v>20858.7512306571</v>
+        <v>241298290.8740396</v>
       </c>
       <c r="G56" t="n">
-        <v>241298143.2391334</v>
+        <v>105411700.6382211</v>
       </c>
       <c r="H56" t="n">
-        <v>241298290.8740396</v>
+        <v>102762002.6360229</v>
       </c>
       <c r="I56" t="n">
-        <v>147.633571356535</v>
+        <v>1552671.966548225</v>
       </c>
       <c r="J56" t="n">
-        <v>147.6349061429501</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-39717889.11170618</v>
-      </c>
-      <c r="L56" t="n">
-        <v>-43579666.66948147</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1552671.966548225</v>
-      </c>
-      <c r="N56" t="n">
         <v>1552670.685963774</v>
       </c>
     </row>
@@ -3051,33 +2371,21 @@
         <v>69928892.64204614</v>
       </c>
       <c r="E57" t="n">
-        <v>196.109525129199</v>
+        <v>70778438.19947162</v>
       </c>
       <c r="F57" t="n">
-        <v>260.9690143465996</v>
+        <v>70778363.62216076</v>
       </c>
       <c r="G57" t="n">
-        <v>70778438.19947162</v>
+        <v>5961206.620948573</v>
       </c>
       <c r="H57" t="n">
-        <v>70778363.62216076</v>
+        <v>5950790.041992978</v>
       </c>
       <c r="I57" t="n">
-        <v>74.57765427231789</v>
+        <v>830505.1821688416</v>
       </c>
       <c r="J57" t="n">
-        <v>74.57731086015701</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5961206.620948573</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5950790.041992978</v>
-      </c>
-      <c r="M57" t="n">
-        <v>830505.1821688416</v>
-      </c>
-      <c r="N57" t="n">
         <v>830504.0739499873</v>
       </c>
     </row>
@@ -3097,33 +2405,21 @@
         <v>10340116876.29778</v>
       </c>
       <c r="E58" t="n">
-        <v>674455827.7804394</v>
+        <v>243780390.4065208</v>
       </c>
       <c r="F58" t="n">
-        <v>118253462.3635483</v>
+        <v>243780536.7186855</v>
       </c>
       <c r="G58" t="n">
-        <v>243780390.4065208</v>
+        <v>18716803175.82534</v>
       </c>
       <c r="H58" t="n">
-        <v>243780536.7186855</v>
+        <v>19782471349.97523</v>
       </c>
       <c r="I58" t="n">
-        <v>146.3108277022839</v>
+        <v>1525661.868806688</v>
       </c>
       <c r="J58" t="n">
-        <v>146.3121646940708</v>
-      </c>
-      <c r="K58" t="n">
-        <v>17337686633.56773</v>
-      </c>
-      <c r="L58" t="n">
-        <v>18396102721.63657</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1525661.868806688</v>
-      </c>
-      <c r="N58" t="n">
         <v>1525660.46944229</v>
       </c>
     </row>
@@ -3143,33 +2439,21 @@
         <v>72719136.96507184</v>
       </c>
       <c r="E59" t="n">
-        <v>6722.639290422201</v>
+        <v>71323461.11737782</v>
       </c>
       <c r="F59" t="n">
-        <v>6111.430935397744</v>
+        <v>71323380.12239826</v>
       </c>
       <c r="G59" t="n">
-        <v>71323461.11737782</v>
+        <v>5137754.404713387</v>
       </c>
       <c r="H59" t="n">
-        <v>71323380.12239826</v>
+        <v>5125973.709587727</v>
       </c>
       <c r="I59" t="n">
-        <v>80.99555273354053</v>
+        <v>840394.6629091408</v>
       </c>
       <c r="J59" t="n">
-        <v>80.99497956037521</v>
-      </c>
-      <c r="K59" t="n">
-        <v>5137754.404713387</v>
-      </c>
-      <c r="L59" t="n">
-        <v>5125973.709587727</v>
-      </c>
-      <c r="M59" t="n">
-        <v>840394.6629091408</v>
-      </c>
-      <c r="N59" t="n">
         <v>840393.2672173135</v>
       </c>
     </row>
@@ -3189,33 +2473,21 @@
         <v>7.323731809014352e+20</v>
       </c>
       <c r="E60" t="n">
-        <v>5.311321998321844e+19</v>
+        <v>73623842.94482964</v>
       </c>
       <c r="F60" t="n">
-        <v>8.560094006565011e+18</v>
+        <v>73623746.3291112</v>
       </c>
       <c r="G60" t="n">
-        <v>73623842.94482964</v>
+        <v>1.361462141581984e+21</v>
       </c>
       <c r="H60" t="n">
-        <v>73623746.3291112</v>
+        <v>1.440717184152278e+21</v>
       </c>
       <c r="I60" t="n">
-        <v>96.6164685189724</v>
+        <v>897769.6894424153</v>
       </c>
       <c r="J60" t="n">
-        <v>96.61571843922138</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1.253678888979604e+21</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.332161917679537e+21</v>
-      </c>
-      <c r="M60" t="n">
-        <v>897769.6894424153</v>
-      </c>
-      <c r="N60" t="n">
         <v>897767.7715559384</v>
       </c>
     </row>
@@ -3235,33 +2507,21 @@
         <v>73365291.94788989</v>
       </c>
       <c r="E61" t="n">
-        <v>8034.124158188701</v>
+        <v>72998001.65473163</v>
       </c>
       <c r="F61" t="n">
-        <v>7152.472776740789</v>
+        <v>72997934.83376873</v>
       </c>
       <c r="G61" t="n">
-        <v>72998001.65473163</v>
+        <v>7791460.418807282</v>
       </c>
       <c r="H61" t="n">
-        <v>72997934.83376873</v>
+        <v>7768883.0646724</v>
       </c>
       <c r="I61" t="n">
-        <v>66.82103672623634</v>
+        <v>831231.0412470907</v>
       </c>
       <c r="J61" t="n">
-        <v>66.82096290588379</v>
-      </c>
-      <c r="K61" t="n">
-        <v>7791460.418807282</v>
-      </c>
-      <c r="L61" t="n">
-        <v>7768883.0646724</v>
-      </c>
-      <c r="M61" t="n">
-        <v>831231.0412470907</v>
-      </c>
-      <c r="N61" t="n">
         <v>831230.2931311887</v>
       </c>
     </row>
@@ -3281,33 +2541,21 @@
         <v>256662539.2789151</v>
       </c>
       <c r="E62" t="n">
-        <v>48214.29974317551</v>
+        <v>247043890.2859325</v>
       </c>
       <c r="F62" t="n">
-        <v>58400.06862530112</v>
+        <v>247044041.6835595</v>
       </c>
       <c r="G62" t="n">
-        <v>247043890.2859325</v>
+        <v>17830628.75925432</v>
       </c>
       <c r="H62" t="n">
-        <v>247044041.6835595</v>
+        <v>17850375.41559733</v>
       </c>
       <c r="I62" t="n">
-        <v>151.3961392939091</v>
+        <v>1538623.92999399</v>
       </c>
       <c r="J62" t="n">
-        <v>151.3976269960403</v>
-      </c>
-      <c r="K62" t="n">
-        <v>17830628.75925432</v>
-      </c>
-      <c r="L62" t="n">
-        <v>17850375.41559733</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1538623.92999399</v>
-      </c>
-      <c r="N62" t="n">
         <v>1538622.43096091</v>
       </c>
     </row>
@@ -3327,33 +2575,21 @@
         <v>77063433.03213166</v>
       </c>
       <c r="E63" t="n">
-        <v>9690.664854839444</v>
+        <v>75152196.25059018</v>
       </c>
       <c r="F63" t="n">
-        <v>9350.687404736876</v>
+        <v>75152122.53948592</v>
       </c>
       <c r="G63" t="n">
-        <v>75152196.25059018</v>
+        <v>6065628.450466415</v>
       </c>
       <c r="H63" t="n">
-        <v>75152122.53948592</v>
+        <v>6037606.457472252</v>
       </c>
       <c r="I63" t="n">
-        <v>73.71120324730873</v>
+        <v>865633.7407562868</v>
       </c>
       <c r="J63" t="n">
-        <v>73.71110425889492</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6065628.450466415</v>
-      </c>
-      <c r="L63" t="n">
-        <v>6037606.457472252</v>
-      </c>
-      <c r="M63" t="n">
-        <v>865633.7407562868</v>
-      </c>
-      <c r="N63" t="n">
         <v>865632.818539349</v>
       </c>
     </row>
@@ -3373,33 +2609,21 @@
         <v>259258484.4661779</v>
       </c>
       <c r="E64" t="n">
-        <v>55568.57840353251</v>
+        <v>247828682.6242904</v>
       </c>
       <c r="F64" t="n">
-        <v>66545.18700349331</v>
+        <v>247828833.5910293</v>
       </c>
       <c r="G64" t="n">
-        <v>247828682.6242904</v>
+        <v>19969111.90707397</v>
       </c>
       <c r="H64" t="n">
-        <v>247828833.5910293</v>
+        <v>19996374.30970152</v>
       </c>
       <c r="I64" t="n">
-        <v>150.9652781784534</v>
+        <v>1548775.084249189</v>
       </c>
       <c r="J64" t="n">
-        <v>150.9667388796806</v>
-      </c>
-      <c r="K64" t="n">
-        <v>19969111.90707397</v>
-      </c>
-      <c r="L64" t="n">
-        <v>19996374.30970152</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1548775.084249189</v>
-      </c>
-      <c r="N64" t="n">
         <v>1548773.620619255</v>
       </c>
     </row>
@@ -3419,33 +2643,21 @@
         <v>379436051.4144735</v>
       </c>
       <c r="E65" t="n">
-        <v>104399630.550124</v>
+        <v>247649253.3500957</v>
       </c>
       <c r="F65" t="n">
-        <v>47580.35066533089</v>
+        <v>247649409.9848392</v>
       </c>
       <c r="G65" t="n">
-        <v>247649253.3500957</v>
+        <v>136295336.8946146</v>
       </c>
       <c r="H65" t="n">
-        <v>247649409.9848392</v>
+        <v>133053237.3014089</v>
       </c>
       <c r="I65" t="n">
-        <v>156.6331793665886</v>
+        <v>1582951.905430267</v>
       </c>
       <c r="J65" t="n">
-        <v>156.6347435116768</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-64105656.32715993</v>
-      </c>
-      <c r="L65" t="n">
-        <v>-69200482.95443714</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1582951.905430267</v>
-      </c>
-      <c r="N65" t="n">
         <v>1582950.474235022</v>
       </c>
     </row>
@@ -3465,33 +2677,21 @@
         <v>75756070.29262988</v>
       </c>
       <c r="E66" t="n">
-        <v>6273.207592949271</v>
+        <v>74863879.91188975</v>
       </c>
       <c r="F66" t="n">
-        <v>5851.844990387559</v>
+        <v>74863811.40353501</v>
       </c>
       <c r="G66" t="n">
-        <v>74863879.91188975</v>
+        <v>6448401.46906366</v>
       </c>
       <c r="H66" t="n">
-        <v>74863811.40353501</v>
+        <v>6430905.256111233</v>
       </c>
       <c r="I66" t="n">
-        <v>68.50844305753708</v>
+        <v>844303.0828829816</v>
       </c>
       <c r="J66" t="n">
-        <v>68.50835473835468</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6448401.46906366</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6430905.256111233</v>
-      </c>
-      <c r="M66" t="n">
-        <v>844303.0828829816</v>
-      </c>
-      <c r="N66" t="n">
         <v>844302.2926469283</v>
       </c>
     </row>
@@ -3511,33 +2711,21 @@
         <v>78735993.54476029</v>
       </c>
       <c r="E67" t="n">
-        <v>1135.350402891636</v>
+        <v>77025955.70918648</v>
       </c>
       <c r="F67" t="n">
-        <v>1118.007049769163</v>
+        <v>77025872.78134225</v>
       </c>
       <c r="G67" t="n">
-        <v>77025955.70918648</v>
+        <v>6006767.515044961</v>
       </c>
       <c r="H67" t="n">
-        <v>77025872.78134225</v>
+        <v>6021200.228819169</v>
       </c>
       <c r="I67" t="n">
-        <v>82.92807240784168</v>
+        <v>898513.1677765889</v>
       </c>
       <c r="J67" t="n">
-        <v>82.92784422636032</v>
-      </c>
-      <c r="K67" t="n">
-        <v>6006767.515044961</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6021200.228819169</v>
-      </c>
-      <c r="M67" t="n">
-        <v>898513.1677765889</v>
-      </c>
-      <c r="N67" t="n">
         <v>898511.9194759787</v>
       </c>
     </row>
@@ -3557,33 +2745,21 @@
         <v>78271816.5365805</v>
       </c>
       <c r="E68" t="n">
-        <v>29034.24729919434</v>
+        <v>77134976.18341517</v>
       </c>
       <c r="F68" t="n">
-        <v>27991.80840015411</v>
+        <v>77134892.80905849</v>
       </c>
       <c r="G68" t="n">
-        <v>77134976.18341517</v>
+        <v>8374070.311364141</v>
       </c>
       <c r="H68" t="n">
-        <v>77134892.80905849</v>
+        <v>8249794.74401268</v>
       </c>
       <c r="I68" t="n">
-        <v>83.37460085749626</v>
+        <v>898944.8215840545</v>
       </c>
       <c r="J68" t="n">
-        <v>83.37435668706894</v>
-      </c>
-      <c r="K68" t="n">
-        <v>8372196.360966318</v>
-      </c>
-      <c r="L68" t="n">
-        <v>8247296.143482249</v>
-      </c>
-      <c r="M68" t="n">
-        <v>898944.8215840545</v>
-      </c>
-      <c r="N68" t="n">
         <v>898943.5507202804</v>
       </c>
     </row>
@@ -3603,33 +2779,21 @@
         <v>79405672.42044546</v>
       </c>
       <c r="E69" t="n">
-        <v>7296.320359945297</v>
+        <v>77024470.51872435</v>
       </c>
       <c r="F69" t="n">
-        <v>7164.834483593702</v>
+        <v>77024397.70546541</v>
       </c>
       <c r="G69" t="n">
-        <v>77024470.51872435</v>
+        <v>6011191.821497404</v>
       </c>
       <c r="H69" t="n">
-        <v>77024397.70546541</v>
+        <v>5990443.519873668</v>
       </c>
       <c r="I69" t="n">
-        <v>72.81332109868526</v>
+        <v>871731.1873860804</v>
       </c>
       <c r="J69" t="n">
-        <v>72.81325894594193</v>
-      </c>
-      <c r="K69" t="n">
-        <v>6011191.821497404</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5990443.519873668</v>
-      </c>
-      <c r="M69" t="n">
-        <v>871731.1873860804</v>
-      </c>
-      <c r="N69" t="n">
         <v>871730.315287669</v>
       </c>
     </row>
@@ -3649,33 +2813,21 @@
         <v>19277930444.77804</v>
       </c>
       <c r="E70" t="n">
-        <v>1294405427.186554</v>
+        <v>251344384.1289542</v>
       </c>
       <c r="F70" t="n">
-        <v>222779957.5499268</v>
+        <v>251344541.5399325</v>
       </c>
       <c r="G70" t="n">
-        <v>251344384.1289542</v>
+        <v>35296311565.94016</v>
       </c>
       <c r="H70" t="n">
-        <v>251344541.5399325</v>
+        <v>37318919939.02222</v>
       </c>
       <c r="I70" t="n">
-        <v>157.4093671739101</v>
+        <v>1563183.968853079</v>
       </c>
       <c r="J70" t="n">
-        <v>157.4109783768654</v>
-      </c>
-      <c r="K70" t="n">
-        <v>32651894794.73934</v>
-      </c>
-      <c r="L70" t="n">
-        <v>34659208120.92422</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1563183.968853079</v>
-      </c>
-      <c r="N70" t="n">
         <v>1563182.378440626</v>
       </c>
     </row>
@@ -3695,33 +2847,21 @@
         <v>355257751.1334304</v>
       </c>
       <c r="E71" t="n">
-        <v>77085203.01225758</v>
+        <v>251070757.542416</v>
       </c>
       <c r="F71" t="n">
-        <v>25083.65095895529</v>
+        <v>251070919.4719278</v>
       </c>
       <c r="G71" t="n">
-        <v>251070757.542416</v>
+        <v>108769406.8962945</v>
       </c>
       <c r="H71" t="n">
-        <v>251070919.4719278</v>
+        <v>106006093.688245</v>
       </c>
       <c r="I71" t="n">
-        <v>161.927850663662</v>
+        <v>1595063.356473218</v>
       </c>
       <c r="J71" t="n">
-        <v>161.9295118451118</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-40432594.54635634</v>
-      </c>
-      <c r="L71" t="n">
-        <v>-44416123.15403</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1595063.356473218</v>
-      </c>
-      <c r="N71" t="n">
         <v>1595061.82067709</v>
       </c>
     </row>
@@ -3741,33 +2881,21 @@
         <v>79372651.60819258</v>
       </c>
       <c r="E72" t="n">
-        <v>188.9114742875099</v>
+        <v>76636565.3048867</v>
       </c>
       <c r="F72" t="n">
-        <v>235.3242430239916</v>
+        <v>76636504.49269147</v>
       </c>
       <c r="G72" t="n">
-        <v>76636565.3048867</v>
+        <v>5413070.323724893</v>
       </c>
       <c r="H72" t="n">
-        <v>76636504.49269147</v>
+        <v>5393620.011014695</v>
       </c>
       <c r="I72" t="n">
-        <v>60.81207247078419</v>
+        <v>838755.9282658816</v>
       </c>
       <c r="J72" t="n">
-        <v>60.8121952265501</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5413070.323724893</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5393620.011014695</v>
-      </c>
-      <c r="M72" t="n">
-        <v>838755.9282658816</v>
-      </c>
-      <c r="N72" t="n">
         <v>838755.4505337939</v>
       </c>
     </row>
@@ -3787,33 +2915,21 @@
         <v>86187719.67463848</v>
       </c>
       <c r="E73" t="n">
-        <v>38173.85684378445</v>
+        <v>76607885.25430757</v>
       </c>
       <c r="F73" t="n">
-        <v>56094.1036940068</v>
+        <v>76607821.28316359</v>
       </c>
       <c r="G73" t="n">
-        <v>76607885.25430757</v>
+        <v>12516938.58811823</v>
       </c>
       <c r="H73" t="n">
-        <v>76607821.28316359</v>
+        <v>12696637.9431297</v>
       </c>
       <c r="I73" t="n">
-        <v>63.97109851241112</v>
+        <v>843999.3510318322</v>
       </c>
       <c r="J73" t="n">
-        <v>63.97114397585392</v>
-      </c>
-      <c r="K73" t="n">
-        <v>12516938.58811823</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12696637.9431297</v>
-      </c>
-      <c r="M73" t="n">
-        <v>843999.3510318322</v>
-      </c>
-      <c r="N73" t="n">
         <v>843998.7529500107</v>
       </c>
     </row>
@@ -3833,33 +2949,21 @@
         <v>80974818.33373639</v>
       </c>
       <c r="E74" t="n">
-        <v>5495.202316060662</v>
+        <v>76688272.18466917</v>
       </c>
       <c r="F74" t="n">
-        <v>5196.191679343581</v>
+        <v>76688208.17393202</v>
       </c>
       <c r="G74" t="n">
-        <v>76688272.18466917</v>
+        <v>3688829.812180378</v>
       </c>
       <c r="H74" t="n">
-        <v>76688208.17393202</v>
+        <v>3685876.816349539</v>
       </c>
       <c r="I74" t="n">
-        <v>64.01068933308125</v>
+        <v>845340.1598532724</v>
       </c>
       <c r="J74" t="n">
-        <v>64.01073715090752</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3688829.812180378</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3685876.816349539</v>
-      </c>
-      <c r="M74" t="n">
-        <v>845340.1598532724</v>
-      </c>
-      <c r="N74" t="n">
         <v>845339.5668265561</v>
       </c>
     </row>
@@ -3879,33 +2983,21 @@
         <v>81176566.4347205</v>
       </c>
       <c r="E75" t="n">
-        <v>5704.460857912898</v>
+        <v>76819859.18069535</v>
       </c>
       <c r="F75" t="n">
-        <v>5373.496551290154</v>
+        <v>76819794.90197979</v>
       </c>
       <c r="G75" t="n">
-        <v>76819859.18069535</v>
+        <v>3720822.41967768</v>
       </c>
       <c r="H75" t="n">
-        <v>76819794.90197979</v>
+        <v>3717849.506124928</v>
       </c>
       <c r="I75" t="n">
-        <v>64.27867810428143</v>
+        <v>846051.3289454976</v>
       </c>
       <c r="J75" t="n">
-        <v>64.27871556580067</v>
-      </c>
-      <c r="K75" t="n">
-        <v>3720822.41967768</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3717849.506124928</v>
-      </c>
-      <c r="M75" t="n">
-        <v>846051.3289454976</v>
-      </c>
-      <c r="N75" t="n">
         <v>846050.7262937948</v>
       </c>
     </row>
@@ -3925,33 +3017,21 @@
         <v>81278597.04073483</v>
       </c>
       <c r="E76" t="n">
-        <v>5663.849074527621</v>
+        <v>76965019.51756117</v>
       </c>
       <c r="F76" t="n">
-        <v>5338.798043221235</v>
+        <v>76964955.14746369</v>
       </c>
       <c r="G76" t="n">
-        <v>76965019.51756117</v>
+        <v>3713703.094367126</v>
       </c>
       <c r="H76" t="n">
-        <v>76964955.14746369</v>
+        <v>3710702.282154903</v>
       </c>
       <c r="I76" t="n">
-        <v>64.37007302045822</v>
+        <v>844741.6268445863</v>
       </c>
       <c r="J76" t="n">
-        <v>64.37009747326374</v>
-      </c>
-      <c r="K76" t="n">
-        <v>3713703.094367126</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3710702.282154903</v>
-      </c>
-      <c r="M76" t="n">
-        <v>844741.6268445863</v>
-      </c>
-      <c r="N76" t="n">
         <v>844741.0109321557</v>
       </c>
     </row>
@@ -3971,33 +3051,21 @@
         <v>340083430031.6326</v>
       </c>
       <c r="E77" t="n">
-        <v>4753731602645.174</v>
+        <v>78997911.6519891</v>
       </c>
       <c r="F77" t="n">
-        <v>2249825211.442017</v>
+        <v>78997831.95880902</v>
       </c>
       <c r="G77" t="n">
-        <v>78997911.6519891</v>
+        <v>710531881522.3441</v>
       </c>
       <c r="H77" t="n">
-        <v>78997831.95880902</v>
+        <v>715474128102.5088</v>
       </c>
       <c r="I77" t="n">
-        <v>79.69330139458179</v>
+        <v>901775.3882119491</v>
       </c>
       <c r="J77" t="n">
-        <v>79.69318008422852</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-8219455166502.813</v>
-      </c>
-      <c r="L77" t="n">
-        <v>-8734590099783.562</v>
-      </c>
-      <c r="M77" t="n">
-        <v>901775.3882119491</v>
-      </c>
-      <c r="N77" t="n">
         <v>901774.2919263691</v>
       </c>
     </row>
@@ -4017,33 +3085,21 @@
         <v>340083430031.6326</v>
       </c>
       <c r="E78" t="n">
-        <v>4753731602645.174</v>
+        <v>78997911.6519891</v>
       </c>
       <c r="F78" t="n">
-        <v>2249825211.442017</v>
+        <v>78997831.95880902</v>
       </c>
       <c r="G78" t="n">
-        <v>78997911.6519891</v>
+        <v>710531881522.3441</v>
       </c>
       <c r="H78" t="n">
-        <v>78997831.95880902</v>
+        <v>715474128102.5088</v>
       </c>
       <c r="I78" t="n">
-        <v>79.69330139458179</v>
+        <v>901775.3882119491</v>
       </c>
       <c r="J78" t="n">
-        <v>79.69318008422852</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-8219455166502.813</v>
-      </c>
-      <c r="L78" t="n">
-        <v>-8734590099783.562</v>
-      </c>
-      <c r="M78" t="n">
-        <v>901775.3882119491</v>
-      </c>
-      <c r="N78" t="n">
         <v>901774.2919263691</v>
       </c>
     </row>
@@ -4063,33 +3119,21 @@
         <v>1.101469273308377e+24</v>
       </c>
       <c r="E79" t="n">
-        <v>7.988086139153374e+22</v>
+        <v>78661573.85589813</v>
       </c>
       <c r="F79" t="n">
-        <v>1.287414764743168e+22</v>
+        <v>78661504.37807977</v>
       </c>
       <c r="G79" t="n">
-        <v>78661573.85589813</v>
+        <v>2.047601925044175e+24</v>
       </c>
       <c r="H79" t="n">
-        <v>78661504.37807977</v>
+        <v>2.166799356617011e+24</v>
       </c>
       <c r="I79" t="n">
-        <v>69.47777386009693</v>
+        <v>874775.9328889172</v>
       </c>
       <c r="J79" t="n">
-        <v>69.47781835496426</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1.88549880455028e+24</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.003535146703756e+24</v>
-      </c>
-      <c r="M79" t="n">
-        <v>874775.9328889172</v>
-      </c>
-      <c r="N79" t="n">
         <v>874775.2146152164</v>
       </c>
     </row>
@@ -4109,33 +3153,21 @@
         <v>1.156137192252645e+24</v>
       </c>
       <c r="E80" t="n">
-        <v>8.384549352360958e+22</v>
+        <v>78735940.04529241</v>
       </c>
       <c r="F80" t="n">
-        <v>1.351311495867969e+22</v>
+        <v>78735870.68177113</v>
       </c>
       <c r="G80" t="n">
-        <v>78735940.04529241</v>
+        <v>2.14922812451951e+24</v>
       </c>
       <c r="H80" t="n">
-        <v>78735870.68177113</v>
+        <v>2.274341540943726e+24</v>
       </c>
       <c r="I80" t="n">
-        <v>69.363475933671</v>
+        <v>874233.4941729933</v>
       </c>
       <c r="J80" t="n">
-        <v>69.36352127790451</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1.979079531947118e+24</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.102974231976078e+24</v>
-      </c>
-      <c r="M80" t="n">
-        <v>874233.4941729933</v>
-      </c>
-      <c r="N80" t="n">
         <v>874232.7767779082</v>
       </c>
     </row>
@@ -4155,33 +3187,21 @@
         <v>1.156137192252645e+24</v>
       </c>
       <c r="E81" t="n">
-        <v>8.384549352360958e+22</v>
+        <v>78735940.04529241</v>
       </c>
       <c r="F81" t="n">
-        <v>1.351311495867969e+22</v>
+        <v>78735870.68177113</v>
       </c>
       <c r="G81" t="n">
-        <v>78735940.04529241</v>
+        <v>2.14922812451951e+24</v>
       </c>
       <c r="H81" t="n">
-        <v>78735870.68177113</v>
+        <v>2.274341540943726e+24</v>
       </c>
       <c r="I81" t="n">
-        <v>69.363475933671</v>
+        <v>874233.4941729933</v>
       </c>
       <c r="J81" t="n">
-        <v>69.36352127790451</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.979079531947118e+24</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.102974231976078e+24</v>
-      </c>
-      <c r="M81" t="n">
-        <v>874233.4941729933</v>
-      </c>
-      <c r="N81" t="n">
         <v>874232.7767779082</v>
       </c>
     </row>
@@ -4201,33 +3221,21 @@
         <v>1.168215639067222e+24</v>
       </c>
       <c r="E82" t="n">
-        <v>8.472144781772131e+22</v>
+        <v>78779978.94327348</v>
       </c>
       <c r="F82" t="n">
-        <v>1.365428976163911e+22</v>
+        <v>78779909.68911216</v>
       </c>
       <c r="G82" t="n">
-        <v>78779978.94327348</v>
+        <v>2.171681634165348e+24</v>
       </c>
       <c r="H82" t="n">
-        <v>78779909.68911216</v>
+        <v>2.298102140922695e+24</v>
       </c>
       <c r="I82" t="n">
-        <v>69.25411289930344</v>
+        <v>874004.1306471785</v>
       </c>
       <c r="J82" t="n">
-        <v>69.25416132807732</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.999755457801952e+24</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.12494451593686e+24</v>
-      </c>
-      <c r="M82" t="n">
-        <v>874004.1306471785</v>
-      </c>
-      <c r="N82" t="n">
         <v>874003.4157871805</v>
       </c>
     </row>
@@ -4247,33 +3255,21 @@
         <v>1.168215639067222e+24</v>
       </c>
       <c r="E83" t="n">
-        <v>8.472144781772131e+22</v>
+        <v>78779978.94327348</v>
       </c>
       <c r="F83" t="n">
-        <v>1.365428976163911e+22</v>
+        <v>78779909.68911216</v>
       </c>
       <c r="G83" t="n">
-        <v>78779978.94327348</v>
+        <v>2.171681634165348e+24</v>
       </c>
       <c r="H83" t="n">
-        <v>78779909.68911216</v>
+        <v>2.298102140922695e+24</v>
       </c>
       <c r="I83" t="n">
-        <v>69.25411289930344</v>
+        <v>874004.1306471785</v>
       </c>
       <c r="J83" t="n">
-        <v>69.25416132807732</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1.999755457801952e+24</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.12494451593686e+24</v>
-      </c>
-      <c r="M83" t="n">
-        <v>874004.1306471785</v>
-      </c>
-      <c r="N83" t="n">
         <v>874003.4157871805</v>
       </c>
     </row>
@@ -4293,33 +3289,21 @@
         <v>1.109992747196979e+24</v>
       </c>
       <c r="E84" t="n">
-        <v>8.049900159361899e+22</v>
+        <v>78838666.05341357</v>
       </c>
       <c r="F84" t="n">
-        <v>1.297377136272381e+22</v>
+        <v>78838595.24767175</v>
       </c>
       <c r="G84" t="n">
-        <v>78838666.05341357</v>
+        <v>2.06344683508148e+24</v>
       </c>
       <c r="H84" t="n">
-        <v>78838595.24767175</v>
+        <v>2.183566649349361e+24</v>
       </c>
       <c r="I84" t="n">
-        <v>70.80573706328869</v>
+        <v>875622.9870314616</v>
       </c>
       <c r="J84" t="n">
-        <v>70.80574181675911</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1.900089315800963e+24</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.019039055818194e+24</v>
-      </c>
-      <c r="M84" t="n">
-        <v>875622.9870314616</v>
-      </c>
-      <c r="N84" t="n">
         <v>875622.204826917</v>
       </c>
     </row>
@@ -4339,33 +3323,21 @@
         <v>1.141246555451864e+24</v>
       </c>
       <c r="E85" t="n">
-        <v>8.276559331412779e+22</v>
+        <v>78813651.31518421</v>
       </c>
       <c r="F85" t="n">
-        <v>1.333907083291647e+22</v>
+        <v>78813580.70138982</v>
       </c>
       <c r="G85" t="n">
-        <v>78813651.31518421</v>
+        <v>2.121546828887935e+24</v>
       </c>
       <c r="H85" t="n">
-        <v>78813580.70138982</v>
+        <v>2.245048828901209e+24</v>
       </c>
       <c r="I85" t="n">
-        <v>70.61378264427185</v>
+        <v>875711.3208116721</v>
       </c>
       <c r="J85" t="n">
-        <v>70.61379438638687</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1.953589689820964e+24</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.075888670073867e+24</v>
-      </c>
-      <c r="M85" t="n">
-        <v>875711.3208116721</v>
-      </c>
-      <c r="N85" t="n">
         <v>875710.548873767</v>
       </c>
     </row>
@@ -4385,33 +3357,21 @@
         <v>1.141246555451864e+24</v>
       </c>
       <c r="E86" t="n">
-        <v>8.276559331412779e+22</v>
+        <v>78813651.31518421</v>
       </c>
       <c r="F86" t="n">
-        <v>1.333907083291647e+22</v>
+        <v>78813580.70138982</v>
       </c>
       <c r="G86" t="n">
-        <v>78813651.31518421</v>
+        <v>2.121546828887935e+24</v>
       </c>
       <c r="H86" t="n">
-        <v>78813580.70138982</v>
+        <v>2.245048828901209e+24</v>
       </c>
       <c r="I86" t="n">
-        <v>70.61378264427185</v>
+        <v>875711.3208116721</v>
       </c>
       <c r="J86" t="n">
-        <v>70.61379438638687</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1.953589689820964e+24</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.075888670073867e+24</v>
-      </c>
-      <c r="M86" t="n">
-        <v>875711.3208116721</v>
-      </c>
-      <c r="N86" t="n">
         <v>875710.548873767</v>
       </c>
     </row>
@@ -4431,33 +3391,21 @@
         <v>1.168216248000476e+24</v>
       </c>
       <c r="E87" t="n">
-        <v>8.472149197901649e+22</v>
+        <v>78772132.33226147</v>
       </c>
       <c r="F87" t="n">
-        <v>1.365429687893652e+22</v>
+        <v>78772061.94465521</v>
       </c>
       <c r="G87" t="n">
-        <v>78772132.33226147</v>
+        <v>2.171682766155495e+24</v>
       </c>
       <c r="H87" t="n">
-        <v>78772061.94465521</v>
+        <v>2.298103338809676e+24</v>
       </c>
       <c r="I87" t="n">
-        <v>70.38758729398251</v>
+        <v>875782.8365035767</v>
       </c>
       <c r="J87" t="n">
-        <v>70.38760626316071</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1.999756500175251e+24</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.124945623565017e+24</v>
-      </c>
-      <c r="M87" t="n">
-        <v>875782.8365035767</v>
-      </c>
-      <c r="N87" t="n">
         <v>875782.0771973467</v>
       </c>
     </row>
@@ -4477,33 +3425,21 @@
         <v>1.141345143481907e+24</v>
       </c>
       <c r="E88" t="n">
-        <v>8.277274312482697e+22</v>
+        <v>78821883.67663825</v>
       </c>
       <c r="F88" t="n">
-        <v>1.334022314545538e+22</v>
+        <v>78821813.00195715</v>
       </c>
       <c r="G88" t="n">
-        <v>78821883.67663825</v>
+        <v>2.121730101399503e+24</v>
       </c>
       <c r="H88" t="n">
-        <v>78821813.00195715</v>
+        <v>2.24524277028958e+24</v>
       </c>
       <c r="I88" t="n">
-        <v>70.67466962337494</v>
+        <v>876297.8280611113</v>
       </c>
       <c r="J88" t="n">
-        <v>70.67468109726906</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.953758453142164e+24</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.076067998347481e+24</v>
-      </c>
-      <c r="M88" t="n">
-        <v>876297.8280611113</v>
-      </c>
-      <c r="N88" t="n">
         <v>876297.0565538598</v>
       </c>
     </row>
@@ -4523,33 +3459,21 @@
         <v>78537937.19872507</v>
       </c>
       <c r="E89" t="n">
-        <v>10800.11831508577</v>
+        <v>78748427.21620819</v>
       </c>
       <c r="F89" t="n">
-        <v>10487.72362157702</v>
+        <v>78748356.33835171</v>
       </c>
       <c r="G89" t="n">
-        <v>78748427.21620819</v>
+        <v>8652253.876317471</v>
       </c>
       <c r="H89" t="n">
-        <v>78748356.33835171</v>
+        <v>8629930.767345523</v>
       </c>
       <c r="I89" t="n">
-        <v>70.8778453618288</v>
+        <v>877794.7722989925</v>
       </c>
       <c r="J89" t="n">
-        <v>70.87785647809505</v>
-      </c>
-      <c r="K89" t="n">
-        <v>8652253.876317471</v>
-      </c>
-      <c r="L89" t="n">
-        <v>8629930.767345523</v>
-      </c>
-      <c r="M89" t="n">
-        <v>877794.7722989925</v>
-      </c>
-      <c r="N89" t="n">
         <v>877794.0010847012</v>
       </c>
     </row>
@@ -4569,33 +3493,21 @@
         <v>346885493385.7392</v>
       </c>
       <c r="E90" t="n">
-        <v>4850419238390.404</v>
+        <v>79077837.43840663</v>
       </c>
       <c r="F90" t="n">
-        <v>2296042338.058472</v>
+        <v>79077756.90157826</v>
       </c>
       <c r="G90" t="n">
-        <v>79077837.43840663</v>
+        <v>724800293390.2115</v>
       </c>
       <c r="H90" t="n">
-        <v>79077756.90157826</v>
+        <v>729839528240.382</v>
       </c>
       <c r="I90" t="n">
-        <v>80.53697073459625</v>
+        <v>903267.8214262496</v>
       </c>
       <c r="J90" t="n">
-        <v>80.53682836890221</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-8386803438702.883</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-8912409781145.361</v>
-      </c>
-      <c r="M90" t="n">
-        <v>903267.8214262496</v>
-      </c>
-      <c r="N90" t="n">
         <v>903266.6883148242</v>
       </c>
     </row>
@@ -4615,33 +3527,21 @@
         <v>1.102284920136494e+24</v>
       </c>
       <c r="E91" t="n">
-        <v>7.994001374988202e+22</v>
+        <v>79139954.58450712</v>
       </c>
       <c r="F91" t="n">
-        <v>1.28836810556496e+22</v>
+        <v>79139875.35532461</v>
       </c>
       <c r="G91" t="n">
-        <v>79139954.58450712</v>
+        <v>2.04911819058476e+24</v>
       </c>
       <c r="H91" t="n">
-        <v>79139875.35532461</v>
+        <v>2.168403888806627e+24</v>
       </c>
       <c r="I91" t="n">
-        <v>79.22928433120251</v>
+        <v>903061.6703619391</v>
       </c>
       <c r="J91" t="n">
-        <v>79.22918251156807</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1.886895031539772e+24</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.005018780550949e+24</v>
-      </c>
-      <c r="M91" t="n">
-        <v>903061.6703619391</v>
-      </c>
-      <c r="N91" t="n">
         <v>903060.6015232155</v>
       </c>
     </row>
@@ -4661,33 +3561,21 @@
         <v>1.102232682746315e+24</v>
       </c>
       <c r="E92" t="n">
-        <v>7.993622544653816e+22</v>
+        <v>79113004.82907519</v>
       </c>
       <c r="F92" t="n">
-        <v>1.288307049802207e+22</v>
+        <v>79112924.66820616</v>
       </c>
       <c r="G92" t="n">
-        <v>79113004.82907519</v>
+        <v>2.049021082773828e+24</v>
       </c>
       <c r="H92" t="n">
-        <v>79112924.66820616</v>
+        <v>2.168301128039294e+24</v>
       </c>
       <c r="I92" t="n">
-        <v>80.16099789738655</v>
+        <v>903899.3090670551</v>
       </c>
       <c r="J92" t="n">
-        <v>80.16086903214455</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.886805611388372e+24</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.004923762503315e+24</v>
-      </c>
-      <c r="M92" t="n">
-        <v>903899.3090670551</v>
-      </c>
-      <c r="N92" t="n">
         <v>903898.1985763835</v>
       </c>
     </row>
@@ -4707,33 +3595,21 @@
         <v>1.109703241033526e+24</v>
       </c>
       <c r="E93" t="n">
-        <v>8.047800600085746e+22</v>
+        <v>79069319.04734948</v>
       </c>
       <c r="F93" t="n">
-        <v>1.29703875687005e+22</v>
+        <v>79069238.78829129</v>
       </c>
       <c r="G93" t="n">
-        <v>79069319.04734948</v>
+        <v>2.062908650864003e+24</v>
       </c>
       <c r="H93" t="n">
-        <v>79069238.78829129</v>
+        <v>2.182997135713625e+24</v>
       </c>
       <c r="I93" t="n">
-        <v>80.25919039547443</v>
+        <v>904087.4110469243</v>
       </c>
       <c r="J93" t="n">
-        <v>80.25905819237232</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.899593738174224e+24</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.018512453949773e+24</v>
-      </c>
-      <c r="M93" t="n">
-        <v>904087.4110469243</v>
-      </c>
-      <c r="N93" t="n">
         <v>904086.2983608005</v>
       </c>
     </row>
@@ -4753,33 +3629,21 @@
         <v>1.109663851649995e+24</v>
       </c>
       <c r="E94" t="n">
-        <v>8.047514939243183e+22</v>
+        <v>79088127.43970311</v>
       </c>
       <c r="F94" t="n">
-        <v>1.296992717938757e+22</v>
+        <v>79088047.93680204</v>
       </c>
       <c r="G94" t="n">
-        <v>79088127.43970311</v>
+        <v>2.062835427054109e+24</v>
       </c>
       <c r="H94" t="n">
-        <v>79088047.93680204</v>
+        <v>2.182919649311968e+24</v>
       </c>
       <c r="I94" t="n">
-        <v>79.50301153957844</v>
+        <v>903296.8968171654</v>
       </c>
       <c r="J94" t="n">
-        <v>79.50290106236935</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.899526311307368e+24</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.018440806012962e+24</v>
-      </c>
-      <c r="M94" t="n">
-        <v>903296.8968171654</v>
-      </c>
-      <c r="N94" t="n">
         <v>903295.8173336661</v>
       </c>
     </row>
@@ -4799,33 +3663,21 @@
         <v>1.131319044787781e+24</v>
       </c>
       <c r="E95" t="n">
-        <v>8.204562941424074e+22</v>
+        <v>79048511.59808591</v>
       </c>
       <c r="F95" t="n">
-        <v>1.322303651299717e+22</v>
+        <v>79048431.61368395</v>
       </c>
       <c r="G95" t="n">
-        <v>79048511.59808591</v>
+        <v>2.103091852028683e+24</v>
       </c>
       <c r="H95" t="n">
-        <v>79048431.61368395</v>
+        <v>2.22551952904081e+24</v>
       </c>
       <c r="I95" t="n">
-        <v>79.98452155292034</v>
+        <v>904139.0996882149</v>
       </c>
       <c r="J95" t="n">
-        <v>79.9844019562006</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.936595743707467e+24</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.057830865825136e+24</v>
-      </c>
-      <c r="M95" t="n">
-        <v>904139.0996882149</v>
-      </c>
-      <c r="N95" t="n">
         <v>904137.9996568263</v>
       </c>
     </row>
@@ -4845,33 +3697,21 @@
         <v>1.131305868194846e+24</v>
       </c>
       <c r="E96" t="n">
-        <v>8.204467376533455e+22</v>
+        <v>79056491.27912664</v>
       </c>
       <c r="F96" t="n">
-        <v>1.322288250154114e+22</v>
+        <v>79056411.46417871</v>
       </c>
       <c r="G96" t="n">
-        <v>79056491.27912664</v>
+        <v>2.103067356992076e+24</v>
       </c>
       <c r="H96" t="n">
-        <v>79056411.46417871</v>
+        <v>2.225493608071945e+24</v>
       </c>
       <c r="I96" t="n">
-        <v>79.8150622844696</v>
+        <v>904101.8926985397</v>
       </c>
       <c r="J96" t="n">
-        <v>79.8149479329586</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.936573187970466e+24</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.057806898050108e+24</v>
-      </c>
-      <c r="M96" t="n">
-        <v>904101.8926985397</v>
-      </c>
-      <c r="N96" t="n">
         <v>904100.8009243159</v>
       </c>
     </row>
@@ -4891,33 +3731,21 @@
         <v>1.131305868194846e+24</v>
       </c>
       <c r="E97" t="n">
-        <v>8.204467376533455e+22</v>
+        <v>79056491.27912664</v>
       </c>
       <c r="F97" t="n">
-        <v>1.322288250154114e+22</v>
+        <v>79056411.46417871</v>
       </c>
       <c r="G97" t="n">
-        <v>79056491.27912664</v>
+        <v>2.103067356992076e+24</v>
       </c>
       <c r="H97" t="n">
-        <v>79056411.46417871</v>
+        <v>2.225493608071945e+24</v>
       </c>
       <c r="I97" t="n">
-        <v>79.8150622844696</v>
+        <v>904101.8926985397</v>
       </c>
       <c r="J97" t="n">
-        <v>79.8149479329586</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.936573187970466e+24</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.057806898050108e+24</v>
-      </c>
-      <c r="M97" t="n">
-        <v>904101.8926985397</v>
-      </c>
-      <c r="N97" t="n">
         <v>904100.8009243159</v>
       </c>
     </row>
@@ -4937,33 +3765,21 @@
         <v>1.119983293128477e+24</v>
       </c>
       <c r="E98" t="n">
-        <v>8.122353687598689e+22</v>
+        <v>79072089.84623125</v>
       </c>
       <c r="F98" t="n">
-        <v>1.309054244752198e+22</v>
+        <v>79072010.34231921</v>
       </c>
       <c r="G98" t="n">
-        <v>79072089.84623125</v>
+        <v>2.082018992714415e+24</v>
       </c>
       <c r="H98" t="n">
-        <v>79072010.34231921</v>
+        <v>2.203219951449826e+24</v>
       </c>
       <c r="I98" t="n">
-        <v>79.50401644408703</v>
+        <v>904176.5826853733</v>
       </c>
       <c r="J98" t="n">
-        <v>79.5039120465517</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1.917191165914741e+24</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.03721151909162e+24</v>
-      </c>
-      <c r="M98" t="n">
-        <v>904176.5826853733</v>
-      </c>
-      <c r="N98" t="n">
         <v>904175.5069650849</v>
       </c>
     </row>
@@ -4983,33 +3799,21 @@
         <v>1.131305868194846e+24</v>
       </c>
       <c r="E99" t="n">
-        <v>8.204467376533455e+22</v>
+        <v>79056491.27912664</v>
       </c>
       <c r="F99" t="n">
-        <v>1.322288250154114e+22</v>
+        <v>79056411.46417871</v>
       </c>
       <c r="G99" t="n">
-        <v>79056491.27912664</v>
+        <v>2.103067356992076e+24</v>
       </c>
       <c r="H99" t="n">
-        <v>79056411.46417871</v>
+        <v>2.225493608071945e+24</v>
       </c>
       <c r="I99" t="n">
-        <v>79.8150622844696</v>
+        <v>904101.8926985397</v>
       </c>
       <c r="J99" t="n">
-        <v>79.8149479329586</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.936573187970466e+24</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.057806898050108e+24</v>
-      </c>
-      <c r="M99" t="n">
-        <v>904101.8926985397</v>
-      </c>
-      <c r="N99" t="n">
         <v>904100.8009243159</v>
       </c>
     </row>
@@ -5029,33 +3833,21 @@
         <v>1.131305868194846e+24</v>
       </c>
       <c r="E100" t="n">
-        <v>8.204467376533455e+22</v>
+        <v>79056491.27912664</v>
       </c>
       <c r="F100" t="n">
-        <v>1.322288250154114e+22</v>
+        <v>79056411.46417871</v>
       </c>
       <c r="G100" t="n">
-        <v>79056491.27912664</v>
+        <v>2.103067356992076e+24</v>
       </c>
       <c r="H100" t="n">
-        <v>79056411.46417871</v>
+        <v>2.225493608071945e+24</v>
       </c>
       <c r="I100" t="n">
-        <v>79.8150622844696</v>
+        <v>904101.8926985397</v>
       </c>
       <c r="J100" t="n">
-        <v>79.8149479329586</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.936573187970466e+24</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.057806898050108e+24</v>
-      </c>
-      <c r="M100" t="n">
-        <v>904101.8926985397</v>
-      </c>
-      <c r="N100" t="n">
         <v>904100.8009243159</v>
       </c>
     </row>
@@ -5075,33 +3867,21 @@
         <v>1.131305868194846e+24</v>
       </c>
       <c r="E101" t="n">
-        <v>8.204467376533455e+22</v>
+        <v>79056491.27912664</v>
       </c>
       <c r="F101" t="n">
-        <v>1.322288250154114e+22</v>
+        <v>79056411.46417871</v>
       </c>
       <c r="G101" t="n">
-        <v>79056491.27912664</v>
+        <v>2.103067356992076e+24</v>
       </c>
       <c r="H101" t="n">
-        <v>79056411.46417871</v>
+        <v>2.225493608071945e+24</v>
       </c>
       <c r="I101" t="n">
-        <v>79.8150622844696</v>
+        <v>904101.8926985397</v>
       </c>
       <c r="J101" t="n">
-        <v>79.8149479329586</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1.936573187970466e+24</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.057806898050108e+24</v>
-      </c>
-      <c r="M101" t="n">
-        <v>904101.8926985397</v>
-      </c>
-      <c r="N101" t="n">
         <v>904100.8009243159</v>
       </c>
     </row>
@@ -5121,33 +3901,21 @@
         <v>1.131305868194846e+24</v>
       </c>
       <c r="E102" t="n">
-        <v>8.204467376533455e+22</v>
+        <v>79056491.27912664</v>
       </c>
       <c r="F102" t="n">
-        <v>1.322288250154114e+22</v>
+        <v>79056411.46417871</v>
       </c>
       <c r="G102" t="n">
-        <v>79056491.27912664</v>
+        <v>2.103067356992076e+24</v>
       </c>
       <c r="H102" t="n">
-        <v>79056411.46417871</v>
+        <v>2.225493608071945e+24</v>
       </c>
       <c r="I102" t="n">
-        <v>79.8150622844696</v>
+        <v>904101.8926985397</v>
       </c>
       <c r="J102" t="n">
-        <v>79.8149479329586</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.936573187970466e+24</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2.057806898050108e+24</v>
-      </c>
-      <c r="M102" t="n">
-        <v>904101.8926985397</v>
-      </c>
-      <c r="N102" t="n">
         <v>904100.8009243159</v>
       </c>
     </row>
@@ -5167,33 +3935,21 @@
         <v>1.119983293128477e+24</v>
       </c>
       <c r="E103" t="n">
-        <v>8.122353687598689e+22</v>
+        <v>79072089.84623125</v>
       </c>
       <c r="F103" t="n">
-        <v>1.309054244752198e+22</v>
+        <v>79072010.34231921</v>
       </c>
       <c r="G103" t="n">
-        <v>79072089.84623125</v>
+        <v>2.082018992714415e+24</v>
       </c>
       <c r="H103" t="n">
-        <v>79072010.34231921</v>
+        <v>2.203219951449826e+24</v>
       </c>
       <c r="I103" t="n">
-        <v>79.50401644408703</v>
+        <v>904176.5826853733</v>
       </c>
       <c r="J103" t="n">
-        <v>79.5039120465517</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1.917191165914741e+24</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2.03721151909162e+24</v>
-      </c>
-      <c r="M103" t="n">
-        <v>904176.5826853733</v>
-      </c>
-      <c r="N103" t="n">
         <v>904175.5069650849</v>
       </c>
     </row>
@@ -5213,33 +3969,21 @@
         <v>1.152088262110097e+24</v>
       </c>
       <c r="E104" t="n">
-        <v>8.355185655663894e+22</v>
+        <v>79115901.87322259</v>
       </c>
       <c r="F104" t="n">
-        <v>1.346579041933069e+22</v>
+        <v>79115822.47178698</v>
       </c>
       <c r="G104" t="n">
-        <v>79115901.87322259</v>
+        <v>2.141701271550071e+24</v>
       </c>
       <c r="H104" t="n">
-        <v>79115822.47178698</v>
+        <v>2.266376525883599e+24</v>
       </c>
       <c r="I104" t="n">
-        <v>79.40153662860394</v>
+        <v>903982.2186543972</v>
       </c>
       <c r="J104" t="n">
-        <v>79.4014356136322</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1.972148559727743e+24</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2.095609365760855e+24</v>
-      </c>
-      <c r="M104" t="n">
-        <v>903982.2186543972</v>
-      </c>
-      <c r="N104" t="n">
         <v>903981.1452572808</v>
       </c>
     </row>
@@ -5259,33 +4003,21 @@
         <v>1.119983293128477e+24</v>
       </c>
       <c r="E105" t="n">
-        <v>8.122353687598689e+22</v>
+        <v>79072089.84623125</v>
       </c>
       <c r="F105" t="n">
-        <v>1.309054244752198e+22</v>
+        <v>79072010.34231921</v>
       </c>
       <c r="G105" t="n">
-        <v>79072089.84623125</v>
+        <v>2.082018992714415e+24</v>
       </c>
       <c r="H105" t="n">
-        <v>79072010.34231921</v>
+        <v>2.203219951449826e+24</v>
       </c>
       <c r="I105" t="n">
-        <v>79.50401644408703</v>
+        <v>904176.5826853733</v>
       </c>
       <c r="J105" t="n">
-        <v>79.5039120465517</v>
-      </c>
-      <c r="K105" t="n">
-        <v>1.917191165914741e+24</v>
-      </c>
-      <c r="L105" t="n">
-        <v>2.03721151909162e+24</v>
-      </c>
-      <c r="M105" t="n">
-        <v>904176.5826853733</v>
-      </c>
-      <c r="N105" t="n">
         <v>904175.5069650849</v>
       </c>
     </row>
@@ -5305,33 +4037,21 @@
         <v>1.152088262110097e+24</v>
       </c>
       <c r="E106" t="n">
-        <v>8.355185655663894e+22</v>
+        <v>79115901.87322259</v>
       </c>
       <c r="F106" t="n">
-        <v>1.346579041933069e+22</v>
+        <v>79115822.47178698</v>
       </c>
       <c r="G106" t="n">
-        <v>79115901.87322259</v>
+        <v>2.141701271550071e+24</v>
       </c>
       <c r="H106" t="n">
-        <v>79115822.47178698</v>
+        <v>2.266376525883599e+24</v>
       </c>
       <c r="I106" t="n">
-        <v>79.40153662860394</v>
+        <v>903982.2186543972</v>
       </c>
       <c r="J106" t="n">
-        <v>79.4014356136322</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1.972148559727743e+24</v>
-      </c>
-      <c r="L106" t="n">
-        <v>2.095609365760855e+24</v>
-      </c>
-      <c r="M106" t="n">
-        <v>903982.2186543972</v>
-      </c>
-      <c r="N106" t="n">
         <v>903981.1452572808</v>
       </c>
     </row>
@@ -5351,33 +4071,21 @@
         <v>1.163669393956325e+24</v>
       </c>
       <c r="E107" t="n">
-        <v>8.439174452595446e+22</v>
+        <v>79100310.55768922</v>
       </c>
       <c r="F107" t="n">
-        <v>1.360115252601985e+22</v>
+        <v>79100230.84636949</v>
       </c>
       <c r="G107" t="n">
-        <v>79100310.55768922</v>
+        <v>2.163230285967619e+24</v>
       </c>
       <c r="H107" t="n">
-        <v>79100230.84636949</v>
+        <v>2.289158812821609e+24</v>
       </c>
       <c r="I107" t="n">
-        <v>79.71143066883087</v>
+        <v>903906.6336611353</v>
       </c>
       <c r="J107" t="n">
-        <v>79.71131972968578</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1.991973180148244e+24</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2.11667505070822e+24</v>
-      </c>
-      <c r="M107" t="n">
-        <v>903906.6336611353</v>
-      </c>
-      <c r="N107" t="n">
         <v>903905.5442698033</v>
       </c>
     </row>
@@ -5397,33 +4105,21 @@
         <v>1.15223427008493e+24</v>
       </c>
       <c r="E108" t="n">
-        <v>8.356244536120453e+22</v>
+        <v>79119947.30061981</v>
       </c>
       <c r="F108" t="n">
-        <v>1.34674969837084e+22</v>
+        <v>79119867.5846668</v>
       </c>
       <c r="G108" t="n">
-        <v>79119947.30061981</v>
+        <v>2.141972696470961e+24</v>
       </c>
       <c r="H108" t="n">
-        <v>79119867.5846668</v>
+        <v>2.266663751313887e+24</v>
       </c>
       <c r="I108" t="n">
-        <v>79.71606159210205</v>
+        <v>904878.9486295409</v>
       </c>
       <c r="J108" t="n">
-        <v>79.71595300734043</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.972398496669775e+24</v>
-      </c>
-      <c r="L108" t="n">
-        <v>2.095874949301213e+24</v>
-      </c>
-      <c r="M108" t="n">
-        <v>904878.9486295409</v>
-      </c>
-      <c r="N108" t="n">
         <v>904877.8649372582</v>
       </c>
     </row>
@@ -5443,33 +4139,21 @@
         <v>1.152054059235606e+24</v>
       </c>
       <c r="E109" t="n">
-        <v>8.354937608918871e+22</v>
+        <v>79110868.70753333</v>
       </c>
       <c r="F109" t="n">
-        <v>1.346539065158195e+22</v>
+        <v>79110787.93280481</v>
       </c>
       <c r="G109" t="n">
-        <v>79110868.70753333</v>
+        <v>2.141637689331064e+24</v>
       </c>
       <c r="H109" t="n">
-        <v>79110787.93280481</v>
+        <v>2.266309242323102e+24</v>
       </c>
       <c r="I109" t="n">
-        <v>80.77486671507359</v>
+        <v>906173.0766510396</v>
       </c>
       <c r="J109" t="n">
-        <v>80.77472852170467</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1.972090011151233e+24</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2.095547151897218e+24</v>
-      </c>
-      <c r="M109" t="n">
-        <v>906173.0766510396</v>
-      </c>
-      <c r="N109" t="n">
         <v>906171.9469768166</v>
       </c>
     </row>
@@ -5489,33 +4173,21 @@
         <v>1.152088262110097e+24</v>
       </c>
       <c r="E110" t="n">
-        <v>8.355185655663894e+22</v>
+        <v>79115901.87322259</v>
       </c>
       <c r="F110" t="n">
-        <v>1.346579041933069e+22</v>
+        <v>79115822.47178698</v>
       </c>
       <c r="G110" t="n">
-        <v>79115901.87322259</v>
+        <v>2.141701271550071e+24</v>
       </c>
       <c r="H110" t="n">
-        <v>79115822.47178698</v>
+        <v>2.266376525883599e+24</v>
       </c>
       <c r="I110" t="n">
-        <v>79.40153662860394</v>
+        <v>903982.2186543972</v>
       </c>
       <c r="J110" t="n">
-        <v>79.4014356136322</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1.972148559727743e+24</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2.095609365760855e+24</v>
-      </c>
-      <c r="M110" t="n">
-        <v>903982.2186543972</v>
-      </c>
-      <c r="N110" t="n">
         <v>903981.1452572808</v>
       </c>
     </row>
@@ -5535,33 +4207,21 @@
         <v>1.152088262110097e+24</v>
       </c>
       <c r="E111" t="n">
-        <v>8.355185655663894e+22</v>
+        <v>79115901.87322259</v>
       </c>
       <c r="F111" t="n">
-        <v>1.346579041933069e+22</v>
+        <v>79115822.47178698</v>
       </c>
       <c r="G111" t="n">
-        <v>79115901.87322259</v>
+        <v>2.141701271550071e+24</v>
       </c>
       <c r="H111" t="n">
-        <v>79115822.47178698</v>
+        <v>2.266376525883599e+24</v>
       </c>
       <c r="I111" t="n">
-        <v>79.40153662860394</v>
+        <v>903982.2186543972</v>
       </c>
       <c r="J111" t="n">
-        <v>79.4014356136322</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.972148559727743e+24</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2.095609365760855e+24</v>
-      </c>
-      <c r="M111" t="n">
-        <v>903982.2186543972</v>
-      </c>
-      <c r="N111" t="n">
         <v>903981.1452572808</v>
       </c>
     </row>
@@ -5581,33 +4241,21 @@
         <v>1.050774699407666e+24</v>
       </c>
       <c r="E112" t="n">
-        <v>7.62043845165551e+22</v>
+        <v>79156797.41782685</v>
       </c>
       <c r="F112" t="n">
-        <v>1.22816214222323e+22</v>
+        <v>79156718.18002935</v>
       </c>
       <c r="G112" t="n">
-        <v>79156797.41782685</v>
+        <v>1.953362067656555e+24</v>
       </c>
       <c r="H112" t="n">
-        <v>79156718.18002935</v>
+        <v>2.067073496884951e+24</v>
       </c>
       <c r="I112" t="n">
-        <v>79.23789162933826</v>
+        <v>904469.0569566684</v>
       </c>
       <c r="J112" t="n">
-        <v>79.237797498703</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.79871966256115e+24</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1.911323440936987e+24</v>
-      </c>
-      <c r="M112" t="n">
-        <v>904469.0569566684</v>
-      </c>
-      <c r="N112" t="n">
         <v>904467.9937056645</v>
       </c>
     </row>
@@ -5627,33 +4275,21 @@
         <v>1.05074301786515e+24</v>
       </c>
       <c r="E113" t="n">
-        <v>7.620208690462683e+22</v>
+        <v>79152835.97781682</v>
       </c>
       <c r="F113" t="n">
-        <v>1.228125112333651e+22</v>
+        <v>79152757.05686438</v>
       </c>
       <c r="G113" t="n">
-        <v>79152835.97781682</v>
+        <v>1.953303172516205e+24</v>
       </c>
       <c r="H113" t="n">
-        <v>79152757.05686438</v>
+        <v>2.067011173270845e+24</v>
       </c>
       <c r="I113" t="n">
-        <v>78.92103902995586</v>
+        <v>903571.8951202703</v>
       </c>
       <c r="J113" t="n">
-        <v>78.92095243930817</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1.798665429990228e+24</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1.911265813288705e+24</v>
-      </c>
-      <c r="M113" t="n">
-        <v>903571.8951202703</v>
-      </c>
-      <c r="N113" t="n">
         <v>903570.8422349897</v>
       </c>
     </row>
@@ -5673,33 +4309,21 @@
         <v>1.050774699407666e+24</v>
       </c>
       <c r="E114" t="n">
-        <v>7.62043845165551e+22</v>
+        <v>79156797.41782685</v>
       </c>
       <c r="F114" t="n">
-        <v>1.22816214222323e+22</v>
+        <v>79156718.18002935</v>
       </c>
       <c r="G114" t="n">
-        <v>79156797.41782685</v>
+        <v>1.953362067656555e+24</v>
       </c>
       <c r="H114" t="n">
-        <v>79156718.18002935</v>
+        <v>2.067073496884951e+24</v>
       </c>
       <c r="I114" t="n">
-        <v>79.23789162933826</v>
+        <v>904469.0569566684</v>
       </c>
       <c r="J114" t="n">
-        <v>79.237797498703</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1.79871966256115e+24</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1.911323440936987e+24</v>
-      </c>
-      <c r="M114" t="n">
-        <v>904469.0569566684</v>
-      </c>
-      <c r="N114" t="n">
         <v>904467.9937056645</v>
       </c>
     </row>
@@ -5719,33 +4343,21 @@
         <v>1.05074301786515e+24</v>
       </c>
       <c r="E115" t="n">
-        <v>7.620208690462683e+22</v>
+        <v>79152835.97781682</v>
       </c>
       <c r="F115" t="n">
-        <v>1.228125112333651e+22</v>
+        <v>79152757.05686438</v>
       </c>
       <c r="G115" t="n">
-        <v>79152835.97781682</v>
+        <v>1.953303172516205e+24</v>
       </c>
       <c r="H115" t="n">
-        <v>79152757.05686438</v>
+        <v>2.067011173270845e+24</v>
       </c>
       <c r="I115" t="n">
-        <v>78.92103902995586</v>
+        <v>903571.8951202703</v>
       </c>
       <c r="J115" t="n">
-        <v>78.92095243930817</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1.798665429990228e+24</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1.911265813288705e+24</v>
-      </c>
-      <c r="M115" t="n">
-        <v>903571.8951202703</v>
-      </c>
-      <c r="N115" t="n">
         <v>903570.8422349897</v>
       </c>
     </row>
@@ -5765,33 +4377,21 @@
         <v>1.050740465159687e+24</v>
       </c>
       <c r="E116" t="n">
-        <v>7.620190177395734e+22</v>
+        <v>79147743.10403527</v>
       </c>
       <c r="F116" t="n">
-        <v>1.228122128774597e+22</v>
+        <v>79147662.81346676</v>
       </c>
       <c r="G116" t="n">
-        <v>79147743.10403527</v>
+        <v>1.953298427114628e+24</v>
       </c>
       <c r="H116" t="n">
-        <v>79147662.81346676</v>
+        <v>2.067006151607182e+24</v>
       </c>
       <c r="I116" t="n">
-        <v>80.29069186747074</v>
+        <v>905749.863282176</v>
       </c>
       <c r="J116" t="n">
-        <v>80.29056851565838</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1.798661060278587e+24</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1.911261170006009e+24</v>
-      </c>
-      <c r="M116" t="n">
-        <v>905749.863282176</v>
-      </c>
-      <c r="N116" t="n">
         <v>905748.754405187</v>
       </c>
     </row>
@@ -5811,33 +4411,21 @@
         <v>1.050774699407666e+24</v>
       </c>
       <c r="E117" t="n">
-        <v>7.62043845165551e+22</v>
+        <v>79156797.41782685</v>
       </c>
       <c r="F117" t="n">
-        <v>1.22816214222323e+22</v>
+        <v>79156718.18002935</v>
       </c>
       <c r="G117" t="n">
-        <v>79156797.41782685</v>
+        <v>1.953362067656555e+24</v>
       </c>
       <c r="H117" t="n">
-        <v>79156718.18002935</v>
+        <v>2.067073496884951e+24</v>
       </c>
       <c r="I117" t="n">
-        <v>79.23789162933826</v>
+        <v>904469.0569566684</v>
       </c>
       <c r="J117" t="n">
-        <v>79.237797498703</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1.79871966256115e+24</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1.911323440936987e+24</v>
-      </c>
-      <c r="M117" t="n">
-        <v>904469.0569566684</v>
-      </c>
-      <c r="N117" t="n">
         <v>904467.9937056645</v>
       </c>
     </row>
@@ -5857,33 +4445,21 @@
         <v>1.050774699407666e+24</v>
       </c>
       <c r="E118" t="n">
-        <v>7.62043845165551e+22</v>
+        <v>79156797.41782685</v>
       </c>
       <c r="F118" t="n">
-        <v>1.22816214222323e+22</v>
+        <v>79156718.18002935</v>
       </c>
       <c r="G118" t="n">
-        <v>79156797.41782685</v>
+        <v>1.953362067656555e+24</v>
       </c>
       <c r="H118" t="n">
-        <v>79156718.18002935</v>
+        <v>2.067073496884951e+24</v>
       </c>
       <c r="I118" t="n">
-        <v>79.23789162933826</v>
+        <v>904469.0569566684</v>
       </c>
       <c r="J118" t="n">
-        <v>79.237797498703</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1.79871966256115e+24</v>
-      </c>
-      <c r="L118" t="n">
-        <v>1.911323440936987e+24</v>
-      </c>
-      <c r="M118" t="n">
-        <v>904469.0569566684</v>
-      </c>
-      <c r="N118" t="n">
         <v>904467.9937056645</v>
       </c>
     </row>
@@ -5903,33 +4479,21 @@
         <v>1.124327220101213e+24</v>
       </c>
       <c r="E119" t="n">
-        <v>8.153856757008959e+22</v>
+        <v>79199504.36164276</v>
       </c>
       <c r="F119" t="n">
-        <v>1.314131495526428e+22</v>
+        <v>79199424.86772566</v>
       </c>
       <c r="G119" t="n">
-        <v>79199504.36164276</v>
+        <v>2.090094236798171e+24</v>
       </c>
       <c r="H119" t="n">
-        <v>79199424.86772566</v>
+        <v>2.211765281219333e+24</v>
       </c>
       <c r="I119" t="n">
-        <v>79.49401915073395</v>
+        <v>904485.2209373359</v>
       </c>
       <c r="J119" t="n">
-        <v>79.49391710758209</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1.92462711470731e+24</v>
-      </c>
-      <c r="L119" t="n">
-        <v>2.045112974515545e+24</v>
-      </c>
-      <c r="M119" t="n">
-        <v>904485.2209373359</v>
-      </c>
-      <c r="N119" t="n">
         <v>904484.1433584406</v>
       </c>
     </row>
@@ -5949,33 +4513,21 @@
         <v>1.124323855562483e+24</v>
       </c>
       <c r="E120" t="n">
-        <v>8.153832356346187e+22</v>
+        <v>79194355.00331792</v>
       </c>
       <c r="F120" t="n">
-        <v>1.314127563086652e+22</v>
+        <v>79194274.13195658</v>
       </c>
       <c r="G120" t="n">
-        <v>79194355.00331792</v>
+        <v>2.090087982220593e+24</v>
       </c>
       <c r="H120" t="n">
-        <v>79194274.13195658</v>
+        <v>2.211758662525136e+24</v>
       </c>
       <c r="I120" t="n">
-        <v>80.87150061130524</v>
+        <v>906684.9556471045</v>
       </c>
       <c r="J120" t="n">
-        <v>80.87136134505272</v>
-      </c>
-      <c r="K120" t="n">
-        <v>1.924621355297381e+24</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2.045106854535808e+24</v>
-      </c>
-      <c r="M120" t="n">
-        <v>906684.9556471045</v>
-      </c>
-      <c r="N120" t="n">
         <v>906683.8216334621</v>
       </c>
     </row>
@@ -5995,33 +4547,21 @@
         <v>1.124441687896661e+24</v>
       </c>
       <c r="E121" t="n">
-        <v>8.15468690115737e+22</v>
+        <v>79231408.34870309</v>
       </c>
       <c r="F121" t="n">
-        <v>1.314265287388476e+22</v>
+        <v>79231328.53899649</v>
       </c>
       <c r="G121" t="n">
-        <v>79231408.34870309</v>
+        <v>2.090307029378925e+24</v>
       </c>
       <c r="H121" t="n">
-        <v>79231328.53899649</v>
+        <v>2.211990461116433e+24</v>
       </c>
       <c r="I121" t="n">
-        <v>79.80981549620628</v>
+        <v>905326.7485154793</v>
       </c>
       <c r="J121" t="n">
-        <v>79.80970659852028</v>
-      </c>
-      <c r="K121" t="n">
-        <v>1.924823061082893e+24</v>
-      </c>
-      <c r="L121" t="n">
-        <v>2.045321187543938e+24</v>
-      </c>
-      <c r="M121" t="n">
-        <v>905326.7485154793</v>
-      </c>
-      <c r="N121" t="n">
         <v>905325.6589163189</v>
       </c>
     </row>
@@ -6041,33 +4581,21 @@
         <v>1.124323855562483e+24</v>
       </c>
       <c r="E122" t="n">
-        <v>8.153832356346187e+22</v>
+        <v>79194355.00331792</v>
       </c>
       <c r="F122" t="n">
-        <v>1.314127563086652e+22</v>
+        <v>79194274.13195658</v>
       </c>
       <c r="G122" t="n">
-        <v>79194355.00331792</v>
+        <v>2.090087982220593e+24</v>
       </c>
       <c r="H122" t="n">
-        <v>79194274.13195658</v>
+        <v>2.211758662525136e+24</v>
       </c>
       <c r="I122" t="n">
-        <v>80.87150061130524</v>
+        <v>906684.9556471045</v>
       </c>
       <c r="J122" t="n">
-        <v>80.87136134505272</v>
-      </c>
-      <c r="K122" t="n">
-        <v>1.924621355297381e+24</v>
-      </c>
-      <c r="L122" t="n">
-        <v>2.045106854535808e+24</v>
-      </c>
-      <c r="M122" t="n">
-        <v>906684.9556471045</v>
-      </c>
-      <c r="N122" t="n">
         <v>906683.8216334621</v>
       </c>
     </row>
@@ -6087,33 +4615,21 @@
         <v>1.124323855562483e+24</v>
       </c>
       <c r="E123" t="n">
-        <v>8.153832356346187e+22</v>
+        <v>79194355.00331792</v>
       </c>
       <c r="F123" t="n">
-        <v>1.314127563086652e+22</v>
+        <v>79194274.13195658</v>
       </c>
       <c r="G123" t="n">
-        <v>79194355.00331792</v>
+        <v>2.090087982220593e+24</v>
       </c>
       <c r="H123" t="n">
-        <v>79194274.13195658</v>
+        <v>2.211758662525136e+24</v>
       </c>
       <c r="I123" t="n">
-        <v>80.87150061130524</v>
+        <v>906684.9556471045</v>
       </c>
       <c r="J123" t="n">
-        <v>80.87136134505272</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1.924621355297381e+24</v>
-      </c>
-      <c r="L123" t="n">
-        <v>2.045106854535808e+24</v>
-      </c>
-      <c r="M123" t="n">
-        <v>906684.9556471045</v>
-      </c>
-      <c r="N123" t="n">
         <v>906683.8216334621</v>
       </c>
     </row>
@@ -6133,33 +4649,21 @@
         <v>1.124323855562483e+24</v>
       </c>
       <c r="E124" t="n">
-        <v>8.153832356346187e+22</v>
+        <v>79194355.00331792</v>
       </c>
       <c r="F124" t="n">
-        <v>1.314127563086652e+22</v>
+        <v>79194274.13195658</v>
       </c>
       <c r="G124" t="n">
-        <v>79194355.00331792</v>
+        <v>2.090087982220593e+24</v>
       </c>
       <c r="H124" t="n">
-        <v>79194274.13195658</v>
+        <v>2.211758662525136e+24</v>
       </c>
       <c r="I124" t="n">
-        <v>80.87150061130524</v>
+        <v>906684.9556471045</v>
       </c>
       <c r="J124" t="n">
-        <v>80.87136134505272</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.924621355297381e+24</v>
-      </c>
-      <c r="L124" t="n">
-        <v>2.045106854535808e+24</v>
-      </c>
-      <c r="M124" t="n">
-        <v>906684.9556471045</v>
-      </c>
-      <c r="N124" t="n">
         <v>906683.8216334621</v>
       </c>
     </row>
@@ -6179,33 +4683,21 @@
         <v>1.124323855562483e+24</v>
       </c>
       <c r="E125" t="n">
-        <v>8.153832356346187e+22</v>
+        <v>79194355.00331792</v>
       </c>
       <c r="F125" t="n">
-        <v>1.314127563086652e+22</v>
+        <v>79194274.13195658</v>
       </c>
       <c r="G125" t="n">
-        <v>79194355.00331792</v>
+        <v>2.090087982220593e+24</v>
       </c>
       <c r="H125" t="n">
-        <v>79194274.13195658</v>
+        <v>2.211758662525136e+24</v>
       </c>
       <c r="I125" t="n">
-        <v>80.87150061130524</v>
+        <v>906684.9556471045</v>
       </c>
       <c r="J125" t="n">
-        <v>80.87136134505272</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1.924621355297381e+24</v>
-      </c>
-      <c r="L125" t="n">
-        <v>2.045106854535808e+24</v>
-      </c>
-      <c r="M125" t="n">
-        <v>906684.9556471045</v>
-      </c>
-      <c r="N125" t="n">
         <v>906683.8216334621</v>
       </c>
     </row>
@@ -6225,33 +4717,21 @@
         <v>1.124323855562483e+24</v>
       </c>
       <c r="E126" t="n">
-        <v>8.153832356346187e+22</v>
+        <v>79194355.00331792</v>
       </c>
       <c r="F126" t="n">
-        <v>1.314127563086652e+22</v>
+        <v>79194274.13195658</v>
       </c>
       <c r="G126" t="n">
-        <v>79194355.00331792</v>
+        <v>2.090087982220593e+24</v>
       </c>
       <c r="H126" t="n">
-        <v>79194274.13195658</v>
+        <v>2.211758662525136e+24</v>
       </c>
       <c r="I126" t="n">
-        <v>80.87150061130524</v>
+        <v>906684.9556471045</v>
       </c>
       <c r="J126" t="n">
-        <v>80.87136134505272</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.924621355297381e+24</v>
-      </c>
-      <c r="L126" t="n">
-        <v>2.045106854535808e+24</v>
-      </c>
-      <c r="M126" t="n">
-        <v>906684.9556471045</v>
-      </c>
-      <c r="N126" t="n">
         <v>906683.8216334621</v>
       </c>
     </row>
@@ -6271,33 +4751,21 @@
         <v>1.124323855562483e+24</v>
       </c>
       <c r="E127" t="n">
-        <v>8.153832356346187e+22</v>
+        <v>79194355.00331792</v>
       </c>
       <c r="F127" t="n">
-        <v>1.314127563086652e+22</v>
+        <v>79194274.13195658</v>
       </c>
       <c r="G127" t="n">
-        <v>79194355.00331792</v>
+        <v>2.090087982220593e+24</v>
       </c>
       <c r="H127" t="n">
-        <v>79194274.13195658</v>
+        <v>2.211758662525136e+24</v>
       </c>
       <c r="I127" t="n">
-        <v>80.87150061130524</v>
+        <v>906684.9556471045</v>
       </c>
       <c r="J127" t="n">
-        <v>80.87136134505272</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1.924621355297381e+24</v>
-      </c>
-      <c r="L127" t="n">
-        <v>2.045106854535808e+24</v>
-      </c>
-      <c r="M127" t="n">
-        <v>906684.9556471045</v>
-      </c>
-      <c r="N127" t="n">
         <v>906683.8216334621</v>
       </c>
     </row>

--- a/resultados_tp5_volumen_area.xlsx
+++ b/resultados_tp5_volumen_area.xlsx
@@ -495,28 +495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13576501.55096894</v>
+        <v>13565321.67693427</v>
       </c>
       <c r="D2" t="n">
-        <v>13576506.49069018</v>
+        <v>13565325.38830826</v>
       </c>
       <c r="E2" t="n">
-        <v>13671234.85354545</v>
+        <v>13642332.54637537</v>
       </c>
       <c r="F2" t="n">
-        <v>13671236.43875088</v>
+        <v>13642333.22031821</v>
       </c>
       <c r="G2" t="n">
-        <v>289091.8379063499</v>
+        <v>287699.4632012096</v>
       </c>
       <c r="H2" t="n">
-        <v>289089.2018575309</v>
+        <v>287698.2824110118</v>
       </c>
       <c r="I2" t="n">
-        <v>222898.2470645884</v>
+        <v>228041.1354065145</v>
       </c>
       <c r="J2" t="n">
-        <v>222897.8773938827</v>
+        <v>228041.1251028233</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +529,28 @@
         <v>4.869023273931249e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>35096228.536163</v>
+        <v>35074383.61879717</v>
       </c>
       <c r="D3" t="n">
-        <v>35096261.23282584</v>
+        <v>35074407.77110349</v>
       </c>
       <c r="E3" t="n">
-        <v>35173625.20118196</v>
+        <v>35122450.53078626</v>
       </c>
       <c r="F3" t="n">
-        <v>35173632.41226266</v>
+        <v>35122452.28334279</v>
       </c>
       <c r="G3" t="n">
-        <v>464883.7816033585</v>
+        <v>459220.0958185922</v>
       </c>
       <c r="H3" t="n">
-        <v>464870.0069659057</v>
+        <v>459259.3092623327</v>
       </c>
       <c r="I3" t="n">
-        <v>384330.18877752</v>
+        <v>395883.0751500059</v>
       </c>
       <c r="J3" t="n">
-        <v>384329.3489369216</v>
+        <v>395883.0491296799</v>
       </c>
     </row>
     <row r="4">
@@ -563,28 +563,28 @@
         <v>9.738046547862498e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>61200324.93605132</v>
+        <v>61174264.69364066</v>
       </c>
       <c r="D4" t="n">
-        <v>61200379.37659945</v>
+        <v>61174298.34167307</v>
       </c>
       <c r="E4" t="n">
-        <v>61328600.32076827</v>
+        <v>61256504.73305389</v>
       </c>
       <c r="F4" t="n">
-        <v>61328611.32315633</v>
+        <v>61256508.6042557</v>
       </c>
       <c r="G4" t="n">
-        <v>550305.109418297</v>
+        <v>546603.1086762912</v>
       </c>
       <c r="H4" t="n">
-        <v>550274.0462687544</v>
+        <v>546589.0472826753</v>
       </c>
       <c r="I4" t="n">
-        <v>491205.1337141296</v>
+        <v>496407.8217219482</v>
       </c>
       <c r="J4" t="n">
-        <v>491204.5625945422</v>
+        <v>496407.8375509757</v>
       </c>
     </row>
     <row r="5">
@@ -597,28 +597,28 @@
         <v>0.0001460706982179375</v>
       </c>
       <c r="C5" t="n">
-        <v>86996009.69994193</v>
+        <v>86972362.84402566</v>
       </c>
       <c r="D5" t="n">
-        <v>86996137.23051356</v>
+        <v>86972454.55808592</v>
       </c>
       <c r="E5" t="n">
-        <v>87062293.48314619</v>
+        <v>86945821.21266276</v>
       </c>
       <c r="F5" t="n">
-        <v>87062314.4909289</v>
+        <v>86945827.12356454</v>
       </c>
       <c r="G5" t="n">
-        <v>688837.2293591483</v>
+        <v>689840.4399946065</v>
       </c>
       <c r="H5" t="n">
-        <v>688776.2985302766</v>
+        <v>689875.905187345</v>
       </c>
       <c r="I5" t="n">
-        <v>612489.3374069366</v>
+        <v>616692.1889429152</v>
       </c>
       <c r="J5" t="n">
-        <v>612488.4463304154</v>
+        <v>616692.2092737709</v>
       </c>
     </row>
     <row r="6">
@@ -631,28 +631,28 @@
         <v>0.00019476093095725</v>
       </c>
       <c r="C6" t="n">
-        <v>113207939.2982289</v>
+        <v>113182059.099401</v>
       </c>
       <c r="D6" t="n">
-        <v>113208180.275783</v>
+        <v>113182234.6988454</v>
       </c>
       <c r="E6" t="n">
-        <v>113205962.2264806</v>
+        <v>112899154.1132239</v>
       </c>
       <c r="F6" t="n">
-        <v>113205991.5385292</v>
+        <v>112899163.0628998</v>
       </c>
       <c r="G6" t="n">
-        <v>809287.209786807</v>
+        <v>809013.8586227574</v>
       </c>
       <c r="H6" t="n">
-        <v>809191.4074757555</v>
+        <v>809040.8113360252</v>
       </c>
       <c r="I6" t="n">
-        <v>706581.9324515152</v>
+        <v>705644.017237708</v>
       </c>
       <c r="J6" t="n">
-        <v>706581.0042783063</v>
+        <v>705644.0636051287</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +665,28 @@
         <v>0.0002434511636965625</v>
       </c>
       <c r="C7" t="n">
-        <v>142331312.0449288</v>
+        <v>142316369.3150532</v>
       </c>
       <c r="D7" t="n">
-        <v>142331557.175945</v>
+        <v>142316557.3061101</v>
       </c>
       <c r="E7" t="n">
-        <v>142460849.3727039</v>
+        <v>142102275.2363866</v>
       </c>
       <c r="F7" t="n">
-        <v>142460887.0285391</v>
+        <v>142102289.4410202</v>
       </c>
       <c r="G7" t="n">
-        <v>892414.476522809</v>
+        <v>896854.1615883422</v>
       </c>
       <c r="H7" t="n">
-        <v>892280.703783091</v>
+        <v>896731.8970869083</v>
       </c>
       <c r="I7" t="n">
-        <v>810002.8649417402</v>
+        <v>795406.8216060067</v>
       </c>
       <c r="J7" t="n">
-        <v>810002.0217207605</v>
+        <v>795406.9235428333</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>0.000292141396435875</v>
       </c>
       <c r="C8" t="n">
-        <v>168343705.9418814</v>
+        <v>168330751.2073583</v>
       </c>
       <c r="D8" t="n">
-        <v>168344168.6900259</v>
+        <v>168331077.3625948</v>
       </c>
       <c r="E8" t="n">
-        <v>168225412.156076</v>
+        <v>167982831.7381829</v>
       </c>
       <c r="F8" t="n">
-        <v>168225465.1612153</v>
+        <v>167982851.4695216</v>
       </c>
       <c r="G8" t="n">
-        <v>1027884.874451545</v>
+        <v>1028934.540081772</v>
       </c>
       <c r="H8" t="n">
-        <v>1027691.46063488</v>
+        <v>1029297.19979529</v>
       </c>
       <c r="I8" t="n">
-        <v>917956.0114549139</v>
+        <v>892142.4515781992</v>
       </c>
       <c r="J8" t="n">
-        <v>917954.9853954599</v>
+        <v>892142.5972652755</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +733,28 @@
         <v>0.0003408316291751875</v>
       </c>
       <c r="C9" t="n">
-        <v>195765616.9801047</v>
+        <v>195115118.1509737</v>
       </c>
       <c r="D9" t="n">
-        <v>195772582.9598201</v>
+        <v>195115355.526164</v>
       </c>
       <c r="E9" t="n">
-        <v>195162958.4170243</v>
+        <v>195056048.0565779</v>
       </c>
       <c r="F9" t="n">
-        <v>195163020.1555664</v>
+        <v>195056077.9432983</v>
       </c>
       <c r="G9" t="n">
-        <v>2643812.88822309</v>
+        <v>1114462.406062491</v>
       </c>
       <c r="H9" t="n">
-        <v>2643026.474423937</v>
+        <v>1114372.413059118</v>
       </c>
       <c r="I9" t="n">
-        <v>1017917.130132487</v>
+        <v>980628.8632369116</v>
       </c>
       <c r="J9" t="n">
-        <v>1017916.271369113</v>
+        <v>980629.0815542584</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +767,28 @@
         <v>0.0003895218619144999</v>
       </c>
       <c r="C10" t="n">
-        <v>218210343.0945973</v>
+        <v>218196883.0261974</v>
       </c>
       <c r="D10" t="n">
-        <v>218211045.6093037</v>
+        <v>218197432.9451587</v>
       </c>
       <c r="E10" t="n">
-        <v>217876246.3881739</v>
+        <v>218063789.4119443</v>
       </c>
       <c r="F10" t="n">
-        <v>217876330.3960341</v>
+        <v>218063831.3163378</v>
       </c>
       <c r="G10" t="n">
-        <v>1254595.425494676</v>
+        <v>1260460.474098233</v>
       </c>
       <c r="H10" t="n">
-        <v>1254266.686258977</v>
+        <v>1260390.980154184</v>
       </c>
       <c r="I10" t="n">
-        <v>1145335.981312065</v>
+        <v>1093392.107802675</v>
       </c>
       <c r="J10" t="n">
-        <v>1145334.944883573</v>
+        <v>1093392.397298084</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0.0004382120946538125</v>
       </c>
       <c r="C11" t="n">
-        <v>3154708296.689371</v>
+        <v>239396576.2379348</v>
       </c>
       <c r="D11" t="n">
-        <v>3170128440.145091</v>
+        <v>239396867.8717284</v>
       </c>
       <c r="E11" t="n">
-        <v>239284653.5429944</v>
+        <v>239736886.1795298</v>
       </c>
       <c r="F11" t="n">
-        <v>239284762.3352039</v>
+        <v>239736949.2685984</v>
       </c>
       <c r="G11" t="n">
-        <v>5536981051.208784</v>
+        <v>1408160.205041638</v>
       </c>
       <c r="H11" t="n">
-        <v>5789617532.045051</v>
+        <v>1408065.458813763</v>
       </c>
       <c r="I11" t="n">
-        <v>1309799.812308541</v>
+        <v>1250943.383196986</v>
       </c>
       <c r="J11" t="n">
-        <v>1309798.797915835</v>
+        <v>1250943.667537526</v>
       </c>
     </row>
     <row r="12">
@@ -835,28 +835,28 @@
         <v>0.0004869023273931249</v>
       </c>
       <c r="C12" t="n">
-        <v>240902188.9616228</v>
+        <v>239630147.180716</v>
       </c>
       <c r="D12" t="n">
-        <v>240925968.8693092</v>
+        <v>239629788.0283121</v>
       </c>
       <c r="E12" t="n">
-        <v>239286933.6605518</v>
+        <v>239466924.2691194</v>
       </c>
       <c r="F12" t="n">
-        <v>239287073.2679894</v>
+        <v>239466999.4708744</v>
       </c>
       <c r="G12" t="n">
-        <v>4434189.789636517</v>
+        <v>1700330.25841912</v>
       </c>
       <c r="H12" t="n">
-        <v>4420634.45065772</v>
+        <v>1700057.835328417</v>
       </c>
       <c r="I12" t="n">
-        <v>1413878.925348994</v>
+        <v>1358247.310740586</v>
       </c>
       <c r="J12" t="n">
-        <v>1413877.624295071</v>
+        <v>1358247.594374105</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +869,28 @@
         <v>0.0005355925601324374</v>
       </c>
       <c r="C13" t="n">
-        <v>244056761.3685919</v>
+        <v>241915714.0882659</v>
       </c>
       <c r="D13" t="n">
-        <v>244088759.6825572</v>
+        <v>241916141.5949056</v>
       </c>
       <c r="E13" t="n">
-        <v>241559871.3132816</v>
+        <v>241926749.7914403</v>
       </c>
       <c r="F13" t="n">
-        <v>241560009.2543059</v>
+        <v>241926824.907799</v>
       </c>
       <c r="G13" t="n">
-        <v>6458697.86190021</v>
+        <v>1600004.097721683</v>
       </c>
       <c r="H13" t="n">
-        <v>6489380.362165432</v>
+        <v>1599855.165065694</v>
       </c>
       <c r="I13" t="n">
-        <v>1422219.774501668</v>
+        <v>1355289.074359451</v>
       </c>
       <c r="J13" t="n">
-        <v>1422218.561188692</v>
+        <v>1355289.351988914</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +903,28 @@
         <v>0.0005842827928717499</v>
       </c>
       <c r="C14" t="n">
-        <v>240250562.970644</v>
+        <v>239481678.5698975</v>
       </c>
       <c r="D14" t="n">
-        <v>240265127.9827567</v>
+        <v>239481251.771069</v>
       </c>
       <c r="E14" t="n">
-        <v>238960109.2401633</v>
+        <v>239075501.1739752</v>
       </c>
       <c r="F14" t="n">
-        <v>238960251.4083806</v>
+        <v>239075577.0870453</v>
       </c>
       <c r="G14" t="n">
-        <v>3388854.705851993</v>
+        <v>1720543.113495854</v>
       </c>
       <c r="H14" t="n">
-        <v>3370038.246860617</v>
+        <v>1720309.755276254</v>
       </c>
       <c r="I14" t="n">
-        <v>1422195.889000447</v>
+        <v>1365706.500195531</v>
       </c>
       <c r="J14" t="n">
-        <v>1422194.574575236</v>
+        <v>1365706.794340892</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +937,28 @@
         <v>0.0006329730256110624</v>
       </c>
       <c r="C15" t="n">
-        <v>241494413.6670624</v>
+        <v>241210321.2448897</v>
       </c>
       <c r="D15" t="n">
-        <v>241500639.3107599</v>
+        <v>241210743.2080438</v>
       </c>
       <c r="E15" t="n">
-        <v>240896000.5004645</v>
+        <v>241134704.294302</v>
       </c>
       <c r="F15" t="n">
-        <v>240896136.8911576</v>
+        <v>241134778.9207239</v>
       </c>
       <c r="G15" t="n">
-        <v>2232449.875914831</v>
+        <v>1598282.266952719</v>
       </c>
       <c r="H15" t="n">
-        <v>2222674.774159642</v>
+        <v>1598254.923786601</v>
       </c>
       <c r="I15" t="n">
-        <v>1415631.280281145</v>
+        <v>1349471.938338649</v>
       </c>
       <c r="J15" t="n">
-        <v>1415630.079661374</v>
+        <v>1349472.212395318</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +971,28 @@
         <v>0.0006816632583503749</v>
       </c>
       <c r="C16" t="n">
-        <v>239454408.4176992</v>
+        <v>238615380.8662516</v>
       </c>
       <c r="D16" t="n">
-        <v>239470358.0875855</v>
+        <v>238614943.5073576</v>
       </c>
       <c r="E16" t="n">
-        <v>238113234.8300065</v>
+        <v>238116736.5386882</v>
       </c>
       <c r="F16" t="n">
-        <v>238113374.9519467</v>
+        <v>238116811.9332562</v>
       </c>
       <c r="G16" t="n">
-        <v>3545601.84448638</v>
+        <v>1718113.28124507</v>
       </c>
       <c r="H16" t="n">
-        <v>3527091.386296456</v>
+        <v>1717820.238661594</v>
       </c>
       <c r="I16" t="n">
-        <v>1414849.341191189</v>
+        <v>1359261.590497311</v>
       </c>
       <c r="J16" t="n">
-        <v>1414848.049451358</v>
+        <v>1359261.88156787</v>
       </c>
     </row>
     <row r="17">
@@ -1005,28 +1005,28 @@
         <v>0.0007303534910896875</v>
       </c>
       <c r="C17" t="n">
-        <v>240916887.1811135</v>
+        <v>240791232.7497095</v>
       </c>
       <c r="D17" t="n">
-        <v>240919703.4591996</v>
+        <v>240791270.2172421</v>
       </c>
       <c r="E17" t="n">
-        <v>240408242.0376758</v>
+        <v>240582284.0352588</v>
       </c>
       <c r="F17" t="n">
-        <v>240408379.8434939</v>
+        <v>240582359.0911092</v>
       </c>
       <c r="G17" t="n">
-        <v>1862531.682221355</v>
+        <v>1556905.036356816</v>
       </c>
       <c r="H17" t="n">
-        <v>1859135.585044679</v>
+        <v>1556601.212606912</v>
       </c>
       <c r="I17" t="n">
-        <v>1419849.763820369</v>
+        <v>1353649.329922479</v>
       </c>
       <c r="J17" t="n">
-        <v>1419848.557876915</v>
+        <v>1353649.607503114</v>
       </c>
     </row>
     <row r="18">
@@ -1039,28 +1039,28 @@
         <v>0.0007790437238289999</v>
       </c>
       <c r="C18" t="n">
-        <v>238188543.560008</v>
+        <v>238285841.609893</v>
       </c>
       <c r="D18" t="n">
-        <v>238186325.8970512</v>
+        <v>238285807.7408826</v>
       </c>
       <c r="E18" t="n">
-        <v>237421636.5188718</v>
+        <v>237323495.5972846</v>
       </c>
       <c r="F18" t="n">
-        <v>237421777.661876</v>
+        <v>237323571.3998158</v>
       </c>
       <c r="G18" t="n">
-        <v>1805916.830464343</v>
+        <v>1591671.594436278</v>
       </c>
       <c r="H18" t="n">
-        <v>1803587.032815922</v>
+        <v>1591425.609521095</v>
       </c>
       <c r="I18" t="n">
-        <v>1418545.460076989</v>
+        <v>1363171.105232984</v>
       </c>
       <c r="J18" t="n">
-        <v>1418544.17324968</v>
+        <v>1363171.404003048</v>
       </c>
     </row>
     <row r="19">
@@ -1073,28 +1073,28 @@
         <v>0.0008277339565683124</v>
       </c>
       <c r="C19" t="n">
-        <v>307892526.88327</v>
+        <v>230270819.3223123</v>
       </c>
       <c r="D19" t="n">
-        <v>307805795.4266994</v>
+        <v>230272817.4454404</v>
       </c>
       <c r="E19" t="n">
-        <v>226906277.9735352</v>
+        <v>227398265.8041954</v>
       </c>
       <c r="F19" t="n">
-        <v>226906400.8115563</v>
+        <v>227398342.9779336</v>
       </c>
       <c r="G19" t="n">
-        <v>85133179.60302259</v>
+        <v>4188013.010735624</v>
       </c>
       <c r="H19" t="n">
-        <v>84091047.28893574</v>
+        <v>4184893.68745067</v>
       </c>
       <c r="I19" t="n">
-        <v>1436631.686388727</v>
+        <v>1386351.912023443</v>
       </c>
       <c r="J19" t="n">
-        <v>1436630.890974492</v>
+        <v>1386352.273529322</v>
       </c>
     </row>
     <row r="20">
@@ -1107,28 +1107,28 @@
         <v>0.0008764241893076249</v>
       </c>
       <c r="C20" t="n">
-        <v>67338678.17759606</v>
+        <v>66644917.64647467</v>
       </c>
       <c r="D20" t="n">
-        <v>67336258.86394042</v>
+        <v>66643947.97625262</v>
       </c>
       <c r="E20" t="n">
-        <v>63449524.74280728</v>
+        <v>63387854.98812838</v>
       </c>
       <c r="F20" t="n">
-        <v>63449480.73621068</v>
+        <v>63387788.34046507</v>
       </c>
       <c r="G20" t="n">
-        <v>9399434.143206432</v>
+        <v>6801426.624650368</v>
       </c>
       <c r="H20" t="n">
-        <v>9395793.610375164</v>
+        <v>6803542.146000199</v>
       </c>
       <c r="I20" t="n">
-        <v>815237.343450599</v>
+        <v>841784.373025906</v>
       </c>
       <c r="J20" t="n">
-        <v>815236.3798983097</v>
+        <v>841783.6870114113</v>
       </c>
     </row>
     <row r="21">
@@ -1141,28 +1141,28 @@
         <v>0.0009251144220469374</v>
       </c>
       <c r="C21" t="n">
-        <v>68385749.78047675</v>
+        <v>67819065.59791707</v>
       </c>
       <c r="D21" t="n">
-        <v>68381852.05245648</v>
+        <v>67816591.60267068</v>
       </c>
       <c r="E21" t="n">
-        <v>65690433.75905633</v>
+        <v>66145421.63365877</v>
       </c>
       <c r="F21" t="n">
-        <v>65690347.67828522</v>
+        <v>66145406.52438826</v>
       </c>
       <c r="G21" t="n">
-        <v>21438844.25208955</v>
+        <v>19032469.76897266</v>
       </c>
       <c r="H21" t="n">
-        <v>21446067.86881521</v>
+        <v>19047849.09642952</v>
       </c>
       <c r="I21" t="n">
-        <v>883431.9174511253</v>
+        <v>813943.7556715967</v>
       </c>
       <c r="J21" t="n">
-        <v>883427.2199264733</v>
+        <v>813942.9008481548</v>
       </c>
     </row>
     <row r="22">
@@ -1175,28 +1175,28 @@
         <v>0.0009738046547862498</v>
       </c>
       <c r="C22" t="n">
-        <v>57773904.39136551</v>
+        <v>57503035.30983151</v>
       </c>
       <c r="D22" t="n">
-        <v>57771467.27276205</v>
+        <v>57500958.77079751</v>
       </c>
       <c r="E22" t="n">
-        <v>56575787.62804133</v>
+        <v>56859287.97701728</v>
       </c>
       <c r="F22" t="n">
-        <v>56575721.94572949</v>
+        <v>56859266.33464291</v>
       </c>
       <c r="G22" t="n">
-        <v>16431103.9753981</v>
+        <v>14159433.25112527</v>
       </c>
       <c r="H22" t="n">
-        <v>16437782.36749394</v>
+        <v>14161591.29192357</v>
       </c>
       <c r="I22" t="n">
-        <v>885837.3609082042</v>
+        <v>864282.1963846391</v>
       </c>
       <c r="J22" t="n">
-        <v>885832.9586720216</v>
+        <v>864280.9853306892</v>
       </c>
     </row>
     <row r="23">
@@ -1209,28 +1209,28 @@
         <v>0.001022494887525562</v>
       </c>
       <c r="C23" t="n">
-        <v>39965117.41030759</v>
+        <v>39929577.63629435</v>
       </c>
       <c r="D23" t="n">
-        <v>39964222.77084029</v>
+        <v>39929729.41676126</v>
       </c>
       <c r="E23" t="n">
-        <v>39580255.8443131</v>
+        <v>39612455.01098214</v>
       </c>
       <c r="F23" t="n">
-        <v>39580199.31000742</v>
+        <v>39612395.46403001</v>
       </c>
       <c r="G23" t="n">
-        <v>9513192.091031535</v>
+        <v>7644433.264760778</v>
       </c>
       <c r="H23" t="n">
-        <v>9510144.854128439</v>
+        <v>7638597.049936029</v>
       </c>
       <c r="I23" t="n">
-        <v>903322.7535171235</v>
+        <v>907649.2404295155</v>
       </c>
       <c r="J23" t="n">
-        <v>903319.2629180161</v>
+        <v>907647.3798615339</v>
       </c>
     </row>
     <row r="24">
@@ -1243,28 +1243,28 @@
         <v>0.001071185120264875</v>
       </c>
       <c r="C24" t="n">
-        <v>447012313.9183266</v>
+        <v>152343028.6182823</v>
       </c>
       <c r="D24" t="n">
-        <v>447043902.4820572</v>
+        <v>152343120.0476015</v>
       </c>
       <c r="E24" t="n">
-        <v>143333435.5272071</v>
+        <v>143393340.2031053</v>
       </c>
       <c r="F24" t="n">
-        <v>143333496.136027</v>
+        <v>143393398.5397012</v>
       </c>
       <c r="G24" t="n">
-        <v>301569399.001492</v>
+        <v>6460279.265574605</v>
       </c>
       <c r="H24" t="n">
-        <v>300852333.4627348</v>
+        <v>6456699.104482433</v>
       </c>
       <c r="I24" t="n">
-        <v>1638499.799134139</v>
+        <v>1634967.150408868</v>
       </c>
       <c r="J24" t="n">
-        <v>1638500.270086046</v>
+        <v>1634968.494832272</v>
       </c>
     </row>
     <row r="25">
@@ -1277,28 +1277,28 @@
         <v>0.001119875353004187</v>
       </c>
       <c r="C25" t="n">
-        <v>37219761.44078223</v>
+        <v>37048572.21504242</v>
       </c>
       <c r="D25" t="n">
-        <v>37218609.52202796</v>
+        <v>37047334.00451827</v>
       </c>
       <c r="E25" t="n">
-        <v>37787128.66721278</v>
+        <v>38032338.20262033</v>
       </c>
       <c r="F25" t="n">
-        <v>37787114.93384383</v>
+        <v>38032289.72304398</v>
       </c>
       <c r="G25" t="n">
-        <v>8062939.47318078</v>
+        <v>6871351.275216403</v>
       </c>
       <c r="H25" t="n">
-        <v>8065989.09699454</v>
+        <v>6872431.583361358</v>
       </c>
       <c r="I25" t="n">
-        <v>708838.2712250324</v>
+        <v>762706.7816830658</v>
       </c>
       <c r="J25" t="n">
-        <v>708837.2992883446</v>
+        <v>762706.0431128069</v>
       </c>
     </row>
     <row r="26">
@@ -1311,28 +1311,28 @@
         <v>0.0011685655857435</v>
       </c>
       <c r="C26" t="n">
-        <v>174153519.6380559</v>
+        <v>171332384.5135512</v>
       </c>
       <c r="D26" t="n">
-        <v>174164474.5890959</v>
+        <v>171333624.4149036</v>
       </c>
       <c r="E26" t="n">
-        <v>167258036.4049728</v>
+        <v>166804946.6318329</v>
       </c>
       <c r="F26" t="n">
-        <v>167258066.2713251</v>
+        <v>166805005.402961</v>
       </c>
       <c r="G26" t="n">
-        <v>17851929.76726681</v>
+        <v>11836149.85419095</v>
       </c>
       <c r="H26" t="n">
-        <v>17925406.68913725</v>
+        <v>11825310.27773568</v>
       </c>
       <c r="I26" t="n">
-        <v>1564066.747083427</v>
+        <v>1596870.011234043</v>
       </c>
       <c r="J26" t="n">
-        <v>1564065.441396498</v>
+        <v>1596871.051285364</v>
       </c>
     </row>
     <row r="27">
@@ -1345,28 +1345,28 @@
         <v>0.001217255818482812</v>
       </c>
       <c r="C27" t="n">
-        <v>197119839.463005</v>
+        <v>183499084.9030938</v>
       </c>
       <c r="D27" t="n">
-        <v>197164694.7432871</v>
+        <v>183500575.2976745</v>
       </c>
       <c r="E27" t="n">
-        <v>176334967.363141</v>
+        <v>176278240.4236376</v>
       </c>
       <c r="F27" t="n">
-        <v>176334998.251375</v>
+        <v>176278299.7115515</v>
       </c>
       <c r="G27" t="n">
-        <v>36763615.57066438</v>
+        <v>9873359.808629055</v>
       </c>
       <c r="H27" t="n">
-        <v>37395753.13809381</v>
+        <v>9868513.120441612</v>
       </c>
       <c r="I27" t="n">
-        <v>1557914.846597781</v>
+        <v>1590257.926242122</v>
       </c>
       <c r="J27" t="n">
-        <v>1557913.43172825</v>
+        <v>1590258.855985597</v>
       </c>
     </row>
     <row r="28">
@@ -1379,28 +1379,28 @@
         <v>0.001265946051222125</v>
       </c>
       <c r="C28" t="n">
-        <v>56951889.16793744</v>
+        <v>56646006.14434455</v>
       </c>
       <c r="D28" t="n">
-        <v>56950370.23209874</v>
+        <v>56644999.90468889</v>
       </c>
       <c r="E28" t="n">
-        <v>60120074.10219419</v>
+        <v>60218456.7159311</v>
       </c>
       <c r="F28" t="n">
-        <v>60120050.55945648</v>
+        <v>60218405.98062657</v>
       </c>
       <c r="G28" t="n">
-        <v>11932043.43294721</v>
+        <v>10384872.58452818</v>
       </c>
       <c r="H28" t="n">
-        <v>11929762.18317456</v>
+        <v>10358601.16735359</v>
       </c>
       <c r="I28" t="n">
-        <v>818599.4816650747</v>
+        <v>833484.1269188098</v>
       </c>
       <c r="J28" t="n">
-        <v>818597.5675981458</v>
+        <v>833482.9828403107</v>
       </c>
     </row>
     <row r="29">
@@ -1413,28 +1413,28 @@
         <v>0.001314636283961437</v>
       </c>
       <c r="C29" t="n">
-        <v>59158856.81942591</v>
+        <v>59357163.8161823</v>
       </c>
       <c r="D29" t="n">
-        <v>59150844.90158423</v>
+        <v>59353135.72012541</v>
       </c>
       <c r="E29" t="n">
-        <v>59599581.22321495</v>
+        <v>59737722.5660838</v>
       </c>
       <c r="F29" t="n">
-        <v>59599562.43830725</v>
+        <v>59737665.04976226</v>
       </c>
       <c r="G29" t="n">
-        <v>12789036.89818128</v>
+        <v>11702150.74055988</v>
       </c>
       <c r="H29" t="n">
-        <v>12771126.98352575</v>
+        <v>11715355.39591569</v>
       </c>
       <c r="I29" t="n">
-        <v>766172.6672391531</v>
+        <v>798682.5052689955</v>
       </c>
       <c r="J29" t="n">
-        <v>766171.7054387406</v>
+        <v>798681.8755812002</v>
       </c>
     </row>
     <row r="30">
@@ -1447,28 +1447,28 @@
         <v>0.00136332651670075</v>
       </c>
       <c r="C30" t="n">
-        <v>5.097725230350022e+25</v>
+        <v>60179152.39818616</v>
       </c>
       <c r="D30" t="n">
-        <v>5.085423781190501e+25</v>
+        <v>60177646.1249894</v>
       </c>
       <c r="E30" t="n">
-        <v>58405461.12410803</v>
+        <v>58494794.70209315</v>
       </c>
       <c r="F30" t="n">
-        <v>58405415.17599526</v>
+        <v>58494726.77627954</v>
       </c>
       <c r="G30" t="n">
-        <v>9.491916466624927e+25</v>
+        <v>6325205.727625455</v>
       </c>
       <c r="H30" t="n">
-        <v>9.320255029087387e+25</v>
+        <v>6284400.570997008</v>
       </c>
       <c r="I30" t="n">
-        <v>774896.999072621</v>
+        <v>805410.6812800397</v>
       </c>
       <c r="J30" t="n">
-        <v>774896.8800360073</v>
+        <v>805410.1309544011</v>
       </c>
     </row>
     <row r="31">
@@ -1481,28 +1481,28 @@
         <v>0.001412016749440062</v>
       </c>
       <c r="C31" t="n">
-        <v>1.851948541825821e+17</v>
+        <v>217956629.4934479</v>
       </c>
       <c r="D31" t="n">
-        <v>1.840369386019615e+17</v>
+        <v>217956783.5398675</v>
       </c>
       <c r="E31" t="n">
-        <v>213987630.2922677</v>
+        <v>214582054.0174698</v>
       </c>
       <c r="F31" t="n">
-        <v>213987736.9735402</v>
+        <v>214582130.6643077</v>
       </c>
       <c r="G31" t="n">
-        <v>3.82702256677038e+17</v>
+        <v>4831806.129121557</v>
       </c>
       <c r="H31" t="n">
-        <v>3.842634704556686e+17</v>
+        <v>4825841.724801797</v>
       </c>
       <c r="I31" t="n">
-        <v>1460168.603257811</v>
+        <v>1425334.858039546</v>
       </c>
       <c r="J31" t="n">
-        <v>1460168.048173486</v>
+        <v>1425335.349452067</v>
       </c>
     </row>
     <row r="32">
@@ -1515,28 +1515,28 @@
         <v>0.001460706982179375</v>
       </c>
       <c r="C32" t="n">
-        <v>2.15139457249452e+20</v>
+        <v>59338325.55249856</v>
       </c>
       <c r="D32" t="n">
-        <v>2.137290677805826e+20</v>
+        <v>59337344.23306784</v>
       </c>
       <c r="E32" t="n">
-        <v>59181476.35801642</v>
+        <v>59108559.94216466</v>
       </c>
       <c r="F32" t="n">
-        <v>59181375.2131362</v>
+        <v>59108489.86573383</v>
       </c>
       <c r="G32" t="n">
-        <v>4.436652174770095e+20</v>
+        <v>3543046.141704116</v>
       </c>
       <c r="H32" t="n">
-        <v>4.472509741920995e+20</v>
+        <v>3539790.483767254</v>
       </c>
       <c r="I32" t="n">
-        <v>810889.6265632722</v>
+        <v>769737.5796441054</v>
       </c>
       <c r="J32" t="n">
-        <v>810887.1712136874</v>
+        <v>769736.8940327084</v>
       </c>
     </row>
     <row r="33">
@@ -1549,28 +1549,28 @@
         <v>0.001509397214918687</v>
       </c>
       <c r="C33" t="n">
-        <v>230185268.9136732</v>
+        <v>228059864.6681267</v>
       </c>
       <c r="D33" t="n">
-        <v>230173039.6323703</v>
+        <v>228060668.4567792</v>
       </c>
       <c r="E33" t="n">
-        <v>226381490.323786</v>
+        <v>227441775.8966278</v>
       </c>
       <c r="F33" t="n">
-        <v>226381629.7518133</v>
+        <v>227441853.1405568</v>
       </c>
       <c r="G33" t="n">
-        <v>6695965.458714391</v>
+        <v>3199495.21456613</v>
       </c>
       <c r="H33" t="n">
-        <v>6631820.217025845</v>
+        <v>3201529.061834425</v>
       </c>
       <c r="I33" t="n">
-        <v>1487609.319371484</v>
+        <v>1409968.789870419</v>
       </c>
       <c r="J33" t="n">
-        <v>1487608.294856499</v>
+        <v>1409969.159518125</v>
       </c>
     </row>
     <row r="34">
@@ -1583,28 +1583,28 @@
         <v>0.001558087447658</v>
       </c>
       <c r="C34" t="n">
-        <v>59795586.38617134</v>
+        <v>59918512.7349734</v>
       </c>
       <c r="D34" t="n">
-        <v>59790998.79705922</v>
+        <v>59917264.34445509</v>
       </c>
       <c r="E34" t="n">
-        <v>60343824.35069921</v>
+        <v>60398520.96699329</v>
       </c>
       <c r="F34" t="n">
-        <v>60343694.68170651</v>
+        <v>60398451.96178</v>
       </c>
       <c r="G34" t="n">
-        <v>2356366.030374773</v>
+        <v>1619389.237506738</v>
       </c>
       <c r="H34" t="n">
-        <v>2351279.585928755</v>
+        <v>1616844.957423244</v>
       </c>
       <c r="I34" t="n">
-        <v>835256.0974546161</v>
+        <v>756641.021798199</v>
       </c>
       <c r="J34" t="n">
-        <v>835252.2203296571</v>
+        <v>756640.3145677508</v>
       </c>
     </row>
     <row r="35">
@@ -1617,28 +1617,28 @@
         <v>0.001606777680397312</v>
       </c>
       <c r="C35" t="n">
-        <v>218216338058.1537</v>
+        <v>62622642.28684318</v>
       </c>
       <c r="D35" t="n">
-        <v>221196661100.1944</v>
+        <v>62620279.12215608</v>
       </c>
       <c r="E35" t="n">
-        <v>62752579.63108918</v>
+        <v>62769391.83647444</v>
       </c>
       <c r="F35" t="n">
-        <v>62752426.91999086</v>
+        <v>62769316.74559159</v>
       </c>
       <c r="G35" t="n">
-        <v>414528513097.1771</v>
+        <v>2160218.393834471</v>
       </c>
       <c r="H35" t="n">
-        <v>435880317408.6152</v>
+        <v>2159206.940218795</v>
       </c>
       <c r="I35" t="n">
-        <v>894265.4141216472</v>
+        <v>792267.8698205912</v>
       </c>
       <c r="J35" t="n">
-        <v>894260.6643954378</v>
+        <v>792267.1320573905</v>
       </c>
     </row>
     <row r="36">
@@ -1651,28 +1651,28 @@
         <v>0.001655467913136625</v>
       </c>
       <c r="C36" t="n">
-        <v>151500498.1558562</v>
+        <v>62502954.04378849</v>
       </c>
       <c r="D36" t="n">
-        <v>151650001.7033318</v>
+        <v>62501054.05705019</v>
       </c>
       <c r="E36" t="n">
-        <v>63231593.48818815</v>
+        <v>63235889.15390511</v>
       </c>
       <c r="F36" t="n">
-        <v>63231445.82938556</v>
+        <v>63235815.04470845</v>
       </c>
       <c r="G36" t="n">
-        <v>187564986.4665549</v>
+        <v>1795197.83320074</v>
       </c>
       <c r="H36" t="n">
-        <v>188479925.38477</v>
+        <v>1793275.093708952</v>
       </c>
       <c r="I36" t="n">
-        <v>880603.3692949598</v>
+        <v>789915.1236176468</v>
       </c>
       <c r="J36" t="n">
-        <v>880598.8154289866</v>
+        <v>789914.4195187995</v>
       </c>
     </row>
     <row r="37">
@@ -1685,28 +1685,28 @@
         <v>0.001704158145875937</v>
       </c>
       <c r="C37" t="n">
-        <v>3613486701.531961</v>
+        <v>62646920.6068458</v>
       </c>
       <c r="D37" t="n">
-        <v>3628177093.895501</v>
+        <v>62644905.92168395</v>
       </c>
       <c r="E37" t="n">
-        <v>63129415.60476179</v>
+        <v>63155063.85014719</v>
       </c>
       <c r="F37" t="n">
-        <v>63129272.90833144</v>
+        <v>63154992.51408006</v>
       </c>
       <c r="G37" t="n">
-        <v>6734075063.779067</v>
+        <v>1828898.660545455</v>
       </c>
       <c r="H37" t="n">
-        <v>6972199436.964797</v>
+        <v>1828114.2676978</v>
       </c>
       <c r="I37" t="n">
-        <v>864261.0470568505</v>
+        <v>775328.9011925221</v>
       </c>
       <c r="J37" t="n">
-        <v>864256.6698233214</v>
+        <v>775328.2274789824</v>
       </c>
     </row>
     <row r="38">
@@ -1719,28 +1719,28 @@
         <v>0.00175284837861525</v>
       </c>
       <c r="C38" t="n">
-        <v>63317544.04147233</v>
+        <v>63623938.57433686</v>
       </c>
       <c r="D38" t="n">
-        <v>63310407.74764449</v>
+        <v>63624568.43425266</v>
       </c>
       <c r="E38" t="n">
-        <v>63638170.50316823</v>
+        <v>63620303.47826542</v>
       </c>
       <c r="F38" t="n">
-        <v>63638021.94643094</v>
+        <v>63620232.7592036</v>
       </c>
       <c r="G38" t="n">
-        <v>2298226.207859971</v>
+        <v>1186652.913217651</v>
       </c>
       <c r="H38" t="n">
-        <v>2273968.386076724</v>
+        <v>1187585.332372557</v>
       </c>
       <c r="I38" t="n">
-        <v>877315.4798036133</v>
+        <v>774234.7390763317</v>
       </c>
       <c r="J38" t="n">
-        <v>877310.822616009</v>
+        <v>774234.0771408487</v>
       </c>
     </row>
     <row r="39">
@@ -1753,28 +1753,28 @@
         <v>0.001801538611354562</v>
       </c>
       <c r="C39" t="n">
-        <v>62826458.91257586</v>
+        <v>63253414.71479116</v>
       </c>
       <c r="D39" t="n">
-        <v>62809723.25214972</v>
+        <v>63251094.57410794</v>
       </c>
       <c r="E39" t="n">
-        <v>63830747.75957254</v>
+        <v>63947360.49712671</v>
       </c>
       <c r="F39" t="n">
-        <v>63830607.09262532</v>
+        <v>63947289.75476196</v>
       </c>
       <c r="G39" t="n">
-        <v>2464911.500426261</v>
+        <v>1473652.285712137</v>
       </c>
       <c r="H39" t="n">
-        <v>2399986.952499111</v>
+        <v>1472978.500936823</v>
       </c>
       <c r="I39" t="n">
-        <v>862372.3337149136</v>
+        <v>775589.3281785215</v>
       </c>
       <c r="J39" t="n">
-        <v>862368.0528222044</v>
+        <v>775588.6599837494</v>
       </c>
     </row>
     <row r="40">
@@ -1787,28 +1787,28 @@
         <v>0.001850228844093875</v>
       </c>
       <c r="C40" t="n">
-        <v>65078769.41663985</v>
+        <v>64992492.81319235</v>
       </c>
       <c r="D40" t="n">
-        <v>65078467.34122866</v>
+        <v>64990711.46666328</v>
       </c>
       <c r="E40" t="n">
-        <v>64890925.12546063</v>
+        <v>65100072.93485756</v>
       </c>
       <c r="F40" t="n">
-        <v>64890775.20792327</v>
+        <v>65099999.07182351</v>
       </c>
       <c r="G40" t="n">
-        <v>2228790.452071705</v>
+        <v>1860965.770628111</v>
       </c>
       <c r="H40" t="n">
-        <v>2220470.824502671</v>
+        <v>1859282.879585655</v>
       </c>
       <c r="I40" t="n">
-        <v>891906.8397691373</v>
+        <v>796210.1864050521</v>
       </c>
       <c r="J40" t="n">
-        <v>891902.1999666026</v>
+        <v>796209.4937559661</v>
       </c>
     </row>
     <row r="41">
@@ -1821,28 +1821,28 @@
         <v>0.001898919076833187</v>
       </c>
       <c r="C41" t="n">
-        <v>66125934.61255445</v>
+        <v>65671964.76330458</v>
       </c>
       <c r="D41" t="n">
-        <v>66132838.15867721</v>
+        <v>65670102.4121064</v>
       </c>
       <c r="E41" t="n">
-        <v>65353672.12561676</v>
+        <v>65335766.0200292</v>
       </c>
       <c r="F41" t="n">
-        <v>65353519.49790646</v>
+        <v>65335692.19269846</v>
       </c>
       <c r="G41" t="n">
-        <v>2593178.60054742</v>
+        <v>1698132.812231398</v>
       </c>
       <c r="H41" t="n">
-        <v>2595677.06930609</v>
+        <v>1696338.848143826</v>
       </c>
       <c r="I41" t="n">
-        <v>898135.8079853914</v>
+        <v>796233.9105540803</v>
       </c>
       <c r="J41" t="n">
-        <v>898131.0357125297</v>
+        <v>796233.1987689756</v>
       </c>
     </row>
     <row r="42">
@@ -1855,28 +1855,28 @@
         <v>0.0019476093095725</v>
       </c>
       <c r="C42" t="n">
-        <v>332150013.8731027</v>
+        <v>65204143.70901346</v>
       </c>
       <c r="D42" t="n">
-        <v>331698019.6744288</v>
+        <v>65202861.92289428</v>
       </c>
       <c r="E42" t="n">
-        <v>64600942.47758065</v>
+        <v>64717242.94471011</v>
       </c>
       <c r="F42" t="n">
-        <v>64600788.2188273</v>
+        <v>64717169.06469277</v>
       </c>
       <c r="G42" t="n">
-        <v>531416203.6339785</v>
+        <v>1856774.452626874</v>
       </c>
       <c r="H42" t="n">
-        <v>530315477.9416847</v>
+        <v>1856995.988012064</v>
       </c>
       <c r="I42" t="n">
-        <v>901715.8041664611</v>
+        <v>799449.5478859458</v>
       </c>
       <c r="J42" t="n">
-        <v>901710.846914822</v>
+        <v>799448.8390525074</v>
       </c>
     </row>
     <row r="43">
@@ -1889,28 +1889,28 @@
         <v>0.001996299542311812</v>
       </c>
       <c r="C43" t="n">
-        <v>65316046.81787354</v>
+        <v>65392980.17780631</v>
       </c>
       <c r="D43" t="n">
-        <v>65314736.60381041</v>
+        <v>65391961.32537928</v>
       </c>
       <c r="E43" t="n">
-        <v>64435012.58275726</v>
+        <v>64459576.5689237</v>
       </c>
       <c r="F43" t="n">
-        <v>64434869.7989656</v>
+        <v>64459504.70024248</v>
       </c>
       <c r="G43" t="n">
-        <v>1658804.934228495</v>
+        <v>1807168.714014163</v>
       </c>
       <c r="H43" t="n">
-        <v>1657744.80653864</v>
+        <v>1809179.630716956</v>
       </c>
       <c r="I43" t="n">
-        <v>881872.2756511031</v>
+        <v>787901.569270107</v>
       </c>
       <c r="J43" t="n">
-        <v>881867.8505189791</v>
+        <v>787900.8191968091</v>
       </c>
     </row>
     <row r="44">
@@ -1923,28 +1923,28 @@
         <v>0.002044989775051125</v>
       </c>
       <c r="C44" t="n">
-        <v>62785963.84848172</v>
+        <v>63203478.73289306</v>
       </c>
       <c r="D44" t="n">
-        <v>62778064.12474717</v>
+        <v>63201289.79519279</v>
       </c>
       <c r="E44" t="n">
-        <v>63530211.26401339</v>
+        <v>63492312.44872415</v>
       </c>
       <c r="F44" t="n">
-        <v>63530074.88149215</v>
+        <v>63492242.8513863</v>
       </c>
       <c r="G44" t="n">
-        <v>2846355.781007519</v>
+        <v>2070097.405800244</v>
       </c>
       <c r="H44" t="n">
-        <v>2834701.064619639</v>
+        <v>2070711.773751552</v>
       </c>
       <c r="I44" t="n">
-        <v>862238.9690139883</v>
+        <v>776488.4366539689</v>
       </c>
       <c r="J44" t="n">
-        <v>862234.7027557053</v>
+        <v>776487.707549441</v>
       </c>
     </row>
     <row r="45">
@@ -1957,28 +1957,28 @@
         <v>0.002093680007790437</v>
       </c>
       <c r="C45" t="n">
-        <v>244654938.7122387</v>
+        <v>238739858.5046561</v>
       </c>
       <c r="D45" t="n">
-        <v>244639966.5581222</v>
+        <v>238740698.7122171</v>
       </c>
       <c r="E45" t="n">
-        <v>237694810.6148672</v>
+        <v>238666839.2143387</v>
       </c>
       <c r="F45" t="n">
-        <v>237694960.826801</v>
+        <v>238666917.8455552</v>
       </c>
       <c r="G45" t="n">
-        <v>10811320.16524776</v>
+        <v>3163735.181753063</v>
       </c>
       <c r="H45" t="n">
-        <v>10578571.73811661</v>
+        <v>3162973.147672555</v>
       </c>
       <c r="I45" t="n">
-        <v>1530483.455655502</v>
+        <v>1431582.211110855</v>
       </c>
       <c r="J45" t="n">
-        <v>1530482.236780835</v>
+        <v>1431582.564266465</v>
       </c>
     </row>
     <row r="46">
@@ -1991,28 +1991,28 @@
         <v>0.00214237024052975</v>
       </c>
       <c r="C46" t="n">
-        <v>314225468.3606439</v>
+        <v>238363239.4324796</v>
       </c>
       <c r="D46" t="n">
-        <v>314220941.686881</v>
+        <v>238366235.2394782</v>
       </c>
       <c r="E46" t="n">
-        <v>235833697.6093971</v>
+        <v>236376515.3039346</v>
       </c>
       <c r="F46" t="n">
-        <v>235833845.9647392</v>
+        <v>236376592.7282906</v>
       </c>
       <c r="G46" t="n">
-        <v>81387787.33724709</v>
+        <v>3361465.232285845</v>
       </c>
       <c r="H46" t="n">
-        <v>78938701.7630033</v>
+        <v>3368573.899361378</v>
       </c>
       <c r="I46" t="n">
-        <v>1524275.307569313</v>
+        <v>1421898.454853839</v>
       </c>
       <c r="J46" t="n">
-        <v>1524274.064226138</v>
+        <v>1421898.803745762</v>
       </c>
     </row>
     <row r="47">
@@ -2025,28 +2025,28 @@
         <v>0.002191060473269062</v>
       </c>
       <c r="C47" t="n">
-        <v>67119705.40171841</v>
+        <v>64621542.90837121</v>
       </c>
       <c r="D47" t="n">
-        <v>67083400.2896709</v>
+        <v>64618154.3086896</v>
       </c>
       <c r="E47" t="n">
-        <v>65083007.02420274</v>
+        <v>65173742.50169375</v>
       </c>
       <c r="F47" t="n">
-        <v>65082895.23596372</v>
+        <v>65173669.34984943</v>
       </c>
       <c r="G47" t="n">
-        <v>13018670.67880704</v>
+        <v>4141291.522116475</v>
       </c>
       <c r="H47" t="n">
-        <v>11859228.25190411</v>
+        <v>4127238.77770895</v>
       </c>
       <c r="I47" t="n">
-        <v>858948.1288175122</v>
+        <v>812575.320309697</v>
       </c>
       <c r="J47" t="n">
-        <v>858945.2308605792</v>
+        <v>812574.6356638282</v>
       </c>
     </row>
     <row r="48">
@@ -2059,28 +2059,28 @@
         <v>0.002239750706008375</v>
       </c>
       <c r="C48" t="n">
-        <v>235622454.9959787</v>
+        <v>235295401.4551359</v>
       </c>
       <c r="D48" t="n">
-        <v>235627707.5692888</v>
+        <v>235296653.0229569</v>
       </c>
       <c r="E48" t="n">
-        <v>234072178.0425506</v>
+        <v>234747019.4716035</v>
       </c>
       <c r="F48" t="n">
-        <v>234072309.9634335</v>
+        <v>234747095.7537849</v>
       </c>
       <c r="G48" t="n">
-        <v>5434688.862209758</v>
+        <v>4515765.685774775</v>
       </c>
       <c r="H48" t="n">
-        <v>5424763.829464996</v>
+        <v>4506089.689526126</v>
       </c>
       <c r="I48" t="n">
-        <v>1494799.829770346</v>
+        <v>1418320.086008403</v>
       </c>
       <c r="J48" t="n">
-        <v>1494798.73177316</v>
+        <v>1418320.445094735</v>
       </c>
     </row>
     <row r="49">
@@ -2093,28 +2093,28 @@
         <v>0.002288440938747687</v>
       </c>
       <c r="C49" t="n">
-        <v>3.602173322198718e+21</v>
+        <v>70764143.6658473</v>
       </c>
       <c r="D49" t="n">
-        <v>3.579650945931454e+21</v>
+        <v>70762694.64455688</v>
       </c>
       <c r="E49" t="n">
-        <v>67410079.45439079</v>
+        <v>67362164.32414317</v>
       </c>
       <c r="F49" t="n">
-        <v>67409978.57143769</v>
+        <v>67362085.50507459</v>
       </c>
       <c r="G49" t="n">
-        <v>7.443824772855978e+21</v>
+        <v>4571105.682485815</v>
       </c>
       <c r="H49" t="n">
-        <v>7.474193156771444e+21</v>
+        <v>4565515.736108456</v>
       </c>
       <c r="I49" t="n">
-        <v>894094.6417941598</v>
+        <v>865810.4683624576</v>
       </c>
       <c r="J49" t="n">
-        <v>894092.4602816348</v>
+        <v>865809.8155272624</v>
       </c>
     </row>
     <row r="50">
@@ -2127,28 +2127,28 @@
         <v>0.002337131171487</v>
       </c>
       <c r="C50" t="n">
-        <v>435396739.5360434</v>
+        <v>235193663.505317</v>
       </c>
       <c r="D50" t="n">
-        <v>435534129.520348</v>
+        <v>235193700.023831</v>
       </c>
       <c r="E50" t="n">
-        <v>232529333.1035877</v>
+        <v>232938653.5019771</v>
       </c>
       <c r="F50" t="n">
-        <v>232529466.7060832</v>
+        <v>232938731.455851</v>
       </c>
       <c r="G50" t="n">
-        <v>210104214.4517142</v>
+        <v>4013927.679142554</v>
       </c>
       <c r="H50" t="n">
-        <v>206992821.735686</v>
+        <v>4012035.853461822</v>
       </c>
       <c r="I50" t="n">
-        <v>1523292.389713078</v>
+        <v>1445225.692399541</v>
       </c>
       <c r="J50" t="n">
-        <v>1523291.319573205</v>
+        <v>1445226.09955499</v>
       </c>
     </row>
     <row r="51">
@@ -2161,28 +2161,28 @@
         <v>0.002385821404226312</v>
       </c>
       <c r="C51" t="n">
-        <v>236389211.9920763</v>
+        <v>235647635.634467</v>
       </c>
       <c r="D51" t="n">
-        <v>236389107.5489152</v>
+        <v>235649719.9180021</v>
       </c>
       <c r="E51" t="n">
-        <v>232934639.3017256</v>
+        <v>233479372.4614761</v>
       </c>
       <c r="F51" t="n">
-        <v>232934772.3480613</v>
+        <v>233479451.1620776</v>
       </c>
       <c r="G51" t="n">
-        <v>6194724.8330028</v>
+        <v>4732438.921053224</v>
       </c>
       <c r="H51" t="n">
-        <v>6207992.418959835</v>
+        <v>4734293.871626273</v>
       </c>
       <c r="I51" t="n">
-        <v>1530271.851072168</v>
+        <v>1455828.477715518</v>
       </c>
       <c r="J51" t="n">
-        <v>1530270.810805156</v>
+        <v>1455828.898204213</v>
       </c>
     </row>
     <row r="52">
@@ -2195,28 +2195,28 @@
         <v>0.002434511636965625</v>
       </c>
       <c r="C52" t="n">
-        <v>69288181.09812203</v>
+        <v>69292782.61948459</v>
       </c>
       <c r="D52" t="n">
-        <v>69286718.50343551</v>
+        <v>69293313.10039924</v>
       </c>
       <c r="E52" t="n">
-        <v>67917003.06185444</v>
+        <v>67946738.77494366</v>
       </c>
       <c r="F52" t="n">
-        <v>67916943.50189933</v>
+        <v>67946670.30772316</v>
       </c>
       <c r="G52" t="n">
-        <v>4449163.326021673</v>
+        <v>3709548.105725362</v>
       </c>
       <c r="H52" t="n">
-        <v>4454887.702147873</v>
+        <v>3715796.999460488</v>
       </c>
       <c r="I52" t="n">
-        <v>800937.2131633965</v>
+        <v>811740.1372187615</v>
       </c>
       <c r="J52" t="n">
-        <v>800936.6852674773</v>
+        <v>811739.581715</v>
       </c>
     </row>
     <row r="53">
@@ -2229,28 +2229,28 @@
         <v>0.002483201869704937</v>
       </c>
       <c r="C53" t="n">
-        <v>344214382.4267289</v>
+        <v>239192595.2739282</v>
       </c>
       <c r="D53" t="n">
-        <v>344258855.8010007</v>
+        <v>239193424.7567502</v>
       </c>
       <c r="E53" t="n">
-        <v>235867921.0715325</v>
+        <v>236513309.4254083</v>
       </c>
       <c r="F53" t="n">
-        <v>235868065.6200089</v>
+        <v>236513387.406387</v>
       </c>
       <c r="G53" t="n">
-        <v>113446940.0977616</v>
+        <v>4016536.63208233</v>
       </c>
       <c r="H53" t="n">
-        <v>111287460.8344104</v>
+        <v>4010675.721309455</v>
       </c>
       <c r="I53" t="n">
-        <v>1541066.507897027</v>
+        <v>1446467.648762359</v>
       </c>
       <c r="J53" t="n">
-        <v>1541065.258251683</v>
+        <v>1446468.031011624</v>
       </c>
     </row>
     <row r="54">
@@ -2263,28 +2263,28 @@
         <v>0.00253189210244425</v>
       </c>
       <c r="C54" t="n">
-        <v>65936529.09076336</v>
+        <v>65995128.16995043</v>
       </c>
       <c r="D54" t="n">
-        <v>65933218.624983</v>
+        <v>65993065.90571982</v>
       </c>
       <c r="E54" t="n">
-        <v>68081300.41297916</v>
+        <v>68080770.33296202</v>
       </c>
       <c r="F54" t="n">
-        <v>68081231.10813878</v>
+        <v>68080701.99561383</v>
       </c>
       <c r="G54" t="n">
-        <v>5573138.512439487</v>
+        <v>4738341.932468277</v>
       </c>
       <c r="H54" t="n">
-        <v>5565059.339664692</v>
+        <v>4726643.205756176</v>
       </c>
       <c r="I54" t="n">
-        <v>808675.8753299172</v>
+        <v>807505.3956668426</v>
       </c>
       <c r="J54" t="n">
-        <v>808674.9077931467</v>
+        <v>807504.8167636094</v>
       </c>
     </row>
     <row r="55">
@@ -2297,28 +2297,28 @@
         <v>0.002580582335183562</v>
       </c>
       <c r="C55" t="n">
-        <v>67284440.83592235</v>
+        <v>67233259.01709779</v>
       </c>
       <c r="D55" t="n">
-        <v>67282782.84762123</v>
+        <v>67232549.52589297</v>
       </c>
       <c r="E55" t="n">
-        <v>70705462.52105591</v>
+        <v>70711458.67435174</v>
       </c>
       <c r="F55" t="n">
-        <v>70705396.06861676</v>
+        <v>70711387.70605962</v>
       </c>
       <c r="G55" t="n">
-        <v>4334202.452091604</v>
+        <v>3639155.018809678</v>
       </c>
       <c r="H55" t="n">
-        <v>4328222.771349217</v>
+        <v>3626976.243368549</v>
       </c>
       <c r="I55" t="n">
-        <v>823289.6594513584</v>
+        <v>828977.4318677818</v>
       </c>
       <c r="J55" t="n">
-        <v>823288.9149090658</v>
+        <v>828976.8524448941</v>
       </c>
     </row>
     <row r="56">
@@ -2331,28 +2331,28 @@
         <v>0.002629272567922875</v>
       </c>
       <c r="C56" t="n">
-        <v>343576112.2292764</v>
+        <v>244749542.6088157</v>
       </c>
       <c r="D56" t="n">
-        <v>343596970.9805071</v>
+        <v>244750854.8764735</v>
       </c>
       <c r="E56" t="n">
-        <v>241298143.2391334</v>
+        <v>241747744.4883899</v>
       </c>
       <c r="F56" t="n">
-        <v>241298290.8740396</v>
+        <v>241747823.2371602</v>
       </c>
       <c r="G56" t="n">
-        <v>105411700.6382211</v>
+        <v>3317914.472504706</v>
       </c>
       <c r="H56" t="n">
-        <v>102762002.6360229</v>
+        <v>3323574.306805337</v>
       </c>
       <c r="I56" t="n">
-        <v>1552671.966548225</v>
+        <v>1450494.30673281</v>
       </c>
       <c r="J56" t="n">
-        <v>1552670.685963774</v>
+        <v>1450494.677726823</v>
       </c>
     </row>
     <row r="57">
@@ -2365,28 +2365,28 @@
         <v>0.002677962800662187</v>
       </c>
       <c r="C57" t="n">
-        <v>69928631.67303179</v>
+        <v>69887352.87523678</v>
       </c>
       <c r="D57" t="n">
-        <v>69928892.64204614</v>
+        <v>69886924.65055424</v>
       </c>
       <c r="E57" t="n">
-        <v>70778438.19947162</v>
+        <v>70771345.88969937</v>
       </c>
       <c r="F57" t="n">
-        <v>70778363.62216076</v>
+        <v>70771274.89959528</v>
       </c>
       <c r="G57" t="n">
-        <v>5961206.620948573</v>
+        <v>4825967.635358336</v>
       </c>
       <c r="H57" t="n">
-        <v>5950790.041992978</v>
+        <v>4815083.239378355</v>
       </c>
       <c r="I57" t="n">
-        <v>830505.1821688416</v>
+        <v>826167.6163102046</v>
       </c>
       <c r="J57" t="n">
-        <v>830504.0739499873</v>
+        <v>826167.0127680514</v>
       </c>
     </row>
     <row r="58">
@@ -2399,28 +2399,28 @@
         <v>0.0027266530334015</v>
       </c>
       <c r="C58" t="n">
-        <v>10221863413.93423</v>
+        <v>246100767.6810973</v>
       </c>
       <c r="D58" t="n">
-        <v>10340116876.29778</v>
+        <v>246102336.9541426</v>
       </c>
       <c r="E58" t="n">
-        <v>243780390.4065208</v>
+        <v>244383685.4665111</v>
       </c>
       <c r="F58" t="n">
-        <v>243780536.7186855</v>
+        <v>244383761.6178753</v>
       </c>
       <c r="G58" t="n">
-        <v>18716803175.82534</v>
+        <v>3486298.457469807</v>
       </c>
       <c r="H58" t="n">
-        <v>19782471349.97523</v>
+        <v>3484042.738554907</v>
       </c>
       <c r="I58" t="n">
-        <v>1525661.868806688</v>
+        <v>1422343.902124039</v>
       </c>
       <c r="J58" t="n">
-        <v>1525660.46944229</v>
+        <v>1422344.221536648</v>
       </c>
     </row>
     <row r="59">
@@ -2433,28 +2433,28 @@
         <v>0.002775343266140812</v>
       </c>
       <c r="C59" t="n">
-        <v>72725248.39600724</v>
+        <v>72961266.25295496</v>
       </c>
       <c r="D59" t="n">
-        <v>72719136.96507184</v>
+        <v>72958995.41036959</v>
       </c>
       <c r="E59" t="n">
-        <v>71323461.11737782</v>
+        <v>71322014.03211097</v>
       </c>
       <c r="F59" t="n">
-        <v>71323380.12239826</v>
+        <v>71321942.78555433</v>
       </c>
       <c r="G59" t="n">
-        <v>5137754.404713387</v>
+        <v>3691207.845491712</v>
       </c>
       <c r="H59" t="n">
-        <v>5125973.709587727</v>
+        <v>3686374.370408094</v>
       </c>
       <c r="I59" t="n">
-        <v>840394.6629091408</v>
+        <v>828397.7002983949</v>
       </c>
       <c r="J59" t="n">
-        <v>840393.2672173135</v>
+        <v>828397.079464062</v>
       </c>
     </row>
     <row r="60">
@@ -2467,28 +2467,28 @@
         <v>0.002824033498880125</v>
       </c>
       <c r="C60" t="n">
-        <v>7.238130868948702e+20</v>
+        <v>74789204.17971674</v>
       </c>
       <c r="D60" t="n">
-        <v>7.323731809014352e+20</v>
+        <v>74790113.1670893</v>
       </c>
       <c r="E60" t="n">
-        <v>73623842.94482964</v>
+        <v>73562689.01780519</v>
       </c>
       <c r="F60" t="n">
-        <v>73623746.3291112</v>
+        <v>73562611.1873429</v>
       </c>
       <c r="G60" t="n">
-        <v>1.361462141581984e+21</v>
+        <v>5463485.576554078</v>
       </c>
       <c r="H60" t="n">
-        <v>1.440717184152278e+21</v>
+        <v>5457348.739772194</v>
       </c>
       <c r="I60" t="n">
-        <v>897769.6894424153</v>
+        <v>874094.3221081668</v>
       </c>
       <c r="J60" t="n">
-        <v>897767.7715559384</v>
+        <v>874093.6900483025</v>
       </c>
     </row>
     <row r="61">
@@ -2501,28 +2501,28 @@
         <v>0.002872723731619437</v>
       </c>
       <c r="C61" t="n">
-        <v>73372444.42066664</v>
+        <v>73671913.1335066</v>
       </c>
       <c r="D61" t="n">
-        <v>73365291.94788989</v>
+        <v>73671560.5701658</v>
       </c>
       <c r="E61" t="n">
-        <v>72998001.65473163</v>
+        <v>73009684.95404269</v>
       </c>
       <c r="F61" t="n">
-        <v>72997934.83376873</v>
+        <v>73009613.79886015</v>
       </c>
       <c r="G61" t="n">
-        <v>7791460.418807282</v>
+        <v>6501060.349473086</v>
       </c>
       <c r="H61" t="n">
-        <v>7768883.0646724</v>
+        <v>6498138.522995615</v>
       </c>
       <c r="I61" t="n">
-        <v>831231.0412470907</v>
+        <v>836369.3578370123</v>
       </c>
       <c r="J61" t="n">
-        <v>831230.2931311887</v>
+        <v>836368.7783218194</v>
       </c>
     </row>
     <row r="62">
@@ -2535,28 +2535,28 @@
         <v>0.00292141396435875</v>
       </c>
       <c r="C62" t="n">
-        <v>256604139.2102898</v>
+        <v>248603573.1922134</v>
       </c>
       <c r="D62" t="n">
-        <v>256662539.2789151</v>
+        <v>248605095.6754476</v>
       </c>
       <c r="E62" t="n">
-        <v>247043890.2859325</v>
+        <v>247470478.9704514</v>
       </c>
       <c r="F62" t="n">
-        <v>247044041.6835595</v>
+        <v>247470554.7910008</v>
       </c>
       <c r="G62" t="n">
-        <v>17830628.75925432</v>
+        <v>2936110.882556206</v>
       </c>
       <c r="H62" t="n">
-        <v>17850375.41559733</v>
+        <v>2927149.195349655</v>
       </c>
       <c r="I62" t="n">
-        <v>1538623.92999399</v>
+        <v>1421448.250107049</v>
       </c>
       <c r="J62" t="n">
-        <v>1538622.43096091</v>
+        <v>1421448.554511599</v>
       </c>
     </row>
     <row r="63">
@@ -2569,28 +2569,28 @@
         <v>0.002970104197098062</v>
       </c>
       <c r="C63" t="n">
-        <v>77072783.71953639</v>
+        <v>77249203.2987123</v>
       </c>
       <c r="D63" t="n">
-        <v>77063433.03213166</v>
+        <v>77245891.76458889</v>
       </c>
       <c r="E63" t="n">
-        <v>75152196.25059018</v>
+        <v>75152273.10538535</v>
       </c>
       <c r="F63" t="n">
-        <v>75152122.53948592</v>
+        <v>75152197.72600318</v>
       </c>
       <c r="G63" t="n">
-        <v>6065628.450466415</v>
+        <v>4636247.658197416</v>
       </c>
       <c r="H63" t="n">
-        <v>6037606.457472252</v>
+        <v>4629456.991742246</v>
       </c>
       <c r="I63" t="n">
-        <v>865633.7407562868</v>
+        <v>867519.5960233803</v>
       </c>
       <c r="J63" t="n">
-        <v>865632.818539349</v>
+        <v>867519.008692374</v>
       </c>
     </row>
     <row r="64">
@@ -2603,28 +2603,28 @@
         <v>0.003018794429837374</v>
       </c>
       <c r="C64" t="n">
-        <v>259191939.2791744</v>
+        <v>250491848.8809085</v>
       </c>
       <c r="D64" t="n">
-        <v>259258484.4661779</v>
+        <v>250494481.2149504</v>
       </c>
       <c r="E64" t="n">
-        <v>247828682.6242904</v>
+        <v>248405109.3851119</v>
       </c>
       <c r="F64" t="n">
-        <v>247828833.5910293</v>
+        <v>248405186.1201124</v>
       </c>
       <c r="G64" t="n">
-        <v>19969111.90707397</v>
+        <v>3680758.163205646</v>
       </c>
       <c r="H64" t="n">
-        <v>19996374.30970152</v>
+        <v>3678612.950376159</v>
       </c>
       <c r="I64" t="n">
-        <v>1548775.084249189</v>
+        <v>1434060.815698602</v>
       </c>
       <c r="J64" t="n">
-        <v>1548773.620619255</v>
+        <v>1434061.133066789</v>
       </c>
     </row>
     <row r="65">
@@ -2637,28 +2637,28 @@
         <v>0.003067484662576687</v>
       </c>
       <c r="C65" t="n">
-        <v>379388471.0638082</v>
+        <v>250194653.8655831</v>
       </c>
       <c r="D65" t="n">
-        <v>379436051.4144735</v>
+        <v>250196497.1549668</v>
       </c>
       <c r="E65" t="n">
-        <v>247649253.3500957</v>
+        <v>248233510.7154009</v>
       </c>
       <c r="F65" t="n">
-        <v>247649409.9848392</v>
+        <v>248233590.2123187</v>
       </c>
       <c r="G65" t="n">
-        <v>136295336.8946146</v>
+        <v>3590065.788884704</v>
       </c>
       <c r="H65" t="n">
-        <v>133053237.3014089</v>
+        <v>3597225.003780612</v>
       </c>
       <c r="I65" t="n">
-        <v>1582951.905430267</v>
+        <v>1464634.853881329</v>
       </c>
       <c r="J65" t="n">
-        <v>1582950.474235022</v>
+        <v>1464635.212073584</v>
       </c>
     </row>
     <row r="66">
@@ -2671,28 +2671,28 @@
         <v>0.003116174895315999</v>
       </c>
       <c r="C66" t="n">
-        <v>75761922.13762027</v>
+        <v>75873355.13860631</v>
       </c>
       <c r="D66" t="n">
-        <v>75756070.29262988</v>
+        <v>75871606.30411986</v>
       </c>
       <c r="E66" t="n">
-        <v>74863879.91188975</v>
+        <v>74876525.06607714</v>
       </c>
       <c r="F66" t="n">
-        <v>74863811.40353501</v>
+        <v>74876453.00922009</v>
       </c>
       <c r="G66" t="n">
-        <v>6448401.46906366</v>
+        <v>5155885.451666664</v>
       </c>
       <c r="H66" t="n">
-        <v>6430905.256111233</v>
+        <v>5155762.843806542</v>
       </c>
       <c r="I66" t="n">
-        <v>844303.0828829816</v>
+        <v>848548.2887526779</v>
       </c>
       <c r="J66" t="n">
-        <v>844302.2926469283</v>
+        <v>848547.7098226836</v>
       </c>
     </row>
     <row r="67">
@@ -2705,28 +2705,28 @@
         <v>0.003164865128055312</v>
       </c>
       <c r="C67" t="n">
-        <v>78737111.55181006</v>
+        <v>78716301.61441578</v>
       </c>
       <c r="D67" t="n">
-        <v>78735993.54476029</v>
+        <v>78718195.67638126</v>
       </c>
       <c r="E67" t="n">
-        <v>77025955.70918648</v>
+        <v>77010077.77481948</v>
       </c>
       <c r="F67" t="n">
-        <v>77025872.78134225</v>
+        <v>77009999.24008058</v>
       </c>
       <c r="G67" t="n">
-        <v>6006767.515044961</v>
+        <v>4802217.235463252</v>
       </c>
       <c r="H67" t="n">
-        <v>6021200.228819169</v>
+        <v>4805883.449193793</v>
       </c>
       <c r="I67" t="n">
-        <v>898513.1677765889</v>
+        <v>893003.4001007519</v>
       </c>
       <c r="J67" t="n">
-        <v>898511.9194759787</v>
+        <v>893002.801538476</v>
       </c>
     </row>
     <row r="68">
@@ -2739,28 +2739,28 @@
         <v>0.003213555360794625</v>
       </c>
       <c r="C68" t="n">
-        <v>78299808.34498066</v>
+        <v>78929111.13605113</v>
       </c>
       <c r="D68" t="n">
-        <v>78271816.5365805</v>
+        <v>78930012.0124414</v>
       </c>
       <c r="E68" t="n">
-        <v>77134976.18341517</v>
+        <v>77119684.85657704</v>
       </c>
       <c r="F68" t="n">
-        <v>77134892.80905849</v>
+        <v>77119606.44040652</v>
       </c>
       <c r="G68" t="n">
-        <v>8374070.311364141</v>
+        <v>4595886.932472618</v>
       </c>
       <c r="H68" t="n">
-        <v>8249794.74401268</v>
+        <v>4599463.975912291</v>
       </c>
       <c r="I68" t="n">
-        <v>898944.8215840545</v>
+        <v>892702.4322664267</v>
       </c>
       <c r="J68" t="n">
-        <v>898943.5507202804</v>
+        <v>892701.8350321967</v>
       </c>
     </row>
     <row r="69">
@@ -2773,28 +2773,28 @@
         <v>0.003262245593533937</v>
       </c>
       <c r="C69" t="n">
-        <v>79412837.25492905</v>
+        <v>79478890.96425411</v>
       </c>
       <c r="D69" t="n">
-        <v>79405672.42044546</v>
+        <v>79477517.6290243</v>
       </c>
       <c r="E69" t="n">
-        <v>77024470.51872435</v>
+        <v>77025432.62320855</v>
       </c>
       <c r="F69" t="n">
-        <v>77024397.70546541</v>
+        <v>77025357.083067</v>
       </c>
       <c r="G69" t="n">
-        <v>6011191.821497404</v>
+        <v>4778561.946837762</v>
       </c>
       <c r="H69" t="n">
-        <v>5990443.519873668</v>
+        <v>4780878.139768813</v>
       </c>
       <c r="I69" t="n">
-        <v>871731.1873860804</v>
+        <v>874777.4979742131</v>
       </c>
       <c r="J69" t="n">
-        <v>871730.315287669</v>
+        <v>874776.9186799882</v>
       </c>
     </row>
     <row r="70">
@@ -2807,28 +2807,28 @@
         <v>0.00331093582627325</v>
       </c>
       <c r="C70" t="n">
-        <v>19055150487.22812</v>
+        <v>252907864.5976189</v>
       </c>
       <c r="D70" t="n">
-        <v>19277930444.77804</v>
+        <v>252908998.2615589</v>
       </c>
       <c r="E70" t="n">
-        <v>251344384.1289542</v>
+        <v>251699567.3644009</v>
       </c>
       <c r="F70" t="n">
-        <v>251344541.5399325</v>
+        <v>251699643.6551559</v>
       </c>
       <c r="G70" t="n">
-        <v>35296311565.94016</v>
+        <v>4071527.352179794</v>
       </c>
       <c r="H70" t="n">
-        <v>37318919939.02222</v>
+        <v>4064167.7517791</v>
       </c>
       <c r="I70" t="n">
-        <v>1563183.968853079</v>
+        <v>1430836.851531813</v>
       </c>
       <c r="J70" t="n">
-        <v>1563182.378440626</v>
+        <v>1430837.150865319</v>
       </c>
     </row>
     <row r="71">
@@ -2841,28 +2841,28 @@
         <v>0.003359626059012562</v>
       </c>
       <c r="C71" t="n">
-        <v>355232667.4824715</v>
+        <v>252982510.1010143</v>
       </c>
       <c r="D71" t="n">
-        <v>355257751.1334304</v>
+        <v>252984944.6372831</v>
       </c>
       <c r="E71" t="n">
-        <v>251070757.542416</v>
+        <v>251466758.8253755</v>
       </c>
       <c r="F71" t="n">
-        <v>251070919.4719278</v>
+        <v>251466838.1501904</v>
       </c>
       <c r="G71" t="n">
-        <v>108769406.8962945</v>
+        <v>3671912.529511227</v>
       </c>
       <c r="H71" t="n">
-        <v>106006093.688245</v>
+        <v>3679384.731488086</v>
       </c>
       <c r="I71" t="n">
-        <v>1595063.356473218</v>
+        <v>1463138.735681016</v>
       </c>
       <c r="J71" t="n">
-        <v>1595061.82067709</v>
+        <v>1463139.07836171</v>
       </c>
     </row>
     <row r="72">
@@ -2875,28 +2875,28 @@
         <v>0.003408316291751875</v>
       </c>
       <c r="C72" t="n">
-        <v>79372886.9324356</v>
+        <v>79269969.96639289</v>
       </c>
       <c r="D72" t="n">
-        <v>79372651.60819258</v>
+        <v>79268605.53665723</v>
       </c>
       <c r="E72" t="n">
-        <v>76636565.3048867</v>
+        <v>76646775.31349444</v>
       </c>
       <c r="F72" t="n">
-        <v>76636504.49269147</v>
+        <v>76646704.00406092</v>
       </c>
       <c r="G72" t="n">
-        <v>5413070.323724893</v>
+        <v>4548168.486308962</v>
       </c>
       <c r="H72" t="n">
-        <v>5393620.011014695</v>
+        <v>4551098.096698129</v>
       </c>
       <c r="I72" t="n">
-        <v>838755.9282658816</v>
+        <v>851222.5414198942</v>
       </c>
       <c r="J72" t="n">
-        <v>838755.4505337939</v>
+        <v>851221.9914385289</v>
       </c>
     </row>
     <row r="73">
@@ -2909,28 +2909,28 @@
         <v>0.003457006524491187</v>
       </c>
       <c r="C73" t="n">
-        <v>86131625.57094447</v>
+        <v>81880801.4624503</v>
       </c>
       <c r="D73" t="n">
-        <v>86187719.67463848</v>
+        <v>81879519.77493007</v>
       </c>
       <c r="E73" t="n">
-        <v>76607885.25430757</v>
+        <v>76637805.0526848</v>
       </c>
       <c r="F73" t="n">
-        <v>76607821.28316359</v>
+        <v>76637733.33874924</v>
       </c>
       <c r="G73" t="n">
-        <v>12516938.58811823</v>
+        <v>2812699.407263437</v>
       </c>
       <c r="H73" t="n">
-        <v>12696637.9431297</v>
+        <v>2819436.102603618</v>
       </c>
       <c r="I73" t="n">
-        <v>843999.3510318322</v>
+        <v>853096.8017170525</v>
       </c>
       <c r="J73" t="n">
-        <v>843998.7529500107</v>
+        <v>853096.243067076</v>
       </c>
     </row>
     <row r="74">
@@ -2943,28 +2943,28 @@
         <v>0.0035056967572305</v>
       </c>
       <c r="C74" t="n">
-        <v>80980014.52541573</v>
+        <v>81126090.83911601</v>
       </c>
       <c r="D74" t="n">
-        <v>80974818.33373639</v>
+        <v>81125001.65297081</v>
       </c>
       <c r="E74" t="n">
-        <v>76688272.18466917</v>
+        <v>76718575.02477643</v>
       </c>
       <c r="F74" t="n">
-        <v>76688208.17393202</v>
+        <v>76718503.05834889</v>
       </c>
       <c r="G74" t="n">
-        <v>3688829.812180378</v>
+        <v>2825061.671158329</v>
       </c>
       <c r="H74" t="n">
-        <v>3685876.816349539</v>
+        <v>2826660.261417995</v>
       </c>
       <c r="I74" t="n">
-        <v>845340.1598532724</v>
+        <v>854639.7368739143</v>
       </c>
       <c r="J74" t="n">
-        <v>845339.5668265561</v>
+        <v>854639.1743023563</v>
       </c>
     </row>
     <row r="75">
@@ -2977,28 +2977,28 @@
         <v>0.003554386989969812</v>
       </c>
       <c r="C75" t="n">
-        <v>81181939.93127179</v>
+        <v>81330284.16119418</v>
       </c>
       <c r="D75" t="n">
-        <v>81176566.4347205</v>
+        <v>81329201.06058441</v>
       </c>
       <c r="E75" t="n">
-        <v>76819859.18069535</v>
+        <v>76848250.88775846</v>
       </c>
       <c r="F75" t="n">
-        <v>76819794.90197979</v>
+        <v>76848178.86131729</v>
       </c>
       <c r="G75" t="n">
-        <v>3720822.41967768</v>
+        <v>2822897.926374836</v>
       </c>
       <c r="H75" t="n">
-        <v>3717849.506124928</v>
+        <v>2824648.076174382</v>
       </c>
       <c r="I75" t="n">
-        <v>846051.3289454976</v>
+        <v>855063.4955270854</v>
       </c>
       <c r="J75" t="n">
-        <v>846050.7262937948</v>
+        <v>855062.9300853688</v>
       </c>
     </row>
     <row r="76">
@@ -3011,28 +3011,28 @@
         <v>0.003603077222709125</v>
       </c>
       <c r="C76" t="n">
-        <v>81283935.83877805</v>
+        <v>81442706.2605058</v>
       </c>
       <c r="D76" t="n">
-        <v>81278597.04073483</v>
+        <v>81441620.68863207</v>
       </c>
       <c r="E76" t="n">
-        <v>76965019.51756117</v>
+        <v>76987369.08472469</v>
       </c>
       <c r="F76" t="n">
-        <v>76964955.14746369</v>
+        <v>76987297.41532728</v>
       </c>
       <c r="G76" t="n">
-        <v>3713703.094367126</v>
+        <v>2823539.432334282</v>
       </c>
       <c r="H76" t="n">
-        <v>3710702.282154903</v>
+        <v>2825287.386614769</v>
       </c>
       <c r="I76" t="n">
-        <v>844741.6268445863</v>
+        <v>853283.6429704889</v>
       </c>
       <c r="J76" t="n">
-        <v>844741.0109321557</v>
+        <v>853283.0807648967</v>
       </c>
     </row>
     <row r="77">
@@ -3045,28 +3045,28 @@
         <v>0.003651767455448437</v>
       </c>
       <c r="C77" t="n">
-        <v>342333255243.0746</v>
+        <v>77601014.92273445</v>
       </c>
       <c r="D77" t="n">
-        <v>340083430031.6326</v>
+        <v>77600044.70920317</v>
       </c>
       <c r="E77" t="n">
-        <v>78997911.6519891</v>
+        <v>78993805.81642762</v>
       </c>
       <c r="F77" t="n">
-        <v>78997831.95880902</v>
+        <v>78993727.19768457</v>
       </c>
       <c r="G77" t="n">
-        <v>710531881522.3441</v>
+        <v>5938299.582879945</v>
       </c>
       <c r="H77" t="n">
-        <v>715474128102.5088</v>
+        <v>5935673.26019983</v>
       </c>
       <c r="I77" t="n">
-        <v>901775.3882119491</v>
+        <v>900449.3029711626</v>
       </c>
       <c r="J77" t="n">
-        <v>901774.2919263691</v>
+        <v>900448.7166799526</v>
       </c>
     </row>
     <row r="78">
@@ -3079,28 +3079,28 @@
         <v>0.00370045768818775</v>
       </c>
       <c r="C78" t="n">
-        <v>342333255243.0746</v>
+        <v>77601014.92273445</v>
       </c>
       <c r="D78" t="n">
-        <v>340083430031.6326</v>
+        <v>77600044.70920317</v>
       </c>
       <c r="E78" t="n">
-        <v>78997911.6519891</v>
+        <v>78993805.81642762</v>
       </c>
       <c r="F78" t="n">
-        <v>78997831.95880902</v>
+        <v>78993727.19768457</v>
       </c>
       <c r="G78" t="n">
-        <v>710531881522.3441</v>
+        <v>5938299.582879945</v>
       </c>
       <c r="H78" t="n">
-        <v>715474128102.5088</v>
+        <v>5935673.26019983</v>
       </c>
       <c r="I78" t="n">
-        <v>901775.3882119491</v>
+        <v>900449.3029711626</v>
       </c>
       <c r="J78" t="n">
-        <v>901774.2919263691</v>
+        <v>900448.7166799526</v>
       </c>
     </row>
     <row r="79">
@@ -3113,28 +3113,28 @@
         <v>0.003749147920927062</v>
       </c>
       <c r="C79" t="n">
-        <v>1.088595125660945e+24</v>
+        <v>77907066.47997235</v>
       </c>
       <c r="D79" t="n">
-        <v>1.101469273308377e+24</v>
+        <v>77903285.41808842</v>
       </c>
       <c r="E79" t="n">
-        <v>78661573.85589813</v>
+        <v>78670111.81186749</v>
       </c>
       <c r="F79" t="n">
-        <v>78661504.37807977</v>
+        <v>78670036.12605709</v>
       </c>
       <c r="G79" t="n">
-        <v>2.047601925044175e+24</v>
+        <v>7410053.979501604</v>
       </c>
       <c r="H79" t="n">
-        <v>2.166799356617011e+24</v>
+        <v>7397853.866883267</v>
       </c>
       <c r="I79" t="n">
-        <v>874775.9328889172</v>
+        <v>881494.959048014</v>
       </c>
       <c r="J79" t="n">
-        <v>874775.2146152164</v>
+        <v>881494.3904344228</v>
       </c>
     </row>
     <row r="80">
@@ -3147,28 +3147,28 @@
         <v>0.003797838153666374</v>
       </c>
       <c r="C80" t="n">
-        <v>1.142624077293965e+24</v>
+        <v>77963722.06064957</v>
       </c>
       <c r="D80" t="n">
-        <v>1.156137192252645e+24</v>
+        <v>77959943.27742289</v>
       </c>
       <c r="E80" t="n">
-        <v>78735940.04529241</v>
+        <v>78742535.95150687</v>
       </c>
       <c r="F80" t="n">
-        <v>78735870.68177113</v>
+        <v>78742460.41370632</v>
       </c>
       <c r="G80" t="n">
-        <v>2.14922812451951e+24</v>
+        <v>7410270.959990941</v>
       </c>
       <c r="H80" t="n">
-        <v>2.274341540943726e+24</v>
+        <v>7398072.620675208</v>
       </c>
       <c r="I80" t="n">
-        <v>874233.4941729933</v>
+        <v>880936.1810675535</v>
       </c>
       <c r="J80" t="n">
-        <v>874232.7767779082</v>
+        <v>880935.6149689087</v>
       </c>
     </row>
     <row r="81">
@@ -3181,28 +3181,28 @@
         <v>0.003846528386405687</v>
       </c>
       <c r="C81" t="n">
-        <v>1.142624077293965e+24</v>
+        <v>77963722.06064957</v>
       </c>
       <c r="D81" t="n">
-        <v>1.156137192252645e+24</v>
+        <v>77959943.27742289</v>
       </c>
       <c r="E81" t="n">
-        <v>78735940.04529241</v>
+        <v>78742535.95150687</v>
       </c>
       <c r="F81" t="n">
-        <v>78735870.68177113</v>
+        <v>78742460.41370632</v>
       </c>
       <c r="G81" t="n">
-        <v>2.14922812451951e+24</v>
+        <v>7410270.959990941</v>
       </c>
       <c r="H81" t="n">
-        <v>2.274341540943726e+24</v>
+        <v>7398072.620675208</v>
       </c>
       <c r="I81" t="n">
-        <v>874233.4941729933</v>
+        <v>880936.1810675535</v>
       </c>
       <c r="J81" t="n">
-        <v>874232.7767779082</v>
+        <v>880935.6149689087</v>
       </c>
     </row>
     <row r="82">
@@ -3215,28 +3215,28 @@
         <v>0.003895218619144999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.154561349305583e+24</v>
+        <v>77992046.24011123</v>
       </c>
       <c r="D82" t="n">
-        <v>1.168215639067222e+24</v>
+        <v>77988263.48787321</v>
       </c>
       <c r="E82" t="n">
-        <v>78779978.94327348</v>
+        <v>78785642.20000324</v>
       </c>
       <c r="F82" t="n">
-        <v>78779909.68911216</v>
+        <v>78785566.73542903</v>
       </c>
       <c r="G82" t="n">
-        <v>2.171681634165348e+24</v>
+        <v>7410591.729181042</v>
       </c>
       <c r="H82" t="n">
-        <v>2.298102140922695e+24</v>
+        <v>7398392.959251694</v>
       </c>
       <c r="I82" t="n">
-        <v>874004.1306471785</v>
+        <v>880755.5131742076</v>
       </c>
       <c r="J82" t="n">
-        <v>874003.4157871805</v>
+        <v>880754.9489543043</v>
       </c>
     </row>
     <row r="83">
@@ -3249,28 +3249,28 @@
         <v>0.003943908851884312</v>
       </c>
       <c r="C83" t="n">
-        <v>1.154561349305583e+24</v>
+        <v>77992046.24011123</v>
       </c>
       <c r="D83" t="n">
-        <v>1.168215639067222e+24</v>
+        <v>77988263.48787321</v>
       </c>
       <c r="E83" t="n">
-        <v>78779978.94327348</v>
+        <v>78785642.20000324</v>
       </c>
       <c r="F83" t="n">
-        <v>78779909.68911216</v>
+        <v>78785566.73542903</v>
       </c>
       <c r="G83" t="n">
-        <v>2.171681634165348e+24</v>
+        <v>7410591.729181042</v>
       </c>
       <c r="H83" t="n">
-        <v>2.298102140922695e+24</v>
+        <v>7398392.959251694</v>
       </c>
       <c r="I83" t="n">
-        <v>874004.1306471785</v>
+        <v>880755.5131742076</v>
       </c>
       <c r="J83" t="n">
-        <v>874003.4157871805</v>
+        <v>880754.9489543043</v>
       </c>
     </row>
     <row r="84">
@@ -3283,28 +3283,28 @@
         <v>0.003992599084623624</v>
       </c>
       <c r="C84" t="n">
-        <v>1.097018975834255e+24</v>
+        <v>78066927.14636311</v>
       </c>
       <c r="D84" t="n">
-        <v>1.109992747196979e+24</v>
+        <v>78063145.84957728</v>
       </c>
       <c r="E84" t="n">
-        <v>78838666.05341357</v>
+        <v>78842157.55534387</v>
       </c>
       <c r="F84" t="n">
-        <v>78838595.24767175</v>
+        <v>78842082.11346646</v>
       </c>
       <c r="G84" t="n">
-        <v>2.06344683508148e+24</v>
+        <v>7392479.705989799</v>
       </c>
       <c r="H84" t="n">
-        <v>2.183566649349361e+24</v>
+        <v>7380290.950814507</v>
       </c>
       <c r="I84" t="n">
-        <v>875622.9870314616</v>
+        <v>880714.1640151798</v>
       </c>
       <c r="J84" t="n">
-        <v>875622.204826917</v>
+        <v>880713.5987971191</v>
       </c>
     </row>
     <row r="85">
@@ -3317,28 +3317,28 @@
         <v>0.004041289317362937</v>
       </c>
       <c r="C85" t="n">
-        <v>1.127907484618947e+24</v>
+        <v>78039484.51601852</v>
       </c>
       <c r="D85" t="n">
-        <v>1.141246555451864e+24</v>
+        <v>78035701.80257653</v>
       </c>
       <c r="E85" t="n">
-        <v>78813651.31518421</v>
+        <v>78817892.53133938</v>
       </c>
       <c r="F85" t="n">
-        <v>78813580.70138982</v>
+        <v>78817817.01585205</v>
       </c>
       <c r="G85" t="n">
-        <v>2.121546828887935e+24</v>
+        <v>7392380.858798521</v>
       </c>
       <c r="H85" t="n">
-        <v>2.245048828901209e+24</v>
+        <v>7380204.490825018</v>
       </c>
       <c r="I85" t="n">
-        <v>875711.3208116721</v>
+        <v>881082.84148355</v>
       </c>
       <c r="J85" t="n">
-        <v>875710.548873767</v>
+        <v>881082.2754950915</v>
       </c>
     </row>
     <row r="86">
@@ -3351,28 +3351,28 @@
         <v>0.00408997955010225</v>
       </c>
       <c r="C86" t="n">
-        <v>1.127907484618947e+24</v>
+        <v>78039484.51601852</v>
       </c>
       <c r="D86" t="n">
-        <v>1.141246555451864e+24</v>
+        <v>78035701.80257653</v>
       </c>
       <c r="E86" t="n">
-        <v>78813651.31518421</v>
+        <v>78817892.53133938</v>
       </c>
       <c r="F86" t="n">
-        <v>78813580.70138982</v>
+        <v>78817817.01585205</v>
       </c>
       <c r="G86" t="n">
-        <v>2.121546828887935e+24</v>
+        <v>7392380.858798521</v>
       </c>
       <c r="H86" t="n">
-        <v>2.245048828901209e+24</v>
+        <v>7380204.490825018</v>
       </c>
       <c r="I86" t="n">
-        <v>875711.3208116721</v>
+        <v>881082.84148355</v>
       </c>
       <c r="J86" t="n">
-        <v>875710.548873767</v>
+        <v>881082.2754950915</v>
       </c>
     </row>
     <row r="87">
@@ -3385,28 +3385,28 @@
         <v>0.004138669782841562</v>
       </c>
       <c r="C87" t="n">
-        <v>1.154561951121539e+24</v>
+        <v>78012042.66551065</v>
       </c>
       <c r="D87" t="n">
-        <v>1.168216248000476e+24</v>
+        <v>78008255.7986221</v>
       </c>
       <c r="E87" t="n">
-        <v>78772132.33226147</v>
+        <v>78777190.83400956</v>
       </c>
       <c r="F87" t="n">
-        <v>78772061.94465521</v>
+        <v>78777115.21674277</v>
       </c>
       <c r="G87" t="n">
-        <v>2.171682766155495e+24</v>
+        <v>7392273.484806417</v>
       </c>
       <c r="H87" t="n">
-        <v>2.298103338809676e+24</v>
+        <v>7380096.629778782</v>
       </c>
       <c r="I87" t="n">
-        <v>875782.8365035767</v>
+        <v>881496.8150628917</v>
       </c>
       <c r="J87" t="n">
-        <v>875782.0771973467</v>
+        <v>881496.247353752</v>
       </c>
     </row>
     <row r="88">
@@ -3419,28 +3419,28 @@
         <v>0.004187360015580874</v>
       </c>
       <c r="C88" t="n">
-        <v>1.128004920336452e+24</v>
+        <v>78058923.86698508</v>
       </c>
       <c r="D88" t="n">
-        <v>1.141345143481907e+24</v>
+        <v>78055129.82792221</v>
       </c>
       <c r="E88" t="n">
-        <v>78821883.67663825</v>
+        <v>78826646.12608707</v>
       </c>
       <c r="F88" t="n">
-        <v>78821813.00195715</v>
+        <v>78826570.50639984</v>
       </c>
       <c r="G88" t="n">
-        <v>2.121730101399503e+24</v>
+        <v>7375849.294179997</v>
       </c>
       <c r="H88" t="n">
-        <v>2.24524277028958e+24</v>
+        <v>7363599.93464396</v>
       </c>
       <c r="I88" t="n">
-        <v>876297.8280611113</v>
+        <v>881716.2868463515</v>
       </c>
       <c r="J88" t="n">
-        <v>876297.0565538598</v>
+        <v>881715.7192300711</v>
       </c>
     </row>
     <row r="89">
@@ -3453,28 +3453,28 @@
         <v>0.004236050248320187</v>
       </c>
       <c r="C89" t="n">
-        <v>78548424.92234665</v>
+        <v>78749302.84545252</v>
       </c>
       <c r="D89" t="n">
-        <v>78537937.19872507</v>
+        <v>78745334.25412239</v>
       </c>
       <c r="E89" t="n">
-        <v>78748427.21620819</v>
+        <v>78755142.43015504</v>
       </c>
       <c r="F89" t="n">
-        <v>78748356.33835171</v>
+        <v>78755066.48331612</v>
       </c>
       <c r="G89" t="n">
-        <v>8652253.876317471</v>
+        <v>7353344.815370733</v>
       </c>
       <c r="H89" t="n">
-        <v>8629930.767345523</v>
+        <v>7335849.072136251</v>
       </c>
       <c r="I89" t="n">
-        <v>877794.7722989925</v>
+        <v>883330.6105630675</v>
       </c>
       <c r="J89" t="n">
-        <v>877794.0010847012</v>
+        <v>883330.0378267282</v>
       </c>
     </row>
     <row r="90">
@@ -3487,28 +3487,28 @@
         <v>0.004284740481059499</v>
       </c>
       <c r="C90" t="n">
-        <v>349181535723.7977</v>
+        <v>77311229.18149091</v>
       </c>
       <c r="D90" t="n">
-        <v>346885493385.7392</v>
+        <v>77310672.04740964</v>
       </c>
       <c r="E90" t="n">
-        <v>79077837.43840663</v>
+        <v>79071036.40857142</v>
       </c>
       <c r="F90" t="n">
-        <v>79077756.90157826</v>
+        <v>79070957.77298282</v>
       </c>
       <c r="G90" t="n">
-        <v>724800293390.2115</v>
+        <v>5609884.326644646</v>
       </c>
       <c r="H90" t="n">
-        <v>729839528240.382</v>
+        <v>5604721.492202102</v>
       </c>
       <c r="I90" t="n">
-        <v>903267.8214262496</v>
+        <v>900910.1529642229</v>
       </c>
       <c r="J90" t="n">
-        <v>903266.6883148242</v>
+        <v>900909.5669360994</v>
       </c>
     </row>
     <row r="91">
@@ -3521,28 +3521,28 @@
         <v>0.004333430713798812</v>
       </c>
       <c r="C91" t="n">
-        <v>1.089401239080845e+24</v>
+        <v>79275323.50732996</v>
       </c>
       <c r="D91" t="n">
-        <v>1.102284920136494e+24</v>
+        <v>79276230.75271437</v>
       </c>
       <c r="E91" t="n">
-        <v>79139954.58450712</v>
+        <v>79138506.57631981</v>
       </c>
       <c r="F91" t="n">
-        <v>79139875.35532461</v>
+        <v>79138427.72440004</v>
       </c>
       <c r="G91" t="n">
-        <v>2.04911819058476e+24</v>
+        <v>6653914.042954924</v>
       </c>
       <c r="H91" t="n">
-        <v>2.168403888806627e+24</v>
+        <v>6645016.071295905</v>
       </c>
       <c r="I91" t="n">
-        <v>903061.6703619391</v>
+        <v>902590.3620665509</v>
       </c>
       <c r="J91" t="n">
-        <v>903060.6015232155</v>
+        <v>902589.7744211552</v>
       </c>
     </row>
     <row r="92">
@@ -3555,28 +3555,28 @@
         <v>0.004382120946538125</v>
       </c>
       <c r="C92" t="n">
-        <v>1.089349612248293e+24</v>
+        <v>78888772.23487887</v>
       </c>
       <c r="D92" t="n">
-        <v>1.102232682746315e+24</v>
+        <v>78888835.1708452</v>
       </c>
       <c r="E92" t="n">
-        <v>79113004.82907519</v>
+        <v>79107906.39052065</v>
       </c>
       <c r="F92" t="n">
-        <v>79112924.66820616</v>
+        <v>79107827.55970261</v>
       </c>
       <c r="G92" t="n">
-        <v>2.049021082773828e+24</v>
+        <v>6469361.015016668</v>
       </c>
       <c r="H92" t="n">
-        <v>2.168301128039294e+24</v>
+        <v>6460433.078292968</v>
       </c>
       <c r="I92" t="n">
-        <v>903899.3090670551</v>
+        <v>902246.6066707029</v>
       </c>
       <c r="J92" t="n">
-        <v>903898.1985763835</v>
+        <v>902246.0183028702</v>
       </c>
     </row>
     <row r="93">
@@ -3589,28 +3589,28 @@
         <v>0.004430811179277437</v>
       </c>
       <c r="C93" t="n">
-        <v>1.096732853464826e+24</v>
+        <v>78860448.05541721</v>
       </c>
       <c r="D93" t="n">
-        <v>1.109703241033526e+24</v>
+        <v>78860514.96039487</v>
       </c>
       <c r="E93" t="n">
-        <v>79069319.04734948</v>
+        <v>79063908.11285934</v>
       </c>
       <c r="F93" t="n">
-        <v>79069238.78829129</v>
+        <v>79063829.21329041</v>
       </c>
       <c r="G93" t="n">
-        <v>2.062908650864003e+24</v>
+        <v>6469040.245826567</v>
       </c>
       <c r="H93" t="n">
-        <v>2.182997135713625e+24</v>
+        <v>6460112.73971648</v>
       </c>
       <c r="I93" t="n">
-        <v>904087.4110469243</v>
+        <v>902400.0910979022</v>
       </c>
       <c r="J93" t="n">
-        <v>904086.2983608005</v>
+        <v>902399.5009805674</v>
       </c>
     </row>
     <row r="94">
@@ -3623,28 +3623,28 @@
         <v>0.004479501412016749</v>
       </c>
       <c r="C94" t="n">
-        <v>1.096693924470607e+24</v>
+        <v>78917647.66069776</v>
       </c>
       <c r="D94" t="n">
-        <v>1.109663851649995e+24</v>
+        <v>78917660.66086261</v>
       </c>
       <c r="E94" t="n">
-        <v>79088127.43970311</v>
+        <v>79085692.16005793</v>
       </c>
       <c r="F94" t="n">
-        <v>79088047.93680204</v>
+        <v>79085613.2644659</v>
       </c>
       <c r="G94" t="n">
-        <v>2.062835427054109e+24</v>
+        <v>6470355.072494387</v>
       </c>
       <c r="H94" t="n">
-        <v>2.182919649311968e+24</v>
+        <v>6461658.073956992</v>
       </c>
       <c r="I94" t="n">
-        <v>903296.8968171654</v>
+        <v>902541.6617251344</v>
       </c>
       <c r="J94" t="n">
-        <v>903295.8173336661</v>
+        <v>902541.0724970911</v>
       </c>
     </row>
     <row r="95">
@@ -3657,28 +3657,28 @@
         <v>0.004528191644756062</v>
       </c>
       <c r="C95" t="n">
-        <v>1.118096008274784e+24</v>
+        <v>78887550.09225178</v>
       </c>
       <c r="D95" t="n">
-        <v>1.131319044787781e+24</v>
+        <v>78887562.94305983</v>
       </c>
       <c r="E95" t="n">
-        <v>79048511.59808591</v>
+        <v>79044285.74548295</v>
       </c>
       <c r="F95" t="n">
-        <v>79048431.61368395</v>
+        <v>79044206.79441123</v>
       </c>
       <c r="G95" t="n">
-        <v>2.103091852028683e+24</v>
+        <v>6470245.22557016</v>
       </c>
       <c r="H95" t="n">
-        <v>2.22551952904081e+24</v>
+        <v>6461557.642224461</v>
       </c>
       <c r="I95" t="n">
-        <v>904139.0996882149</v>
+        <v>902851.9606542434</v>
       </c>
       <c r="J95" t="n">
-        <v>904137.9996568263</v>
+        <v>902851.3714201868</v>
       </c>
     </row>
     <row r="96">
@@ -3691,28 +3691,28 @@
         <v>0.004576881877495375</v>
       </c>
       <c r="C96" t="n">
-        <v>1.118082985693305e+24</v>
+        <v>79216901.7594223</v>
       </c>
       <c r="D96" t="n">
-        <v>1.131305868194846e+24</v>
+        <v>79217812.82446127</v>
       </c>
       <c r="E96" t="n">
-        <v>79056491.27912664</v>
+        <v>79053083.22036883</v>
       </c>
       <c r="F96" t="n">
-        <v>79056411.46417871</v>
+        <v>79053004.24395409</v>
       </c>
       <c r="G96" t="n">
-        <v>2.103067356992076e+24</v>
+        <v>6653483.426840596</v>
       </c>
       <c r="H96" t="n">
-        <v>2.225493608071945e+24</v>
+        <v>6644595.300986888</v>
       </c>
       <c r="I96" t="n">
-        <v>904101.8926985397</v>
+        <v>903054.8535759945</v>
       </c>
       <c r="J96" t="n">
-        <v>904100.8009243159</v>
+        <v>903054.2641771154</v>
       </c>
     </row>
     <row r="97">
@@ -3725,28 +3725,28 @@
         <v>0.004625572110234687</v>
       </c>
       <c r="C97" t="n">
-        <v>1.118082985693305e+24</v>
+        <v>79216901.7594223</v>
       </c>
       <c r="D97" t="n">
-        <v>1.131305868194846e+24</v>
+        <v>79217812.82446127</v>
       </c>
       <c r="E97" t="n">
-        <v>79056491.27912664</v>
+        <v>79053083.22036883</v>
       </c>
       <c r="F97" t="n">
-        <v>79056411.46417871</v>
+        <v>79053004.24395409</v>
       </c>
       <c r="G97" t="n">
-        <v>2.103067356992076e+24</v>
+        <v>6653483.426840596</v>
       </c>
       <c r="H97" t="n">
-        <v>2.225493608071945e+24</v>
+        <v>6644595.300986888</v>
       </c>
       <c r="I97" t="n">
-        <v>904101.8926985397</v>
+        <v>903054.8535759945</v>
       </c>
       <c r="J97" t="n">
-        <v>904100.8009243159</v>
+        <v>903054.2641771154</v>
       </c>
     </row>
     <row r="98">
@@ -3759,28 +3759,28 @@
         <v>0.004674262342973999</v>
       </c>
       <c r="C98" t="n">
-        <v>1.106892750680955e+24</v>
+        <v>79236015.61330932</v>
       </c>
       <c r="D98" t="n">
-        <v>1.119983293128477e+24</v>
+        <v>79236911.47043414</v>
       </c>
       <c r="E98" t="n">
-        <v>79072089.84623125</v>
+        <v>79070237.65851912</v>
       </c>
       <c r="F98" t="n">
-        <v>79072010.34231921</v>
+        <v>79070158.60377409</v>
       </c>
       <c r="G98" t="n">
-        <v>2.082018992714415e+24</v>
+        <v>6637656.924514441</v>
       </c>
       <c r="H98" t="n">
-        <v>2.203219951449826e+24</v>
+        <v>6628688.627006089</v>
       </c>
       <c r="I98" t="n">
-        <v>904176.5826853733</v>
+        <v>903615.5967700512</v>
       </c>
       <c r="J98" t="n">
-        <v>904175.5069650849</v>
+        <v>903615.0065885956</v>
       </c>
     </row>
     <row r="99">
@@ -3793,28 +3793,28 @@
         <v>0.004722952575713312</v>
       </c>
       <c r="C99" t="n">
-        <v>1.118082985693305e+24</v>
+        <v>79216901.7594223</v>
       </c>
       <c r="D99" t="n">
-        <v>1.131305868194846e+24</v>
+        <v>79217812.82446127</v>
       </c>
       <c r="E99" t="n">
-        <v>79056491.27912664</v>
+        <v>79053083.22036883</v>
       </c>
       <c r="F99" t="n">
-        <v>79056411.46417871</v>
+        <v>79053004.24395409</v>
       </c>
       <c r="G99" t="n">
-        <v>2.103067356992076e+24</v>
+        <v>6653483.426840596</v>
       </c>
       <c r="H99" t="n">
-        <v>2.225493608071945e+24</v>
+        <v>6644595.300986888</v>
       </c>
       <c r="I99" t="n">
-        <v>904101.8926985397</v>
+        <v>903054.8535759945</v>
       </c>
       <c r="J99" t="n">
-        <v>904100.8009243159</v>
+        <v>903054.2641771154</v>
       </c>
     </row>
     <row r="100">
@@ -3827,28 +3827,28 @@
         <v>0.004771642808452625</v>
       </c>
       <c r="C100" t="n">
-        <v>1.118082985693305e+24</v>
+        <v>79216901.7594223</v>
       </c>
       <c r="D100" t="n">
-        <v>1.131305868194846e+24</v>
+        <v>79217812.82446127</v>
       </c>
       <c r="E100" t="n">
-        <v>79056491.27912664</v>
+        <v>79053083.22036883</v>
       </c>
       <c r="F100" t="n">
-        <v>79056411.46417871</v>
+        <v>79053004.24395409</v>
       </c>
       <c r="G100" t="n">
-        <v>2.103067356992076e+24</v>
+        <v>6653483.426840596</v>
       </c>
       <c r="H100" t="n">
-        <v>2.225493608071945e+24</v>
+        <v>6644595.300986888</v>
       </c>
       <c r="I100" t="n">
-        <v>904101.8926985397</v>
+        <v>903054.8535759945</v>
       </c>
       <c r="J100" t="n">
-        <v>904100.8009243159</v>
+        <v>903054.2641771154</v>
       </c>
     </row>
     <row r="101">
@@ -3861,28 +3861,28 @@
         <v>0.004820333041191937</v>
       </c>
       <c r="C101" t="n">
-        <v>1.118082985693305e+24</v>
+        <v>79216901.7594223</v>
       </c>
       <c r="D101" t="n">
-        <v>1.131305868194846e+24</v>
+        <v>79217812.82446127</v>
       </c>
       <c r="E101" t="n">
-        <v>79056491.27912664</v>
+        <v>79053083.22036883</v>
       </c>
       <c r="F101" t="n">
-        <v>79056411.46417871</v>
+        <v>79053004.24395409</v>
       </c>
       <c r="G101" t="n">
-        <v>2.103067356992076e+24</v>
+        <v>6653483.426840596</v>
       </c>
       <c r="H101" t="n">
-        <v>2.225493608071945e+24</v>
+        <v>6644595.300986888</v>
       </c>
       <c r="I101" t="n">
-        <v>904101.8926985397</v>
+        <v>903054.8535759945</v>
       </c>
       <c r="J101" t="n">
-        <v>904100.8009243159</v>
+        <v>903054.2641771154</v>
       </c>
     </row>
     <row r="102">
@@ -3895,28 +3895,28 @@
         <v>0.004869023273931249</v>
       </c>
       <c r="C102" t="n">
-        <v>1.118082985693305e+24</v>
+        <v>79216901.7594223</v>
       </c>
       <c r="D102" t="n">
-        <v>1.131305868194846e+24</v>
+        <v>79217812.82446127</v>
       </c>
       <c r="E102" t="n">
-        <v>79056491.27912664</v>
+        <v>79053083.22036883</v>
       </c>
       <c r="F102" t="n">
-        <v>79056411.46417871</v>
+        <v>79053004.24395409</v>
       </c>
       <c r="G102" t="n">
-        <v>2.103067356992076e+24</v>
+        <v>6653483.426840596</v>
       </c>
       <c r="H102" t="n">
-        <v>2.225493608071945e+24</v>
+        <v>6644595.300986888</v>
       </c>
       <c r="I102" t="n">
-        <v>904101.8926985397</v>
+        <v>903054.8535759945</v>
       </c>
       <c r="J102" t="n">
-        <v>904100.8009243159</v>
+        <v>903054.2641771154</v>
       </c>
     </row>
     <row r="103">
@@ -3929,28 +3929,28 @@
         <v>0.004917713506670562</v>
       </c>
       <c r="C103" t="n">
-        <v>1.106892750680955e+24</v>
+        <v>79236015.61330932</v>
       </c>
       <c r="D103" t="n">
-        <v>1.119983293128477e+24</v>
+        <v>79236911.47043414</v>
       </c>
       <c r="E103" t="n">
-        <v>79072089.84623125</v>
+        <v>79070237.65851912</v>
       </c>
       <c r="F103" t="n">
-        <v>79072010.34231921</v>
+        <v>79070158.60377409</v>
       </c>
       <c r="G103" t="n">
-        <v>2.082018992714415e+24</v>
+        <v>6637656.924514441</v>
       </c>
       <c r="H103" t="n">
-        <v>2.203219951449826e+24</v>
+        <v>6628688.627006089</v>
       </c>
       <c r="I103" t="n">
-        <v>904176.5826853733</v>
+        <v>903615.5967700512</v>
       </c>
       <c r="J103" t="n">
-        <v>904175.5069650849</v>
+        <v>903615.0065885956</v>
       </c>
     </row>
     <row r="104">
@@ -3963,28 +3963,28 @@
         <v>0.004966403739409875</v>
       </c>
       <c r="C104" t="n">
-        <v>1.138622471690766e+24</v>
+        <v>79264339.79277098</v>
       </c>
       <c r="D104" t="n">
-        <v>1.152088262110097e+24</v>
+        <v>79265231.68088447</v>
       </c>
       <c r="E104" t="n">
-        <v>79115901.87322259</v>
+        <v>79114248.25285321</v>
       </c>
       <c r="F104" t="n">
-        <v>79115822.47178698</v>
+        <v>79114169.26718371</v>
       </c>
       <c r="G104" t="n">
-        <v>2.141701271550071e+24</v>
+        <v>6637977.693704542</v>
       </c>
       <c r="H104" t="n">
-        <v>2.266376525883599e+24</v>
+        <v>6629008.965582578</v>
       </c>
       <c r="I104" t="n">
-        <v>903982.2186543972</v>
+        <v>903462.2535261735</v>
       </c>
       <c r="J104" t="n">
-        <v>903981.1452572808</v>
+        <v>903461.6650849578</v>
       </c>
     </row>
     <row r="105">
@@ -3997,28 +3997,28 @@
         <v>0.005015093972149187</v>
       </c>
       <c r="C105" t="n">
-        <v>1.106892750680955e+24</v>
+        <v>79236015.61330932</v>
       </c>
       <c r="D105" t="n">
-        <v>1.119983293128477e+24</v>
+        <v>79236911.47043414</v>
       </c>
       <c r="E105" t="n">
-        <v>79072089.84623125</v>
+        <v>79070237.65851912</v>
       </c>
       <c r="F105" t="n">
-        <v>79072010.34231921</v>
+        <v>79070158.60377409</v>
       </c>
       <c r="G105" t="n">
-        <v>2.082018992714415e+24</v>
+        <v>6637656.924514441</v>
       </c>
       <c r="H105" t="n">
-        <v>2.203219951449826e+24</v>
+        <v>6628688.627006089</v>
       </c>
       <c r="I105" t="n">
-        <v>904176.5826853733</v>
+        <v>903615.5967700512</v>
       </c>
       <c r="J105" t="n">
-        <v>904175.5069650849</v>
+        <v>903615.0065885956</v>
       </c>
     </row>
     <row r="106">
@@ -4031,28 +4031,28 @@
         <v>0.005063784204888499</v>
       </c>
       <c r="C106" t="n">
-        <v>1.138622471690766e+24</v>
+        <v>79264339.79277098</v>
       </c>
       <c r="D106" t="n">
-        <v>1.152088262110097e+24</v>
+        <v>79265231.68088447</v>
       </c>
       <c r="E106" t="n">
-        <v>79115901.87322259</v>
+        <v>79114248.25285321</v>
       </c>
       <c r="F106" t="n">
-        <v>79115822.47178698</v>
+        <v>79114169.26718371</v>
       </c>
       <c r="G106" t="n">
-        <v>2.141701271550071e+24</v>
+        <v>6637977.693704542</v>
       </c>
       <c r="H106" t="n">
-        <v>2.266376525883599e+24</v>
+        <v>6629008.965582578</v>
       </c>
       <c r="I106" t="n">
-        <v>903982.2186543972</v>
+        <v>903462.2535261735</v>
       </c>
       <c r="J106" t="n">
-        <v>903981.1452572808</v>
+        <v>903461.6650849578</v>
       </c>
     </row>
     <row r="107">
@@ -4065,28 +4065,28 @@
         <v>0.005112474437627812</v>
       </c>
       <c r="C107" t="n">
-        <v>1.150068241430305e+24</v>
+        <v>79245225.93888398</v>
       </c>
       <c r="D107" t="n">
-        <v>1.163669393956325e+24</v>
+        <v>79246133.03491159</v>
       </c>
       <c r="E107" t="n">
-        <v>79100310.55768922</v>
+        <v>79097160.71490997</v>
       </c>
       <c r="F107" t="n">
-        <v>79100230.84636949</v>
+        <v>79097081.80759306</v>
       </c>
       <c r="G107" t="n">
-        <v>2.163230285967619e+24</v>
+        <v>6653804.196030697</v>
       </c>
       <c r="H107" t="n">
-        <v>2.289158812821609e+24</v>
+        <v>6644915.639563374</v>
       </c>
       <c r="I107" t="n">
-        <v>903906.6336611353</v>
+        <v>902901.5423511092</v>
       </c>
       <c r="J107" t="n">
-        <v>903905.5442698033</v>
+        <v>902900.9546941156</v>
       </c>
     </row>
     <row r="108">
@@ -4099,28 +4099,28 @@
         <v>0.005161164670367124</v>
       </c>
       <c r="C108" t="n">
-        <v>1.138766773101221e+24</v>
+        <v>80181917.58597243</v>
       </c>
       <c r="D108" t="n">
-        <v>1.15223427008493e+24</v>
+        <v>80183387.98761873</v>
       </c>
       <c r="E108" t="n">
-        <v>79119947.30061981</v>
+        <v>79117435.39744502</v>
       </c>
       <c r="F108" t="n">
-        <v>79119867.5846668</v>
+        <v>79117356.29791492</v>
       </c>
       <c r="G108" t="n">
-        <v>2.141972696470961e+24</v>
+        <v>5809949.503475589</v>
       </c>
       <c r="H108" t="n">
-        <v>2.266663751313887e+24</v>
+        <v>5806974.460096292</v>
       </c>
       <c r="I108" t="n">
-        <v>904878.9486295409</v>
+        <v>904108.1663537942</v>
       </c>
       <c r="J108" t="n">
-        <v>904877.8649372582</v>
+        <v>904107.5759269343</v>
       </c>
     </row>
     <row r="109">
@@ -4133,28 +4133,28 @@
         <v>0.005209854903106437</v>
       </c>
       <c r="C109" t="n">
-        <v>1.138588668584024e+24</v>
+        <v>79336758.06645671</v>
       </c>
       <c r="D109" t="n">
-        <v>1.152054059235606e+24</v>
+        <v>79337187.03311761</v>
       </c>
       <c r="E109" t="n">
-        <v>79110868.70753333</v>
+        <v>79104315.81202617</v>
       </c>
       <c r="F109" t="n">
-        <v>79110787.93280481</v>
+        <v>79104236.69088696</v>
       </c>
       <c r="G109" t="n">
-        <v>2.141637689331064e+24</v>
+        <v>6563802.0436979</v>
       </c>
       <c r="H109" t="n">
-        <v>2.266309242323102e+24</v>
+        <v>6554951.619035353</v>
       </c>
       <c r="I109" t="n">
-        <v>906173.0766510396</v>
+        <v>904100.3951664427</v>
       </c>
       <c r="J109" t="n">
-        <v>906171.9469768166</v>
+        <v>904099.8035627848</v>
       </c>
     </row>
     <row r="110">
@@ -4167,28 +4167,28 @@
         <v>0.005258545135845749</v>
       </c>
       <c r="C110" t="n">
-        <v>1.138622471690766e+24</v>
+        <v>79264339.79277098</v>
       </c>
       <c r="D110" t="n">
-        <v>1.152088262110097e+24</v>
+        <v>79265231.68088447</v>
       </c>
       <c r="E110" t="n">
-        <v>79115901.87322259</v>
+        <v>79114248.25285321</v>
       </c>
       <c r="F110" t="n">
-        <v>79115822.47178698</v>
+        <v>79114169.26718371</v>
       </c>
       <c r="G110" t="n">
-        <v>2.141701271550071e+24</v>
+        <v>6637977.693704542</v>
       </c>
       <c r="H110" t="n">
-        <v>2.266376525883599e+24</v>
+        <v>6629008.965582578</v>
       </c>
       <c r="I110" t="n">
-        <v>903982.2186543972</v>
+        <v>903462.2535261735</v>
       </c>
       <c r="J110" t="n">
-        <v>903981.1452572808</v>
+        <v>903461.6650849578</v>
       </c>
     </row>
     <row r="111">
@@ -4201,28 +4201,28 @@
         <v>0.005307235368585062</v>
       </c>
       <c r="C111" t="n">
-        <v>1.138622471690766e+24</v>
+        <v>79264339.79277098</v>
       </c>
       <c r="D111" t="n">
-        <v>1.152088262110097e+24</v>
+        <v>79265231.68088447</v>
       </c>
       <c r="E111" t="n">
-        <v>79115901.87322259</v>
+        <v>79114248.25285321</v>
       </c>
       <c r="F111" t="n">
-        <v>79115822.47178698</v>
+        <v>79114169.26718371</v>
       </c>
       <c r="G111" t="n">
-        <v>2.141701271550071e+24</v>
+        <v>6637977.693704542</v>
       </c>
       <c r="H111" t="n">
-        <v>2.266376525883599e+24</v>
+        <v>6629008.965582578</v>
       </c>
       <c r="I111" t="n">
-        <v>903982.2186543972</v>
+        <v>903462.2535261735</v>
       </c>
       <c r="J111" t="n">
-        <v>903981.1452572808</v>
+        <v>903461.6650849578</v>
       </c>
     </row>
     <row r="112">
@@ -4235,28 +4235,28 @@
         <v>0.005355925601324374</v>
       </c>
       <c r="C112" t="n">
-        <v>1.038493077985433e+24</v>
+        <v>80211572.54309157</v>
       </c>
       <c r="D112" t="n">
-        <v>1.050774699407666e+24</v>
+        <v>80213042.79733472</v>
       </c>
       <c r="E112" t="n">
-        <v>79156797.41782685</v>
+        <v>79156192.83045042</v>
       </c>
       <c r="F112" t="n">
-        <v>79156718.18002935</v>
+        <v>79156113.744828</v>
       </c>
       <c r="G112" t="n">
-        <v>1.953362067656555e+24</v>
+        <v>5810059.358806306</v>
       </c>
       <c r="H112" t="n">
-        <v>2.067073496884951e+24</v>
+        <v>5807093.591990085</v>
       </c>
       <c r="I112" t="n">
-        <v>904469.0569566684</v>
+        <v>904277.7096105285</v>
       </c>
       <c r="J112" t="n">
-        <v>904467.9937056645</v>
+        <v>904277.1203451011</v>
       </c>
     </row>
     <row r="113">
@@ -4269,28 +4269,28 @@
         <v>0.005404615834063687</v>
       </c>
       <c r="C113" t="n">
-        <v>1.038461766741814e+24</v>
+        <v>79293994.74989012</v>
       </c>
       <c r="D113" t="n">
-        <v>1.05074301786515e+24</v>
+        <v>79294886.49060045</v>
       </c>
       <c r="E113" t="n">
-        <v>79152835.97781682</v>
+        <v>79153034.07781963</v>
       </c>
       <c r="F113" t="n">
-        <v>79152757.05686438</v>
+        <v>79152955.10574436</v>
       </c>
       <c r="G113" t="n">
-        <v>1.953303172516205e+24</v>
+        <v>6638087.54903526</v>
       </c>
       <c r="H113" t="n">
-        <v>2.067011173270845e+24</v>
+        <v>6629128.097476371</v>
       </c>
       <c r="I113" t="n">
-        <v>903571.8951202703</v>
+        <v>903633.9192758321</v>
       </c>
       <c r="J113" t="n">
-        <v>903570.8422349897</v>
+        <v>903633.3319824217</v>
       </c>
     </row>
     <row r="114">
@@ -4303,28 +4303,28 @@
         <v>0.005453306066803</v>
       </c>
       <c r="C114" t="n">
-        <v>1.038493077985433e+24</v>
+        <v>80211572.54309157</v>
       </c>
       <c r="D114" t="n">
-        <v>1.050774699407666e+24</v>
+        <v>80213042.79733472</v>
       </c>
       <c r="E114" t="n">
-        <v>79156797.41782685</v>
+        <v>79156192.83045042</v>
       </c>
       <c r="F114" t="n">
-        <v>79156718.18002935</v>
+        <v>79156113.744828</v>
       </c>
       <c r="G114" t="n">
-        <v>1.953362067656555e+24</v>
+        <v>5810059.358806306</v>
       </c>
       <c r="H114" t="n">
-        <v>2.067073496884951e+24</v>
+        <v>5807093.591990085</v>
       </c>
       <c r="I114" t="n">
-        <v>904469.0569566684</v>
+        <v>904277.7096105285</v>
       </c>
       <c r="J114" t="n">
-        <v>904467.9937056645</v>
+        <v>904277.1203451011</v>
       </c>
     </row>
     <row r="115">
@@ -4337,28 +4337,28 @@
         <v>0.005501996299542311</v>
       </c>
       <c r="C115" t="n">
-        <v>1.038461766741814e+24</v>
+        <v>79293994.74989012</v>
       </c>
       <c r="D115" t="n">
-        <v>1.05074301786515e+24</v>
+        <v>79294886.49060045</v>
       </c>
       <c r="E115" t="n">
-        <v>79152835.97781682</v>
+        <v>79153034.07781963</v>
       </c>
       <c r="F115" t="n">
-        <v>79152757.05686438</v>
+        <v>79152955.10574436</v>
       </c>
       <c r="G115" t="n">
-        <v>1.953303172516205e+24</v>
+        <v>6638087.54903526</v>
       </c>
       <c r="H115" t="n">
-        <v>2.067011173270845e+24</v>
+        <v>6629128.097476371</v>
       </c>
       <c r="I115" t="n">
-        <v>903571.8951202703</v>
+        <v>903633.9192758321</v>
       </c>
       <c r="J115" t="n">
-        <v>903570.8422349897</v>
+        <v>903633.3319824217</v>
       </c>
     </row>
     <row r="116">
@@ -4371,28 +4371,28 @@
         <v>0.005550686532281624</v>
       </c>
       <c r="C116" t="n">
-        <v>1.038459243871941e+24</v>
+        <v>79366413.02357584</v>
       </c>
       <c r="D116" t="n">
-        <v>1.050740465159687e+24</v>
+        <v>79366841.84283359</v>
       </c>
       <c r="E116" t="n">
-        <v>79147743.10403527</v>
+        <v>79143171.53449571</v>
       </c>
       <c r="F116" t="n">
-        <v>79147662.81346676</v>
+        <v>79143092.42786682</v>
       </c>
       <c r="G116" t="n">
-        <v>1.953298427114628e+24</v>
+        <v>6563911.899028618</v>
       </c>
       <c r="H116" t="n">
-        <v>2.067006151607182e+24</v>
+        <v>6555070.750929146</v>
       </c>
       <c r="I116" t="n">
-        <v>905749.863282176</v>
+        <v>904266.7766097892</v>
       </c>
       <c r="J116" t="n">
-        <v>905748.754405187</v>
+        <v>904266.1861916297</v>
       </c>
     </row>
     <row r="117">
@@ -4405,28 +4405,28 @@
         <v>0.005599376765020937</v>
       </c>
       <c r="C117" t="n">
-        <v>1.038493077985433e+24</v>
+        <v>80211572.54309157</v>
       </c>
       <c r="D117" t="n">
-        <v>1.050774699407666e+24</v>
+        <v>80213042.79733472</v>
       </c>
       <c r="E117" t="n">
-        <v>79156797.41782685</v>
+        <v>79156192.83045042</v>
       </c>
       <c r="F117" t="n">
-        <v>79156718.18002935</v>
+        <v>79156113.744828</v>
       </c>
       <c r="G117" t="n">
-        <v>1.953362067656555e+24</v>
+        <v>5810059.358806306</v>
       </c>
       <c r="H117" t="n">
-        <v>2.067073496884951e+24</v>
+        <v>5807093.591990085</v>
       </c>
       <c r="I117" t="n">
-        <v>904469.0569566684</v>
+        <v>904277.7096105285</v>
       </c>
       <c r="J117" t="n">
-        <v>904467.9937056645</v>
+        <v>904277.1203451011</v>
       </c>
     </row>
     <row r="118">
@@ -4439,28 +4439,28 @@
         <v>0.00564806699776025</v>
       </c>
       <c r="C118" t="n">
-        <v>1.038493077985433e+24</v>
+        <v>80211572.54309157</v>
       </c>
       <c r="D118" t="n">
-        <v>1.050774699407666e+24</v>
+        <v>80213042.79733472</v>
       </c>
       <c r="E118" t="n">
-        <v>79156797.41782685</v>
+        <v>79156192.83045042</v>
       </c>
       <c r="F118" t="n">
-        <v>79156718.18002935</v>
+        <v>79156113.744828</v>
       </c>
       <c r="G118" t="n">
-        <v>1.953362067656555e+24</v>
+        <v>5810059.358806306</v>
       </c>
       <c r="H118" t="n">
-        <v>2.067073496884951e+24</v>
+        <v>5807093.591990085</v>
       </c>
       <c r="I118" t="n">
-        <v>904469.0569566684</v>
+        <v>904277.7096105285</v>
       </c>
       <c r="J118" t="n">
-        <v>904467.9937056645</v>
+        <v>904277.1203451011</v>
       </c>
     </row>
     <row r="119">
@@ -4473,28 +4473,28 @@
         <v>0.005696757230499561</v>
       </c>
       <c r="C119" t="n">
-        <v>1.111185905145948e+24</v>
+        <v>80239014.39359942</v>
       </c>
       <c r="D119" t="n">
-        <v>1.124327220101213e+24</v>
+        <v>80240488.80128914</v>
       </c>
       <c r="E119" t="n">
-        <v>79199504.36164276</v>
+        <v>79197506.92081457</v>
       </c>
       <c r="F119" t="n">
-        <v>79199424.86772566</v>
+        <v>79197427.94143638</v>
       </c>
       <c r="G119" t="n">
-        <v>2.090094236798171e+24</v>
+        <v>5810166.732798411</v>
       </c>
       <c r="H119" t="n">
-        <v>2.211765281219333e+24</v>
+        <v>5807201.453036321</v>
       </c>
       <c r="I119" t="n">
-        <v>904485.2209373359</v>
+        <v>903840.556899808</v>
       </c>
       <c r="J119" t="n">
-        <v>904484.1433584406</v>
+        <v>903839.9693509656</v>
       </c>
     </row>
     <row r="120">
@@ -4507,28 +4507,28 @@
         <v>0.005745447463238874</v>
       </c>
       <c r="C120" t="n">
-        <v>1.111182579931617e+24</v>
+        <v>80311432.66728514</v>
       </c>
       <c r="D120" t="n">
-        <v>1.124323855562483e+24</v>
+        <v>80312444.1535223</v>
       </c>
       <c r="E120" t="n">
-        <v>79194355.00331792</v>
+        <v>79187561.49893227</v>
       </c>
       <c r="F120" t="n">
-        <v>79194274.13195658</v>
+        <v>79187482.38386662</v>
       </c>
       <c r="G120" t="n">
-        <v>2.090087982220593e+24</v>
+        <v>5735991.082791769</v>
       </c>
       <c r="H120" t="n">
-        <v>2.211758662525136e+24</v>
+        <v>5733144.106489099</v>
       </c>
       <c r="I120" t="n">
-        <v>906684.9556471045</v>
+        <v>904478.3018555131</v>
       </c>
       <c r="J120" t="n">
-        <v>906683.8216334621</v>
+        <v>904477.711148356</v>
       </c>
     </row>
     <row r="121">
@@ -4541,28 +4541,28 @@
         <v>0.005794137695978187</v>
       </c>
       <c r="C121" t="n">
-        <v>1.111299035022776e+24</v>
+        <v>78540151.99118629</v>
       </c>
       <c r="D121" t="n">
-        <v>1.124441687896661e+24</v>
+        <v>78540877.37664731</v>
       </c>
       <c r="E121" t="n">
-        <v>79231408.34870309</v>
+        <v>79228364.13504937</v>
       </c>
       <c r="F121" t="n">
-        <v>79231328.53899649</v>
+        <v>79228285.09208828</v>
       </c>
       <c r="G121" t="n">
-        <v>2.090307029378925e+24</v>
+        <v>6455716.700137829</v>
       </c>
       <c r="H121" t="n">
-        <v>2.211990461116433e+24</v>
+        <v>6450154.826443993</v>
       </c>
       <c r="I121" t="n">
-        <v>905326.7485154793</v>
+        <v>904363.0600098799</v>
       </c>
       <c r="J121" t="n">
-        <v>905325.6589163189</v>
+        <v>904362.4717898876</v>
       </c>
     </row>
     <row r="122">
@@ -4575,28 +4575,28 @@
         <v>0.0058428279287175</v>
       </c>
       <c r="C122" t="n">
-        <v>1.111182579931617e+24</v>
+        <v>80311432.66728514</v>
       </c>
       <c r="D122" t="n">
-        <v>1.124323855562483e+24</v>
+        <v>80312444.1535223</v>
       </c>
       <c r="E122" t="n">
-        <v>79194355.00331792</v>
+        <v>79187561.49893227</v>
       </c>
       <c r="F122" t="n">
-        <v>79194274.13195658</v>
+        <v>79187482.38386662</v>
       </c>
       <c r="G122" t="n">
-        <v>2.090087982220593e+24</v>
+        <v>5735991.082791769</v>
       </c>
       <c r="H122" t="n">
-        <v>2.211758662525136e+24</v>
+        <v>5733144.106489099</v>
       </c>
       <c r="I122" t="n">
-        <v>906684.9556471045</v>
+        <v>904478.3018555131</v>
       </c>
       <c r="J122" t="n">
-        <v>906683.8216334621</v>
+        <v>904477.711148356</v>
       </c>
     </row>
     <row r="123">
@@ -4609,28 +4609,28 @@
         <v>0.005891518161456812</v>
       </c>
       <c r="C123" t="n">
-        <v>1.111182579931617e+24</v>
+        <v>80311432.66728514</v>
       </c>
       <c r="D123" t="n">
-        <v>1.124323855562483e+24</v>
+        <v>80312444.1535223</v>
       </c>
       <c r="E123" t="n">
-        <v>79194355.00331792</v>
+        <v>79187561.49893227</v>
       </c>
       <c r="F123" t="n">
-        <v>79194274.13195658</v>
+        <v>79187482.38386662</v>
       </c>
       <c r="G123" t="n">
-        <v>2.090087982220593e+24</v>
+        <v>5735991.082791769</v>
       </c>
       <c r="H123" t="n">
-        <v>2.211758662525136e+24</v>
+        <v>5733144.106489099</v>
       </c>
       <c r="I123" t="n">
-        <v>906684.9556471045</v>
+        <v>904478.3018555131</v>
       </c>
       <c r="J123" t="n">
-        <v>906683.8216334621</v>
+        <v>904477.711148356</v>
       </c>
     </row>
     <row r="124">
@@ -4643,28 +4643,28 @@
         <v>0.005940208394196124</v>
       </c>
       <c r="C124" t="n">
-        <v>1.111182579931617e+24</v>
+        <v>80311432.66728514</v>
       </c>
       <c r="D124" t="n">
-        <v>1.124323855562483e+24</v>
+        <v>80312444.1535223</v>
       </c>
       <c r="E124" t="n">
-        <v>79194355.00331792</v>
+        <v>79187561.49893227</v>
       </c>
       <c r="F124" t="n">
-        <v>79194274.13195658</v>
+        <v>79187482.38386662</v>
       </c>
       <c r="G124" t="n">
-        <v>2.090087982220593e+24</v>
+        <v>5735991.082791769</v>
       </c>
       <c r="H124" t="n">
-        <v>2.211758662525136e+24</v>
+        <v>5733144.106489099</v>
       </c>
       <c r="I124" t="n">
-        <v>906684.9556471045</v>
+        <v>904478.3018555131</v>
       </c>
       <c r="J124" t="n">
-        <v>906683.8216334621</v>
+        <v>904477.711148356</v>
       </c>
     </row>
     <row r="125">
@@ -4677,28 +4677,28 @@
         <v>0.005988898626935437</v>
       </c>
       <c r="C125" t="n">
-        <v>1.111182579931617e+24</v>
+        <v>80311432.66728514</v>
       </c>
       <c r="D125" t="n">
-        <v>1.124323855562483e+24</v>
+        <v>80312444.1535223</v>
       </c>
       <c r="E125" t="n">
-        <v>79194355.00331792</v>
+        <v>79187561.49893227</v>
       </c>
       <c r="F125" t="n">
-        <v>79194274.13195658</v>
+        <v>79187482.38386662</v>
       </c>
       <c r="G125" t="n">
-        <v>2.090087982220593e+24</v>
+        <v>5735991.082791769</v>
       </c>
       <c r="H125" t="n">
-        <v>2.211758662525136e+24</v>
+        <v>5733144.106489099</v>
       </c>
       <c r="I125" t="n">
-        <v>906684.9556471045</v>
+        <v>904478.3018555131</v>
       </c>
       <c r="J125" t="n">
-        <v>906683.8216334621</v>
+        <v>904477.711148356</v>
       </c>
     </row>
     <row r="126">
@@ -4711,28 +4711,28 @@
         <v>0.006037588859674749</v>
       </c>
       <c r="C126" t="n">
-        <v>1.111182579931617e+24</v>
+        <v>80311432.66728514</v>
       </c>
       <c r="D126" t="n">
-        <v>1.124323855562483e+24</v>
+        <v>80312444.1535223</v>
       </c>
       <c r="E126" t="n">
-        <v>79194355.00331792</v>
+        <v>79187561.49893227</v>
       </c>
       <c r="F126" t="n">
-        <v>79194274.13195658</v>
+        <v>79187482.38386662</v>
       </c>
       <c r="G126" t="n">
-        <v>2.090087982220593e+24</v>
+        <v>5735991.082791769</v>
       </c>
       <c r="H126" t="n">
-        <v>2.211758662525136e+24</v>
+        <v>5733144.106489099</v>
       </c>
       <c r="I126" t="n">
-        <v>906684.9556471045</v>
+        <v>904478.3018555131</v>
       </c>
       <c r="J126" t="n">
-        <v>906683.8216334621</v>
+        <v>904477.711148356</v>
       </c>
     </row>
     <row r="127">
@@ -4745,28 +4745,28 @@
         <v>0.006086279092414062</v>
       </c>
       <c r="C127" t="n">
-        <v>1.111182579931617e+24</v>
+        <v>80311432.66728514</v>
       </c>
       <c r="D127" t="n">
-        <v>1.124323855562483e+24</v>
+        <v>80312444.1535223</v>
       </c>
       <c r="E127" t="n">
-        <v>79194355.00331792</v>
+        <v>79187561.49893227</v>
       </c>
       <c r="F127" t="n">
-        <v>79194274.13195658</v>
+        <v>79187482.38386662</v>
       </c>
       <c r="G127" t="n">
-        <v>2.090087982220593e+24</v>
+        <v>5735991.082791769</v>
       </c>
       <c r="H127" t="n">
-        <v>2.211758662525136e+24</v>
+        <v>5733144.106489099</v>
       </c>
       <c r="I127" t="n">
-        <v>906684.9556471045</v>
+        <v>904478.3018555131</v>
       </c>
       <c r="J127" t="n">
-        <v>906683.8216334621</v>
+        <v>904477.711148356</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tp5_volumen_area.xlsx
+++ b/resultados_tp5_volumen_area.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,26 @@
           <t>Area_poly_simpson</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Volumen_spline_trapecio_overlap</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Volumen_poly_trapecio_overlap</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Area_spline_trapecio_overlap</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Area_poly_trapecio_overlap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,28 +515,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13565321.67693427</v>
+        <v>492297.5136579699</v>
       </c>
       <c r="D2" t="n">
-        <v>13565325.38830826</v>
+        <v>492297.4837212139</v>
       </c>
       <c r="E2" t="n">
-        <v>13642332.54637537</v>
+        <v>503287.4320231423</v>
       </c>
       <c r="F2" t="n">
-        <v>13642333.22031821</v>
+        <v>503287.4078594841</v>
       </c>
       <c r="G2" t="n">
-        <v>287699.4632012096</v>
+        <v>38303.04457283919</v>
       </c>
       <c r="H2" t="n">
-        <v>287698.2824110118</v>
+        <v>38303.47802883059</v>
       </c>
       <c r="I2" t="n">
-        <v>228041.1354065145</v>
+        <v>37105.28041973845</v>
       </c>
       <c r="J2" t="n">
-        <v>228041.1251028233</v>
+        <v>37105.28122561745</v>
+      </c>
+      <c r="K2" t="n">
+        <v>492297.5136579699</v>
+      </c>
+      <c r="L2" t="n">
+        <v>503287.4320231423</v>
+      </c>
+      <c r="M2" t="n">
+        <v>38303.04457283919</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37105.28041973845</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +561,40 @@
         <v>4.869023273931249e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>35074383.61879717</v>
+        <v>2359886.158158994</v>
       </c>
       <c r="D3" t="n">
-        <v>35074407.77110349</v>
+        <v>2359886.243116787</v>
       </c>
       <c r="E3" t="n">
-        <v>35122450.53078626</v>
+        <v>2376332.708636954</v>
       </c>
       <c r="F3" t="n">
-        <v>35122452.28334279</v>
+        <v>2376332.34340198</v>
       </c>
       <c r="G3" t="n">
-        <v>459220.0958185922</v>
+        <v>87211.59827992356</v>
       </c>
       <c r="H3" t="n">
-        <v>459259.3092623327</v>
+        <v>87214.95763914777</v>
       </c>
       <c r="I3" t="n">
-        <v>395883.0751500059</v>
+        <v>89787.29680741997</v>
       </c>
       <c r="J3" t="n">
-        <v>395883.0491296799</v>
+        <v>89787.28271197189</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2359886.158158994</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2376332.708636954</v>
+      </c>
+      <c r="M3" t="n">
+        <v>87211.59827992356</v>
+      </c>
+      <c r="N3" t="n">
+        <v>89787.29680741997</v>
       </c>
     </row>
     <row r="4">
@@ -563,28 +607,40 @@
         <v>9.738046547862498e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>61174264.69364066</v>
+        <v>3833527.756547619</v>
       </c>
       <c r="D4" t="n">
-        <v>61174298.34167307</v>
+        <v>3833527.702237455</v>
       </c>
       <c r="E4" t="n">
-        <v>61256504.73305389</v>
+        <v>3848613.763209696</v>
       </c>
       <c r="F4" t="n">
-        <v>61256508.6042557</v>
+        <v>3848613.152153906</v>
       </c>
       <c r="G4" t="n">
-        <v>546603.1086762912</v>
+        <v>105741.5650222041</v>
       </c>
       <c r="H4" t="n">
-        <v>546589.0472826753</v>
+        <v>105743.9310690065</v>
       </c>
       <c r="I4" t="n">
-        <v>496407.8217219482</v>
+        <v>105721.4371069331</v>
       </c>
       <c r="J4" t="n">
-        <v>496407.8375509757</v>
+        <v>105721.465657065</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3833527.756547619</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3848613.763209696</v>
+      </c>
+      <c r="M4" t="n">
+        <v>105741.5650222041</v>
+      </c>
+      <c r="N4" t="n">
+        <v>105721.4371069331</v>
       </c>
     </row>
     <row r="5">
@@ -597,28 +653,40 @@
         <v>0.0001460706982179375</v>
       </c>
       <c r="C5" t="n">
-        <v>86972362.84402566</v>
+        <v>7590312.215988101</v>
       </c>
       <c r="D5" t="n">
-        <v>86972454.55808592</v>
+        <v>7590311.784123691</v>
       </c>
       <c r="E5" t="n">
-        <v>86945821.21266276</v>
+        <v>7602531.553141545</v>
       </c>
       <c r="F5" t="n">
-        <v>86945827.12356454</v>
+        <v>7602530.453239582</v>
       </c>
       <c r="G5" t="n">
-        <v>689840.4399946065</v>
+        <v>160021.4029501793</v>
       </c>
       <c r="H5" t="n">
-        <v>689875.905187345</v>
+        <v>160031.6074823454</v>
       </c>
       <c r="I5" t="n">
-        <v>616692.1889429152</v>
+        <v>159954.3252220374</v>
       </c>
       <c r="J5" t="n">
-        <v>616692.2092737709</v>
+        <v>159954.3494507732</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7590312.215988101</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7602531.553141545</v>
+      </c>
+      <c r="M5" t="n">
+        <v>160021.4029501793</v>
+      </c>
+      <c r="N5" t="n">
+        <v>159954.3252220374</v>
       </c>
     </row>
     <row r="6">
@@ -631,28 +699,40 @@
         <v>0.00019476093095725</v>
       </c>
       <c r="C6" t="n">
-        <v>113182059.099401</v>
+        <v>11266455.87013693</v>
       </c>
       <c r="D6" t="n">
-        <v>113182234.6988454</v>
+        <v>11266455.073326</v>
       </c>
       <c r="E6" t="n">
-        <v>112899154.1132239</v>
+        <v>11224881.5848181</v>
       </c>
       <c r="F6" t="n">
-        <v>112899163.0628998</v>
+        <v>11224880.53635154</v>
       </c>
       <c r="G6" t="n">
-        <v>809013.8586227574</v>
+        <v>204761.7537812592</v>
       </c>
       <c r="H6" t="n">
-        <v>809040.8113360252</v>
+        <v>204782.7560837176</v>
       </c>
       <c r="I6" t="n">
-        <v>705644.017237708</v>
+        <v>198679.7776864747</v>
       </c>
       <c r="J6" t="n">
-        <v>705644.0636051287</v>
+        <v>198679.8162659497</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11266455.87013693</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11224881.5848181</v>
+      </c>
+      <c r="M6" t="n">
+        <v>204761.7537812592</v>
+      </c>
+      <c r="N6" t="n">
+        <v>198679.7776864747</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +745,40 @@
         <v>0.0002434511636965625</v>
       </c>
       <c r="C7" t="n">
-        <v>142316369.3150532</v>
+        <v>12728798.64204014</v>
       </c>
       <c r="D7" t="n">
-        <v>142316557.3061101</v>
+        <v>12728804.14138085</v>
       </c>
       <c r="E7" t="n">
-        <v>142102275.2363866</v>
+        <v>12688151.2150554</v>
       </c>
       <c r="F7" t="n">
-        <v>142102289.4410202</v>
+        <v>12688150.48382118</v>
       </c>
       <c r="G7" t="n">
-        <v>896854.1615883422</v>
+        <v>221226.3884593915</v>
       </c>
       <c r="H7" t="n">
-        <v>896731.8970869083</v>
+        <v>221237.3576372795</v>
       </c>
       <c r="I7" t="n">
-        <v>795406.8216060067</v>
+        <v>211224.6608686677</v>
       </c>
       <c r="J7" t="n">
-        <v>795406.9235428333</v>
+        <v>211224.7589333843</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12728798.64204014</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12688151.2150554</v>
+      </c>
+      <c r="M7" t="n">
+        <v>221226.3884593915</v>
+      </c>
+      <c r="N7" t="n">
+        <v>211224.6608686677</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +791,40 @@
         <v>0.000292141396435875</v>
       </c>
       <c r="C8" t="n">
-        <v>168330751.2073583</v>
+        <v>17990692.23022898</v>
       </c>
       <c r="D8" t="n">
-        <v>168331077.3625948</v>
+        <v>17990687.68353703</v>
       </c>
       <c r="E8" t="n">
-        <v>167982831.7381829</v>
+        <v>17961184.12210862</v>
       </c>
       <c r="F8" t="n">
-        <v>167982851.4695216</v>
+        <v>17961184.4426134</v>
       </c>
       <c r="G8" t="n">
-        <v>1028934.540081772</v>
+        <v>280968.9257451741</v>
       </c>
       <c r="H8" t="n">
-        <v>1029297.19979529</v>
+        <v>281013.5476367886</v>
       </c>
       <c r="I8" t="n">
-        <v>892142.4515781992</v>
+        <v>265528.9890602645</v>
       </c>
       <c r="J8" t="n">
-        <v>892142.5972652755</v>
+        <v>265529.111307901</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17990692.23022898</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17961184.12210862</v>
+      </c>
+      <c r="M8" t="n">
+        <v>280968.9257451741</v>
+      </c>
+      <c r="N8" t="n">
+        <v>265528.9890602645</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +837,40 @@
         <v>0.0003408316291751875</v>
       </c>
       <c r="C9" t="n">
-        <v>195115118.1509737</v>
+        <v>16942924.10742117</v>
       </c>
       <c r="D9" t="n">
-        <v>195115355.526164</v>
+        <v>16942924.52214241</v>
       </c>
       <c r="E9" t="n">
-        <v>195056048.0565779</v>
+        <v>16969999.06095944</v>
       </c>
       <c r="F9" t="n">
-        <v>195056077.9432983</v>
+        <v>16970001.02811865</v>
       </c>
       <c r="G9" t="n">
-        <v>1114462.406062491</v>
+        <v>281666.0834419585</v>
       </c>
       <c r="H9" t="n">
-        <v>1114372.413059118</v>
+        <v>281681.8407315742</v>
       </c>
       <c r="I9" t="n">
-        <v>980628.8632369116</v>
+        <v>263296.779705507</v>
       </c>
       <c r="J9" t="n">
-        <v>980629.0815542584</v>
+        <v>263296.9735382549</v>
+      </c>
+      <c r="K9" t="n">
+        <v>16942924.10742117</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16969999.06095944</v>
+      </c>
+      <c r="M9" t="n">
+        <v>281666.0834419585</v>
+      </c>
+      <c r="N9" t="n">
+        <v>263296.779705507</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +883,40 @@
         <v>0.0003895218619144999</v>
       </c>
       <c r="C10" t="n">
-        <v>218196883.0261974</v>
+        <v>21846571.65720686</v>
       </c>
       <c r="D10" t="n">
-        <v>218197432.9451587</v>
+        <v>21846572.78057611</v>
       </c>
       <c r="E10" t="n">
-        <v>218063789.4119443</v>
+        <v>21926426.56017384</v>
       </c>
       <c r="F10" t="n">
-        <v>218063831.3163378</v>
+        <v>21926431.95549987</v>
       </c>
       <c r="G10" t="n">
-        <v>1260460.474098233</v>
+        <v>344390.3839427828</v>
       </c>
       <c r="H10" t="n">
-        <v>1260390.980154184</v>
+        <v>344466.8848461584</v>
       </c>
       <c r="I10" t="n">
-        <v>1093392.107802675</v>
+        <v>322848.4346523334</v>
       </c>
       <c r="J10" t="n">
-        <v>1093392.397298084</v>
+        <v>322848.6744981587</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21846571.65720686</v>
+      </c>
+      <c r="L10" t="n">
+        <v>21926426.56017384</v>
+      </c>
+      <c r="M10" t="n">
+        <v>344390.3839427828</v>
+      </c>
+      <c r="N10" t="n">
+        <v>322848.4346523334</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +929,40 @@
         <v>0.0004382120946538125</v>
       </c>
       <c r="C11" t="n">
-        <v>239396576.2379348</v>
+        <v>18441885.16186064</v>
       </c>
       <c r="D11" t="n">
-        <v>239396867.8717284</v>
+        <v>18441886.64475949</v>
       </c>
       <c r="E11" t="n">
-        <v>239736886.1795298</v>
+        <v>18653090.3042887</v>
       </c>
       <c r="F11" t="n">
-        <v>239736949.2685984</v>
+        <v>18653097.64179066</v>
       </c>
       <c r="G11" t="n">
-        <v>1408160.205041638</v>
+        <v>337722.074450405</v>
       </c>
       <c r="H11" t="n">
-        <v>1408065.458813763</v>
+        <v>337735.1729408338</v>
       </c>
       <c r="I11" t="n">
-        <v>1250943.383196986</v>
+        <v>321949.4303149442</v>
       </c>
       <c r="J11" t="n">
-        <v>1250943.667537526</v>
+        <v>321949.7069237308</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18441885.16186064</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18653090.3042887</v>
+      </c>
+      <c r="M11" t="n">
+        <v>337722.074450405</v>
+      </c>
+      <c r="N11" t="n">
+        <v>321949.4303149442</v>
       </c>
     </row>
     <row r="12">
@@ -835,28 +975,40 @@
         <v>0.0004869023273931249</v>
       </c>
       <c r="C12" t="n">
-        <v>239630147.180716</v>
+        <v>22778625.88226892</v>
       </c>
       <c r="D12" t="n">
-        <v>239629788.0283121</v>
+        <v>22778587.71463401</v>
       </c>
       <c r="E12" t="n">
-        <v>239466924.2691194</v>
+        <v>23104013.8045292</v>
       </c>
       <c r="F12" t="n">
-        <v>239466999.4708744</v>
+        <v>23104023.41336621</v>
       </c>
       <c r="G12" t="n">
-        <v>1700330.25841912</v>
+        <v>411662.3881852344</v>
       </c>
       <c r="H12" t="n">
-        <v>1700057.835328417</v>
+        <v>411638.9614178095</v>
       </c>
       <c r="I12" t="n">
-        <v>1358247.310740586</v>
+        <v>384767.3828066668</v>
       </c>
       <c r="J12" t="n">
-        <v>1358247.594374105</v>
+        <v>384767.7375946963</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22778625.88226892</v>
+      </c>
+      <c r="L12" t="n">
+        <v>23104013.8045292</v>
+      </c>
+      <c r="M12" t="n">
+        <v>411662.3881852344</v>
+      </c>
+      <c r="N12" t="n">
+        <v>384767.3828066668</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +1021,40 @@
         <v>0.0005355925601324374</v>
       </c>
       <c r="C13" t="n">
-        <v>241915714.0882659</v>
+        <v>19411552.62435886</v>
       </c>
       <c r="D13" t="n">
-        <v>241916141.5949056</v>
+        <v>19411569.36090456</v>
       </c>
       <c r="E13" t="n">
-        <v>241926749.7914403</v>
+        <v>19732849.71900065</v>
       </c>
       <c r="F13" t="n">
-        <v>241926824.907799</v>
+        <v>19732857.14934798</v>
       </c>
       <c r="G13" t="n">
-        <v>1600004.097721683</v>
+        <v>365386.6172387435</v>
       </c>
       <c r="H13" t="n">
-        <v>1599855.165065694</v>
+        <v>365378.3811117092</v>
       </c>
       <c r="I13" t="n">
-        <v>1355289.074359451</v>
+        <v>349051.7560588872</v>
       </c>
       <c r="J13" t="n">
-        <v>1355289.351988914</v>
+        <v>349052.1132693981</v>
+      </c>
+      <c r="K13" t="n">
+        <v>19411552.62435886</v>
+      </c>
+      <c r="L13" t="n">
+        <v>19732849.71900065</v>
+      </c>
+      <c r="M13" t="n">
+        <v>365386.6172387435</v>
+      </c>
+      <c r="N13" t="n">
+        <v>349051.7560588872</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +1067,40 @@
         <v>0.0005842827928717499</v>
       </c>
       <c r="C14" t="n">
-        <v>239481678.5698975</v>
+        <v>23917964.46862214</v>
       </c>
       <c r="D14" t="n">
-        <v>239481251.771069</v>
+        <v>23917902.80147172</v>
       </c>
       <c r="E14" t="n">
-        <v>239075501.1739752</v>
+        <v>24208176.4832532</v>
       </c>
       <c r="F14" t="n">
-        <v>239075577.0870453</v>
+        <v>24208186.65888144</v>
       </c>
       <c r="G14" t="n">
-        <v>1720543.113495854</v>
+        <v>428245.8992963346</v>
       </c>
       <c r="H14" t="n">
-        <v>1720309.755276254</v>
+        <v>428196.4415156014</v>
       </c>
       <c r="I14" t="n">
-        <v>1365706.500195531</v>
+        <v>396857.4802810937</v>
       </c>
       <c r="J14" t="n">
-        <v>1365706.794340892</v>
+        <v>396857.841884932</v>
+      </c>
+      <c r="K14" t="n">
+        <v>23917964.46862214</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24208176.4832532</v>
+      </c>
+      <c r="M14" t="n">
+        <v>428245.8992963346</v>
+      </c>
+      <c r="N14" t="n">
+        <v>396857.4802810937</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +1113,40 @@
         <v>0.0006329730256110624</v>
       </c>
       <c r="C15" t="n">
-        <v>241210321.2448897</v>
+        <v>19212508.96889826</v>
       </c>
       <c r="D15" t="n">
-        <v>241210743.2080438</v>
+        <v>19212523.72884444</v>
       </c>
       <c r="E15" t="n">
-        <v>241134704.294302</v>
+        <v>19501164.27736562</v>
       </c>
       <c r="F15" t="n">
-        <v>241134778.9207239</v>
+        <v>19501171.62035046</v>
       </c>
       <c r="G15" t="n">
-        <v>1598282.266952719</v>
+        <v>363766.4262644431</v>
       </c>
       <c r="H15" t="n">
-        <v>1598254.923786601</v>
+        <v>363758.3116922364</v>
       </c>
       <c r="I15" t="n">
-        <v>1349471.938338649</v>
+        <v>346163.4346194614</v>
       </c>
       <c r="J15" t="n">
-        <v>1349472.212395318</v>
+        <v>346163.7882173444</v>
+      </c>
+      <c r="K15" t="n">
+        <v>19212508.96889826</v>
+      </c>
+      <c r="L15" t="n">
+        <v>19501164.27736562</v>
+      </c>
+      <c r="M15" t="n">
+        <v>363766.4262644431</v>
+      </c>
+      <c r="N15" t="n">
+        <v>346163.4346194614</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +1159,40 @@
         <v>0.0006816632583503749</v>
       </c>
       <c r="C16" t="n">
-        <v>238615380.8662516</v>
+        <v>23646553.78608629</v>
       </c>
       <c r="D16" t="n">
-        <v>238614943.5073576</v>
+        <v>23646488.85973246</v>
       </c>
       <c r="E16" t="n">
-        <v>238116736.5386882</v>
+        <v>23899109.98302747</v>
       </c>
       <c r="F16" t="n">
-        <v>238116811.9332562</v>
+        <v>23899120.01993081</v>
       </c>
       <c r="G16" t="n">
-        <v>1718113.28124507</v>
+        <v>426330.0283393799</v>
       </c>
       <c r="H16" t="n">
-        <v>1717820.238661594</v>
+        <v>426281.2055555923</v>
       </c>
       <c r="I16" t="n">
-        <v>1359261.590497311</v>
+        <v>393281.5605685671</v>
       </c>
       <c r="J16" t="n">
-        <v>1359261.88156787</v>
+        <v>393281.918744781</v>
+      </c>
+      <c r="K16" t="n">
+        <v>23646553.78608629</v>
+      </c>
+      <c r="L16" t="n">
+        <v>23899109.98302747</v>
+      </c>
+      <c r="M16" t="n">
+        <v>426330.0283393799</v>
+      </c>
+      <c r="N16" t="n">
+        <v>393281.5605685671</v>
       </c>
     </row>
     <row r="17">
@@ -1005,28 +1205,40 @@
         <v>0.0007303534910896875</v>
       </c>
       <c r="C17" t="n">
-        <v>240791232.7497095</v>
+        <v>20186207.65331377</v>
       </c>
       <c r="D17" t="n">
-        <v>240791270.2172421</v>
+        <v>20186213.24012832</v>
       </c>
       <c r="E17" t="n">
-        <v>240582284.0352588</v>
+        <v>20465223.23535335</v>
       </c>
       <c r="F17" t="n">
-        <v>240582359.0911092</v>
+        <v>20465231.12803015</v>
       </c>
       <c r="G17" t="n">
-        <v>1556905.036356816</v>
+        <v>374564.5962198943</v>
       </c>
       <c r="H17" t="n">
-        <v>1556601.212606912</v>
+        <v>374554.3843271765</v>
       </c>
       <c r="I17" t="n">
-        <v>1353649.329922479</v>
+        <v>357013.4717258833</v>
       </c>
       <c r="J17" t="n">
-        <v>1353649.607503114</v>
+        <v>357013.8292805848</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20186207.65331377</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20465223.23535335</v>
+      </c>
+      <c r="M17" t="n">
+        <v>374564.5962198943</v>
+      </c>
+      <c r="N17" t="n">
+        <v>357013.4717258833</v>
       </c>
     </row>
     <row r="18">
@@ -1039,28 +1251,40 @@
         <v>0.0007790437238289999</v>
       </c>
       <c r="C18" t="n">
-        <v>238285841.609893</v>
+        <v>24704005.35057724</v>
       </c>
       <c r="D18" t="n">
-        <v>238285807.7408826</v>
+        <v>24703991.99808469</v>
       </c>
       <c r="E18" t="n">
-        <v>237323495.5972846</v>
+        <v>24885754.43753463</v>
       </c>
       <c r="F18" t="n">
-        <v>237323571.3998158</v>
+        <v>24885764.99892138</v>
       </c>
       <c r="G18" t="n">
-        <v>1591671.594436278</v>
+        <v>428701.8984699955</v>
       </c>
       <c r="H18" t="n">
-        <v>1591425.609521095</v>
+        <v>428567.5393562119</v>
       </c>
       <c r="I18" t="n">
-        <v>1363171.105232984</v>
+        <v>403768.2664463024</v>
       </c>
       <c r="J18" t="n">
-        <v>1363171.404003048</v>
+        <v>403768.6291471067</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24704005.35057724</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24885754.43753463</v>
+      </c>
+      <c r="M18" t="n">
+        <v>428701.8984699955</v>
+      </c>
+      <c r="N18" t="n">
+        <v>403768.2664463024</v>
       </c>
     </row>
     <row r="19">
@@ -1073,28 +1297,40 @@
         <v>0.0008277339565683124</v>
       </c>
       <c r="C19" t="n">
-        <v>230270819.3223123</v>
+        <v>40563130.33104864</v>
       </c>
       <c r="D19" t="n">
-        <v>230272817.4454404</v>
+        <v>40563523.37699713</v>
       </c>
       <c r="E19" t="n">
-        <v>227398265.8041954</v>
+        <v>39502449.82897941</v>
       </c>
       <c r="F19" t="n">
-        <v>227398342.9779336</v>
+        <v>39502468.15979913</v>
       </c>
       <c r="G19" t="n">
-        <v>4188013.010735624</v>
+        <v>1204584.399849204</v>
       </c>
       <c r="H19" t="n">
-        <v>4184893.68745067</v>
+        <v>1204823.382202351</v>
       </c>
       <c r="I19" t="n">
-        <v>1386351.912023443</v>
+        <v>539991.2416213455</v>
       </c>
       <c r="J19" t="n">
-        <v>1386352.273529322</v>
+        <v>539991.6206153436</v>
+      </c>
+      <c r="K19" t="n">
+        <v>40563130.33104864</v>
+      </c>
+      <c r="L19" t="n">
+        <v>39502449.82897941</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1204584.399849204</v>
+      </c>
+      <c r="N19" t="n">
+        <v>539991.2416213455</v>
       </c>
     </row>
     <row r="20">
@@ -1107,28 +1343,40 @@
         <v>0.0008764241893076249</v>
       </c>
       <c r="C20" t="n">
-        <v>66644917.64647467</v>
+        <v>51981921.91462477</v>
       </c>
       <c r="D20" t="n">
-        <v>66643947.97625262</v>
+        <v>51982241.79267082</v>
       </c>
       <c r="E20" t="n">
-        <v>63387854.98812838</v>
+        <v>49864939.32350727</v>
       </c>
       <c r="F20" t="n">
-        <v>63387788.34046507</v>
+        <v>49864964.39023633</v>
       </c>
       <c r="G20" t="n">
-        <v>6801426.624650368</v>
+        <v>2633400.697886097</v>
       </c>
       <c r="H20" t="n">
-        <v>6803542.146000199</v>
+        <v>2632373.289227723</v>
       </c>
       <c r="I20" t="n">
-        <v>841784.373025906</v>
+        <v>692291.9317916699</v>
       </c>
       <c r="J20" t="n">
-        <v>841783.6870114113</v>
+        <v>692292.4242517807</v>
+      </c>
+      <c r="K20" t="n">
+        <v>51981921.91462477</v>
+      </c>
+      <c r="L20" t="n">
+        <v>49864939.32350727</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2633400.697886097</v>
+      </c>
+      <c r="N20" t="n">
+        <v>692291.9317916699</v>
       </c>
     </row>
     <row r="21">
@@ -1141,28 +1389,40 @@
         <v>0.0009251144220469374</v>
       </c>
       <c r="C21" t="n">
-        <v>67819065.59791707</v>
+        <v>51000771.73565149</v>
       </c>
       <c r="D21" t="n">
-        <v>67816591.60267068</v>
+        <v>51000253.68862828</v>
       </c>
       <c r="E21" t="n">
-        <v>66145421.63365877</v>
+        <v>45312485.8085988</v>
       </c>
       <c r="F21" t="n">
-        <v>66145406.52438826</v>
+        <v>45312503.74121717</v>
       </c>
       <c r="G21" t="n">
-        <v>19032469.76897266</v>
+        <v>6741062.467714562</v>
       </c>
       <c r="H21" t="n">
-        <v>19047849.09642952</v>
+        <v>6743042.027020999</v>
       </c>
       <c r="I21" t="n">
-        <v>813943.7556715967</v>
+        <v>673488.6798081349</v>
       </c>
       <c r="J21" t="n">
-        <v>813942.9008481548</v>
+        <v>673488.084785618</v>
+      </c>
+      <c r="K21" t="n">
+        <v>51000771.73565149</v>
+      </c>
+      <c r="L21" t="n">
+        <v>45312485.8085988</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6741062.467714562</v>
+      </c>
+      <c r="N21" t="n">
+        <v>673488.6798081349</v>
       </c>
     </row>
     <row r="22">
@@ -1175,28 +1435,40 @@
         <v>0.0009738046547862498</v>
       </c>
       <c r="C22" t="n">
-        <v>57503035.30983151</v>
+        <v>53752757.94377105</v>
       </c>
       <c r="D22" t="n">
-        <v>57500958.77079751</v>
+        <v>53752933.9048178</v>
       </c>
       <c r="E22" t="n">
-        <v>56859287.97701728</v>
+        <v>48538438.06947874</v>
       </c>
       <c r="F22" t="n">
-        <v>56859266.33464291</v>
+        <v>48538457.6760857</v>
       </c>
       <c r="G22" t="n">
-        <v>14159433.25112527</v>
+        <v>5701219.657360424</v>
       </c>
       <c r="H22" t="n">
-        <v>14161591.29192357</v>
+        <v>5703115.656732007</v>
       </c>
       <c r="I22" t="n">
-        <v>864282.1963846391</v>
+        <v>801628.5264033611</v>
       </c>
       <c r="J22" t="n">
-        <v>864280.9853306892</v>
+        <v>801627.9796240183</v>
+      </c>
+      <c r="K22" t="n">
+        <v>53752757.94377105</v>
+      </c>
+      <c r="L22" t="n">
+        <v>48538438.06947874</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5701219.657360424</v>
+      </c>
+      <c r="N22" t="n">
+        <v>801628.5264033611</v>
       </c>
     </row>
     <row r="23">
@@ -1209,28 +1481,40 @@
         <v>0.001022494887525562</v>
       </c>
       <c r="C23" t="n">
-        <v>39929577.63629435</v>
+        <v>54661239.27230757</v>
       </c>
       <c r="D23" t="n">
-        <v>39929729.41676126</v>
+        <v>54661017.06977923</v>
       </c>
       <c r="E23" t="n">
-        <v>39612455.01098214</v>
+        <v>50724608.52889128</v>
       </c>
       <c r="F23" t="n">
-        <v>39612395.46403001</v>
+        <v>50724630.664244</v>
       </c>
       <c r="G23" t="n">
-        <v>7644433.264760778</v>
+        <v>3603401.095275711</v>
       </c>
       <c r="H23" t="n">
-        <v>7638597.049936029</v>
+        <v>3605877.493475395</v>
       </c>
       <c r="I23" t="n">
-        <v>907649.2404295155</v>
+        <v>956570.917669293</v>
       </c>
       <c r="J23" t="n">
-        <v>907647.3798615339</v>
+        <v>956571.76819769</v>
+      </c>
+      <c r="K23" t="n">
+        <v>54661239.27230757</v>
+      </c>
+      <c r="L23" t="n">
+        <v>50724608.52889128</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3603401.095275711</v>
+      </c>
+      <c r="N23" t="n">
+        <v>956570.917669293</v>
       </c>
     </row>
     <row r="24">
@@ -1243,28 +1527,40 @@
         <v>0.001071185120264875</v>
       </c>
       <c r="C24" t="n">
-        <v>152343028.6182823</v>
+        <v>55821289.26633023</v>
       </c>
       <c r="D24" t="n">
-        <v>152343120.0476015</v>
+        <v>55821007.03294415</v>
       </c>
       <c r="E24" t="n">
-        <v>143393340.2031053</v>
+        <v>50623143.7151313</v>
       </c>
       <c r="F24" t="n">
-        <v>143393398.5397012</v>
+        <v>50623167.17717952</v>
       </c>
       <c r="G24" t="n">
-        <v>6460279.265574605</v>
+        <v>2985629.234229142</v>
       </c>
       <c r="H24" t="n">
-        <v>6456699.104482433</v>
+        <v>2985902.026485874</v>
       </c>
       <c r="I24" t="n">
-        <v>1634967.150408868</v>
+        <v>916634.9844938349</v>
       </c>
       <c r="J24" t="n">
-        <v>1634968.494832272</v>
+        <v>916635.9224675701</v>
+      </c>
+      <c r="K24" t="n">
+        <v>55821289.26633023</v>
+      </c>
+      <c r="L24" t="n">
+        <v>50623143.7151313</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2985629.234229142</v>
+      </c>
+      <c r="N24" t="n">
+        <v>916634.9844938349</v>
       </c>
     </row>
     <row r="25">
@@ -1277,28 +1573,40 @@
         <v>0.001119875353004187</v>
       </c>
       <c r="C25" t="n">
-        <v>37048572.21504242</v>
+        <v>53853331.20009986</v>
       </c>
       <c r="D25" t="n">
-        <v>37047334.00451827</v>
+        <v>53853278.1315482</v>
       </c>
       <c r="E25" t="n">
-        <v>38032338.20262033</v>
+        <v>50010341.15695336</v>
       </c>
       <c r="F25" t="n">
-        <v>38032289.72304398</v>
+        <v>50010366.12648134</v>
       </c>
       <c r="G25" t="n">
-        <v>6871351.275216403</v>
+        <v>3015461.471549559</v>
       </c>
       <c r="H25" t="n">
-        <v>6872431.583361358</v>
+        <v>3013905.062173313</v>
       </c>
       <c r="I25" t="n">
-        <v>762706.7816830658</v>
+        <v>809765.4205743566</v>
       </c>
       <c r="J25" t="n">
-        <v>762706.0431128069</v>
+        <v>809765.9287237918</v>
+      </c>
+      <c r="K25" t="n">
+        <v>53853331.20009986</v>
+      </c>
+      <c r="L25" t="n">
+        <v>50010341.15695336</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3015461.471549559</v>
+      </c>
+      <c r="N25" t="n">
+        <v>809765.4205743566</v>
       </c>
     </row>
     <row r="26">
@@ -1311,28 +1619,40 @@
         <v>0.0011685655857435</v>
       </c>
       <c r="C26" t="n">
-        <v>171332384.5135512</v>
+        <v>54305005.28166888</v>
       </c>
       <c r="D26" t="n">
-        <v>171333624.4149036</v>
+        <v>54304767.22419929</v>
       </c>
       <c r="E26" t="n">
-        <v>166804946.6318329</v>
+        <v>51254214.90789097</v>
       </c>
       <c r="F26" t="n">
-        <v>166805005.402961</v>
+        <v>51254238.13547318</v>
       </c>
       <c r="G26" t="n">
-        <v>11836149.85419095</v>
+        <v>4422472.700561635</v>
       </c>
       <c r="H26" t="n">
-        <v>11825310.27773568</v>
+        <v>4421250.614945562</v>
       </c>
       <c r="I26" t="n">
-        <v>1596870.011234043</v>
+        <v>847488.2752211514</v>
       </c>
       <c r="J26" t="n">
-        <v>1596871.051285364</v>
+        <v>847488.8504928359</v>
+      </c>
+      <c r="K26" t="n">
+        <v>54305005.28166888</v>
+      </c>
+      <c r="L26" t="n">
+        <v>51254214.90789097</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4422472.700561635</v>
+      </c>
+      <c r="N26" t="n">
+        <v>847488.2752211514</v>
       </c>
     </row>
     <row r="27">
@@ -1345,28 +1665,40 @@
         <v>0.001217255818482812</v>
       </c>
       <c r="C27" t="n">
-        <v>183499084.9030938</v>
+        <v>54354695.42187958</v>
       </c>
       <c r="D27" t="n">
-        <v>183500575.2976745</v>
+        <v>54354568.97183216</v>
       </c>
       <c r="E27" t="n">
-        <v>176278240.4236376</v>
+        <v>50284196.13538072</v>
       </c>
       <c r="F27" t="n">
-        <v>176278299.7115515</v>
+        <v>50284218.53635405</v>
       </c>
       <c r="G27" t="n">
-        <v>9873359.808629055</v>
+        <v>3950077.626809615</v>
       </c>
       <c r="H27" t="n">
-        <v>9868513.120441612</v>
+        <v>3949640.285340018</v>
       </c>
       <c r="I27" t="n">
-        <v>1590257.926242122</v>
+        <v>811955.9822262549</v>
       </c>
       <c r="J27" t="n">
-        <v>1590258.855985597</v>
+        <v>811956.4839468029</v>
+      </c>
+      <c r="K27" t="n">
+        <v>54354695.42187958</v>
+      </c>
+      <c r="L27" t="n">
+        <v>50284196.13538072</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3950077.626809615</v>
+      </c>
+      <c r="N27" t="n">
+        <v>811955.9822262549</v>
       </c>
     </row>
     <row r="28">
@@ -1379,28 +1711,40 @@
         <v>0.001265946051222125</v>
       </c>
       <c r="C28" t="n">
-        <v>56646006.14434455</v>
+        <v>53690153.28884237</v>
       </c>
       <c r="D28" t="n">
-        <v>56644999.90468889</v>
+        <v>53690828.78747623</v>
       </c>
       <c r="E28" t="n">
-        <v>60218456.7159311</v>
+        <v>48563080.24776411</v>
       </c>
       <c r="F28" t="n">
-        <v>60218405.98062657</v>
+        <v>48563103.53348703</v>
       </c>
       <c r="G28" t="n">
-        <v>10384872.58452818</v>
+        <v>3896863.345345382</v>
       </c>
       <c r="H28" t="n">
-        <v>10358601.16735359</v>
+        <v>3892205.435118752</v>
       </c>
       <c r="I28" t="n">
-        <v>833484.1269188098</v>
+        <v>725473.4058811772</v>
       </c>
       <c r="J28" t="n">
-        <v>833482.9828403107</v>
+        <v>725473.6804404631</v>
+      </c>
+      <c r="K28" t="n">
+        <v>53690153.28884237</v>
+      </c>
+      <c r="L28" t="n">
+        <v>48563080.24776411</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3896863.345345382</v>
+      </c>
+      <c r="N28" t="n">
+        <v>725473.4058811772</v>
       </c>
     </row>
     <row r="29">
@@ -1413,28 +1757,40 @@
         <v>0.001314636283961437</v>
       </c>
       <c r="C29" t="n">
-        <v>59357163.8161823</v>
+        <v>52331062.48852834</v>
       </c>
       <c r="D29" t="n">
-        <v>59353135.72012541</v>
+        <v>52330761.92859191</v>
       </c>
       <c r="E29" t="n">
-        <v>59737722.5660838</v>
+        <v>49663431.84687961</v>
       </c>
       <c r="F29" t="n">
-        <v>59737665.04976226</v>
+        <v>49663457.11944914</v>
       </c>
       <c r="G29" t="n">
-        <v>11702150.74055988</v>
+        <v>3508973.10640517</v>
       </c>
       <c r="H29" t="n">
-        <v>11715355.39591569</v>
+        <v>3515760.769883297</v>
       </c>
       <c r="I29" t="n">
-        <v>798682.5052689955</v>
+        <v>685978.4917166247</v>
       </c>
       <c r="J29" t="n">
-        <v>798681.8755812002</v>
+        <v>685978.8753145359</v>
+      </c>
+      <c r="K29" t="n">
+        <v>52331062.48852834</v>
+      </c>
+      <c r="L29" t="n">
+        <v>49663431.84687961</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3508973.10640517</v>
+      </c>
+      <c r="N29" t="n">
+        <v>685978.4917166247</v>
       </c>
     </row>
     <row r="30">
@@ -1447,28 +1803,40 @@
         <v>0.00136332651670075</v>
       </c>
       <c r="C30" t="n">
-        <v>60179152.39818616</v>
+        <v>47885154.53063169</v>
       </c>
       <c r="D30" t="n">
-        <v>60177646.1249894</v>
+        <v>47885128.559545</v>
       </c>
       <c r="E30" t="n">
-        <v>58494794.70209315</v>
+        <v>46475149.20868307</v>
       </c>
       <c r="F30" t="n">
-        <v>58494726.77627954</v>
+        <v>46475172.531524</v>
       </c>
       <c r="G30" t="n">
-        <v>6325205.727625455</v>
+        <v>2101924.802006396</v>
       </c>
       <c r="H30" t="n">
-        <v>6284400.570997008</v>
+        <v>2099082.245053947</v>
       </c>
       <c r="I30" t="n">
-        <v>805410.6812800397</v>
+        <v>634826.570359234</v>
       </c>
       <c r="J30" t="n">
-        <v>805410.1309544011</v>
+        <v>634826.945198498</v>
+      </c>
+      <c r="K30" t="n">
+        <v>47885154.53063169</v>
+      </c>
+      <c r="L30" t="n">
+        <v>46475149.20868307</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2101924.802006396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>634826.570359234</v>
       </c>
     </row>
     <row r="31">
@@ -1481,28 +1849,40 @@
         <v>0.001412016749440062</v>
       </c>
       <c r="C31" t="n">
-        <v>217956629.4934479</v>
+        <v>43372873.34851753</v>
       </c>
       <c r="D31" t="n">
-        <v>217956783.5398675</v>
+        <v>43372519.76300333</v>
       </c>
       <c r="E31" t="n">
-        <v>214582054.0174698</v>
+        <v>42101084.80939717</v>
       </c>
       <c r="F31" t="n">
-        <v>214582130.6643077</v>
+        <v>42101104.7764674</v>
       </c>
       <c r="G31" t="n">
-        <v>4831806.129121557</v>
+        <v>1311801.731634278</v>
       </c>
       <c r="H31" t="n">
-        <v>4825841.724801797</v>
+        <v>1313400.686320286</v>
       </c>
       <c r="I31" t="n">
-        <v>1425334.858039546</v>
+        <v>586732.9978565974</v>
       </c>
       <c r="J31" t="n">
-        <v>1425335.349452067</v>
+        <v>586733.4109585824</v>
+      </c>
+      <c r="K31" t="n">
+        <v>43372873.34851753</v>
+      </c>
+      <c r="L31" t="n">
+        <v>42101084.80939717</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1311801.731634278</v>
+      </c>
+      <c r="N31" t="n">
+        <v>586732.9978565974</v>
       </c>
     </row>
     <row r="32">
@@ -1515,28 +1895,40 @@
         <v>0.001460706982179375</v>
       </c>
       <c r="C32" t="n">
-        <v>59338325.55249856</v>
+        <v>39849559.75156708</v>
       </c>
       <c r="D32" t="n">
-        <v>59337344.23306784</v>
+        <v>39849460.51731732</v>
       </c>
       <c r="E32" t="n">
-        <v>59108559.94216466</v>
+        <v>39571855.25231799</v>
       </c>
       <c r="F32" t="n">
-        <v>59108489.86573383</v>
+        <v>39571872.30583309</v>
       </c>
       <c r="G32" t="n">
-        <v>3543046.141704116</v>
+        <v>934782.5892315275</v>
       </c>
       <c r="H32" t="n">
-        <v>3539790.483767254</v>
+        <v>935459.9316449007</v>
       </c>
       <c r="I32" t="n">
-        <v>769737.5796441054</v>
+        <v>537406.386979532</v>
       </c>
       <c r="J32" t="n">
-        <v>769736.8940327084</v>
+        <v>537406.7870973954</v>
+      </c>
+      <c r="K32" t="n">
+        <v>39849559.75156708</v>
+      </c>
+      <c r="L32" t="n">
+        <v>39571855.25231799</v>
+      </c>
+      <c r="M32" t="n">
+        <v>934782.5892315275</v>
+      </c>
+      <c r="N32" t="n">
+        <v>537406.386979532</v>
       </c>
     </row>
     <row r="33">
@@ -1549,28 +1941,40 @@
         <v>0.001509397214918687</v>
       </c>
       <c r="C33" t="n">
-        <v>228059864.6681267</v>
+        <v>36016323.82610425</v>
       </c>
       <c r="D33" t="n">
-        <v>228060668.4567792</v>
+        <v>36016263.45636921</v>
       </c>
       <c r="E33" t="n">
-        <v>227441775.8966278</v>
+        <v>35971003.8657546</v>
       </c>
       <c r="F33" t="n">
-        <v>227441853.1405568</v>
+        <v>35971019.89174481</v>
       </c>
       <c r="G33" t="n">
-        <v>3199495.21456613</v>
+        <v>845071.6384451265</v>
       </c>
       <c r="H33" t="n">
-        <v>3201529.061834425</v>
+        <v>845718.3122610874</v>
       </c>
       <c r="I33" t="n">
-        <v>1409968.789870419</v>
+        <v>517698.5871454674</v>
       </c>
       <c r="J33" t="n">
-        <v>1409969.159518125</v>
+        <v>517699.0041152029</v>
+      </c>
+      <c r="K33" t="n">
+        <v>36016323.82610425</v>
+      </c>
+      <c r="L33" t="n">
+        <v>35971003.8657546</v>
+      </c>
+      <c r="M33" t="n">
+        <v>845071.6384451265</v>
+      </c>
+      <c r="N33" t="n">
+        <v>517698.5871454674</v>
       </c>
     </row>
     <row r="34">
@@ -1583,28 +1987,40 @@
         <v>0.001558087447658</v>
       </c>
       <c r="C34" t="n">
-        <v>59918512.7349734</v>
+        <v>34672519.95080439</v>
       </c>
       <c r="D34" t="n">
-        <v>59917264.34445509</v>
+        <v>34672496.67120984</v>
       </c>
       <c r="E34" t="n">
-        <v>60398520.96699329</v>
+        <v>34716542.20801911</v>
       </c>
       <c r="F34" t="n">
-        <v>60398451.96178</v>
+        <v>34716556.86673946</v>
       </c>
       <c r="G34" t="n">
-        <v>1619389.237506738</v>
+        <v>611079.7907963092</v>
       </c>
       <c r="H34" t="n">
-        <v>1616844.957423244</v>
+        <v>611036.236845059</v>
       </c>
       <c r="I34" t="n">
-        <v>756641.021798199</v>
+        <v>494443.7462750587</v>
       </c>
       <c r="J34" t="n">
-        <v>756640.3145677508</v>
+        <v>494444.1619641076</v>
+      </c>
+      <c r="K34" t="n">
+        <v>34672519.95080439</v>
+      </c>
+      <c r="L34" t="n">
+        <v>34716542.20801911</v>
+      </c>
+      <c r="M34" t="n">
+        <v>611079.7907963092</v>
+      </c>
+      <c r="N34" t="n">
+        <v>494443.7462750587</v>
       </c>
     </row>
     <row r="35">
@@ -1617,28 +2033,40 @@
         <v>0.001606777680397312</v>
       </c>
       <c r="C35" t="n">
-        <v>62622642.28684318</v>
+        <v>31204803.09616791</v>
       </c>
       <c r="D35" t="n">
-        <v>62620279.12215608</v>
+        <v>31204912.48478629</v>
       </c>
       <c r="E35" t="n">
-        <v>62769391.83647444</v>
+        <v>31558392.06448591</v>
       </c>
       <c r="F35" t="n">
-        <v>62769316.74559159</v>
+        <v>31558405.06555513</v>
       </c>
       <c r="G35" t="n">
-        <v>2160218.393834471</v>
+        <v>623480.2053833879</v>
       </c>
       <c r="H35" t="n">
-        <v>2159206.940218795</v>
+        <v>624085.340609424</v>
       </c>
       <c r="I35" t="n">
-        <v>792267.8698205912</v>
+        <v>477708.7892862943</v>
       </c>
       <c r="J35" t="n">
-        <v>792267.1320573905</v>
+        <v>477709.247871276</v>
+      </c>
+      <c r="K35" t="n">
+        <v>31204803.09616791</v>
+      </c>
+      <c r="L35" t="n">
+        <v>31558392.06448591</v>
+      </c>
+      <c r="M35" t="n">
+        <v>623480.2053833879</v>
+      </c>
+      <c r="N35" t="n">
+        <v>477708.7892862943</v>
       </c>
     </row>
     <row r="36">
@@ -1651,28 +2079,40 @@
         <v>0.001655467913136625</v>
       </c>
       <c r="C36" t="n">
-        <v>62502954.04378849</v>
+        <v>29431989.88224553</v>
       </c>
       <c r="D36" t="n">
-        <v>62501054.05705019</v>
+        <v>29432033.66946927</v>
       </c>
       <c r="E36" t="n">
-        <v>63235889.15390511</v>
+        <v>29839358.68852787</v>
       </c>
       <c r="F36" t="n">
-        <v>63235815.04470845</v>
+        <v>29839371.2008754</v>
       </c>
       <c r="G36" t="n">
-        <v>1795197.83320074</v>
+        <v>571146.0173918005</v>
       </c>
       <c r="H36" t="n">
-        <v>1793275.093708952</v>
+        <v>571666.5267679447</v>
       </c>
       <c r="I36" t="n">
-        <v>789915.1236176468</v>
+        <v>462434.8257046778</v>
       </c>
       <c r="J36" t="n">
-        <v>789914.4195187995</v>
+        <v>462435.2661254124</v>
+      </c>
+      <c r="K36" t="n">
+        <v>29431989.88224553</v>
+      </c>
+      <c r="L36" t="n">
+        <v>29839358.68852787</v>
+      </c>
+      <c r="M36" t="n">
+        <v>571146.0173918005</v>
+      </c>
+      <c r="N36" t="n">
+        <v>462434.8257046778</v>
       </c>
     </row>
     <row r="37">
@@ -1685,28 +2125,40 @@
         <v>0.001704158145875937</v>
       </c>
       <c r="C37" t="n">
-        <v>62646920.6068458</v>
+        <v>27998879.84662343</v>
       </c>
       <c r="D37" t="n">
-        <v>62644905.92168395</v>
+        <v>27998950.11035033</v>
       </c>
       <c r="E37" t="n">
-        <v>63155063.85014719</v>
+        <v>28401215.91959765</v>
       </c>
       <c r="F37" t="n">
-        <v>63154992.51408006</v>
+        <v>28401227.92021139</v>
       </c>
       <c r="G37" t="n">
-        <v>1828898.660545455</v>
+        <v>547765.3709345956</v>
       </c>
       <c r="H37" t="n">
-        <v>1828114.2676978</v>
+        <v>548095.0860660414</v>
       </c>
       <c r="I37" t="n">
-        <v>775328.9011925221</v>
+        <v>445506.6580601108</v>
       </c>
       <c r="J37" t="n">
-        <v>775328.2274789824</v>
+        <v>445507.0755871154</v>
+      </c>
+      <c r="K37" t="n">
+        <v>27998879.84662343</v>
+      </c>
+      <c r="L37" t="n">
+        <v>28401215.91959765</v>
+      </c>
+      <c r="M37" t="n">
+        <v>547765.3709345956</v>
+      </c>
+      <c r="N37" t="n">
+        <v>445506.6580601108</v>
       </c>
     </row>
     <row r="38">
@@ -1719,28 +2171,40 @@
         <v>0.00175284837861525</v>
       </c>
       <c r="C38" t="n">
-        <v>63623938.57433686</v>
+        <v>27622762.12488514</v>
       </c>
       <c r="D38" t="n">
-        <v>63624568.43425266</v>
+        <v>27622739.24114242</v>
       </c>
       <c r="E38" t="n">
-        <v>63620303.47826542</v>
+        <v>28051816.94928024</v>
       </c>
       <c r="F38" t="n">
-        <v>63620232.7592036</v>
+        <v>28051828.91274907</v>
       </c>
       <c r="G38" t="n">
-        <v>1186652.913217651</v>
+        <v>476015.0476266487</v>
       </c>
       <c r="H38" t="n">
-        <v>1187585.332372557</v>
+        <v>475731.2785940905</v>
       </c>
       <c r="I38" t="n">
-        <v>774234.7390763317</v>
+        <v>441514.6898748298</v>
       </c>
       <c r="J38" t="n">
-        <v>774234.0771408487</v>
+        <v>441515.0982846191</v>
+      </c>
+      <c r="K38" t="n">
+        <v>27622762.12488514</v>
+      </c>
+      <c r="L38" t="n">
+        <v>28051816.94928024</v>
+      </c>
+      <c r="M38" t="n">
+        <v>476015.0476266487</v>
+      </c>
+      <c r="N38" t="n">
+        <v>441514.6898748298</v>
       </c>
     </row>
     <row r="39">
@@ -1753,28 +2217,40 @@
         <v>0.001801538611354562</v>
       </c>
       <c r="C39" t="n">
-        <v>63253414.71479116</v>
+        <v>27470623.59477198</v>
       </c>
       <c r="D39" t="n">
-        <v>63251094.57410794</v>
+        <v>27470676.96710839</v>
       </c>
       <c r="E39" t="n">
-        <v>63947360.49712671</v>
+        <v>27830625.97140939</v>
       </c>
       <c r="F39" t="n">
-        <v>63947289.75476196</v>
+        <v>27830637.75596267</v>
       </c>
       <c r="G39" t="n">
-        <v>1473652.285712137</v>
+        <v>503916.3522498071</v>
       </c>
       <c r="H39" t="n">
-        <v>1472978.500936823</v>
+        <v>504305.1426651189</v>
       </c>
       <c r="I39" t="n">
-        <v>775589.3281785215</v>
+        <v>439278.1912832005</v>
       </c>
       <c r="J39" t="n">
-        <v>775588.6599837494</v>
+        <v>439278.6025125152</v>
+      </c>
+      <c r="K39" t="n">
+        <v>27470623.59477198</v>
+      </c>
+      <c r="L39" t="n">
+        <v>27830625.97140939</v>
+      </c>
+      <c r="M39" t="n">
+        <v>503916.3522498071</v>
+      </c>
+      <c r="N39" t="n">
+        <v>439278.1912832005</v>
       </c>
     </row>
     <row r="40">
@@ -1787,28 +2263,40 @@
         <v>0.001850228844093875</v>
       </c>
       <c r="C40" t="n">
-        <v>64992492.81319235</v>
+        <v>28128227.00049252</v>
       </c>
       <c r="D40" t="n">
-        <v>64990711.46666328</v>
+        <v>28128210.83899956</v>
       </c>
       <c r="E40" t="n">
-        <v>65100072.93485756</v>
+        <v>28545084.26679988</v>
       </c>
       <c r="F40" t="n">
-        <v>65099999.07182351</v>
+        <v>28545096.17962325</v>
       </c>
       <c r="G40" t="n">
-        <v>1860965.770628111</v>
+        <v>558145.3073339923</v>
       </c>
       <c r="H40" t="n">
-        <v>1859282.879585655</v>
+        <v>558571.1120455855</v>
       </c>
       <c r="I40" t="n">
-        <v>796210.1864050521</v>
+        <v>449545.0619027877</v>
       </c>
       <c r="J40" t="n">
-        <v>796209.4937559661</v>
+        <v>449545.4950705064</v>
+      </c>
+      <c r="K40" t="n">
+        <v>28128227.00049252</v>
+      </c>
+      <c r="L40" t="n">
+        <v>28545084.26679988</v>
+      </c>
+      <c r="M40" t="n">
+        <v>558145.3073339923</v>
+      </c>
+      <c r="N40" t="n">
+        <v>449545.0619027877</v>
       </c>
     </row>
     <row r="41">
@@ -1821,28 +2309,40 @@
         <v>0.001898919076833187</v>
       </c>
       <c r="C41" t="n">
-        <v>65671964.76330458</v>
+        <v>29146820.99008302</v>
       </c>
       <c r="D41" t="n">
-        <v>65670102.4121064</v>
+        <v>29146815.17483422</v>
       </c>
       <c r="E41" t="n">
-        <v>65335766.0200292</v>
+        <v>29649830.71253719</v>
       </c>
       <c r="F41" t="n">
-        <v>65335692.19269846</v>
+        <v>29649843.03804778</v>
       </c>
       <c r="G41" t="n">
-        <v>1698132.812231398</v>
+        <v>540271.0010244093</v>
       </c>
       <c r="H41" t="n">
-        <v>1696338.848143826</v>
+        <v>540633.9509160185</v>
       </c>
       <c r="I41" t="n">
-        <v>796233.9105540803</v>
+        <v>458374.5297291764</v>
       </c>
       <c r="J41" t="n">
-        <v>796233.1987689756</v>
+        <v>458374.9681253324</v>
+      </c>
+      <c r="K41" t="n">
+        <v>29146820.99008302</v>
+      </c>
+      <c r="L41" t="n">
+        <v>29649830.71253719</v>
+      </c>
+      <c r="M41" t="n">
+        <v>540271.0010244093</v>
+      </c>
+      <c r="N41" t="n">
+        <v>458374.5297291764</v>
       </c>
     </row>
     <row r="42">
@@ -1855,28 +2355,40 @@
         <v>0.0019476093095725</v>
       </c>
       <c r="C42" t="n">
-        <v>65204143.70901346</v>
+        <v>31247654.30723044</v>
       </c>
       <c r="D42" t="n">
-        <v>65202861.92289428</v>
+        <v>31247614.19444841</v>
       </c>
       <c r="E42" t="n">
-        <v>64717242.94471011</v>
+        <v>31736737.64034451</v>
       </c>
       <c r="F42" t="n">
-        <v>64717169.06469277</v>
+        <v>31736751.44335804</v>
       </c>
       <c r="G42" t="n">
-        <v>1856774.452626874</v>
+        <v>596621.5680820371</v>
       </c>
       <c r="H42" t="n">
-        <v>1856995.988012064</v>
+        <v>596902.72212441</v>
       </c>
       <c r="I42" t="n">
-        <v>799449.5478859458</v>
+        <v>480090.2793645405</v>
       </c>
       <c r="J42" t="n">
-        <v>799448.8390525074</v>
+        <v>480090.7086715855</v>
+      </c>
+      <c r="K42" t="n">
+        <v>31247654.30723044</v>
+      </c>
+      <c r="L42" t="n">
+        <v>31736737.64034451</v>
+      </c>
+      <c r="M42" t="n">
+        <v>596621.5680820371</v>
+      </c>
+      <c r="N42" t="n">
+        <v>480090.2793645405</v>
       </c>
     </row>
     <row r="43">
@@ -1889,28 +2401,40 @@
         <v>0.001996299542311812</v>
       </c>
       <c r="C43" t="n">
-        <v>65392980.17780631</v>
+        <v>32797156.9254816</v>
       </c>
       <c r="D43" t="n">
-        <v>65391961.32537928</v>
+        <v>32797200.53475026</v>
       </c>
       <c r="E43" t="n">
-        <v>64459576.5689237</v>
+        <v>33225710.57945907</v>
       </c>
       <c r="F43" t="n">
-        <v>64459504.70024248</v>
+        <v>33225724.31054192</v>
       </c>
       <c r="G43" t="n">
-        <v>1807168.714014163</v>
+        <v>594909.8237602534</v>
       </c>
       <c r="H43" t="n">
-        <v>1809179.630716956</v>
+        <v>594754.3752640279</v>
       </c>
       <c r="I43" t="n">
-        <v>787901.569270107</v>
+        <v>485767.3172733521</v>
       </c>
       <c r="J43" t="n">
-        <v>787900.8191968091</v>
+        <v>485767.7605487735</v>
+      </c>
+      <c r="K43" t="n">
+        <v>32797156.9254816</v>
+      </c>
+      <c r="L43" t="n">
+        <v>33225710.57945907</v>
+      </c>
+      <c r="M43" t="n">
+        <v>594909.8237602534</v>
+      </c>
+      <c r="N43" t="n">
+        <v>485767.3172733521</v>
       </c>
     </row>
     <row r="44">
@@ -1923,28 +2447,40 @@
         <v>0.002044989775051125</v>
       </c>
       <c r="C44" t="n">
-        <v>63203478.73289306</v>
+        <v>35212610.50032556</v>
       </c>
       <c r="D44" t="n">
-        <v>63201289.79519279</v>
+        <v>35212783.04197787</v>
       </c>
       <c r="E44" t="n">
-        <v>63492312.44872415</v>
+        <v>35437022.22657536</v>
       </c>
       <c r="F44" t="n">
-        <v>63492242.8513863</v>
+        <v>35437037.34771334</v>
       </c>
       <c r="G44" t="n">
-        <v>2070097.405800244</v>
+        <v>708302.5313693623</v>
       </c>
       <c r="H44" t="n">
-        <v>2070711.773751552</v>
+        <v>708314.4500897445</v>
       </c>
       <c r="I44" t="n">
-        <v>776488.4366539689</v>
+        <v>501954.9318287448</v>
       </c>
       <c r="J44" t="n">
-        <v>776487.707549441</v>
+        <v>501955.3489339024</v>
+      </c>
+      <c r="K44" t="n">
+        <v>35212610.50032556</v>
+      </c>
+      <c r="L44" t="n">
+        <v>35437022.22657536</v>
+      </c>
+      <c r="M44" t="n">
+        <v>708302.5313693623</v>
+      </c>
+      <c r="N44" t="n">
+        <v>501954.9318287448</v>
       </c>
     </row>
     <row r="45">
@@ -1957,28 +2493,40 @@
         <v>0.002093680007790437</v>
       </c>
       <c r="C45" t="n">
-        <v>238739858.5046561</v>
+        <v>34419182.31737644</v>
       </c>
       <c r="D45" t="n">
-        <v>238740698.7122171</v>
+        <v>34419091.0947719</v>
       </c>
       <c r="E45" t="n">
-        <v>238666839.2143387</v>
+        <v>34533974.20454948</v>
       </c>
       <c r="F45" t="n">
-        <v>238666917.8455552</v>
+        <v>34533989.5902616</v>
       </c>
       <c r="G45" t="n">
-        <v>3163735.181753063</v>
+        <v>760925.7293113318</v>
       </c>
       <c r="H45" t="n">
-        <v>3162973.147672555</v>
+        <v>761747.8098464685</v>
       </c>
       <c r="I45" t="n">
-        <v>1431582.211110855</v>
+        <v>502029.9456192621</v>
       </c>
       <c r="J45" t="n">
-        <v>1431582.564266465</v>
+        <v>502030.3468411834</v>
+      </c>
+      <c r="K45" t="n">
+        <v>34419182.31737644</v>
+      </c>
+      <c r="L45" t="n">
+        <v>34533974.20454948</v>
+      </c>
+      <c r="M45" t="n">
+        <v>760925.7293113318</v>
+      </c>
+      <c r="N45" t="n">
+        <v>502029.9456192621</v>
       </c>
     </row>
     <row r="46">
@@ -1991,28 +2539,40 @@
         <v>0.00214237024052975</v>
       </c>
       <c r="C46" t="n">
-        <v>238363239.4324796</v>
+        <v>36237420.84697346</v>
       </c>
       <c r="D46" t="n">
-        <v>238366235.2394782</v>
+        <v>36237882.35291854</v>
       </c>
       <c r="E46" t="n">
-        <v>236376515.3039346</v>
+        <v>35865985.07366488</v>
       </c>
       <c r="F46" t="n">
-        <v>236376592.7282906</v>
+        <v>35866001.33203752</v>
       </c>
       <c r="G46" t="n">
-        <v>3361465.232285845</v>
+        <v>883338.8354285883</v>
       </c>
       <c r="H46" t="n">
-        <v>3368573.899361378</v>
+        <v>883796.1046536233</v>
       </c>
       <c r="I46" t="n">
-        <v>1421898.454853839</v>
+        <v>512760.6611367493</v>
       </c>
       <c r="J46" t="n">
-        <v>1421898.803745762</v>
+        <v>512761.0473142357</v>
+      </c>
+      <c r="K46" t="n">
+        <v>36237420.84697346</v>
+      </c>
+      <c r="L46" t="n">
+        <v>35865985.07366488</v>
+      </c>
+      <c r="M46" t="n">
+        <v>883338.8354285883</v>
+      </c>
+      <c r="N46" t="n">
+        <v>512760.6611367493</v>
       </c>
     </row>
     <row r="47">
@@ -2025,28 +2585,40 @@
         <v>0.002191060473269062</v>
       </c>
       <c r="C47" t="n">
-        <v>64621542.90837121</v>
+        <v>41323793.11178966</v>
       </c>
       <c r="D47" t="n">
-        <v>64618154.3086896</v>
+        <v>41323737.48896696</v>
       </c>
       <c r="E47" t="n">
-        <v>65173742.50169375</v>
+        <v>40660412.09782284</v>
       </c>
       <c r="F47" t="n">
-        <v>65173669.34984943</v>
+        <v>40660430.58243107</v>
       </c>
       <c r="G47" t="n">
-        <v>4141291.522116475</v>
+        <v>1210877.007485318</v>
       </c>
       <c r="H47" t="n">
-        <v>4127238.77770895</v>
+        <v>1211383.193720676</v>
       </c>
       <c r="I47" t="n">
-        <v>812575.320309697</v>
+        <v>553863.0479603847</v>
       </c>
       <c r="J47" t="n">
-        <v>812574.6356638282</v>
+        <v>553863.4388476397</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41323793.11178966</v>
+      </c>
+      <c r="L47" t="n">
+        <v>40660412.09782284</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1210877.007485318</v>
+      </c>
+      <c r="N47" t="n">
+        <v>553863.0479603847</v>
       </c>
     </row>
     <row r="48">
@@ -2059,28 +2631,40 @@
         <v>0.002239750706008375</v>
       </c>
       <c r="C48" t="n">
-        <v>235295401.4551359</v>
+        <v>39221869.79385753</v>
       </c>
       <c r="D48" t="n">
-        <v>235296653.0229569</v>
+        <v>39221594.98727604</v>
       </c>
       <c r="E48" t="n">
-        <v>234747019.4716035</v>
+        <v>39005104.17128047</v>
       </c>
       <c r="F48" t="n">
-        <v>234747095.7537849</v>
+        <v>39005121.95556479</v>
       </c>
       <c r="G48" t="n">
-        <v>4515765.685774775</v>
+        <v>1069717.432671468</v>
       </c>
       <c r="H48" t="n">
-        <v>4506089.689526126</v>
+        <v>1070839.233054846</v>
       </c>
       <c r="I48" t="n">
-        <v>1418320.086008403</v>
+        <v>536994.9757791518</v>
       </c>
       <c r="J48" t="n">
-        <v>1418320.445094735</v>
+        <v>536995.3421559148</v>
+      </c>
+      <c r="K48" t="n">
+        <v>39221869.79385753</v>
+      </c>
+      <c r="L48" t="n">
+        <v>39005104.17128047</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1069717.432671468</v>
+      </c>
+      <c r="N48" t="n">
+        <v>536994.9757791518</v>
       </c>
     </row>
     <row r="49">
@@ -2093,28 +2677,40 @@
         <v>0.002288440938747687</v>
       </c>
       <c r="C49" t="n">
-        <v>70764143.6658473</v>
+        <v>43103508.94538216</v>
       </c>
       <c r="D49" t="n">
-        <v>70762694.64455688</v>
+        <v>43103772.62992334</v>
       </c>
       <c r="E49" t="n">
-        <v>67362164.32414317</v>
+        <v>42722623.16708499</v>
       </c>
       <c r="F49" t="n">
-        <v>67362085.50507459</v>
+        <v>42722643.43437721</v>
       </c>
       <c r="G49" t="n">
-        <v>4571105.682485815</v>
+        <v>1386947.679785547</v>
       </c>
       <c r="H49" t="n">
-        <v>4565515.736108456</v>
+        <v>1385651.90658696</v>
       </c>
       <c r="I49" t="n">
-        <v>865810.4683624576</v>
+        <v>592781.2177199648</v>
       </c>
       <c r="J49" t="n">
-        <v>865809.8155272624</v>
+        <v>592781.6403066827</v>
+      </c>
+      <c r="K49" t="n">
+        <v>43103508.94538216</v>
+      </c>
+      <c r="L49" t="n">
+        <v>42722623.16708499</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1386947.679785547</v>
+      </c>
+      <c r="N49" t="n">
+        <v>592781.2177199648</v>
       </c>
     </row>
     <row r="50">
@@ -2127,28 +2723,40 @@
         <v>0.002337131171487</v>
       </c>
       <c r="C50" t="n">
-        <v>235193663.505317</v>
+        <v>41472520.50860496</v>
       </c>
       <c r="D50" t="n">
-        <v>235193700.023831</v>
+        <v>41472194.40033238</v>
       </c>
       <c r="E50" t="n">
-        <v>232938653.5019771</v>
+        <v>40671029.66017979</v>
       </c>
       <c r="F50" t="n">
-        <v>232938731.455851</v>
+        <v>40671048.68166027</v>
       </c>
       <c r="G50" t="n">
-        <v>4013927.679142554</v>
+        <v>1107363.841383533</v>
       </c>
       <c r="H50" t="n">
-        <v>4012035.853461822</v>
+        <v>1107512.943830465</v>
       </c>
       <c r="I50" t="n">
-        <v>1445225.692399541</v>
+        <v>561328.9884521544</v>
       </c>
       <c r="J50" t="n">
-        <v>1445226.09955499</v>
+        <v>561329.3666404419</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41472520.50860496</v>
+      </c>
+      <c r="L50" t="n">
+        <v>40671029.66017979</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1107363.841383533</v>
+      </c>
+      <c r="N50" t="n">
+        <v>561328.9884521544</v>
       </c>
     </row>
     <row r="51">
@@ -2161,28 +2769,40 @@
         <v>0.002385821404226312</v>
       </c>
       <c r="C51" t="n">
-        <v>235647635.634467</v>
+        <v>41685177.64866564</v>
       </c>
       <c r="D51" t="n">
-        <v>235649719.9180021</v>
+        <v>41685332.72442395</v>
       </c>
       <c r="E51" t="n">
-        <v>233479372.4614761</v>
+        <v>40923759.16437973</v>
       </c>
       <c r="F51" t="n">
-        <v>233479451.1620776</v>
+        <v>40923778.33024416</v>
       </c>
       <c r="G51" t="n">
-        <v>4732438.921053224</v>
+        <v>1240727.635724026</v>
       </c>
       <c r="H51" t="n">
-        <v>4734293.871626273</v>
+        <v>1242113.319846076</v>
       </c>
       <c r="I51" t="n">
-        <v>1455828.477715518</v>
+        <v>566061.7022548225</v>
       </c>
       <c r="J51" t="n">
-        <v>1455828.898204213</v>
+        <v>566062.0880597261</v>
+      </c>
+      <c r="K51" t="n">
+        <v>41685177.64866564</v>
+      </c>
+      <c r="L51" t="n">
+        <v>40923759.16437973</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1240727.635724026</v>
+      </c>
+      <c r="N51" t="n">
+        <v>566061.7022548225</v>
       </c>
     </row>
     <row r="52">
@@ -2195,28 +2815,40 @@
         <v>0.002434511636965625</v>
       </c>
       <c r="C52" t="n">
-        <v>69292782.61948459</v>
+        <v>44429695.85758053</v>
       </c>
       <c r="D52" t="n">
-        <v>69293313.10039924</v>
+        <v>44429205.70429934</v>
       </c>
       <c r="E52" t="n">
-        <v>67946738.77494366</v>
+        <v>43244640.37504764</v>
       </c>
       <c r="F52" t="n">
-        <v>67946670.30772316</v>
+        <v>43244660.8277028</v>
       </c>
       <c r="G52" t="n">
-        <v>3709548.105725362</v>
+        <v>1318861.869899186</v>
       </c>
       <c r="H52" t="n">
-        <v>3715796.999460488</v>
+        <v>1319477.112898467</v>
       </c>
       <c r="I52" t="n">
-        <v>811740.1372187615</v>
+        <v>567468.9144917605</v>
       </c>
       <c r="J52" t="n">
-        <v>811739.581715</v>
+        <v>567469.2218719067</v>
+      </c>
+      <c r="K52" t="n">
+        <v>44429695.85758053</v>
+      </c>
+      <c r="L52" t="n">
+        <v>43244640.37504764</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1318861.869899186</v>
+      </c>
+      <c r="N52" t="n">
+        <v>567468.9144917605</v>
       </c>
     </row>
     <row r="53">
@@ -2229,28 +2861,40 @@
         <v>0.002483201869704937</v>
       </c>
       <c r="C53" t="n">
-        <v>239192595.2739282</v>
+        <v>41330493.71452598</v>
       </c>
       <c r="D53" t="n">
-        <v>239193424.7567502</v>
+        <v>41330306.54566901</v>
       </c>
       <c r="E53" t="n">
-        <v>236513309.4254083</v>
+        <v>40587969.87867801</v>
       </c>
       <c r="F53" t="n">
-        <v>236513387.406387</v>
+        <v>40587988.70652154</v>
       </c>
       <c r="G53" t="n">
-        <v>4016536.63208233</v>
+        <v>1100050.229814986</v>
       </c>
       <c r="H53" t="n">
-        <v>4010675.721309455</v>
+        <v>1101014.382144828</v>
       </c>
       <c r="I53" t="n">
-        <v>1446467.648762359</v>
+        <v>557358.372305471</v>
       </c>
       <c r="J53" t="n">
-        <v>1446468.031011624</v>
+        <v>557358.7480252499</v>
+      </c>
+      <c r="K53" t="n">
+        <v>41330493.71452598</v>
+      </c>
+      <c r="L53" t="n">
+        <v>40587969.87867801</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1100050.229814986</v>
+      </c>
+      <c r="N53" t="n">
+        <v>557358.372305471</v>
       </c>
     </row>
     <row r="54">
@@ -2263,28 +2907,40 @@
         <v>0.00253189210244425</v>
       </c>
       <c r="C54" t="n">
-        <v>65995128.16995043</v>
+        <v>44786396.02952445</v>
       </c>
       <c r="D54" t="n">
-        <v>65993065.90571982</v>
+        <v>44786433.43130726</v>
       </c>
       <c r="E54" t="n">
-        <v>68080770.33296202</v>
+        <v>42913979.33564439</v>
       </c>
       <c r="F54" t="n">
-        <v>68080701.99561383</v>
+        <v>42913999.36748507</v>
       </c>
       <c r="G54" t="n">
-        <v>4738341.932468277</v>
+        <v>1631755.191215765</v>
       </c>
       <c r="H54" t="n">
-        <v>4726643.205756176</v>
+        <v>1631058.175893075</v>
       </c>
       <c r="I54" t="n">
-        <v>807505.3956668426</v>
+        <v>561599.0690797032</v>
       </c>
       <c r="J54" t="n">
-        <v>807504.8167636094</v>
+        <v>561599.3824905566</v>
+      </c>
+      <c r="K54" t="n">
+        <v>44786396.02952445</v>
+      </c>
+      <c r="L54" t="n">
+        <v>42913979.33564439</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1631755.191215765</v>
+      </c>
+      <c r="N54" t="n">
+        <v>561599.0690797032</v>
       </c>
     </row>
     <row r="55">
@@ -2297,28 +2953,40 @@
         <v>0.002580582335183562</v>
       </c>
       <c r="C55" t="n">
-        <v>67233259.01709779</v>
+        <v>44929791.96851809</v>
       </c>
       <c r="D55" t="n">
-        <v>67232549.52589297</v>
+        <v>44929474.55885467</v>
       </c>
       <c r="E55" t="n">
-        <v>70711458.67435174</v>
+        <v>42543182.05235717</v>
       </c>
       <c r="F55" t="n">
-        <v>70711387.70605962</v>
+        <v>42543201.99705483</v>
       </c>
       <c r="G55" t="n">
-        <v>3639155.018809678</v>
+        <v>1304762.998001691</v>
       </c>
       <c r="H55" t="n">
-        <v>3626976.243368549</v>
+        <v>1305010.816054001</v>
       </c>
       <c r="I55" t="n">
-        <v>828977.4318677818</v>
+        <v>561746.2859109498</v>
       </c>
       <c r="J55" t="n">
-        <v>828976.8524448941</v>
+        <v>561746.6098103873</v>
+      </c>
+      <c r="K55" t="n">
+        <v>44929791.96851809</v>
+      </c>
+      <c r="L55" t="n">
+        <v>42543182.05235717</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1304762.998001691</v>
+      </c>
+      <c r="N55" t="n">
+        <v>561746.2859109498</v>
       </c>
     </row>
     <row r="56">
@@ -2331,28 +2999,40 @@
         <v>0.002629272567922875</v>
       </c>
       <c r="C56" t="n">
-        <v>244749542.6088157</v>
+        <v>39631656.02200601</v>
       </c>
       <c r="D56" t="n">
-        <v>244750854.8764735</v>
+        <v>39631711.19040702</v>
       </c>
       <c r="E56" t="n">
-        <v>241747744.4883899</v>
+        <v>38842122.56761199</v>
       </c>
       <c r="F56" t="n">
-        <v>241747823.2371602</v>
+        <v>38842140.47372627</v>
       </c>
       <c r="G56" t="n">
-        <v>3317914.472504706</v>
+        <v>931469.8004146654</v>
       </c>
       <c r="H56" t="n">
-        <v>3323574.306805337</v>
+        <v>931730.0542636168</v>
       </c>
       <c r="I56" t="n">
-        <v>1450494.30673281</v>
+        <v>539638.1245247982</v>
       </c>
       <c r="J56" t="n">
-        <v>1450494.677726823</v>
+        <v>539638.4984260931</v>
+      </c>
+      <c r="K56" t="n">
+        <v>39631656.02200601</v>
+      </c>
+      <c r="L56" t="n">
+        <v>38842122.56761199</v>
+      </c>
+      <c r="M56" t="n">
+        <v>931469.8004146654</v>
+      </c>
+      <c r="N56" t="n">
+        <v>539638.1245247982</v>
       </c>
     </row>
     <row r="57">
@@ -2365,28 +3045,40 @@
         <v>0.002677962800662187</v>
       </c>
       <c r="C57" t="n">
-        <v>69887352.87523678</v>
+        <v>43719033.01667953</v>
       </c>
       <c r="D57" t="n">
-        <v>69886924.65055424</v>
+        <v>43718682.30248463</v>
       </c>
       <c r="E57" t="n">
-        <v>70771345.88969937</v>
+        <v>42324363.64937292</v>
       </c>
       <c r="F57" t="n">
-        <v>70771274.89959528</v>
+        <v>42324383.26806447</v>
       </c>
       <c r="G57" t="n">
-        <v>4825967.635358336</v>
+        <v>1538320.360485054</v>
       </c>
       <c r="H57" t="n">
-        <v>4815083.239378355</v>
+        <v>1538003.427910161</v>
       </c>
       <c r="I57" t="n">
-        <v>826167.6163102046</v>
+        <v>558026.4870831708</v>
       </c>
       <c r="J57" t="n">
-        <v>826167.0127680514</v>
+        <v>558026.818751522</v>
+      </c>
+      <c r="K57" t="n">
+        <v>43719033.01667953</v>
+      </c>
+      <c r="L57" t="n">
+        <v>42324363.64937292</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1538320.360485054</v>
+      </c>
+      <c r="N57" t="n">
+        <v>558026.4870831708</v>
       </c>
     </row>
     <row r="58">
@@ -2399,28 +3091,40 @@
         <v>0.0027266530334015</v>
       </c>
       <c r="C58" t="n">
-        <v>246100767.6810973</v>
+        <v>38682687.59267762</v>
       </c>
       <c r="D58" t="n">
-        <v>246102336.9541426</v>
+        <v>38682539.85786719</v>
       </c>
       <c r="E58" t="n">
-        <v>244383685.4665111</v>
+        <v>38308205.24073208</v>
       </c>
       <c r="F58" t="n">
-        <v>244383761.6178753</v>
+        <v>38308222.52635828</v>
       </c>
       <c r="G58" t="n">
-        <v>3486298.457469807</v>
+        <v>923564.3437788726</v>
       </c>
       <c r="H58" t="n">
-        <v>3484042.738554907</v>
+        <v>925251.4086638255</v>
       </c>
       <c r="I58" t="n">
-        <v>1422343.902124039</v>
+        <v>523980.7217733891</v>
       </c>
       <c r="J58" t="n">
-        <v>1422344.221536648</v>
+        <v>523981.0722346909</v>
+      </c>
+      <c r="K58" t="n">
+        <v>38682687.59267762</v>
+      </c>
+      <c r="L58" t="n">
+        <v>38308205.24073208</v>
+      </c>
+      <c r="M58" t="n">
+        <v>923564.3437788726</v>
+      </c>
+      <c r="N58" t="n">
+        <v>523980.7217733891</v>
       </c>
     </row>
     <row r="59">
@@ -2433,28 +3137,40 @@
         <v>0.002775343266140812</v>
       </c>
       <c r="C59" t="n">
-        <v>72961266.25295496</v>
+        <v>42603898.9300271</v>
       </c>
       <c r="D59" t="n">
-        <v>72958995.41036959</v>
+        <v>42604046.95107644</v>
       </c>
       <c r="E59" t="n">
-        <v>71322014.03211097</v>
+        <v>41855853.37642673</v>
       </c>
       <c r="F59" t="n">
-        <v>71321942.78555433</v>
+        <v>41855872.57144751</v>
       </c>
       <c r="G59" t="n">
-        <v>3691207.845491712</v>
+        <v>1205565.888320946</v>
       </c>
       <c r="H59" t="n">
-        <v>3686374.370408094</v>
+        <v>1204357.709049982</v>
       </c>
       <c r="I59" t="n">
-        <v>828397.7002983949</v>
+        <v>553352.9263111304</v>
       </c>
       <c r="J59" t="n">
-        <v>828397.079464062</v>
+        <v>553353.2657126597</v>
+      </c>
+      <c r="K59" t="n">
+        <v>42603898.9300271</v>
+      </c>
+      <c r="L59" t="n">
+        <v>41855853.37642673</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1205565.888320946</v>
+      </c>
+      <c r="N59" t="n">
+        <v>553352.9263111304</v>
       </c>
     </row>
     <row r="60">
@@ -2467,28 +3183,40 @@
         <v>0.002824033498880125</v>
       </c>
       <c r="C60" t="n">
-        <v>74789204.17971674</v>
+        <v>42971610.45293882</v>
       </c>
       <c r="D60" t="n">
-        <v>74790113.1670893</v>
+        <v>42971300.68220452</v>
       </c>
       <c r="E60" t="n">
-        <v>73562689.01780519</v>
+        <v>42070810.26323982</v>
       </c>
       <c r="F60" t="n">
-        <v>73562611.1873429</v>
+        <v>42070830.16733274</v>
       </c>
       <c r="G60" t="n">
-        <v>5463485.576554078</v>
+        <v>1396789.097600023</v>
       </c>
       <c r="H60" t="n">
-        <v>5457348.739772194</v>
+        <v>1395398.334473701</v>
       </c>
       <c r="I60" t="n">
-        <v>874094.3221081668</v>
+        <v>573152.6311818371</v>
       </c>
       <c r="J60" t="n">
-        <v>874093.6900483025</v>
+        <v>573153.0116757144</v>
+      </c>
+      <c r="K60" t="n">
+        <v>42971610.45293882</v>
+      </c>
+      <c r="L60" t="n">
+        <v>42070810.26323982</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1396789.097600023</v>
+      </c>
+      <c r="N60" t="n">
+        <v>573152.6311818371</v>
       </c>
     </row>
     <row r="61">
@@ -2501,28 +3229,40 @@
         <v>0.002872723731619437</v>
       </c>
       <c r="C61" t="n">
-        <v>73671913.1335066</v>
+        <v>43282189.44089113</v>
       </c>
       <c r="D61" t="n">
-        <v>73671560.5701658</v>
+        <v>43281906.07146036</v>
       </c>
       <c r="E61" t="n">
-        <v>73009684.95404269</v>
+        <v>42162139.46561716</v>
       </c>
       <c r="F61" t="n">
-        <v>73009613.79886015</v>
+        <v>42162159.2344106</v>
       </c>
       <c r="G61" t="n">
-        <v>6501060.349473086</v>
+        <v>1579077.677163191</v>
       </c>
       <c r="H61" t="n">
-        <v>6498138.522995615</v>
+        <v>1577917.110236584</v>
       </c>
       <c r="I61" t="n">
-        <v>836369.3578370123</v>
+        <v>556877.9934375945</v>
       </c>
       <c r="J61" t="n">
-        <v>836368.7783218194</v>
+        <v>556878.3142787366</v>
+      </c>
+      <c r="K61" t="n">
+        <v>43282189.44089113</v>
+      </c>
+      <c r="L61" t="n">
+        <v>42162139.46561716</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1579077.677163191</v>
+      </c>
+      <c r="N61" t="n">
+        <v>556877.9934375945</v>
       </c>
     </row>
     <row r="62">
@@ -2535,28 +3275,40 @@
         <v>0.00292141396435875</v>
       </c>
       <c r="C62" t="n">
-        <v>248603573.1922134</v>
+        <v>38271655.55316719</v>
       </c>
       <c r="D62" t="n">
-        <v>248605095.6754476</v>
+        <v>38271451.58126198</v>
       </c>
       <c r="E62" t="n">
-        <v>247470478.9704514</v>
+        <v>38014157.36758283</v>
       </c>
       <c r="F62" t="n">
-        <v>247470554.7910008</v>
+        <v>38014174.35818186</v>
       </c>
       <c r="G62" t="n">
-        <v>2936110.882556206</v>
+        <v>809455.6630217162</v>
       </c>
       <c r="H62" t="n">
-        <v>2927149.195349655</v>
+        <v>810887.1138332901</v>
       </c>
       <c r="I62" t="n">
-        <v>1421448.250107049</v>
+        <v>518480.3423607228</v>
       </c>
       <c r="J62" t="n">
-        <v>1421448.554511599</v>
+        <v>518480.6891565946</v>
+      </c>
+      <c r="K62" t="n">
+        <v>38271655.55316719</v>
+      </c>
+      <c r="L62" t="n">
+        <v>38014157.36758283</v>
+      </c>
+      <c r="M62" t="n">
+        <v>809455.6630217162</v>
+      </c>
+      <c r="N62" t="n">
+        <v>518480.3423607228</v>
       </c>
     </row>
     <row r="63">
@@ -2569,28 +3321,40 @@
         <v>0.002970104197098062</v>
       </c>
       <c r="C63" t="n">
-        <v>77249203.2987123</v>
+        <v>43363984.58291012</v>
       </c>
       <c r="D63" t="n">
-        <v>77245891.76458889</v>
+        <v>43363969.71744081</v>
       </c>
       <c r="E63" t="n">
-        <v>75152273.10538535</v>
+        <v>42322164.52693208</v>
       </c>
       <c r="F63" t="n">
-        <v>75152197.72600318</v>
+        <v>42322184.71573387</v>
       </c>
       <c r="G63" t="n">
-        <v>4636247.658197416</v>
+        <v>1313451.64928575</v>
       </c>
       <c r="H63" t="n">
-        <v>4629456.991742246</v>
+        <v>1314278.075338481</v>
       </c>
       <c r="I63" t="n">
-        <v>867519.5960233803</v>
+        <v>568813.7256880553</v>
       </c>
       <c r="J63" t="n">
-        <v>867519.008692374</v>
+        <v>568814.0736893574</v>
+      </c>
+      <c r="K63" t="n">
+        <v>43363984.58291012</v>
+      </c>
+      <c r="L63" t="n">
+        <v>42322164.52693208</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1313451.64928575</v>
+      </c>
+      <c r="N63" t="n">
+        <v>568813.7256880553</v>
       </c>
     </row>
     <row r="64">
@@ -2603,28 +3367,40 @@
         <v>0.003018794429837374</v>
       </c>
       <c r="C64" t="n">
-        <v>250491848.8809085</v>
+        <v>38862998.69650385</v>
       </c>
       <c r="D64" t="n">
-        <v>250494481.2149504</v>
+        <v>38863021.2489932</v>
       </c>
       <c r="E64" t="n">
-        <v>248405109.3851119</v>
+        <v>38420975.68930627</v>
       </c>
       <c r="F64" t="n">
-        <v>248405186.1201124</v>
+        <v>38420992.85125548</v>
       </c>
       <c r="G64" t="n">
-        <v>3680758.163205646</v>
+        <v>956812.3481281041</v>
       </c>
       <c r="H64" t="n">
-        <v>3678612.950376159</v>
+        <v>959068.7593622196</v>
       </c>
       <c r="I64" t="n">
-        <v>1434060.815698602</v>
+        <v>524026.1860851408</v>
       </c>
       <c r="J64" t="n">
-        <v>1434061.133066789</v>
+        <v>524026.5395385951</v>
+      </c>
+      <c r="K64" t="n">
+        <v>38862998.69650385</v>
+      </c>
+      <c r="L64" t="n">
+        <v>38420975.68930627</v>
+      </c>
+      <c r="M64" t="n">
+        <v>956812.3481281041</v>
+      </c>
+      <c r="N64" t="n">
+        <v>524026.1860851408</v>
       </c>
     </row>
     <row r="65">
@@ -2637,28 +3413,40 @@
         <v>0.003067484662576687</v>
       </c>
       <c r="C65" t="n">
-        <v>250194653.8655831</v>
+        <v>38891473.25365871</v>
       </c>
       <c r="D65" t="n">
-        <v>250196497.1549668</v>
+        <v>38891626.03673045</v>
       </c>
       <c r="E65" t="n">
-        <v>248233510.7154009</v>
+        <v>38431540.09844597</v>
       </c>
       <c r="F65" t="n">
-        <v>248233590.2123187</v>
+        <v>38431557.63162106</v>
       </c>
       <c r="G65" t="n">
-        <v>3590065.788884704</v>
+        <v>968775.9848842338</v>
       </c>
       <c r="H65" t="n">
-        <v>3597225.003780612</v>
+        <v>968878.657717719</v>
       </c>
       <c r="I65" t="n">
-        <v>1464634.853881329</v>
+        <v>534066.2074635484</v>
       </c>
       <c r="J65" t="n">
-        <v>1464635.212073584</v>
+        <v>534066.580699755</v>
+      </c>
+      <c r="K65" t="n">
+        <v>38891473.25365871</v>
+      </c>
+      <c r="L65" t="n">
+        <v>38431540.09844597</v>
+      </c>
+      <c r="M65" t="n">
+        <v>968775.9848842338</v>
+      </c>
+      <c r="N65" t="n">
+        <v>534066.2074635484</v>
       </c>
     </row>
     <row r="66">
@@ -2671,28 +3459,40 @@
         <v>0.003116174895315999</v>
       </c>
       <c r="C66" t="n">
-        <v>75873355.13860631</v>
+        <v>43467114.04823723</v>
       </c>
       <c r="D66" t="n">
-        <v>75871606.30411986</v>
+        <v>43467239.11169883</v>
       </c>
       <c r="E66" t="n">
-        <v>74876525.06607714</v>
+        <v>42328444.97579212</v>
       </c>
       <c r="F66" t="n">
-        <v>74876453.00922009</v>
+        <v>42328464.87155836</v>
       </c>
       <c r="G66" t="n">
-        <v>5155885.451666664</v>
+        <v>1514450.818281462</v>
       </c>
       <c r="H66" t="n">
-        <v>5155762.843806542</v>
+        <v>1514730.677271362</v>
       </c>
       <c r="I66" t="n">
-        <v>848548.2887526779</v>
+        <v>559103.9552635385</v>
       </c>
       <c r="J66" t="n">
-        <v>848547.7098226836</v>
+        <v>559104.2766032598</v>
+      </c>
+      <c r="K66" t="n">
+        <v>43467114.04823723</v>
+      </c>
+      <c r="L66" t="n">
+        <v>42328444.97579212</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1514450.818281462</v>
+      </c>
+      <c r="N66" t="n">
+        <v>559103.9552635385</v>
       </c>
     </row>
     <row r="67">
@@ -2705,28 +3505,40 @@
         <v>0.003164865128055312</v>
       </c>
       <c r="C67" t="n">
-        <v>78716301.61441578</v>
+        <v>43900964.30033703</v>
       </c>
       <c r="D67" t="n">
-        <v>78718195.67638126</v>
+        <v>43900549.43896709</v>
       </c>
       <c r="E67" t="n">
-        <v>77010077.77481948</v>
+        <v>42646469.80269102</v>
       </c>
       <c r="F67" t="n">
-        <v>77009999.24008058</v>
+        <v>42646490.25132925</v>
       </c>
       <c r="G67" t="n">
-        <v>4802217.235463252</v>
+        <v>1484401.126039433</v>
       </c>
       <c r="H67" t="n">
-        <v>4805883.449193793</v>
+        <v>1484732.099988239</v>
       </c>
       <c r="I67" t="n">
-        <v>893003.4001007519</v>
+        <v>579363.2090185545</v>
       </c>
       <c r="J67" t="n">
-        <v>893002.801538476</v>
+        <v>579363.5836150611</v>
+      </c>
+      <c r="K67" t="n">
+        <v>43900964.30033703</v>
+      </c>
+      <c r="L67" t="n">
+        <v>42646469.80269102</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1484401.126039433</v>
+      </c>
+      <c r="N67" t="n">
+        <v>579363.2090185545</v>
       </c>
     </row>
     <row r="68">
@@ -2739,28 +3551,40 @@
         <v>0.003213555360794625</v>
       </c>
       <c r="C68" t="n">
-        <v>78929111.13605113</v>
+        <v>43784245.96058489</v>
       </c>
       <c r="D68" t="n">
-        <v>78930012.0124414</v>
+        <v>43784065.61533332</v>
       </c>
       <c r="E68" t="n">
-        <v>77119684.85657704</v>
+        <v>42556843.77597655</v>
       </c>
       <c r="F68" t="n">
-        <v>77119606.44040652</v>
+        <v>42556864.18136473</v>
       </c>
       <c r="G68" t="n">
-        <v>4595886.932472618</v>
+        <v>1335462.112273587</v>
       </c>
       <c r="H68" t="n">
-        <v>4599463.975912291</v>
+        <v>1335772.206095215</v>
       </c>
       <c r="I68" t="n">
-        <v>892702.4322664267</v>
+        <v>578242.4070098209</v>
       </c>
       <c r="J68" t="n">
-        <v>892701.8350321967</v>
+        <v>578242.7801106389</v>
+      </c>
+      <c r="K68" t="n">
+        <v>43784245.96058489</v>
+      </c>
+      <c r="L68" t="n">
+        <v>42556843.77597655</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1335462.112273587</v>
+      </c>
+      <c r="N68" t="n">
+        <v>578242.4070098209</v>
       </c>
     </row>
     <row r="69">
@@ -2773,28 +3597,40 @@
         <v>0.003262245593533937</v>
       </c>
       <c r="C69" t="n">
-        <v>79478890.96425411</v>
+        <v>43479845.78627935</v>
       </c>
       <c r="D69" t="n">
-        <v>79477517.6290243</v>
+        <v>43479504.34027333</v>
       </c>
       <c r="E69" t="n">
-        <v>77025432.62320855</v>
+        <v>42418224.04134735</v>
       </c>
       <c r="F69" t="n">
-        <v>77025357.083067</v>
+        <v>42418244.33054999</v>
       </c>
       <c r="G69" t="n">
-        <v>4778561.946837762</v>
+        <v>1366498.652708539</v>
       </c>
       <c r="H69" t="n">
-        <v>4780878.139768813</v>
+        <v>1368328.163082042</v>
       </c>
       <c r="I69" t="n">
-        <v>874777.4979742131</v>
+        <v>568609.0736866132</v>
       </c>
       <c r="J69" t="n">
-        <v>874776.9186799882</v>
+        <v>568609.4166189323</v>
+      </c>
+      <c r="K69" t="n">
+        <v>43479845.78627935</v>
+      </c>
+      <c r="L69" t="n">
+        <v>42418224.04134735</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1366498.652708539</v>
+      </c>
+      <c r="N69" t="n">
+        <v>568609.0736866132</v>
       </c>
     </row>
     <row r="70">
@@ -2807,28 +3643,40 @@
         <v>0.00331093582627325</v>
       </c>
       <c r="C70" t="n">
-        <v>252907864.5976189</v>
+        <v>38431101.36382245</v>
       </c>
       <c r="D70" t="n">
-        <v>252908998.2615589</v>
+        <v>38430831.38375077</v>
       </c>
       <c r="E70" t="n">
-        <v>251699567.3644009</v>
+        <v>38175583.23355079</v>
       </c>
       <c r="F70" t="n">
-        <v>251699643.6551559</v>
+        <v>38175600.21611444</v>
       </c>
       <c r="G70" t="n">
-        <v>4071527.352179794</v>
+        <v>967983.3194484998</v>
       </c>
       <c r="H70" t="n">
-        <v>4064167.7517791</v>
+        <v>968958.6824767096</v>
       </c>
       <c r="I70" t="n">
-        <v>1430836.851531813</v>
+        <v>518522.8598981161</v>
       </c>
       <c r="J70" t="n">
-        <v>1430837.150865319</v>
+        <v>518523.2050982658</v>
+      </c>
+      <c r="K70" t="n">
+        <v>38431101.36382245</v>
+      </c>
+      <c r="L70" t="n">
+        <v>38175583.23355079</v>
+      </c>
+      <c r="M70" t="n">
+        <v>967983.3194484998</v>
+      </c>
+      <c r="N70" t="n">
+        <v>518522.8598981161</v>
       </c>
     </row>
     <row r="71">
@@ -2841,28 +3689,40 @@
         <v>0.003359626059012562</v>
       </c>
       <c r="C71" t="n">
-        <v>252982510.1010143</v>
+        <v>38537996.46732056</v>
       </c>
       <c r="D71" t="n">
-        <v>252984944.6372831</v>
+        <v>38538292.52885437</v>
       </c>
       <c r="E71" t="n">
-        <v>251466758.8253755</v>
+        <v>38164473.22913047</v>
       </c>
       <c r="F71" t="n">
-        <v>251466838.1501904</v>
+        <v>38164490.68500021</v>
       </c>
       <c r="G71" t="n">
-        <v>3671912.529511227</v>
+        <v>961483.6820829134</v>
       </c>
       <c r="H71" t="n">
-        <v>3679384.731488086</v>
+        <v>962005.978061819</v>
       </c>
       <c r="I71" t="n">
-        <v>1463138.735681016</v>
+        <v>529100.7437605017</v>
       </c>
       <c r="J71" t="n">
-        <v>1463139.07836171</v>
+        <v>529101.1065943874</v>
+      </c>
+      <c r="K71" t="n">
+        <v>38537996.46732056</v>
+      </c>
+      <c r="L71" t="n">
+        <v>38164473.22913047</v>
+      </c>
+      <c r="M71" t="n">
+        <v>961483.6820829134</v>
+      </c>
+      <c r="N71" t="n">
+        <v>529100.7437605017</v>
       </c>
     </row>
     <row r="72">
@@ -2875,28 +3735,40 @@
         <v>0.003408316291751875</v>
       </c>
       <c r="C72" t="n">
-        <v>79269969.96639289</v>
+        <v>43408391.97413379</v>
       </c>
       <c r="D72" t="n">
-        <v>79268605.53665723</v>
+        <v>43408369.0293228</v>
       </c>
       <c r="E72" t="n">
-        <v>76646775.31349444</v>
+        <v>42484631.00593608</v>
       </c>
       <c r="F72" t="n">
-        <v>76646704.00406092</v>
+        <v>42484651.177035</v>
       </c>
       <c r="G72" t="n">
-        <v>4548168.486308962</v>
+        <v>1242442.029047999</v>
       </c>
       <c r="H72" t="n">
-        <v>4551098.096698129</v>
+        <v>1242092.482819155</v>
       </c>
       <c r="I72" t="n">
-        <v>851222.5414198942</v>
+        <v>558541.3560927288</v>
       </c>
       <c r="J72" t="n">
-        <v>851221.9914385289</v>
+        <v>558541.6616937068</v>
+      </c>
+      <c r="K72" t="n">
+        <v>43408391.97413379</v>
+      </c>
+      <c r="L72" t="n">
+        <v>42484631.00593608</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1242442.029047999</v>
+      </c>
+      <c r="N72" t="n">
+        <v>558541.3560927288</v>
       </c>
     </row>
     <row r="73">
@@ -2909,28 +3781,40 @@
         <v>0.003457006524491187</v>
       </c>
       <c r="C73" t="n">
-        <v>81880801.4624503</v>
+        <v>42755304.30474075</v>
       </c>
       <c r="D73" t="n">
-        <v>81879519.77493007</v>
+        <v>42755341.35392839</v>
       </c>
       <c r="E73" t="n">
-        <v>76637805.0526848</v>
+        <v>42498108.3952917</v>
       </c>
       <c r="F73" t="n">
-        <v>76637733.33874924</v>
+        <v>42498128.52625667</v>
       </c>
       <c r="G73" t="n">
-        <v>2812699.407263437</v>
+        <v>938675.5141098428</v>
       </c>
       <c r="H73" t="n">
-        <v>2819436.102603618</v>
+        <v>940439.3783846159</v>
       </c>
       <c r="I73" t="n">
-        <v>853096.8017170525</v>
+        <v>559176.5934439349</v>
       </c>
       <c r="J73" t="n">
-        <v>853096.243067076</v>
+        <v>559176.9033921891</v>
+      </c>
+      <c r="K73" t="n">
+        <v>42755304.30474075</v>
+      </c>
+      <c r="L73" t="n">
+        <v>42498108.3952917</v>
+      </c>
+      <c r="M73" t="n">
+        <v>938675.5141098428</v>
+      </c>
+      <c r="N73" t="n">
+        <v>559176.5934439349</v>
       </c>
     </row>
     <row r="74">
@@ -2943,28 +3827,40 @@
         <v>0.0035056967572305</v>
       </c>
       <c r="C74" t="n">
-        <v>81126090.83911601</v>
+        <v>42909735.5325046</v>
       </c>
       <c r="D74" t="n">
-        <v>81125001.65297081</v>
+        <v>42909663.34432742</v>
       </c>
       <c r="E74" t="n">
-        <v>76718575.02477643</v>
+        <v>42442419.67075373</v>
       </c>
       <c r="F74" t="n">
-        <v>76718503.05834889</v>
+        <v>42442439.7633559</v>
       </c>
       <c r="G74" t="n">
-        <v>2825061.671158329</v>
+        <v>1029038.32637113</v>
       </c>
       <c r="H74" t="n">
-        <v>2826660.261417995</v>
+        <v>1030347.342131245</v>
       </c>
       <c r="I74" t="n">
-        <v>854639.7368739143</v>
+        <v>559184.0571583335</v>
       </c>
       <c r="J74" t="n">
-        <v>854639.1743023563</v>
+        <v>559184.3696183198</v>
+      </c>
+      <c r="K74" t="n">
+        <v>42909735.5325046</v>
+      </c>
+      <c r="L74" t="n">
+        <v>42442419.67075373</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1029038.32637113</v>
+      </c>
+      <c r="N74" t="n">
+        <v>559184.0571583335</v>
       </c>
     </row>
     <row r="75">
@@ -2977,28 +3873,40 @@
         <v>0.003554386989969812</v>
       </c>
       <c r="C75" t="n">
-        <v>81330284.16119418</v>
+        <v>42797075.30446521</v>
       </c>
       <c r="D75" t="n">
-        <v>81329201.06058441</v>
+        <v>42797003.2335274</v>
       </c>
       <c r="E75" t="n">
-        <v>76848250.88775846</v>
+        <v>42330380.97935795</v>
       </c>
       <c r="F75" t="n">
-        <v>76848178.86131729</v>
+        <v>42330400.99273875</v>
       </c>
       <c r="G75" t="n">
-        <v>2822897.926374836</v>
+        <v>1025486.785405206</v>
       </c>
       <c r="H75" t="n">
-        <v>2824648.076174382</v>
+        <v>1026789.007149452</v>
       </c>
       <c r="I75" t="n">
-        <v>855063.4955270854</v>
+        <v>558111.4651871865</v>
       </c>
       <c r="J75" t="n">
-        <v>855062.9300853688</v>
+        <v>558111.7786610872</v>
+      </c>
+      <c r="K75" t="n">
+        <v>42797075.30446521</v>
+      </c>
+      <c r="L75" t="n">
+        <v>42330380.97935795</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1025486.785405206</v>
+      </c>
+      <c r="N75" t="n">
+        <v>558111.4651871865</v>
       </c>
     </row>
     <row r="76">
@@ -3011,28 +3919,40 @@
         <v>0.003603077222709125</v>
       </c>
       <c r="C76" t="n">
-        <v>81442706.2605058</v>
+        <v>42689073.13154563</v>
       </c>
       <c r="D76" t="n">
-        <v>81441620.68863207</v>
+        <v>42689003.52175521</v>
       </c>
       <c r="E76" t="n">
-        <v>76987369.08472469</v>
+        <v>42195725.53629069</v>
       </c>
       <c r="F76" t="n">
-        <v>76987297.41532728</v>
+        <v>42195745.47006138</v>
       </c>
       <c r="G76" t="n">
-        <v>2823539.432334282</v>
+        <v>1025058.662583421</v>
       </c>
       <c r="H76" t="n">
-        <v>2825287.386614769</v>
+        <v>1026360.885651379</v>
       </c>
       <c r="I76" t="n">
-        <v>853283.6429704889</v>
+        <v>555955.1807376228</v>
       </c>
       <c r="J76" t="n">
-        <v>853283.0807648967</v>
+        <v>555955.4911682472</v>
+      </c>
+      <c r="K76" t="n">
+        <v>42689073.13154563</v>
+      </c>
+      <c r="L76" t="n">
+        <v>42195725.53629069</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1025058.662583421</v>
+      </c>
+      <c r="N76" t="n">
+        <v>555955.1807376228</v>
       </c>
     </row>
     <row r="77">
@@ -3045,28 +3965,40 @@
         <v>0.003651767455448437</v>
       </c>
       <c r="C77" t="n">
-        <v>77601014.92273445</v>
+        <v>44769758.00716899</v>
       </c>
       <c r="D77" t="n">
-        <v>77600044.70920317</v>
+        <v>44769964.95244322</v>
       </c>
       <c r="E77" t="n">
-        <v>78993805.81642762</v>
+        <v>42681408.60913453</v>
       </c>
       <c r="F77" t="n">
-        <v>78993727.19768457</v>
+        <v>42681429.13150658</v>
       </c>
       <c r="G77" t="n">
-        <v>5938299.582879945</v>
+        <v>1650459.112447239</v>
       </c>
       <c r="H77" t="n">
-        <v>5935673.26019983</v>
+        <v>1649111.654854412</v>
       </c>
       <c r="I77" t="n">
-        <v>900449.3029711626</v>
+        <v>578757.6714842928</v>
       </c>
       <c r="J77" t="n">
-        <v>900448.7166799526</v>
+        <v>578758.0418999994</v>
+      </c>
+      <c r="K77" t="n">
+        <v>44769758.00716899</v>
+      </c>
+      <c r="L77" t="n">
+        <v>42681408.60913453</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1650459.112447239</v>
+      </c>
+      <c r="N77" t="n">
+        <v>578757.6714842928</v>
       </c>
     </row>
     <row r="78">
@@ -3079,28 +4011,40 @@
         <v>0.00370045768818775</v>
       </c>
       <c r="C78" t="n">
-        <v>77601014.92273445</v>
+        <v>44769758.00716899</v>
       </c>
       <c r="D78" t="n">
-        <v>77600044.70920317</v>
+        <v>44769964.95244322</v>
       </c>
       <c r="E78" t="n">
-        <v>78993805.81642762</v>
+        <v>42681408.60913453</v>
       </c>
       <c r="F78" t="n">
-        <v>78993727.19768457</v>
+        <v>42681429.13150658</v>
       </c>
       <c r="G78" t="n">
-        <v>5938299.582879945</v>
+        <v>1650459.112447239</v>
       </c>
       <c r="H78" t="n">
-        <v>5935673.26019983</v>
+        <v>1649111.654854412</v>
       </c>
       <c r="I78" t="n">
-        <v>900449.3029711626</v>
+        <v>578757.6714842928</v>
       </c>
       <c r="J78" t="n">
-        <v>900448.7166799526</v>
+        <v>578758.0418999994</v>
+      </c>
+      <c r="K78" t="n">
+        <v>44769758.00716899</v>
+      </c>
+      <c r="L78" t="n">
+        <v>42681408.60913453</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1650459.112447239</v>
+      </c>
+      <c r="N78" t="n">
+        <v>578757.6714842928</v>
       </c>
     </row>
     <row r="79">
@@ -3113,28 +4057,40 @@
         <v>0.003749147920927062</v>
       </c>
       <c r="C79" t="n">
-        <v>77907066.47997235</v>
+        <v>44499793.5140924</v>
       </c>
       <c r="D79" t="n">
-        <v>77903285.41808842</v>
+        <v>44499823.10626749</v>
       </c>
       <c r="E79" t="n">
-        <v>78670111.81186749</v>
+        <v>42721592.69731591</v>
       </c>
       <c r="F79" t="n">
-        <v>78670036.12605709</v>
+        <v>42721613.21460211</v>
       </c>
       <c r="G79" t="n">
-        <v>7410053.979501604</v>
+        <v>1838308.134601112</v>
       </c>
       <c r="H79" t="n">
-        <v>7397853.866883267</v>
+        <v>1838805.862994876</v>
       </c>
       <c r="I79" t="n">
-        <v>881494.959048014</v>
+        <v>570603.3070454708</v>
       </c>
       <c r="J79" t="n">
-        <v>881494.3904344228</v>
+        <v>570603.645429977</v>
+      </c>
+      <c r="K79" t="n">
+        <v>44499793.5140924</v>
+      </c>
+      <c r="L79" t="n">
+        <v>42721592.69731591</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1838308.134601112</v>
+      </c>
+      <c r="N79" t="n">
+        <v>570603.3070454708</v>
       </c>
     </row>
     <row r="80">
@@ -3147,28 +4103,40 @@
         <v>0.003797838153666374</v>
       </c>
       <c r="C80" t="n">
-        <v>77963722.06064957</v>
+        <v>44445793.70177246</v>
       </c>
       <c r="D80" t="n">
-        <v>77959943.27742289</v>
+        <v>44445821.01382699</v>
       </c>
       <c r="E80" t="n">
-        <v>78742535.95150687</v>
+        <v>42659492.81300545</v>
       </c>
       <c r="F80" t="n">
-        <v>78742460.41370632</v>
+        <v>42659513.30816295</v>
       </c>
       <c r="G80" t="n">
-        <v>7410270.959990941</v>
+        <v>1838093.120301841</v>
       </c>
       <c r="H80" t="n">
-        <v>7398072.620675208</v>
+        <v>1838590.833864396</v>
       </c>
       <c r="I80" t="n">
-        <v>880936.1810675535</v>
+        <v>569797.1550449724</v>
       </c>
       <c r="J80" t="n">
-        <v>880935.6149689087</v>
+        <v>569797.4920572679</v>
+      </c>
+      <c r="K80" t="n">
+        <v>44445793.70177246</v>
+      </c>
+      <c r="L80" t="n">
+        <v>42659492.81300545</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1838093.120301841</v>
+      </c>
+      <c r="N80" t="n">
+        <v>569797.1550449724</v>
       </c>
     </row>
     <row r="81">
@@ -3181,28 +4149,40 @@
         <v>0.003846528386405687</v>
       </c>
       <c r="C81" t="n">
-        <v>77963722.06064957</v>
+        <v>44445793.70177246</v>
       </c>
       <c r="D81" t="n">
-        <v>77959943.27742289</v>
+        <v>44445821.01382699</v>
       </c>
       <c r="E81" t="n">
-        <v>78742535.95150687</v>
+        <v>42659492.81300545</v>
       </c>
       <c r="F81" t="n">
-        <v>78742460.41370632</v>
+        <v>42659513.30816295</v>
       </c>
       <c r="G81" t="n">
-        <v>7410270.959990941</v>
+        <v>1838093.120301841</v>
       </c>
       <c r="H81" t="n">
-        <v>7398072.620675208</v>
+        <v>1838590.833864396</v>
       </c>
       <c r="I81" t="n">
-        <v>880936.1810675535</v>
+        <v>569797.1550449724</v>
       </c>
       <c r="J81" t="n">
-        <v>880935.6149689087</v>
+        <v>569797.4920572679</v>
+      </c>
+      <c r="K81" t="n">
+        <v>44445793.70177246</v>
+      </c>
+      <c r="L81" t="n">
+        <v>42659492.81300545</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1838093.120301841</v>
+      </c>
+      <c r="N81" t="n">
+        <v>569797.1550449724</v>
       </c>
     </row>
     <row r="82">
@@ -3215,28 +4195,40 @@
         <v>0.003895218619144999</v>
       </c>
       <c r="C82" t="n">
-        <v>77992046.24011123</v>
+        <v>44418791.03061904</v>
       </c>
       <c r="D82" t="n">
-        <v>77988263.48787321</v>
+        <v>44418822.14173737</v>
       </c>
       <c r="E82" t="n">
-        <v>78785642.20000324</v>
+        <v>42626067.42589439</v>
       </c>
       <c r="F82" t="n">
-        <v>78785566.73542903</v>
+        <v>42626087.91444553</v>
       </c>
       <c r="G82" t="n">
-        <v>7410591.729181042</v>
+        <v>1837983.975686847</v>
       </c>
       <c r="H82" t="n">
-        <v>7398392.959251694</v>
+        <v>1838481.492711679</v>
       </c>
       <c r="I82" t="n">
-        <v>880755.5131742076</v>
+        <v>569456.3579567871</v>
       </c>
       <c r="J82" t="n">
-        <v>880754.9489543043</v>
+        <v>569456.6943503175</v>
+      </c>
+      <c r="K82" t="n">
+        <v>44418791.03061904</v>
+      </c>
+      <c r="L82" t="n">
+        <v>42626067.42589439</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1837983.975686847</v>
+      </c>
+      <c r="N82" t="n">
+        <v>569456.3579567871</v>
       </c>
     </row>
     <row r="83">
@@ -3249,28 +4241,40 @@
         <v>0.003943908851884312</v>
       </c>
       <c r="C83" t="n">
-        <v>77992046.24011123</v>
+        <v>44418791.03061904</v>
       </c>
       <c r="D83" t="n">
-        <v>77988263.48787321</v>
+        <v>44418822.14173737</v>
       </c>
       <c r="E83" t="n">
-        <v>78785642.20000324</v>
+        <v>42626067.42589439</v>
       </c>
       <c r="F83" t="n">
-        <v>78785566.73542903</v>
+        <v>42626087.91444553</v>
       </c>
       <c r="G83" t="n">
-        <v>7410591.729181042</v>
+        <v>1837983.975686847</v>
       </c>
       <c r="H83" t="n">
-        <v>7398392.959251694</v>
+        <v>1838481.492711679</v>
       </c>
       <c r="I83" t="n">
-        <v>880755.5131742076</v>
+        <v>569456.3579567871</v>
       </c>
       <c r="J83" t="n">
-        <v>880754.9489543043</v>
+        <v>569456.6943503175</v>
+      </c>
+      <c r="K83" t="n">
+        <v>44418791.03061904</v>
+      </c>
+      <c r="L83" t="n">
+        <v>42626067.42589439</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1837983.975686847</v>
+      </c>
+      <c r="N83" t="n">
+        <v>569456.3579567871</v>
       </c>
     </row>
     <row r="84">
@@ -3283,28 +4287,40 @@
         <v>0.003992599084623624</v>
       </c>
       <c r="C84" t="n">
-        <v>78066927.14636311</v>
+        <v>44355356.31589252</v>
       </c>
       <c r="D84" t="n">
-        <v>78063145.84957728</v>
+        <v>44355383.66163208</v>
       </c>
       <c r="E84" t="n">
-        <v>78842157.55534387</v>
+        <v>42580268.33666451</v>
       </c>
       <c r="F84" t="n">
-        <v>78842082.11346646</v>
+        <v>42580288.78882643</v>
       </c>
       <c r="G84" t="n">
-        <v>7392479.705989799</v>
+        <v>1832493.581131552</v>
       </c>
       <c r="H84" t="n">
-        <v>7380290.950814507</v>
+        <v>1833105.723021124</v>
       </c>
       <c r="I84" t="n">
-        <v>880714.1640151798</v>
+        <v>568813.4295388079</v>
       </c>
       <c r="J84" t="n">
-        <v>880713.5987971191</v>
+        <v>568813.7654258378</v>
+      </c>
+      <c r="K84" t="n">
+        <v>44355356.31589252</v>
+      </c>
+      <c r="L84" t="n">
+        <v>42580268.33666451</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1832493.581131552</v>
+      </c>
+      <c r="N84" t="n">
+        <v>568813.4295388079</v>
       </c>
     </row>
     <row r="85">
@@ -3317,28 +4333,40 @@
         <v>0.004041289317362937</v>
       </c>
       <c r="C85" t="n">
-        <v>78039484.51601852</v>
+        <v>44383241.57138723</v>
       </c>
       <c r="D85" t="n">
-        <v>78035701.80257653</v>
+        <v>44383270.42997628</v>
       </c>
       <c r="E85" t="n">
-        <v>78817892.53133938</v>
+        <v>42604239.46110851</v>
       </c>
       <c r="F85" t="n">
-        <v>78817817.01585205</v>
+        <v>42604259.92498342</v>
       </c>
       <c r="G85" t="n">
-        <v>7392380.858798521</v>
+        <v>1832600.796510261</v>
       </c>
       <c r="H85" t="n">
-        <v>7380204.490825018</v>
+        <v>1833212.737886995</v>
       </c>
       <c r="I85" t="n">
-        <v>881082.84148355</v>
+        <v>569211.1482635125</v>
       </c>
       <c r="J85" t="n">
-        <v>881082.2754950915</v>
+        <v>569211.4848601838</v>
+      </c>
+      <c r="K85" t="n">
+        <v>44383241.57138723</v>
+      </c>
+      <c r="L85" t="n">
+        <v>42604239.46110851</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1832600.796510261</v>
+      </c>
+      <c r="N85" t="n">
+        <v>569211.1482635125</v>
       </c>
     </row>
     <row r="86">
@@ -3351,28 +4379,40 @@
         <v>0.00408997955010225</v>
       </c>
       <c r="C86" t="n">
-        <v>78039484.51601852</v>
+        <v>44383241.57138723</v>
       </c>
       <c r="D86" t="n">
-        <v>78035701.80257653</v>
+        <v>44383270.42997628</v>
       </c>
       <c r="E86" t="n">
-        <v>78817892.53133938</v>
+        <v>42604239.46110851</v>
       </c>
       <c r="F86" t="n">
-        <v>78817817.01585205</v>
+        <v>42604259.92498342</v>
       </c>
       <c r="G86" t="n">
-        <v>7392380.858798521</v>
+        <v>1832600.796510261</v>
       </c>
       <c r="H86" t="n">
-        <v>7380204.490825018</v>
+        <v>1833212.737886995</v>
       </c>
       <c r="I86" t="n">
-        <v>881082.84148355</v>
+        <v>569211.1482635125</v>
       </c>
       <c r="J86" t="n">
-        <v>881082.2754950915</v>
+        <v>569211.4848601838</v>
+      </c>
+      <c r="K86" t="n">
+        <v>44383241.57138723</v>
+      </c>
+      <c r="L86" t="n">
+        <v>42604239.46110851</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1832600.796510261</v>
+      </c>
+      <c r="N86" t="n">
+        <v>569211.1482635125</v>
       </c>
     </row>
     <row r="87">
@@ -3385,28 +4425,40 @@
         <v>0.004138669782841562</v>
       </c>
       <c r="C87" t="n">
-        <v>78012042.66551065</v>
+        <v>44411126.02987757</v>
       </c>
       <c r="D87" t="n">
-        <v>78008255.7986221</v>
+        <v>44411159.10262049</v>
       </c>
       <c r="E87" t="n">
-        <v>78777190.83400956</v>
+        <v>42640056.02019542</v>
       </c>
       <c r="F87" t="n">
-        <v>78777115.21674277</v>
+        <v>42640076.4956052</v>
       </c>
       <c r="G87" t="n">
-        <v>7392273.484806417</v>
+        <v>1832707.909344014</v>
       </c>
       <c r="H87" t="n">
-        <v>7380096.629778782</v>
+        <v>1833319.866806161</v>
       </c>
       <c r="I87" t="n">
-        <v>881496.8150628917</v>
+        <v>569701.96514899</v>
       </c>
       <c r="J87" t="n">
-        <v>881496.247353752</v>
+        <v>569702.3026777289</v>
+      </c>
+      <c r="K87" t="n">
+        <v>44411126.02987757</v>
+      </c>
+      <c r="L87" t="n">
+        <v>42640056.02019542</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1832707.909344014</v>
+      </c>
+      <c r="N87" t="n">
+        <v>569701.96514899</v>
       </c>
     </row>
     <row r="88">
@@ -3419,28 +4471,40 @@
         <v>0.004187360015580874</v>
       </c>
       <c r="C88" t="n">
-        <v>78058923.86698508</v>
+        <v>44375016.74368616</v>
       </c>
       <c r="D88" t="n">
-        <v>78055129.82792221</v>
+        <v>44375046.6816259</v>
       </c>
       <c r="E88" t="n">
-        <v>78826646.12608707</v>
+        <v>42605823.9629457</v>
       </c>
       <c r="F88" t="n">
-        <v>78826570.50639984</v>
+        <v>42605844.42041666</v>
       </c>
       <c r="G88" t="n">
-        <v>7375849.294179997</v>
+        <v>1825804.078568909</v>
       </c>
       <c r="H88" t="n">
-        <v>7363599.93464396</v>
+        <v>1826342.391153836</v>
       </c>
       <c r="I88" t="n">
-        <v>881716.2868463515</v>
+        <v>569401.7827125608</v>
       </c>
       <c r="J88" t="n">
-        <v>881715.7192300711</v>
+        <v>569402.120149109</v>
+      </c>
+      <c r="K88" t="n">
+        <v>44375016.74368616</v>
+      </c>
+      <c r="L88" t="n">
+        <v>42605823.9629457</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1825804.078568909</v>
+      </c>
+      <c r="N88" t="n">
+        <v>569401.7827125608</v>
       </c>
     </row>
     <row r="89">
@@ -3453,28 +4517,40 @@
         <v>0.004236050248320187</v>
       </c>
       <c r="C89" t="n">
-        <v>78749302.84545252</v>
+        <v>44235569.00916822</v>
       </c>
       <c r="D89" t="n">
-        <v>78745334.25412239</v>
+        <v>44235586.28965297</v>
       </c>
       <c r="E89" t="n">
-        <v>78755142.43015504</v>
+        <v>42681307.1693216</v>
       </c>
       <c r="F89" t="n">
-        <v>78755066.48331612</v>
+        <v>42681327.64522918</v>
       </c>
       <c r="G89" t="n">
-        <v>7353344.815370733</v>
+        <v>1748355.882931883</v>
       </c>
       <c r="H89" t="n">
-        <v>7335849.072136251</v>
+        <v>1748781.366684095</v>
       </c>
       <c r="I89" t="n">
-        <v>883330.6105630675</v>
+        <v>570661.9761249917</v>
       </c>
       <c r="J89" t="n">
-        <v>883330.0378267282</v>
+        <v>570662.3164591957</v>
+      </c>
+      <c r="K89" t="n">
+        <v>44235569.00916822</v>
+      </c>
+      <c r="L89" t="n">
+        <v>42681307.1693216</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1748355.882931883</v>
+      </c>
+      <c r="N89" t="n">
+        <v>570661.9761249917</v>
       </c>
     </row>
     <row r="90">
@@ -3487,28 +4563,40 @@
         <v>0.004284740481059499</v>
       </c>
       <c r="C90" t="n">
-        <v>77311229.18149091</v>
+        <v>44820375.5497009</v>
       </c>
       <c r="D90" t="n">
-        <v>77310672.04740964</v>
+        <v>44820445.03323754</v>
       </c>
       <c r="E90" t="n">
-        <v>79071036.40857142</v>
+        <v>42630222.70471633</v>
       </c>
       <c r="F90" t="n">
-        <v>79070957.77298282</v>
+        <v>42630243.20356826</v>
       </c>
       <c r="G90" t="n">
-        <v>5609884.326644646</v>
+        <v>1593839.184921903</v>
       </c>
       <c r="H90" t="n">
-        <v>5604721.492202102</v>
+        <v>1593002.128775127</v>
       </c>
       <c r="I90" t="n">
-        <v>900910.1529642229</v>
+        <v>578380.9183473738</v>
       </c>
       <c r="J90" t="n">
-        <v>900909.5669360994</v>
+        <v>578381.2887541876</v>
+      </c>
+      <c r="K90" t="n">
+        <v>44820375.5497009</v>
+      </c>
+      <c r="L90" t="n">
+        <v>42630222.70471633</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1593839.184921903</v>
+      </c>
+      <c r="N90" t="n">
+        <v>578380.9183473738</v>
       </c>
     </row>
     <row r="91">
@@ -3521,28 +4609,40 @@
         <v>0.004333430713798812</v>
       </c>
       <c r="C91" t="n">
-        <v>79275323.50732996</v>
+        <v>44211559.5180662</v>
       </c>
       <c r="D91" t="n">
-        <v>79276230.75271437</v>
+        <v>44211173.27652847</v>
       </c>
       <c r="E91" t="n">
-        <v>79138506.57631981</v>
+        <v>42604225.54207341</v>
       </c>
       <c r="F91" t="n">
-        <v>79138427.72440004</v>
+        <v>42604246.02587202</v>
       </c>
       <c r="G91" t="n">
-        <v>6653914.042954924</v>
+        <v>1727279.268983572</v>
       </c>
       <c r="H91" t="n">
-        <v>6645016.071295905</v>
+        <v>1725913.992382677</v>
       </c>
       <c r="I91" t="n">
-        <v>902590.3620665509</v>
+        <v>578740.6038918262</v>
       </c>
       <c r="J91" t="n">
-        <v>902589.7744211552</v>
+        <v>578740.9763079789</v>
+      </c>
+      <c r="K91" t="n">
+        <v>44211559.5180662</v>
+      </c>
+      <c r="L91" t="n">
+        <v>42604225.54207341</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1727279.268983572</v>
+      </c>
+      <c r="N91" t="n">
+        <v>578740.6038918262</v>
       </c>
     </row>
     <row r="92">
@@ -3555,28 +4655,40 @@
         <v>0.004382120946538125</v>
       </c>
       <c r="C92" t="n">
-        <v>78888772.23487887</v>
+        <v>44323110.90552974</v>
       </c>
       <c r="D92" t="n">
-        <v>78888835.1708452</v>
+        <v>44322957.84946746</v>
       </c>
       <c r="E92" t="n">
-        <v>79107906.39052065</v>
+        <v>42621013.33985513</v>
       </c>
       <c r="F92" t="n">
-        <v>79107827.55970261</v>
+        <v>42621033.82714722</v>
       </c>
       <c r="G92" t="n">
-        <v>6469361.015016668</v>
+        <v>1683776.496880388</v>
       </c>
       <c r="H92" t="n">
-        <v>6460433.078292968</v>
+        <v>1683105.138723764</v>
       </c>
       <c r="I92" t="n">
-        <v>902246.6066707029</v>
+        <v>578714.7900103247</v>
       </c>
       <c r="J92" t="n">
-        <v>902246.0183028702</v>
+        <v>578715.1619577151</v>
+      </c>
+      <c r="K92" t="n">
+        <v>44323110.90552974</v>
+      </c>
+      <c r="L92" t="n">
+        <v>42621013.33985513</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1683776.496880388</v>
+      </c>
+      <c r="N92" t="n">
+        <v>578714.7900103247</v>
       </c>
     </row>
     <row r="93">
@@ -3589,28 +4701,40 @@
         <v>0.004430811179277437</v>
       </c>
       <c r="C93" t="n">
-        <v>78860448.05541721</v>
+        <v>44350113.57668316</v>
       </c>
       <c r="D93" t="n">
-        <v>78860514.96039487</v>
+        <v>44349956.72155707</v>
       </c>
       <c r="E93" t="n">
-        <v>79063908.11285934</v>
+        <v>42654962.00225195</v>
       </c>
       <c r="F93" t="n">
-        <v>79063829.21329041</v>
+        <v>42654982.49866974</v>
       </c>
       <c r="G93" t="n">
-        <v>6469040.245826567</v>
+        <v>1683885.641495381</v>
       </c>
       <c r="H93" t="n">
-        <v>6460112.73971648</v>
+        <v>1683214.479876481</v>
       </c>
       <c r="I93" t="n">
-        <v>902400.0910979022</v>
+        <v>579052.0555008774</v>
       </c>
       <c r="J93" t="n">
-        <v>902399.5009805674</v>
+        <v>579052.4278664008</v>
+      </c>
+      <c r="K93" t="n">
+        <v>44350113.57668316</v>
+      </c>
+      <c r="L93" t="n">
+        <v>42654962.00225195</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1683885.641495381</v>
+      </c>
+      <c r="N93" t="n">
+        <v>579052.0555008774</v>
       </c>
     </row>
     <row r="94">
@@ -3623,28 +4747,40 @@
         <v>0.004479501412016749</v>
       </c>
       <c r="C94" t="n">
-        <v>78917647.66069776</v>
+        <v>44327715.78628024</v>
       </c>
       <c r="D94" t="n">
-        <v>78917660.66086261</v>
+        <v>44327576.10789642</v>
       </c>
       <c r="E94" t="n">
-        <v>79085692.16005793</v>
+        <v>42641761.97122048</v>
       </c>
       <c r="F94" t="n">
-        <v>79085613.2644659</v>
+        <v>42641782.46612024</v>
       </c>
       <c r="G94" t="n">
-        <v>6470355.072494387</v>
+        <v>1674785.899576352</v>
       </c>
       <c r="H94" t="n">
-        <v>6461658.073956992</v>
+        <v>1673935.346530005</v>
       </c>
       <c r="I94" t="n">
-        <v>902541.6617251344</v>
+        <v>579036.7926769296</v>
       </c>
       <c r="J94" t="n">
-        <v>902541.0724970911</v>
+        <v>579037.1652597378</v>
+      </c>
+      <c r="K94" t="n">
+        <v>44327715.78628024</v>
+      </c>
+      <c r="L94" t="n">
+        <v>42641761.97122048</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1674785.899576352</v>
+      </c>
+      <c r="N94" t="n">
+        <v>579036.7926769296</v>
       </c>
     </row>
     <row r="95">
@@ -3657,28 +4793,40 @@
         <v>0.004528191644756062</v>
       </c>
       <c r="C95" t="n">
-        <v>78887550.09225178</v>
+        <v>44352944.6336908</v>
       </c>
       <c r="D95" t="n">
-        <v>78887562.94305983</v>
+        <v>44352805.0501554</v>
       </c>
       <c r="E95" t="n">
-        <v>79044285.74548295</v>
+        <v>42682203.62697849</v>
       </c>
       <c r="F95" t="n">
-        <v>79044206.79441123</v>
+        <v>42682224.14561183</v>
       </c>
       <c r="G95" t="n">
-        <v>6470245.22557016</v>
+        <v>1674915.435663815</v>
       </c>
       <c r="H95" t="n">
-        <v>6461557.642224461</v>
+        <v>1674064.599286195</v>
       </c>
       <c r="I95" t="n">
-        <v>902851.9606542434</v>
+        <v>579642.5270274971</v>
       </c>
       <c r="J95" t="n">
-        <v>902851.3714201868</v>
+        <v>579642.9004292988</v>
+      </c>
+      <c r="K95" t="n">
+        <v>44352944.6336908</v>
+      </c>
+      <c r="L95" t="n">
+        <v>42682203.62697849</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1674915.435663815</v>
+      </c>
+      <c r="N95" t="n">
+        <v>579642.5270274971</v>
       </c>
     </row>
     <row r="96">
@@ -3691,28 +4839,40 @@
         <v>0.004576881877495375</v>
       </c>
       <c r="C96" t="n">
-        <v>79216901.7594223</v>
+        <v>44263791.03663018</v>
       </c>
       <c r="D96" t="n">
-        <v>79217812.82446127</v>
+        <v>44263401.09087706</v>
       </c>
       <c r="E96" t="n">
-        <v>79053083.22036883</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F96" t="n">
-        <v>79053004.24395409</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G96" t="n">
-        <v>6653483.426840596</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H96" t="n">
-        <v>6644595.300986888</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I96" t="n">
-        <v>903054.8535759945</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J96" t="n">
-        <v>903054.2641771154</v>
+        <v>579683.4241053031</v>
+      </c>
+      <c r="K96" t="n">
+        <v>44263791.03663018</v>
+      </c>
+      <c r="L96" t="n">
+        <v>42678608.2663215</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1727517.949686029</v>
+      </c>
+      <c r="N96" t="n">
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="97">
@@ -3725,28 +4885,40 @@
         <v>0.004625572110234687</v>
       </c>
       <c r="C97" t="n">
-        <v>79216901.7594223</v>
+        <v>44263791.03663018</v>
       </c>
       <c r="D97" t="n">
-        <v>79217812.82446127</v>
+        <v>44263401.09087706</v>
       </c>
       <c r="E97" t="n">
-        <v>79053083.22036883</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F97" t="n">
-        <v>79053004.24395409</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G97" t="n">
-        <v>6653483.426840596</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H97" t="n">
-        <v>6644595.300986888</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I97" t="n">
-        <v>903054.8535759945</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J97" t="n">
-        <v>903054.2641771154</v>
+        <v>579683.4241053031</v>
+      </c>
+      <c r="K97" t="n">
+        <v>44263791.03663018</v>
+      </c>
+      <c r="L97" t="n">
+        <v>42678608.2663215</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1727517.949686029</v>
+      </c>
+      <c r="N97" t="n">
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="98">
@@ -3759,28 +4931,40 @@
         <v>0.004674262342973999</v>
       </c>
       <c r="C98" t="n">
-        <v>79236015.61330932</v>
+        <v>44255238.86784417</v>
       </c>
       <c r="D98" t="n">
-        <v>79236911.47043414</v>
+        <v>44254849.90804139</v>
       </c>
       <c r="E98" t="n">
-        <v>79070237.65851912</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="F98" t="n">
-        <v>79070158.60377409</v>
+        <v>42673757.1628022</v>
       </c>
       <c r="G98" t="n">
-        <v>6637656.924514441</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="H98" t="n">
-        <v>6628688.627006089</v>
+        <v>1719370.33007597</v>
       </c>
       <c r="I98" t="n">
-        <v>903615.5967700512</v>
+        <v>579827.8441746635</v>
       </c>
       <c r="J98" t="n">
-        <v>903615.0065885956</v>
+        <v>579828.2184958491</v>
+      </c>
+      <c r="K98" t="n">
+        <v>44255238.86784417</v>
+      </c>
+      <c r="L98" t="n">
+        <v>42673736.65047541</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1720897.013443617</v>
+      </c>
+      <c r="N98" t="n">
+        <v>579827.8441746635</v>
       </c>
     </row>
     <row r="99">
@@ -3793,28 +4977,40 @@
         <v>0.004722952575713312</v>
       </c>
       <c r="C99" t="n">
-        <v>79216901.7594223</v>
+        <v>44263791.03663018</v>
       </c>
       <c r="D99" t="n">
-        <v>79217812.82446127</v>
+        <v>44263401.09087706</v>
       </c>
       <c r="E99" t="n">
-        <v>79053083.22036883</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F99" t="n">
-        <v>79053004.24395409</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G99" t="n">
-        <v>6653483.426840596</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H99" t="n">
-        <v>6644595.300986888</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I99" t="n">
-        <v>903054.8535759945</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J99" t="n">
-        <v>903054.2641771154</v>
+        <v>579683.4241053031</v>
+      </c>
+      <c r="K99" t="n">
+        <v>44263791.03663018</v>
+      </c>
+      <c r="L99" t="n">
+        <v>42678608.2663215</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1727517.949686029</v>
+      </c>
+      <c r="N99" t="n">
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="100">
@@ -3827,28 +5023,40 @@
         <v>0.004771642808452625</v>
       </c>
       <c r="C100" t="n">
-        <v>79216901.7594223</v>
+        <v>44263791.03663018</v>
       </c>
       <c r="D100" t="n">
-        <v>79217812.82446127</v>
+        <v>44263401.09087706</v>
       </c>
       <c r="E100" t="n">
-        <v>79053083.22036883</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F100" t="n">
-        <v>79053004.24395409</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G100" t="n">
-        <v>6653483.426840596</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H100" t="n">
-        <v>6644595.300986888</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I100" t="n">
-        <v>903054.8535759945</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J100" t="n">
-        <v>903054.2641771154</v>
+        <v>579683.4241053031</v>
+      </c>
+      <c r="K100" t="n">
+        <v>44263791.03663018</v>
+      </c>
+      <c r="L100" t="n">
+        <v>42678608.2663215</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1727517.949686029</v>
+      </c>
+      <c r="N100" t="n">
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="101">
@@ -3861,28 +5069,40 @@
         <v>0.004820333041191937</v>
       </c>
       <c r="C101" t="n">
-        <v>79216901.7594223</v>
+        <v>44263791.03663018</v>
       </c>
       <c r="D101" t="n">
-        <v>79217812.82446127</v>
+        <v>44263401.09087706</v>
       </c>
       <c r="E101" t="n">
-        <v>79053083.22036883</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F101" t="n">
-        <v>79053004.24395409</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G101" t="n">
-        <v>6653483.426840596</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H101" t="n">
-        <v>6644595.300986888</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I101" t="n">
-        <v>903054.8535759945</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J101" t="n">
-        <v>903054.2641771154</v>
+        <v>579683.4241053031</v>
+      </c>
+      <c r="K101" t="n">
+        <v>44263791.03663018</v>
+      </c>
+      <c r="L101" t="n">
+        <v>42678608.2663215</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1727517.949686029</v>
+      </c>
+      <c r="N101" t="n">
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="102">
@@ -3895,28 +5115,40 @@
         <v>0.004869023273931249</v>
       </c>
       <c r="C102" t="n">
-        <v>79216901.7594223</v>
+        <v>44263791.03663018</v>
       </c>
       <c r="D102" t="n">
-        <v>79217812.82446127</v>
+        <v>44263401.09087706</v>
       </c>
       <c r="E102" t="n">
-        <v>79053083.22036883</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F102" t="n">
-        <v>79053004.24395409</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G102" t="n">
-        <v>6653483.426840596</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H102" t="n">
-        <v>6644595.300986888</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I102" t="n">
-        <v>903054.8535759945</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J102" t="n">
-        <v>903054.2641771154</v>
+        <v>579683.4241053031</v>
+      </c>
+      <c r="K102" t="n">
+        <v>44263791.03663018</v>
+      </c>
+      <c r="L102" t="n">
+        <v>42678608.2663215</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1727517.949686029</v>
+      </c>
+      <c r="N102" t="n">
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="103">
@@ -3929,28 +5161,40 @@
         <v>0.004917713506670562</v>
       </c>
       <c r="C103" t="n">
-        <v>79236015.61330932</v>
+        <v>44255238.86784417</v>
       </c>
       <c r="D103" t="n">
-        <v>79236911.47043414</v>
+        <v>44254849.90804139</v>
       </c>
       <c r="E103" t="n">
-        <v>79070237.65851912</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="F103" t="n">
-        <v>79070158.60377409</v>
+        <v>42673757.1628022</v>
       </c>
       <c r="G103" t="n">
-        <v>6637656.924514441</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="H103" t="n">
-        <v>6628688.627006089</v>
+        <v>1719370.33007597</v>
       </c>
       <c r="I103" t="n">
-        <v>903615.5967700512</v>
+        <v>579827.8441746635</v>
       </c>
       <c r="J103" t="n">
-        <v>903615.0065885956</v>
+        <v>579828.2184958491</v>
+      </c>
+      <c r="K103" t="n">
+        <v>44255238.86784417</v>
+      </c>
+      <c r="L103" t="n">
+        <v>42673736.65047541</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1720897.013443617</v>
+      </c>
+      <c r="N103" t="n">
+        <v>579827.8441746635</v>
       </c>
     </row>
     <row r="104">
@@ -3963,28 +5207,40 @@
         <v>0.004966403739409875</v>
       </c>
       <c r="C104" t="n">
-        <v>79264339.79277098</v>
+        <v>44228236.19669075</v>
       </c>
       <c r="D104" t="n">
-        <v>79265231.68088447</v>
+        <v>44227851.03595178</v>
       </c>
       <c r="E104" t="n">
-        <v>79114248.25285321</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="F104" t="n">
-        <v>79114169.26718371</v>
+        <v>42639833.15292501</v>
       </c>
       <c r="G104" t="n">
-        <v>6637977.693704542</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="H104" t="n">
-        <v>6629008.965582578</v>
+        <v>1719260.988923253</v>
       </c>
       <c r="I104" t="n">
-        <v>903462.2535261735</v>
+        <v>579492.4604510416</v>
       </c>
       <c r="J104" t="n">
-        <v>903461.6650849578</v>
+        <v>579492.8343713903</v>
+      </c>
+      <c r="K104" t="n">
+        <v>44228236.19669075</v>
+      </c>
+      <c r="L104" t="n">
+        <v>42639812.64979225</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1720787.868828623</v>
+      </c>
+      <c r="N104" t="n">
+        <v>579492.4604510416</v>
       </c>
     </row>
     <row r="105">
@@ -3997,28 +5253,40 @@
         <v>0.005015093972149187</v>
       </c>
       <c r="C105" t="n">
-        <v>79236015.61330932</v>
+        <v>44255238.86784417</v>
       </c>
       <c r="D105" t="n">
-        <v>79236911.47043414</v>
+        <v>44254849.90804139</v>
       </c>
       <c r="E105" t="n">
-        <v>79070237.65851912</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="F105" t="n">
-        <v>79070158.60377409</v>
+        <v>42673757.1628022</v>
       </c>
       <c r="G105" t="n">
-        <v>6637656.924514441</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="H105" t="n">
-        <v>6628688.627006089</v>
+        <v>1719370.33007597</v>
       </c>
       <c r="I105" t="n">
-        <v>903615.5967700512</v>
+        <v>579827.8441746635</v>
       </c>
       <c r="J105" t="n">
-        <v>903615.0065885956</v>
+        <v>579828.2184958491</v>
+      </c>
+      <c r="K105" t="n">
+        <v>44255238.86784417</v>
+      </c>
+      <c r="L105" t="n">
+        <v>42673736.65047541</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1720897.013443617</v>
+      </c>
+      <c r="N105" t="n">
+        <v>579827.8441746635</v>
       </c>
     </row>
     <row r="106">
@@ -4031,28 +5299,40 @@
         <v>0.005063784204888499</v>
       </c>
       <c r="C106" t="n">
-        <v>79264339.79277098</v>
+        <v>44228236.19669075</v>
       </c>
       <c r="D106" t="n">
-        <v>79265231.68088447</v>
+        <v>44227851.03595178</v>
       </c>
       <c r="E106" t="n">
-        <v>79114248.25285321</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="F106" t="n">
-        <v>79114169.26718371</v>
+        <v>42639833.15292501</v>
       </c>
       <c r="G106" t="n">
-        <v>6637977.693704542</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="H106" t="n">
-        <v>6629008.965582578</v>
+        <v>1719260.988923253</v>
       </c>
       <c r="I106" t="n">
-        <v>903462.2535261735</v>
+        <v>579492.4604510416</v>
       </c>
       <c r="J106" t="n">
-        <v>903461.6650849578</v>
+        <v>579492.8343713903</v>
+      </c>
+      <c r="K106" t="n">
+        <v>44228236.19669075</v>
+      </c>
+      <c r="L106" t="n">
+        <v>42639812.64979225</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1720787.868828623</v>
+      </c>
+      <c r="N106" t="n">
+        <v>579492.4604510416</v>
       </c>
     </row>
     <row r="107">
@@ -4065,28 +5345,40 @@
         <v>0.005112474437627812</v>
       </c>
       <c r="C107" t="n">
-        <v>79245225.93888398</v>
+        <v>44236788.36547676</v>
       </c>
       <c r="D107" t="n">
-        <v>79246133.03491159</v>
+        <v>44236402.21878745</v>
       </c>
       <c r="E107" t="n">
-        <v>79097160.71490997</v>
+        <v>42644625.02979143</v>
       </c>
       <c r="F107" t="n">
-        <v>79097081.80759306</v>
+        <v>42644645.53724574</v>
       </c>
       <c r="G107" t="n">
-        <v>6653804.196030697</v>
+        <v>1727408.805071035</v>
       </c>
       <c r="H107" t="n">
-        <v>6644915.639563374</v>
+        <v>1726043.245138868</v>
       </c>
       <c r="I107" t="n">
-        <v>902901.5423511092</v>
+        <v>579347.0990067094</v>
       </c>
       <c r="J107" t="n">
-        <v>902900.9546941156</v>
+        <v>579347.4722519736</v>
+      </c>
+      <c r="K107" t="n">
+        <v>44236788.36547676</v>
+      </c>
+      <c r="L107" t="n">
+        <v>42644625.02979143</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1727408.805071035</v>
+      </c>
+      <c r="N107" t="n">
+        <v>579347.0990067094</v>
       </c>
     </row>
     <row r="108">
@@ -4099,28 +5391,40 @@
         <v>0.005161164670367124</v>
       </c>
       <c r="C108" t="n">
-        <v>80181917.58597243</v>
+        <v>44039180.61146123</v>
       </c>
       <c r="D108" t="n">
-        <v>80183387.98761873</v>
+        <v>44038751.09168386</v>
       </c>
       <c r="E108" t="n">
-        <v>79117435.39744502</v>
+        <v>42645452.43107866</v>
       </c>
       <c r="F108" t="n">
-        <v>79117356.29791492</v>
+        <v>42645472.929233</v>
       </c>
       <c r="G108" t="n">
-        <v>5809949.503475589</v>
+        <v>1583272.829104913</v>
       </c>
       <c r="H108" t="n">
-        <v>5806974.460096292</v>
+        <v>1583117.451312867</v>
       </c>
       <c r="I108" t="n">
-        <v>904108.1663537942</v>
+        <v>579699.7013230528</v>
       </c>
       <c r="J108" t="n">
-        <v>904107.5759269343</v>
+        <v>579700.0759444402</v>
+      </c>
+      <c r="K108" t="n">
+        <v>44039180.61146123</v>
+      </c>
+      <c r="L108" t="n">
+        <v>42645452.43107866</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1583272.829104913</v>
+      </c>
+      <c r="N108" t="n">
+        <v>579699.7013230528</v>
       </c>
     </row>
     <row r="109">
@@ -4133,28 +5437,40 @@
         <v>0.005209854903106437</v>
       </c>
       <c r="C109" t="n">
-        <v>79336758.06645671</v>
+        <v>44210137.64349665</v>
       </c>
       <c r="D109" t="n">
-        <v>79337187.03311761</v>
+        <v>44209895.61399059</v>
       </c>
       <c r="E109" t="n">
-        <v>79104315.81202617</v>
+        <v>42653836.79615556</v>
       </c>
       <c r="F109" t="n">
-        <v>79104236.69088696</v>
+        <v>42653857.29220781</v>
       </c>
       <c r="G109" t="n">
-        <v>6563802.0436979</v>
+        <v>1703098.434425497</v>
       </c>
       <c r="H109" t="n">
-        <v>6554951.619035353</v>
+        <v>1701844.104980985</v>
       </c>
       <c r="I109" t="n">
-        <v>904100.3951664427</v>
+        <v>579693.9548989035</v>
       </c>
       <c r="J109" t="n">
-        <v>904099.8035627848</v>
+        <v>579694.3293725281</v>
+      </c>
+      <c r="K109" t="n">
+        <v>44210137.64349665</v>
+      </c>
+      <c r="L109" t="n">
+        <v>42653836.79615556</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1703098.434425497</v>
+      </c>
+      <c r="N109" t="n">
+        <v>579693.9548989035</v>
       </c>
     </row>
     <row r="110">
@@ -4167,28 +5483,40 @@
         <v>0.005258545135845749</v>
       </c>
       <c r="C110" t="n">
-        <v>79264339.79277098</v>
+        <v>44228236.19669075</v>
       </c>
       <c r="D110" t="n">
-        <v>79265231.68088447</v>
+        <v>44227851.03595178</v>
       </c>
       <c r="E110" t="n">
-        <v>79114248.25285321</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="F110" t="n">
-        <v>79114169.26718371</v>
+        <v>42639833.15292501</v>
       </c>
       <c r="G110" t="n">
-        <v>6637977.693704542</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="H110" t="n">
-        <v>6629008.965582578</v>
+        <v>1719260.988923253</v>
       </c>
       <c r="I110" t="n">
-        <v>903462.2535261735</v>
+        <v>579492.4604510416</v>
       </c>
       <c r="J110" t="n">
-        <v>903461.6650849578</v>
+        <v>579492.8343713903</v>
+      </c>
+      <c r="K110" t="n">
+        <v>44228236.19669075</v>
+      </c>
+      <c r="L110" t="n">
+        <v>42639812.64979225</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1720787.868828623</v>
+      </c>
+      <c r="N110" t="n">
+        <v>579492.4604510416</v>
       </c>
     </row>
     <row r="111">
@@ -4201,28 +5529,40 @@
         <v>0.005307235368585062</v>
       </c>
       <c r="C111" t="n">
-        <v>79264339.79277098</v>
+        <v>44228236.19669075</v>
       </c>
       <c r="D111" t="n">
-        <v>79265231.68088447</v>
+        <v>44227851.03595178</v>
       </c>
       <c r="E111" t="n">
-        <v>79114248.25285321</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="F111" t="n">
-        <v>79114169.26718371</v>
+        <v>42639833.15292501</v>
       </c>
       <c r="G111" t="n">
-        <v>6637977.693704542</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="H111" t="n">
-        <v>6629008.965582578</v>
+        <v>1719260.988923253</v>
       </c>
       <c r="I111" t="n">
-        <v>903462.2535261735</v>
+        <v>579492.4604510416</v>
       </c>
       <c r="J111" t="n">
-        <v>903461.6650849578</v>
+        <v>579492.8343713903</v>
+      </c>
+      <c r="K111" t="n">
+        <v>44228236.19669075</v>
+      </c>
+      <c r="L111" t="n">
+        <v>42639812.64979225</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1720787.868828623</v>
+      </c>
+      <c r="N111" t="n">
+        <v>579492.4604510416</v>
       </c>
     </row>
     <row r="112">
@@ -4235,28 +5575,40 @@
         <v>0.005355925601324374</v>
       </c>
       <c r="C112" t="n">
-        <v>80211572.54309157</v>
+        <v>44013509.15272382</v>
       </c>
       <c r="D112" t="n">
-        <v>80213042.79733472</v>
+        <v>44013079.7297485</v>
       </c>
       <c r="E112" t="n">
-        <v>79156192.83045042</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="F112" t="n">
-        <v>79156113.744828</v>
+        <v>42620227.2853965</v>
       </c>
       <c r="G112" t="n">
-        <v>5810059.358806306</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="H112" t="n">
-        <v>5807093.591990085</v>
+        <v>1582987.226705493</v>
       </c>
       <c r="I112" t="n">
-        <v>904277.7096105285</v>
+        <v>579576.7387461406</v>
       </c>
       <c r="J112" t="n">
-        <v>904277.1203451011</v>
+        <v>579577.1135115623</v>
+      </c>
+      <c r="K112" t="n">
+        <v>44013509.15272382</v>
+      </c>
+      <c r="L112" t="n">
+        <v>42620206.79353427</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1583142.892808005</v>
+      </c>
+      <c r="N112" t="n">
+        <v>579576.7387461406</v>
       </c>
     </row>
     <row r="113">
@@ -4269,28 +5621,40 @@
         <v>0.005404615834063687</v>
       </c>
       <c r="C113" t="n">
-        <v>79293994.74989012</v>
+        <v>44202564.73795334</v>
       </c>
       <c r="D113" t="n">
-        <v>79294886.49060045</v>
+        <v>44202179.67401642</v>
       </c>
       <c r="E113" t="n">
-        <v>79153034.07781963</v>
+        <v>42614576.48083655</v>
       </c>
       <c r="F113" t="n">
-        <v>79152955.10574436</v>
+        <v>42614596.97750365</v>
       </c>
       <c r="G113" t="n">
-        <v>6638087.54903526</v>
+        <v>1720657.932531715</v>
       </c>
       <c r="H113" t="n">
-        <v>6629128.097476371</v>
+        <v>1719130.76431588</v>
       </c>
       <c r="I113" t="n">
-        <v>903633.9192758321</v>
+        <v>579370.6441334076</v>
       </c>
       <c r="J113" t="n">
-        <v>903633.3319824217</v>
+        <v>579371.0182124078</v>
+      </c>
+      <c r="K113" t="n">
+        <v>44202564.73795334</v>
+      </c>
+      <c r="L113" t="n">
+        <v>42614576.48083655</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1720657.932531715</v>
+      </c>
+      <c r="N113" t="n">
+        <v>579370.6441334076</v>
       </c>
     </row>
     <row r="114">
@@ -4303,28 +5667,40 @@
         <v>0.005453306066803</v>
       </c>
       <c r="C114" t="n">
-        <v>80211572.54309157</v>
+        <v>44013509.15272382</v>
       </c>
       <c r="D114" t="n">
-        <v>80213042.79733472</v>
+        <v>44013079.7297485</v>
       </c>
       <c r="E114" t="n">
-        <v>79156192.83045042</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="F114" t="n">
-        <v>79156113.744828</v>
+        <v>42620227.2853965</v>
       </c>
       <c r="G114" t="n">
-        <v>5810059.358806306</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="H114" t="n">
-        <v>5807093.591990085</v>
+        <v>1582987.226705493</v>
       </c>
       <c r="I114" t="n">
-        <v>904277.7096105285</v>
+        <v>579576.7387461406</v>
       </c>
       <c r="J114" t="n">
-        <v>904277.1203451011</v>
+        <v>579577.1135115623</v>
+      </c>
+      <c r="K114" t="n">
+        <v>44013509.15272382</v>
+      </c>
+      <c r="L114" t="n">
+        <v>42620206.79353427</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1583142.892808005</v>
+      </c>
+      <c r="N114" t="n">
+        <v>579576.7387461406</v>
       </c>
     </row>
     <row r="115">
@@ -4337,28 +5713,40 @@
         <v>0.005501996299542311</v>
       </c>
       <c r="C115" t="n">
-        <v>79293994.74989012</v>
+        <v>44202564.73795334</v>
       </c>
       <c r="D115" t="n">
-        <v>79294886.49060045</v>
+        <v>44202179.67401642</v>
       </c>
       <c r="E115" t="n">
-        <v>79153034.07781963</v>
+        <v>42614576.48083655</v>
       </c>
       <c r="F115" t="n">
-        <v>79152955.10574436</v>
+        <v>42614596.97750365</v>
       </c>
       <c r="G115" t="n">
-        <v>6638087.54903526</v>
+        <v>1720657.932531715</v>
       </c>
       <c r="H115" t="n">
-        <v>6629128.097476371</v>
+        <v>1719130.76431588</v>
       </c>
       <c r="I115" t="n">
-        <v>903633.9192758321</v>
+        <v>579370.6441334076</v>
       </c>
       <c r="J115" t="n">
-        <v>903633.3319824217</v>
+        <v>579371.0182124078</v>
+      </c>
+      <c r="K115" t="n">
+        <v>44202564.73795334</v>
+      </c>
+      <c r="L115" t="n">
+        <v>42614576.48083655</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1720657.932531715</v>
+      </c>
+      <c r="N115" t="n">
+        <v>579370.6441334076</v>
       </c>
     </row>
     <row r="116">
@@ -4371,28 +5759,40 @@
         <v>0.005550686532281624</v>
       </c>
       <c r="C116" t="n">
-        <v>79366413.02357584</v>
+        <v>44184466.18475924</v>
       </c>
       <c r="D116" t="n">
-        <v>79366841.84283359</v>
+        <v>44184224.25205524</v>
       </c>
       <c r="E116" t="n">
-        <v>79143171.53449571</v>
+        <v>42628466.63089977</v>
       </c>
       <c r="F116" t="n">
-        <v>79143092.42786682</v>
+        <v>42628487.12080841</v>
       </c>
       <c r="G116" t="n">
-        <v>6563911.899028618</v>
+        <v>1702968.498128589</v>
       </c>
       <c r="H116" t="n">
-        <v>6555070.750929146</v>
+        <v>1701713.880373612</v>
       </c>
       <c r="I116" t="n">
-        <v>904266.7766097892</v>
+        <v>579568.7455024377</v>
       </c>
       <c r="J116" t="n">
-        <v>904266.1861916297</v>
+        <v>579569.1201038336</v>
+      </c>
+      <c r="K116" t="n">
+        <v>44184466.18475924</v>
+      </c>
+      <c r="L116" t="n">
+        <v>42628466.63089977</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1702968.498128589</v>
+      </c>
+      <c r="N116" t="n">
+        <v>579568.7455024377</v>
       </c>
     </row>
     <row r="117">
@@ -4405,28 +5805,40 @@
         <v>0.005599376765020937</v>
       </c>
       <c r="C117" t="n">
-        <v>80211572.54309157</v>
+        <v>44013509.15272382</v>
       </c>
       <c r="D117" t="n">
-        <v>80213042.79733472</v>
+        <v>44013079.7297485</v>
       </c>
       <c r="E117" t="n">
-        <v>79156192.83045042</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="F117" t="n">
-        <v>79156113.744828</v>
+        <v>42620227.2853965</v>
       </c>
       <c r="G117" t="n">
-        <v>5810059.358806306</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="H117" t="n">
-        <v>5807093.591990085</v>
+        <v>1582987.226705493</v>
       </c>
       <c r="I117" t="n">
-        <v>904277.7096105285</v>
+        <v>579576.7387461406</v>
       </c>
       <c r="J117" t="n">
-        <v>904277.1203451011</v>
+        <v>579577.1135115623</v>
+      </c>
+      <c r="K117" t="n">
+        <v>44013509.15272382</v>
+      </c>
+      <c r="L117" t="n">
+        <v>42620206.79353427</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1583142.892808005</v>
+      </c>
+      <c r="N117" t="n">
+        <v>579576.7387461406</v>
       </c>
     </row>
     <row r="118">
@@ -4439,28 +5851,40 @@
         <v>0.00564806699776025</v>
       </c>
       <c r="C118" t="n">
-        <v>80211572.54309157</v>
+        <v>44013509.15272382</v>
       </c>
       <c r="D118" t="n">
-        <v>80213042.79733472</v>
+        <v>44013079.7297485</v>
       </c>
       <c r="E118" t="n">
-        <v>79156192.83045042</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="F118" t="n">
-        <v>79156113.744828</v>
+        <v>42620227.2853965</v>
       </c>
       <c r="G118" t="n">
-        <v>5810059.358806306</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="H118" t="n">
-        <v>5807093.591990085</v>
+        <v>1582987.226705493</v>
       </c>
       <c r="I118" t="n">
-        <v>904277.7096105285</v>
+        <v>579576.7387461406</v>
       </c>
       <c r="J118" t="n">
-        <v>904277.1203451011</v>
+        <v>579577.1135115623</v>
+      </c>
+      <c r="K118" t="n">
+        <v>44013509.15272382</v>
+      </c>
+      <c r="L118" t="n">
+        <v>42620206.79353427</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1583142.892808005</v>
+      </c>
+      <c r="N118" t="n">
+        <v>579576.7387461406</v>
       </c>
     </row>
     <row r="119">
@@ -4473,28 +5897,40 @@
         <v>0.005696757230499561</v>
       </c>
       <c r="C119" t="n">
-        <v>80239014.39359942</v>
+        <v>43985624.69423348</v>
       </c>
       <c r="D119" t="n">
-        <v>80240488.80128914</v>
+        <v>43985191.0571043</v>
       </c>
       <c r="E119" t="n">
-        <v>79197506.92081457</v>
+        <v>42583512.07849634</v>
       </c>
       <c r="F119" t="n">
-        <v>79197427.94143638</v>
+        <v>42583532.55837379</v>
       </c>
       <c r="G119" t="n">
-        <v>5810166.732798411</v>
+        <v>1583035.779974252</v>
       </c>
       <c r="H119" t="n">
-        <v>5807201.453036321</v>
+        <v>1582880.097786328</v>
       </c>
       <c r="I119" t="n">
-        <v>903840.556899808</v>
+        <v>579068.7007636433</v>
       </c>
       <c r="J119" t="n">
-        <v>903839.9693509656</v>
+        <v>579069.0746130999</v>
+      </c>
+      <c r="K119" t="n">
+        <v>43985624.69423348</v>
+      </c>
+      <c r="L119" t="n">
+        <v>42583512.07849634</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1583035.779974252</v>
+      </c>
+      <c r="N119" t="n">
+        <v>579068.7007636433</v>
       </c>
     </row>
     <row r="120">
@@ -4507,28 +5943,40 @@
         <v>0.005745447463238874</v>
       </c>
       <c r="C120" t="n">
-        <v>80311432.66728514</v>
+        <v>43967526.14103937</v>
       </c>
       <c r="D120" t="n">
-        <v>80312444.1535223</v>
+        <v>43967235.63514312</v>
       </c>
       <c r="E120" t="n">
-        <v>79187561.49893227</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F120" t="n">
-        <v>79187482.38386662</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G120" t="n">
-        <v>5735991.082791769</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H120" t="n">
-        <v>5733144.106489099</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I120" t="n">
-        <v>904478.3018555131</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J120" t="n">
-        <v>904477.711148356</v>
+        <v>579267.7832370138</v>
+      </c>
+      <c r="K120" t="n">
+        <v>43967526.14103937</v>
+      </c>
+      <c r="L120" t="n">
+        <v>42597499.32410115</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1565346.345571125</v>
+      </c>
+      <c r="N120" t="n">
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="121">
@@ -4541,28 +5989,40 @@
         <v>0.005794137695978187</v>
       </c>
       <c r="C121" t="n">
-        <v>78540151.99118629</v>
+        <v>44381520.91916738</v>
       </c>
       <c r="D121" t="n">
-        <v>78540877.37664731</v>
+        <v>44381253.25292382</v>
       </c>
       <c r="E121" t="n">
-        <v>79228364.13504937</v>
+        <v>42567769.97303949</v>
       </c>
       <c r="F121" t="n">
-        <v>79228285.09208828</v>
+        <v>42567790.44326751</v>
       </c>
       <c r="G121" t="n">
-        <v>6455716.700137829</v>
+        <v>1650007.385850326</v>
       </c>
       <c r="H121" t="n">
-        <v>6450154.826443993</v>
+        <v>1649921.694799062</v>
       </c>
       <c r="I121" t="n">
-        <v>904363.0600098799</v>
+        <v>579069.8535882158</v>
       </c>
       <c r="J121" t="n">
-        <v>904362.4717898876</v>
+        <v>579070.2278838839</v>
+      </c>
+      <c r="K121" t="n">
+        <v>44381520.91916738</v>
+      </c>
+      <c r="L121" t="n">
+        <v>42567769.97303949</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1650007.385850326</v>
+      </c>
+      <c r="N121" t="n">
+        <v>579069.8535882158</v>
       </c>
     </row>
     <row r="122">
@@ -4575,28 +6035,40 @@
         <v>0.0058428279287175</v>
       </c>
       <c r="C122" t="n">
-        <v>80311432.66728514</v>
+        <v>43967526.14103937</v>
       </c>
       <c r="D122" t="n">
-        <v>80312444.1535223</v>
+        <v>43967235.63514312</v>
       </c>
       <c r="E122" t="n">
-        <v>79187561.49893227</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F122" t="n">
-        <v>79187482.38386662</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G122" t="n">
-        <v>5735991.082791769</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H122" t="n">
-        <v>5733144.106489099</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I122" t="n">
-        <v>904478.3018555131</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J122" t="n">
-        <v>904477.711148356</v>
+        <v>579267.7832370138</v>
+      </c>
+      <c r="K122" t="n">
+        <v>43967526.14103937</v>
+      </c>
+      <c r="L122" t="n">
+        <v>42597499.32410115</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1565346.345571125</v>
+      </c>
+      <c r="N122" t="n">
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="123">
@@ -4609,28 +6081,40 @@
         <v>0.005891518161456812</v>
       </c>
       <c r="C123" t="n">
-        <v>80311432.66728514</v>
+        <v>43967526.14103937</v>
       </c>
       <c r="D123" t="n">
-        <v>80312444.1535223</v>
+        <v>43967235.63514312</v>
       </c>
       <c r="E123" t="n">
-        <v>79187561.49893227</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F123" t="n">
-        <v>79187482.38386662</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G123" t="n">
-        <v>5735991.082791769</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H123" t="n">
-        <v>5733144.106489099</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I123" t="n">
-        <v>904478.3018555131</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J123" t="n">
-        <v>904477.711148356</v>
+        <v>579267.7832370138</v>
+      </c>
+      <c r="K123" t="n">
+        <v>43967526.14103937</v>
+      </c>
+      <c r="L123" t="n">
+        <v>42597499.32410115</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1565346.345571125</v>
+      </c>
+      <c r="N123" t="n">
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="124">
@@ -4643,28 +6127,40 @@
         <v>0.005940208394196124</v>
       </c>
       <c r="C124" t="n">
-        <v>80311432.66728514</v>
+        <v>43967526.14103937</v>
       </c>
       <c r="D124" t="n">
-        <v>80312444.1535223</v>
+        <v>43967235.63514312</v>
       </c>
       <c r="E124" t="n">
-        <v>79187561.49893227</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F124" t="n">
-        <v>79187482.38386662</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G124" t="n">
-        <v>5735991.082791769</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H124" t="n">
-        <v>5733144.106489099</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I124" t="n">
-        <v>904478.3018555131</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J124" t="n">
-        <v>904477.711148356</v>
+        <v>579267.7832370138</v>
+      </c>
+      <c r="K124" t="n">
+        <v>43967526.14103937</v>
+      </c>
+      <c r="L124" t="n">
+        <v>42597499.32410115</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1565346.345571125</v>
+      </c>
+      <c r="N124" t="n">
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="125">
@@ -4677,28 +6173,40 @@
         <v>0.005988898626935437</v>
       </c>
       <c r="C125" t="n">
-        <v>80311432.66728514</v>
+        <v>43967526.14103937</v>
       </c>
       <c r="D125" t="n">
-        <v>80312444.1535223</v>
+        <v>43967235.63514312</v>
       </c>
       <c r="E125" t="n">
-        <v>79187561.49893227</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F125" t="n">
-        <v>79187482.38386662</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G125" t="n">
-        <v>5735991.082791769</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H125" t="n">
-        <v>5733144.106489099</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I125" t="n">
-        <v>904478.3018555131</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J125" t="n">
-        <v>904477.711148356</v>
+        <v>579267.7832370138</v>
+      </c>
+      <c r="K125" t="n">
+        <v>43967526.14103937</v>
+      </c>
+      <c r="L125" t="n">
+        <v>42597499.32410115</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1565346.345571125</v>
+      </c>
+      <c r="N125" t="n">
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="126">
@@ -4711,28 +6219,40 @@
         <v>0.006037588859674749</v>
       </c>
       <c r="C126" t="n">
-        <v>80311432.66728514</v>
+        <v>43967526.14103937</v>
       </c>
       <c r="D126" t="n">
-        <v>80312444.1535223</v>
+        <v>43967235.63514312</v>
       </c>
       <c r="E126" t="n">
-        <v>79187561.49893227</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F126" t="n">
-        <v>79187482.38386662</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G126" t="n">
-        <v>5735991.082791769</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H126" t="n">
-        <v>5733144.106489099</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I126" t="n">
-        <v>904478.3018555131</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J126" t="n">
-        <v>904477.711148356</v>
+        <v>579267.7832370138</v>
+      </c>
+      <c r="K126" t="n">
+        <v>43967526.14103937</v>
+      </c>
+      <c r="L126" t="n">
+        <v>42597499.32410115</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1565346.345571125</v>
+      </c>
+      <c r="N126" t="n">
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="127">
@@ -4745,28 +6265,40 @@
         <v>0.006086279092414062</v>
       </c>
       <c r="C127" t="n">
-        <v>80311432.66728514</v>
+        <v>43967526.14103937</v>
       </c>
       <c r="D127" t="n">
-        <v>80312444.1535223</v>
+        <v>43967235.63514312</v>
       </c>
       <c r="E127" t="n">
-        <v>79187561.49893227</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F127" t="n">
-        <v>79187482.38386662</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G127" t="n">
-        <v>5735991.082791769</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H127" t="n">
-        <v>5733144.106489099</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I127" t="n">
-        <v>904478.3018555131</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J127" t="n">
-        <v>904477.711148356</v>
+        <v>579267.7832370138</v>
+      </c>
+      <c r="K127" t="n">
+        <v>43967526.14103937</v>
+      </c>
+      <c r="L127" t="n">
+        <v>42597499.32410115</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1565346.345571125</v>
+      </c>
+      <c r="N127" t="n">
+        <v>579267.4088453851</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tp5_volumen_area.xlsx
+++ b/resultados_tp5_volumen_area.xlsx
@@ -524,19 +524,19 @@
         <v>503287.4320231423</v>
       </c>
       <c r="F2" t="n">
-        <v>503287.4078594841</v>
+        <v>503287.407859484</v>
       </c>
       <c r="G2" t="n">
-        <v>38303.04457283919</v>
+        <v>38303.04457283532</v>
       </c>
       <c r="H2" t="n">
-        <v>38303.47802883059</v>
+        <v>38303.47802882673</v>
       </c>
       <c r="I2" t="n">
-        <v>37105.28041973845</v>
+        <v>37105.28041973422</v>
       </c>
       <c r="J2" t="n">
-        <v>37105.28122561745</v>
+        <v>37105.28122561323</v>
       </c>
       <c r="K2" t="n">
         <v>492297.5136579699</v>
@@ -545,10 +545,10 @@
         <v>503287.4320231423</v>
       </c>
       <c r="M2" t="n">
-        <v>38303.04457283919</v>
+        <v>38303.04457283532</v>
       </c>
       <c r="N2" t="n">
-        <v>37105.28041973845</v>
+        <v>37105.28041973422</v>
       </c>
     </row>
     <row r="3">
@@ -573,16 +573,16 @@
         <v>2376332.34340198</v>
       </c>
       <c r="G3" t="n">
-        <v>87211.59827992356</v>
+        <v>87211.5982799167</v>
       </c>
       <c r="H3" t="n">
-        <v>87214.95763914777</v>
+        <v>87214.95763914091</v>
       </c>
       <c r="I3" t="n">
-        <v>89787.29680741997</v>
+        <v>89787.29680741183</v>
       </c>
       <c r="J3" t="n">
-        <v>89787.28271197189</v>
+        <v>89787.28271196375</v>
       </c>
       <c r="K3" t="n">
         <v>2359886.158158994</v>
@@ -591,10 +591,10 @@
         <v>2376332.708636954</v>
       </c>
       <c r="M3" t="n">
-        <v>87211.59827992356</v>
+        <v>87211.5982799167</v>
       </c>
       <c r="N3" t="n">
-        <v>89787.29680741997</v>
+        <v>89787.29680741183</v>
       </c>
     </row>
     <row r="4">
@@ -613,34 +613,34 @@
         <v>3833527.702237455</v>
       </c>
       <c r="E4" t="n">
-        <v>3848613.763209696</v>
+        <v>3848613.763209693</v>
       </c>
       <c r="F4" t="n">
-        <v>3848613.152153906</v>
+        <v>3848613.152153904</v>
       </c>
       <c r="G4" t="n">
-        <v>105741.5650222041</v>
+        <v>105741.5650222027</v>
       </c>
       <c r="H4" t="n">
-        <v>105743.9310690065</v>
+        <v>105743.9310690051</v>
       </c>
       <c r="I4" t="n">
-        <v>105721.4371069331</v>
+        <v>105721.4371069311</v>
       </c>
       <c r="J4" t="n">
-        <v>105721.465657065</v>
+        <v>105721.4656570629</v>
       </c>
       <c r="K4" t="n">
         <v>3833527.756547619</v>
       </c>
       <c r="L4" t="n">
-        <v>3848613.763209696</v>
+        <v>3848613.763209693</v>
       </c>
       <c r="M4" t="n">
-        <v>105741.5650222041</v>
+        <v>105741.5650222027</v>
       </c>
       <c r="N4" t="n">
-        <v>105721.4371069331</v>
+        <v>105721.4371069311</v>
       </c>
     </row>
     <row r="5">
@@ -659,34 +659,34 @@
         <v>7590311.784123691</v>
       </c>
       <c r="E5" t="n">
-        <v>7602531.553141545</v>
+        <v>7602531.553141538</v>
       </c>
       <c r="F5" t="n">
-        <v>7602530.453239582</v>
+        <v>7602530.453239577</v>
       </c>
       <c r="G5" t="n">
-        <v>160021.4029501793</v>
+        <v>160021.4029501789</v>
       </c>
       <c r="H5" t="n">
-        <v>160031.6074823454</v>
+        <v>160031.6074823451</v>
       </c>
       <c r="I5" t="n">
-        <v>159954.3252220374</v>
+        <v>159954.3252220366</v>
       </c>
       <c r="J5" t="n">
-        <v>159954.3494507732</v>
+        <v>159954.3494507725</v>
       </c>
       <c r="K5" t="n">
         <v>7590312.215988101</v>
       </c>
       <c r="L5" t="n">
-        <v>7602531.553141545</v>
+        <v>7602531.553141538</v>
       </c>
       <c r="M5" t="n">
-        <v>160021.4029501793</v>
+        <v>160021.4029501789</v>
       </c>
       <c r="N5" t="n">
-        <v>159954.3252220374</v>
+        <v>159954.3252220366</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>11266455.073326</v>
       </c>
       <c r="E6" t="n">
-        <v>11224881.5848181</v>
+        <v>11224881.58481811</v>
       </c>
       <c r="F6" t="n">
-        <v>11224880.53635154</v>
+        <v>11224880.53635155</v>
       </c>
       <c r="G6" t="n">
-        <v>204761.7537812592</v>
+        <v>204761.7537812527</v>
       </c>
       <c r="H6" t="n">
-        <v>204782.7560837176</v>
+        <v>204782.7560837112</v>
       </c>
       <c r="I6" t="n">
-        <v>198679.7776864747</v>
+        <v>198679.7776864662</v>
       </c>
       <c r="J6" t="n">
-        <v>198679.8162659497</v>
+        <v>198679.8162659412</v>
       </c>
       <c r="K6" t="n">
         <v>11266455.87013693</v>
       </c>
       <c r="L6" t="n">
-        <v>11224881.5848181</v>
+        <v>11224881.58481811</v>
       </c>
       <c r="M6" t="n">
-        <v>204761.7537812592</v>
+        <v>204761.7537812527</v>
       </c>
       <c r="N6" t="n">
-        <v>198679.7776864747</v>
+        <v>198679.7776864662</v>
       </c>
     </row>
     <row r="7">
@@ -757,16 +757,16 @@
         <v>12688150.48382118</v>
       </c>
       <c r="G7" t="n">
-        <v>221226.3884593915</v>
+        <v>221226.3884593834</v>
       </c>
       <c r="H7" t="n">
-        <v>221237.3576372795</v>
+        <v>221237.3576372714</v>
       </c>
       <c r="I7" t="n">
-        <v>211224.6608686677</v>
+        <v>211224.6608686564</v>
       </c>
       <c r="J7" t="n">
-        <v>211224.7589333843</v>
+        <v>211224.758933373</v>
       </c>
       <c r="K7" t="n">
         <v>12728798.64204014</v>
@@ -775,10 +775,10 @@
         <v>12688151.2150554</v>
       </c>
       <c r="M7" t="n">
-        <v>221226.3884593915</v>
+        <v>221226.3884593834</v>
       </c>
       <c r="N7" t="n">
-        <v>211224.6608686677</v>
+        <v>211224.6608686564</v>
       </c>
     </row>
     <row r="8">
@@ -797,34 +797,34 @@
         <v>17990687.68353703</v>
       </c>
       <c r="E8" t="n">
-        <v>17961184.12210862</v>
+        <v>17961184.12210865</v>
       </c>
       <c r="F8" t="n">
-        <v>17961184.4426134</v>
+        <v>17961184.44261342</v>
       </c>
       <c r="G8" t="n">
-        <v>280968.9257451741</v>
+        <v>280968.9257451746</v>
       </c>
       <c r="H8" t="n">
-        <v>281013.5476367886</v>
+        <v>281013.5476367891</v>
       </c>
       <c r="I8" t="n">
-        <v>265528.9890602645</v>
+        <v>265528.9890602651</v>
       </c>
       <c r="J8" t="n">
-        <v>265529.111307901</v>
+        <v>265529.1113079016</v>
       </c>
       <c r="K8" t="n">
         <v>17990692.23022898</v>
       </c>
       <c r="L8" t="n">
-        <v>17961184.12210862</v>
+        <v>17961184.12210865</v>
       </c>
       <c r="M8" t="n">
-        <v>280968.9257451741</v>
+        <v>280968.9257451746</v>
       </c>
       <c r="N8" t="n">
-        <v>265528.9890602645</v>
+        <v>265528.9890602651</v>
       </c>
     </row>
     <row r="9">
@@ -843,34 +843,34 @@
         <v>16942924.52214241</v>
       </c>
       <c r="E9" t="n">
-        <v>16969999.06095944</v>
+        <v>16969999.06095945</v>
       </c>
       <c r="F9" t="n">
-        <v>16970001.02811865</v>
+        <v>16970001.02811866</v>
       </c>
       <c r="G9" t="n">
-        <v>281666.0834419585</v>
+        <v>281666.0834419566</v>
       </c>
       <c r="H9" t="n">
-        <v>281681.8407315742</v>
+        <v>281681.8407315722</v>
       </c>
       <c r="I9" t="n">
-        <v>263296.779705507</v>
+        <v>263296.7797055046</v>
       </c>
       <c r="J9" t="n">
-        <v>263296.9735382549</v>
+        <v>263296.9735382525</v>
       </c>
       <c r="K9" t="n">
         <v>16942924.10742117</v>
       </c>
       <c r="L9" t="n">
-        <v>16969999.06095944</v>
+        <v>16969999.06095945</v>
       </c>
       <c r="M9" t="n">
-        <v>281666.0834419585</v>
+        <v>281666.0834419566</v>
       </c>
       <c r="N9" t="n">
-        <v>263296.779705507</v>
+        <v>263296.7797055046</v>
       </c>
     </row>
     <row r="10">
@@ -889,34 +889,34 @@
         <v>21846572.78057611</v>
       </c>
       <c r="E10" t="n">
-        <v>21926426.56017384</v>
+        <v>21926426.56017383</v>
       </c>
       <c r="F10" t="n">
         <v>21926431.95549987</v>
       </c>
       <c r="G10" t="n">
-        <v>344390.3839427828</v>
+        <v>344390.3839427837</v>
       </c>
       <c r="H10" t="n">
-        <v>344466.8848461584</v>
+        <v>344466.8848461593</v>
       </c>
       <c r="I10" t="n">
-        <v>322848.4346523334</v>
+        <v>322848.4346523343</v>
       </c>
       <c r="J10" t="n">
-        <v>322848.6744981587</v>
+        <v>322848.6744981595</v>
       </c>
       <c r="K10" t="n">
         <v>21846571.65720686</v>
       </c>
       <c r="L10" t="n">
-        <v>21926426.56017384</v>
+        <v>21926426.56017383</v>
       </c>
       <c r="M10" t="n">
-        <v>344390.3839427828</v>
+        <v>344390.3839427837</v>
       </c>
       <c r="N10" t="n">
-        <v>322848.4346523334</v>
+        <v>322848.4346523343</v>
       </c>
     </row>
     <row r="11">
@@ -941,16 +941,16 @@
         <v>18653097.64179066</v>
       </c>
       <c r="G11" t="n">
-        <v>337722.074450405</v>
+        <v>337722.0744504059</v>
       </c>
       <c r="H11" t="n">
-        <v>337735.1729408338</v>
+        <v>337735.1729408346</v>
       </c>
       <c r="I11" t="n">
-        <v>321949.4303149442</v>
+        <v>321949.4303149451</v>
       </c>
       <c r="J11" t="n">
-        <v>321949.7069237308</v>
+        <v>321949.7069237316</v>
       </c>
       <c r="K11" t="n">
         <v>18441885.16186064</v>
@@ -959,10 +959,10 @@
         <v>18653090.3042887</v>
       </c>
       <c r="M11" t="n">
-        <v>337722.074450405</v>
+        <v>337722.0744504059</v>
       </c>
       <c r="N11" t="n">
-        <v>321949.4303149442</v>
+        <v>321949.4303149451</v>
       </c>
     </row>
     <row r="12">
@@ -981,34 +981,34 @@
         <v>22778587.71463401</v>
       </c>
       <c r="E12" t="n">
-        <v>23104013.8045292</v>
+        <v>23104013.80452915</v>
       </c>
       <c r="F12" t="n">
-        <v>23104023.41336621</v>
+        <v>23104023.41336616</v>
       </c>
       <c r="G12" t="n">
-        <v>411662.3881852344</v>
+        <v>411662.3881852357</v>
       </c>
       <c r="H12" t="n">
-        <v>411638.9614178095</v>
+        <v>411638.9614178106</v>
       </c>
       <c r="I12" t="n">
-        <v>384767.3828066668</v>
+        <v>384767.3828066674</v>
       </c>
       <c r="J12" t="n">
-        <v>384767.7375946963</v>
+        <v>384767.7375946969</v>
       </c>
       <c r="K12" t="n">
         <v>22778625.88226892</v>
       </c>
       <c r="L12" t="n">
-        <v>23104013.8045292</v>
+        <v>23104013.80452915</v>
       </c>
       <c r="M12" t="n">
-        <v>411662.3881852344</v>
+        <v>411662.3881852357</v>
       </c>
       <c r="N12" t="n">
-        <v>384767.3828066668</v>
+        <v>384767.3828066674</v>
       </c>
     </row>
     <row r="13">
@@ -1027,34 +1027,34 @@
         <v>19411569.36090456</v>
       </c>
       <c r="E13" t="n">
-        <v>19732849.71900065</v>
+        <v>19732849.71900064</v>
       </c>
       <c r="F13" t="n">
-        <v>19732857.14934798</v>
+        <v>19732857.14934797</v>
       </c>
       <c r="G13" t="n">
-        <v>365386.6172387435</v>
+        <v>365386.6172387444</v>
       </c>
       <c r="H13" t="n">
-        <v>365378.3811117092</v>
+        <v>365378.38111171</v>
       </c>
       <c r="I13" t="n">
-        <v>349051.7560588872</v>
+        <v>349051.7560588879</v>
       </c>
       <c r="J13" t="n">
-        <v>349052.1132693981</v>
+        <v>349052.1132693988</v>
       </c>
       <c r="K13" t="n">
         <v>19411552.62435886</v>
       </c>
       <c r="L13" t="n">
-        <v>19732849.71900065</v>
+        <v>19732849.71900064</v>
       </c>
       <c r="M13" t="n">
-        <v>365386.6172387435</v>
+        <v>365386.6172387444</v>
       </c>
       <c r="N13" t="n">
-        <v>349051.7560588872</v>
+        <v>349051.7560588879</v>
       </c>
     </row>
     <row r="14">
@@ -1073,34 +1073,34 @@
         <v>23917902.80147172</v>
       </c>
       <c r="E14" t="n">
-        <v>24208176.4832532</v>
+        <v>24208176.48325319</v>
       </c>
       <c r="F14" t="n">
         <v>24208186.65888144</v>
       </c>
       <c r="G14" t="n">
-        <v>428245.8992963346</v>
+        <v>428245.8992963359</v>
       </c>
       <c r="H14" t="n">
-        <v>428196.4415156014</v>
+        <v>428196.4415156027</v>
       </c>
       <c r="I14" t="n">
-        <v>396857.4802810937</v>
+        <v>396857.4802810946</v>
       </c>
       <c r="J14" t="n">
-        <v>396857.841884932</v>
+        <v>396857.8418849329</v>
       </c>
       <c r="K14" t="n">
         <v>23917964.46862214</v>
       </c>
       <c r="L14" t="n">
-        <v>24208176.4832532</v>
+        <v>24208176.48325319</v>
       </c>
       <c r="M14" t="n">
-        <v>428245.8992963346</v>
+        <v>428245.8992963359</v>
       </c>
       <c r="N14" t="n">
-        <v>396857.4802810937</v>
+        <v>396857.4802810946</v>
       </c>
     </row>
     <row r="15">
@@ -1119,34 +1119,34 @@
         <v>19212523.72884444</v>
       </c>
       <c r="E15" t="n">
-        <v>19501164.27736562</v>
+        <v>19501164.27736566</v>
       </c>
       <c r="F15" t="n">
-        <v>19501171.62035046</v>
+        <v>19501171.62035051</v>
       </c>
       <c r="G15" t="n">
-        <v>363766.4262644431</v>
+        <v>363766.4262644441</v>
       </c>
       <c r="H15" t="n">
-        <v>363758.3116922364</v>
+        <v>363758.3116922374</v>
       </c>
       <c r="I15" t="n">
-        <v>346163.4346194614</v>
+        <v>346163.4346194628</v>
       </c>
       <c r="J15" t="n">
-        <v>346163.7882173444</v>
+        <v>346163.7882173457</v>
       </c>
       <c r="K15" t="n">
         <v>19212508.96889826</v>
       </c>
       <c r="L15" t="n">
-        <v>19501164.27736562</v>
+        <v>19501164.27736566</v>
       </c>
       <c r="M15" t="n">
-        <v>363766.4262644431</v>
+        <v>363766.4262644441</v>
       </c>
       <c r="N15" t="n">
-        <v>346163.4346194614</v>
+        <v>346163.4346194628</v>
       </c>
     </row>
     <row r="16">
@@ -1165,34 +1165,34 @@
         <v>23646488.85973246</v>
       </c>
       <c r="E16" t="n">
-        <v>23899109.98302747</v>
+        <v>23899109.98302744</v>
       </c>
       <c r="F16" t="n">
-        <v>23899120.01993081</v>
+        <v>23899120.01993079</v>
       </c>
       <c r="G16" t="n">
-        <v>426330.0283393799</v>
+        <v>426330.0283393813</v>
       </c>
       <c r="H16" t="n">
-        <v>426281.2055555923</v>
+        <v>426281.2055555937</v>
       </c>
       <c r="I16" t="n">
-        <v>393281.5605685671</v>
+        <v>393281.5605685679</v>
       </c>
       <c r="J16" t="n">
-        <v>393281.918744781</v>
+        <v>393281.9187447818</v>
       </c>
       <c r="K16" t="n">
         <v>23646553.78608629</v>
       </c>
       <c r="L16" t="n">
-        <v>23899109.98302747</v>
+        <v>23899109.98302744</v>
       </c>
       <c r="M16" t="n">
-        <v>426330.0283393799</v>
+        <v>426330.0283393813</v>
       </c>
       <c r="N16" t="n">
-        <v>393281.5605685671</v>
+        <v>393281.5605685679</v>
       </c>
     </row>
     <row r="17">
@@ -1217,16 +1217,16 @@
         <v>20465231.12803015</v>
       </c>
       <c r="G17" t="n">
-        <v>374564.5962198943</v>
+        <v>374564.5962198953</v>
       </c>
       <c r="H17" t="n">
-        <v>374554.3843271765</v>
+        <v>374554.3843271775</v>
       </c>
       <c r="I17" t="n">
-        <v>357013.4717258833</v>
+        <v>357013.4717258842</v>
       </c>
       <c r="J17" t="n">
-        <v>357013.8292805848</v>
+        <v>357013.8292805857</v>
       </c>
       <c r="K17" t="n">
         <v>20186207.65331377</v>
@@ -1235,10 +1235,10 @@
         <v>20465223.23535335</v>
       </c>
       <c r="M17" t="n">
-        <v>374564.5962198943</v>
+        <v>374564.5962198953</v>
       </c>
       <c r="N17" t="n">
-        <v>357013.4717258833</v>
+        <v>357013.4717258842</v>
       </c>
     </row>
     <row r="18">
@@ -1257,34 +1257,34 @@
         <v>24703991.99808469</v>
       </c>
       <c r="E18" t="n">
-        <v>24885754.43753463</v>
+        <v>24885754.43753464</v>
       </c>
       <c r="F18" t="n">
         <v>24885764.99892138</v>
       </c>
       <c r="G18" t="n">
-        <v>428701.8984699955</v>
+        <v>428701.8984699967</v>
       </c>
       <c r="H18" t="n">
-        <v>428567.5393562119</v>
+        <v>428567.5393562131</v>
       </c>
       <c r="I18" t="n">
-        <v>403768.2664463024</v>
+        <v>403768.2664463035</v>
       </c>
       <c r="J18" t="n">
-        <v>403768.6291471067</v>
+        <v>403768.6291471077</v>
       </c>
       <c r="K18" t="n">
         <v>24704005.35057724</v>
       </c>
       <c r="L18" t="n">
-        <v>24885754.43753463</v>
+        <v>24885754.43753464</v>
       </c>
       <c r="M18" t="n">
-        <v>428701.8984699955</v>
+        <v>428701.8984699967</v>
       </c>
       <c r="N18" t="n">
-        <v>403768.2664463024</v>
+        <v>403768.2664463035</v>
       </c>
     </row>
     <row r="19">
@@ -1303,34 +1303,34 @@
         <v>40563523.37699713</v>
       </c>
       <c r="E19" t="n">
-        <v>39502449.82897941</v>
+        <v>39502449.82897942</v>
       </c>
       <c r="F19" t="n">
-        <v>39502468.15979913</v>
+        <v>39502468.15979914</v>
       </c>
       <c r="G19" t="n">
-        <v>1204584.399849204</v>
+        <v>1204584.399849207</v>
       </c>
       <c r="H19" t="n">
-        <v>1204823.382202351</v>
+        <v>1204823.382202354</v>
       </c>
       <c r="I19" t="n">
-        <v>539991.2416213455</v>
+        <v>539991.2416213468</v>
       </c>
       <c r="J19" t="n">
-        <v>539991.6206153436</v>
+        <v>539991.6206153446</v>
       </c>
       <c r="K19" t="n">
         <v>40563130.33104864</v>
       </c>
       <c r="L19" t="n">
-        <v>39502449.82897941</v>
+        <v>39502449.82897942</v>
       </c>
       <c r="M19" t="n">
-        <v>1204584.399849204</v>
+        <v>1204584.399849207</v>
       </c>
       <c r="N19" t="n">
-        <v>539991.2416213455</v>
+        <v>539991.2416213468</v>
       </c>
     </row>
     <row r="20">
@@ -1349,34 +1349,34 @@
         <v>51982241.79267082</v>
       </c>
       <c r="E20" t="n">
-        <v>49864939.32350727</v>
+        <v>49864939.32350731</v>
       </c>
       <c r="F20" t="n">
-        <v>49864964.39023633</v>
+        <v>49864964.39023639</v>
       </c>
       <c r="G20" t="n">
-        <v>2633400.697886097</v>
+        <v>2633400.697886103</v>
       </c>
       <c r="H20" t="n">
-        <v>2632373.289227723</v>
+        <v>2632373.289227729</v>
       </c>
       <c r="I20" t="n">
-        <v>692291.9317916699</v>
+        <v>692291.9317916729</v>
       </c>
       <c r="J20" t="n">
-        <v>692292.4242517807</v>
+        <v>692292.4242517838</v>
       </c>
       <c r="K20" t="n">
         <v>51981921.91462477</v>
       </c>
       <c r="L20" t="n">
-        <v>49864939.32350727</v>
+        <v>49864939.32350731</v>
       </c>
       <c r="M20" t="n">
-        <v>2633400.697886097</v>
+        <v>2633400.697886103</v>
       </c>
       <c r="N20" t="n">
-        <v>692291.9317916699</v>
+        <v>692291.9317916729</v>
       </c>
     </row>
     <row r="21">
@@ -1395,34 +1395,34 @@
         <v>51000253.68862828</v>
       </c>
       <c r="E21" t="n">
-        <v>45312485.8085988</v>
+        <v>45312485.80859876</v>
       </c>
       <c r="F21" t="n">
-        <v>45312503.74121717</v>
+        <v>45312503.74121714</v>
       </c>
       <c r="G21" t="n">
-        <v>6741062.467714562</v>
+        <v>6741062.467714577</v>
       </c>
       <c r="H21" t="n">
-        <v>6743042.027020999</v>
+        <v>6743042.027021015</v>
       </c>
       <c r="I21" t="n">
-        <v>673488.6798081349</v>
+        <v>673488.6798081418</v>
       </c>
       <c r="J21" t="n">
-        <v>673488.084785618</v>
+        <v>673488.0847856248</v>
       </c>
       <c r="K21" t="n">
         <v>51000771.73565149</v>
       </c>
       <c r="L21" t="n">
-        <v>45312485.8085988</v>
+        <v>45312485.80859876</v>
       </c>
       <c r="M21" t="n">
-        <v>6741062.467714562</v>
+        <v>6741062.467714577</v>
       </c>
       <c r="N21" t="n">
-        <v>673488.6798081349</v>
+        <v>673488.6798081418</v>
       </c>
     </row>
     <row r="22">
@@ -1441,34 +1441,34 @@
         <v>53752933.9048178</v>
       </c>
       <c r="E22" t="n">
-        <v>48538438.06947874</v>
+        <v>48538438.06947877</v>
       </c>
       <c r="F22" t="n">
         <v>48538457.6760857</v>
       </c>
       <c r="G22" t="n">
-        <v>5701219.657360424</v>
+        <v>5701219.65736044</v>
       </c>
       <c r="H22" t="n">
-        <v>5703115.656732007</v>
+        <v>5703115.656732023</v>
       </c>
       <c r="I22" t="n">
-        <v>801628.5264033611</v>
+        <v>801628.5264033722</v>
       </c>
       <c r="J22" t="n">
-        <v>801627.9796240183</v>
+        <v>801627.9796240296</v>
       </c>
       <c r="K22" t="n">
         <v>53752757.94377105</v>
       </c>
       <c r="L22" t="n">
-        <v>48538438.06947874</v>
+        <v>48538438.06947877</v>
       </c>
       <c r="M22" t="n">
-        <v>5701219.657360424</v>
+        <v>5701219.65736044</v>
       </c>
       <c r="N22" t="n">
-        <v>801628.5264033611</v>
+        <v>801628.5264033722</v>
       </c>
     </row>
     <row r="23">
@@ -1487,34 +1487,34 @@
         <v>54661017.06977923</v>
       </c>
       <c r="E23" t="n">
-        <v>50724608.52889128</v>
+        <v>50724608.5288913</v>
       </c>
       <c r="F23" t="n">
-        <v>50724630.664244</v>
+        <v>50724630.66424401</v>
       </c>
       <c r="G23" t="n">
-        <v>3603401.095275711</v>
+        <v>3603401.09527572</v>
       </c>
       <c r="H23" t="n">
-        <v>3605877.493475395</v>
+        <v>3605877.493475402</v>
       </c>
       <c r="I23" t="n">
-        <v>956570.917669293</v>
+        <v>956570.9176693088</v>
       </c>
       <c r="J23" t="n">
-        <v>956571.76819769</v>
+        <v>956571.7681977056</v>
       </c>
       <c r="K23" t="n">
         <v>54661239.27230757</v>
       </c>
       <c r="L23" t="n">
-        <v>50724608.52889128</v>
+        <v>50724608.5288913</v>
       </c>
       <c r="M23" t="n">
-        <v>3603401.095275711</v>
+        <v>3603401.09527572</v>
       </c>
       <c r="N23" t="n">
-        <v>956570.917669293</v>
+        <v>956570.9176693088</v>
       </c>
     </row>
     <row r="24">
@@ -1533,34 +1533,34 @@
         <v>55821007.03294415</v>
       </c>
       <c r="E24" t="n">
-        <v>50623143.7151313</v>
+        <v>50623143.71513128</v>
       </c>
       <c r="F24" t="n">
-        <v>50623167.17717952</v>
+        <v>50623167.1771795</v>
       </c>
       <c r="G24" t="n">
-        <v>2985629.234229142</v>
+        <v>2985629.234229154</v>
       </c>
       <c r="H24" t="n">
-        <v>2985902.026485874</v>
+        <v>2985902.026485885</v>
       </c>
       <c r="I24" t="n">
-        <v>916634.9844938349</v>
+        <v>916634.9844938434</v>
       </c>
       <c r="J24" t="n">
-        <v>916635.9224675701</v>
+        <v>916635.9224675782</v>
       </c>
       <c r="K24" t="n">
         <v>55821289.26633023</v>
       </c>
       <c r="L24" t="n">
-        <v>50623143.7151313</v>
+        <v>50623143.71513128</v>
       </c>
       <c r="M24" t="n">
-        <v>2985629.234229142</v>
+        <v>2985629.234229154</v>
       </c>
       <c r="N24" t="n">
-        <v>916634.9844938349</v>
+        <v>916634.9844938434</v>
       </c>
     </row>
     <row r="25">
@@ -1579,34 +1579,34 @@
         <v>53853278.1315482</v>
       </c>
       <c r="E25" t="n">
-        <v>50010341.15695336</v>
+        <v>50010341.15695335</v>
       </c>
       <c r="F25" t="n">
-        <v>50010366.12648134</v>
+        <v>50010366.12648132</v>
       </c>
       <c r="G25" t="n">
-        <v>3015461.471549559</v>
+        <v>3015461.471549565</v>
       </c>
       <c r="H25" t="n">
-        <v>3013905.062173313</v>
+        <v>3013905.062173319</v>
       </c>
       <c r="I25" t="n">
-        <v>809765.4205743566</v>
+        <v>809765.4205743653</v>
       </c>
       <c r="J25" t="n">
-        <v>809765.9287237918</v>
+        <v>809765.9287238006</v>
       </c>
       <c r="K25" t="n">
         <v>53853331.20009986</v>
       </c>
       <c r="L25" t="n">
-        <v>50010341.15695336</v>
+        <v>50010341.15695335</v>
       </c>
       <c r="M25" t="n">
-        <v>3015461.471549559</v>
+        <v>3015461.471549565</v>
       </c>
       <c r="N25" t="n">
-        <v>809765.4205743566</v>
+        <v>809765.4205743653</v>
       </c>
     </row>
     <row r="26">
@@ -1628,19 +1628,19 @@
         <v>51254214.90789097</v>
       </c>
       <c r="F26" t="n">
-        <v>51254238.13547318</v>
+        <v>51254238.13547319</v>
       </c>
       <c r="G26" t="n">
-        <v>4422472.700561635</v>
+        <v>4422472.700561645</v>
       </c>
       <c r="H26" t="n">
-        <v>4421250.614945562</v>
+        <v>4421250.614945572</v>
       </c>
       <c r="I26" t="n">
-        <v>847488.2752211514</v>
+        <v>847488.2752211546</v>
       </c>
       <c r="J26" t="n">
-        <v>847488.8504928359</v>
+        <v>847488.850492839</v>
       </c>
       <c r="K26" t="n">
         <v>54305005.28166888</v>
@@ -1649,10 +1649,10 @@
         <v>51254214.90789097</v>
       </c>
       <c r="M26" t="n">
-        <v>4422472.700561635</v>
+        <v>4422472.700561645</v>
       </c>
       <c r="N26" t="n">
-        <v>847488.2752211514</v>
+        <v>847488.2752211546</v>
       </c>
     </row>
     <row r="27">
@@ -1671,34 +1671,34 @@
         <v>54354568.97183216</v>
       </c>
       <c r="E27" t="n">
-        <v>50284196.13538072</v>
+        <v>50284196.13538073</v>
       </c>
       <c r="F27" t="n">
-        <v>50284218.53635405</v>
+        <v>50284218.53635406</v>
       </c>
       <c r="G27" t="n">
-        <v>3950077.626809615</v>
+        <v>3950077.626809631</v>
       </c>
       <c r="H27" t="n">
-        <v>3949640.285340018</v>
+        <v>3949640.285340033</v>
       </c>
       <c r="I27" t="n">
-        <v>811955.9822262549</v>
+        <v>811955.9822262684</v>
       </c>
       <c r="J27" t="n">
-        <v>811956.4839468029</v>
+        <v>811956.4839468164</v>
       </c>
       <c r="K27" t="n">
         <v>54354695.42187958</v>
       </c>
       <c r="L27" t="n">
-        <v>50284196.13538072</v>
+        <v>50284196.13538073</v>
       </c>
       <c r="M27" t="n">
-        <v>3950077.626809615</v>
+        <v>3950077.626809631</v>
       </c>
       <c r="N27" t="n">
-        <v>811955.9822262549</v>
+        <v>811955.9822262684</v>
       </c>
     </row>
     <row r="28">
@@ -1717,34 +1717,34 @@
         <v>53690828.78747623</v>
       </c>
       <c r="E28" t="n">
-        <v>48563080.24776411</v>
+        <v>48563080.24776408</v>
       </c>
       <c r="F28" t="n">
-        <v>48563103.53348703</v>
+        <v>48563103.533487</v>
       </c>
       <c r="G28" t="n">
-        <v>3896863.345345382</v>
+        <v>3896863.345345392</v>
       </c>
       <c r="H28" t="n">
-        <v>3892205.435118752</v>
+        <v>3892205.43511876</v>
       </c>
       <c r="I28" t="n">
-        <v>725473.4058811772</v>
+        <v>725473.4058811876</v>
       </c>
       <c r="J28" t="n">
-        <v>725473.6804404631</v>
+        <v>725473.6804404737</v>
       </c>
       <c r="K28" t="n">
         <v>53690153.28884237</v>
       </c>
       <c r="L28" t="n">
-        <v>48563080.24776411</v>
+        <v>48563080.24776408</v>
       </c>
       <c r="M28" t="n">
-        <v>3896863.345345382</v>
+        <v>3896863.345345392</v>
       </c>
       <c r="N28" t="n">
-        <v>725473.4058811772</v>
+        <v>725473.4058811876</v>
       </c>
     </row>
     <row r="29">
@@ -1763,34 +1763,34 @@
         <v>52330761.92859191</v>
       </c>
       <c r="E29" t="n">
-        <v>49663431.84687961</v>
+        <v>49663431.84687956</v>
       </c>
       <c r="F29" t="n">
-        <v>49663457.11944914</v>
+        <v>49663457.11944909</v>
       </c>
       <c r="G29" t="n">
-        <v>3508973.10640517</v>
+        <v>3508973.106405178</v>
       </c>
       <c r="H29" t="n">
-        <v>3515760.769883297</v>
+        <v>3515760.769883306</v>
       </c>
       <c r="I29" t="n">
-        <v>685978.4917166247</v>
+        <v>685978.4917166275</v>
       </c>
       <c r="J29" t="n">
-        <v>685978.8753145359</v>
+        <v>685978.8753145388</v>
       </c>
       <c r="K29" t="n">
         <v>52331062.48852834</v>
       </c>
       <c r="L29" t="n">
-        <v>49663431.84687961</v>
+        <v>49663431.84687956</v>
       </c>
       <c r="M29" t="n">
-        <v>3508973.10640517</v>
+        <v>3508973.106405178</v>
       </c>
       <c r="N29" t="n">
-        <v>685978.4917166247</v>
+        <v>685978.4917166275</v>
       </c>
     </row>
     <row r="30">
@@ -1809,34 +1809,34 @@
         <v>47885128.559545</v>
       </c>
       <c r="E30" t="n">
-        <v>46475149.20868307</v>
+        <v>46475149.20868313</v>
       </c>
       <c r="F30" t="n">
-        <v>46475172.531524</v>
+        <v>46475172.53152405</v>
       </c>
       <c r="G30" t="n">
-        <v>2101924.802006396</v>
+        <v>2101924.802006403</v>
       </c>
       <c r="H30" t="n">
-        <v>2099082.245053947</v>
+        <v>2099082.245053953</v>
       </c>
       <c r="I30" t="n">
-        <v>634826.570359234</v>
+        <v>634826.5703592361</v>
       </c>
       <c r="J30" t="n">
-        <v>634826.945198498</v>
+        <v>634826.9451984999</v>
       </c>
       <c r="K30" t="n">
         <v>47885154.53063169</v>
       </c>
       <c r="L30" t="n">
-        <v>46475149.20868307</v>
+        <v>46475149.20868313</v>
       </c>
       <c r="M30" t="n">
-        <v>2101924.802006396</v>
+        <v>2101924.802006403</v>
       </c>
       <c r="N30" t="n">
-        <v>634826.570359234</v>
+        <v>634826.5703592361</v>
       </c>
     </row>
     <row r="31">
@@ -1855,34 +1855,34 @@
         <v>43372519.76300333</v>
       </c>
       <c r="E31" t="n">
-        <v>42101084.80939717</v>
+        <v>42101084.80939719</v>
       </c>
       <c r="F31" t="n">
-        <v>42101104.7764674</v>
+        <v>42101104.77646741</v>
       </c>
       <c r="G31" t="n">
-        <v>1311801.731634278</v>
+        <v>1311801.731634283</v>
       </c>
       <c r="H31" t="n">
-        <v>1313400.686320286</v>
+        <v>1313400.68632029</v>
       </c>
       <c r="I31" t="n">
-        <v>586732.9978565974</v>
+        <v>586732.9978566003</v>
       </c>
       <c r="J31" t="n">
-        <v>586733.4109585824</v>
+        <v>586733.4109585853</v>
       </c>
       <c r="K31" t="n">
         <v>43372873.34851753</v>
       </c>
       <c r="L31" t="n">
-        <v>42101084.80939717</v>
+        <v>42101084.80939719</v>
       </c>
       <c r="M31" t="n">
-        <v>1311801.731634278</v>
+        <v>1311801.731634283</v>
       </c>
       <c r="N31" t="n">
-        <v>586732.9978565974</v>
+        <v>586732.9978566003</v>
       </c>
     </row>
     <row r="32">
@@ -1904,19 +1904,19 @@
         <v>39571855.25231799</v>
       </c>
       <c r="F32" t="n">
-        <v>39571872.30583309</v>
+        <v>39571872.3058331</v>
       </c>
       <c r="G32" t="n">
-        <v>934782.5892315275</v>
+        <v>934782.5892315307</v>
       </c>
       <c r="H32" t="n">
-        <v>935459.9316449007</v>
+        <v>935459.9316449037</v>
       </c>
       <c r="I32" t="n">
-        <v>537406.386979532</v>
+        <v>537406.3869795338</v>
       </c>
       <c r="J32" t="n">
-        <v>537406.7870973954</v>
+        <v>537406.7870973971</v>
       </c>
       <c r="K32" t="n">
         <v>39849559.75156708</v>
@@ -1925,10 +1925,10 @@
         <v>39571855.25231799</v>
       </c>
       <c r="M32" t="n">
-        <v>934782.5892315275</v>
+        <v>934782.5892315307</v>
       </c>
       <c r="N32" t="n">
-        <v>537406.386979532</v>
+        <v>537406.3869795338</v>
       </c>
     </row>
     <row r="33">
@@ -1947,34 +1947,34 @@
         <v>36016263.45636921</v>
       </c>
       <c r="E33" t="n">
-        <v>35971003.8657546</v>
+        <v>35971003.86575462</v>
       </c>
       <c r="F33" t="n">
-        <v>35971019.89174481</v>
+        <v>35971019.89174482</v>
       </c>
       <c r="G33" t="n">
-        <v>845071.6384451265</v>
+        <v>845071.6384451292</v>
       </c>
       <c r="H33" t="n">
-        <v>845718.3122610874</v>
+        <v>845718.3122610901</v>
       </c>
       <c r="I33" t="n">
-        <v>517698.5871454674</v>
+        <v>517698.5871454694</v>
       </c>
       <c r="J33" t="n">
-        <v>517699.0041152029</v>
+        <v>517699.0041152049</v>
       </c>
       <c r="K33" t="n">
         <v>36016323.82610425</v>
       </c>
       <c r="L33" t="n">
-        <v>35971003.8657546</v>
+        <v>35971003.86575462</v>
       </c>
       <c r="M33" t="n">
-        <v>845071.6384451265</v>
+        <v>845071.6384451292</v>
       </c>
       <c r="N33" t="n">
-        <v>517698.5871454674</v>
+        <v>517698.5871454694</v>
       </c>
     </row>
     <row r="34">
@@ -1993,34 +1993,34 @@
         <v>34672496.67120984</v>
       </c>
       <c r="E34" t="n">
-        <v>34716542.20801911</v>
+        <v>34716542.20801912</v>
       </c>
       <c r="F34" t="n">
-        <v>34716556.86673946</v>
+        <v>34716556.86673949</v>
       </c>
       <c r="G34" t="n">
-        <v>611079.7907963092</v>
+        <v>611079.7907963111</v>
       </c>
       <c r="H34" t="n">
-        <v>611036.236845059</v>
+        <v>611036.2368450608</v>
       </c>
       <c r="I34" t="n">
-        <v>494443.7462750587</v>
+        <v>494443.7462750603</v>
       </c>
       <c r="J34" t="n">
-        <v>494444.1619641076</v>
+        <v>494444.1619641091</v>
       </c>
       <c r="K34" t="n">
         <v>34672519.95080439</v>
       </c>
       <c r="L34" t="n">
-        <v>34716542.20801911</v>
+        <v>34716542.20801912</v>
       </c>
       <c r="M34" t="n">
-        <v>611079.7907963092</v>
+        <v>611079.7907963111</v>
       </c>
       <c r="N34" t="n">
-        <v>494443.7462750587</v>
+        <v>494443.7462750603</v>
       </c>
     </row>
     <row r="35">
@@ -2039,34 +2039,34 @@
         <v>31204912.48478629</v>
       </c>
       <c r="E35" t="n">
-        <v>31558392.06448591</v>
+        <v>31558392.0644859</v>
       </c>
       <c r="F35" t="n">
-        <v>31558405.06555513</v>
+        <v>31558405.06555512</v>
       </c>
       <c r="G35" t="n">
-        <v>623480.2053833879</v>
+        <v>623480.2053833897</v>
       </c>
       <c r="H35" t="n">
-        <v>624085.340609424</v>
+        <v>624085.3406094259</v>
       </c>
       <c r="I35" t="n">
-        <v>477708.7892862943</v>
+        <v>477708.7892862955</v>
       </c>
       <c r="J35" t="n">
-        <v>477709.247871276</v>
+        <v>477709.2478712773</v>
       </c>
       <c r="K35" t="n">
         <v>31204803.09616791</v>
       </c>
       <c r="L35" t="n">
-        <v>31558392.06448591</v>
+        <v>31558392.0644859</v>
       </c>
       <c r="M35" t="n">
-        <v>623480.2053833879</v>
+        <v>623480.2053833897</v>
       </c>
       <c r="N35" t="n">
-        <v>477708.7892862943</v>
+        <v>477708.7892862955</v>
       </c>
     </row>
     <row r="36">
@@ -2085,34 +2085,34 @@
         <v>29432033.66946927</v>
       </c>
       <c r="E36" t="n">
-        <v>29839358.68852787</v>
+        <v>29839358.68852786</v>
       </c>
       <c r="F36" t="n">
-        <v>29839371.2008754</v>
+        <v>29839371.20087539</v>
       </c>
       <c r="G36" t="n">
-        <v>571146.0173918005</v>
+        <v>571146.0173918016</v>
       </c>
       <c r="H36" t="n">
-        <v>571666.5267679447</v>
+        <v>571666.526767946</v>
       </c>
       <c r="I36" t="n">
-        <v>462434.8257046778</v>
+        <v>462434.8257046789</v>
       </c>
       <c r="J36" t="n">
-        <v>462435.2661254124</v>
+        <v>462435.2661254135</v>
       </c>
       <c r="K36" t="n">
         <v>29431989.88224553</v>
       </c>
       <c r="L36" t="n">
-        <v>29839358.68852787</v>
+        <v>29839358.68852786</v>
       </c>
       <c r="M36" t="n">
-        <v>571146.0173918005</v>
+        <v>571146.0173918016</v>
       </c>
       <c r="N36" t="n">
-        <v>462434.8257046778</v>
+        <v>462434.8257046789</v>
       </c>
     </row>
     <row r="37">
@@ -2131,34 +2131,34 @@
         <v>27998950.11035033</v>
       </c>
       <c r="E37" t="n">
-        <v>28401215.91959765</v>
+        <v>28401215.91959767</v>
       </c>
       <c r="F37" t="n">
-        <v>28401227.92021139</v>
+        <v>28401227.92021141</v>
       </c>
       <c r="G37" t="n">
-        <v>547765.3709345956</v>
+        <v>547765.3709345971</v>
       </c>
       <c r="H37" t="n">
-        <v>548095.0860660414</v>
+        <v>548095.0860660428</v>
       </c>
       <c r="I37" t="n">
-        <v>445506.6580601108</v>
+        <v>445506.6580601124</v>
       </c>
       <c r="J37" t="n">
-        <v>445507.0755871154</v>
+        <v>445507.075587117</v>
       </c>
       <c r="K37" t="n">
         <v>27998879.84662343</v>
       </c>
       <c r="L37" t="n">
-        <v>28401215.91959765</v>
+        <v>28401215.91959767</v>
       </c>
       <c r="M37" t="n">
-        <v>547765.3709345956</v>
+        <v>547765.3709345971</v>
       </c>
       <c r="N37" t="n">
-        <v>445506.6580601108</v>
+        <v>445506.6580601124</v>
       </c>
     </row>
     <row r="38">
@@ -2183,16 +2183,16 @@
         <v>28051828.91274907</v>
       </c>
       <c r="G38" t="n">
-        <v>476015.0476266487</v>
+        <v>476015.0476266497</v>
       </c>
       <c r="H38" t="n">
-        <v>475731.2785940905</v>
+        <v>475731.2785940916</v>
       </c>
       <c r="I38" t="n">
-        <v>441514.6898748298</v>
+        <v>441514.6898748311</v>
       </c>
       <c r="J38" t="n">
-        <v>441515.0982846191</v>
+        <v>441515.0982846203</v>
       </c>
       <c r="K38" t="n">
         <v>27622762.12488514</v>
@@ -2201,10 +2201,10 @@
         <v>28051816.94928024</v>
       </c>
       <c r="M38" t="n">
-        <v>476015.0476266487</v>
+        <v>476015.0476266497</v>
       </c>
       <c r="N38" t="n">
-        <v>441514.6898748298</v>
+        <v>441514.6898748311</v>
       </c>
     </row>
     <row r="39">
@@ -2223,34 +2223,34 @@
         <v>27470676.96710839</v>
       </c>
       <c r="E39" t="n">
-        <v>27830625.97140939</v>
+        <v>27830625.97140942</v>
       </c>
       <c r="F39" t="n">
-        <v>27830637.75596267</v>
+        <v>27830637.7559627</v>
       </c>
       <c r="G39" t="n">
-        <v>503916.3522498071</v>
+        <v>503916.3522498083</v>
       </c>
       <c r="H39" t="n">
-        <v>504305.1426651189</v>
+        <v>504305.1426651202</v>
       </c>
       <c r="I39" t="n">
-        <v>439278.1912832005</v>
+        <v>439278.1912832023</v>
       </c>
       <c r="J39" t="n">
-        <v>439278.6025125152</v>
+        <v>439278.602512517</v>
       </c>
       <c r="K39" t="n">
         <v>27470623.59477198</v>
       </c>
       <c r="L39" t="n">
-        <v>27830625.97140939</v>
+        <v>27830625.97140942</v>
       </c>
       <c r="M39" t="n">
-        <v>503916.3522498071</v>
+        <v>503916.3522498083</v>
       </c>
       <c r="N39" t="n">
-        <v>439278.1912832005</v>
+        <v>439278.1912832023</v>
       </c>
     </row>
     <row r="40">
@@ -2269,34 +2269,34 @@
         <v>28128210.83899956</v>
       </c>
       <c r="E40" t="n">
-        <v>28545084.26679988</v>
+        <v>28545084.26679987</v>
       </c>
       <c r="F40" t="n">
-        <v>28545096.17962325</v>
+        <v>28545096.17962324</v>
       </c>
       <c r="G40" t="n">
-        <v>558145.3073339923</v>
+        <v>558145.3073339942</v>
       </c>
       <c r="H40" t="n">
-        <v>558571.1120455855</v>
+        <v>558571.1120455873</v>
       </c>
       <c r="I40" t="n">
-        <v>449545.0619027877</v>
+        <v>449545.061902789</v>
       </c>
       <c r="J40" t="n">
-        <v>449545.4950705064</v>
+        <v>449545.4950705077</v>
       </c>
       <c r="K40" t="n">
         <v>28128227.00049252</v>
       </c>
       <c r="L40" t="n">
-        <v>28545084.26679988</v>
+        <v>28545084.26679987</v>
       </c>
       <c r="M40" t="n">
-        <v>558145.3073339923</v>
+        <v>558145.3073339942</v>
       </c>
       <c r="N40" t="n">
-        <v>449545.0619027877</v>
+        <v>449545.061902789</v>
       </c>
     </row>
     <row r="41">
@@ -2321,16 +2321,16 @@
         <v>29649843.03804778</v>
       </c>
       <c r="G41" t="n">
-        <v>540271.0010244093</v>
+        <v>540271.0010244112</v>
       </c>
       <c r="H41" t="n">
-        <v>540633.9509160185</v>
+        <v>540633.9509160203</v>
       </c>
       <c r="I41" t="n">
-        <v>458374.5297291764</v>
+        <v>458374.5297291776</v>
       </c>
       <c r="J41" t="n">
-        <v>458374.9681253324</v>
+        <v>458374.9681253335</v>
       </c>
       <c r="K41" t="n">
         <v>29146820.99008302</v>
@@ -2339,10 +2339,10 @@
         <v>29649830.71253719</v>
       </c>
       <c r="M41" t="n">
-        <v>540271.0010244093</v>
+        <v>540271.0010244112</v>
       </c>
       <c r="N41" t="n">
-        <v>458374.5297291764</v>
+        <v>458374.5297291776</v>
       </c>
     </row>
     <row r="42">
@@ -2367,16 +2367,16 @@
         <v>31736751.44335804</v>
       </c>
       <c r="G42" t="n">
-        <v>596621.5680820371</v>
+        <v>596621.5680820387</v>
       </c>
       <c r="H42" t="n">
-        <v>596902.72212441</v>
+        <v>596902.7221244115</v>
       </c>
       <c r="I42" t="n">
-        <v>480090.2793645405</v>
+        <v>480090.2793645412</v>
       </c>
       <c r="J42" t="n">
-        <v>480090.7086715855</v>
+        <v>480090.7086715863</v>
       </c>
       <c r="K42" t="n">
         <v>31247654.30723044</v>
@@ -2385,10 +2385,10 @@
         <v>31736737.64034451</v>
       </c>
       <c r="M42" t="n">
-        <v>596621.5680820371</v>
+        <v>596621.5680820387</v>
       </c>
       <c r="N42" t="n">
-        <v>480090.2793645405</v>
+        <v>480090.2793645412</v>
       </c>
     </row>
     <row r="43">
@@ -2413,16 +2413,16 @@
         <v>33225724.31054192</v>
       </c>
       <c r="G43" t="n">
-        <v>594909.8237602534</v>
+        <v>594909.8237602555</v>
       </c>
       <c r="H43" t="n">
-        <v>594754.3752640279</v>
+        <v>594754.3752640299</v>
       </c>
       <c r="I43" t="n">
-        <v>485767.3172733521</v>
+        <v>485767.3172733535</v>
       </c>
       <c r="J43" t="n">
-        <v>485767.7605487735</v>
+        <v>485767.760548775</v>
       </c>
       <c r="K43" t="n">
         <v>32797156.9254816</v>
@@ -2431,10 +2431,10 @@
         <v>33225710.57945907</v>
       </c>
       <c r="M43" t="n">
-        <v>594909.8237602534</v>
+        <v>594909.8237602555</v>
       </c>
       <c r="N43" t="n">
-        <v>485767.3172733521</v>
+        <v>485767.3172733535</v>
       </c>
     </row>
     <row r="44">
@@ -2453,34 +2453,34 @@
         <v>35212783.04197787</v>
       </c>
       <c r="E44" t="n">
-        <v>35437022.22657536</v>
+        <v>35437022.22657534</v>
       </c>
       <c r="F44" t="n">
-        <v>35437037.34771334</v>
+        <v>35437037.34771331</v>
       </c>
       <c r="G44" t="n">
-        <v>708302.5313693623</v>
+        <v>708302.5313693641</v>
       </c>
       <c r="H44" t="n">
-        <v>708314.4500897445</v>
+        <v>708314.4500897463</v>
       </c>
       <c r="I44" t="n">
-        <v>501954.9318287448</v>
+        <v>501954.9318287462</v>
       </c>
       <c r="J44" t="n">
-        <v>501955.3489339024</v>
+        <v>501955.3489339038</v>
       </c>
       <c r="K44" t="n">
         <v>35212610.50032556</v>
       </c>
       <c r="L44" t="n">
-        <v>35437022.22657536</v>
+        <v>35437022.22657534</v>
       </c>
       <c r="M44" t="n">
-        <v>708302.5313693623</v>
+        <v>708302.5313693641</v>
       </c>
       <c r="N44" t="n">
-        <v>501954.9318287448</v>
+        <v>501954.9318287462</v>
       </c>
     </row>
     <row r="45">
@@ -2499,34 +2499,34 @@
         <v>34419091.0947719</v>
       </c>
       <c r="E45" t="n">
-        <v>34533974.20454948</v>
+        <v>34533974.2045495</v>
       </c>
       <c r="F45" t="n">
-        <v>34533989.5902616</v>
+        <v>34533989.59026162</v>
       </c>
       <c r="G45" t="n">
-        <v>760925.7293113318</v>
+        <v>760925.7293113344</v>
       </c>
       <c r="H45" t="n">
-        <v>761747.8098464685</v>
+        <v>761747.8098464712</v>
       </c>
       <c r="I45" t="n">
-        <v>502029.9456192621</v>
+        <v>502029.9456192637</v>
       </c>
       <c r="J45" t="n">
-        <v>502030.3468411834</v>
+        <v>502030.3468411849</v>
       </c>
       <c r="K45" t="n">
         <v>34419182.31737644</v>
       </c>
       <c r="L45" t="n">
-        <v>34533974.20454948</v>
+        <v>34533974.2045495</v>
       </c>
       <c r="M45" t="n">
-        <v>760925.7293113318</v>
+        <v>760925.7293113344</v>
       </c>
       <c r="N45" t="n">
-        <v>502029.9456192621</v>
+        <v>502029.9456192637</v>
       </c>
     </row>
     <row r="46">
@@ -2545,34 +2545,34 @@
         <v>36237882.35291854</v>
       </c>
       <c r="E46" t="n">
-        <v>35865985.07366488</v>
+        <v>35865985.07366486</v>
       </c>
       <c r="F46" t="n">
-        <v>35866001.33203752</v>
+        <v>35866001.33203749</v>
       </c>
       <c r="G46" t="n">
-        <v>883338.8354285883</v>
+        <v>883338.8354285909</v>
       </c>
       <c r="H46" t="n">
-        <v>883796.1046536233</v>
+        <v>883796.1046536259</v>
       </c>
       <c r="I46" t="n">
-        <v>512760.6611367493</v>
+        <v>512760.6611367507</v>
       </c>
       <c r="J46" t="n">
-        <v>512761.0473142357</v>
+        <v>512761.0473142371</v>
       </c>
       <c r="K46" t="n">
         <v>36237420.84697346</v>
       </c>
       <c r="L46" t="n">
-        <v>35865985.07366488</v>
+        <v>35865985.07366486</v>
       </c>
       <c r="M46" t="n">
-        <v>883338.8354285883</v>
+        <v>883338.8354285909</v>
       </c>
       <c r="N46" t="n">
-        <v>512760.6611367493</v>
+        <v>512760.6611367507</v>
       </c>
     </row>
     <row r="47">
@@ -2591,34 +2591,34 @@
         <v>41323737.48896696</v>
       </c>
       <c r="E47" t="n">
-        <v>40660412.09782284</v>
+        <v>40660412.09782283</v>
       </c>
       <c r="F47" t="n">
-        <v>40660430.58243107</v>
+        <v>40660430.58243106</v>
       </c>
       <c r="G47" t="n">
-        <v>1210877.007485318</v>
+        <v>1210877.007485321</v>
       </c>
       <c r="H47" t="n">
-        <v>1211383.193720676</v>
+        <v>1211383.19372068</v>
       </c>
       <c r="I47" t="n">
-        <v>553863.0479603847</v>
+        <v>553863.0479603866</v>
       </c>
       <c r="J47" t="n">
-        <v>553863.4388476397</v>
+        <v>553863.4388476415</v>
       </c>
       <c r="K47" t="n">
         <v>41323793.11178966</v>
       </c>
       <c r="L47" t="n">
-        <v>40660412.09782284</v>
+        <v>40660412.09782283</v>
       </c>
       <c r="M47" t="n">
-        <v>1210877.007485318</v>
+        <v>1210877.007485321</v>
       </c>
       <c r="N47" t="n">
-        <v>553863.0479603847</v>
+        <v>553863.0479603866</v>
       </c>
     </row>
     <row r="48">
@@ -2640,19 +2640,19 @@
         <v>39005104.17128047</v>
       </c>
       <c r="F48" t="n">
-        <v>39005121.95556479</v>
+        <v>39005121.95556478</v>
       </c>
       <c r="G48" t="n">
-        <v>1069717.432671468</v>
+        <v>1069717.43267147</v>
       </c>
       <c r="H48" t="n">
-        <v>1070839.233054846</v>
+        <v>1070839.233054849</v>
       </c>
       <c r="I48" t="n">
-        <v>536994.9757791518</v>
+        <v>536994.9757791538</v>
       </c>
       <c r="J48" t="n">
-        <v>536995.3421559148</v>
+        <v>536995.3421559168</v>
       </c>
       <c r="K48" t="n">
         <v>39221869.79385753</v>
@@ -2661,10 +2661,10 @@
         <v>39005104.17128047</v>
       </c>
       <c r="M48" t="n">
-        <v>1069717.432671468</v>
+        <v>1069717.43267147</v>
       </c>
       <c r="N48" t="n">
-        <v>536994.9757791518</v>
+        <v>536994.9757791538</v>
       </c>
     </row>
     <row r="49">
@@ -2683,34 +2683,34 @@
         <v>43103772.62992334</v>
       </c>
       <c r="E49" t="n">
-        <v>42722623.16708499</v>
+        <v>42722623.16708495</v>
       </c>
       <c r="F49" t="n">
-        <v>42722643.43437721</v>
+        <v>42722643.43437716</v>
       </c>
       <c r="G49" t="n">
-        <v>1386947.679785547</v>
+        <v>1386947.679785549</v>
       </c>
       <c r="H49" t="n">
-        <v>1385651.90658696</v>
+        <v>1385651.906586962</v>
       </c>
       <c r="I49" t="n">
-        <v>592781.2177199648</v>
+        <v>592781.2177199669</v>
       </c>
       <c r="J49" t="n">
-        <v>592781.6403066827</v>
+        <v>592781.6403066849</v>
       </c>
       <c r="K49" t="n">
         <v>43103508.94538216</v>
       </c>
       <c r="L49" t="n">
-        <v>42722623.16708499</v>
+        <v>42722623.16708495</v>
       </c>
       <c r="M49" t="n">
-        <v>1386947.679785547</v>
+        <v>1386947.679785549</v>
       </c>
       <c r="N49" t="n">
-        <v>592781.2177199648</v>
+        <v>592781.2177199669</v>
       </c>
     </row>
     <row r="50">
@@ -2732,19 +2732,19 @@
         <v>40671029.66017979</v>
       </c>
       <c r="F50" t="n">
-        <v>40671048.68166027</v>
+        <v>40671048.68166026</v>
       </c>
       <c r="G50" t="n">
-        <v>1107363.841383533</v>
+        <v>1107363.841383537</v>
       </c>
       <c r="H50" t="n">
-        <v>1107512.943830465</v>
+        <v>1107512.943830469</v>
       </c>
       <c r="I50" t="n">
-        <v>561328.9884521544</v>
+        <v>561328.9884521561</v>
       </c>
       <c r="J50" t="n">
-        <v>561329.3666404419</v>
+        <v>561329.3666404436</v>
       </c>
       <c r="K50" t="n">
         <v>41472520.50860496</v>
@@ -2753,10 +2753,10 @@
         <v>40671029.66017979</v>
       </c>
       <c r="M50" t="n">
-        <v>1107363.841383533</v>
+        <v>1107363.841383537</v>
       </c>
       <c r="N50" t="n">
-        <v>561328.9884521544</v>
+        <v>561328.9884521561</v>
       </c>
     </row>
     <row r="51">
@@ -2775,34 +2775,34 @@
         <v>41685332.72442395</v>
       </c>
       <c r="E51" t="n">
-        <v>40923759.16437973</v>
+        <v>40923759.16437972</v>
       </c>
       <c r="F51" t="n">
-        <v>40923778.33024416</v>
+        <v>40923778.33024415</v>
       </c>
       <c r="G51" t="n">
-        <v>1240727.635724026</v>
+        <v>1240727.635724031</v>
       </c>
       <c r="H51" t="n">
-        <v>1242113.319846076</v>
+        <v>1242113.319846081</v>
       </c>
       <c r="I51" t="n">
-        <v>566061.7022548225</v>
+        <v>566061.7022548245</v>
       </c>
       <c r="J51" t="n">
-        <v>566062.0880597261</v>
+        <v>566062.088059728</v>
       </c>
       <c r="K51" t="n">
         <v>41685177.64866564</v>
       </c>
       <c r="L51" t="n">
-        <v>40923759.16437973</v>
+        <v>40923759.16437972</v>
       </c>
       <c r="M51" t="n">
-        <v>1240727.635724026</v>
+        <v>1240727.635724031</v>
       </c>
       <c r="N51" t="n">
-        <v>566061.7022548225</v>
+        <v>566061.7022548245</v>
       </c>
     </row>
     <row r="52">
@@ -2821,34 +2821,34 @@
         <v>44429205.70429934</v>
       </c>
       <c r="E52" t="n">
-        <v>43244640.37504764</v>
+        <v>43244640.37504762</v>
       </c>
       <c r="F52" t="n">
-        <v>43244660.8277028</v>
+        <v>43244660.82770277</v>
       </c>
       <c r="G52" t="n">
-        <v>1318861.869899186</v>
+        <v>1318861.86989919</v>
       </c>
       <c r="H52" t="n">
-        <v>1319477.112898467</v>
+        <v>1319477.112898471</v>
       </c>
       <c r="I52" t="n">
-        <v>567468.9144917605</v>
+        <v>567468.9144917619</v>
       </c>
       <c r="J52" t="n">
-        <v>567469.2218719067</v>
+        <v>567469.2218719082</v>
       </c>
       <c r="K52" t="n">
         <v>44429695.85758053</v>
       </c>
       <c r="L52" t="n">
-        <v>43244640.37504764</v>
+        <v>43244640.37504762</v>
       </c>
       <c r="M52" t="n">
-        <v>1318861.869899186</v>
+        <v>1318861.86989919</v>
       </c>
       <c r="N52" t="n">
-        <v>567468.9144917605</v>
+        <v>567468.9144917619</v>
       </c>
     </row>
     <row r="53">
@@ -2867,34 +2867,34 @@
         <v>41330306.54566901</v>
       </c>
       <c r="E53" t="n">
-        <v>40587969.87867801</v>
+        <v>40587969.87867802</v>
       </c>
       <c r="F53" t="n">
-        <v>40587988.70652154</v>
+        <v>40587988.70652156</v>
       </c>
       <c r="G53" t="n">
-        <v>1100050.229814986</v>
+        <v>1100050.22981499</v>
       </c>
       <c r="H53" t="n">
-        <v>1101014.382144828</v>
+        <v>1101014.382144832</v>
       </c>
       <c r="I53" t="n">
-        <v>557358.372305471</v>
+        <v>557358.3723054728</v>
       </c>
       <c r="J53" t="n">
-        <v>557358.7480252499</v>
+        <v>557358.748025252</v>
       </c>
       <c r="K53" t="n">
         <v>41330493.71452598</v>
       </c>
       <c r="L53" t="n">
-        <v>40587969.87867801</v>
+        <v>40587969.87867802</v>
       </c>
       <c r="M53" t="n">
-        <v>1100050.229814986</v>
+        <v>1100050.22981499</v>
       </c>
       <c r="N53" t="n">
-        <v>557358.372305471</v>
+        <v>557358.3723054728</v>
       </c>
     </row>
     <row r="54">
@@ -2913,34 +2913,34 @@
         <v>44786433.43130726</v>
       </c>
       <c r="E54" t="n">
-        <v>42913979.33564439</v>
+        <v>42913979.33564441</v>
       </c>
       <c r="F54" t="n">
-        <v>42913999.36748507</v>
+        <v>42913999.36748508</v>
       </c>
       <c r="G54" t="n">
-        <v>1631755.191215765</v>
+        <v>1631755.191215769</v>
       </c>
       <c r="H54" t="n">
-        <v>1631058.175893075</v>
+        <v>1631058.175893079</v>
       </c>
       <c r="I54" t="n">
-        <v>561599.0690797032</v>
+        <v>561599.0690797053</v>
       </c>
       <c r="J54" t="n">
-        <v>561599.3824905566</v>
+        <v>561599.3824905587</v>
       </c>
       <c r="K54" t="n">
         <v>44786396.02952445</v>
       </c>
       <c r="L54" t="n">
-        <v>42913979.33564439</v>
+        <v>42913979.33564441</v>
       </c>
       <c r="M54" t="n">
-        <v>1631755.191215765</v>
+        <v>1631755.191215769</v>
       </c>
       <c r="N54" t="n">
-        <v>561599.0690797032</v>
+        <v>561599.0690797053</v>
       </c>
     </row>
     <row r="55">
@@ -2959,34 +2959,34 @@
         <v>44929474.55885467</v>
       </c>
       <c r="E55" t="n">
-        <v>42543182.05235717</v>
+        <v>42543182.05235714</v>
       </c>
       <c r="F55" t="n">
-        <v>42543201.99705483</v>
+        <v>42543201.99705481</v>
       </c>
       <c r="G55" t="n">
-        <v>1304762.998001691</v>
+        <v>1304762.998001695</v>
       </c>
       <c r="H55" t="n">
-        <v>1305010.816054001</v>
+        <v>1305010.816054004</v>
       </c>
       <c r="I55" t="n">
-        <v>561746.2859109498</v>
+        <v>561746.2859109513</v>
       </c>
       <c r="J55" t="n">
-        <v>561746.6098103873</v>
+        <v>561746.6098103888</v>
       </c>
       <c r="K55" t="n">
         <v>44929791.96851809</v>
       </c>
       <c r="L55" t="n">
-        <v>42543182.05235717</v>
+        <v>42543182.05235714</v>
       </c>
       <c r="M55" t="n">
-        <v>1304762.998001691</v>
+        <v>1304762.998001695</v>
       </c>
       <c r="N55" t="n">
-        <v>561746.2859109498</v>
+        <v>561746.2859109513</v>
       </c>
     </row>
     <row r="56">
@@ -3005,34 +3005,34 @@
         <v>39631711.19040702</v>
       </c>
       <c r="E56" t="n">
-        <v>38842122.56761199</v>
+        <v>38842122.56761202</v>
       </c>
       <c r="F56" t="n">
-        <v>38842140.47372627</v>
+        <v>38842140.47372628</v>
       </c>
       <c r="G56" t="n">
-        <v>931469.8004146654</v>
+        <v>931469.8004146678</v>
       </c>
       <c r="H56" t="n">
-        <v>931730.0542636168</v>
+        <v>931730.0542636194</v>
       </c>
       <c r="I56" t="n">
-        <v>539638.1245247982</v>
+        <v>539638.1245248003</v>
       </c>
       <c r="J56" t="n">
-        <v>539638.4984260931</v>
+        <v>539638.4984260951</v>
       </c>
       <c r="K56" t="n">
         <v>39631656.02200601</v>
       </c>
       <c r="L56" t="n">
-        <v>38842122.56761199</v>
+        <v>38842122.56761202</v>
       </c>
       <c r="M56" t="n">
-        <v>931469.8004146654</v>
+        <v>931469.8004146678</v>
       </c>
       <c r="N56" t="n">
-        <v>539638.1245247982</v>
+        <v>539638.1245248003</v>
       </c>
     </row>
     <row r="57">
@@ -3051,34 +3051,34 @@
         <v>43718682.30248463</v>
       </c>
       <c r="E57" t="n">
-        <v>42324363.64937292</v>
+        <v>42324363.64937291</v>
       </c>
       <c r="F57" t="n">
         <v>42324383.26806447</v>
       </c>
       <c r="G57" t="n">
-        <v>1538320.360485054</v>
+        <v>1538320.360485059</v>
       </c>
       <c r="H57" t="n">
-        <v>1538003.427910161</v>
+        <v>1538003.427910166</v>
       </c>
       <c r="I57" t="n">
-        <v>558026.4870831708</v>
+        <v>558026.487083172</v>
       </c>
       <c r="J57" t="n">
-        <v>558026.818751522</v>
+        <v>558026.8187515232</v>
       </c>
       <c r="K57" t="n">
         <v>43719033.01667953</v>
       </c>
       <c r="L57" t="n">
-        <v>42324363.64937292</v>
+        <v>42324363.64937291</v>
       </c>
       <c r="M57" t="n">
-        <v>1538320.360485054</v>
+        <v>1538320.360485059</v>
       </c>
       <c r="N57" t="n">
-        <v>558026.4870831708</v>
+        <v>558026.487083172</v>
       </c>
     </row>
     <row r="58">
@@ -3097,34 +3097,34 @@
         <v>38682539.85786719</v>
       </c>
       <c r="E58" t="n">
-        <v>38308205.24073208</v>
+        <v>38308205.2407321</v>
       </c>
       <c r="F58" t="n">
-        <v>38308222.52635828</v>
+        <v>38308222.5263583</v>
       </c>
       <c r="G58" t="n">
-        <v>923564.3437788726</v>
+        <v>923564.3437788748</v>
       </c>
       <c r="H58" t="n">
-        <v>925251.4086638255</v>
+        <v>925251.4086638276</v>
       </c>
       <c r="I58" t="n">
-        <v>523980.7217733891</v>
+        <v>523980.7217733911</v>
       </c>
       <c r="J58" t="n">
-        <v>523981.0722346909</v>
+        <v>523981.0722346929</v>
       </c>
       <c r="K58" t="n">
         <v>38682687.59267762</v>
       </c>
       <c r="L58" t="n">
-        <v>38308205.24073208</v>
+        <v>38308205.2407321</v>
       </c>
       <c r="M58" t="n">
-        <v>923564.3437788726</v>
+        <v>923564.3437788748</v>
       </c>
       <c r="N58" t="n">
-        <v>523980.7217733891</v>
+        <v>523980.7217733911</v>
       </c>
     </row>
     <row r="59">
@@ -3149,16 +3149,16 @@
         <v>41855872.57144751</v>
       </c>
       <c r="G59" t="n">
-        <v>1205565.888320946</v>
+        <v>1205565.888320949</v>
       </c>
       <c r="H59" t="n">
-        <v>1204357.709049982</v>
+        <v>1204357.709049986</v>
       </c>
       <c r="I59" t="n">
-        <v>553352.9263111304</v>
+        <v>553352.9263111325</v>
       </c>
       <c r="J59" t="n">
-        <v>553353.2657126597</v>
+        <v>553353.2657126619</v>
       </c>
       <c r="K59" t="n">
         <v>42603898.9300271</v>
@@ -3167,10 +3167,10 @@
         <v>41855853.37642673</v>
       </c>
       <c r="M59" t="n">
-        <v>1205565.888320946</v>
+        <v>1205565.888320949</v>
       </c>
       <c r="N59" t="n">
-        <v>553352.9263111304</v>
+        <v>553352.9263111325</v>
       </c>
     </row>
     <row r="60">
@@ -3192,19 +3192,19 @@
         <v>42070810.26323982</v>
       </c>
       <c r="F60" t="n">
-        <v>42070830.16733274</v>
+        <v>42070830.16733275</v>
       </c>
       <c r="G60" t="n">
-        <v>1396789.097600023</v>
+        <v>1396789.097600027</v>
       </c>
       <c r="H60" t="n">
-        <v>1395398.334473701</v>
+        <v>1395398.334473704</v>
       </c>
       <c r="I60" t="n">
-        <v>573152.6311818371</v>
+        <v>573152.6311818392</v>
       </c>
       <c r="J60" t="n">
-        <v>573153.0116757144</v>
+        <v>573153.0116757165</v>
       </c>
       <c r="K60" t="n">
         <v>42971610.45293882</v>
@@ -3213,10 +3213,10 @@
         <v>42070810.26323982</v>
       </c>
       <c r="M60" t="n">
-        <v>1396789.097600023</v>
+        <v>1396789.097600027</v>
       </c>
       <c r="N60" t="n">
-        <v>573152.6311818371</v>
+        <v>573152.6311818392</v>
       </c>
     </row>
     <row r="61">
@@ -3235,34 +3235,34 @@
         <v>43281906.07146036</v>
       </c>
       <c r="E61" t="n">
-        <v>42162139.46561716</v>
+        <v>42162139.46561714</v>
       </c>
       <c r="F61" t="n">
-        <v>42162159.2344106</v>
+        <v>42162159.23441058</v>
       </c>
       <c r="G61" t="n">
-        <v>1579077.677163191</v>
+        <v>1579077.677163196</v>
       </c>
       <c r="H61" t="n">
-        <v>1577917.110236584</v>
+        <v>1577917.110236589</v>
       </c>
       <c r="I61" t="n">
-        <v>556877.9934375945</v>
+        <v>556877.9934375959</v>
       </c>
       <c r="J61" t="n">
-        <v>556878.3142787366</v>
+        <v>556878.314278738</v>
       </c>
       <c r="K61" t="n">
         <v>43282189.44089113</v>
       </c>
       <c r="L61" t="n">
-        <v>42162139.46561716</v>
+        <v>42162139.46561714</v>
       </c>
       <c r="M61" t="n">
-        <v>1579077.677163191</v>
+        <v>1579077.677163196</v>
       </c>
       <c r="N61" t="n">
-        <v>556877.9934375945</v>
+        <v>556877.9934375959</v>
       </c>
     </row>
     <row r="62">
@@ -3281,34 +3281,34 @@
         <v>38271451.58126198</v>
       </c>
       <c r="E62" t="n">
-        <v>38014157.36758283</v>
+        <v>38014157.36758278</v>
       </c>
       <c r="F62" t="n">
-        <v>38014174.35818186</v>
+        <v>38014174.35818181</v>
       </c>
       <c r="G62" t="n">
-        <v>809455.6630217162</v>
+        <v>809455.6630217184</v>
       </c>
       <c r="H62" t="n">
-        <v>810887.1138332901</v>
+        <v>810887.1138332924</v>
       </c>
       <c r="I62" t="n">
-        <v>518480.3423607228</v>
+        <v>518480.3423607243</v>
       </c>
       <c r="J62" t="n">
-        <v>518480.6891565946</v>
+        <v>518480.689156596</v>
       </c>
       <c r="K62" t="n">
         <v>38271655.55316719</v>
       </c>
       <c r="L62" t="n">
-        <v>38014157.36758283</v>
+        <v>38014157.36758278</v>
       </c>
       <c r="M62" t="n">
-        <v>809455.6630217162</v>
+        <v>809455.6630217184</v>
       </c>
       <c r="N62" t="n">
-        <v>518480.3423607228</v>
+        <v>518480.3423607243</v>
       </c>
     </row>
     <row r="63">
@@ -3327,34 +3327,34 @@
         <v>43363969.71744081</v>
       </c>
       <c r="E63" t="n">
-        <v>42322164.52693208</v>
+        <v>42322164.52693202</v>
       </c>
       <c r="F63" t="n">
-        <v>42322184.71573387</v>
+        <v>42322184.71573382</v>
       </c>
       <c r="G63" t="n">
-        <v>1313451.64928575</v>
+        <v>1313451.649285755</v>
       </c>
       <c r="H63" t="n">
-        <v>1314278.075338481</v>
+        <v>1314278.075338486</v>
       </c>
       <c r="I63" t="n">
-        <v>568813.7256880553</v>
+        <v>568813.7256880568</v>
       </c>
       <c r="J63" t="n">
-        <v>568814.0736893574</v>
+        <v>568814.0736893589</v>
       </c>
       <c r="K63" t="n">
         <v>43363984.58291012</v>
       </c>
       <c r="L63" t="n">
-        <v>42322164.52693208</v>
+        <v>42322164.52693202</v>
       </c>
       <c r="M63" t="n">
-        <v>1313451.64928575</v>
+        <v>1313451.649285755</v>
       </c>
       <c r="N63" t="n">
-        <v>568813.7256880553</v>
+        <v>568813.7256880568</v>
       </c>
     </row>
     <row r="64">
@@ -3373,34 +3373,34 @@
         <v>38863021.2489932</v>
       </c>
       <c r="E64" t="n">
-        <v>38420975.68930627</v>
+        <v>38420975.68930626</v>
       </c>
       <c r="F64" t="n">
-        <v>38420992.85125548</v>
+        <v>38420992.85125547</v>
       </c>
       <c r="G64" t="n">
-        <v>956812.3481281041</v>
+        <v>956812.3481281062</v>
       </c>
       <c r="H64" t="n">
-        <v>959068.7593622196</v>
+        <v>959068.7593622216</v>
       </c>
       <c r="I64" t="n">
-        <v>524026.1860851408</v>
+        <v>524026.1860851428</v>
       </c>
       <c r="J64" t="n">
-        <v>524026.5395385951</v>
+        <v>524026.5395385972</v>
       </c>
       <c r="K64" t="n">
         <v>38862998.69650385</v>
       </c>
       <c r="L64" t="n">
-        <v>38420975.68930627</v>
+        <v>38420975.68930626</v>
       </c>
       <c r="M64" t="n">
-        <v>956812.3481281041</v>
+        <v>956812.3481281062</v>
       </c>
       <c r="N64" t="n">
-        <v>524026.1860851408</v>
+        <v>524026.1860851428</v>
       </c>
     </row>
     <row r="65">
@@ -3419,34 +3419,34 @@
         <v>38891626.03673045</v>
       </c>
       <c r="E65" t="n">
-        <v>38431540.09844597</v>
+        <v>38431540.098446</v>
       </c>
       <c r="F65" t="n">
-        <v>38431557.63162106</v>
+        <v>38431557.63162109</v>
       </c>
       <c r="G65" t="n">
-        <v>968775.9848842338</v>
+        <v>968775.9848842367</v>
       </c>
       <c r="H65" t="n">
-        <v>968878.657717719</v>
+        <v>968878.6577177218</v>
       </c>
       <c r="I65" t="n">
-        <v>534066.2074635484</v>
+        <v>534066.2074635501</v>
       </c>
       <c r="J65" t="n">
-        <v>534066.580699755</v>
+        <v>534066.5806997567</v>
       </c>
       <c r="K65" t="n">
         <v>38891473.25365871</v>
       </c>
       <c r="L65" t="n">
-        <v>38431540.09844597</v>
+        <v>38431540.098446</v>
       </c>
       <c r="M65" t="n">
-        <v>968775.9848842338</v>
+        <v>968775.9848842367</v>
       </c>
       <c r="N65" t="n">
-        <v>534066.2074635484</v>
+        <v>534066.2074635501</v>
       </c>
     </row>
     <row r="66">
@@ -3471,16 +3471,16 @@
         <v>42328464.87155836</v>
       </c>
       <c r="G66" t="n">
-        <v>1514450.818281462</v>
+        <v>1514450.818281467</v>
       </c>
       <c r="H66" t="n">
-        <v>1514730.677271362</v>
+        <v>1514730.677271366</v>
       </c>
       <c r="I66" t="n">
-        <v>559103.9552635385</v>
+        <v>559103.9552635399</v>
       </c>
       <c r="J66" t="n">
-        <v>559104.2766032598</v>
+        <v>559104.2766032611</v>
       </c>
       <c r="K66" t="n">
         <v>43467114.04823723</v>
@@ -3489,10 +3489,10 @@
         <v>42328444.97579212</v>
       </c>
       <c r="M66" t="n">
-        <v>1514450.818281462</v>
+        <v>1514450.818281467</v>
       </c>
       <c r="N66" t="n">
-        <v>559103.9552635385</v>
+        <v>559103.9552635399</v>
       </c>
     </row>
     <row r="67">
@@ -3511,34 +3511,34 @@
         <v>43900549.43896709</v>
       </c>
       <c r="E67" t="n">
-        <v>42646469.80269102</v>
+        <v>42646469.80269103</v>
       </c>
       <c r="F67" t="n">
-        <v>42646490.25132925</v>
+        <v>42646490.25132926</v>
       </c>
       <c r="G67" t="n">
-        <v>1484401.126039433</v>
+        <v>1484401.126039437</v>
       </c>
       <c r="H67" t="n">
-        <v>1484732.099988239</v>
+        <v>1484732.099988243</v>
       </c>
       <c r="I67" t="n">
-        <v>579363.2090185545</v>
+        <v>579363.2090185563</v>
       </c>
       <c r="J67" t="n">
-        <v>579363.5836150611</v>
+        <v>579363.5836150628</v>
       </c>
       <c r="K67" t="n">
         <v>43900964.30033703</v>
       </c>
       <c r="L67" t="n">
-        <v>42646469.80269102</v>
+        <v>42646469.80269103</v>
       </c>
       <c r="M67" t="n">
-        <v>1484401.126039433</v>
+        <v>1484401.126039437</v>
       </c>
       <c r="N67" t="n">
-        <v>579363.2090185545</v>
+        <v>579363.2090185563</v>
       </c>
     </row>
     <row r="68">
@@ -3557,34 +3557,34 @@
         <v>43784065.61533332</v>
       </c>
       <c r="E68" t="n">
-        <v>42556843.77597655</v>
+        <v>42556843.77597658</v>
       </c>
       <c r="F68" t="n">
-        <v>42556864.18136473</v>
+        <v>42556864.18136476</v>
       </c>
       <c r="G68" t="n">
-        <v>1335462.112273587</v>
+        <v>1335462.11227359</v>
       </c>
       <c r="H68" t="n">
-        <v>1335772.206095215</v>
+        <v>1335772.206095218</v>
       </c>
       <c r="I68" t="n">
-        <v>578242.4070098209</v>
+        <v>578242.4070098232</v>
       </c>
       <c r="J68" t="n">
-        <v>578242.7801106389</v>
+        <v>578242.7801106413</v>
       </c>
       <c r="K68" t="n">
         <v>43784245.96058489</v>
       </c>
       <c r="L68" t="n">
-        <v>42556843.77597655</v>
+        <v>42556843.77597658</v>
       </c>
       <c r="M68" t="n">
-        <v>1335462.112273587</v>
+        <v>1335462.11227359</v>
       </c>
       <c r="N68" t="n">
-        <v>578242.4070098209</v>
+        <v>578242.4070098232</v>
       </c>
     </row>
     <row r="69">
@@ -3603,34 +3603,34 @@
         <v>43479504.34027333</v>
       </c>
       <c r="E69" t="n">
-        <v>42418224.04134735</v>
+        <v>42418224.04134737</v>
       </c>
       <c r="F69" t="n">
-        <v>42418244.33054999</v>
+        <v>42418244.33055001</v>
       </c>
       <c r="G69" t="n">
-        <v>1366498.652708539</v>
+        <v>1366498.652708544</v>
       </c>
       <c r="H69" t="n">
-        <v>1368328.163082042</v>
+        <v>1368328.163082047</v>
       </c>
       <c r="I69" t="n">
-        <v>568609.0736866132</v>
+        <v>568609.0736866144</v>
       </c>
       <c r="J69" t="n">
-        <v>568609.4166189323</v>
+        <v>568609.4166189336</v>
       </c>
       <c r="K69" t="n">
         <v>43479845.78627935</v>
       </c>
       <c r="L69" t="n">
-        <v>42418224.04134735</v>
+        <v>42418224.04134737</v>
       </c>
       <c r="M69" t="n">
-        <v>1366498.652708539</v>
+        <v>1366498.652708544</v>
       </c>
       <c r="N69" t="n">
-        <v>568609.0736866132</v>
+        <v>568609.0736866144</v>
       </c>
     </row>
     <row r="70">
@@ -3649,34 +3649,34 @@
         <v>38430831.38375077</v>
       </c>
       <c r="E70" t="n">
-        <v>38175583.23355079</v>
+        <v>38175583.23355073</v>
       </c>
       <c r="F70" t="n">
-        <v>38175600.21611444</v>
+        <v>38175600.21611439</v>
       </c>
       <c r="G70" t="n">
-        <v>967983.3194484998</v>
+        <v>967983.319448503</v>
       </c>
       <c r="H70" t="n">
-        <v>968958.6824767096</v>
+        <v>968958.6824767127</v>
       </c>
       <c r="I70" t="n">
-        <v>518522.8598981161</v>
+        <v>518522.8598981171</v>
       </c>
       <c r="J70" t="n">
-        <v>518523.2050982658</v>
+        <v>518523.2050982668</v>
       </c>
       <c r="K70" t="n">
         <v>38431101.36382245</v>
       </c>
       <c r="L70" t="n">
-        <v>38175583.23355079</v>
+        <v>38175583.23355073</v>
       </c>
       <c r="M70" t="n">
-        <v>967983.3194484998</v>
+        <v>967983.319448503</v>
       </c>
       <c r="N70" t="n">
-        <v>518522.8598981161</v>
+        <v>518522.8598981171</v>
       </c>
     </row>
     <row r="71">
@@ -3695,34 +3695,34 @@
         <v>38538292.52885437</v>
       </c>
       <c r="E71" t="n">
-        <v>38164473.22913047</v>
+        <v>38164473.22913046</v>
       </c>
       <c r="F71" t="n">
-        <v>38164490.68500021</v>
+        <v>38164490.6850002</v>
       </c>
       <c r="G71" t="n">
-        <v>961483.6820829134</v>
+        <v>961483.6820829165</v>
       </c>
       <c r="H71" t="n">
-        <v>962005.978061819</v>
+        <v>962005.9780618219</v>
       </c>
       <c r="I71" t="n">
-        <v>529100.7437605017</v>
+        <v>529100.7437605027</v>
       </c>
       <c r="J71" t="n">
-        <v>529101.1065943874</v>
+        <v>529101.1065943883</v>
       </c>
       <c r="K71" t="n">
         <v>38537996.46732056</v>
       </c>
       <c r="L71" t="n">
-        <v>38164473.22913047</v>
+        <v>38164473.22913046</v>
       </c>
       <c r="M71" t="n">
-        <v>961483.6820829134</v>
+        <v>961483.6820829165</v>
       </c>
       <c r="N71" t="n">
-        <v>529100.7437605017</v>
+        <v>529100.7437605027</v>
       </c>
     </row>
     <row r="72">
@@ -3741,34 +3741,34 @@
         <v>43408369.0293228</v>
       </c>
       <c r="E72" t="n">
-        <v>42484631.00593608</v>
+        <v>42484631.00593605</v>
       </c>
       <c r="F72" t="n">
-        <v>42484651.177035</v>
+        <v>42484651.17703497</v>
       </c>
       <c r="G72" t="n">
-        <v>1242442.029047999</v>
+        <v>1242442.029048003</v>
       </c>
       <c r="H72" t="n">
-        <v>1242092.482819155</v>
+        <v>1242092.482819159</v>
       </c>
       <c r="I72" t="n">
-        <v>558541.3560927288</v>
+        <v>558541.3560927296</v>
       </c>
       <c r="J72" t="n">
-        <v>558541.6616937068</v>
+        <v>558541.6616937078</v>
       </c>
       <c r="K72" t="n">
         <v>43408391.97413379</v>
       </c>
       <c r="L72" t="n">
-        <v>42484631.00593608</v>
+        <v>42484631.00593605</v>
       </c>
       <c r="M72" t="n">
-        <v>1242442.029047999</v>
+        <v>1242442.029048003</v>
       </c>
       <c r="N72" t="n">
-        <v>558541.3560927288</v>
+        <v>558541.3560927296</v>
       </c>
     </row>
     <row r="73">
@@ -3787,34 +3787,34 @@
         <v>42755341.35392839</v>
       </c>
       <c r="E73" t="n">
-        <v>42498108.3952917</v>
+        <v>42498108.39529178</v>
       </c>
       <c r="F73" t="n">
-        <v>42498128.52625667</v>
+        <v>42498128.52625674</v>
       </c>
       <c r="G73" t="n">
-        <v>938675.5141098428</v>
+        <v>938675.5141098462</v>
       </c>
       <c r="H73" t="n">
-        <v>940439.3783846159</v>
+        <v>940439.3783846191</v>
       </c>
       <c r="I73" t="n">
-        <v>559176.5934439349</v>
+        <v>559176.5934439371</v>
       </c>
       <c r="J73" t="n">
-        <v>559176.9033921891</v>
+        <v>559176.9033921913</v>
       </c>
       <c r="K73" t="n">
         <v>42755304.30474075</v>
       </c>
       <c r="L73" t="n">
-        <v>42498108.3952917</v>
+        <v>42498108.39529178</v>
       </c>
       <c r="M73" t="n">
-        <v>938675.5141098428</v>
+        <v>938675.5141098462</v>
       </c>
       <c r="N73" t="n">
-        <v>559176.5934439349</v>
+        <v>559176.5934439371</v>
       </c>
     </row>
     <row r="74">
@@ -3833,34 +3833,34 @@
         <v>42909663.34432742</v>
       </c>
       <c r="E74" t="n">
-        <v>42442419.67075373</v>
+        <v>42442419.67075374</v>
       </c>
       <c r="F74" t="n">
         <v>42442439.7633559</v>
       </c>
       <c r="G74" t="n">
-        <v>1029038.32637113</v>
+        <v>1029038.326371133</v>
       </c>
       <c r="H74" t="n">
-        <v>1030347.342131245</v>
+        <v>1030347.342131249</v>
       </c>
       <c r="I74" t="n">
-        <v>559184.0571583335</v>
+        <v>559184.0571583353</v>
       </c>
       <c r="J74" t="n">
-        <v>559184.3696183198</v>
+        <v>559184.3696183219</v>
       </c>
       <c r="K74" t="n">
         <v>42909735.5325046</v>
       </c>
       <c r="L74" t="n">
-        <v>42442419.67075373</v>
+        <v>42442419.67075374</v>
       </c>
       <c r="M74" t="n">
-        <v>1029038.32637113</v>
+        <v>1029038.326371133</v>
       </c>
       <c r="N74" t="n">
-        <v>559184.0571583335</v>
+        <v>559184.0571583353</v>
       </c>
     </row>
     <row r="75">
@@ -3879,34 +3879,34 @@
         <v>42797003.2335274</v>
       </c>
       <c r="E75" t="n">
-        <v>42330380.97935795</v>
+        <v>42330380.97935794</v>
       </c>
       <c r="F75" t="n">
-        <v>42330400.99273875</v>
+        <v>42330400.99273873</v>
       </c>
       <c r="G75" t="n">
-        <v>1025486.785405206</v>
+        <v>1025486.78540521</v>
       </c>
       <c r="H75" t="n">
-        <v>1026789.007149452</v>
+        <v>1026789.007149456</v>
       </c>
       <c r="I75" t="n">
-        <v>558111.4651871865</v>
+        <v>558111.4651871887</v>
       </c>
       <c r="J75" t="n">
-        <v>558111.7786610872</v>
+        <v>558111.7786610895</v>
       </c>
       <c r="K75" t="n">
         <v>42797075.30446521</v>
       </c>
       <c r="L75" t="n">
-        <v>42330380.97935795</v>
+        <v>42330380.97935794</v>
       </c>
       <c r="M75" t="n">
-        <v>1025486.785405206</v>
+        <v>1025486.78540521</v>
       </c>
       <c r="N75" t="n">
-        <v>558111.4651871865</v>
+        <v>558111.4651871887</v>
       </c>
     </row>
     <row r="76">
@@ -3925,34 +3925,34 @@
         <v>42689003.52175521</v>
       </c>
       <c r="E76" t="n">
-        <v>42195725.53629069</v>
+        <v>42195725.53629073</v>
       </c>
       <c r="F76" t="n">
-        <v>42195745.47006138</v>
+        <v>42195745.47006141</v>
       </c>
       <c r="G76" t="n">
-        <v>1025058.662583421</v>
+        <v>1025058.662583424</v>
       </c>
       <c r="H76" t="n">
-        <v>1026360.885651379</v>
+        <v>1026360.885651383</v>
       </c>
       <c r="I76" t="n">
-        <v>555955.1807376228</v>
+        <v>555955.1807376244</v>
       </c>
       <c r="J76" t="n">
-        <v>555955.4911682472</v>
+        <v>555955.4911682487</v>
       </c>
       <c r="K76" t="n">
         <v>42689073.13154563</v>
       </c>
       <c r="L76" t="n">
-        <v>42195725.53629069</v>
+        <v>42195725.53629073</v>
       </c>
       <c r="M76" t="n">
-        <v>1025058.662583421</v>
+        <v>1025058.662583424</v>
       </c>
       <c r="N76" t="n">
-        <v>555955.1807376228</v>
+        <v>555955.1807376244</v>
       </c>
     </row>
     <row r="77">
@@ -3977,16 +3977,16 @@
         <v>42681429.13150658</v>
       </c>
       <c r="G77" t="n">
-        <v>1650459.112447239</v>
+        <v>1650459.112447244</v>
       </c>
       <c r="H77" t="n">
-        <v>1649111.654854412</v>
+        <v>1649111.654854415</v>
       </c>
       <c r="I77" t="n">
-        <v>578757.6714842928</v>
+        <v>578757.6714842949</v>
       </c>
       <c r="J77" t="n">
-        <v>578758.0418999994</v>
+        <v>578758.0419000012</v>
       </c>
       <c r="K77" t="n">
         <v>44769758.00716899</v>
@@ -3995,10 +3995,10 @@
         <v>42681408.60913453</v>
       </c>
       <c r="M77" t="n">
-        <v>1650459.112447239</v>
+        <v>1650459.112447244</v>
       </c>
       <c r="N77" t="n">
-        <v>578757.6714842928</v>
+        <v>578757.6714842949</v>
       </c>
     </row>
     <row r="78">
@@ -4023,16 +4023,16 @@
         <v>42681429.13150658</v>
       </c>
       <c r="G78" t="n">
-        <v>1650459.112447239</v>
+        <v>1650459.112447244</v>
       </c>
       <c r="H78" t="n">
-        <v>1649111.654854412</v>
+        <v>1649111.654854415</v>
       </c>
       <c r="I78" t="n">
-        <v>578757.6714842928</v>
+        <v>578757.6714842949</v>
       </c>
       <c r="J78" t="n">
-        <v>578758.0418999994</v>
+        <v>578758.0419000012</v>
       </c>
       <c r="K78" t="n">
         <v>44769758.00716899</v>
@@ -4041,10 +4041,10 @@
         <v>42681408.60913453</v>
       </c>
       <c r="M78" t="n">
-        <v>1650459.112447239</v>
+        <v>1650459.112447244</v>
       </c>
       <c r="N78" t="n">
-        <v>578757.6714842928</v>
+        <v>578757.6714842949</v>
       </c>
     </row>
     <row r="79">
@@ -4063,34 +4063,34 @@
         <v>44499823.10626749</v>
       </c>
       <c r="E79" t="n">
-        <v>42721592.69731591</v>
+        <v>42721592.69731595</v>
       </c>
       <c r="F79" t="n">
-        <v>42721613.21460211</v>
+        <v>42721613.21460214</v>
       </c>
       <c r="G79" t="n">
-        <v>1838308.134601112</v>
+        <v>1838308.134601118</v>
       </c>
       <c r="H79" t="n">
-        <v>1838805.862994876</v>
+        <v>1838805.862994882</v>
       </c>
       <c r="I79" t="n">
-        <v>570603.3070454708</v>
+        <v>570603.3070454728</v>
       </c>
       <c r="J79" t="n">
-        <v>570603.645429977</v>
+        <v>570603.6454299791</v>
       </c>
       <c r="K79" t="n">
         <v>44499793.5140924</v>
       </c>
       <c r="L79" t="n">
-        <v>42721592.69731591</v>
+        <v>42721592.69731595</v>
       </c>
       <c r="M79" t="n">
-        <v>1838308.134601112</v>
+        <v>1838308.134601118</v>
       </c>
       <c r="N79" t="n">
-        <v>570603.3070454708</v>
+        <v>570603.3070454728</v>
       </c>
     </row>
     <row r="80">
@@ -4112,19 +4112,19 @@
         <v>42659492.81300545</v>
       </c>
       <c r="F80" t="n">
-        <v>42659513.30816295</v>
+        <v>42659513.30816294</v>
       </c>
       <c r="G80" t="n">
-        <v>1838093.120301841</v>
+        <v>1838093.120301847</v>
       </c>
       <c r="H80" t="n">
-        <v>1838590.833864396</v>
+        <v>1838590.833864402</v>
       </c>
       <c r="I80" t="n">
-        <v>569797.1550449724</v>
+        <v>569797.1550449743</v>
       </c>
       <c r="J80" t="n">
-        <v>569797.4920572679</v>
+        <v>569797.4920572697</v>
       </c>
       <c r="K80" t="n">
         <v>44445793.70177246</v>
@@ -4133,10 +4133,10 @@
         <v>42659492.81300545</v>
       </c>
       <c r="M80" t="n">
-        <v>1838093.120301841</v>
+        <v>1838093.120301847</v>
       </c>
       <c r="N80" t="n">
-        <v>569797.1550449724</v>
+        <v>569797.1550449743</v>
       </c>
     </row>
     <row r="81">
@@ -4158,19 +4158,19 @@
         <v>42659492.81300545</v>
       </c>
       <c r="F81" t="n">
-        <v>42659513.30816295</v>
+        <v>42659513.30816294</v>
       </c>
       <c r="G81" t="n">
-        <v>1838093.120301841</v>
+        <v>1838093.120301847</v>
       </c>
       <c r="H81" t="n">
-        <v>1838590.833864396</v>
+        <v>1838590.833864402</v>
       </c>
       <c r="I81" t="n">
-        <v>569797.1550449724</v>
+        <v>569797.1550449743</v>
       </c>
       <c r="J81" t="n">
-        <v>569797.4920572679</v>
+        <v>569797.4920572697</v>
       </c>
       <c r="K81" t="n">
         <v>44445793.70177246</v>
@@ -4179,10 +4179,10 @@
         <v>42659492.81300545</v>
       </c>
       <c r="M81" t="n">
-        <v>1838093.120301841</v>
+        <v>1838093.120301847</v>
       </c>
       <c r="N81" t="n">
-        <v>569797.1550449724</v>
+        <v>569797.1550449743</v>
       </c>
     </row>
     <row r="82">
@@ -4207,16 +4207,16 @@
         <v>42626087.91444553</v>
       </c>
       <c r="G82" t="n">
-        <v>1837983.975686847</v>
+        <v>1837983.975686853</v>
       </c>
       <c r="H82" t="n">
-        <v>1838481.492711679</v>
+        <v>1838481.492711685</v>
       </c>
       <c r="I82" t="n">
-        <v>569456.3579567871</v>
+        <v>569456.3579567887</v>
       </c>
       <c r="J82" t="n">
-        <v>569456.6943503175</v>
+        <v>569456.694350319</v>
       </c>
       <c r="K82" t="n">
         <v>44418791.03061904</v>
@@ -4225,10 +4225,10 @@
         <v>42626067.42589439</v>
       </c>
       <c r="M82" t="n">
-        <v>1837983.975686847</v>
+        <v>1837983.975686853</v>
       </c>
       <c r="N82" t="n">
-        <v>569456.3579567871</v>
+        <v>569456.3579567887</v>
       </c>
     </row>
     <row r="83">
@@ -4253,16 +4253,16 @@
         <v>42626087.91444553</v>
       </c>
       <c r="G83" t="n">
-        <v>1837983.975686847</v>
+        <v>1837983.975686853</v>
       </c>
       <c r="H83" t="n">
-        <v>1838481.492711679</v>
+        <v>1838481.492711685</v>
       </c>
       <c r="I83" t="n">
-        <v>569456.3579567871</v>
+        <v>569456.3579567887</v>
       </c>
       <c r="J83" t="n">
-        <v>569456.6943503175</v>
+        <v>569456.694350319</v>
       </c>
       <c r="K83" t="n">
         <v>44418791.03061904</v>
@@ -4271,10 +4271,10 @@
         <v>42626067.42589439</v>
       </c>
       <c r="M83" t="n">
-        <v>1837983.975686847</v>
+        <v>1837983.975686853</v>
       </c>
       <c r="N83" t="n">
-        <v>569456.3579567871</v>
+        <v>569456.3579567887</v>
       </c>
     </row>
     <row r="84">
@@ -4293,34 +4293,34 @@
         <v>44355383.66163208</v>
       </c>
       <c r="E84" t="n">
-        <v>42580268.33666451</v>
+        <v>42580268.33666454</v>
       </c>
       <c r="F84" t="n">
-        <v>42580288.78882643</v>
+        <v>42580288.78882645</v>
       </c>
       <c r="G84" t="n">
-        <v>1832493.581131552</v>
+        <v>1832493.581131558</v>
       </c>
       <c r="H84" t="n">
-        <v>1833105.723021124</v>
+        <v>1833105.72302113</v>
       </c>
       <c r="I84" t="n">
-        <v>568813.4295388079</v>
+        <v>568813.4295388099</v>
       </c>
       <c r="J84" t="n">
-        <v>568813.7654258378</v>
+        <v>568813.7654258397</v>
       </c>
       <c r="K84" t="n">
         <v>44355356.31589252</v>
       </c>
       <c r="L84" t="n">
-        <v>42580268.33666451</v>
+        <v>42580268.33666454</v>
       </c>
       <c r="M84" t="n">
-        <v>1832493.581131552</v>
+        <v>1832493.581131558</v>
       </c>
       <c r="N84" t="n">
-        <v>568813.4295388079</v>
+        <v>568813.4295388099</v>
       </c>
     </row>
     <row r="85">
@@ -4339,34 +4339,34 @@
         <v>44383270.42997628</v>
       </c>
       <c r="E85" t="n">
-        <v>42604239.46110851</v>
+        <v>42604239.46110857</v>
       </c>
       <c r="F85" t="n">
-        <v>42604259.92498342</v>
+        <v>42604259.92498348</v>
       </c>
       <c r="G85" t="n">
-        <v>1832600.796510261</v>
+        <v>1832600.796510266</v>
       </c>
       <c r="H85" t="n">
-        <v>1833212.737886995</v>
+        <v>1833212.737887002</v>
       </c>
       <c r="I85" t="n">
-        <v>569211.1482635125</v>
+        <v>569211.1482635145</v>
       </c>
       <c r="J85" t="n">
-        <v>569211.4848601838</v>
+        <v>569211.4848601859</v>
       </c>
       <c r="K85" t="n">
         <v>44383241.57138723</v>
       </c>
       <c r="L85" t="n">
-        <v>42604239.46110851</v>
+        <v>42604239.46110857</v>
       </c>
       <c r="M85" t="n">
-        <v>1832600.796510261</v>
+        <v>1832600.796510266</v>
       </c>
       <c r="N85" t="n">
-        <v>569211.1482635125</v>
+        <v>569211.1482635145</v>
       </c>
     </row>
     <row r="86">
@@ -4385,34 +4385,34 @@
         <v>44383270.42997628</v>
       </c>
       <c r="E86" t="n">
-        <v>42604239.46110851</v>
+        <v>42604239.46110857</v>
       </c>
       <c r="F86" t="n">
-        <v>42604259.92498342</v>
+        <v>42604259.92498348</v>
       </c>
       <c r="G86" t="n">
-        <v>1832600.796510261</v>
+        <v>1832600.796510266</v>
       </c>
       <c r="H86" t="n">
-        <v>1833212.737886995</v>
+        <v>1833212.737887002</v>
       </c>
       <c r="I86" t="n">
-        <v>569211.1482635125</v>
+        <v>569211.1482635145</v>
       </c>
       <c r="J86" t="n">
-        <v>569211.4848601838</v>
+        <v>569211.4848601859</v>
       </c>
       <c r="K86" t="n">
         <v>44383241.57138723</v>
       </c>
       <c r="L86" t="n">
-        <v>42604239.46110851</v>
+        <v>42604239.46110857</v>
       </c>
       <c r="M86" t="n">
-        <v>1832600.796510261</v>
+        <v>1832600.796510266</v>
       </c>
       <c r="N86" t="n">
-        <v>569211.1482635125</v>
+        <v>569211.1482635145</v>
       </c>
     </row>
     <row r="87">
@@ -4431,34 +4431,34 @@
         <v>44411159.10262049</v>
       </c>
       <c r="E87" t="n">
-        <v>42640056.02019542</v>
+        <v>42640056.02019545</v>
       </c>
       <c r="F87" t="n">
-        <v>42640076.4956052</v>
+        <v>42640076.49560523</v>
       </c>
       <c r="G87" t="n">
-        <v>1832707.909344014</v>
+        <v>1832707.909344019</v>
       </c>
       <c r="H87" t="n">
-        <v>1833319.866806161</v>
+        <v>1833319.866806168</v>
       </c>
       <c r="I87" t="n">
-        <v>569701.96514899</v>
+        <v>569701.9651489921</v>
       </c>
       <c r="J87" t="n">
-        <v>569702.3026777289</v>
+        <v>569702.3026777309</v>
       </c>
       <c r="K87" t="n">
         <v>44411126.02987757</v>
       </c>
       <c r="L87" t="n">
-        <v>42640056.02019542</v>
+        <v>42640056.02019545</v>
       </c>
       <c r="M87" t="n">
-        <v>1832707.909344014</v>
+        <v>1832707.909344019</v>
       </c>
       <c r="N87" t="n">
-        <v>569701.96514899</v>
+        <v>569701.9651489921</v>
       </c>
     </row>
     <row r="88">
@@ -4483,16 +4483,16 @@
         <v>42605844.42041666</v>
       </c>
       <c r="G88" t="n">
-        <v>1825804.078568909</v>
+        <v>1825804.078568915</v>
       </c>
       <c r="H88" t="n">
-        <v>1826342.391153836</v>
+        <v>1826342.391153843</v>
       </c>
       <c r="I88" t="n">
-        <v>569401.7827125608</v>
+        <v>569401.7827125627</v>
       </c>
       <c r="J88" t="n">
-        <v>569402.120149109</v>
+        <v>569402.1201491109</v>
       </c>
       <c r="K88" t="n">
         <v>44375016.74368616</v>
@@ -4501,10 +4501,10 @@
         <v>42605823.9629457</v>
       </c>
       <c r="M88" t="n">
-        <v>1825804.078568909</v>
+        <v>1825804.078568915</v>
       </c>
       <c r="N88" t="n">
-        <v>569401.7827125608</v>
+        <v>569401.7827125627</v>
       </c>
     </row>
     <row r="89">
@@ -4529,16 +4529,16 @@
         <v>42681327.64522918</v>
       </c>
       <c r="G89" t="n">
-        <v>1748355.882931883</v>
+        <v>1748355.882931889</v>
       </c>
       <c r="H89" t="n">
-        <v>1748781.366684095</v>
+        <v>1748781.366684101</v>
       </c>
       <c r="I89" t="n">
-        <v>570661.9761249917</v>
+        <v>570661.9761249932</v>
       </c>
       <c r="J89" t="n">
-        <v>570662.3164591957</v>
+        <v>570662.3164591971</v>
       </c>
       <c r="K89" t="n">
         <v>44235569.00916822</v>
@@ -4547,10 +4547,10 @@
         <v>42681307.1693216</v>
       </c>
       <c r="M89" t="n">
-        <v>1748355.882931883</v>
+        <v>1748355.882931889</v>
       </c>
       <c r="N89" t="n">
-        <v>570661.9761249917</v>
+        <v>570661.9761249932</v>
       </c>
     </row>
     <row r="90">
@@ -4569,34 +4569,34 @@
         <v>44820445.03323754</v>
       </c>
       <c r="E90" t="n">
-        <v>42630222.70471633</v>
+        <v>42630222.70471637</v>
       </c>
       <c r="F90" t="n">
-        <v>42630243.20356826</v>
+        <v>42630243.20356829</v>
       </c>
       <c r="G90" t="n">
-        <v>1593839.184921903</v>
+        <v>1593839.184921907</v>
       </c>
       <c r="H90" t="n">
-        <v>1593002.128775127</v>
+        <v>1593002.128775131</v>
       </c>
       <c r="I90" t="n">
-        <v>578380.9183473738</v>
+        <v>578380.9183473759</v>
       </c>
       <c r="J90" t="n">
-        <v>578381.2887541876</v>
+        <v>578381.2887541899</v>
       </c>
       <c r="K90" t="n">
         <v>44820375.5497009</v>
       </c>
       <c r="L90" t="n">
-        <v>42630222.70471633</v>
+        <v>42630222.70471637</v>
       </c>
       <c r="M90" t="n">
-        <v>1593839.184921903</v>
+        <v>1593839.184921907</v>
       </c>
       <c r="N90" t="n">
-        <v>578380.9183473738</v>
+        <v>578380.9183473759</v>
       </c>
     </row>
     <row r="91">
@@ -4615,34 +4615,34 @@
         <v>44211173.27652847</v>
       </c>
       <c r="E91" t="n">
-        <v>42604225.54207341</v>
+        <v>42604225.54207339</v>
       </c>
       <c r="F91" t="n">
-        <v>42604246.02587202</v>
+        <v>42604246.02587201</v>
       </c>
       <c r="G91" t="n">
-        <v>1727279.268983572</v>
+        <v>1727279.268983577</v>
       </c>
       <c r="H91" t="n">
-        <v>1725913.992382677</v>
+        <v>1725913.992382681</v>
       </c>
       <c r="I91" t="n">
-        <v>578740.6038918262</v>
+        <v>578740.6038918283</v>
       </c>
       <c r="J91" t="n">
-        <v>578740.9763079789</v>
+        <v>578740.9763079809</v>
       </c>
       <c r="K91" t="n">
         <v>44211559.5180662</v>
       </c>
       <c r="L91" t="n">
-        <v>42604225.54207341</v>
+        <v>42604225.54207339</v>
       </c>
       <c r="M91" t="n">
-        <v>1727279.268983572</v>
+        <v>1727279.268983577</v>
       </c>
       <c r="N91" t="n">
-        <v>578740.6038918262</v>
+        <v>578740.6038918283</v>
       </c>
     </row>
     <row r="92">
@@ -4667,16 +4667,16 @@
         <v>42621033.82714722</v>
       </c>
       <c r="G92" t="n">
-        <v>1683776.496880388</v>
+        <v>1683776.496880392</v>
       </c>
       <c r="H92" t="n">
-        <v>1683105.138723764</v>
+        <v>1683105.138723768</v>
       </c>
       <c r="I92" t="n">
-        <v>578714.7900103247</v>
+        <v>578714.7900103267</v>
       </c>
       <c r="J92" t="n">
-        <v>578715.1619577151</v>
+        <v>578715.1619577169</v>
       </c>
       <c r="K92" t="n">
         <v>44323110.90552974</v>
@@ -4685,10 +4685,10 @@
         <v>42621013.33985513</v>
       </c>
       <c r="M92" t="n">
-        <v>1683776.496880388</v>
+        <v>1683776.496880392</v>
       </c>
       <c r="N92" t="n">
-        <v>578714.7900103247</v>
+        <v>578714.7900103267</v>
       </c>
     </row>
     <row r="93">
@@ -4707,34 +4707,34 @@
         <v>44349956.72155707</v>
       </c>
       <c r="E93" t="n">
-        <v>42654962.00225195</v>
+        <v>42654962.00225196</v>
       </c>
       <c r="F93" t="n">
-        <v>42654982.49866974</v>
+        <v>42654982.49866975</v>
       </c>
       <c r="G93" t="n">
-        <v>1683885.641495381</v>
+        <v>1683885.641495386</v>
       </c>
       <c r="H93" t="n">
-        <v>1683214.479876481</v>
+        <v>1683214.479876485</v>
       </c>
       <c r="I93" t="n">
-        <v>579052.0555008774</v>
+        <v>579052.0555008793</v>
       </c>
       <c r="J93" t="n">
-        <v>579052.4278664008</v>
+        <v>579052.4278664028</v>
       </c>
       <c r="K93" t="n">
         <v>44350113.57668316</v>
       </c>
       <c r="L93" t="n">
-        <v>42654962.00225195</v>
+        <v>42654962.00225196</v>
       </c>
       <c r="M93" t="n">
-        <v>1683885.641495381</v>
+        <v>1683885.641495386</v>
       </c>
       <c r="N93" t="n">
-        <v>579052.0555008774</v>
+        <v>579052.0555008793</v>
       </c>
     </row>
     <row r="94">
@@ -4753,34 +4753,34 @@
         <v>44327576.10789642</v>
       </c>
       <c r="E94" t="n">
-        <v>42641761.97122048</v>
+        <v>42641761.97122045</v>
       </c>
       <c r="F94" t="n">
-        <v>42641782.46612024</v>
+        <v>42641782.4661202</v>
       </c>
       <c r="G94" t="n">
-        <v>1674785.899576352</v>
+        <v>1674785.899576357</v>
       </c>
       <c r="H94" t="n">
-        <v>1673935.346530005</v>
+        <v>1673935.346530009</v>
       </c>
       <c r="I94" t="n">
-        <v>579036.7926769296</v>
+        <v>579036.7926769312</v>
       </c>
       <c r="J94" t="n">
-        <v>579037.1652597378</v>
+        <v>579037.1652597395</v>
       </c>
       <c r="K94" t="n">
         <v>44327715.78628024</v>
       </c>
       <c r="L94" t="n">
-        <v>42641761.97122048</v>
+        <v>42641761.97122045</v>
       </c>
       <c r="M94" t="n">
-        <v>1674785.899576352</v>
+        <v>1674785.899576357</v>
       </c>
       <c r="N94" t="n">
-        <v>579036.7926769296</v>
+        <v>579036.7926769312</v>
       </c>
     </row>
     <row r="95">
@@ -4799,34 +4799,34 @@
         <v>44352805.0501554</v>
       </c>
       <c r="E95" t="n">
-        <v>42682203.62697849</v>
+        <v>42682203.62697846</v>
       </c>
       <c r="F95" t="n">
-        <v>42682224.14561183</v>
+        <v>42682224.14561179</v>
       </c>
       <c r="G95" t="n">
-        <v>1674915.435663815</v>
+        <v>1674915.435663819</v>
       </c>
       <c r="H95" t="n">
-        <v>1674064.599286195</v>
+        <v>1674064.5992862</v>
       </c>
       <c r="I95" t="n">
-        <v>579642.5270274971</v>
+        <v>579642.5270274989</v>
       </c>
       <c r="J95" t="n">
-        <v>579642.9004292988</v>
+        <v>579642.9004293005</v>
       </c>
       <c r="K95" t="n">
         <v>44352944.6336908</v>
       </c>
       <c r="L95" t="n">
-        <v>42682203.62697849</v>
+        <v>42682203.62697846</v>
       </c>
       <c r="M95" t="n">
-        <v>1674915.435663815</v>
+        <v>1674915.435663819</v>
       </c>
       <c r="N95" t="n">
-        <v>579642.5270274971</v>
+        <v>579642.5270274989</v>
       </c>
     </row>
     <row r="96">
@@ -4845,34 +4845,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E96" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="F96" t="n">
-        <v>42678628.78304012</v>
+        <v>42678628.78304014</v>
       </c>
       <c r="G96" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="H96" t="n">
-        <v>1726152.586291585</v>
+        <v>1726152.586291589</v>
       </c>
       <c r="I96" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
       <c r="J96" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241053053</v>
       </c>
       <c r="K96" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L96" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="M96" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="N96" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
     </row>
     <row r="97">
@@ -4891,34 +4891,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E97" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="F97" t="n">
-        <v>42678628.78304012</v>
+        <v>42678628.78304014</v>
       </c>
       <c r="G97" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="H97" t="n">
-        <v>1726152.586291585</v>
+        <v>1726152.586291589</v>
       </c>
       <c r="I97" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
       <c r="J97" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241053053</v>
       </c>
       <c r="K97" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L97" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="M97" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="N97" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
     </row>
     <row r="98">
@@ -4937,34 +4937,34 @@
         <v>44254849.90804139</v>
       </c>
       <c r="E98" t="n">
-        <v>42673736.65047541</v>
+        <v>42673736.65047543</v>
       </c>
       <c r="F98" t="n">
-        <v>42673757.1628022</v>
+        <v>42673757.16280222</v>
       </c>
       <c r="G98" t="n">
-        <v>1720897.013443617</v>
+        <v>1720897.013443621</v>
       </c>
       <c r="H98" t="n">
-        <v>1719370.33007597</v>
+        <v>1719370.330075974</v>
       </c>
       <c r="I98" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441746654</v>
       </c>
       <c r="J98" t="n">
-        <v>579828.2184958491</v>
+        <v>579828.2184958509</v>
       </c>
       <c r="K98" t="n">
         <v>44255238.86784417</v>
       </c>
       <c r="L98" t="n">
-        <v>42673736.65047541</v>
+        <v>42673736.65047543</v>
       </c>
       <c r="M98" t="n">
-        <v>1720897.013443617</v>
+        <v>1720897.013443621</v>
       </c>
       <c r="N98" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441746654</v>
       </c>
     </row>
     <row r="99">
@@ -4983,34 +4983,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E99" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="F99" t="n">
-        <v>42678628.78304012</v>
+        <v>42678628.78304014</v>
       </c>
       <c r="G99" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="H99" t="n">
-        <v>1726152.586291585</v>
+        <v>1726152.586291589</v>
       </c>
       <c r="I99" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
       <c r="J99" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241053053</v>
       </c>
       <c r="K99" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L99" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="M99" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="N99" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
     </row>
     <row r="100">
@@ -5029,34 +5029,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E100" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="F100" t="n">
-        <v>42678628.78304012</v>
+        <v>42678628.78304014</v>
       </c>
       <c r="G100" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="H100" t="n">
-        <v>1726152.586291585</v>
+        <v>1726152.586291589</v>
       </c>
       <c r="I100" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
       <c r="J100" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241053053</v>
       </c>
       <c r="K100" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L100" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="M100" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="N100" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
     </row>
     <row r="101">
@@ -5075,34 +5075,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E101" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="F101" t="n">
-        <v>42678628.78304012</v>
+        <v>42678628.78304014</v>
       </c>
       <c r="G101" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="H101" t="n">
-        <v>1726152.586291585</v>
+        <v>1726152.586291589</v>
       </c>
       <c r="I101" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
       <c r="J101" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241053053</v>
       </c>
       <c r="K101" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L101" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="M101" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="N101" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
     </row>
     <row r="102">
@@ -5121,34 +5121,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E102" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="F102" t="n">
-        <v>42678628.78304012</v>
+        <v>42678628.78304014</v>
       </c>
       <c r="G102" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="H102" t="n">
-        <v>1726152.586291585</v>
+        <v>1726152.586291589</v>
       </c>
       <c r="I102" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
       <c r="J102" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241053053</v>
       </c>
       <c r="K102" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L102" t="n">
-        <v>42678608.2663215</v>
+        <v>42678608.26632151</v>
       </c>
       <c r="M102" t="n">
-        <v>1727517.949686029</v>
+        <v>1727517.949686033</v>
       </c>
       <c r="N102" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504606115</v>
       </c>
     </row>
     <row r="103">
@@ -5167,34 +5167,34 @@
         <v>44254849.90804139</v>
       </c>
       <c r="E103" t="n">
-        <v>42673736.65047541</v>
+        <v>42673736.65047543</v>
       </c>
       <c r="F103" t="n">
-        <v>42673757.1628022</v>
+        <v>42673757.16280222</v>
       </c>
       <c r="G103" t="n">
-        <v>1720897.013443617</v>
+        <v>1720897.013443621</v>
       </c>
       <c r="H103" t="n">
-        <v>1719370.33007597</v>
+        <v>1719370.330075974</v>
       </c>
       <c r="I103" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441746654</v>
       </c>
       <c r="J103" t="n">
-        <v>579828.2184958491</v>
+        <v>579828.2184958509</v>
       </c>
       <c r="K103" t="n">
         <v>44255238.86784417</v>
       </c>
       <c r="L103" t="n">
-        <v>42673736.65047541</v>
+        <v>42673736.65047543</v>
       </c>
       <c r="M103" t="n">
-        <v>1720897.013443617</v>
+        <v>1720897.013443621</v>
       </c>
       <c r="N103" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441746654</v>
       </c>
     </row>
     <row r="104">
@@ -5213,34 +5213,34 @@
         <v>44227851.03595178</v>
       </c>
       <c r="E104" t="n">
-        <v>42639812.64979225</v>
+        <v>42639812.64979227</v>
       </c>
       <c r="F104" t="n">
         <v>42639833.15292501</v>
       </c>
       <c r="G104" t="n">
-        <v>1720787.868828623</v>
+        <v>1720787.868828628</v>
       </c>
       <c r="H104" t="n">
-        <v>1719260.988923253</v>
+        <v>1719260.988923258</v>
       </c>
       <c r="I104" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604510434</v>
       </c>
       <c r="J104" t="n">
-        <v>579492.8343713903</v>
+        <v>579492.8343713921</v>
       </c>
       <c r="K104" t="n">
         <v>44228236.19669075</v>
       </c>
       <c r="L104" t="n">
-        <v>42639812.64979225</v>
+        <v>42639812.64979227</v>
       </c>
       <c r="M104" t="n">
-        <v>1720787.868828623</v>
+        <v>1720787.868828628</v>
       </c>
       <c r="N104" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604510434</v>
       </c>
     </row>
     <row r="105">
@@ -5259,34 +5259,34 @@
         <v>44254849.90804139</v>
       </c>
       <c r="E105" t="n">
-        <v>42673736.65047541</v>
+        <v>42673736.65047543</v>
       </c>
       <c r="F105" t="n">
-        <v>42673757.1628022</v>
+        <v>42673757.16280222</v>
       </c>
       <c r="G105" t="n">
-        <v>1720897.013443617</v>
+        <v>1720897.013443621</v>
       </c>
       <c r="H105" t="n">
-        <v>1719370.33007597</v>
+        <v>1719370.330075974</v>
       </c>
       <c r="I105" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441746654</v>
       </c>
       <c r="J105" t="n">
-        <v>579828.2184958491</v>
+        <v>579828.2184958509</v>
       </c>
       <c r="K105" t="n">
         <v>44255238.86784417</v>
       </c>
       <c r="L105" t="n">
-        <v>42673736.65047541</v>
+        <v>42673736.65047543</v>
       </c>
       <c r="M105" t="n">
-        <v>1720897.013443617</v>
+        <v>1720897.013443621</v>
       </c>
       <c r="N105" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441746654</v>
       </c>
     </row>
     <row r="106">
@@ -5305,34 +5305,34 @@
         <v>44227851.03595178</v>
       </c>
       <c r="E106" t="n">
-        <v>42639812.64979225</v>
+        <v>42639812.64979227</v>
       </c>
       <c r="F106" t="n">
         <v>42639833.15292501</v>
       </c>
       <c r="G106" t="n">
-        <v>1720787.868828623</v>
+        <v>1720787.868828628</v>
       </c>
       <c r="H106" t="n">
-        <v>1719260.988923253</v>
+        <v>1719260.988923258</v>
       </c>
       <c r="I106" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604510434</v>
       </c>
       <c r="J106" t="n">
-        <v>579492.8343713903</v>
+        <v>579492.8343713921</v>
       </c>
       <c r="K106" t="n">
         <v>44228236.19669075</v>
       </c>
       <c r="L106" t="n">
-        <v>42639812.64979225</v>
+        <v>42639812.64979227</v>
       </c>
       <c r="M106" t="n">
-        <v>1720787.868828623</v>
+        <v>1720787.868828628</v>
       </c>
       <c r="N106" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604510434</v>
       </c>
     </row>
     <row r="107">
@@ -5351,34 +5351,34 @@
         <v>44236402.21878745</v>
       </c>
       <c r="E107" t="n">
-        <v>42644625.02979143</v>
+        <v>42644625.0297914</v>
       </c>
       <c r="F107" t="n">
-        <v>42644645.53724574</v>
+        <v>42644645.53724571</v>
       </c>
       <c r="G107" t="n">
-        <v>1727408.805071035</v>
+        <v>1727408.805071039</v>
       </c>
       <c r="H107" t="n">
-        <v>1726043.245138868</v>
+        <v>1726043.245138872</v>
       </c>
       <c r="I107" t="n">
-        <v>579347.0990067094</v>
+        <v>579347.0990067106</v>
       </c>
       <c r="J107" t="n">
-        <v>579347.4722519736</v>
+        <v>579347.4722519749</v>
       </c>
       <c r="K107" t="n">
         <v>44236788.36547676</v>
       </c>
       <c r="L107" t="n">
-        <v>42644625.02979143</v>
+        <v>42644625.0297914</v>
       </c>
       <c r="M107" t="n">
-        <v>1727408.805071035</v>
+        <v>1727408.805071039</v>
       </c>
       <c r="N107" t="n">
-        <v>579347.0990067094</v>
+        <v>579347.0990067106</v>
       </c>
     </row>
     <row r="108">
@@ -5397,34 +5397,34 @@
         <v>44038751.09168386</v>
       </c>
       <c r="E108" t="n">
-        <v>42645452.43107866</v>
+        <v>42645452.43107864</v>
       </c>
       <c r="F108" t="n">
-        <v>42645472.929233</v>
+        <v>42645472.92923297</v>
       </c>
       <c r="G108" t="n">
-        <v>1583272.829104913</v>
+        <v>1583272.829104916</v>
       </c>
       <c r="H108" t="n">
-        <v>1583117.451312867</v>
+        <v>1583117.45131287</v>
       </c>
       <c r="I108" t="n">
-        <v>579699.7013230528</v>
+        <v>579699.7013230543</v>
       </c>
       <c r="J108" t="n">
-        <v>579700.0759444402</v>
+        <v>579700.0759444416</v>
       </c>
       <c r="K108" t="n">
         <v>44039180.61146123</v>
       </c>
       <c r="L108" t="n">
-        <v>42645452.43107866</v>
+        <v>42645452.43107864</v>
       </c>
       <c r="M108" t="n">
-        <v>1583272.829104913</v>
+        <v>1583272.829104916</v>
       </c>
       <c r="N108" t="n">
-        <v>579699.7013230528</v>
+        <v>579699.7013230543</v>
       </c>
     </row>
     <row r="109">
@@ -5443,34 +5443,34 @@
         <v>44209895.61399059</v>
       </c>
       <c r="E109" t="n">
-        <v>42653836.79615556</v>
+        <v>42653836.79615557</v>
       </c>
       <c r="F109" t="n">
         <v>42653857.29220781</v>
       </c>
       <c r="G109" t="n">
-        <v>1703098.434425497</v>
+        <v>1703098.434425501</v>
       </c>
       <c r="H109" t="n">
-        <v>1701844.104980985</v>
+        <v>1701844.104980989</v>
       </c>
       <c r="I109" t="n">
-        <v>579693.9548989035</v>
+        <v>579693.9548989055</v>
       </c>
       <c r="J109" t="n">
-        <v>579694.3293725281</v>
+        <v>579694.3293725301</v>
       </c>
       <c r="K109" t="n">
         <v>44210137.64349665</v>
       </c>
       <c r="L109" t="n">
-        <v>42653836.79615556</v>
+        <v>42653836.79615557</v>
       </c>
       <c r="M109" t="n">
-        <v>1703098.434425497</v>
+        <v>1703098.434425501</v>
       </c>
       <c r="N109" t="n">
-        <v>579693.9548989035</v>
+        <v>579693.9548989055</v>
       </c>
     </row>
     <row r="110">
@@ -5489,34 +5489,34 @@
         <v>44227851.03595178</v>
       </c>
       <c r="E110" t="n">
-        <v>42639812.64979225</v>
+        <v>42639812.64979227</v>
       </c>
       <c r="F110" t="n">
         <v>42639833.15292501</v>
       </c>
       <c r="G110" t="n">
-        <v>1720787.868828623</v>
+        <v>1720787.868828628</v>
       </c>
       <c r="H110" t="n">
-        <v>1719260.988923253</v>
+        <v>1719260.988923258</v>
       </c>
       <c r="I110" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604510434</v>
       </c>
       <c r="J110" t="n">
-        <v>579492.8343713903</v>
+        <v>579492.8343713921</v>
       </c>
       <c r="K110" t="n">
         <v>44228236.19669075</v>
       </c>
       <c r="L110" t="n">
-        <v>42639812.64979225</v>
+        <v>42639812.64979227</v>
       </c>
       <c r="M110" t="n">
-        <v>1720787.868828623</v>
+        <v>1720787.868828628</v>
       </c>
       <c r="N110" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604510434</v>
       </c>
     </row>
     <row r="111">
@@ -5535,34 +5535,34 @@
         <v>44227851.03595178</v>
       </c>
       <c r="E111" t="n">
-        <v>42639812.64979225</v>
+        <v>42639812.64979227</v>
       </c>
       <c r="F111" t="n">
         <v>42639833.15292501</v>
       </c>
       <c r="G111" t="n">
-        <v>1720787.868828623</v>
+        <v>1720787.868828628</v>
       </c>
       <c r="H111" t="n">
-        <v>1719260.988923253</v>
+        <v>1719260.988923258</v>
       </c>
       <c r="I111" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604510434</v>
       </c>
       <c r="J111" t="n">
-        <v>579492.8343713903</v>
+        <v>579492.8343713921</v>
       </c>
       <c r="K111" t="n">
         <v>44228236.19669075</v>
       </c>
       <c r="L111" t="n">
-        <v>42639812.64979225</v>
+        <v>42639812.64979227</v>
       </c>
       <c r="M111" t="n">
-        <v>1720787.868828623</v>
+        <v>1720787.868828628</v>
       </c>
       <c r="N111" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604510434</v>
       </c>
     </row>
     <row r="112">
@@ -5581,34 +5581,34 @@
         <v>44013079.7297485</v>
       </c>
       <c r="E112" t="n">
-        <v>42620206.79353427</v>
+        <v>42620206.79353429</v>
       </c>
       <c r="F112" t="n">
-        <v>42620227.2853965</v>
+        <v>42620227.28539652</v>
       </c>
       <c r="G112" t="n">
-        <v>1583142.892808005</v>
+        <v>1583142.892808008</v>
       </c>
       <c r="H112" t="n">
-        <v>1582987.226705493</v>
+        <v>1582987.226705497</v>
       </c>
       <c r="I112" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387461427</v>
       </c>
       <c r="J112" t="n">
-        <v>579577.1135115623</v>
+        <v>579577.1135115644</v>
       </c>
       <c r="K112" t="n">
         <v>44013509.15272382</v>
       </c>
       <c r="L112" t="n">
-        <v>42620206.79353427</v>
+        <v>42620206.79353429</v>
       </c>
       <c r="M112" t="n">
-        <v>1583142.892808005</v>
+        <v>1583142.892808008</v>
       </c>
       <c r="N112" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387461427</v>
       </c>
     </row>
     <row r="113">
@@ -5627,34 +5627,34 @@
         <v>44202179.67401642</v>
       </c>
       <c r="E113" t="n">
-        <v>42614576.48083655</v>
+        <v>42614576.48083653</v>
       </c>
       <c r="F113" t="n">
-        <v>42614596.97750365</v>
+        <v>42614596.97750363</v>
       </c>
       <c r="G113" t="n">
-        <v>1720657.932531715</v>
+        <v>1720657.93253172</v>
       </c>
       <c r="H113" t="n">
-        <v>1719130.76431588</v>
+        <v>1719130.764315885</v>
       </c>
       <c r="I113" t="n">
-        <v>579370.6441334076</v>
+        <v>579370.644133409</v>
       </c>
       <c r="J113" t="n">
-        <v>579371.0182124078</v>
+        <v>579371.0182124093</v>
       </c>
       <c r="K113" t="n">
         <v>44202564.73795334</v>
       </c>
       <c r="L113" t="n">
-        <v>42614576.48083655</v>
+        <v>42614576.48083653</v>
       </c>
       <c r="M113" t="n">
-        <v>1720657.932531715</v>
+        <v>1720657.93253172</v>
       </c>
       <c r="N113" t="n">
-        <v>579370.6441334076</v>
+        <v>579370.644133409</v>
       </c>
     </row>
     <row r="114">
@@ -5673,34 +5673,34 @@
         <v>44013079.7297485</v>
       </c>
       <c r="E114" t="n">
-        <v>42620206.79353427</v>
+        <v>42620206.79353429</v>
       </c>
       <c r="F114" t="n">
-        <v>42620227.2853965</v>
+        <v>42620227.28539652</v>
       </c>
       <c r="G114" t="n">
-        <v>1583142.892808005</v>
+        <v>1583142.892808008</v>
       </c>
       <c r="H114" t="n">
-        <v>1582987.226705493</v>
+        <v>1582987.226705497</v>
       </c>
       <c r="I114" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387461427</v>
       </c>
       <c r="J114" t="n">
-        <v>579577.1135115623</v>
+        <v>579577.1135115644</v>
       </c>
       <c r="K114" t="n">
         <v>44013509.15272382</v>
       </c>
       <c r="L114" t="n">
-        <v>42620206.79353427</v>
+        <v>42620206.79353429</v>
       </c>
       <c r="M114" t="n">
-        <v>1583142.892808005</v>
+        <v>1583142.892808008</v>
       </c>
       <c r="N114" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387461427</v>
       </c>
     </row>
     <row r="115">
@@ -5719,34 +5719,34 @@
         <v>44202179.67401642</v>
       </c>
       <c r="E115" t="n">
-        <v>42614576.48083655</v>
+        <v>42614576.48083653</v>
       </c>
       <c r="F115" t="n">
-        <v>42614596.97750365</v>
+        <v>42614596.97750363</v>
       </c>
       <c r="G115" t="n">
-        <v>1720657.932531715</v>
+        <v>1720657.93253172</v>
       </c>
       <c r="H115" t="n">
-        <v>1719130.76431588</v>
+        <v>1719130.764315885</v>
       </c>
       <c r="I115" t="n">
-        <v>579370.6441334076</v>
+        <v>579370.644133409</v>
       </c>
       <c r="J115" t="n">
-        <v>579371.0182124078</v>
+        <v>579371.0182124093</v>
       </c>
       <c r="K115" t="n">
         <v>44202564.73795334</v>
       </c>
       <c r="L115" t="n">
-        <v>42614576.48083655</v>
+        <v>42614576.48083653</v>
       </c>
       <c r="M115" t="n">
-        <v>1720657.932531715</v>
+        <v>1720657.93253172</v>
       </c>
       <c r="N115" t="n">
-        <v>579370.6441334076</v>
+        <v>579370.644133409</v>
       </c>
     </row>
     <row r="116">
@@ -5765,34 +5765,34 @@
         <v>44184224.25205524</v>
       </c>
       <c r="E116" t="n">
-        <v>42628466.63089977</v>
+        <v>42628466.63089976</v>
       </c>
       <c r="F116" t="n">
         <v>42628487.12080841</v>
       </c>
       <c r="G116" t="n">
-        <v>1702968.498128589</v>
+        <v>1702968.498128593</v>
       </c>
       <c r="H116" t="n">
-        <v>1701713.880373612</v>
+        <v>1701713.880373617</v>
       </c>
       <c r="I116" t="n">
-        <v>579568.7455024377</v>
+        <v>579568.7455024394</v>
       </c>
       <c r="J116" t="n">
-        <v>579569.1201038336</v>
+        <v>579569.1201038354</v>
       </c>
       <c r="K116" t="n">
         <v>44184466.18475924</v>
       </c>
       <c r="L116" t="n">
-        <v>42628466.63089977</v>
+        <v>42628466.63089976</v>
       </c>
       <c r="M116" t="n">
-        <v>1702968.498128589</v>
+        <v>1702968.498128593</v>
       </c>
       <c r="N116" t="n">
-        <v>579568.7455024377</v>
+        <v>579568.7455024394</v>
       </c>
     </row>
     <row r="117">
@@ -5811,34 +5811,34 @@
         <v>44013079.7297485</v>
       </c>
       <c r="E117" t="n">
-        <v>42620206.79353427</v>
+        <v>42620206.79353429</v>
       </c>
       <c r="F117" t="n">
-        <v>42620227.2853965</v>
+        <v>42620227.28539652</v>
       </c>
       <c r="G117" t="n">
-        <v>1583142.892808005</v>
+        <v>1583142.892808008</v>
       </c>
       <c r="H117" t="n">
-        <v>1582987.226705493</v>
+        <v>1582987.226705497</v>
       </c>
       <c r="I117" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387461427</v>
       </c>
       <c r="J117" t="n">
-        <v>579577.1135115623</v>
+        <v>579577.1135115644</v>
       </c>
       <c r="K117" t="n">
         <v>44013509.15272382</v>
       </c>
       <c r="L117" t="n">
-        <v>42620206.79353427</v>
+        <v>42620206.79353429</v>
       </c>
       <c r="M117" t="n">
-        <v>1583142.892808005</v>
+        <v>1583142.892808008</v>
       </c>
       <c r="N117" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387461427</v>
       </c>
     </row>
     <row r="118">
@@ -5857,34 +5857,34 @@
         <v>44013079.7297485</v>
       </c>
       <c r="E118" t="n">
-        <v>42620206.79353427</v>
+        <v>42620206.79353429</v>
       </c>
       <c r="F118" t="n">
-        <v>42620227.2853965</v>
+        <v>42620227.28539652</v>
       </c>
       <c r="G118" t="n">
-        <v>1583142.892808005</v>
+        <v>1583142.892808008</v>
       </c>
       <c r="H118" t="n">
-        <v>1582987.226705493</v>
+        <v>1582987.226705497</v>
       </c>
       <c r="I118" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387461427</v>
       </c>
       <c r="J118" t="n">
-        <v>579577.1135115623</v>
+        <v>579577.1135115644</v>
       </c>
       <c r="K118" t="n">
         <v>44013509.15272382</v>
       </c>
       <c r="L118" t="n">
-        <v>42620206.79353427</v>
+        <v>42620206.79353429</v>
       </c>
       <c r="M118" t="n">
-        <v>1583142.892808005</v>
+        <v>1583142.892808008</v>
       </c>
       <c r="N118" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387461427</v>
       </c>
     </row>
     <row r="119">
@@ -5903,34 +5903,34 @@
         <v>43985191.0571043</v>
       </c>
       <c r="E119" t="n">
-        <v>42583512.07849634</v>
+        <v>42583512.07849635</v>
       </c>
       <c r="F119" t="n">
-        <v>42583532.55837379</v>
+        <v>42583532.55837381</v>
       </c>
       <c r="G119" t="n">
-        <v>1583035.779974252</v>
+        <v>1583035.779974255</v>
       </c>
       <c r="H119" t="n">
-        <v>1582880.097786328</v>
+        <v>1582880.097786331</v>
       </c>
       <c r="I119" t="n">
-        <v>579068.7007636433</v>
+        <v>579068.7007636451</v>
       </c>
       <c r="J119" t="n">
-        <v>579069.0746130999</v>
+        <v>579069.0746131019</v>
       </c>
       <c r="K119" t="n">
         <v>43985624.69423348</v>
       </c>
       <c r="L119" t="n">
-        <v>42583512.07849634</v>
+        <v>42583512.07849635</v>
       </c>
       <c r="M119" t="n">
-        <v>1583035.779974252</v>
+        <v>1583035.779974255</v>
       </c>
       <c r="N119" t="n">
-        <v>579068.7007636433</v>
+        <v>579068.7007636451</v>
       </c>
     </row>
     <row r="120">
@@ -5949,34 +5949,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E120" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="F120" t="n">
-        <v>42597519.79681315</v>
+        <v>42597519.79681313</v>
       </c>
       <c r="G120" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="H120" t="n">
-        <v>1565463.21384406</v>
+        <v>1565463.213844063</v>
       </c>
       <c r="I120" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
       <c r="J120" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832370154</v>
       </c>
       <c r="K120" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L120" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="M120" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="N120" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
     </row>
     <row r="121">
@@ -5998,19 +5998,19 @@
         <v>42567769.97303949</v>
       </c>
       <c r="F121" t="n">
-        <v>42567790.44326751</v>
+        <v>42567790.4432675</v>
       </c>
       <c r="G121" t="n">
-        <v>1650007.385850326</v>
+        <v>1650007.385850331</v>
       </c>
       <c r="H121" t="n">
-        <v>1649921.694799062</v>
+        <v>1649921.694799066</v>
       </c>
       <c r="I121" t="n">
-        <v>579069.8535882158</v>
+        <v>579069.8535882174</v>
       </c>
       <c r="J121" t="n">
-        <v>579070.2278838839</v>
+        <v>579070.2278838855</v>
       </c>
       <c r="K121" t="n">
         <v>44381520.91916738</v>
@@ -6019,10 +6019,10 @@
         <v>42567769.97303949</v>
       </c>
       <c r="M121" t="n">
-        <v>1650007.385850326</v>
+        <v>1650007.385850331</v>
       </c>
       <c r="N121" t="n">
-        <v>579069.8535882158</v>
+        <v>579069.8535882174</v>
       </c>
     </row>
     <row r="122">
@@ -6041,34 +6041,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E122" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="F122" t="n">
-        <v>42597519.79681315</v>
+        <v>42597519.79681313</v>
       </c>
       <c r="G122" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="H122" t="n">
-        <v>1565463.21384406</v>
+        <v>1565463.213844063</v>
       </c>
       <c r="I122" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
       <c r="J122" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832370154</v>
       </c>
       <c r="K122" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L122" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="M122" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="N122" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
     </row>
     <row r="123">
@@ -6087,34 +6087,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E123" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="F123" t="n">
-        <v>42597519.79681315</v>
+        <v>42597519.79681313</v>
       </c>
       <c r="G123" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="H123" t="n">
-        <v>1565463.21384406</v>
+        <v>1565463.213844063</v>
       </c>
       <c r="I123" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
       <c r="J123" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832370154</v>
       </c>
       <c r="K123" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L123" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="M123" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="N123" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
     </row>
     <row r="124">
@@ -6133,34 +6133,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E124" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="F124" t="n">
-        <v>42597519.79681315</v>
+        <v>42597519.79681313</v>
       </c>
       <c r="G124" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="H124" t="n">
-        <v>1565463.21384406</v>
+        <v>1565463.213844063</v>
       </c>
       <c r="I124" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
       <c r="J124" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832370154</v>
       </c>
       <c r="K124" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L124" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="M124" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="N124" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
     </row>
     <row r="125">
@@ -6179,34 +6179,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E125" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="F125" t="n">
-        <v>42597519.79681315</v>
+        <v>42597519.79681313</v>
       </c>
       <c r="G125" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="H125" t="n">
-        <v>1565463.21384406</v>
+        <v>1565463.213844063</v>
       </c>
       <c r="I125" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
       <c r="J125" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832370154</v>
       </c>
       <c r="K125" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L125" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="M125" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="N125" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
     </row>
     <row r="126">
@@ -6225,34 +6225,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E126" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="F126" t="n">
-        <v>42597519.79681315</v>
+        <v>42597519.79681313</v>
       </c>
       <c r="G126" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="H126" t="n">
-        <v>1565463.21384406</v>
+        <v>1565463.213844063</v>
       </c>
       <c r="I126" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
       <c r="J126" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832370154</v>
       </c>
       <c r="K126" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L126" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="M126" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="N126" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
     </row>
     <row r="127">
@@ -6271,34 +6271,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E127" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="F127" t="n">
-        <v>42597519.79681315</v>
+        <v>42597519.79681313</v>
       </c>
       <c r="G127" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="H127" t="n">
-        <v>1565463.21384406</v>
+        <v>1565463.213844063</v>
       </c>
       <c r="I127" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
       <c r="J127" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832370154</v>
       </c>
       <c r="K127" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L127" t="n">
-        <v>42597499.32410115</v>
+        <v>42597499.32410113</v>
       </c>
       <c r="M127" t="n">
-        <v>1565346.345571125</v>
+        <v>1565346.345571129</v>
       </c>
       <c r="N127" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453866</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tp5_volumen_area.xlsx
+++ b/resultados_tp5_volumen_area.xlsx
@@ -524,19 +524,19 @@
         <v>503287.4320231423</v>
       </c>
       <c r="F2" t="n">
-        <v>503287.407859484</v>
+        <v>503287.4078594841</v>
       </c>
       <c r="G2" t="n">
-        <v>38303.04457283532</v>
+        <v>38303.04457283919</v>
       </c>
       <c r="H2" t="n">
-        <v>38303.47802882673</v>
+        <v>38303.47802883059</v>
       </c>
       <c r="I2" t="n">
-        <v>37105.28041973422</v>
+        <v>37105.28041973845</v>
       </c>
       <c r="J2" t="n">
-        <v>37105.28122561323</v>
+        <v>37105.28122561745</v>
       </c>
       <c r="K2" t="n">
         <v>492297.5136579699</v>
@@ -545,10 +545,10 @@
         <v>503287.4320231423</v>
       </c>
       <c r="M2" t="n">
-        <v>38303.04457283532</v>
+        <v>38303.04457283919</v>
       </c>
       <c r="N2" t="n">
-        <v>37105.28041973422</v>
+        <v>37105.28041973845</v>
       </c>
     </row>
     <row r="3">
@@ -573,16 +573,16 @@
         <v>2376332.34340198</v>
       </c>
       <c r="G3" t="n">
-        <v>87211.5982799167</v>
+        <v>87211.59827992356</v>
       </c>
       <c r="H3" t="n">
-        <v>87214.95763914091</v>
+        <v>87214.95763914777</v>
       </c>
       <c r="I3" t="n">
-        <v>89787.29680741183</v>
+        <v>89787.29680741997</v>
       </c>
       <c r="J3" t="n">
-        <v>89787.28271196375</v>
+        <v>89787.28271197189</v>
       </c>
       <c r="K3" t="n">
         <v>2359886.158158994</v>
@@ -591,10 +591,10 @@
         <v>2376332.708636954</v>
       </c>
       <c r="M3" t="n">
-        <v>87211.5982799167</v>
+        <v>87211.59827992356</v>
       </c>
       <c r="N3" t="n">
-        <v>89787.29680741183</v>
+        <v>89787.29680741997</v>
       </c>
     </row>
     <row r="4">
@@ -613,34 +613,34 @@
         <v>3833527.702237455</v>
       </c>
       <c r="E4" t="n">
-        <v>3848613.763209693</v>
+        <v>3848613.763209696</v>
       </c>
       <c r="F4" t="n">
-        <v>3848613.152153904</v>
+        <v>3848613.152153906</v>
       </c>
       <c r="G4" t="n">
-        <v>105741.5650222027</v>
+        <v>105741.5650222041</v>
       </c>
       <c r="H4" t="n">
-        <v>105743.9310690051</v>
+        <v>105743.9310690065</v>
       </c>
       <c r="I4" t="n">
-        <v>105721.4371069311</v>
+        <v>105721.4371069331</v>
       </c>
       <c r="J4" t="n">
-        <v>105721.4656570629</v>
+        <v>105721.465657065</v>
       </c>
       <c r="K4" t="n">
         <v>3833527.756547619</v>
       </c>
       <c r="L4" t="n">
-        <v>3848613.763209693</v>
+        <v>3848613.763209696</v>
       </c>
       <c r="M4" t="n">
-        <v>105741.5650222027</v>
+        <v>105741.5650222041</v>
       </c>
       <c r="N4" t="n">
-        <v>105721.4371069311</v>
+        <v>105721.4371069331</v>
       </c>
     </row>
     <row r="5">
@@ -659,34 +659,34 @@
         <v>7590311.784123691</v>
       </c>
       <c r="E5" t="n">
-        <v>7602531.553141538</v>
+        <v>7602531.553141545</v>
       </c>
       <c r="F5" t="n">
-        <v>7602530.453239577</v>
+        <v>7602530.453239582</v>
       </c>
       <c r="G5" t="n">
-        <v>160021.4029501789</v>
+        <v>160021.4029501793</v>
       </c>
       <c r="H5" t="n">
-        <v>160031.6074823451</v>
+        <v>160031.6074823454</v>
       </c>
       <c r="I5" t="n">
-        <v>159954.3252220366</v>
+        <v>159954.3252220374</v>
       </c>
       <c r="J5" t="n">
-        <v>159954.3494507725</v>
+        <v>159954.3494507732</v>
       </c>
       <c r="K5" t="n">
         <v>7590312.215988101</v>
       </c>
       <c r="L5" t="n">
-        <v>7602531.553141538</v>
+        <v>7602531.553141545</v>
       </c>
       <c r="M5" t="n">
-        <v>160021.4029501789</v>
+        <v>160021.4029501793</v>
       </c>
       <c r="N5" t="n">
-        <v>159954.3252220366</v>
+        <v>159954.3252220374</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>11266455.073326</v>
       </c>
       <c r="E6" t="n">
-        <v>11224881.58481811</v>
+        <v>11224881.5848181</v>
       </c>
       <c r="F6" t="n">
-        <v>11224880.53635155</v>
+        <v>11224880.53635154</v>
       </c>
       <c r="G6" t="n">
-        <v>204761.7537812527</v>
+        <v>204761.7537812592</v>
       </c>
       <c r="H6" t="n">
-        <v>204782.7560837112</v>
+        <v>204782.7560837176</v>
       </c>
       <c r="I6" t="n">
-        <v>198679.7776864662</v>
+        <v>198679.7776864747</v>
       </c>
       <c r="J6" t="n">
-        <v>198679.8162659412</v>
+        <v>198679.8162659497</v>
       </c>
       <c r="K6" t="n">
         <v>11266455.87013693</v>
       </c>
       <c r="L6" t="n">
-        <v>11224881.58481811</v>
+        <v>11224881.5848181</v>
       </c>
       <c r="M6" t="n">
-        <v>204761.7537812527</v>
+        <v>204761.7537812592</v>
       </c>
       <c r="N6" t="n">
-        <v>198679.7776864662</v>
+        <v>198679.7776864747</v>
       </c>
     </row>
     <row r="7">
@@ -757,16 +757,16 @@
         <v>12688150.48382118</v>
       </c>
       <c r="G7" t="n">
-        <v>221226.3884593834</v>
+        <v>221226.3884593915</v>
       </c>
       <c r="H7" t="n">
-        <v>221237.3576372714</v>
+        <v>221237.3576372795</v>
       </c>
       <c r="I7" t="n">
-        <v>211224.6608686564</v>
+        <v>211224.6608686677</v>
       </c>
       <c r="J7" t="n">
-        <v>211224.758933373</v>
+        <v>211224.7589333843</v>
       </c>
       <c r="K7" t="n">
         <v>12728798.64204014</v>
@@ -775,10 +775,10 @@
         <v>12688151.2150554</v>
       </c>
       <c r="M7" t="n">
-        <v>221226.3884593834</v>
+        <v>221226.3884593915</v>
       </c>
       <c r="N7" t="n">
-        <v>211224.6608686564</v>
+        <v>211224.6608686677</v>
       </c>
     </row>
     <row r="8">
@@ -797,34 +797,34 @@
         <v>17990687.68353703</v>
       </c>
       <c r="E8" t="n">
-        <v>17961184.12210865</v>
+        <v>17961184.12210862</v>
       </c>
       <c r="F8" t="n">
-        <v>17961184.44261342</v>
+        <v>17961184.4426134</v>
       </c>
       <c r="G8" t="n">
-        <v>280968.9257451746</v>
+        <v>280968.9257451741</v>
       </c>
       <c r="H8" t="n">
-        <v>281013.5476367891</v>
+        <v>281013.5476367886</v>
       </c>
       <c r="I8" t="n">
-        <v>265528.9890602651</v>
+        <v>265528.9890602645</v>
       </c>
       <c r="J8" t="n">
-        <v>265529.1113079016</v>
+        <v>265529.111307901</v>
       </c>
       <c r="K8" t="n">
         <v>17990692.23022898</v>
       </c>
       <c r="L8" t="n">
-        <v>17961184.12210865</v>
+        <v>17961184.12210862</v>
       </c>
       <c r="M8" t="n">
-        <v>280968.9257451746</v>
+        <v>280968.9257451741</v>
       </c>
       <c r="N8" t="n">
-        <v>265528.9890602651</v>
+        <v>265528.9890602645</v>
       </c>
     </row>
     <row r="9">
@@ -843,34 +843,34 @@
         <v>16942924.52214241</v>
       </c>
       <c r="E9" t="n">
-        <v>16969999.06095945</v>
+        <v>16969999.06095944</v>
       </c>
       <c r="F9" t="n">
-        <v>16970001.02811866</v>
+        <v>16970001.02811865</v>
       </c>
       <c r="G9" t="n">
-        <v>281666.0834419566</v>
+        <v>281666.0834419585</v>
       </c>
       <c r="H9" t="n">
-        <v>281681.8407315722</v>
+        <v>281681.8407315742</v>
       </c>
       <c r="I9" t="n">
-        <v>263296.7797055046</v>
+        <v>263296.779705507</v>
       </c>
       <c r="J9" t="n">
-        <v>263296.9735382525</v>
+        <v>263296.9735382549</v>
       </c>
       <c r="K9" t="n">
         <v>16942924.10742117</v>
       </c>
       <c r="L9" t="n">
-        <v>16969999.06095945</v>
+        <v>16969999.06095944</v>
       </c>
       <c r="M9" t="n">
-        <v>281666.0834419566</v>
+        <v>281666.0834419585</v>
       </c>
       <c r="N9" t="n">
-        <v>263296.7797055046</v>
+        <v>263296.779705507</v>
       </c>
     </row>
     <row r="10">
@@ -889,34 +889,34 @@
         <v>21846572.78057611</v>
       </c>
       <c r="E10" t="n">
-        <v>21926426.56017383</v>
+        <v>21926426.56017384</v>
       </c>
       <c r="F10" t="n">
         <v>21926431.95549987</v>
       </c>
       <c r="G10" t="n">
-        <v>344390.3839427837</v>
+        <v>344390.3839427828</v>
       </c>
       <c r="H10" t="n">
-        <v>344466.8848461593</v>
+        <v>344466.8848461584</v>
       </c>
       <c r="I10" t="n">
-        <v>322848.4346523343</v>
+        <v>322848.4346523334</v>
       </c>
       <c r="J10" t="n">
-        <v>322848.6744981595</v>
+        <v>322848.6744981587</v>
       </c>
       <c r="K10" t="n">
         <v>21846571.65720686</v>
       </c>
       <c r="L10" t="n">
-        <v>21926426.56017383</v>
+        <v>21926426.56017384</v>
       </c>
       <c r="M10" t="n">
-        <v>344390.3839427837</v>
+        <v>344390.3839427828</v>
       </c>
       <c r="N10" t="n">
-        <v>322848.4346523343</v>
+        <v>322848.4346523334</v>
       </c>
     </row>
     <row r="11">
@@ -941,16 +941,16 @@
         <v>18653097.64179066</v>
       </c>
       <c r="G11" t="n">
-        <v>337722.0744504059</v>
+        <v>337722.074450405</v>
       </c>
       <c r="H11" t="n">
-        <v>337735.1729408346</v>
+        <v>337735.1729408338</v>
       </c>
       <c r="I11" t="n">
-        <v>321949.4303149451</v>
+        <v>321949.4303149442</v>
       </c>
       <c r="J11" t="n">
-        <v>321949.7069237316</v>
+        <v>321949.7069237308</v>
       </c>
       <c r="K11" t="n">
         <v>18441885.16186064</v>
@@ -959,10 +959,10 @@
         <v>18653090.3042887</v>
       </c>
       <c r="M11" t="n">
-        <v>337722.0744504059</v>
+        <v>337722.074450405</v>
       </c>
       <c r="N11" t="n">
-        <v>321949.4303149451</v>
+        <v>321949.4303149442</v>
       </c>
     </row>
     <row r="12">
@@ -981,34 +981,34 @@
         <v>22778587.71463401</v>
       </c>
       <c r="E12" t="n">
-        <v>23104013.80452915</v>
+        <v>23104013.8045292</v>
       </c>
       <c r="F12" t="n">
-        <v>23104023.41336616</v>
+        <v>23104023.41336621</v>
       </c>
       <c r="G12" t="n">
-        <v>411662.3881852357</v>
+        <v>411662.3881852344</v>
       </c>
       <c r="H12" t="n">
-        <v>411638.9614178106</v>
+        <v>411638.9614178095</v>
       </c>
       <c r="I12" t="n">
-        <v>384767.3828066674</v>
+        <v>384767.3828066668</v>
       </c>
       <c r="J12" t="n">
-        <v>384767.7375946969</v>
+        <v>384767.7375946963</v>
       </c>
       <c r="K12" t="n">
         <v>22778625.88226892</v>
       </c>
       <c r="L12" t="n">
-        <v>23104013.80452915</v>
+        <v>23104013.8045292</v>
       </c>
       <c r="M12" t="n">
-        <v>411662.3881852357</v>
+        <v>411662.3881852344</v>
       </c>
       <c r="N12" t="n">
-        <v>384767.3828066674</v>
+        <v>384767.3828066668</v>
       </c>
     </row>
     <row r="13">
@@ -1027,34 +1027,34 @@
         <v>19411569.36090456</v>
       </c>
       <c r="E13" t="n">
-        <v>19732849.71900064</v>
+        <v>19732849.71900065</v>
       </c>
       <c r="F13" t="n">
-        <v>19732857.14934797</v>
+        <v>19732857.14934798</v>
       </c>
       <c r="G13" t="n">
-        <v>365386.6172387444</v>
+        <v>365386.6172387435</v>
       </c>
       <c r="H13" t="n">
-        <v>365378.38111171</v>
+        <v>365378.3811117092</v>
       </c>
       <c r="I13" t="n">
-        <v>349051.7560588879</v>
+        <v>349051.7560588872</v>
       </c>
       <c r="J13" t="n">
-        <v>349052.1132693988</v>
+        <v>349052.1132693981</v>
       </c>
       <c r="K13" t="n">
         <v>19411552.62435886</v>
       </c>
       <c r="L13" t="n">
-        <v>19732849.71900064</v>
+        <v>19732849.71900065</v>
       </c>
       <c r="M13" t="n">
-        <v>365386.6172387444</v>
+        <v>365386.6172387435</v>
       </c>
       <c r="N13" t="n">
-        <v>349051.7560588879</v>
+        <v>349051.7560588872</v>
       </c>
     </row>
     <row r="14">
@@ -1073,34 +1073,34 @@
         <v>23917902.80147172</v>
       </c>
       <c r="E14" t="n">
-        <v>24208176.48325319</v>
+        <v>24208176.4832532</v>
       </c>
       <c r="F14" t="n">
         <v>24208186.65888144</v>
       </c>
       <c r="G14" t="n">
-        <v>428245.8992963359</v>
+        <v>428245.8992963346</v>
       </c>
       <c r="H14" t="n">
-        <v>428196.4415156027</v>
+        <v>428196.4415156014</v>
       </c>
       <c r="I14" t="n">
-        <v>396857.4802810946</v>
+        <v>396857.4802810937</v>
       </c>
       <c r="J14" t="n">
-        <v>396857.8418849329</v>
+        <v>396857.841884932</v>
       </c>
       <c r="K14" t="n">
         <v>23917964.46862214</v>
       </c>
       <c r="L14" t="n">
-        <v>24208176.48325319</v>
+        <v>24208176.4832532</v>
       </c>
       <c r="M14" t="n">
-        <v>428245.8992963359</v>
+        <v>428245.8992963346</v>
       </c>
       <c r="N14" t="n">
-        <v>396857.4802810946</v>
+        <v>396857.4802810937</v>
       </c>
     </row>
     <row r="15">
@@ -1119,34 +1119,34 @@
         <v>19212523.72884444</v>
       </c>
       <c r="E15" t="n">
-        <v>19501164.27736566</v>
+        <v>19501164.27736562</v>
       </c>
       <c r="F15" t="n">
-        <v>19501171.62035051</v>
+        <v>19501171.62035046</v>
       </c>
       <c r="G15" t="n">
-        <v>363766.4262644441</v>
+        <v>363766.4262644431</v>
       </c>
       <c r="H15" t="n">
-        <v>363758.3116922374</v>
+        <v>363758.3116922364</v>
       </c>
       <c r="I15" t="n">
-        <v>346163.4346194628</v>
+        <v>346163.4346194614</v>
       </c>
       <c r="J15" t="n">
-        <v>346163.7882173457</v>
+        <v>346163.7882173444</v>
       </c>
       <c r="K15" t="n">
         <v>19212508.96889826</v>
       </c>
       <c r="L15" t="n">
-        <v>19501164.27736566</v>
+        <v>19501164.27736562</v>
       </c>
       <c r="M15" t="n">
-        <v>363766.4262644441</v>
+        <v>363766.4262644431</v>
       </c>
       <c r="N15" t="n">
-        <v>346163.4346194628</v>
+        <v>346163.4346194614</v>
       </c>
     </row>
     <row r="16">
@@ -1165,34 +1165,34 @@
         <v>23646488.85973246</v>
       </c>
       <c r="E16" t="n">
-        <v>23899109.98302744</v>
+        <v>23899109.98302747</v>
       </c>
       <c r="F16" t="n">
-        <v>23899120.01993079</v>
+        <v>23899120.01993081</v>
       </c>
       <c r="G16" t="n">
-        <v>426330.0283393813</v>
+        <v>426330.0283393799</v>
       </c>
       <c r="H16" t="n">
-        <v>426281.2055555937</v>
+        <v>426281.2055555923</v>
       </c>
       <c r="I16" t="n">
-        <v>393281.5605685679</v>
+        <v>393281.5605685671</v>
       </c>
       <c r="J16" t="n">
-        <v>393281.9187447818</v>
+        <v>393281.918744781</v>
       </c>
       <c r="K16" t="n">
         <v>23646553.78608629</v>
       </c>
       <c r="L16" t="n">
-        <v>23899109.98302744</v>
+        <v>23899109.98302747</v>
       </c>
       <c r="M16" t="n">
-        <v>426330.0283393813</v>
+        <v>426330.0283393799</v>
       </c>
       <c r="N16" t="n">
-        <v>393281.5605685679</v>
+        <v>393281.5605685671</v>
       </c>
     </row>
     <row r="17">
@@ -1217,16 +1217,16 @@
         <v>20465231.12803015</v>
       </c>
       <c r="G17" t="n">
-        <v>374564.5962198953</v>
+        <v>374564.5962198943</v>
       </c>
       <c r="H17" t="n">
-        <v>374554.3843271775</v>
+        <v>374554.3843271765</v>
       </c>
       <c r="I17" t="n">
-        <v>357013.4717258842</v>
+        <v>357013.4717258833</v>
       </c>
       <c r="J17" t="n">
-        <v>357013.8292805857</v>
+        <v>357013.8292805848</v>
       </c>
       <c r="K17" t="n">
         <v>20186207.65331377</v>
@@ -1235,10 +1235,10 @@
         <v>20465223.23535335</v>
       </c>
       <c r="M17" t="n">
-        <v>374564.5962198953</v>
+        <v>374564.5962198943</v>
       </c>
       <c r="N17" t="n">
-        <v>357013.4717258842</v>
+        <v>357013.4717258833</v>
       </c>
     </row>
     <row r="18">
@@ -1257,34 +1257,34 @@
         <v>24703991.99808469</v>
       </c>
       <c r="E18" t="n">
-        <v>24885754.43753464</v>
+        <v>24885754.43753463</v>
       </c>
       <c r="F18" t="n">
         <v>24885764.99892138</v>
       </c>
       <c r="G18" t="n">
-        <v>428701.8984699967</v>
+        <v>428701.8984699955</v>
       </c>
       <c r="H18" t="n">
-        <v>428567.5393562131</v>
+        <v>428567.5393562119</v>
       </c>
       <c r="I18" t="n">
-        <v>403768.2664463035</v>
+        <v>403768.2664463024</v>
       </c>
       <c r="J18" t="n">
-        <v>403768.6291471077</v>
+        <v>403768.6291471067</v>
       </c>
       <c r="K18" t="n">
         <v>24704005.35057724</v>
       </c>
       <c r="L18" t="n">
-        <v>24885754.43753464</v>
+        <v>24885754.43753463</v>
       </c>
       <c r="M18" t="n">
-        <v>428701.8984699967</v>
+        <v>428701.8984699955</v>
       </c>
       <c r="N18" t="n">
-        <v>403768.2664463035</v>
+        <v>403768.2664463024</v>
       </c>
     </row>
     <row r="19">
@@ -1303,34 +1303,34 @@
         <v>40563523.37699713</v>
       </c>
       <c r="E19" t="n">
-        <v>39502449.82897942</v>
+        <v>39502449.82897941</v>
       </c>
       <c r="F19" t="n">
-        <v>39502468.15979914</v>
+        <v>39502468.15979913</v>
       </c>
       <c r="G19" t="n">
-        <v>1204584.399849207</v>
+        <v>1204584.399849204</v>
       </c>
       <c r="H19" t="n">
-        <v>1204823.382202354</v>
+        <v>1204823.382202351</v>
       </c>
       <c r="I19" t="n">
-        <v>539991.2416213468</v>
+        <v>539991.2416213455</v>
       </c>
       <c r="J19" t="n">
-        <v>539991.6206153446</v>
+        <v>539991.6206153436</v>
       </c>
       <c r="K19" t="n">
         <v>40563130.33104864</v>
       </c>
       <c r="L19" t="n">
-        <v>39502449.82897942</v>
+        <v>39502449.82897941</v>
       </c>
       <c r="M19" t="n">
-        <v>1204584.399849207</v>
+        <v>1204584.399849204</v>
       </c>
       <c r="N19" t="n">
-        <v>539991.2416213468</v>
+        <v>539991.2416213455</v>
       </c>
     </row>
     <row r="20">
@@ -1349,34 +1349,34 @@
         <v>51982241.79267082</v>
       </c>
       <c r="E20" t="n">
-        <v>49864939.32350731</v>
+        <v>49864939.32350727</v>
       </c>
       <c r="F20" t="n">
-        <v>49864964.39023639</v>
+        <v>49864964.39023633</v>
       </c>
       <c r="G20" t="n">
-        <v>2633400.697886103</v>
+        <v>2633400.697886097</v>
       </c>
       <c r="H20" t="n">
-        <v>2632373.289227729</v>
+        <v>2632373.289227723</v>
       </c>
       <c r="I20" t="n">
-        <v>692291.9317916729</v>
+        <v>692291.9317916699</v>
       </c>
       <c r="J20" t="n">
-        <v>692292.4242517838</v>
+        <v>692292.4242517807</v>
       </c>
       <c r="K20" t="n">
         <v>51981921.91462477</v>
       </c>
       <c r="L20" t="n">
-        <v>49864939.32350731</v>
+        <v>49864939.32350727</v>
       </c>
       <c r="M20" t="n">
-        <v>2633400.697886103</v>
+        <v>2633400.697886097</v>
       </c>
       <c r="N20" t="n">
-        <v>692291.9317916729</v>
+        <v>692291.9317916699</v>
       </c>
     </row>
     <row r="21">
@@ -1395,34 +1395,34 @@
         <v>51000253.68862828</v>
       </c>
       <c r="E21" t="n">
-        <v>45312485.80859876</v>
+        <v>45312485.8085988</v>
       </c>
       <c r="F21" t="n">
-        <v>45312503.74121714</v>
+        <v>45312503.74121717</v>
       </c>
       <c r="G21" t="n">
-        <v>6741062.467714577</v>
+        <v>6741062.467714562</v>
       </c>
       <c r="H21" t="n">
-        <v>6743042.027021015</v>
+        <v>6743042.027020999</v>
       </c>
       <c r="I21" t="n">
-        <v>673488.6798081418</v>
+        <v>673488.6798081349</v>
       </c>
       <c r="J21" t="n">
-        <v>673488.0847856248</v>
+        <v>673488.084785618</v>
       </c>
       <c r="K21" t="n">
         <v>51000771.73565149</v>
       </c>
       <c r="L21" t="n">
-        <v>45312485.80859876</v>
+        <v>45312485.8085988</v>
       </c>
       <c r="M21" t="n">
-        <v>6741062.467714577</v>
+        <v>6741062.467714562</v>
       </c>
       <c r="N21" t="n">
-        <v>673488.6798081418</v>
+        <v>673488.6798081349</v>
       </c>
     </row>
     <row r="22">
@@ -1441,34 +1441,34 @@
         <v>53752933.9048178</v>
       </c>
       <c r="E22" t="n">
-        <v>48538438.06947877</v>
+        <v>48538438.06947874</v>
       </c>
       <c r="F22" t="n">
         <v>48538457.6760857</v>
       </c>
       <c r="G22" t="n">
-        <v>5701219.65736044</v>
+        <v>5701219.657360424</v>
       </c>
       <c r="H22" t="n">
-        <v>5703115.656732023</v>
+        <v>5703115.656732007</v>
       </c>
       <c r="I22" t="n">
-        <v>801628.5264033722</v>
+        <v>801628.5264033611</v>
       </c>
       <c r="J22" t="n">
-        <v>801627.9796240296</v>
+        <v>801627.9796240183</v>
       </c>
       <c r="K22" t="n">
         <v>53752757.94377105</v>
       </c>
       <c r="L22" t="n">
-        <v>48538438.06947877</v>
+        <v>48538438.06947874</v>
       </c>
       <c r="M22" t="n">
-        <v>5701219.65736044</v>
+        <v>5701219.657360424</v>
       </c>
       <c r="N22" t="n">
-        <v>801628.5264033722</v>
+        <v>801628.5264033611</v>
       </c>
     </row>
     <row r="23">
@@ -1487,34 +1487,34 @@
         <v>54661017.06977923</v>
       </c>
       <c r="E23" t="n">
-        <v>50724608.5288913</v>
+        <v>50724608.52889128</v>
       </c>
       <c r="F23" t="n">
-        <v>50724630.66424401</v>
+        <v>50724630.664244</v>
       </c>
       <c r="G23" t="n">
-        <v>3603401.09527572</v>
+        <v>3603401.095275711</v>
       </c>
       <c r="H23" t="n">
-        <v>3605877.493475402</v>
+        <v>3605877.493475395</v>
       </c>
       <c r="I23" t="n">
-        <v>956570.9176693088</v>
+        <v>956570.917669293</v>
       </c>
       <c r="J23" t="n">
-        <v>956571.7681977056</v>
+        <v>956571.76819769</v>
       </c>
       <c r="K23" t="n">
         <v>54661239.27230757</v>
       </c>
       <c r="L23" t="n">
-        <v>50724608.5288913</v>
+        <v>50724608.52889128</v>
       </c>
       <c r="M23" t="n">
-        <v>3603401.09527572</v>
+        <v>3603401.095275711</v>
       </c>
       <c r="N23" t="n">
-        <v>956570.9176693088</v>
+        <v>956570.917669293</v>
       </c>
     </row>
     <row r="24">
@@ -1533,34 +1533,34 @@
         <v>55821007.03294415</v>
       </c>
       <c r="E24" t="n">
-        <v>50623143.71513128</v>
+        <v>50623143.7151313</v>
       </c>
       <c r="F24" t="n">
-        <v>50623167.1771795</v>
+        <v>50623167.17717952</v>
       </c>
       <c r="G24" t="n">
-        <v>2985629.234229154</v>
+        <v>2985629.234229142</v>
       </c>
       <c r="H24" t="n">
-        <v>2985902.026485885</v>
+        <v>2985902.026485874</v>
       </c>
       <c r="I24" t="n">
-        <v>916634.9844938434</v>
+        <v>916634.9844938349</v>
       </c>
       <c r="J24" t="n">
-        <v>916635.9224675782</v>
+        <v>916635.9224675701</v>
       </c>
       <c r="K24" t="n">
         <v>55821289.26633023</v>
       </c>
       <c r="L24" t="n">
-        <v>50623143.71513128</v>
+        <v>50623143.7151313</v>
       </c>
       <c r="M24" t="n">
-        <v>2985629.234229154</v>
+        <v>2985629.234229142</v>
       </c>
       <c r="N24" t="n">
-        <v>916634.9844938434</v>
+        <v>916634.9844938349</v>
       </c>
     </row>
     <row r="25">
@@ -1579,34 +1579,34 @@
         <v>53853278.1315482</v>
       </c>
       <c r="E25" t="n">
-        <v>50010341.15695335</v>
+        <v>50010341.15695336</v>
       </c>
       <c r="F25" t="n">
-        <v>50010366.12648132</v>
+        <v>50010366.12648134</v>
       </c>
       <c r="G25" t="n">
-        <v>3015461.471549565</v>
+        <v>3015461.471549559</v>
       </c>
       <c r="H25" t="n">
-        <v>3013905.062173319</v>
+        <v>3013905.062173313</v>
       </c>
       <c r="I25" t="n">
-        <v>809765.4205743653</v>
+        <v>809765.4205743566</v>
       </c>
       <c r="J25" t="n">
-        <v>809765.9287238006</v>
+        <v>809765.9287237918</v>
       </c>
       <c r="K25" t="n">
         <v>53853331.20009986</v>
       </c>
       <c r="L25" t="n">
-        <v>50010341.15695335</v>
+        <v>50010341.15695336</v>
       </c>
       <c r="M25" t="n">
-        <v>3015461.471549565</v>
+        <v>3015461.471549559</v>
       </c>
       <c r="N25" t="n">
-        <v>809765.4205743653</v>
+        <v>809765.4205743566</v>
       </c>
     </row>
     <row r="26">
@@ -1628,19 +1628,19 @@
         <v>51254214.90789097</v>
       </c>
       <c r="F26" t="n">
-        <v>51254238.13547319</v>
+        <v>51254238.13547318</v>
       </c>
       <c r="G26" t="n">
-        <v>4422472.700561645</v>
+        <v>4422472.700561635</v>
       </c>
       <c r="H26" t="n">
-        <v>4421250.614945572</v>
+        <v>4421250.614945562</v>
       </c>
       <c r="I26" t="n">
-        <v>847488.2752211546</v>
+        <v>847488.2752211514</v>
       </c>
       <c r="J26" t="n">
-        <v>847488.850492839</v>
+        <v>847488.8504928359</v>
       </c>
       <c r="K26" t="n">
         <v>54305005.28166888</v>
@@ -1649,10 +1649,10 @@
         <v>51254214.90789097</v>
       </c>
       <c r="M26" t="n">
-        <v>4422472.700561645</v>
+        <v>4422472.700561635</v>
       </c>
       <c r="N26" t="n">
-        <v>847488.2752211546</v>
+        <v>847488.2752211514</v>
       </c>
     </row>
     <row r="27">
@@ -1671,34 +1671,34 @@
         <v>54354568.97183216</v>
       </c>
       <c r="E27" t="n">
-        <v>50284196.13538073</v>
+        <v>50284196.13538072</v>
       </c>
       <c r="F27" t="n">
-        <v>50284218.53635406</v>
+        <v>50284218.53635405</v>
       </c>
       <c r="G27" t="n">
-        <v>3950077.626809631</v>
+        <v>3950077.626809615</v>
       </c>
       <c r="H27" t="n">
-        <v>3949640.285340033</v>
+        <v>3949640.285340018</v>
       </c>
       <c r="I27" t="n">
-        <v>811955.9822262684</v>
+        <v>811955.9822262549</v>
       </c>
       <c r="J27" t="n">
-        <v>811956.4839468164</v>
+        <v>811956.4839468029</v>
       </c>
       <c r="K27" t="n">
         <v>54354695.42187958</v>
       </c>
       <c r="L27" t="n">
-        <v>50284196.13538073</v>
+        <v>50284196.13538072</v>
       </c>
       <c r="M27" t="n">
-        <v>3950077.626809631</v>
+        <v>3950077.626809615</v>
       </c>
       <c r="N27" t="n">
-        <v>811955.9822262684</v>
+        <v>811955.9822262549</v>
       </c>
     </row>
     <row r="28">
@@ -1717,34 +1717,34 @@
         <v>53690828.78747623</v>
       </c>
       <c r="E28" t="n">
-        <v>48563080.24776408</v>
+        <v>48563080.24776411</v>
       </c>
       <c r="F28" t="n">
-        <v>48563103.533487</v>
+        <v>48563103.53348703</v>
       </c>
       <c r="G28" t="n">
-        <v>3896863.345345392</v>
+        <v>3896863.345345382</v>
       </c>
       <c r="H28" t="n">
-        <v>3892205.43511876</v>
+        <v>3892205.435118752</v>
       </c>
       <c r="I28" t="n">
-        <v>725473.4058811876</v>
+        <v>725473.4058811772</v>
       </c>
       <c r="J28" t="n">
-        <v>725473.6804404737</v>
+        <v>725473.6804404631</v>
       </c>
       <c r="K28" t="n">
         <v>53690153.28884237</v>
       </c>
       <c r="L28" t="n">
-        <v>48563080.24776408</v>
+        <v>48563080.24776411</v>
       </c>
       <c r="M28" t="n">
-        <v>3896863.345345392</v>
+        <v>3896863.345345382</v>
       </c>
       <c r="N28" t="n">
-        <v>725473.4058811876</v>
+        <v>725473.4058811772</v>
       </c>
     </row>
     <row r="29">
@@ -1763,34 +1763,34 @@
         <v>52330761.92859191</v>
       </c>
       <c r="E29" t="n">
-        <v>49663431.84687956</v>
+        <v>49663431.84687961</v>
       </c>
       <c r="F29" t="n">
-        <v>49663457.11944909</v>
+        <v>49663457.11944914</v>
       </c>
       <c r="G29" t="n">
-        <v>3508973.106405178</v>
+        <v>3508973.10640517</v>
       </c>
       <c r="H29" t="n">
-        <v>3515760.769883306</v>
+        <v>3515760.769883297</v>
       </c>
       <c r="I29" t="n">
-        <v>685978.4917166275</v>
+        <v>685978.4917166247</v>
       </c>
       <c r="J29" t="n">
-        <v>685978.8753145388</v>
+        <v>685978.8753145359</v>
       </c>
       <c r="K29" t="n">
         <v>52331062.48852834</v>
       </c>
       <c r="L29" t="n">
-        <v>49663431.84687956</v>
+        <v>49663431.84687961</v>
       </c>
       <c r="M29" t="n">
-        <v>3508973.106405178</v>
+        <v>3508973.10640517</v>
       </c>
       <c r="N29" t="n">
-        <v>685978.4917166275</v>
+        <v>685978.4917166247</v>
       </c>
     </row>
     <row r="30">
@@ -1809,34 +1809,34 @@
         <v>47885128.559545</v>
       </c>
       <c r="E30" t="n">
-        <v>46475149.20868313</v>
+        <v>46475149.20868307</v>
       </c>
       <c r="F30" t="n">
-        <v>46475172.53152405</v>
+        <v>46475172.531524</v>
       </c>
       <c r="G30" t="n">
-        <v>2101924.802006403</v>
+        <v>2101924.802006396</v>
       </c>
       <c r="H30" t="n">
-        <v>2099082.245053953</v>
+        <v>2099082.245053947</v>
       </c>
       <c r="I30" t="n">
-        <v>634826.5703592361</v>
+        <v>634826.570359234</v>
       </c>
       <c r="J30" t="n">
-        <v>634826.9451984999</v>
+        <v>634826.945198498</v>
       </c>
       <c r="K30" t="n">
         <v>47885154.53063169</v>
       </c>
       <c r="L30" t="n">
-        <v>46475149.20868313</v>
+        <v>46475149.20868307</v>
       </c>
       <c r="M30" t="n">
-        <v>2101924.802006403</v>
+        <v>2101924.802006396</v>
       </c>
       <c r="N30" t="n">
-        <v>634826.5703592361</v>
+        <v>634826.570359234</v>
       </c>
     </row>
     <row r="31">
@@ -1855,34 +1855,34 @@
         <v>43372519.76300333</v>
       </c>
       <c r="E31" t="n">
-        <v>42101084.80939719</v>
+        <v>42101084.80939717</v>
       </c>
       <c r="F31" t="n">
-        <v>42101104.77646741</v>
+        <v>42101104.7764674</v>
       </c>
       <c r="G31" t="n">
-        <v>1311801.731634283</v>
+        <v>1311801.731634278</v>
       </c>
       <c r="H31" t="n">
-        <v>1313400.68632029</v>
+        <v>1313400.686320286</v>
       </c>
       <c r="I31" t="n">
-        <v>586732.9978566003</v>
+        <v>586732.9978565974</v>
       </c>
       <c r="J31" t="n">
-        <v>586733.4109585853</v>
+        <v>586733.4109585824</v>
       </c>
       <c r="K31" t="n">
         <v>43372873.34851753</v>
       </c>
       <c r="L31" t="n">
-        <v>42101084.80939719</v>
+        <v>42101084.80939717</v>
       </c>
       <c r="M31" t="n">
-        <v>1311801.731634283</v>
+        <v>1311801.731634278</v>
       </c>
       <c r="N31" t="n">
-        <v>586732.9978566003</v>
+        <v>586732.9978565974</v>
       </c>
     </row>
     <row r="32">
@@ -1904,19 +1904,19 @@
         <v>39571855.25231799</v>
       </c>
       <c r="F32" t="n">
-        <v>39571872.3058331</v>
+        <v>39571872.30583309</v>
       </c>
       <c r="G32" t="n">
-        <v>934782.5892315307</v>
+        <v>934782.5892315275</v>
       </c>
       <c r="H32" t="n">
-        <v>935459.9316449037</v>
+        <v>935459.9316449007</v>
       </c>
       <c r="I32" t="n">
-        <v>537406.3869795338</v>
+        <v>537406.386979532</v>
       </c>
       <c r="J32" t="n">
-        <v>537406.7870973971</v>
+        <v>537406.7870973954</v>
       </c>
       <c r="K32" t="n">
         <v>39849559.75156708</v>
@@ -1925,10 +1925,10 @@
         <v>39571855.25231799</v>
       </c>
       <c r="M32" t="n">
-        <v>934782.5892315307</v>
+        <v>934782.5892315275</v>
       </c>
       <c r="N32" t="n">
-        <v>537406.3869795338</v>
+        <v>537406.386979532</v>
       </c>
     </row>
     <row r="33">
@@ -1947,34 +1947,34 @@
         <v>36016263.45636921</v>
       </c>
       <c r="E33" t="n">
-        <v>35971003.86575462</v>
+        <v>35971003.8657546</v>
       </c>
       <c r="F33" t="n">
-        <v>35971019.89174482</v>
+        <v>35971019.89174481</v>
       </c>
       <c r="G33" t="n">
-        <v>845071.6384451292</v>
+        <v>845071.6384451265</v>
       </c>
       <c r="H33" t="n">
-        <v>845718.3122610901</v>
+        <v>845718.3122610874</v>
       </c>
       <c r="I33" t="n">
-        <v>517698.5871454694</v>
+        <v>517698.5871454674</v>
       </c>
       <c r="J33" t="n">
-        <v>517699.0041152049</v>
+        <v>517699.0041152029</v>
       </c>
       <c r="K33" t="n">
         <v>36016323.82610425</v>
       </c>
       <c r="L33" t="n">
-        <v>35971003.86575462</v>
+        <v>35971003.8657546</v>
       </c>
       <c r="M33" t="n">
-        <v>845071.6384451292</v>
+        <v>845071.6384451265</v>
       </c>
       <c r="N33" t="n">
-        <v>517698.5871454694</v>
+        <v>517698.5871454674</v>
       </c>
     </row>
     <row r="34">
@@ -1993,34 +1993,34 @@
         <v>34672496.67120984</v>
       </c>
       <c r="E34" t="n">
-        <v>34716542.20801912</v>
+        <v>34716542.20801911</v>
       </c>
       <c r="F34" t="n">
-        <v>34716556.86673949</v>
+        <v>34716556.86673946</v>
       </c>
       <c r="G34" t="n">
-        <v>611079.7907963111</v>
+        <v>611079.7907963092</v>
       </c>
       <c r="H34" t="n">
-        <v>611036.2368450608</v>
+        <v>611036.236845059</v>
       </c>
       <c r="I34" t="n">
-        <v>494443.7462750603</v>
+        <v>494443.7462750587</v>
       </c>
       <c r="J34" t="n">
-        <v>494444.1619641091</v>
+        <v>494444.1619641076</v>
       </c>
       <c r="K34" t="n">
         <v>34672519.95080439</v>
       </c>
       <c r="L34" t="n">
-        <v>34716542.20801912</v>
+        <v>34716542.20801911</v>
       </c>
       <c r="M34" t="n">
-        <v>611079.7907963111</v>
+        <v>611079.7907963092</v>
       </c>
       <c r="N34" t="n">
-        <v>494443.7462750603</v>
+        <v>494443.7462750587</v>
       </c>
     </row>
     <row r="35">
@@ -2039,34 +2039,34 @@
         <v>31204912.48478629</v>
       </c>
       <c r="E35" t="n">
-        <v>31558392.0644859</v>
+        <v>31558392.06448591</v>
       </c>
       <c r="F35" t="n">
-        <v>31558405.06555512</v>
+        <v>31558405.06555513</v>
       </c>
       <c r="G35" t="n">
-        <v>623480.2053833897</v>
+        <v>623480.2053833879</v>
       </c>
       <c r="H35" t="n">
-        <v>624085.3406094259</v>
+        <v>624085.340609424</v>
       </c>
       <c r="I35" t="n">
-        <v>477708.7892862955</v>
+        <v>477708.7892862943</v>
       </c>
       <c r="J35" t="n">
-        <v>477709.2478712773</v>
+        <v>477709.247871276</v>
       </c>
       <c r="K35" t="n">
         <v>31204803.09616791</v>
       </c>
       <c r="L35" t="n">
-        <v>31558392.0644859</v>
+        <v>31558392.06448591</v>
       </c>
       <c r="M35" t="n">
-        <v>623480.2053833897</v>
+        <v>623480.2053833879</v>
       </c>
       <c r="N35" t="n">
-        <v>477708.7892862955</v>
+        <v>477708.7892862943</v>
       </c>
     </row>
     <row r="36">
@@ -2085,34 +2085,34 @@
         <v>29432033.66946927</v>
       </c>
       <c r="E36" t="n">
-        <v>29839358.68852786</v>
+        <v>29839358.68852787</v>
       </c>
       <c r="F36" t="n">
-        <v>29839371.20087539</v>
+        <v>29839371.2008754</v>
       </c>
       <c r="G36" t="n">
-        <v>571146.0173918016</v>
+        <v>571146.0173918005</v>
       </c>
       <c r="H36" t="n">
-        <v>571666.526767946</v>
+        <v>571666.5267679447</v>
       </c>
       <c r="I36" t="n">
-        <v>462434.8257046789</v>
+        <v>462434.8257046778</v>
       </c>
       <c r="J36" t="n">
-        <v>462435.2661254135</v>
+        <v>462435.2661254124</v>
       </c>
       <c r="K36" t="n">
         <v>29431989.88224553</v>
       </c>
       <c r="L36" t="n">
-        <v>29839358.68852786</v>
+        <v>29839358.68852787</v>
       </c>
       <c r="M36" t="n">
-        <v>571146.0173918016</v>
+        <v>571146.0173918005</v>
       </c>
       <c r="N36" t="n">
-        <v>462434.8257046789</v>
+        <v>462434.8257046778</v>
       </c>
     </row>
     <row r="37">
@@ -2131,34 +2131,34 @@
         <v>27998950.11035033</v>
       </c>
       <c r="E37" t="n">
-        <v>28401215.91959767</v>
+        <v>28401215.91959765</v>
       </c>
       <c r="F37" t="n">
-        <v>28401227.92021141</v>
+        <v>28401227.92021139</v>
       </c>
       <c r="G37" t="n">
-        <v>547765.3709345971</v>
+        <v>547765.3709345956</v>
       </c>
       <c r="H37" t="n">
-        <v>548095.0860660428</v>
+        <v>548095.0860660414</v>
       </c>
       <c r="I37" t="n">
-        <v>445506.6580601124</v>
+        <v>445506.6580601108</v>
       </c>
       <c r="J37" t="n">
-        <v>445507.075587117</v>
+        <v>445507.0755871154</v>
       </c>
       <c r="K37" t="n">
         <v>27998879.84662343</v>
       </c>
       <c r="L37" t="n">
-        <v>28401215.91959767</v>
+        <v>28401215.91959765</v>
       </c>
       <c r="M37" t="n">
-        <v>547765.3709345971</v>
+        <v>547765.3709345956</v>
       </c>
       <c r="N37" t="n">
-        <v>445506.6580601124</v>
+        <v>445506.6580601108</v>
       </c>
     </row>
     <row r="38">
@@ -2183,16 +2183,16 @@
         <v>28051828.91274907</v>
       </c>
       <c r="G38" t="n">
-        <v>476015.0476266497</v>
+        <v>476015.0476266487</v>
       </c>
       <c r="H38" t="n">
-        <v>475731.2785940916</v>
+        <v>475731.2785940905</v>
       </c>
       <c r="I38" t="n">
-        <v>441514.6898748311</v>
+        <v>441514.6898748298</v>
       </c>
       <c r="J38" t="n">
-        <v>441515.0982846203</v>
+        <v>441515.0982846191</v>
       </c>
       <c r="K38" t="n">
         <v>27622762.12488514</v>
@@ -2201,10 +2201,10 @@
         <v>28051816.94928024</v>
       </c>
       <c r="M38" t="n">
-        <v>476015.0476266497</v>
+        <v>476015.0476266487</v>
       </c>
       <c r="N38" t="n">
-        <v>441514.6898748311</v>
+        <v>441514.6898748298</v>
       </c>
     </row>
     <row r="39">
@@ -2223,34 +2223,34 @@
         <v>27470676.96710839</v>
       </c>
       <c r="E39" t="n">
-        <v>27830625.97140942</v>
+        <v>27830625.97140939</v>
       </c>
       <c r="F39" t="n">
-        <v>27830637.7559627</v>
+        <v>27830637.75596267</v>
       </c>
       <c r="G39" t="n">
-        <v>503916.3522498083</v>
+        <v>503916.3522498071</v>
       </c>
       <c r="H39" t="n">
-        <v>504305.1426651202</v>
+        <v>504305.1426651189</v>
       </c>
       <c r="I39" t="n">
-        <v>439278.1912832023</v>
+        <v>439278.1912832005</v>
       </c>
       <c r="J39" t="n">
-        <v>439278.602512517</v>
+        <v>439278.6025125152</v>
       </c>
       <c r="K39" t="n">
         <v>27470623.59477198</v>
       </c>
       <c r="L39" t="n">
-        <v>27830625.97140942</v>
+        <v>27830625.97140939</v>
       </c>
       <c r="M39" t="n">
-        <v>503916.3522498083</v>
+        <v>503916.3522498071</v>
       </c>
       <c r="N39" t="n">
-        <v>439278.1912832023</v>
+        <v>439278.1912832005</v>
       </c>
     </row>
     <row r="40">
@@ -2269,34 +2269,34 @@
         <v>28128210.83899956</v>
       </c>
       <c r="E40" t="n">
-        <v>28545084.26679987</v>
+        <v>28545084.26679988</v>
       </c>
       <c r="F40" t="n">
-        <v>28545096.17962324</v>
+        <v>28545096.17962325</v>
       </c>
       <c r="G40" t="n">
-        <v>558145.3073339942</v>
+        <v>558145.3073339923</v>
       </c>
       <c r="H40" t="n">
-        <v>558571.1120455873</v>
+        <v>558571.1120455855</v>
       </c>
       <c r="I40" t="n">
-        <v>449545.061902789</v>
+        <v>449545.0619027877</v>
       </c>
       <c r="J40" t="n">
-        <v>449545.4950705077</v>
+        <v>449545.4950705064</v>
       </c>
       <c r="K40" t="n">
         <v>28128227.00049252</v>
       </c>
       <c r="L40" t="n">
-        <v>28545084.26679987</v>
+        <v>28545084.26679988</v>
       </c>
       <c r="M40" t="n">
-        <v>558145.3073339942</v>
+        <v>558145.3073339923</v>
       </c>
       <c r="N40" t="n">
-        <v>449545.061902789</v>
+        <v>449545.0619027877</v>
       </c>
     </row>
     <row r="41">
@@ -2321,16 +2321,16 @@
         <v>29649843.03804778</v>
       </c>
       <c r="G41" t="n">
-        <v>540271.0010244112</v>
+        <v>540271.0010244093</v>
       </c>
       <c r="H41" t="n">
-        <v>540633.9509160203</v>
+        <v>540633.9509160185</v>
       </c>
       <c r="I41" t="n">
-        <v>458374.5297291776</v>
+        <v>458374.5297291764</v>
       </c>
       <c r="J41" t="n">
-        <v>458374.9681253335</v>
+        <v>458374.9681253324</v>
       </c>
       <c r="K41" t="n">
         <v>29146820.99008302</v>
@@ -2339,10 +2339,10 @@
         <v>29649830.71253719</v>
       </c>
       <c r="M41" t="n">
-        <v>540271.0010244112</v>
+        <v>540271.0010244093</v>
       </c>
       <c r="N41" t="n">
-        <v>458374.5297291776</v>
+        <v>458374.5297291764</v>
       </c>
     </row>
     <row r="42">
@@ -2367,16 +2367,16 @@
         <v>31736751.44335804</v>
       </c>
       <c r="G42" t="n">
-        <v>596621.5680820387</v>
+        <v>596621.5680820371</v>
       </c>
       <c r="H42" t="n">
-        <v>596902.7221244115</v>
+        <v>596902.72212441</v>
       </c>
       <c r="I42" t="n">
-        <v>480090.2793645412</v>
+        <v>480090.2793645405</v>
       </c>
       <c r="J42" t="n">
-        <v>480090.7086715863</v>
+        <v>480090.7086715855</v>
       </c>
       <c r="K42" t="n">
         <v>31247654.30723044</v>
@@ -2385,10 +2385,10 @@
         <v>31736737.64034451</v>
       </c>
       <c r="M42" t="n">
-        <v>596621.5680820387</v>
+        <v>596621.5680820371</v>
       </c>
       <c r="N42" t="n">
-        <v>480090.2793645412</v>
+        <v>480090.2793645405</v>
       </c>
     </row>
     <row r="43">
@@ -2413,16 +2413,16 @@
         <v>33225724.31054192</v>
       </c>
       <c r="G43" t="n">
-        <v>594909.8237602555</v>
+        <v>594909.8237602534</v>
       </c>
       <c r="H43" t="n">
-        <v>594754.3752640299</v>
+        <v>594754.3752640279</v>
       </c>
       <c r="I43" t="n">
-        <v>485767.3172733535</v>
+        <v>485767.3172733521</v>
       </c>
       <c r="J43" t="n">
-        <v>485767.760548775</v>
+        <v>485767.7605487735</v>
       </c>
       <c r="K43" t="n">
         <v>32797156.9254816</v>
@@ -2431,10 +2431,10 @@
         <v>33225710.57945907</v>
       </c>
       <c r="M43" t="n">
-        <v>594909.8237602555</v>
+        <v>594909.8237602534</v>
       </c>
       <c r="N43" t="n">
-        <v>485767.3172733535</v>
+        <v>485767.3172733521</v>
       </c>
     </row>
     <row r="44">
@@ -2453,34 +2453,34 @@
         <v>35212783.04197787</v>
       </c>
       <c r="E44" t="n">
-        <v>35437022.22657534</v>
+        <v>35437022.22657536</v>
       </c>
       <c r="F44" t="n">
-        <v>35437037.34771331</v>
+        <v>35437037.34771334</v>
       </c>
       <c r="G44" t="n">
-        <v>708302.5313693641</v>
+        <v>708302.5313693623</v>
       </c>
       <c r="H44" t="n">
-        <v>708314.4500897463</v>
+        <v>708314.4500897445</v>
       </c>
       <c r="I44" t="n">
-        <v>501954.9318287462</v>
+        <v>501954.9318287448</v>
       </c>
       <c r="J44" t="n">
-        <v>501955.3489339038</v>
+        <v>501955.3489339024</v>
       </c>
       <c r="K44" t="n">
         <v>35212610.50032556</v>
       </c>
       <c r="L44" t="n">
-        <v>35437022.22657534</v>
+        <v>35437022.22657536</v>
       </c>
       <c r="M44" t="n">
-        <v>708302.5313693641</v>
+        <v>708302.5313693623</v>
       </c>
       <c r="N44" t="n">
-        <v>501954.9318287462</v>
+        <v>501954.9318287448</v>
       </c>
     </row>
     <row r="45">
@@ -2499,34 +2499,34 @@
         <v>34419091.0947719</v>
       </c>
       <c r="E45" t="n">
-        <v>34533974.2045495</v>
+        <v>34533974.20454948</v>
       </c>
       <c r="F45" t="n">
-        <v>34533989.59026162</v>
+        <v>34533989.5902616</v>
       </c>
       <c r="G45" t="n">
-        <v>760925.7293113344</v>
+        <v>760925.7293113318</v>
       </c>
       <c r="H45" t="n">
-        <v>761747.8098464712</v>
+        <v>761747.8098464685</v>
       </c>
       <c r="I45" t="n">
-        <v>502029.9456192637</v>
+        <v>502029.9456192621</v>
       </c>
       <c r="J45" t="n">
-        <v>502030.3468411849</v>
+        <v>502030.3468411834</v>
       </c>
       <c r="K45" t="n">
         <v>34419182.31737644</v>
       </c>
       <c r="L45" t="n">
-        <v>34533974.2045495</v>
+        <v>34533974.20454948</v>
       </c>
       <c r="M45" t="n">
-        <v>760925.7293113344</v>
+        <v>760925.7293113318</v>
       </c>
       <c r="N45" t="n">
-        <v>502029.9456192637</v>
+        <v>502029.9456192621</v>
       </c>
     </row>
     <row r="46">
@@ -2545,34 +2545,34 @@
         <v>36237882.35291854</v>
       </c>
       <c r="E46" t="n">
-        <v>35865985.07366486</v>
+        <v>35865985.07366488</v>
       </c>
       <c r="F46" t="n">
-        <v>35866001.33203749</v>
+        <v>35866001.33203752</v>
       </c>
       <c r="G46" t="n">
-        <v>883338.8354285909</v>
+        <v>883338.8354285883</v>
       </c>
       <c r="H46" t="n">
-        <v>883796.1046536259</v>
+        <v>883796.1046536233</v>
       </c>
       <c r="I46" t="n">
-        <v>512760.6611367507</v>
+        <v>512760.6611367493</v>
       </c>
       <c r="J46" t="n">
-        <v>512761.0473142371</v>
+        <v>512761.0473142357</v>
       </c>
       <c r="K46" t="n">
         <v>36237420.84697346</v>
       </c>
       <c r="L46" t="n">
-        <v>35865985.07366486</v>
+        <v>35865985.07366488</v>
       </c>
       <c r="M46" t="n">
-        <v>883338.8354285909</v>
+        <v>883338.8354285883</v>
       </c>
       <c r="N46" t="n">
-        <v>512760.6611367507</v>
+        <v>512760.6611367493</v>
       </c>
     </row>
     <row r="47">
@@ -2591,34 +2591,34 @@
         <v>41323737.48896696</v>
       </c>
       <c r="E47" t="n">
-        <v>40660412.09782283</v>
+        <v>40660412.09782284</v>
       </c>
       <c r="F47" t="n">
-        <v>40660430.58243106</v>
+        <v>40660430.58243107</v>
       </c>
       <c r="G47" t="n">
-        <v>1210877.007485321</v>
+        <v>1210877.007485318</v>
       </c>
       <c r="H47" t="n">
-        <v>1211383.19372068</v>
+        <v>1211383.193720676</v>
       </c>
       <c r="I47" t="n">
-        <v>553863.0479603866</v>
+        <v>553863.0479603847</v>
       </c>
       <c r="J47" t="n">
-        <v>553863.4388476415</v>
+        <v>553863.4388476397</v>
       </c>
       <c r="K47" t="n">
         <v>41323793.11178966</v>
       </c>
       <c r="L47" t="n">
-        <v>40660412.09782283</v>
+        <v>40660412.09782284</v>
       </c>
       <c r="M47" t="n">
-        <v>1210877.007485321</v>
+        <v>1210877.007485318</v>
       </c>
       <c r="N47" t="n">
-        <v>553863.0479603866</v>
+        <v>553863.0479603847</v>
       </c>
     </row>
     <row r="48">
@@ -2640,19 +2640,19 @@
         <v>39005104.17128047</v>
       </c>
       <c r="F48" t="n">
-        <v>39005121.95556478</v>
+        <v>39005121.95556479</v>
       </c>
       <c r="G48" t="n">
-        <v>1069717.43267147</v>
+        <v>1069717.432671468</v>
       </c>
       <c r="H48" t="n">
-        <v>1070839.233054849</v>
+        <v>1070839.233054846</v>
       </c>
       <c r="I48" t="n">
-        <v>536994.9757791538</v>
+        <v>536994.9757791518</v>
       </c>
       <c r="J48" t="n">
-        <v>536995.3421559168</v>
+        <v>536995.3421559148</v>
       </c>
       <c r="K48" t="n">
         <v>39221869.79385753</v>
@@ -2661,10 +2661,10 @@
         <v>39005104.17128047</v>
       </c>
       <c r="M48" t="n">
-        <v>1069717.43267147</v>
+        <v>1069717.432671468</v>
       </c>
       <c r="N48" t="n">
-        <v>536994.9757791538</v>
+        <v>536994.9757791518</v>
       </c>
     </row>
     <row r="49">
@@ -2683,34 +2683,34 @@
         <v>43103772.62992334</v>
       </c>
       <c r="E49" t="n">
-        <v>42722623.16708495</v>
+        <v>42722623.16708499</v>
       </c>
       <c r="F49" t="n">
-        <v>42722643.43437716</v>
+        <v>42722643.43437721</v>
       </c>
       <c r="G49" t="n">
-        <v>1386947.679785549</v>
+        <v>1386947.679785547</v>
       </c>
       <c r="H49" t="n">
-        <v>1385651.906586962</v>
+        <v>1385651.90658696</v>
       </c>
       <c r="I49" t="n">
-        <v>592781.2177199669</v>
+        <v>592781.2177199648</v>
       </c>
       <c r="J49" t="n">
-        <v>592781.6403066849</v>
+        <v>592781.6403066827</v>
       </c>
       <c r="K49" t="n">
         <v>43103508.94538216</v>
       </c>
       <c r="L49" t="n">
-        <v>42722623.16708495</v>
+        <v>42722623.16708499</v>
       </c>
       <c r="M49" t="n">
-        <v>1386947.679785549</v>
+        <v>1386947.679785547</v>
       </c>
       <c r="N49" t="n">
-        <v>592781.2177199669</v>
+        <v>592781.2177199648</v>
       </c>
     </row>
     <row r="50">
@@ -2732,19 +2732,19 @@
         <v>40671029.66017979</v>
       </c>
       <c r="F50" t="n">
-        <v>40671048.68166026</v>
+        <v>40671048.68166027</v>
       </c>
       <c r="G50" t="n">
-        <v>1107363.841383537</v>
+        <v>1107363.841383533</v>
       </c>
       <c r="H50" t="n">
-        <v>1107512.943830469</v>
+        <v>1107512.943830465</v>
       </c>
       <c r="I50" t="n">
-        <v>561328.9884521561</v>
+        <v>561328.9884521544</v>
       </c>
       <c r="J50" t="n">
-        <v>561329.3666404436</v>
+        <v>561329.3666404419</v>
       </c>
       <c r="K50" t="n">
         <v>41472520.50860496</v>
@@ -2753,10 +2753,10 @@
         <v>40671029.66017979</v>
       </c>
       <c r="M50" t="n">
-        <v>1107363.841383537</v>
+        <v>1107363.841383533</v>
       </c>
       <c r="N50" t="n">
-        <v>561328.9884521561</v>
+        <v>561328.9884521544</v>
       </c>
     </row>
     <row r="51">
@@ -2775,34 +2775,34 @@
         <v>41685332.72442395</v>
       </c>
       <c r="E51" t="n">
-        <v>40923759.16437972</v>
+        <v>40923759.16437973</v>
       </c>
       <c r="F51" t="n">
-        <v>40923778.33024415</v>
+        <v>40923778.33024416</v>
       </c>
       <c r="G51" t="n">
-        <v>1240727.635724031</v>
+        <v>1240727.635724026</v>
       </c>
       <c r="H51" t="n">
-        <v>1242113.319846081</v>
+        <v>1242113.319846076</v>
       </c>
       <c r="I51" t="n">
-        <v>566061.7022548245</v>
+        <v>566061.7022548225</v>
       </c>
       <c r="J51" t="n">
-        <v>566062.088059728</v>
+        <v>566062.0880597261</v>
       </c>
       <c r="K51" t="n">
         <v>41685177.64866564</v>
       </c>
       <c r="L51" t="n">
-        <v>40923759.16437972</v>
+        <v>40923759.16437973</v>
       </c>
       <c r="M51" t="n">
-        <v>1240727.635724031</v>
+        <v>1240727.635724026</v>
       </c>
       <c r="N51" t="n">
-        <v>566061.7022548245</v>
+        <v>566061.7022548225</v>
       </c>
     </row>
     <row r="52">
@@ -2821,34 +2821,34 @@
         <v>44429205.70429934</v>
       </c>
       <c r="E52" t="n">
-        <v>43244640.37504762</v>
+        <v>43244640.37504764</v>
       </c>
       <c r="F52" t="n">
-        <v>43244660.82770277</v>
+        <v>43244660.8277028</v>
       </c>
       <c r="G52" t="n">
-        <v>1318861.86989919</v>
+        <v>1318861.869899186</v>
       </c>
       <c r="H52" t="n">
-        <v>1319477.112898471</v>
+        <v>1319477.112898467</v>
       </c>
       <c r="I52" t="n">
-        <v>567468.9144917619</v>
+        <v>567468.9144917605</v>
       </c>
       <c r="J52" t="n">
-        <v>567469.2218719082</v>
+        <v>567469.2218719067</v>
       </c>
       <c r="K52" t="n">
         <v>44429695.85758053</v>
       </c>
       <c r="L52" t="n">
-        <v>43244640.37504762</v>
+        <v>43244640.37504764</v>
       </c>
       <c r="M52" t="n">
-        <v>1318861.86989919</v>
+        <v>1318861.869899186</v>
       </c>
       <c r="N52" t="n">
-        <v>567468.9144917619</v>
+        <v>567468.9144917605</v>
       </c>
     </row>
     <row r="53">
@@ -2867,34 +2867,34 @@
         <v>41330306.54566901</v>
       </c>
       <c r="E53" t="n">
-        <v>40587969.87867802</v>
+        <v>40587969.87867801</v>
       </c>
       <c r="F53" t="n">
-        <v>40587988.70652156</v>
+        <v>40587988.70652154</v>
       </c>
       <c r="G53" t="n">
-        <v>1100050.22981499</v>
+        <v>1100050.229814986</v>
       </c>
       <c r="H53" t="n">
-        <v>1101014.382144832</v>
+        <v>1101014.382144828</v>
       </c>
       <c r="I53" t="n">
-        <v>557358.3723054728</v>
+        <v>557358.372305471</v>
       </c>
       <c r="J53" t="n">
-        <v>557358.748025252</v>
+        <v>557358.7480252499</v>
       </c>
       <c r="K53" t="n">
         <v>41330493.71452598</v>
       </c>
       <c r="L53" t="n">
-        <v>40587969.87867802</v>
+        <v>40587969.87867801</v>
       </c>
       <c r="M53" t="n">
-        <v>1100050.22981499</v>
+        <v>1100050.229814986</v>
       </c>
       <c r="N53" t="n">
-        <v>557358.3723054728</v>
+        <v>557358.372305471</v>
       </c>
     </row>
     <row r="54">
@@ -2913,34 +2913,34 @@
         <v>44786433.43130726</v>
       </c>
       <c r="E54" t="n">
-        <v>42913979.33564441</v>
+        <v>42913979.33564439</v>
       </c>
       <c r="F54" t="n">
-        <v>42913999.36748508</v>
+        <v>42913999.36748507</v>
       </c>
       <c r="G54" t="n">
-        <v>1631755.191215769</v>
+        <v>1631755.191215765</v>
       </c>
       <c r="H54" t="n">
-        <v>1631058.175893079</v>
+        <v>1631058.175893075</v>
       </c>
       <c r="I54" t="n">
-        <v>561599.0690797053</v>
+        <v>561599.0690797032</v>
       </c>
       <c r="J54" t="n">
-        <v>561599.3824905587</v>
+        <v>561599.3824905566</v>
       </c>
       <c r="K54" t="n">
         <v>44786396.02952445</v>
       </c>
       <c r="L54" t="n">
-        <v>42913979.33564441</v>
+        <v>42913979.33564439</v>
       </c>
       <c r="M54" t="n">
-        <v>1631755.191215769</v>
+        <v>1631755.191215765</v>
       </c>
       <c r="N54" t="n">
-        <v>561599.0690797053</v>
+        <v>561599.0690797032</v>
       </c>
     </row>
     <row r="55">
@@ -2959,34 +2959,34 @@
         <v>44929474.55885467</v>
       </c>
       <c r="E55" t="n">
-        <v>42543182.05235714</v>
+        <v>42543182.05235717</v>
       </c>
       <c r="F55" t="n">
-        <v>42543201.99705481</v>
+        <v>42543201.99705483</v>
       </c>
       <c r="G55" t="n">
-        <v>1304762.998001695</v>
+        <v>1304762.998001691</v>
       </c>
       <c r="H55" t="n">
-        <v>1305010.816054004</v>
+        <v>1305010.816054001</v>
       </c>
       <c r="I55" t="n">
-        <v>561746.2859109513</v>
+        <v>561746.2859109498</v>
       </c>
       <c r="J55" t="n">
-        <v>561746.6098103888</v>
+        <v>561746.6098103873</v>
       </c>
       <c r="K55" t="n">
         <v>44929791.96851809</v>
       </c>
       <c r="L55" t="n">
-        <v>42543182.05235714</v>
+        <v>42543182.05235717</v>
       </c>
       <c r="M55" t="n">
-        <v>1304762.998001695</v>
+        <v>1304762.998001691</v>
       </c>
       <c r="N55" t="n">
-        <v>561746.2859109513</v>
+        <v>561746.2859109498</v>
       </c>
     </row>
     <row r="56">
@@ -3005,34 +3005,34 @@
         <v>39631711.19040702</v>
       </c>
       <c r="E56" t="n">
-        <v>38842122.56761202</v>
+        <v>38842122.56761199</v>
       </c>
       <c r="F56" t="n">
-        <v>38842140.47372628</v>
+        <v>38842140.47372627</v>
       </c>
       <c r="G56" t="n">
-        <v>931469.8004146678</v>
+        <v>931469.8004146654</v>
       </c>
       <c r="H56" t="n">
-        <v>931730.0542636194</v>
+        <v>931730.0542636168</v>
       </c>
       <c r="I56" t="n">
-        <v>539638.1245248003</v>
+        <v>539638.1245247982</v>
       </c>
       <c r="J56" t="n">
-        <v>539638.4984260951</v>
+        <v>539638.4984260931</v>
       </c>
       <c r="K56" t="n">
         <v>39631656.02200601</v>
       </c>
       <c r="L56" t="n">
-        <v>38842122.56761202</v>
+        <v>38842122.56761199</v>
       </c>
       <c r="M56" t="n">
-        <v>931469.8004146678</v>
+        <v>931469.8004146654</v>
       </c>
       <c r="N56" t="n">
-        <v>539638.1245248003</v>
+        <v>539638.1245247982</v>
       </c>
     </row>
     <row r="57">
@@ -3051,34 +3051,34 @@
         <v>43718682.30248463</v>
       </c>
       <c r="E57" t="n">
-        <v>42324363.64937291</v>
+        <v>42324363.64937292</v>
       </c>
       <c r="F57" t="n">
         <v>42324383.26806447</v>
       </c>
       <c r="G57" t="n">
-        <v>1538320.360485059</v>
+        <v>1538320.360485054</v>
       </c>
       <c r="H57" t="n">
-        <v>1538003.427910166</v>
+        <v>1538003.427910161</v>
       </c>
       <c r="I57" t="n">
-        <v>558026.487083172</v>
+        <v>558026.4870831708</v>
       </c>
       <c r="J57" t="n">
-        <v>558026.8187515232</v>
+        <v>558026.818751522</v>
       </c>
       <c r="K57" t="n">
         <v>43719033.01667953</v>
       </c>
       <c r="L57" t="n">
-        <v>42324363.64937291</v>
+        <v>42324363.64937292</v>
       </c>
       <c r="M57" t="n">
-        <v>1538320.360485059</v>
+        <v>1538320.360485054</v>
       </c>
       <c r="N57" t="n">
-        <v>558026.487083172</v>
+        <v>558026.4870831708</v>
       </c>
     </row>
     <row r="58">
@@ -3097,34 +3097,34 @@
         <v>38682539.85786719</v>
       </c>
       <c r="E58" t="n">
-        <v>38308205.2407321</v>
+        <v>38308205.24073208</v>
       </c>
       <c r="F58" t="n">
-        <v>38308222.5263583</v>
+        <v>38308222.52635828</v>
       </c>
       <c r="G58" t="n">
-        <v>923564.3437788748</v>
+        <v>923564.3437788726</v>
       </c>
       <c r="H58" t="n">
-        <v>925251.4086638276</v>
+        <v>925251.4086638255</v>
       </c>
       <c r="I58" t="n">
-        <v>523980.7217733911</v>
+        <v>523980.7217733891</v>
       </c>
       <c r="J58" t="n">
-        <v>523981.0722346929</v>
+        <v>523981.0722346909</v>
       </c>
       <c r="K58" t="n">
         <v>38682687.59267762</v>
       </c>
       <c r="L58" t="n">
-        <v>38308205.2407321</v>
+        <v>38308205.24073208</v>
       </c>
       <c r="M58" t="n">
-        <v>923564.3437788748</v>
+        <v>923564.3437788726</v>
       </c>
       <c r="N58" t="n">
-        <v>523980.7217733911</v>
+        <v>523980.7217733891</v>
       </c>
     </row>
     <row r="59">
@@ -3149,16 +3149,16 @@
         <v>41855872.57144751</v>
       </c>
       <c r="G59" t="n">
-        <v>1205565.888320949</v>
+        <v>1205565.888320946</v>
       </c>
       <c r="H59" t="n">
-        <v>1204357.709049986</v>
+        <v>1204357.709049982</v>
       </c>
       <c r="I59" t="n">
-        <v>553352.9263111325</v>
+        <v>553352.9263111304</v>
       </c>
       <c r="J59" t="n">
-        <v>553353.2657126619</v>
+        <v>553353.2657126597</v>
       </c>
       <c r="K59" t="n">
         <v>42603898.9300271</v>
@@ -3167,10 +3167,10 @@
         <v>41855853.37642673</v>
       </c>
       <c r="M59" t="n">
-        <v>1205565.888320949</v>
+        <v>1205565.888320946</v>
       </c>
       <c r="N59" t="n">
-        <v>553352.9263111325</v>
+        <v>553352.9263111304</v>
       </c>
     </row>
     <row r="60">
@@ -3192,19 +3192,19 @@
         <v>42070810.26323982</v>
       </c>
       <c r="F60" t="n">
-        <v>42070830.16733275</v>
+        <v>42070830.16733274</v>
       </c>
       <c r="G60" t="n">
-        <v>1396789.097600027</v>
+        <v>1396789.097600023</v>
       </c>
       <c r="H60" t="n">
-        <v>1395398.334473704</v>
+        <v>1395398.334473701</v>
       </c>
       <c r="I60" t="n">
-        <v>573152.6311818392</v>
+        <v>573152.6311818371</v>
       </c>
       <c r="J60" t="n">
-        <v>573153.0116757165</v>
+        <v>573153.0116757144</v>
       </c>
       <c r="K60" t="n">
         <v>42971610.45293882</v>
@@ -3213,10 +3213,10 @@
         <v>42070810.26323982</v>
       </c>
       <c r="M60" t="n">
-        <v>1396789.097600027</v>
+        <v>1396789.097600023</v>
       </c>
       <c r="N60" t="n">
-        <v>573152.6311818392</v>
+        <v>573152.6311818371</v>
       </c>
     </row>
     <row r="61">
@@ -3235,34 +3235,34 @@
         <v>43281906.07146036</v>
       </c>
       <c r="E61" t="n">
-        <v>42162139.46561714</v>
+        <v>42162139.46561716</v>
       </c>
       <c r="F61" t="n">
-        <v>42162159.23441058</v>
+        <v>42162159.2344106</v>
       </c>
       <c r="G61" t="n">
-        <v>1579077.677163196</v>
+        <v>1579077.677163191</v>
       </c>
       <c r="H61" t="n">
-        <v>1577917.110236589</v>
+        <v>1577917.110236584</v>
       </c>
       <c r="I61" t="n">
-        <v>556877.9934375959</v>
+        <v>556877.9934375945</v>
       </c>
       <c r="J61" t="n">
-        <v>556878.314278738</v>
+        <v>556878.3142787366</v>
       </c>
       <c r="K61" t="n">
         <v>43282189.44089113</v>
       </c>
       <c r="L61" t="n">
-        <v>42162139.46561714</v>
+        <v>42162139.46561716</v>
       </c>
       <c r="M61" t="n">
-        <v>1579077.677163196</v>
+        <v>1579077.677163191</v>
       </c>
       <c r="N61" t="n">
-        <v>556877.9934375959</v>
+        <v>556877.9934375945</v>
       </c>
     </row>
     <row r="62">
@@ -3281,34 +3281,34 @@
         <v>38271451.58126198</v>
       </c>
       <c r="E62" t="n">
-        <v>38014157.36758278</v>
+        <v>38014157.36758283</v>
       </c>
       <c r="F62" t="n">
-        <v>38014174.35818181</v>
+        <v>38014174.35818186</v>
       </c>
       <c r="G62" t="n">
-        <v>809455.6630217184</v>
+        <v>809455.6630217162</v>
       </c>
       <c r="H62" t="n">
-        <v>810887.1138332924</v>
+        <v>810887.1138332901</v>
       </c>
       <c r="I62" t="n">
-        <v>518480.3423607243</v>
+        <v>518480.3423607228</v>
       </c>
       <c r="J62" t="n">
-        <v>518480.689156596</v>
+        <v>518480.6891565946</v>
       </c>
       <c r="K62" t="n">
         <v>38271655.55316719</v>
       </c>
       <c r="L62" t="n">
-        <v>38014157.36758278</v>
+        <v>38014157.36758283</v>
       </c>
       <c r="M62" t="n">
-        <v>809455.6630217184</v>
+        <v>809455.6630217162</v>
       </c>
       <c r="N62" t="n">
-        <v>518480.3423607243</v>
+        <v>518480.3423607228</v>
       </c>
     </row>
     <row r="63">
@@ -3327,34 +3327,34 @@
         <v>43363969.71744081</v>
       </c>
       <c r="E63" t="n">
-        <v>42322164.52693202</v>
+        <v>42322164.52693208</v>
       </c>
       <c r="F63" t="n">
-        <v>42322184.71573382</v>
+        <v>42322184.71573387</v>
       </c>
       <c r="G63" t="n">
-        <v>1313451.649285755</v>
+        <v>1313451.64928575</v>
       </c>
       <c r="H63" t="n">
-        <v>1314278.075338486</v>
+        <v>1314278.075338481</v>
       </c>
       <c r="I63" t="n">
-        <v>568813.7256880568</v>
+        <v>568813.7256880553</v>
       </c>
       <c r="J63" t="n">
-        <v>568814.0736893589</v>
+        <v>568814.0736893574</v>
       </c>
       <c r="K63" t="n">
         <v>43363984.58291012</v>
       </c>
       <c r="L63" t="n">
-        <v>42322164.52693202</v>
+        <v>42322164.52693208</v>
       </c>
       <c r="M63" t="n">
-        <v>1313451.649285755</v>
+        <v>1313451.64928575</v>
       </c>
       <c r="N63" t="n">
-        <v>568813.7256880568</v>
+        <v>568813.7256880553</v>
       </c>
     </row>
     <row r="64">
@@ -3373,34 +3373,34 @@
         <v>38863021.2489932</v>
       </c>
       <c r="E64" t="n">
-        <v>38420975.68930626</v>
+        <v>38420975.68930627</v>
       </c>
       <c r="F64" t="n">
-        <v>38420992.85125547</v>
+        <v>38420992.85125548</v>
       </c>
       <c r="G64" t="n">
-        <v>956812.3481281062</v>
+        <v>956812.3481281041</v>
       </c>
       <c r="H64" t="n">
-        <v>959068.7593622216</v>
+        <v>959068.7593622196</v>
       </c>
       <c r="I64" t="n">
-        <v>524026.1860851428</v>
+        <v>524026.1860851408</v>
       </c>
       <c r="J64" t="n">
-        <v>524026.5395385972</v>
+        <v>524026.5395385951</v>
       </c>
       <c r="K64" t="n">
         <v>38862998.69650385</v>
       </c>
       <c r="L64" t="n">
-        <v>38420975.68930626</v>
+        <v>38420975.68930627</v>
       </c>
       <c r="M64" t="n">
-        <v>956812.3481281062</v>
+        <v>956812.3481281041</v>
       </c>
       <c r="N64" t="n">
-        <v>524026.1860851428</v>
+        <v>524026.1860851408</v>
       </c>
     </row>
     <row r="65">
@@ -3419,34 +3419,34 @@
         <v>38891626.03673045</v>
       </c>
       <c r="E65" t="n">
-        <v>38431540.098446</v>
+        <v>38431540.09844597</v>
       </c>
       <c r="F65" t="n">
-        <v>38431557.63162109</v>
+        <v>38431557.63162106</v>
       </c>
       <c r="G65" t="n">
-        <v>968775.9848842367</v>
+        <v>968775.9848842338</v>
       </c>
       <c r="H65" t="n">
-        <v>968878.6577177218</v>
+        <v>968878.657717719</v>
       </c>
       <c r="I65" t="n">
-        <v>534066.2074635501</v>
+        <v>534066.2074635484</v>
       </c>
       <c r="J65" t="n">
-        <v>534066.5806997567</v>
+        <v>534066.580699755</v>
       </c>
       <c r="K65" t="n">
         <v>38891473.25365871</v>
       </c>
       <c r="L65" t="n">
-        <v>38431540.098446</v>
+        <v>38431540.09844597</v>
       </c>
       <c r="M65" t="n">
-        <v>968775.9848842367</v>
+        <v>968775.9848842338</v>
       </c>
       <c r="N65" t="n">
-        <v>534066.2074635501</v>
+        <v>534066.2074635484</v>
       </c>
     </row>
     <row r="66">
@@ -3471,16 +3471,16 @@
         <v>42328464.87155836</v>
       </c>
       <c r="G66" t="n">
-        <v>1514450.818281467</v>
+        <v>1514450.818281462</v>
       </c>
       <c r="H66" t="n">
-        <v>1514730.677271366</v>
+        <v>1514730.677271362</v>
       </c>
       <c r="I66" t="n">
-        <v>559103.9552635399</v>
+        <v>559103.9552635385</v>
       </c>
       <c r="J66" t="n">
-        <v>559104.2766032611</v>
+        <v>559104.2766032598</v>
       </c>
       <c r="K66" t="n">
         <v>43467114.04823723</v>
@@ -3489,10 +3489,10 @@
         <v>42328444.97579212</v>
       </c>
       <c r="M66" t="n">
-        <v>1514450.818281467</v>
+        <v>1514450.818281462</v>
       </c>
       <c r="N66" t="n">
-        <v>559103.9552635399</v>
+        <v>559103.9552635385</v>
       </c>
     </row>
     <row r="67">
@@ -3511,34 +3511,34 @@
         <v>43900549.43896709</v>
       </c>
       <c r="E67" t="n">
-        <v>42646469.80269103</v>
+        <v>42646469.80269102</v>
       </c>
       <c r="F67" t="n">
-        <v>42646490.25132926</v>
+        <v>42646490.25132925</v>
       </c>
       <c r="G67" t="n">
-        <v>1484401.126039437</v>
+        <v>1484401.126039433</v>
       </c>
       <c r="H67" t="n">
-        <v>1484732.099988243</v>
+        <v>1484732.099988239</v>
       </c>
       <c r="I67" t="n">
-        <v>579363.2090185563</v>
+        <v>579363.2090185545</v>
       </c>
       <c r="J67" t="n">
-        <v>579363.5836150628</v>
+        <v>579363.5836150611</v>
       </c>
       <c r="K67" t="n">
         <v>43900964.30033703</v>
       </c>
       <c r="L67" t="n">
-        <v>42646469.80269103</v>
+        <v>42646469.80269102</v>
       </c>
       <c r="M67" t="n">
-        <v>1484401.126039437</v>
+        <v>1484401.126039433</v>
       </c>
       <c r="N67" t="n">
-        <v>579363.2090185563</v>
+        <v>579363.2090185545</v>
       </c>
     </row>
     <row r="68">
@@ -3557,34 +3557,34 @@
         <v>43784065.61533332</v>
       </c>
       <c r="E68" t="n">
-        <v>42556843.77597658</v>
+        <v>42556843.77597655</v>
       </c>
       <c r="F68" t="n">
-        <v>42556864.18136476</v>
+        <v>42556864.18136473</v>
       </c>
       <c r="G68" t="n">
-        <v>1335462.11227359</v>
+        <v>1335462.112273587</v>
       </c>
       <c r="H68" t="n">
-        <v>1335772.206095218</v>
+        <v>1335772.206095215</v>
       </c>
       <c r="I68" t="n">
-        <v>578242.4070098232</v>
+        <v>578242.4070098209</v>
       </c>
       <c r="J68" t="n">
-        <v>578242.7801106413</v>
+        <v>578242.7801106389</v>
       </c>
       <c r="K68" t="n">
         <v>43784245.96058489</v>
       </c>
       <c r="L68" t="n">
-        <v>42556843.77597658</v>
+        <v>42556843.77597655</v>
       </c>
       <c r="M68" t="n">
-        <v>1335462.11227359</v>
+        <v>1335462.112273587</v>
       </c>
       <c r="N68" t="n">
-        <v>578242.4070098232</v>
+        <v>578242.4070098209</v>
       </c>
     </row>
     <row r="69">
@@ -3603,34 +3603,34 @@
         <v>43479504.34027333</v>
       </c>
       <c r="E69" t="n">
-        <v>42418224.04134737</v>
+        <v>42418224.04134735</v>
       </c>
       <c r="F69" t="n">
-        <v>42418244.33055001</v>
+        <v>42418244.33054999</v>
       </c>
       <c r="G69" t="n">
-        <v>1366498.652708544</v>
+        <v>1366498.652708539</v>
       </c>
       <c r="H69" t="n">
-        <v>1368328.163082047</v>
+        <v>1368328.163082042</v>
       </c>
       <c r="I69" t="n">
-        <v>568609.0736866144</v>
+        <v>568609.0736866132</v>
       </c>
       <c r="J69" t="n">
-        <v>568609.4166189336</v>
+        <v>568609.4166189323</v>
       </c>
       <c r="K69" t="n">
         <v>43479845.78627935</v>
       </c>
       <c r="L69" t="n">
-        <v>42418224.04134737</v>
+        <v>42418224.04134735</v>
       </c>
       <c r="M69" t="n">
-        <v>1366498.652708544</v>
+        <v>1366498.652708539</v>
       </c>
       <c r="N69" t="n">
-        <v>568609.0736866144</v>
+        <v>568609.0736866132</v>
       </c>
     </row>
     <row r="70">
@@ -3649,34 +3649,34 @@
         <v>38430831.38375077</v>
       </c>
       <c r="E70" t="n">
-        <v>38175583.23355073</v>
+        <v>38175583.23355079</v>
       </c>
       <c r="F70" t="n">
-        <v>38175600.21611439</v>
+        <v>38175600.21611444</v>
       </c>
       <c r="G70" t="n">
-        <v>967983.319448503</v>
+        <v>967983.3194484998</v>
       </c>
       <c r="H70" t="n">
-        <v>968958.6824767127</v>
+        <v>968958.6824767096</v>
       </c>
       <c r="I70" t="n">
-        <v>518522.8598981171</v>
+        <v>518522.8598981161</v>
       </c>
       <c r="J70" t="n">
-        <v>518523.2050982668</v>
+        <v>518523.2050982658</v>
       </c>
       <c r="K70" t="n">
         <v>38431101.36382245</v>
       </c>
       <c r="L70" t="n">
-        <v>38175583.23355073</v>
+        <v>38175583.23355079</v>
       </c>
       <c r="M70" t="n">
-        <v>967983.319448503</v>
+        <v>967983.3194484998</v>
       </c>
       <c r="N70" t="n">
-        <v>518522.8598981171</v>
+        <v>518522.8598981161</v>
       </c>
     </row>
     <row r="71">
@@ -3695,34 +3695,34 @@
         <v>38538292.52885437</v>
       </c>
       <c r="E71" t="n">
-        <v>38164473.22913046</v>
+        <v>38164473.22913047</v>
       </c>
       <c r="F71" t="n">
-        <v>38164490.6850002</v>
+        <v>38164490.68500021</v>
       </c>
       <c r="G71" t="n">
-        <v>961483.6820829165</v>
+        <v>961483.6820829134</v>
       </c>
       <c r="H71" t="n">
-        <v>962005.9780618219</v>
+        <v>962005.978061819</v>
       </c>
       <c r="I71" t="n">
-        <v>529100.7437605027</v>
+        <v>529100.7437605017</v>
       </c>
       <c r="J71" t="n">
-        <v>529101.1065943883</v>
+        <v>529101.1065943874</v>
       </c>
       <c r="K71" t="n">
         <v>38537996.46732056</v>
       </c>
       <c r="L71" t="n">
-        <v>38164473.22913046</v>
+        <v>38164473.22913047</v>
       </c>
       <c r="M71" t="n">
-        <v>961483.6820829165</v>
+        <v>961483.6820829134</v>
       </c>
       <c r="N71" t="n">
-        <v>529100.7437605027</v>
+        <v>529100.7437605017</v>
       </c>
     </row>
     <row r="72">
@@ -3741,34 +3741,34 @@
         <v>43408369.0293228</v>
       </c>
       <c r="E72" t="n">
-        <v>42484631.00593605</v>
+        <v>42484631.00593608</v>
       </c>
       <c r="F72" t="n">
-        <v>42484651.17703497</v>
+        <v>42484651.177035</v>
       </c>
       <c r="G72" t="n">
-        <v>1242442.029048003</v>
+        <v>1242442.029047999</v>
       </c>
       <c r="H72" t="n">
-        <v>1242092.482819159</v>
+        <v>1242092.482819155</v>
       </c>
       <c r="I72" t="n">
-        <v>558541.3560927296</v>
+        <v>558541.3560927288</v>
       </c>
       <c r="J72" t="n">
-        <v>558541.6616937078</v>
+        <v>558541.6616937068</v>
       </c>
       <c r="K72" t="n">
         <v>43408391.97413379</v>
       </c>
       <c r="L72" t="n">
-        <v>42484631.00593605</v>
+        <v>42484631.00593608</v>
       </c>
       <c r="M72" t="n">
-        <v>1242442.029048003</v>
+        <v>1242442.029047999</v>
       </c>
       <c r="N72" t="n">
-        <v>558541.3560927296</v>
+        <v>558541.3560927288</v>
       </c>
     </row>
     <row r="73">
@@ -3787,34 +3787,34 @@
         <v>42755341.35392839</v>
       </c>
       <c r="E73" t="n">
-        <v>42498108.39529178</v>
+        <v>42498108.3952917</v>
       </c>
       <c r="F73" t="n">
-        <v>42498128.52625674</v>
+        <v>42498128.52625667</v>
       </c>
       <c r="G73" t="n">
-        <v>938675.5141098462</v>
+        <v>938675.5141098428</v>
       </c>
       <c r="H73" t="n">
-        <v>940439.3783846191</v>
+        <v>940439.3783846159</v>
       </c>
       <c r="I73" t="n">
-        <v>559176.5934439371</v>
+        <v>559176.5934439349</v>
       </c>
       <c r="J73" t="n">
-        <v>559176.9033921913</v>
+        <v>559176.9033921891</v>
       </c>
       <c r="K73" t="n">
         <v>42755304.30474075</v>
       </c>
       <c r="L73" t="n">
-        <v>42498108.39529178</v>
+        <v>42498108.3952917</v>
       </c>
       <c r="M73" t="n">
-        <v>938675.5141098462</v>
+        <v>938675.5141098428</v>
       </c>
       <c r="N73" t="n">
-        <v>559176.5934439371</v>
+        <v>559176.5934439349</v>
       </c>
     </row>
     <row r="74">
@@ -3833,34 +3833,34 @@
         <v>42909663.34432742</v>
       </c>
       <c r="E74" t="n">
-        <v>42442419.67075374</v>
+        <v>42442419.67075373</v>
       </c>
       <c r="F74" t="n">
         <v>42442439.7633559</v>
       </c>
       <c r="G74" t="n">
-        <v>1029038.326371133</v>
+        <v>1029038.32637113</v>
       </c>
       <c r="H74" t="n">
-        <v>1030347.342131249</v>
+        <v>1030347.342131245</v>
       </c>
       <c r="I74" t="n">
-        <v>559184.0571583353</v>
+        <v>559184.0571583335</v>
       </c>
       <c r="J74" t="n">
-        <v>559184.3696183219</v>
+        <v>559184.3696183198</v>
       </c>
       <c r="K74" t="n">
         <v>42909735.5325046</v>
       </c>
       <c r="L74" t="n">
-        <v>42442419.67075374</v>
+        <v>42442419.67075373</v>
       </c>
       <c r="M74" t="n">
-        <v>1029038.326371133</v>
+        <v>1029038.32637113</v>
       </c>
       <c r="N74" t="n">
-        <v>559184.0571583353</v>
+        <v>559184.0571583335</v>
       </c>
     </row>
     <row r="75">
@@ -3879,34 +3879,34 @@
         <v>42797003.2335274</v>
       </c>
       <c r="E75" t="n">
-        <v>42330380.97935794</v>
+        <v>42330380.97935795</v>
       </c>
       <c r="F75" t="n">
-        <v>42330400.99273873</v>
+        <v>42330400.99273875</v>
       </c>
       <c r="G75" t="n">
-        <v>1025486.78540521</v>
+        <v>1025486.785405206</v>
       </c>
       <c r="H75" t="n">
-        <v>1026789.007149456</v>
+        <v>1026789.007149452</v>
       </c>
       <c r="I75" t="n">
-        <v>558111.4651871887</v>
+        <v>558111.4651871865</v>
       </c>
       <c r="J75" t="n">
-        <v>558111.7786610895</v>
+        <v>558111.7786610872</v>
       </c>
       <c r="K75" t="n">
         <v>42797075.30446521</v>
       </c>
       <c r="L75" t="n">
-        <v>42330380.97935794</v>
+        <v>42330380.97935795</v>
       </c>
       <c r="M75" t="n">
-        <v>1025486.78540521</v>
+        <v>1025486.785405206</v>
       </c>
       <c r="N75" t="n">
-        <v>558111.4651871887</v>
+        <v>558111.4651871865</v>
       </c>
     </row>
     <row r="76">
@@ -3925,34 +3925,34 @@
         <v>42689003.52175521</v>
       </c>
       <c r="E76" t="n">
-        <v>42195725.53629073</v>
+        <v>42195725.53629069</v>
       </c>
       <c r="F76" t="n">
-        <v>42195745.47006141</v>
+        <v>42195745.47006138</v>
       </c>
       <c r="G76" t="n">
-        <v>1025058.662583424</v>
+        <v>1025058.662583421</v>
       </c>
       <c r="H76" t="n">
-        <v>1026360.885651383</v>
+        <v>1026360.885651379</v>
       </c>
       <c r="I76" t="n">
-        <v>555955.1807376244</v>
+        <v>555955.1807376228</v>
       </c>
       <c r="J76" t="n">
-        <v>555955.4911682487</v>
+        <v>555955.4911682472</v>
       </c>
       <c r="K76" t="n">
         <v>42689073.13154563</v>
       </c>
       <c r="L76" t="n">
-        <v>42195725.53629073</v>
+        <v>42195725.53629069</v>
       </c>
       <c r="M76" t="n">
-        <v>1025058.662583424</v>
+        <v>1025058.662583421</v>
       </c>
       <c r="N76" t="n">
-        <v>555955.1807376244</v>
+        <v>555955.1807376228</v>
       </c>
     </row>
     <row r="77">
@@ -3977,16 +3977,16 @@
         <v>42681429.13150658</v>
       </c>
       <c r="G77" t="n">
-        <v>1650459.112447244</v>
+        <v>1650459.112447239</v>
       </c>
       <c r="H77" t="n">
-        <v>1649111.654854415</v>
+        <v>1649111.654854412</v>
       </c>
       <c r="I77" t="n">
-        <v>578757.6714842949</v>
+        <v>578757.6714842928</v>
       </c>
       <c r="J77" t="n">
-        <v>578758.0419000012</v>
+        <v>578758.0418999994</v>
       </c>
       <c r="K77" t="n">
         <v>44769758.00716899</v>
@@ -3995,10 +3995,10 @@
         <v>42681408.60913453</v>
       </c>
       <c r="M77" t="n">
-        <v>1650459.112447244</v>
+        <v>1650459.112447239</v>
       </c>
       <c r="N77" t="n">
-        <v>578757.6714842949</v>
+        <v>578757.6714842928</v>
       </c>
     </row>
     <row r="78">
@@ -4023,16 +4023,16 @@
         <v>42681429.13150658</v>
       </c>
       <c r="G78" t="n">
-        <v>1650459.112447244</v>
+        <v>1650459.112447239</v>
       </c>
       <c r="H78" t="n">
-        <v>1649111.654854415</v>
+        <v>1649111.654854412</v>
       </c>
       <c r="I78" t="n">
-        <v>578757.6714842949</v>
+        <v>578757.6714842928</v>
       </c>
       <c r="J78" t="n">
-        <v>578758.0419000012</v>
+        <v>578758.0418999994</v>
       </c>
       <c r="K78" t="n">
         <v>44769758.00716899</v>
@@ -4041,10 +4041,10 @@
         <v>42681408.60913453</v>
       </c>
       <c r="M78" t="n">
-        <v>1650459.112447244</v>
+        <v>1650459.112447239</v>
       </c>
       <c r="N78" t="n">
-        <v>578757.6714842949</v>
+        <v>578757.6714842928</v>
       </c>
     </row>
     <row r="79">
@@ -4063,34 +4063,34 @@
         <v>44499823.10626749</v>
       </c>
       <c r="E79" t="n">
-        <v>42721592.69731595</v>
+        <v>42721592.69731591</v>
       </c>
       <c r="F79" t="n">
-        <v>42721613.21460214</v>
+        <v>42721613.21460211</v>
       </c>
       <c r="G79" t="n">
-        <v>1838308.134601118</v>
+        <v>1838308.134601112</v>
       </c>
       <c r="H79" t="n">
-        <v>1838805.862994882</v>
+        <v>1838805.862994876</v>
       </c>
       <c r="I79" t="n">
-        <v>570603.3070454728</v>
+        <v>570603.3070454708</v>
       </c>
       <c r="J79" t="n">
-        <v>570603.6454299791</v>
+        <v>570603.645429977</v>
       </c>
       <c r="K79" t="n">
         <v>44499793.5140924</v>
       </c>
       <c r="L79" t="n">
-        <v>42721592.69731595</v>
+        <v>42721592.69731591</v>
       </c>
       <c r="M79" t="n">
-        <v>1838308.134601118</v>
+        <v>1838308.134601112</v>
       </c>
       <c r="N79" t="n">
-        <v>570603.3070454728</v>
+        <v>570603.3070454708</v>
       </c>
     </row>
     <row r="80">
@@ -4112,19 +4112,19 @@
         <v>42659492.81300545</v>
       </c>
       <c r="F80" t="n">
-        <v>42659513.30816294</v>
+        <v>42659513.30816295</v>
       </c>
       <c r="G80" t="n">
-        <v>1838093.120301847</v>
+        <v>1838093.120301841</v>
       </c>
       <c r="H80" t="n">
-        <v>1838590.833864402</v>
+        <v>1838590.833864396</v>
       </c>
       <c r="I80" t="n">
-        <v>569797.1550449743</v>
+        <v>569797.1550449724</v>
       </c>
       <c r="J80" t="n">
-        <v>569797.4920572697</v>
+        <v>569797.4920572679</v>
       </c>
       <c r="K80" t="n">
         <v>44445793.70177246</v>
@@ -4133,10 +4133,10 @@
         <v>42659492.81300545</v>
       </c>
       <c r="M80" t="n">
-        <v>1838093.120301847</v>
+        <v>1838093.120301841</v>
       </c>
       <c r="N80" t="n">
-        <v>569797.1550449743</v>
+        <v>569797.1550449724</v>
       </c>
     </row>
     <row r="81">
@@ -4158,19 +4158,19 @@
         <v>42659492.81300545</v>
       </c>
       <c r="F81" t="n">
-        <v>42659513.30816294</v>
+        <v>42659513.30816295</v>
       </c>
       <c r="G81" t="n">
-        <v>1838093.120301847</v>
+        <v>1838093.120301841</v>
       </c>
       <c r="H81" t="n">
-        <v>1838590.833864402</v>
+        <v>1838590.833864396</v>
       </c>
       <c r="I81" t="n">
-        <v>569797.1550449743</v>
+        <v>569797.1550449724</v>
       </c>
       <c r="J81" t="n">
-        <v>569797.4920572697</v>
+        <v>569797.4920572679</v>
       </c>
       <c r="K81" t="n">
         <v>44445793.70177246</v>
@@ -4179,10 +4179,10 @@
         <v>42659492.81300545</v>
       </c>
       <c r="M81" t="n">
-        <v>1838093.120301847</v>
+        <v>1838093.120301841</v>
       </c>
       <c r="N81" t="n">
-        <v>569797.1550449743</v>
+        <v>569797.1550449724</v>
       </c>
     </row>
     <row r="82">
@@ -4207,16 +4207,16 @@
         <v>42626087.91444553</v>
       </c>
       <c r="G82" t="n">
-        <v>1837983.975686853</v>
+        <v>1837983.975686847</v>
       </c>
       <c r="H82" t="n">
-        <v>1838481.492711685</v>
+        <v>1838481.492711679</v>
       </c>
       <c r="I82" t="n">
-        <v>569456.3579567887</v>
+        <v>569456.3579567871</v>
       </c>
       <c r="J82" t="n">
-        <v>569456.694350319</v>
+        <v>569456.6943503175</v>
       </c>
       <c r="K82" t="n">
         <v>44418791.03061904</v>
@@ -4225,10 +4225,10 @@
         <v>42626067.42589439</v>
       </c>
       <c r="M82" t="n">
-        <v>1837983.975686853</v>
+        <v>1837983.975686847</v>
       </c>
       <c r="N82" t="n">
-        <v>569456.3579567887</v>
+        <v>569456.3579567871</v>
       </c>
     </row>
     <row r="83">
@@ -4253,16 +4253,16 @@
         <v>42626087.91444553</v>
       </c>
       <c r="G83" t="n">
-        <v>1837983.975686853</v>
+        <v>1837983.975686847</v>
       </c>
       <c r="H83" t="n">
-        <v>1838481.492711685</v>
+        <v>1838481.492711679</v>
       </c>
       <c r="I83" t="n">
-        <v>569456.3579567887</v>
+        <v>569456.3579567871</v>
       </c>
       <c r="J83" t="n">
-        <v>569456.694350319</v>
+        <v>569456.6943503175</v>
       </c>
       <c r="K83" t="n">
         <v>44418791.03061904</v>
@@ -4271,10 +4271,10 @@
         <v>42626067.42589439</v>
       </c>
       <c r="M83" t="n">
-        <v>1837983.975686853</v>
+        <v>1837983.975686847</v>
       </c>
       <c r="N83" t="n">
-        <v>569456.3579567887</v>
+        <v>569456.3579567871</v>
       </c>
     </row>
     <row r="84">
@@ -4293,34 +4293,34 @@
         <v>44355383.66163208</v>
       </c>
       <c r="E84" t="n">
-        <v>42580268.33666454</v>
+        <v>42580268.33666451</v>
       </c>
       <c r="F84" t="n">
-        <v>42580288.78882645</v>
+        <v>42580288.78882643</v>
       </c>
       <c r="G84" t="n">
-        <v>1832493.581131558</v>
+        <v>1832493.581131552</v>
       </c>
       <c r="H84" t="n">
-        <v>1833105.72302113</v>
+        <v>1833105.723021124</v>
       </c>
       <c r="I84" t="n">
-        <v>568813.4295388099</v>
+        <v>568813.4295388079</v>
       </c>
       <c r="J84" t="n">
-        <v>568813.7654258397</v>
+        <v>568813.7654258378</v>
       </c>
       <c r="K84" t="n">
         <v>44355356.31589252</v>
       </c>
       <c r="L84" t="n">
-        <v>42580268.33666454</v>
+        <v>42580268.33666451</v>
       </c>
       <c r="M84" t="n">
-        <v>1832493.581131558</v>
+        <v>1832493.581131552</v>
       </c>
       <c r="N84" t="n">
-        <v>568813.4295388099</v>
+        <v>568813.4295388079</v>
       </c>
     </row>
     <row r="85">
@@ -4339,34 +4339,34 @@
         <v>44383270.42997628</v>
       </c>
       <c r="E85" t="n">
-        <v>42604239.46110857</v>
+        <v>42604239.46110851</v>
       </c>
       <c r="F85" t="n">
-        <v>42604259.92498348</v>
+        <v>42604259.92498342</v>
       </c>
       <c r="G85" t="n">
-        <v>1832600.796510266</v>
+        <v>1832600.796510261</v>
       </c>
       <c r="H85" t="n">
-        <v>1833212.737887002</v>
+        <v>1833212.737886995</v>
       </c>
       <c r="I85" t="n">
-        <v>569211.1482635145</v>
+        <v>569211.1482635125</v>
       </c>
       <c r="J85" t="n">
-        <v>569211.4848601859</v>
+        <v>569211.4848601838</v>
       </c>
       <c r="K85" t="n">
         <v>44383241.57138723</v>
       </c>
       <c r="L85" t="n">
-        <v>42604239.46110857</v>
+        <v>42604239.46110851</v>
       </c>
       <c r="M85" t="n">
-        <v>1832600.796510266</v>
+        <v>1832600.796510261</v>
       </c>
       <c r="N85" t="n">
-        <v>569211.1482635145</v>
+        <v>569211.1482635125</v>
       </c>
     </row>
     <row r="86">
@@ -4385,34 +4385,34 @@
         <v>44383270.42997628</v>
       </c>
       <c r="E86" t="n">
-        <v>42604239.46110857</v>
+        <v>42604239.46110851</v>
       </c>
       <c r="F86" t="n">
-        <v>42604259.92498348</v>
+        <v>42604259.92498342</v>
       </c>
       <c r="G86" t="n">
-        <v>1832600.796510266</v>
+        <v>1832600.796510261</v>
       </c>
       <c r="H86" t="n">
-        <v>1833212.737887002</v>
+        <v>1833212.737886995</v>
       </c>
       <c r="I86" t="n">
-        <v>569211.1482635145</v>
+        <v>569211.1482635125</v>
       </c>
       <c r="J86" t="n">
-        <v>569211.4848601859</v>
+        <v>569211.4848601838</v>
       </c>
       <c r="K86" t="n">
         <v>44383241.57138723</v>
       </c>
       <c r="L86" t="n">
-        <v>42604239.46110857</v>
+        <v>42604239.46110851</v>
       </c>
       <c r="M86" t="n">
-        <v>1832600.796510266</v>
+        <v>1832600.796510261</v>
       </c>
       <c r="N86" t="n">
-        <v>569211.1482635145</v>
+        <v>569211.1482635125</v>
       </c>
     </row>
     <row r="87">
@@ -4431,34 +4431,34 @@
         <v>44411159.10262049</v>
       </c>
       <c r="E87" t="n">
-        <v>42640056.02019545</v>
+        <v>42640056.02019542</v>
       </c>
       <c r="F87" t="n">
-        <v>42640076.49560523</v>
+        <v>42640076.4956052</v>
       </c>
       <c r="G87" t="n">
-        <v>1832707.909344019</v>
+        <v>1832707.909344014</v>
       </c>
       <c r="H87" t="n">
-        <v>1833319.866806168</v>
+        <v>1833319.866806161</v>
       </c>
       <c r="I87" t="n">
-        <v>569701.9651489921</v>
+        <v>569701.96514899</v>
       </c>
       <c r="J87" t="n">
-        <v>569702.3026777309</v>
+        <v>569702.3026777289</v>
       </c>
       <c r="K87" t="n">
         <v>44411126.02987757</v>
       </c>
       <c r="L87" t="n">
-        <v>42640056.02019545</v>
+        <v>42640056.02019542</v>
       </c>
       <c r="M87" t="n">
-        <v>1832707.909344019</v>
+        <v>1832707.909344014</v>
       </c>
       <c r="N87" t="n">
-        <v>569701.9651489921</v>
+        <v>569701.96514899</v>
       </c>
     </row>
     <row r="88">
@@ -4483,16 +4483,16 @@
         <v>42605844.42041666</v>
       </c>
       <c r="G88" t="n">
-        <v>1825804.078568915</v>
+        <v>1825804.078568909</v>
       </c>
       <c r="H88" t="n">
-        <v>1826342.391153843</v>
+        <v>1826342.391153836</v>
       </c>
       <c r="I88" t="n">
-        <v>569401.7827125627</v>
+        <v>569401.7827125608</v>
       </c>
       <c r="J88" t="n">
-        <v>569402.1201491109</v>
+        <v>569402.120149109</v>
       </c>
       <c r="K88" t="n">
         <v>44375016.74368616</v>
@@ -4501,10 +4501,10 @@
         <v>42605823.9629457</v>
       </c>
       <c r="M88" t="n">
-        <v>1825804.078568915</v>
+        <v>1825804.078568909</v>
       </c>
       <c r="N88" t="n">
-        <v>569401.7827125627</v>
+        <v>569401.7827125608</v>
       </c>
     </row>
     <row r="89">
@@ -4529,16 +4529,16 @@
         <v>42681327.64522918</v>
       </c>
       <c r="G89" t="n">
-        <v>1748355.882931889</v>
+        <v>1748355.882931883</v>
       </c>
       <c r="H89" t="n">
-        <v>1748781.366684101</v>
+        <v>1748781.366684095</v>
       </c>
       <c r="I89" t="n">
-        <v>570661.9761249932</v>
+        <v>570661.9761249917</v>
       </c>
       <c r="J89" t="n">
-        <v>570662.3164591971</v>
+        <v>570662.3164591957</v>
       </c>
       <c r="K89" t="n">
         <v>44235569.00916822</v>
@@ -4547,10 +4547,10 @@
         <v>42681307.1693216</v>
       </c>
       <c r="M89" t="n">
-        <v>1748355.882931889</v>
+        <v>1748355.882931883</v>
       </c>
       <c r="N89" t="n">
-        <v>570661.9761249932</v>
+        <v>570661.9761249917</v>
       </c>
     </row>
     <row r="90">
@@ -4569,34 +4569,34 @@
         <v>44820445.03323754</v>
       </c>
       <c r="E90" t="n">
-        <v>42630222.70471637</v>
+        <v>42630222.70471633</v>
       </c>
       <c r="F90" t="n">
-        <v>42630243.20356829</v>
+        <v>42630243.20356826</v>
       </c>
       <c r="G90" t="n">
-        <v>1593839.184921907</v>
+        <v>1593839.184921903</v>
       </c>
       <c r="H90" t="n">
-        <v>1593002.128775131</v>
+        <v>1593002.128775127</v>
       </c>
       <c r="I90" t="n">
-        <v>578380.9183473759</v>
+        <v>578380.9183473738</v>
       </c>
       <c r="J90" t="n">
-        <v>578381.2887541899</v>
+        <v>578381.2887541876</v>
       </c>
       <c r="K90" t="n">
         <v>44820375.5497009</v>
       </c>
       <c r="L90" t="n">
-        <v>42630222.70471637</v>
+        <v>42630222.70471633</v>
       </c>
       <c r="M90" t="n">
-        <v>1593839.184921907</v>
+        <v>1593839.184921903</v>
       </c>
       <c r="N90" t="n">
-        <v>578380.9183473759</v>
+        <v>578380.9183473738</v>
       </c>
     </row>
     <row r="91">
@@ -4615,34 +4615,34 @@
         <v>44211173.27652847</v>
       </c>
       <c r="E91" t="n">
-        <v>42604225.54207339</v>
+        <v>42604225.54207341</v>
       </c>
       <c r="F91" t="n">
-        <v>42604246.02587201</v>
+        <v>42604246.02587202</v>
       </c>
       <c r="G91" t="n">
-        <v>1727279.268983577</v>
+        <v>1727279.268983572</v>
       </c>
       <c r="H91" t="n">
-        <v>1725913.992382681</v>
+        <v>1725913.992382677</v>
       </c>
       <c r="I91" t="n">
-        <v>578740.6038918283</v>
+        <v>578740.6038918262</v>
       </c>
       <c r="J91" t="n">
-        <v>578740.9763079809</v>
+        <v>578740.9763079789</v>
       </c>
       <c r="K91" t="n">
         <v>44211559.5180662</v>
       </c>
       <c r="L91" t="n">
-        <v>42604225.54207339</v>
+        <v>42604225.54207341</v>
       </c>
       <c r="M91" t="n">
-        <v>1727279.268983577</v>
+        <v>1727279.268983572</v>
       </c>
       <c r="N91" t="n">
-        <v>578740.6038918283</v>
+        <v>578740.6038918262</v>
       </c>
     </row>
     <row r="92">
@@ -4667,16 +4667,16 @@
         <v>42621033.82714722</v>
       </c>
       <c r="G92" t="n">
-        <v>1683776.496880392</v>
+        <v>1683776.496880388</v>
       </c>
       <c r="H92" t="n">
-        <v>1683105.138723768</v>
+        <v>1683105.138723764</v>
       </c>
       <c r="I92" t="n">
-        <v>578714.7900103267</v>
+        <v>578714.7900103247</v>
       </c>
       <c r="J92" t="n">
-        <v>578715.1619577169</v>
+        <v>578715.1619577151</v>
       </c>
       <c r="K92" t="n">
         <v>44323110.90552974</v>
@@ -4685,10 +4685,10 @@
         <v>42621013.33985513</v>
       </c>
       <c r="M92" t="n">
-        <v>1683776.496880392</v>
+        <v>1683776.496880388</v>
       </c>
       <c r="N92" t="n">
-        <v>578714.7900103267</v>
+        <v>578714.7900103247</v>
       </c>
     </row>
     <row r="93">
@@ -4707,34 +4707,34 @@
         <v>44349956.72155707</v>
       </c>
       <c r="E93" t="n">
-        <v>42654962.00225196</v>
+        <v>42654962.00225195</v>
       </c>
       <c r="F93" t="n">
-        <v>42654982.49866975</v>
+        <v>42654982.49866974</v>
       </c>
       <c r="G93" t="n">
-        <v>1683885.641495386</v>
+        <v>1683885.641495381</v>
       </c>
       <c r="H93" t="n">
-        <v>1683214.479876485</v>
+        <v>1683214.479876481</v>
       </c>
       <c r="I93" t="n">
-        <v>579052.0555008793</v>
+        <v>579052.0555008774</v>
       </c>
       <c r="J93" t="n">
-        <v>579052.4278664028</v>
+        <v>579052.4278664008</v>
       </c>
       <c r="K93" t="n">
         <v>44350113.57668316</v>
       </c>
       <c r="L93" t="n">
-        <v>42654962.00225196</v>
+        <v>42654962.00225195</v>
       </c>
       <c r="M93" t="n">
-        <v>1683885.641495386</v>
+        <v>1683885.641495381</v>
       </c>
       <c r="N93" t="n">
-        <v>579052.0555008793</v>
+        <v>579052.0555008774</v>
       </c>
     </row>
     <row r="94">
@@ -4753,34 +4753,34 @@
         <v>44327576.10789642</v>
       </c>
       <c r="E94" t="n">
-        <v>42641761.97122045</v>
+        <v>42641761.97122048</v>
       </c>
       <c r="F94" t="n">
-        <v>42641782.4661202</v>
+        <v>42641782.46612024</v>
       </c>
       <c r="G94" t="n">
-        <v>1674785.899576357</v>
+        <v>1674785.899576352</v>
       </c>
       <c r="H94" t="n">
-        <v>1673935.346530009</v>
+        <v>1673935.346530005</v>
       </c>
       <c r="I94" t="n">
-        <v>579036.7926769312</v>
+        <v>579036.7926769296</v>
       </c>
       <c r="J94" t="n">
-        <v>579037.1652597395</v>
+        <v>579037.1652597378</v>
       </c>
       <c r="K94" t="n">
         <v>44327715.78628024</v>
       </c>
       <c r="L94" t="n">
-        <v>42641761.97122045</v>
+        <v>42641761.97122048</v>
       </c>
       <c r="M94" t="n">
-        <v>1674785.899576357</v>
+        <v>1674785.899576352</v>
       </c>
       <c r="N94" t="n">
-        <v>579036.7926769312</v>
+        <v>579036.7926769296</v>
       </c>
     </row>
     <row r="95">
@@ -4799,34 +4799,34 @@
         <v>44352805.0501554</v>
       </c>
       <c r="E95" t="n">
-        <v>42682203.62697846</v>
+        <v>42682203.62697849</v>
       </c>
       <c r="F95" t="n">
-        <v>42682224.14561179</v>
+        <v>42682224.14561183</v>
       </c>
       <c r="G95" t="n">
-        <v>1674915.435663819</v>
+        <v>1674915.435663815</v>
       </c>
       <c r="H95" t="n">
-        <v>1674064.5992862</v>
+        <v>1674064.599286195</v>
       </c>
       <c r="I95" t="n">
-        <v>579642.5270274989</v>
+        <v>579642.5270274971</v>
       </c>
       <c r="J95" t="n">
-        <v>579642.9004293005</v>
+        <v>579642.9004292988</v>
       </c>
       <c r="K95" t="n">
         <v>44352944.6336908</v>
       </c>
       <c r="L95" t="n">
-        <v>42682203.62697846</v>
+        <v>42682203.62697849</v>
       </c>
       <c r="M95" t="n">
-        <v>1674915.435663819</v>
+        <v>1674915.435663815</v>
       </c>
       <c r="N95" t="n">
-        <v>579642.5270274989</v>
+        <v>579642.5270274971</v>
       </c>
     </row>
     <row r="96">
@@ -4845,34 +4845,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E96" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F96" t="n">
-        <v>42678628.78304014</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G96" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H96" t="n">
-        <v>1726152.586291589</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I96" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J96" t="n">
-        <v>579683.4241053053</v>
+        <v>579683.4241053031</v>
       </c>
       <c r="K96" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L96" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="M96" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="N96" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="97">
@@ -4891,34 +4891,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E97" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F97" t="n">
-        <v>42678628.78304014</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G97" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H97" t="n">
-        <v>1726152.586291589</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I97" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J97" t="n">
-        <v>579683.4241053053</v>
+        <v>579683.4241053031</v>
       </c>
       <c r="K97" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L97" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="M97" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="N97" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="98">
@@ -4937,34 +4937,34 @@
         <v>44254849.90804139</v>
       </c>
       <c r="E98" t="n">
-        <v>42673736.65047543</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="F98" t="n">
-        <v>42673757.16280222</v>
+        <v>42673757.1628022</v>
       </c>
       <c r="G98" t="n">
-        <v>1720897.013443621</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="H98" t="n">
-        <v>1719370.330075974</v>
+        <v>1719370.33007597</v>
       </c>
       <c r="I98" t="n">
-        <v>579827.8441746654</v>
+        <v>579827.8441746635</v>
       </c>
       <c r="J98" t="n">
-        <v>579828.2184958509</v>
+        <v>579828.2184958491</v>
       </c>
       <c r="K98" t="n">
         <v>44255238.86784417</v>
       </c>
       <c r="L98" t="n">
-        <v>42673736.65047543</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="M98" t="n">
-        <v>1720897.013443621</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="N98" t="n">
-        <v>579827.8441746654</v>
+        <v>579827.8441746635</v>
       </c>
     </row>
     <row r="99">
@@ -4983,34 +4983,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E99" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F99" t="n">
-        <v>42678628.78304014</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G99" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H99" t="n">
-        <v>1726152.586291589</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I99" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J99" t="n">
-        <v>579683.4241053053</v>
+        <v>579683.4241053031</v>
       </c>
       <c r="K99" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L99" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="M99" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="N99" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="100">
@@ -5029,34 +5029,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E100" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F100" t="n">
-        <v>42678628.78304014</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G100" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H100" t="n">
-        <v>1726152.586291589</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I100" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J100" t="n">
-        <v>579683.4241053053</v>
+        <v>579683.4241053031</v>
       </c>
       <c r="K100" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L100" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="M100" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="N100" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="101">
@@ -5075,34 +5075,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E101" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F101" t="n">
-        <v>42678628.78304014</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G101" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H101" t="n">
-        <v>1726152.586291589</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I101" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J101" t="n">
-        <v>579683.4241053053</v>
+        <v>579683.4241053031</v>
       </c>
       <c r="K101" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L101" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="M101" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="N101" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="102">
@@ -5121,34 +5121,34 @@
         <v>44263401.09087706</v>
       </c>
       <c r="E102" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="F102" t="n">
-        <v>42678628.78304014</v>
+        <v>42678628.78304012</v>
       </c>
       <c r="G102" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="H102" t="n">
-        <v>1726152.586291589</v>
+        <v>1726152.586291585</v>
       </c>
       <c r="I102" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
       <c r="J102" t="n">
-        <v>579683.4241053053</v>
+        <v>579683.4241053031</v>
       </c>
       <c r="K102" t="n">
         <v>44263791.03663018</v>
       </c>
       <c r="L102" t="n">
-        <v>42678608.26632151</v>
+        <v>42678608.2663215</v>
       </c>
       <c r="M102" t="n">
-        <v>1727517.949686033</v>
+        <v>1727517.949686029</v>
       </c>
       <c r="N102" t="n">
-        <v>579683.0504606115</v>
+        <v>579683.0504606094</v>
       </c>
     </row>
     <row r="103">
@@ -5167,34 +5167,34 @@
         <v>44254849.90804139</v>
       </c>
       <c r="E103" t="n">
-        <v>42673736.65047543</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="F103" t="n">
-        <v>42673757.16280222</v>
+        <v>42673757.1628022</v>
       </c>
       <c r="G103" t="n">
-        <v>1720897.013443621</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="H103" t="n">
-        <v>1719370.330075974</v>
+        <v>1719370.33007597</v>
       </c>
       <c r="I103" t="n">
-        <v>579827.8441746654</v>
+        <v>579827.8441746635</v>
       </c>
       <c r="J103" t="n">
-        <v>579828.2184958509</v>
+        <v>579828.2184958491</v>
       </c>
       <c r="K103" t="n">
         <v>44255238.86784417</v>
       </c>
       <c r="L103" t="n">
-        <v>42673736.65047543</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="M103" t="n">
-        <v>1720897.013443621</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="N103" t="n">
-        <v>579827.8441746654</v>
+        <v>579827.8441746635</v>
       </c>
     </row>
     <row r="104">
@@ -5213,34 +5213,34 @@
         <v>44227851.03595178</v>
       </c>
       <c r="E104" t="n">
-        <v>42639812.64979227</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="F104" t="n">
         <v>42639833.15292501</v>
       </c>
       <c r="G104" t="n">
-        <v>1720787.868828628</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="H104" t="n">
-        <v>1719260.988923258</v>
+        <v>1719260.988923253</v>
       </c>
       <c r="I104" t="n">
-        <v>579492.4604510434</v>
+        <v>579492.4604510416</v>
       </c>
       <c r="J104" t="n">
-        <v>579492.8343713921</v>
+        <v>579492.8343713903</v>
       </c>
       <c r="K104" t="n">
         <v>44228236.19669075</v>
       </c>
       <c r="L104" t="n">
-        <v>42639812.64979227</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="M104" t="n">
-        <v>1720787.868828628</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="N104" t="n">
-        <v>579492.4604510434</v>
+        <v>579492.4604510416</v>
       </c>
     </row>
     <row r="105">
@@ -5259,34 +5259,34 @@
         <v>44254849.90804139</v>
       </c>
       <c r="E105" t="n">
-        <v>42673736.65047543</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="F105" t="n">
-        <v>42673757.16280222</v>
+        <v>42673757.1628022</v>
       </c>
       <c r="G105" t="n">
-        <v>1720897.013443621</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="H105" t="n">
-        <v>1719370.330075974</v>
+        <v>1719370.33007597</v>
       </c>
       <c r="I105" t="n">
-        <v>579827.8441746654</v>
+        <v>579827.8441746635</v>
       </c>
       <c r="J105" t="n">
-        <v>579828.2184958509</v>
+        <v>579828.2184958491</v>
       </c>
       <c r="K105" t="n">
         <v>44255238.86784417</v>
       </c>
       <c r="L105" t="n">
-        <v>42673736.65047543</v>
+        <v>42673736.65047541</v>
       </c>
       <c r="M105" t="n">
-        <v>1720897.013443621</v>
+        <v>1720897.013443617</v>
       </c>
       <c r="N105" t="n">
-        <v>579827.8441746654</v>
+        <v>579827.8441746635</v>
       </c>
     </row>
     <row r="106">
@@ -5305,34 +5305,34 @@
         <v>44227851.03595178</v>
       </c>
       <c r="E106" t="n">
-        <v>42639812.64979227</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="F106" t="n">
         <v>42639833.15292501</v>
       </c>
       <c r="G106" t="n">
-        <v>1720787.868828628</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="H106" t="n">
-        <v>1719260.988923258</v>
+        <v>1719260.988923253</v>
       </c>
       <c r="I106" t="n">
-        <v>579492.4604510434</v>
+        <v>579492.4604510416</v>
       </c>
       <c r="J106" t="n">
-        <v>579492.8343713921</v>
+        <v>579492.8343713903</v>
       </c>
       <c r="K106" t="n">
         <v>44228236.19669075</v>
       </c>
       <c r="L106" t="n">
-        <v>42639812.64979227</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="M106" t="n">
-        <v>1720787.868828628</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="N106" t="n">
-        <v>579492.4604510434</v>
+        <v>579492.4604510416</v>
       </c>
     </row>
     <row r="107">
@@ -5351,34 +5351,34 @@
         <v>44236402.21878745</v>
       </c>
       <c r="E107" t="n">
-        <v>42644625.0297914</v>
+        <v>42644625.02979143</v>
       </c>
       <c r="F107" t="n">
-        <v>42644645.53724571</v>
+        <v>42644645.53724574</v>
       </c>
       <c r="G107" t="n">
-        <v>1727408.805071039</v>
+        <v>1727408.805071035</v>
       </c>
       <c r="H107" t="n">
-        <v>1726043.245138872</v>
+        <v>1726043.245138868</v>
       </c>
       <c r="I107" t="n">
-        <v>579347.0990067106</v>
+        <v>579347.0990067094</v>
       </c>
       <c r="J107" t="n">
-        <v>579347.4722519749</v>
+        <v>579347.4722519736</v>
       </c>
       <c r="K107" t="n">
         <v>44236788.36547676</v>
       </c>
       <c r="L107" t="n">
-        <v>42644625.0297914</v>
+        <v>42644625.02979143</v>
       </c>
       <c r="M107" t="n">
-        <v>1727408.805071039</v>
+        <v>1727408.805071035</v>
       </c>
       <c r="N107" t="n">
-        <v>579347.0990067106</v>
+        <v>579347.0990067094</v>
       </c>
     </row>
     <row r="108">
@@ -5397,34 +5397,34 @@
         <v>44038751.09168386</v>
       </c>
       <c r="E108" t="n">
-        <v>42645452.43107864</v>
+        <v>42645452.43107866</v>
       </c>
       <c r="F108" t="n">
-        <v>42645472.92923297</v>
+        <v>42645472.929233</v>
       </c>
       <c r="G108" t="n">
-        <v>1583272.829104916</v>
+        <v>1583272.829104913</v>
       </c>
       <c r="H108" t="n">
-        <v>1583117.45131287</v>
+        <v>1583117.451312867</v>
       </c>
       <c r="I108" t="n">
-        <v>579699.7013230543</v>
+        <v>579699.7013230528</v>
       </c>
       <c r="J108" t="n">
-        <v>579700.0759444416</v>
+        <v>579700.0759444402</v>
       </c>
       <c r="K108" t="n">
         <v>44039180.61146123</v>
       </c>
       <c r="L108" t="n">
-        <v>42645452.43107864</v>
+        <v>42645452.43107866</v>
       </c>
       <c r="M108" t="n">
-        <v>1583272.829104916</v>
+        <v>1583272.829104913</v>
       </c>
       <c r="N108" t="n">
-        <v>579699.7013230543</v>
+        <v>579699.7013230528</v>
       </c>
     </row>
     <row r="109">
@@ -5443,34 +5443,34 @@
         <v>44209895.61399059</v>
       </c>
       <c r="E109" t="n">
-        <v>42653836.79615557</v>
+        <v>42653836.79615556</v>
       </c>
       <c r="F109" t="n">
         <v>42653857.29220781</v>
       </c>
       <c r="G109" t="n">
-        <v>1703098.434425501</v>
+        <v>1703098.434425497</v>
       </c>
       <c r="H109" t="n">
-        <v>1701844.104980989</v>
+        <v>1701844.104980985</v>
       </c>
       <c r="I109" t="n">
-        <v>579693.9548989055</v>
+        <v>579693.9548989035</v>
       </c>
       <c r="J109" t="n">
-        <v>579694.3293725301</v>
+        <v>579694.3293725281</v>
       </c>
       <c r="K109" t="n">
         <v>44210137.64349665</v>
       </c>
       <c r="L109" t="n">
-        <v>42653836.79615557</v>
+        <v>42653836.79615556</v>
       </c>
       <c r="M109" t="n">
-        <v>1703098.434425501</v>
+        <v>1703098.434425497</v>
       </c>
       <c r="N109" t="n">
-        <v>579693.9548989055</v>
+        <v>579693.9548989035</v>
       </c>
     </row>
     <row r="110">
@@ -5489,34 +5489,34 @@
         <v>44227851.03595178</v>
       </c>
       <c r="E110" t="n">
-        <v>42639812.64979227</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="F110" t="n">
         <v>42639833.15292501</v>
       </c>
       <c r="G110" t="n">
-        <v>1720787.868828628</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="H110" t="n">
-        <v>1719260.988923258</v>
+        <v>1719260.988923253</v>
       </c>
       <c r="I110" t="n">
-        <v>579492.4604510434</v>
+        <v>579492.4604510416</v>
       </c>
       <c r="J110" t="n">
-        <v>579492.8343713921</v>
+        <v>579492.8343713903</v>
       </c>
       <c r="K110" t="n">
         <v>44228236.19669075</v>
       </c>
       <c r="L110" t="n">
-        <v>42639812.64979227</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="M110" t="n">
-        <v>1720787.868828628</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="N110" t="n">
-        <v>579492.4604510434</v>
+        <v>579492.4604510416</v>
       </c>
     </row>
     <row r="111">
@@ -5535,34 +5535,34 @@
         <v>44227851.03595178</v>
       </c>
       <c r="E111" t="n">
-        <v>42639812.64979227</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="F111" t="n">
         <v>42639833.15292501</v>
       </c>
       <c r="G111" t="n">
-        <v>1720787.868828628</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="H111" t="n">
-        <v>1719260.988923258</v>
+        <v>1719260.988923253</v>
       </c>
       <c r="I111" t="n">
-        <v>579492.4604510434</v>
+        <v>579492.4604510416</v>
       </c>
       <c r="J111" t="n">
-        <v>579492.8343713921</v>
+        <v>579492.8343713903</v>
       </c>
       <c r="K111" t="n">
         <v>44228236.19669075</v>
       </c>
       <c r="L111" t="n">
-        <v>42639812.64979227</v>
+        <v>42639812.64979225</v>
       </c>
       <c r="M111" t="n">
-        <v>1720787.868828628</v>
+        <v>1720787.868828623</v>
       </c>
       <c r="N111" t="n">
-        <v>579492.4604510434</v>
+        <v>579492.4604510416</v>
       </c>
     </row>
     <row r="112">
@@ -5581,34 +5581,34 @@
         <v>44013079.7297485</v>
       </c>
       <c r="E112" t="n">
-        <v>42620206.79353429</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="F112" t="n">
-        <v>42620227.28539652</v>
+        <v>42620227.2853965</v>
       </c>
       <c r="G112" t="n">
-        <v>1583142.892808008</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="H112" t="n">
-        <v>1582987.226705497</v>
+        <v>1582987.226705493</v>
       </c>
       <c r="I112" t="n">
-        <v>579576.7387461427</v>
+        <v>579576.7387461406</v>
       </c>
       <c r="J112" t="n">
-        <v>579577.1135115644</v>
+        <v>579577.1135115623</v>
       </c>
       <c r="K112" t="n">
         <v>44013509.15272382</v>
       </c>
       <c r="L112" t="n">
-        <v>42620206.79353429</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="M112" t="n">
-        <v>1583142.892808008</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="N112" t="n">
-        <v>579576.7387461427</v>
+        <v>579576.7387461406</v>
       </c>
     </row>
     <row r="113">
@@ -5627,34 +5627,34 @@
         <v>44202179.67401642</v>
       </c>
       <c r="E113" t="n">
-        <v>42614576.48083653</v>
+        <v>42614576.48083655</v>
       </c>
       <c r="F113" t="n">
-        <v>42614596.97750363</v>
+        <v>42614596.97750365</v>
       </c>
       <c r="G113" t="n">
-        <v>1720657.93253172</v>
+        <v>1720657.932531715</v>
       </c>
       <c r="H113" t="n">
-        <v>1719130.764315885</v>
+        <v>1719130.76431588</v>
       </c>
       <c r="I113" t="n">
-        <v>579370.644133409</v>
+        <v>579370.6441334076</v>
       </c>
       <c r="J113" t="n">
-        <v>579371.0182124093</v>
+        <v>579371.0182124078</v>
       </c>
       <c r="K113" t="n">
         <v>44202564.73795334</v>
       </c>
       <c r="L113" t="n">
-        <v>42614576.48083653</v>
+        <v>42614576.48083655</v>
       </c>
       <c r="M113" t="n">
-        <v>1720657.93253172</v>
+        <v>1720657.932531715</v>
       </c>
       <c r="N113" t="n">
-        <v>579370.644133409</v>
+        <v>579370.6441334076</v>
       </c>
     </row>
     <row r="114">
@@ -5673,34 +5673,34 @@
         <v>44013079.7297485</v>
       </c>
       <c r="E114" t="n">
-        <v>42620206.79353429</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="F114" t="n">
-        <v>42620227.28539652</v>
+        <v>42620227.2853965</v>
       </c>
       <c r="G114" t="n">
-        <v>1583142.892808008</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="H114" t="n">
-        <v>1582987.226705497</v>
+        <v>1582987.226705493</v>
       </c>
       <c r="I114" t="n">
-        <v>579576.7387461427</v>
+        <v>579576.7387461406</v>
       </c>
       <c r="J114" t="n">
-        <v>579577.1135115644</v>
+        <v>579577.1135115623</v>
       </c>
       <c r="K114" t="n">
         <v>44013509.15272382</v>
       </c>
       <c r="L114" t="n">
-        <v>42620206.79353429</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="M114" t="n">
-        <v>1583142.892808008</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="N114" t="n">
-        <v>579576.7387461427</v>
+        <v>579576.7387461406</v>
       </c>
     </row>
     <row r="115">
@@ -5719,34 +5719,34 @@
         <v>44202179.67401642</v>
       </c>
       <c r="E115" t="n">
-        <v>42614576.48083653</v>
+        <v>42614576.48083655</v>
       </c>
       <c r="F115" t="n">
-        <v>42614596.97750363</v>
+        <v>42614596.97750365</v>
       </c>
       <c r="G115" t="n">
-        <v>1720657.93253172</v>
+        <v>1720657.932531715</v>
       </c>
       <c r="H115" t="n">
-        <v>1719130.764315885</v>
+        <v>1719130.76431588</v>
       </c>
       <c r="I115" t="n">
-        <v>579370.644133409</v>
+        <v>579370.6441334076</v>
       </c>
       <c r="J115" t="n">
-        <v>579371.0182124093</v>
+        <v>579371.0182124078</v>
       </c>
       <c r="K115" t="n">
         <v>44202564.73795334</v>
       </c>
       <c r="L115" t="n">
-        <v>42614576.48083653</v>
+        <v>42614576.48083655</v>
       </c>
       <c r="M115" t="n">
-        <v>1720657.93253172</v>
+        <v>1720657.932531715</v>
       </c>
       <c r="N115" t="n">
-        <v>579370.644133409</v>
+        <v>579370.6441334076</v>
       </c>
     </row>
     <row r="116">
@@ -5765,34 +5765,34 @@
         <v>44184224.25205524</v>
       </c>
       <c r="E116" t="n">
-        <v>42628466.63089976</v>
+        <v>42628466.63089977</v>
       </c>
       <c r="F116" t="n">
         <v>42628487.12080841</v>
       </c>
       <c r="G116" t="n">
-        <v>1702968.498128593</v>
+        <v>1702968.498128589</v>
       </c>
       <c r="H116" t="n">
-        <v>1701713.880373617</v>
+        <v>1701713.880373612</v>
       </c>
       <c r="I116" t="n">
-        <v>579568.7455024394</v>
+        <v>579568.7455024377</v>
       </c>
       <c r="J116" t="n">
-        <v>579569.1201038354</v>
+        <v>579569.1201038336</v>
       </c>
       <c r="K116" t="n">
         <v>44184466.18475924</v>
       </c>
       <c r="L116" t="n">
-        <v>42628466.63089976</v>
+        <v>42628466.63089977</v>
       </c>
       <c r="M116" t="n">
-        <v>1702968.498128593</v>
+        <v>1702968.498128589</v>
       </c>
       <c r="N116" t="n">
-        <v>579568.7455024394</v>
+        <v>579568.7455024377</v>
       </c>
     </row>
     <row r="117">
@@ -5811,34 +5811,34 @@
         <v>44013079.7297485</v>
       </c>
       <c r="E117" t="n">
-        <v>42620206.79353429</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="F117" t="n">
-        <v>42620227.28539652</v>
+        <v>42620227.2853965</v>
       </c>
       <c r="G117" t="n">
-        <v>1583142.892808008</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="H117" t="n">
-        <v>1582987.226705497</v>
+        <v>1582987.226705493</v>
       </c>
       <c r="I117" t="n">
-        <v>579576.7387461427</v>
+        <v>579576.7387461406</v>
       </c>
       <c r="J117" t="n">
-        <v>579577.1135115644</v>
+        <v>579577.1135115623</v>
       </c>
       <c r="K117" t="n">
         <v>44013509.15272382</v>
       </c>
       <c r="L117" t="n">
-        <v>42620206.79353429</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="M117" t="n">
-        <v>1583142.892808008</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="N117" t="n">
-        <v>579576.7387461427</v>
+        <v>579576.7387461406</v>
       </c>
     </row>
     <row r="118">
@@ -5857,34 +5857,34 @@
         <v>44013079.7297485</v>
       </c>
       <c r="E118" t="n">
-        <v>42620206.79353429</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="F118" t="n">
-        <v>42620227.28539652</v>
+        <v>42620227.2853965</v>
       </c>
       <c r="G118" t="n">
-        <v>1583142.892808008</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="H118" t="n">
-        <v>1582987.226705497</v>
+        <v>1582987.226705493</v>
       </c>
       <c r="I118" t="n">
-        <v>579576.7387461427</v>
+        <v>579576.7387461406</v>
       </c>
       <c r="J118" t="n">
-        <v>579577.1135115644</v>
+        <v>579577.1135115623</v>
       </c>
       <c r="K118" t="n">
         <v>44013509.15272382</v>
       </c>
       <c r="L118" t="n">
-        <v>42620206.79353429</v>
+        <v>42620206.79353427</v>
       </c>
       <c r="M118" t="n">
-        <v>1583142.892808008</v>
+        <v>1583142.892808005</v>
       </c>
       <c r="N118" t="n">
-        <v>579576.7387461427</v>
+        <v>579576.7387461406</v>
       </c>
     </row>
     <row r="119">
@@ -5903,34 +5903,34 @@
         <v>43985191.0571043</v>
       </c>
       <c r="E119" t="n">
-        <v>42583512.07849635</v>
+        <v>42583512.07849634</v>
       </c>
       <c r="F119" t="n">
-        <v>42583532.55837381</v>
+        <v>42583532.55837379</v>
       </c>
       <c r="G119" t="n">
-        <v>1583035.779974255</v>
+        <v>1583035.779974252</v>
       </c>
       <c r="H119" t="n">
-        <v>1582880.097786331</v>
+        <v>1582880.097786328</v>
       </c>
       <c r="I119" t="n">
-        <v>579068.7007636451</v>
+        <v>579068.7007636433</v>
       </c>
       <c r="J119" t="n">
-        <v>579069.0746131019</v>
+        <v>579069.0746130999</v>
       </c>
       <c r="K119" t="n">
         <v>43985624.69423348</v>
       </c>
       <c r="L119" t="n">
-        <v>42583512.07849635</v>
+        <v>42583512.07849634</v>
       </c>
       <c r="M119" t="n">
-        <v>1583035.779974255</v>
+        <v>1583035.779974252</v>
       </c>
       <c r="N119" t="n">
-        <v>579068.7007636451</v>
+        <v>579068.7007636433</v>
       </c>
     </row>
     <row r="120">
@@ -5949,34 +5949,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E120" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F120" t="n">
-        <v>42597519.79681313</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G120" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H120" t="n">
-        <v>1565463.213844063</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I120" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J120" t="n">
-        <v>579267.7832370154</v>
+        <v>579267.7832370138</v>
       </c>
       <c r="K120" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L120" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="M120" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="N120" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="121">
@@ -5998,19 +5998,19 @@
         <v>42567769.97303949</v>
       </c>
       <c r="F121" t="n">
-        <v>42567790.4432675</v>
+        <v>42567790.44326751</v>
       </c>
       <c r="G121" t="n">
-        <v>1650007.385850331</v>
+        <v>1650007.385850326</v>
       </c>
       <c r="H121" t="n">
-        <v>1649921.694799066</v>
+        <v>1649921.694799062</v>
       </c>
       <c r="I121" t="n">
-        <v>579069.8535882174</v>
+        <v>579069.8535882158</v>
       </c>
       <c r="J121" t="n">
-        <v>579070.2278838855</v>
+        <v>579070.2278838839</v>
       </c>
       <c r="K121" t="n">
         <v>44381520.91916738</v>
@@ -6019,10 +6019,10 @@
         <v>42567769.97303949</v>
       </c>
       <c r="M121" t="n">
-        <v>1650007.385850331</v>
+        <v>1650007.385850326</v>
       </c>
       <c r="N121" t="n">
-        <v>579069.8535882174</v>
+        <v>579069.8535882158</v>
       </c>
     </row>
     <row r="122">
@@ -6041,34 +6041,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E122" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F122" t="n">
-        <v>42597519.79681313</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G122" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H122" t="n">
-        <v>1565463.213844063</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I122" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J122" t="n">
-        <v>579267.7832370154</v>
+        <v>579267.7832370138</v>
       </c>
       <c r="K122" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L122" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="M122" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="N122" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="123">
@@ -6087,34 +6087,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E123" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F123" t="n">
-        <v>42597519.79681313</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G123" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H123" t="n">
-        <v>1565463.213844063</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I123" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J123" t="n">
-        <v>579267.7832370154</v>
+        <v>579267.7832370138</v>
       </c>
       <c r="K123" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L123" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="M123" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="N123" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="124">
@@ -6133,34 +6133,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E124" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F124" t="n">
-        <v>42597519.79681313</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G124" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H124" t="n">
-        <v>1565463.213844063</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I124" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J124" t="n">
-        <v>579267.7832370154</v>
+        <v>579267.7832370138</v>
       </c>
       <c r="K124" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L124" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="M124" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="N124" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="125">
@@ -6179,34 +6179,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E125" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F125" t="n">
-        <v>42597519.79681313</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G125" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H125" t="n">
-        <v>1565463.213844063</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I125" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J125" t="n">
-        <v>579267.7832370154</v>
+        <v>579267.7832370138</v>
       </c>
       <c r="K125" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L125" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="M125" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="N125" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="126">
@@ -6225,34 +6225,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E126" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F126" t="n">
-        <v>42597519.79681313</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G126" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H126" t="n">
-        <v>1565463.213844063</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I126" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J126" t="n">
-        <v>579267.7832370154</v>
+        <v>579267.7832370138</v>
       </c>
       <c r="K126" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L126" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="M126" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="N126" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
     </row>
     <row r="127">
@@ -6271,34 +6271,34 @@
         <v>43967235.63514312</v>
       </c>
       <c r="E127" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="F127" t="n">
-        <v>42597519.79681313</v>
+        <v>42597519.79681315</v>
       </c>
       <c r="G127" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="H127" t="n">
-        <v>1565463.213844063</v>
+        <v>1565463.21384406</v>
       </c>
       <c r="I127" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
       <c r="J127" t="n">
-        <v>579267.7832370154</v>
+        <v>579267.7832370138</v>
       </c>
       <c r="K127" t="n">
         <v>43967526.14103937</v>
       </c>
       <c r="L127" t="n">
-        <v>42597499.32410113</v>
+        <v>42597499.32410115</v>
       </c>
       <c r="M127" t="n">
-        <v>1565346.345571129</v>
+        <v>1565346.345571125</v>
       </c>
       <c r="N127" t="n">
-        <v>579267.4088453866</v>
+        <v>579267.4088453851</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_tp5_volumen_area.xlsx
+++ b/resultados_tp5_volumen_area.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,20 +486,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Overlap_frac</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Volumen_spline_trapecio_overlap</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Volumen_poly_trapecio_overlap</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Area_spline_trapecio_overlap</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Area_poly_trapecio_overlap</t>
         </is>
@@ -527,28 +532,31 @@
         <v>503287.4078594841</v>
       </c>
       <c r="G2" t="n">
-        <v>38303.04457283919</v>
+        <v>38323.81296572576</v>
       </c>
       <c r="H2" t="n">
-        <v>38303.47802883059</v>
+        <v>38324.17181198161</v>
       </c>
       <c r="I2" t="n">
-        <v>37105.28041973845</v>
+        <v>37105.28041973621</v>
       </c>
       <c r="J2" t="n">
-        <v>37105.28122561745</v>
+        <v>37105.28122561522</v>
       </c>
       <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
         <v>492297.5136579699</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>503287.4320231423</v>
       </c>
-      <c r="M2" t="n">
-        <v>38303.04457283919</v>
-      </c>
       <c r="N2" t="n">
-        <v>37105.28041973845</v>
+        <v>38323.81296572576</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37105.28041973621</v>
       </c>
     </row>
     <row r="3">
@@ -573,28 +581,31 @@
         <v>2376332.34340198</v>
       </c>
       <c r="G3" t="n">
-        <v>87211.59827992356</v>
+        <v>86909.27436715706</v>
       </c>
       <c r="H3" t="n">
-        <v>87214.95763914777</v>
+        <v>86903.6106806656</v>
       </c>
       <c r="I3" t="n">
-        <v>89787.29680741997</v>
+        <v>89787.29680741433</v>
       </c>
       <c r="J3" t="n">
-        <v>89787.28271197189</v>
+        <v>89787.28271196621</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
         <v>2359886.158158994</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>2376332.708636954</v>
       </c>
-      <c r="M3" t="n">
-        <v>87211.59827992356</v>
-      </c>
       <c r="N3" t="n">
-        <v>89787.29680741997</v>
+        <v>86909.27436715706</v>
+      </c>
+      <c r="O3" t="n">
+        <v>89787.29680741433</v>
       </c>
     </row>
     <row r="4">
@@ -619,28 +630,31 @@
         <v>3848613.152153906</v>
       </c>
       <c r="G4" t="n">
-        <v>105741.5650222041</v>
+        <v>104295.9669276804</v>
       </c>
       <c r="H4" t="n">
-        <v>105743.9310690065</v>
+        <v>104296.9609042939</v>
       </c>
       <c r="I4" t="n">
-        <v>105721.4371069331</v>
+        <v>105721.4371069199</v>
       </c>
       <c r="J4" t="n">
-        <v>105721.465657065</v>
+        <v>105721.4656570518</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
         <v>3833527.756547619</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>3848613.763209696</v>
       </c>
-      <c r="M4" t="n">
-        <v>105741.5650222041</v>
-      </c>
       <c r="N4" t="n">
-        <v>105721.4371069331</v>
+        <v>104295.9669276804</v>
+      </c>
+      <c r="O4" t="n">
+        <v>105721.4371069199</v>
       </c>
     </row>
     <row r="5">
@@ -665,28 +679,31 @@
         <v>7602530.453239582</v>
       </c>
       <c r="G5" t="n">
-        <v>160021.4029501793</v>
+        <v>156339.4922510579</v>
       </c>
       <c r="H5" t="n">
-        <v>160031.6074823454</v>
+        <v>156343.3602142636</v>
       </c>
       <c r="I5" t="n">
-        <v>159954.3252220374</v>
+        <v>159954.3252220182</v>
       </c>
       <c r="J5" t="n">
-        <v>159954.3494507732</v>
+        <v>159954.3494507539</v>
       </c>
       <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
         <v>7590312.215988101</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>7602531.553141545</v>
       </c>
-      <c r="M5" t="n">
-        <v>160021.4029501793</v>
-      </c>
       <c r="N5" t="n">
-        <v>159954.3252220374</v>
+        <v>156339.4922510579</v>
+      </c>
+      <c r="O5" t="n">
+        <v>159954.3252220182</v>
       </c>
     </row>
     <row r="6">
@@ -711,28 +728,31 @@
         <v>11224880.53635154</v>
       </c>
       <c r="G6" t="n">
-        <v>204761.7537812592</v>
+        <v>198585.5967064177</v>
       </c>
       <c r="H6" t="n">
-        <v>204782.7560837176</v>
+        <v>198590.4119857842</v>
       </c>
       <c r="I6" t="n">
-        <v>198679.7776864747</v>
+        <v>198679.7776864529</v>
       </c>
       <c r="J6" t="n">
-        <v>198679.8162659497</v>
+        <v>198679.8162659279</v>
       </c>
       <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
         <v>11266455.87013693</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>11224881.5848181</v>
       </c>
-      <c r="M6" t="n">
-        <v>204761.7537812592</v>
-      </c>
       <c r="N6" t="n">
-        <v>198679.7776864747</v>
+        <v>198585.5967064177</v>
+      </c>
+      <c r="O6" t="n">
+        <v>198679.7776864529</v>
       </c>
     </row>
     <row r="7">
@@ -757,28 +777,31 @@
         <v>12688150.48382118</v>
       </c>
       <c r="G7" t="n">
-        <v>221226.3884593915</v>
+        <v>213412.5798576056</v>
       </c>
       <c r="H7" t="n">
-        <v>221237.3576372795</v>
+        <v>213414.0420646071</v>
       </c>
       <c r="I7" t="n">
-        <v>211224.6608686677</v>
+        <v>211224.6608686396</v>
       </c>
       <c r="J7" t="n">
-        <v>211224.7589333843</v>
+        <v>211224.7589333561</v>
       </c>
       <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
         <v>12728798.64204014</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>12688151.2150554</v>
       </c>
-      <c r="M7" t="n">
-        <v>221226.3884593915</v>
-      </c>
       <c r="N7" t="n">
-        <v>211224.6608686677</v>
+        <v>213412.5798576056</v>
+      </c>
+      <c r="O7" t="n">
+        <v>211224.6608686396</v>
       </c>
     </row>
     <row r="8">
@@ -803,28 +826,31 @@
         <v>17961184.4426134</v>
       </c>
       <c r="G8" t="n">
-        <v>280968.9257451741</v>
+        <v>269679.0262542655</v>
       </c>
       <c r="H8" t="n">
-        <v>281013.5476367886</v>
+        <v>269683.9284497724</v>
       </c>
       <c r="I8" t="n">
-        <v>265528.9890602645</v>
+        <v>265528.9890602363</v>
       </c>
       <c r="J8" t="n">
-        <v>265529.111307901</v>
+        <v>265529.1113078728</v>
       </c>
       <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
         <v>17990692.23022898</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>17961184.12210862</v>
       </c>
-      <c r="M8" t="n">
-        <v>280968.9257451741</v>
-      </c>
       <c r="N8" t="n">
-        <v>265528.9890602645</v>
+        <v>269679.0262542655</v>
+      </c>
+      <c r="O8" t="n">
+        <v>265528.9890602363</v>
       </c>
     </row>
     <row r="9">
@@ -849,28 +875,31 @@
         <v>16970001.02811865</v>
       </c>
       <c r="G9" t="n">
-        <v>281666.0834419585</v>
+        <v>269312.8430458811</v>
       </c>
       <c r="H9" t="n">
-        <v>281681.8407315742</v>
+        <v>269315.2700343974</v>
       </c>
       <c r="I9" t="n">
-        <v>263296.779705507</v>
+        <v>263296.7797054757</v>
       </c>
       <c r="J9" t="n">
-        <v>263296.9735382549</v>
+        <v>263296.9735382235</v>
       </c>
       <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
         <v>16942924.10742117</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>16969999.06095944</v>
       </c>
-      <c r="M9" t="n">
-        <v>281666.0834419585</v>
-      </c>
       <c r="N9" t="n">
-        <v>263296.779705507</v>
+        <v>269312.8430458811</v>
+      </c>
+      <c r="O9" t="n">
+        <v>263296.7797054757</v>
       </c>
     </row>
     <row r="10">
@@ -895,28 +924,31 @@
         <v>21926431.95549987</v>
       </c>
       <c r="G10" t="n">
-        <v>344390.3839427828</v>
+        <v>330138.7161131645</v>
       </c>
       <c r="H10" t="n">
-        <v>344466.8848461584</v>
+        <v>330143.4014511522</v>
       </c>
       <c r="I10" t="n">
-        <v>322848.4346523334</v>
+        <v>322848.4346522959</v>
       </c>
       <c r="J10" t="n">
-        <v>322848.6744981587</v>
+        <v>322848.6744981211</v>
       </c>
       <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
         <v>21846571.65720686</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>21926426.56017384</v>
       </c>
-      <c r="M10" t="n">
-        <v>344390.3839427828</v>
-      </c>
       <c r="N10" t="n">
-        <v>322848.4346523334</v>
+        <v>330138.7161131645</v>
+      </c>
+      <c r="O10" t="n">
+        <v>322848.4346522959</v>
       </c>
     </row>
     <row r="11">
@@ -941,28 +973,31 @@
         <v>18653097.64179066</v>
       </c>
       <c r="G11" t="n">
-        <v>337722.074450405</v>
+        <v>327216.4098600964</v>
       </c>
       <c r="H11" t="n">
-        <v>337735.1729408338</v>
+        <v>327219.5459745032</v>
       </c>
       <c r="I11" t="n">
-        <v>321949.4303149442</v>
+        <v>321949.4303149061</v>
       </c>
       <c r="J11" t="n">
-        <v>321949.7069237308</v>
+        <v>321949.7069236926</v>
       </c>
       <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
         <v>18441885.16186064</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>18653090.3042887</v>
       </c>
-      <c r="M11" t="n">
-        <v>337722.074450405</v>
-      </c>
       <c r="N11" t="n">
-        <v>321949.4303149442</v>
+        <v>327216.4098600964</v>
+      </c>
+      <c r="O11" t="n">
+        <v>321949.4303149061</v>
       </c>
     </row>
     <row r="12">
@@ -987,28 +1022,31 @@
         <v>23104023.41336621</v>
       </c>
       <c r="G12" t="n">
-        <v>411662.3881852344</v>
+        <v>386478.66346849</v>
       </c>
       <c r="H12" t="n">
-        <v>411638.9614178095</v>
+        <v>386489.7642008566</v>
       </c>
       <c r="I12" t="n">
-        <v>384767.3828066668</v>
+        <v>384767.3828066214</v>
       </c>
       <c r="J12" t="n">
-        <v>384767.7375946963</v>
+        <v>384767.7375946509</v>
       </c>
       <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
         <v>22778625.88226892</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>23104013.8045292</v>
       </c>
-      <c r="M12" t="n">
-        <v>411662.3881852344</v>
-      </c>
       <c r="N12" t="n">
-        <v>384767.3828066668</v>
+        <v>386478.66346849</v>
+      </c>
+      <c r="O12" t="n">
+        <v>384767.3828066214</v>
       </c>
     </row>
     <row r="13">
@@ -1033,28 +1071,31 @@
         <v>19732857.14934798</v>
       </c>
       <c r="G13" t="n">
-        <v>365386.6172387435</v>
+        <v>350222.5528842872</v>
       </c>
       <c r="H13" t="n">
-        <v>365378.3811117092</v>
+        <v>350229.1245458256</v>
       </c>
       <c r="I13" t="n">
-        <v>349051.7560588872</v>
+        <v>349051.7560588456</v>
       </c>
       <c r="J13" t="n">
-        <v>349052.1132693981</v>
+        <v>349052.1132693565</v>
       </c>
       <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
         <v>19411552.62435886</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>19732849.71900065</v>
       </c>
-      <c r="M13" t="n">
-        <v>365386.6172387435</v>
-      </c>
       <c r="N13" t="n">
-        <v>349051.7560588872</v>
+        <v>350222.5528842872</v>
+      </c>
+      <c r="O13" t="n">
+        <v>349051.7560588456</v>
       </c>
     </row>
     <row r="14">
@@ -1079,28 +1120,31 @@
         <v>24208186.65888144</v>
       </c>
       <c r="G14" t="n">
-        <v>428245.8992963346</v>
+        <v>399352.0169486214</v>
       </c>
       <c r="H14" t="n">
-        <v>428196.4415156014</v>
+        <v>399365.2846861997</v>
       </c>
       <c r="I14" t="n">
-        <v>396857.4802810937</v>
+        <v>396857.4802810469</v>
       </c>
       <c r="J14" t="n">
-        <v>396857.841884932</v>
+        <v>396857.8418848852</v>
       </c>
       <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
         <v>23917964.46862214</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>24208176.4832532</v>
       </c>
-      <c r="M14" t="n">
-        <v>428245.8992963346</v>
-      </c>
       <c r="N14" t="n">
-        <v>396857.4802810937</v>
+        <v>399352.0169486214</v>
+      </c>
+      <c r="O14" t="n">
+        <v>396857.4802810469</v>
       </c>
     </row>
     <row r="15">
@@ -1125,28 +1169,31 @@
         <v>19501171.62035046</v>
       </c>
       <c r="G15" t="n">
-        <v>363766.4262644431</v>
+        <v>347541.5195258033</v>
       </c>
       <c r="H15" t="n">
-        <v>363758.3116922364</v>
+        <v>347547.9079830509</v>
       </c>
       <c r="I15" t="n">
-        <v>346163.4346194614</v>
+        <v>346163.4346194201</v>
       </c>
       <c r="J15" t="n">
-        <v>346163.7882173444</v>
+        <v>346163.7882173031</v>
       </c>
       <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
         <v>19212508.96889826</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>19501164.27736562</v>
       </c>
-      <c r="M15" t="n">
-        <v>363766.4262644431</v>
-      </c>
       <c r="N15" t="n">
-        <v>346163.4346194614</v>
+        <v>347541.5195258033</v>
+      </c>
+      <c r="O15" t="n">
+        <v>346163.4346194201</v>
       </c>
     </row>
     <row r="16">
@@ -1171,28 +1218,31 @@
         <v>23899120.01993081</v>
       </c>
       <c r="G16" t="n">
-        <v>426330.0283393799</v>
+        <v>396662.8560686001</v>
       </c>
       <c r="H16" t="n">
-        <v>426281.2055555923</v>
+        <v>396675.4345572007</v>
       </c>
       <c r="I16" t="n">
-        <v>393281.5605685671</v>
+        <v>393281.5605685207</v>
       </c>
       <c r="J16" t="n">
-        <v>393281.918744781</v>
+        <v>393281.9187447345</v>
       </c>
       <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
         <v>23646553.78608629</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>23899109.98302747</v>
       </c>
-      <c r="M16" t="n">
-        <v>426330.0283393799</v>
-      </c>
       <c r="N16" t="n">
-        <v>393281.5605685671</v>
+        <v>396662.8560686001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>393281.5605685207</v>
       </c>
     </row>
     <row r="17">
@@ -1217,28 +1267,31 @@
         <v>20465231.12803015</v>
       </c>
       <c r="G17" t="n">
-        <v>374564.5962198943</v>
+        <v>358210.7075446838</v>
       </c>
       <c r="H17" t="n">
-        <v>374554.3843271765</v>
+        <v>358216.3135606758</v>
       </c>
       <c r="I17" t="n">
-        <v>357013.4717258833</v>
+        <v>357013.4717258408</v>
       </c>
       <c r="J17" t="n">
-        <v>357013.8292805848</v>
+        <v>357013.8292805423</v>
       </c>
       <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
         <v>20186207.65331377</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>20465223.23535335</v>
       </c>
-      <c r="M17" t="n">
-        <v>374564.5962198943</v>
-      </c>
       <c r="N17" t="n">
-        <v>357013.4717258833</v>
+        <v>358210.7075446838</v>
+      </c>
+      <c r="O17" t="n">
+        <v>357013.4717258408</v>
       </c>
     </row>
     <row r="18">
@@ -1263,28 +1316,31 @@
         <v>24885764.99892138</v>
       </c>
       <c r="G18" t="n">
-        <v>428701.8984699955</v>
+        <v>409615.8948070256</v>
       </c>
       <c r="H18" t="n">
-        <v>428567.5393562119</v>
+        <v>409629.5414287448</v>
       </c>
       <c r="I18" t="n">
-        <v>403768.2664463024</v>
+        <v>403768.2664462549</v>
       </c>
       <c r="J18" t="n">
-        <v>403768.6291471067</v>
+        <v>403768.6291470591</v>
       </c>
       <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
         <v>24704005.35057724</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>24885754.43753463</v>
       </c>
-      <c r="M18" t="n">
-        <v>428701.8984699955</v>
-      </c>
       <c r="N18" t="n">
-        <v>403768.2664463024</v>
+        <v>409615.8948070256</v>
+      </c>
+      <c r="O18" t="n">
+        <v>403768.2664462549</v>
       </c>
     </row>
     <row r="19">
@@ -1309,28 +1365,31 @@
         <v>39502468.15979913</v>
       </c>
       <c r="G19" t="n">
-        <v>1204584.399849204</v>
+        <v>589590.244890878</v>
       </c>
       <c r="H19" t="n">
-        <v>1204823.382202351</v>
+        <v>589603.1163197632</v>
       </c>
       <c r="I19" t="n">
-        <v>539991.2416213455</v>
+        <v>539991.2416212831</v>
       </c>
       <c r="J19" t="n">
-        <v>539991.6206153436</v>
+        <v>539991.6206152812</v>
       </c>
       <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
         <v>40563130.33104864</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>39502449.82897941</v>
       </c>
-      <c r="M19" t="n">
-        <v>1204584.399849204</v>
-      </c>
       <c r="N19" t="n">
-        <v>539991.2416213455</v>
+        <v>589590.244890878</v>
+      </c>
+      <c r="O19" t="n">
+        <v>539991.2416212831</v>
       </c>
     </row>
     <row r="20">
@@ -1355,28 +1414,31 @@
         <v>49864964.39023633</v>
       </c>
       <c r="G20" t="n">
-        <v>2633400.697886097</v>
+        <v>1034231.659398143</v>
       </c>
       <c r="H20" t="n">
-        <v>2632373.289227723</v>
+        <v>1034225.563466368</v>
       </c>
       <c r="I20" t="n">
-        <v>692291.9317916699</v>
+        <v>692291.9317915915</v>
       </c>
       <c r="J20" t="n">
-        <v>692292.4242517807</v>
+        <v>692292.4242517023</v>
       </c>
       <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
         <v>51981921.91462477</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>49864939.32350727</v>
       </c>
-      <c r="M20" t="n">
-        <v>2633400.697886097</v>
-      </c>
       <c r="N20" t="n">
-        <v>692291.9317916699</v>
+        <v>1034231.659398143</v>
+      </c>
+      <c r="O20" t="n">
+        <v>692291.9317915915</v>
       </c>
     </row>
     <row r="21">
@@ -1401,28 +1463,31 @@
         <v>45312503.74121717</v>
       </c>
       <c r="G21" t="n">
-        <v>6741062.467714562</v>
+        <v>1477038.188767446</v>
       </c>
       <c r="H21" t="n">
-        <v>6743042.027020999</v>
+        <v>1477018.511785175</v>
       </c>
       <c r="I21" t="n">
-        <v>673488.6798081349</v>
+        <v>673488.6798080611</v>
       </c>
       <c r="J21" t="n">
-        <v>673488.084785618</v>
+        <v>673488.0847855441</v>
       </c>
       <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
         <v>51000771.73565149</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>45312485.8085988</v>
       </c>
-      <c r="M21" t="n">
-        <v>6741062.467714562</v>
-      </c>
       <c r="N21" t="n">
-        <v>673488.6798081349</v>
+        <v>1477038.188767446</v>
+      </c>
+      <c r="O21" t="n">
+        <v>673488.6798080611</v>
       </c>
     </row>
     <row r="22">
@@ -1447,28 +1512,31 @@
         <v>48538457.6760857</v>
       </c>
       <c r="G22" t="n">
-        <v>5701219.657360424</v>
+        <v>1931268.442263821</v>
       </c>
       <c r="H22" t="n">
-        <v>5703115.656732007</v>
+        <v>1931437.804237962</v>
       </c>
       <c r="I22" t="n">
-        <v>801628.5264033611</v>
+        <v>801628.5264032758</v>
       </c>
       <c r="J22" t="n">
-        <v>801627.9796240183</v>
+        <v>801627.9796239332</v>
       </c>
       <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
         <v>53752757.94377105</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>48538438.06947874</v>
       </c>
-      <c r="M22" t="n">
-        <v>5701219.657360424</v>
-      </c>
       <c r="N22" t="n">
-        <v>801628.5264033611</v>
+        <v>1931268.442263821</v>
+      </c>
+      <c r="O22" t="n">
+        <v>801628.5264032758</v>
       </c>
     </row>
     <row r="23">
@@ -1493,28 +1561,31 @@
         <v>50724630.664244</v>
       </c>
       <c r="G23" t="n">
-        <v>3603401.095275711</v>
+        <v>1564719.530387542</v>
       </c>
       <c r="H23" t="n">
-        <v>3605877.493475395</v>
+        <v>1564660.36228855</v>
       </c>
       <c r="I23" t="n">
-        <v>956570.917669293</v>
+        <v>956570.9176691899</v>
       </c>
       <c r="J23" t="n">
-        <v>956571.76819769</v>
+        <v>956571.768197587</v>
       </c>
       <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
         <v>54661239.27230757</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>50724608.52889128</v>
       </c>
-      <c r="M23" t="n">
-        <v>3603401.095275711</v>
-      </c>
       <c r="N23" t="n">
-        <v>956570.917669293</v>
+        <v>1564719.530387542</v>
+      </c>
+      <c r="O23" t="n">
+        <v>956570.9176691899</v>
       </c>
     </row>
     <row r="24">
@@ -1539,28 +1610,31 @@
         <v>50623167.17717952</v>
       </c>
       <c r="G24" t="n">
-        <v>2985629.234229142</v>
+        <v>1690176.838712898</v>
       </c>
       <c r="H24" t="n">
-        <v>2985902.026485874</v>
+        <v>1690084.903334723</v>
       </c>
       <c r="I24" t="n">
-        <v>916634.9844938349</v>
+        <v>916634.9844937384</v>
       </c>
       <c r="J24" t="n">
-        <v>916635.9224675701</v>
+        <v>916635.9224674733</v>
       </c>
       <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
         <v>55821289.26633023</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>50623143.7151313</v>
       </c>
-      <c r="M24" t="n">
-        <v>2985629.234229142</v>
-      </c>
       <c r="N24" t="n">
-        <v>916634.9844938349</v>
+        <v>1690176.838712898</v>
+      </c>
+      <c r="O24" t="n">
+        <v>916634.9844937384</v>
       </c>
     </row>
     <row r="25">
@@ -1585,28 +1659,31 @@
         <v>50010366.12648134</v>
       </c>
       <c r="G25" t="n">
-        <v>3015461.471549559</v>
+        <v>1499911.478067705</v>
       </c>
       <c r="H25" t="n">
-        <v>3013905.062173313</v>
+        <v>1500021.187266643</v>
       </c>
       <c r="I25" t="n">
-        <v>809765.4205743566</v>
+        <v>809765.4205742736</v>
       </c>
       <c r="J25" t="n">
-        <v>809765.9287237918</v>
+        <v>809765.9287237088</v>
       </c>
       <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
         <v>53853331.20009986</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>50010341.15695336</v>
       </c>
-      <c r="M25" t="n">
-        <v>3015461.471549559</v>
-      </c>
       <c r="N25" t="n">
-        <v>809765.4205743566</v>
+        <v>1499911.478067705</v>
+      </c>
+      <c r="O25" t="n">
+        <v>809765.4205742736</v>
       </c>
     </row>
     <row r="26">
@@ -1631,28 +1708,31 @@
         <v>51254238.13547318</v>
       </c>
       <c r="G26" t="n">
-        <v>4422472.700561635</v>
+        <v>1148150.599224037</v>
       </c>
       <c r="H26" t="n">
-        <v>4421250.614945562</v>
+        <v>1148235.764862442</v>
       </c>
       <c r="I26" t="n">
-        <v>847488.2752211514</v>
+        <v>847488.2752210596</v>
       </c>
       <c r="J26" t="n">
-        <v>847488.8504928359</v>
+        <v>847488.8504927441</v>
       </c>
       <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
         <v>54305005.28166888</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>51254214.90789097</v>
       </c>
-      <c r="M26" t="n">
-        <v>4422472.700561635</v>
-      </c>
       <c r="N26" t="n">
-        <v>847488.2752211514</v>
+        <v>1148150.599224037</v>
+      </c>
+      <c r="O26" t="n">
+        <v>847488.2752210596</v>
       </c>
     </row>
     <row r="27">
@@ -1677,28 +1757,31 @@
         <v>50284218.53635405</v>
       </c>
       <c r="G27" t="n">
-        <v>3950077.626809615</v>
+        <v>1273418.074723185</v>
       </c>
       <c r="H27" t="n">
-        <v>3949640.285340018</v>
+        <v>1273431.090322402</v>
       </c>
       <c r="I27" t="n">
-        <v>811955.9822262549</v>
+        <v>811955.9822261693</v>
       </c>
       <c r="J27" t="n">
-        <v>811956.4839468029</v>
+        <v>811956.4839467173</v>
       </c>
       <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
         <v>54354695.42187958</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>50284196.13538072</v>
       </c>
-      <c r="M27" t="n">
-        <v>3950077.626809615</v>
-      </c>
       <c r="N27" t="n">
-        <v>811955.9822262549</v>
+        <v>1273418.074723185</v>
+      </c>
+      <c r="O27" t="n">
+        <v>811955.9822261693</v>
       </c>
     </row>
     <row r="28">
@@ -1723,28 +1806,31 @@
         <v>48563103.53348703</v>
       </c>
       <c r="G28" t="n">
-        <v>3896863.345345382</v>
+        <v>1185281.797171906</v>
       </c>
       <c r="H28" t="n">
-        <v>3892205.435118752</v>
+        <v>1185299.720243374</v>
       </c>
       <c r="I28" t="n">
-        <v>725473.4058811772</v>
+        <v>725473.4058810973</v>
       </c>
       <c r="J28" t="n">
-        <v>725473.6804404631</v>
+        <v>725473.6804403834</v>
       </c>
       <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
         <v>53690153.28884237</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>48563080.24776411</v>
       </c>
-      <c r="M28" t="n">
-        <v>3896863.345345382</v>
-      </c>
       <c r="N28" t="n">
-        <v>725473.4058811772</v>
+        <v>1185281.797171906</v>
+      </c>
+      <c r="O28" t="n">
+        <v>725473.4058810973</v>
       </c>
     </row>
     <row r="29">
@@ -1769,28 +1855,31 @@
         <v>49663457.11944914</v>
       </c>
       <c r="G29" t="n">
-        <v>3508973.10640517</v>
+        <v>928329.1429664111</v>
       </c>
       <c r="H29" t="n">
-        <v>3515760.769883297</v>
+        <v>928336.5867032479</v>
       </c>
       <c r="I29" t="n">
-        <v>685978.4917166247</v>
+        <v>685978.4917165466</v>
       </c>
       <c r="J29" t="n">
-        <v>685978.8753145359</v>
+        <v>685978.8753144578</v>
       </c>
       <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
         <v>52331062.48852834</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>49663431.84687961</v>
       </c>
-      <c r="M29" t="n">
-        <v>3508973.10640517</v>
-      </c>
       <c r="N29" t="n">
-        <v>685978.4917166247</v>
+        <v>928329.1429664111</v>
+      </c>
+      <c r="O29" t="n">
+        <v>685978.4917165466</v>
       </c>
     </row>
     <row r="30">
@@ -1815,28 +1904,31 @@
         <v>46475172.531524</v>
       </c>
       <c r="G30" t="n">
-        <v>2101924.802006396</v>
+        <v>772792.7933548605</v>
       </c>
       <c r="H30" t="n">
-        <v>2099082.245053947</v>
+        <v>772790.8500431156</v>
       </c>
       <c r="I30" t="n">
-        <v>634826.570359234</v>
+        <v>634826.5703591618</v>
       </c>
       <c r="J30" t="n">
-        <v>634826.945198498</v>
+        <v>634826.9451984256</v>
       </c>
       <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
         <v>47885154.53063169</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>46475149.20868307</v>
       </c>
-      <c r="M30" t="n">
-        <v>2101924.802006396</v>
-      </c>
       <c r="N30" t="n">
-        <v>634826.570359234</v>
+        <v>772792.7933548605</v>
+      </c>
+      <c r="O30" t="n">
+        <v>634826.5703591618</v>
       </c>
     </row>
     <row r="31">
@@ -1861,28 +1953,31 @@
         <v>42101104.7764674</v>
       </c>
       <c r="G31" t="n">
-        <v>1311801.731634278</v>
+        <v>691982.0392596157</v>
       </c>
       <c r="H31" t="n">
-        <v>1313400.686320286</v>
+        <v>692003.7007260006</v>
       </c>
       <c r="I31" t="n">
-        <v>586732.9978565974</v>
+        <v>586732.9978565306</v>
       </c>
       <c r="J31" t="n">
-        <v>586733.4109585824</v>
+        <v>586733.4109585157</v>
       </c>
       <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
         <v>43372873.34851753</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>42101084.80939717</v>
       </c>
-      <c r="M31" t="n">
-        <v>1311801.731634278</v>
-      </c>
       <c r="N31" t="n">
-        <v>586732.9978565974</v>
+        <v>691982.0392596157</v>
+      </c>
+      <c r="O31" t="n">
+        <v>586732.9978565306</v>
       </c>
     </row>
     <row r="32">
@@ -1907,28 +2002,31 @@
         <v>39571872.30583309</v>
       </c>
       <c r="G32" t="n">
-        <v>934782.5892315275</v>
+        <v>628211.4670836108</v>
       </c>
       <c r="H32" t="n">
-        <v>935459.9316449007</v>
+        <v>628222.5378037306</v>
       </c>
       <c r="I32" t="n">
-        <v>537406.386979532</v>
+        <v>537406.3869794703</v>
       </c>
       <c r="J32" t="n">
-        <v>537406.7870973954</v>
+        <v>537406.7870973336</v>
       </c>
       <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
         <v>39849559.75156708</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>39571855.25231799</v>
       </c>
-      <c r="M32" t="n">
-        <v>934782.5892315275</v>
-      </c>
       <c r="N32" t="n">
-        <v>537406.386979532</v>
+        <v>628211.4670836108</v>
+      </c>
+      <c r="O32" t="n">
+        <v>537406.3869794703</v>
       </c>
     </row>
     <row r="33">
@@ -1953,28 +2051,31 @@
         <v>35971019.89174481</v>
       </c>
       <c r="G33" t="n">
-        <v>845071.6384451265</v>
+        <v>527199.8232244102</v>
       </c>
       <c r="H33" t="n">
-        <v>845718.3122610874</v>
+        <v>527200.57466733</v>
       </c>
       <c r="I33" t="n">
-        <v>517698.5871454674</v>
+        <v>517698.5871454072</v>
       </c>
       <c r="J33" t="n">
-        <v>517699.0041152029</v>
+        <v>517699.0041151426</v>
       </c>
       <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
         <v>36016323.82610425</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>35971003.8657546</v>
       </c>
-      <c r="M33" t="n">
-        <v>845071.6384451265</v>
-      </c>
       <c r="N33" t="n">
-        <v>517698.5871454674</v>
+        <v>527199.8232244102</v>
+      </c>
+      <c r="O33" t="n">
+        <v>517698.5871454072</v>
       </c>
     </row>
     <row r="34">
@@ -1999,28 +2100,31 @@
         <v>34716556.86673946</v>
       </c>
       <c r="G34" t="n">
-        <v>611079.7907963092</v>
+        <v>530701.793305554</v>
       </c>
       <c r="H34" t="n">
-        <v>611036.236845059</v>
+        <v>530710.5300820115</v>
       </c>
       <c r="I34" t="n">
-        <v>494443.7462750587</v>
+        <v>494443.7462750014</v>
       </c>
       <c r="J34" t="n">
-        <v>494444.1619641076</v>
+        <v>494444.1619640502</v>
       </c>
       <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
         <v>34672519.95080439</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>34716542.20801911</v>
       </c>
-      <c r="M34" t="n">
-        <v>611079.7907963092</v>
-      </c>
       <c r="N34" t="n">
-        <v>494443.7462750587</v>
+        <v>530701.793305554</v>
+      </c>
+      <c r="O34" t="n">
+        <v>494443.7462750014</v>
       </c>
     </row>
     <row r="35">
@@ -2045,28 +2149,31 @@
         <v>31558405.06555513</v>
       </c>
       <c r="G35" t="n">
-        <v>623480.2053833879</v>
+        <v>488726.2078128657</v>
       </c>
       <c r="H35" t="n">
-        <v>624085.340609424</v>
+        <v>488722.8612620229</v>
       </c>
       <c r="I35" t="n">
-        <v>477708.7892862943</v>
+        <v>477708.7892862384</v>
       </c>
       <c r="J35" t="n">
-        <v>477709.247871276</v>
+        <v>477709.2478712201</v>
       </c>
       <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
         <v>31204803.09616791</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>31558392.06448591</v>
       </c>
-      <c r="M35" t="n">
-        <v>623480.2053833879</v>
-      </c>
       <c r="N35" t="n">
-        <v>477708.7892862943</v>
+        <v>488726.2078128657</v>
+      </c>
+      <c r="O35" t="n">
+        <v>477708.7892862384</v>
       </c>
     </row>
     <row r="36">
@@ -2091,28 +2198,31 @@
         <v>29839371.2008754</v>
       </c>
       <c r="G36" t="n">
-        <v>571146.0173918005</v>
+        <v>455760.5288172245</v>
       </c>
       <c r="H36" t="n">
-        <v>571666.5267679447</v>
+        <v>455767.5240073481</v>
       </c>
       <c r="I36" t="n">
-        <v>462434.8257046778</v>
+        <v>462434.8257046236</v>
       </c>
       <c r="J36" t="n">
-        <v>462435.2661254124</v>
+        <v>462435.2661253582</v>
       </c>
       <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
         <v>29431989.88224553</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>29839358.68852787</v>
       </c>
-      <c r="M36" t="n">
-        <v>571146.0173918005</v>
-      </c>
       <c r="N36" t="n">
-        <v>462434.8257046778</v>
+        <v>455760.5288172245</v>
+      </c>
+      <c r="O36" t="n">
+        <v>462434.8257046236</v>
       </c>
     </row>
     <row r="37">
@@ -2137,28 +2247,31 @@
         <v>28401227.92021139</v>
       </c>
       <c r="G37" t="n">
-        <v>547765.3709345956</v>
+        <v>441656.3904540715</v>
       </c>
       <c r="H37" t="n">
-        <v>548095.0860660414</v>
+        <v>441661.4603956834</v>
       </c>
       <c r="I37" t="n">
-        <v>445506.6580601108</v>
+        <v>445506.6580600585</v>
       </c>
       <c r="J37" t="n">
-        <v>445507.0755871154</v>
+        <v>445507.0755870632</v>
       </c>
       <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
         <v>27998879.84662343</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>28401215.91959765</v>
       </c>
-      <c r="M37" t="n">
-        <v>547765.3709345956</v>
-      </c>
       <c r="N37" t="n">
-        <v>445506.6580601108</v>
+        <v>441656.3904540715</v>
+      </c>
+      <c r="O37" t="n">
+        <v>445506.6580600585</v>
       </c>
     </row>
     <row r="38">
@@ -2183,28 +2296,31 @@
         <v>28051828.91274907</v>
       </c>
       <c r="G38" t="n">
-        <v>476015.0476266487</v>
+        <v>453294.1143715123</v>
       </c>
       <c r="H38" t="n">
-        <v>475731.2785940905</v>
+        <v>453295.9967459504</v>
       </c>
       <c r="I38" t="n">
-        <v>441514.6898748298</v>
+        <v>441514.6898747782</v>
       </c>
       <c r="J38" t="n">
-        <v>441515.0982846191</v>
+        <v>441515.0982845674</v>
       </c>
       <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
         <v>27622762.12488514</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>28051816.94928024</v>
       </c>
-      <c r="M38" t="n">
-        <v>476015.0476266487</v>
-      </c>
       <c r="N38" t="n">
-        <v>441514.6898748298</v>
+        <v>453294.1143715123</v>
+      </c>
+      <c r="O38" t="n">
+        <v>441514.6898747782</v>
       </c>
     </row>
     <row r="39">
@@ -2229,28 +2345,31 @@
         <v>27830637.75596267</v>
       </c>
       <c r="G39" t="n">
-        <v>503916.3522498071</v>
+        <v>443629.9399274553</v>
       </c>
       <c r="H39" t="n">
-        <v>504305.1426651189</v>
+        <v>443635.0458564093</v>
       </c>
       <c r="I39" t="n">
-        <v>439278.1912832005</v>
+        <v>439278.1912831491</v>
       </c>
       <c r="J39" t="n">
-        <v>439278.6025125152</v>
+        <v>439278.6025124638</v>
       </c>
       <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
         <v>27470623.59477198</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>27830625.97140939</v>
       </c>
-      <c r="M39" t="n">
-        <v>503916.3522498071</v>
-      </c>
       <c r="N39" t="n">
-        <v>439278.1912832005</v>
+        <v>443629.9399274553</v>
+      </c>
+      <c r="O39" t="n">
+        <v>439278.1912831491</v>
       </c>
     </row>
     <row r="40">
@@ -2275,28 +2394,31 @@
         <v>28545096.17962325</v>
       </c>
       <c r="G40" t="n">
-        <v>558145.3073339923</v>
+        <v>444949.592378328</v>
       </c>
       <c r="H40" t="n">
-        <v>558571.1120455855</v>
+        <v>444947.3178037736</v>
       </c>
       <c r="I40" t="n">
-        <v>449545.0619027877</v>
+        <v>449545.0619027349</v>
       </c>
       <c r="J40" t="n">
-        <v>449545.4950705064</v>
+        <v>449545.4950704537</v>
       </c>
       <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
         <v>28128227.00049252</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>28545084.26679988</v>
       </c>
-      <c r="M40" t="n">
-        <v>558145.3073339923</v>
-      </c>
       <c r="N40" t="n">
-        <v>449545.0619027877</v>
+        <v>444949.592378328</v>
+      </c>
+      <c r="O40" t="n">
+        <v>449545.0619027349</v>
       </c>
     </row>
     <row r="41">
@@ -2321,28 +2443,31 @@
         <v>29649843.03804778</v>
       </c>
       <c r="G41" t="n">
-        <v>540271.0010244093</v>
+        <v>460930.4678062844</v>
       </c>
       <c r="H41" t="n">
-        <v>540633.9509160185</v>
+        <v>460937.1591384038</v>
       </c>
       <c r="I41" t="n">
-        <v>458374.5297291764</v>
+        <v>458374.5297291228</v>
       </c>
       <c r="J41" t="n">
-        <v>458374.9681253324</v>
+        <v>458374.9681252788</v>
       </c>
       <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
         <v>29146820.99008302</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>29649830.71253719</v>
       </c>
-      <c r="M41" t="n">
-        <v>540271.0010244093</v>
-      </c>
       <c r="N41" t="n">
-        <v>458374.5297291764</v>
+        <v>460930.4678062844</v>
+      </c>
+      <c r="O41" t="n">
+        <v>458374.5297291228</v>
       </c>
     </row>
     <row r="42">
@@ -2367,28 +2492,31 @@
         <v>31736751.44335804</v>
       </c>
       <c r="G42" t="n">
-        <v>596621.5680820371</v>
+        <v>479472.3898256514</v>
       </c>
       <c r="H42" t="n">
-        <v>596902.72212441</v>
+        <v>479480.3105203193</v>
       </c>
       <c r="I42" t="n">
-        <v>480090.2793645405</v>
+        <v>480090.2793644841</v>
       </c>
       <c r="J42" t="n">
-        <v>480090.7086715855</v>
+        <v>480090.7086715291</v>
       </c>
       <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
         <v>31247654.30723044</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>31736737.64034451</v>
       </c>
-      <c r="M42" t="n">
-        <v>596621.5680820371</v>
-      </c>
       <c r="N42" t="n">
-        <v>480090.2793645405</v>
+        <v>479472.3898256514</v>
+      </c>
+      <c r="O42" t="n">
+        <v>480090.2793644841</v>
       </c>
     </row>
     <row r="43">
@@ -2413,28 +2541,31 @@
         <v>33225724.31054192</v>
       </c>
       <c r="G43" t="n">
-        <v>594909.8237602534</v>
+        <v>525877.6864978934</v>
       </c>
       <c r="H43" t="n">
-        <v>594754.3752640279</v>
+        <v>525874.9483682951</v>
       </c>
       <c r="I43" t="n">
-        <v>485767.3172733521</v>
+        <v>485767.3172732956</v>
       </c>
       <c r="J43" t="n">
-        <v>485767.7605487735</v>
+        <v>485767.7605487171</v>
       </c>
       <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
         <v>32797156.9254816</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>33225710.57945907</v>
       </c>
-      <c r="M43" t="n">
-        <v>594909.8237602534</v>
-      </c>
       <c r="N43" t="n">
-        <v>485767.3172733521</v>
+        <v>525877.6864978934</v>
+      </c>
+      <c r="O43" t="n">
+        <v>485767.3172732956</v>
       </c>
     </row>
     <row r="44">
@@ -2459,28 +2590,31 @@
         <v>35437037.34771334</v>
       </c>
       <c r="G44" t="n">
-        <v>708302.5313693623</v>
+        <v>557455.2684371949</v>
       </c>
       <c r="H44" t="n">
-        <v>708314.4500897445</v>
+        <v>557443.8912283848</v>
       </c>
       <c r="I44" t="n">
-        <v>501954.9318287448</v>
+        <v>501954.9318286866</v>
       </c>
       <c r="J44" t="n">
-        <v>501955.3489339024</v>
+        <v>501955.3489338442</v>
       </c>
       <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
         <v>35212610.50032556</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>35437022.22657536</v>
       </c>
-      <c r="M44" t="n">
-        <v>708302.5313693623</v>
-      </c>
       <c r="N44" t="n">
-        <v>501954.9318287448</v>
+        <v>557455.2684371949</v>
+      </c>
+      <c r="O44" t="n">
+        <v>501954.9318286866</v>
       </c>
     </row>
     <row r="45">
@@ -2505,28 +2639,31 @@
         <v>34533989.5902616</v>
       </c>
       <c r="G45" t="n">
-        <v>760925.7293113318</v>
+        <v>520714.0331988483</v>
       </c>
       <c r="H45" t="n">
-        <v>761747.8098464685</v>
+        <v>520702.8357661169</v>
       </c>
       <c r="I45" t="n">
-        <v>502029.9456192621</v>
+        <v>502029.9456192035</v>
       </c>
       <c r="J45" t="n">
-        <v>502030.3468411834</v>
+        <v>502030.3468411248</v>
       </c>
       <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
         <v>34419182.31737644</v>
       </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
         <v>34533974.20454948</v>
       </c>
-      <c r="M45" t="n">
-        <v>760925.7293113318</v>
-      </c>
       <c r="N45" t="n">
-        <v>502029.9456192621</v>
+        <v>520714.0331988483</v>
+      </c>
+      <c r="O45" t="n">
+        <v>502029.9456192035</v>
       </c>
     </row>
     <row r="46">
@@ -2551,28 +2688,31 @@
         <v>35866001.33203752</v>
       </c>
       <c r="G46" t="n">
-        <v>883338.8354285883</v>
+        <v>512060.4819818151</v>
       </c>
       <c r="H46" t="n">
-        <v>883796.1046536233</v>
+        <v>512064.6177286953</v>
       </c>
       <c r="I46" t="n">
-        <v>512760.6611367493</v>
+        <v>512760.66113669</v>
       </c>
       <c r="J46" t="n">
-        <v>512761.0473142357</v>
+        <v>512761.0473141764</v>
       </c>
       <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
         <v>36237420.84697346</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>35865985.07366488</v>
       </c>
-      <c r="M46" t="n">
-        <v>883338.8354285883</v>
-      </c>
       <c r="N46" t="n">
-        <v>512760.6611367493</v>
+        <v>512060.4819818151</v>
+      </c>
+      <c r="O46" t="n">
+        <v>512760.66113669</v>
       </c>
     </row>
     <row r="47">
@@ -2597,28 +2737,31 @@
         <v>40660430.58243107</v>
       </c>
       <c r="G47" t="n">
-        <v>1210877.007485318</v>
+        <v>648959.3264603941</v>
       </c>
       <c r="H47" t="n">
-        <v>1211383.193720676</v>
+        <v>648969.9561914506</v>
       </c>
       <c r="I47" t="n">
-        <v>553863.0479603847</v>
+        <v>553863.0479603214</v>
       </c>
       <c r="J47" t="n">
-        <v>553863.4388476397</v>
+        <v>553863.4388475763</v>
       </c>
       <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
         <v>41323793.11178966</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>40660412.09782284</v>
       </c>
-      <c r="M47" t="n">
-        <v>1210877.007485318</v>
-      </c>
       <c r="N47" t="n">
-        <v>553863.0479603847</v>
+        <v>648959.3264603941</v>
+      </c>
+      <c r="O47" t="n">
+        <v>553863.0479603214</v>
       </c>
     </row>
     <row r="48">
@@ -2643,28 +2786,31 @@
         <v>39005121.95556479</v>
       </c>
       <c r="G48" t="n">
-        <v>1069717.432671468</v>
+        <v>614595.9053186806</v>
       </c>
       <c r="H48" t="n">
-        <v>1070839.233054846</v>
+        <v>614616.045014831</v>
       </c>
       <c r="I48" t="n">
-        <v>536994.9757791518</v>
+        <v>536994.9757790902</v>
       </c>
       <c r="J48" t="n">
-        <v>536995.3421559148</v>
+        <v>536995.3421558532</v>
       </c>
       <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
         <v>39221869.79385753</v>
       </c>
-      <c r="L48" t="n">
+      <c r="M48" t="n">
         <v>39005104.17128047</v>
       </c>
-      <c r="M48" t="n">
-        <v>1069717.432671468</v>
-      </c>
       <c r="N48" t="n">
-        <v>536994.9757791518</v>
+        <v>614595.9053186806</v>
+      </c>
+      <c r="O48" t="n">
+        <v>536994.9757790902</v>
       </c>
     </row>
     <row r="49">
@@ -2689,28 +2835,31 @@
         <v>42722643.43437721</v>
       </c>
       <c r="G49" t="n">
-        <v>1386947.679785547</v>
+        <v>702323.0412134471</v>
       </c>
       <c r="H49" t="n">
-        <v>1385651.90658696</v>
+        <v>702306.9240568397</v>
       </c>
       <c r="I49" t="n">
-        <v>592781.2177199648</v>
+        <v>592781.2177198969</v>
       </c>
       <c r="J49" t="n">
-        <v>592781.6403066827</v>
+        <v>592781.6403066149</v>
       </c>
       <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
         <v>43103508.94538216</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>42722623.16708499</v>
       </c>
-      <c r="M49" t="n">
-        <v>1386947.679785547</v>
-      </c>
       <c r="N49" t="n">
-        <v>592781.2177199648</v>
+        <v>702323.0412134471</v>
+      </c>
+      <c r="O49" t="n">
+        <v>592781.2177198969</v>
       </c>
     </row>
     <row r="50">
@@ -2735,28 +2884,31 @@
         <v>40671048.68166027</v>
       </c>
       <c r="G50" t="n">
-        <v>1107363.841383533</v>
+        <v>588162.3719993471</v>
       </c>
       <c r="H50" t="n">
-        <v>1107512.943830465</v>
+        <v>588176.2560132352</v>
       </c>
       <c r="I50" t="n">
-        <v>561328.9884521544</v>
+        <v>561328.9884520898</v>
       </c>
       <c r="J50" t="n">
-        <v>561329.3666404419</v>
+        <v>561329.3666403773</v>
       </c>
       <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
         <v>41472520.50860496</v>
       </c>
-      <c r="L50" t="n">
+      <c r="M50" t="n">
         <v>40671029.66017979</v>
       </c>
-      <c r="M50" t="n">
-        <v>1107363.841383533</v>
-      </c>
       <c r="N50" t="n">
-        <v>561328.9884521544</v>
+        <v>588162.3719993471</v>
+      </c>
+      <c r="O50" t="n">
+        <v>561328.9884520898</v>
       </c>
     </row>
     <row r="51">
@@ -2781,28 +2933,31 @@
         <v>40923778.33024416</v>
       </c>
       <c r="G51" t="n">
-        <v>1240727.635724026</v>
+        <v>596357.7039152662</v>
       </c>
       <c r="H51" t="n">
-        <v>1242113.319846076</v>
+        <v>596373.463673153</v>
       </c>
       <c r="I51" t="n">
-        <v>566061.7022548225</v>
+        <v>566061.7022547575</v>
       </c>
       <c r="J51" t="n">
-        <v>566062.0880597261</v>
+        <v>566062.088059661</v>
       </c>
       <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
         <v>41685177.64866564</v>
       </c>
-      <c r="L51" t="n">
+      <c r="M51" t="n">
         <v>40923759.16437973</v>
       </c>
-      <c r="M51" t="n">
-        <v>1240727.635724026</v>
-      </c>
       <c r="N51" t="n">
-        <v>566061.7022548225</v>
+        <v>596357.7039152662</v>
+      </c>
+      <c r="O51" t="n">
+        <v>566061.7022547575</v>
       </c>
     </row>
     <row r="52">
@@ -2827,28 +2982,31 @@
         <v>43244660.8277028</v>
       </c>
       <c r="G52" t="n">
-        <v>1318861.869899186</v>
+        <v>784082.1477545943</v>
       </c>
       <c r="H52" t="n">
-        <v>1319477.112898467</v>
+        <v>784112.0107050758</v>
       </c>
       <c r="I52" t="n">
-        <v>567468.9144917605</v>
+        <v>567468.9144916957</v>
       </c>
       <c r="J52" t="n">
-        <v>567469.2218719067</v>
+        <v>567469.2218718419</v>
       </c>
       <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
         <v>44429695.85758053</v>
       </c>
-      <c r="L52" t="n">
+      <c r="M52" t="n">
         <v>43244640.37504764</v>
       </c>
-      <c r="M52" t="n">
-        <v>1318861.869899186</v>
-      </c>
       <c r="N52" t="n">
-        <v>567468.9144917605</v>
+        <v>784082.1477545943</v>
+      </c>
+      <c r="O52" t="n">
+        <v>567468.9144916957</v>
       </c>
     </row>
     <row r="53">
@@ -2873,28 +3031,31 @@
         <v>40587988.70652154</v>
       </c>
       <c r="G53" t="n">
-        <v>1100050.229814986</v>
+        <v>569933.849495864</v>
       </c>
       <c r="H53" t="n">
-        <v>1101014.382144828</v>
+        <v>569950.8855327322</v>
       </c>
       <c r="I53" t="n">
-        <v>557358.372305471</v>
+        <v>557358.3723054067</v>
       </c>
       <c r="J53" t="n">
-        <v>557358.7480252499</v>
+        <v>557358.7480251858</v>
       </c>
       <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
         <v>41330493.71452598</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>40587969.87867801</v>
       </c>
-      <c r="M53" t="n">
-        <v>1100050.229814986</v>
-      </c>
       <c r="N53" t="n">
-        <v>557358.372305471</v>
+        <v>569933.849495864</v>
+      </c>
+      <c r="O53" t="n">
+        <v>557358.3723054067</v>
       </c>
     </row>
     <row r="54">
@@ -2919,28 +3080,31 @@
         <v>42913999.36748507</v>
       </c>
       <c r="G54" t="n">
-        <v>1631755.191215765</v>
+        <v>693122.5129902977</v>
       </c>
       <c r="H54" t="n">
-        <v>1631058.175893075</v>
+        <v>693134.2122905237</v>
       </c>
       <c r="I54" t="n">
-        <v>561599.0690797032</v>
+        <v>561599.0690796394</v>
       </c>
       <c r="J54" t="n">
-        <v>561599.3824905566</v>
+        <v>561599.3824904928</v>
       </c>
       <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
         <v>44786396.02952445</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>42913979.33564439</v>
       </c>
-      <c r="M54" t="n">
-        <v>1631755.191215765</v>
-      </c>
       <c r="N54" t="n">
-        <v>561599.0690797032</v>
+        <v>693122.5129902977</v>
+      </c>
+      <c r="O54" t="n">
+        <v>561599.0690796394</v>
       </c>
     </row>
     <row r="55">
@@ -2965,28 +3129,31 @@
         <v>42543201.99705483</v>
       </c>
       <c r="G55" t="n">
-        <v>1304762.998001691</v>
+        <v>759049.4447214634</v>
       </c>
       <c r="H55" t="n">
-        <v>1305010.816054001</v>
+        <v>759075.3456582439</v>
       </c>
       <c r="I55" t="n">
-        <v>561746.2859109498</v>
+        <v>561746.2859108858</v>
       </c>
       <c r="J55" t="n">
-        <v>561746.6098103873</v>
+        <v>561746.6098103233</v>
       </c>
       <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
         <v>44929791.96851809</v>
       </c>
-      <c r="L55" t="n">
+      <c r="M55" t="n">
         <v>42543182.05235717</v>
       </c>
-      <c r="M55" t="n">
-        <v>1304762.998001691</v>
-      </c>
       <c r="N55" t="n">
-        <v>561746.2859109498</v>
+        <v>759049.4447214634</v>
+      </c>
+      <c r="O55" t="n">
+        <v>561746.2859108858</v>
       </c>
     </row>
     <row r="56">
@@ -3011,28 +3178,31 @@
         <v>38842140.47372627</v>
       </c>
       <c r="G56" t="n">
-        <v>931469.8004146654</v>
+        <v>541448.2615580133</v>
       </c>
       <c r="H56" t="n">
-        <v>931730.0542636168</v>
+        <v>541463.7123097369</v>
       </c>
       <c r="I56" t="n">
-        <v>539638.1245247982</v>
+        <v>539638.1245247365</v>
       </c>
       <c r="J56" t="n">
-        <v>539638.4984260931</v>
+        <v>539638.4984260313</v>
       </c>
       <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
         <v>39631656.02200601</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>38842122.56761199</v>
       </c>
-      <c r="M56" t="n">
-        <v>931469.8004146654</v>
-      </c>
       <c r="N56" t="n">
-        <v>539638.1245247982</v>
+        <v>541448.2615580133</v>
+      </c>
+      <c r="O56" t="n">
+        <v>539638.1245247365</v>
       </c>
     </row>
     <row r="57">
@@ -3057,28 +3227,31 @@
         <v>42324383.26806447</v>
       </c>
       <c r="G57" t="n">
-        <v>1538320.360485054</v>
+        <v>700535.5761835061</v>
       </c>
       <c r="H57" t="n">
-        <v>1538003.427910161</v>
+        <v>700519.5449505182</v>
       </c>
       <c r="I57" t="n">
-        <v>558026.4870831708</v>
+        <v>558026.4870831072</v>
       </c>
       <c r="J57" t="n">
-        <v>558026.818751522</v>
+        <v>558026.8187514583</v>
       </c>
       <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
         <v>43719033.01667953</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>42324363.64937292</v>
       </c>
-      <c r="M57" t="n">
-        <v>1538320.360485054</v>
-      </c>
       <c r="N57" t="n">
-        <v>558026.4870831708</v>
+        <v>700535.5761835061</v>
+      </c>
+      <c r="O57" t="n">
+        <v>558026.4870831072</v>
       </c>
     </row>
     <row r="58">
@@ -3103,28 +3276,31 @@
         <v>38308222.52635828</v>
       </c>
       <c r="G58" t="n">
-        <v>923564.3437788726</v>
+        <v>568054.1521993371</v>
       </c>
       <c r="H58" t="n">
-        <v>925251.4086638255</v>
+        <v>568073.1904797605</v>
       </c>
       <c r="I58" t="n">
-        <v>523980.7217733891</v>
+        <v>523980.7217733291</v>
       </c>
       <c r="J58" t="n">
-        <v>523981.0722346909</v>
+        <v>523981.0722346309</v>
       </c>
       <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
         <v>38682687.59267762</v>
       </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
         <v>38308205.24073208</v>
       </c>
-      <c r="M58" t="n">
-        <v>923564.3437788726</v>
-      </c>
       <c r="N58" t="n">
-        <v>523980.7217733891</v>
+        <v>568054.1521993371</v>
+      </c>
+      <c r="O58" t="n">
+        <v>523980.7217733291</v>
       </c>
     </row>
     <row r="59">
@@ -3149,28 +3325,31 @@
         <v>41855872.57144751</v>
       </c>
       <c r="G59" t="n">
-        <v>1205565.888320946</v>
+        <v>691501.0439310464</v>
       </c>
       <c r="H59" t="n">
-        <v>1204357.709049982</v>
+        <v>691523.1067552519</v>
       </c>
       <c r="I59" t="n">
-        <v>553352.9263111304</v>
+        <v>553352.9263110671</v>
       </c>
       <c r="J59" t="n">
-        <v>553353.2657126597</v>
+        <v>553353.2657125965</v>
       </c>
       <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
         <v>42603898.9300271</v>
       </c>
-      <c r="L59" t="n">
+      <c r="M59" t="n">
         <v>41855853.37642673</v>
       </c>
-      <c r="M59" t="n">
-        <v>1205565.888320946</v>
-      </c>
       <c r="N59" t="n">
-        <v>553352.9263111304</v>
+        <v>691501.0439310464</v>
+      </c>
+      <c r="O59" t="n">
+        <v>553352.9263110671</v>
       </c>
     </row>
     <row r="60">
@@ -3195,28 +3374,31 @@
         <v>42070830.16733274</v>
       </c>
       <c r="G60" t="n">
-        <v>1396789.097600023</v>
+        <v>703445.0923674273</v>
       </c>
       <c r="H60" t="n">
-        <v>1395398.334473701</v>
+        <v>703452.5661865819</v>
       </c>
       <c r="I60" t="n">
-        <v>573152.6311818371</v>
+        <v>573152.6311817718</v>
       </c>
       <c r="J60" t="n">
-        <v>573153.0116757144</v>
+        <v>573153.0116756491</v>
       </c>
       <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
         <v>42971610.45293882</v>
       </c>
-      <c r="L60" t="n">
+      <c r="M60" t="n">
         <v>42070810.26323982</v>
       </c>
-      <c r="M60" t="n">
-        <v>1396789.097600023</v>
-      </c>
       <c r="N60" t="n">
-        <v>573152.6311818371</v>
+        <v>703445.0923674273</v>
+      </c>
+      <c r="O60" t="n">
+        <v>573152.6311817718</v>
       </c>
     </row>
     <row r="61">
@@ -3241,28 +3423,31 @@
         <v>42162159.2344106</v>
       </c>
       <c r="G61" t="n">
-        <v>1579077.677163191</v>
+        <v>703681.7847407898</v>
       </c>
       <c r="H61" t="n">
-        <v>1577917.110236584</v>
+        <v>703705.2412675172</v>
       </c>
       <c r="I61" t="n">
-        <v>556877.9934375945</v>
+        <v>556877.9934375313</v>
       </c>
       <c r="J61" t="n">
-        <v>556878.3142787366</v>
+        <v>556878.3142786733</v>
       </c>
       <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
         <v>43282189.44089113</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>42162139.46561716</v>
       </c>
-      <c r="M61" t="n">
-        <v>1579077.677163191</v>
-      </c>
       <c r="N61" t="n">
-        <v>556877.9934375945</v>
+        <v>703681.7847407898</v>
+      </c>
+      <c r="O61" t="n">
+        <v>556877.9934375313</v>
       </c>
     </row>
     <row r="62">
@@ -3287,28 +3472,31 @@
         <v>38014174.35818186</v>
       </c>
       <c r="G62" t="n">
-        <v>809455.6630217162</v>
+        <v>560170.3863276402</v>
       </c>
       <c r="H62" t="n">
-        <v>810887.1138332901</v>
+        <v>560184.34651502</v>
       </c>
       <c r="I62" t="n">
-        <v>518480.3423607228</v>
+        <v>518480.3423606634</v>
       </c>
       <c r="J62" t="n">
-        <v>518480.6891565946</v>
+        <v>518480.6891565352</v>
       </c>
       <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
         <v>38271655.55316719</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>38014157.36758283</v>
       </c>
-      <c r="M62" t="n">
-        <v>809455.6630217162</v>
-      </c>
       <c r="N62" t="n">
-        <v>518480.3423607228</v>
+        <v>560170.3863276402</v>
+      </c>
+      <c r="O62" t="n">
+        <v>518480.3423606634</v>
       </c>
     </row>
     <row r="63">
@@ -3333,28 +3521,31 @@
         <v>42322184.71573387</v>
       </c>
       <c r="G63" t="n">
-        <v>1313451.64928575</v>
+        <v>710290.9449402108</v>
       </c>
       <c r="H63" t="n">
-        <v>1314278.075338481</v>
+        <v>710300.4349926483</v>
       </c>
       <c r="I63" t="n">
-        <v>568813.7256880553</v>
+        <v>568813.7256879904</v>
       </c>
       <c r="J63" t="n">
-        <v>568814.0736893574</v>
+        <v>568814.0736892925</v>
       </c>
       <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
         <v>43363984.58291012</v>
       </c>
-      <c r="L63" t="n">
+      <c r="M63" t="n">
         <v>42322164.52693208</v>
       </c>
-      <c r="M63" t="n">
-        <v>1313451.64928575</v>
-      </c>
       <c r="N63" t="n">
-        <v>568813.7256880553</v>
+        <v>710290.9449402108</v>
+      </c>
+      <c r="O63" t="n">
+        <v>568813.7256879904</v>
       </c>
     </row>
     <row r="64">
@@ -3379,28 +3570,31 @@
         <v>38420992.85125548</v>
       </c>
       <c r="G64" t="n">
-        <v>956812.3481281041</v>
+        <v>555770.8915597375</v>
       </c>
       <c r="H64" t="n">
-        <v>959068.7593622196</v>
+        <v>555782.7232693637</v>
       </c>
       <c r="I64" t="n">
-        <v>524026.1860851408</v>
+        <v>524026.1860850807</v>
       </c>
       <c r="J64" t="n">
-        <v>524026.5395385951</v>
+        <v>524026.539538535</v>
       </c>
       <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
         <v>38862998.69650385</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>38420975.68930627</v>
       </c>
-      <c r="M64" t="n">
-        <v>956812.3481281041</v>
-      </c>
       <c r="N64" t="n">
-        <v>524026.1860851408</v>
+        <v>555770.8915597375</v>
+      </c>
+      <c r="O64" t="n">
+        <v>524026.1860850807</v>
       </c>
     </row>
     <row r="65">
@@ -3425,28 +3619,31 @@
         <v>38431557.63162106</v>
       </c>
       <c r="G65" t="n">
-        <v>968775.9848842338</v>
+        <v>536436.9330744467</v>
       </c>
       <c r="H65" t="n">
-        <v>968878.657717719</v>
+        <v>536452.8163435309</v>
       </c>
       <c r="I65" t="n">
-        <v>534066.2074635484</v>
+        <v>534066.2074634871</v>
       </c>
       <c r="J65" t="n">
-        <v>534066.580699755</v>
+        <v>534066.5806996938</v>
       </c>
       <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
         <v>38891473.25365871</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>38431540.09844597</v>
       </c>
-      <c r="M65" t="n">
-        <v>968775.9848842338</v>
-      </c>
       <c r="N65" t="n">
-        <v>534066.2074635484</v>
+        <v>536436.9330744467</v>
+      </c>
+      <c r="O65" t="n">
+        <v>534066.2074634871</v>
       </c>
     </row>
     <row r="66">
@@ -3471,28 +3668,31 @@
         <v>42328464.87155836</v>
       </c>
       <c r="G66" t="n">
-        <v>1514450.818281462</v>
+        <v>802688.0934049881</v>
       </c>
       <c r="H66" t="n">
-        <v>1514730.677271362</v>
+        <v>802638.3631799429</v>
       </c>
       <c r="I66" t="n">
-        <v>559103.9552635385</v>
+        <v>559103.9552634747</v>
       </c>
       <c r="J66" t="n">
-        <v>559104.2766032598</v>
+        <v>559104.276603196</v>
       </c>
       <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
         <v>43467114.04823723</v>
       </c>
-      <c r="L66" t="n">
+      <c r="M66" t="n">
         <v>42328444.97579212</v>
       </c>
-      <c r="M66" t="n">
-        <v>1514450.818281462</v>
-      </c>
       <c r="N66" t="n">
-        <v>559103.9552635385</v>
+        <v>802688.0934049881</v>
+      </c>
+      <c r="O66" t="n">
+        <v>559103.9552634747</v>
       </c>
     </row>
     <row r="67">
@@ -3517,28 +3717,31 @@
         <v>42646490.25132925</v>
       </c>
       <c r="G67" t="n">
-        <v>1484401.126039433</v>
+        <v>713496.1488718168</v>
       </c>
       <c r="H67" t="n">
-        <v>1484732.099988239</v>
+        <v>713494.0600410672</v>
       </c>
       <c r="I67" t="n">
-        <v>579363.2090185545</v>
+        <v>579363.2090184884</v>
       </c>
       <c r="J67" t="n">
-        <v>579363.5836150611</v>
+        <v>579363.583614995</v>
       </c>
       <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
         <v>43900964.30033703</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>42646469.80269102</v>
       </c>
-      <c r="M67" t="n">
-        <v>1484401.126039433</v>
-      </c>
       <c r="N67" t="n">
-        <v>579363.2090185545</v>
+        <v>713496.1488718168</v>
+      </c>
+      <c r="O67" t="n">
+        <v>579363.2090184884</v>
       </c>
     </row>
     <row r="68">
@@ -3563,28 +3766,31 @@
         <v>42556864.18136473</v>
       </c>
       <c r="G68" t="n">
-        <v>1335462.112273587</v>
+        <v>728013.6945696152</v>
       </c>
       <c r="H68" t="n">
-        <v>1335772.206095215</v>
+        <v>728015.9177380059</v>
       </c>
       <c r="I68" t="n">
-        <v>578242.4070098209</v>
+        <v>578242.4070097549</v>
       </c>
       <c r="J68" t="n">
-        <v>578242.7801106389</v>
+        <v>578242.780110573</v>
       </c>
       <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
         <v>43784245.96058489</v>
       </c>
-      <c r="L68" t="n">
+      <c r="M68" t="n">
         <v>42556843.77597655</v>
       </c>
-      <c r="M68" t="n">
-        <v>1335462.112273587</v>
-      </c>
       <c r="N68" t="n">
-        <v>578242.4070098209</v>
+        <v>728013.6945696152</v>
+      </c>
+      <c r="O68" t="n">
+        <v>578242.4070097549</v>
       </c>
     </row>
     <row r="69">
@@ -3609,28 +3815,31 @@
         <v>42418244.33054999</v>
       </c>
       <c r="G69" t="n">
-        <v>1366498.652708539</v>
+        <v>710808.0494418598</v>
       </c>
       <c r="H69" t="n">
-        <v>1368328.163082042</v>
+        <v>710818.9995123465</v>
       </c>
       <c r="I69" t="n">
-        <v>568609.0736866132</v>
+        <v>568609.0736865484</v>
       </c>
       <c r="J69" t="n">
-        <v>568609.4166189323</v>
+        <v>568609.4166188673</v>
       </c>
       <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
         <v>43479845.78627935</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>42418224.04134735</v>
       </c>
-      <c r="M69" t="n">
-        <v>1366498.652708539</v>
-      </c>
       <c r="N69" t="n">
-        <v>568609.0736866132</v>
+        <v>710808.0494418598</v>
+      </c>
+      <c r="O69" t="n">
+        <v>568609.0736865484</v>
       </c>
     </row>
     <row r="70">
@@ -3655,28 +3864,31 @@
         <v>38175600.21611444</v>
       </c>
       <c r="G70" t="n">
-        <v>967983.3194484998</v>
+        <v>565163.1882657474</v>
       </c>
       <c r="H70" t="n">
-        <v>968958.6824767096</v>
+        <v>565173.0356167495</v>
       </c>
       <c r="I70" t="n">
-        <v>518522.8598981161</v>
+        <v>518522.8598980566</v>
       </c>
       <c r="J70" t="n">
-        <v>518523.2050982658</v>
+        <v>518523.2050982063</v>
       </c>
       <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
         <v>38431101.36382245</v>
       </c>
-      <c r="L70" t="n">
+      <c r="M70" t="n">
         <v>38175583.23355079</v>
       </c>
-      <c r="M70" t="n">
-        <v>967983.3194484998</v>
-      </c>
       <c r="N70" t="n">
-        <v>518522.8598981161</v>
+        <v>565163.1882657474</v>
+      </c>
+      <c r="O70" t="n">
+        <v>518522.8598980566</v>
       </c>
     </row>
     <row r="71">
@@ -3701,28 +3913,31 @@
         <v>38164490.68500021</v>
       </c>
       <c r="G71" t="n">
-        <v>961483.6820829134</v>
+        <v>538920.359669027</v>
       </c>
       <c r="H71" t="n">
-        <v>962005.978061819</v>
+        <v>538938.1758747159</v>
       </c>
       <c r="I71" t="n">
-        <v>529100.7437605017</v>
+        <v>529100.7437604411</v>
       </c>
       <c r="J71" t="n">
-        <v>529101.1065943874</v>
+        <v>529101.1065943267</v>
       </c>
       <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
         <v>38537996.46732056</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>38164473.22913047</v>
       </c>
-      <c r="M71" t="n">
-        <v>961483.6820829134</v>
-      </c>
       <c r="N71" t="n">
-        <v>529100.7437605017</v>
+        <v>538920.359669027</v>
+      </c>
+      <c r="O71" t="n">
+        <v>529100.7437604411</v>
       </c>
     </row>
     <row r="72">
@@ -3747,28 +3962,31 @@
         <v>42484651.177035</v>
       </c>
       <c r="G72" t="n">
-        <v>1242442.029047999</v>
+        <v>816863.2323432162</v>
       </c>
       <c r="H72" t="n">
-        <v>1242092.482819155</v>
+        <v>816810.9974822756</v>
       </c>
       <c r="I72" t="n">
-        <v>558541.3560927288</v>
+        <v>558541.3560926653</v>
       </c>
       <c r="J72" t="n">
-        <v>558541.6616937068</v>
+        <v>558541.6616936434</v>
       </c>
       <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
         <v>43408391.97413379</v>
       </c>
-      <c r="L72" t="n">
+      <c r="M72" t="n">
         <v>42484631.00593608</v>
       </c>
-      <c r="M72" t="n">
-        <v>1242442.029047999</v>
-      </c>
       <c r="N72" t="n">
-        <v>558541.3560927288</v>
+        <v>816863.2323432162</v>
+      </c>
+      <c r="O72" t="n">
+        <v>558541.3560926653</v>
       </c>
     </row>
     <row r="73">
@@ -3793,28 +4011,31 @@
         <v>42498128.52625667</v>
       </c>
       <c r="G73" t="n">
-        <v>938675.5141098428</v>
+        <v>737766.3621405605</v>
       </c>
       <c r="H73" t="n">
-        <v>940439.3783846159</v>
+        <v>737750.0501746355</v>
       </c>
       <c r="I73" t="n">
-        <v>559176.5934439349</v>
+        <v>559176.5934438712</v>
       </c>
       <c r="J73" t="n">
-        <v>559176.9033921891</v>
+        <v>559176.9033921254</v>
       </c>
       <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
         <v>42755304.30474075</v>
       </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
         <v>42498108.3952917</v>
       </c>
-      <c r="M73" t="n">
-        <v>938675.5141098428</v>
-      </c>
       <c r="N73" t="n">
-        <v>559176.5934439349</v>
+        <v>737766.3621405605</v>
+      </c>
+      <c r="O73" t="n">
+        <v>559176.5934438712</v>
       </c>
     </row>
     <row r="74">
@@ -3839,28 +4060,31 @@
         <v>42442439.7633559</v>
       </c>
       <c r="G74" t="n">
-        <v>1029038.32637113</v>
+        <v>781762.2325196264</v>
       </c>
       <c r="H74" t="n">
-        <v>1030347.342131245</v>
+        <v>781710.4624758892</v>
       </c>
       <c r="I74" t="n">
-        <v>559184.0571583335</v>
+        <v>559184.0571582699</v>
       </c>
       <c r="J74" t="n">
-        <v>559184.3696183198</v>
+        <v>559184.3696182561</v>
       </c>
       <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
         <v>42909735.5325046</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>42442419.67075373</v>
       </c>
-      <c r="M74" t="n">
-        <v>1029038.32637113</v>
-      </c>
       <c r="N74" t="n">
-        <v>559184.0571583335</v>
+        <v>781762.2325196264</v>
+      </c>
+      <c r="O74" t="n">
+        <v>559184.0571582699</v>
       </c>
     </row>
     <row r="75">
@@ -3885,28 +4109,31 @@
         <v>42330400.99273875</v>
       </c>
       <c r="G75" t="n">
-        <v>1025486.785405206</v>
+        <v>783990.2623387359</v>
       </c>
       <c r="H75" t="n">
-        <v>1026789.007149452</v>
+        <v>783934.0938475368</v>
       </c>
       <c r="I75" t="n">
-        <v>558111.4651871865</v>
+        <v>558111.465187123</v>
       </c>
       <c r="J75" t="n">
-        <v>558111.7786610872</v>
+        <v>558111.7786610236</v>
       </c>
       <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
         <v>42797075.30446521</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>42330380.97935795</v>
       </c>
-      <c r="M75" t="n">
-        <v>1025486.785405206</v>
-      </c>
       <c r="N75" t="n">
-        <v>558111.4651871865</v>
+        <v>783990.2623387359</v>
+      </c>
+      <c r="O75" t="n">
+        <v>558111.465187123</v>
       </c>
     </row>
     <row r="76">
@@ -3931,28 +4158,31 @@
         <v>42195745.47006138</v>
       </c>
       <c r="G76" t="n">
-        <v>1025058.662583421</v>
+        <v>782634.5819604706</v>
       </c>
       <c r="H76" t="n">
-        <v>1026360.885651379</v>
+        <v>782578.4096379414</v>
       </c>
       <c r="I76" t="n">
-        <v>555955.1807376228</v>
+        <v>555955.1807375592</v>
       </c>
       <c r="J76" t="n">
-        <v>555955.4911682472</v>
+        <v>555955.4911681837</v>
       </c>
       <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
         <v>42689073.13154563</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>42195725.53629069</v>
       </c>
-      <c r="M76" t="n">
-        <v>1025058.662583421</v>
-      </c>
       <c r="N76" t="n">
-        <v>555955.1807376228</v>
+        <v>782634.5819604706</v>
+      </c>
+      <c r="O76" t="n">
+        <v>555955.1807375592</v>
       </c>
     </row>
     <row r="77">
@@ -3977,28 +4207,31 @@
         <v>42681429.13150658</v>
       </c>
       <c r="G77" t="n">
-        <v>1650459.112447239</v>
+        <v>785258.6101946371</v>
       </c>
       <c r="H77" t="n">
-        <v>1649111.654854412</v>
+        <v>785203.2024874142</v>
       </c>
       <c r="I77" t="n">
-        <v>578757.6714842928</v>
+        <v>578757.6714842269</v>
       </c>
       <c r="J77" t="n">
-        <v>578758.0418999994</v>
+        <v>578758.0418999334</v>
       </c>
       <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
         <v>44769758.00716899</v>
       </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
         <v>42681408.60913453</v>
       </c>
-      <c r="M77" t="n">
-        <v>1650459.112447239</v>
-      </c>
       <c r="N77" t="n">
-        <v>578757.6714842928</v>
+        <v>785258.6101946371</v>
+      </c>
+      <c r="O77" t="n">
+        <v>578757.6714842269</v>
       </c>
     </row>
     <row r="78">
@@ -4023,28 +4256,31 @@
         <v>42681429.13150658</v>
       </c>
       <c r="G78" t="n">
-        <v>1650459.112447239</v>
+        <v>785258.6101946371</v>
       </c>
       <c r="H78" t="n">
-        <v>1649111.654854412</v>
+        <v>785203.2024874142</v>
       </c>
       <c r="I78" t="n">
-        <v>578757.6714842928</v>
+        <v>578757.6714842269</v>
       </c>
       <c r="J78" t="n">
-        <v>578758.0418999994</v>
+        <v>578758.0418999334</v>
       </c>
       <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
         <v>44769758.00716899</v>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>42681408.60913453</v>
       </c>
-      <c r="M78" t="n">
-        <v>1650459.112447239</v>
-      </c>
       <c r="N78" t="n">
-        <v>578757.6714842928</v>
+        <v>785258.6101946371</v>
+      </c>
+      <c r="O78" t="n">
+        <v>578757.6714842269</v>
       </c>
     </row>
     <row r="79">
@@ -4069,28 +4305,31 @@
         <v>42721613.21460211</v>
       </c>
       <c r="G79" t="n">
-        <v>1838308.134601112</v>
+        <v>678353.1219660311</v>
       </c>
       <c r="H79" t="n">
-        <v>1838805.862994876</v>
+        <v>678359.8878978732</v>
       </c>
       <c r="I79" t="n">
-        <v>570603.3070454708</v>
+        <v>570603.3070454056</v>
       </c>
       <c r="J79" t="n">
-        <v>570603.645429977</v>
+        <v>570603.645429912</v>
       </c>
       <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
         <v>44499793.5140924</v>
       </c>
-      <c r="L79" t="n">
+      <c r="M79" t="n">
         <v>42721592.69731591</v>
       </c>
-      <c r="M79" t="n">
-        <v>1838308.134601112</v>
-      </c>
       <c r="N79" t="n">
-        <v>570603.3070454708</v>
+        <v>678353.1219660311</v>
+      </c>
+      <c r="O79" t="n">
+        <v>570603.3070454056</v>
       </c>
     </row>
     <row r="80">
@@ -4115,28 +4354,31 @@
         <v>42659513.30816295</v>
       </c>
       <c r="G80" t="n">
-        <v>1838093.120301841</v>
+        <v>677670.7654208497</v>
       </c>
       <c r="H80" t="n">
-        <v>1838590.833864396</v>
+        <v>677677.531231123</v>
       </c>
       <c r="I80" t="n">
-        <v>569797.1550449724</v>
+        <v>569797.1550449075</v>
       </c>
       <c r="J80" t="n">
-        <v>569797.4920572679</v>
+        <v>569797.4920572028</v>
       </c>
       <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
         <v>44445793.70177246</v>
       </c>
-      <c r="L80" t="n">
+      <c r="M80" t="n">
         <v>42659492.81300545</v>
       </c>
-      <c r="M80" t="n">
-        <v>1838093.120301841</v>
-      </c>
       <c r="N80" t="n">
-        <v>569797.1550449724</v>
+        <v>677670.7654208497</v>
+      </c>
+      <c r="O80" t="n">
+        <v>569797.1550449075</v>
       </c>
     </row>
     <row r="81">
@@ -4161,28 +4403,31 @@
         <v>42659513.30816295</v>
       </c>
       <c r="G81" t="n">
-        <v>1838093.120301841</v>
+        <v>677670.7654208497</v>
       </c>
       <c r="H81" t="n">
-        <v>1838590.833864396</v>
+        <v>677677.531231123</v>
       </c>
       <c r="I81" t="n">
-        <v>569797.1550449724</v>
+        <v>569797.1550449075</v>
       </c>
       <c r="J81" t="n">
-        <v>569797.4920572679</v>
+        <v>569797.4920572028</v>
       </c>
       <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
         <v>44445793.70177246</v>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>42659492.81300545</v>
       </c>
-      <c r="M81" t="n">
-        <v>1838093.120301841</v>
-      </c>
       <c r="N81" t="n">
-        <v>569797.1550449724</v>
+        <v>677670.7654208497</v>
+      </c>
+      <c r="O81" t="n">
+        <v>569797.1550449075</v>
       </c>
     </row>
     <row r="82">
@@ -4207,28 +4452,31 @@
         <v>42626087.91444553</v>
       </c>
       <c r="G82" t="n">
-        <v>1837983.975686847</v>
+        <v>677216.8956805759</v>
       </c>
       <c r="H82" t="n">
-        <v>1838481.492711679</v>
+        <v>677223.6602742246</v>
       </c>
       <c r="I82" t="n">
-        <v>569456.3579567871</v>
+        <v>569456.3579567223</v>
       </c>
       <c r="J82" t="n">
-        <v>569456.6943503175</v>
+        <v>569456.6943502526</v>
       </c>
       <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
         <v>44418791.03061904</v>
       </c>
-      <c r="L82" t="n">
+      <c r="M82" t="n">
         <v>42626067.42589439</v>
       </c>
-      <c r="M82" t="n">
-        <v>1837983.975686847</v>
-      </c>
       <c r="N82" t="n">
-        <v>569456.3579567871</v>
+        <v>677216.8956805759</v>
+      </c>
+      <c r="O82" t="n">
+        <v>569456.3579567223</v>
       </c>
     </row>
     <row r="83">
@@ -4253,28 +4501,31 @@
         <v>42626087.91444553</v>
       </c>
       <c r="G83" t="n">
-        <v>1837983.975686847</v>
+        <v>677216.8956805759</v>
       </c>
       <c r="H83" t="n">
-        <v>1838481.492711679</v>
+        <v>677223.6602742246</v>
       </c>
       <c r="I83" t="n">
-        <v>569456.3579567871</v>
+        <v>569456.3579567223</v>
       </c>
       <c r="J83" t="n">
-        <v>569456.6943503175</v>
+        <v>569456.6943502526</v>
       </c>
       <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
         <v>44418791.03061904</v>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>42626067.42589439</v>
       </c>
-      <c r="M83" t="n">
-        <v>1837983.975686847</v>
-      </c>
       <c r="N83" t="n">
-        <v>569456.3579567871</v>
+        <v>677216.8956805759</v>
+      </c>
+      <c r="O83" t="n">
+        <v>569456.3579567223</v>
       </c>
     </row>
     <row r="84">
@@ -4299,28 +4550,31 @@
         <v>42580288.78882643</v>
       </c>
       <c r="G84" t="n">
-        <v>1832493.581131552</v>
+        <v>677201.2453757459</v>
       </c>
       <c r="H84" t="n">
-        <v>1833105.723021124</v>
+        <v>677207.3772096366</v>
       </c>
       <c r="I84" t="n">
-        <v>568813.4295388079</v>
+        <v>568813.4295387431</v>
       </c>
       <c r="J84" t="n">
-        <v>568813.7654258378</v>
+        <v>568813.7654257729</v>
       </c>
       <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
         <v>44355356.31589252</v>
       </c>
-      <c r="L84" t="n">
+      <c r="M84" t="n">
         <v>42580268.33666451</v>
       </c>
-      <c r="M84" t="n">
-        <v>1832493.581131552</v>
-      </c>
       <c r="N84" t="n">
-        <v>568813.4295388079</v>
+        <v>677201.2453757459</v>
+      </c>
+      <c r="O84" t="n">
+        <v>568813.4295387431</v>
       </c>
     </row>
     <row r="85">
@@ -4345,28 +4599,31 @@
         <v>42604259.92498342</v>
       </c>
       <c r="G85" t="n">
-        <v>1832600.796510261</v>
+        <v>677403.7332242173</v>
       </c>
       <c r="H85" t="n">
-        <v>1833212.737886995</v>
+        <v>677409.8640033363</v>
       </c>
       <c r="I85" t="n">
-        <v>569211.1482635125</v>
+        <v>569211.1482634477</v>
       </c>
       <c r="J85" t="n">
-        <v>569211.4848601838</v>
+        <v>569211.4848601189</v>
       </c>
       <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
         <v>44383241.57138723</v>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>42604239.46110851</v>
       </c>
-      <c r="M85" t="n">
-        <v>1832600.796510261</v>
-      </c>
       <c r="N85" t="n">
-        <v>569211.1482635125</v>
+        <v>677403.7332242173</v>
+      </c>
+      <c r="O85" t="n">
+        <v>569211.1482634477</v>
       </c>
     </row>
     <row r="86">
@@ -4391,28 +4648,31 @@
         <v>42604259.92498342</v>
       </c>
       <c r="G86" t="n">
-        <v>1832600.796510261</v>
+        <v>677403.7332242173</v>
       </c>
       <c r="H86" t="n">
-        <v>1833212.737886995</v>
+        <v>677409.8640033363</v>
       </c>
       <c r="I86" t="n">
-        <v>569211.1482635125</v>
+        <v>569211.1482634477</v>
       </c>
       <c r="J86" t="n">
-        <v>569211.4848601838</v>
+        <v>569211.4848601189</v>
       </c>
       <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
         <v>44383241.57138723</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>42604239.46110851</v>
       </c>
-      <c r="M86" t="n">
-        <v>1832600.796510261</v>
-      </c>
       <c r="N86" t="n">
-        <v>569211.1482635125</v>
+        <v>677403.7332242173</v>
+      </c>
+      <c r="O86" t="n">
+        <v>569211.1482634477</v>
       </c>
     </row>
     <row r="87">
@@ -4437,28 +4697,31 @@
         <v>42640076.4956052</v>
       </c>
       <c r="G87" t="n">
-        <v>1832707.909344014</v>
+        <v>677564.6060848581</v>
       </c>
       <c r="H87" t="n">
-        <v>1833319.866806161</v>
+        <v>677570.7327770134</v>
       </c>
       <c r="I87" t="n">
-        <v>569701.96514899</v>
+        <v>569701.9651489252</v>
       </c>
       <c r="J87" t="n">
-        <v>569702.3026777289</v>
+        <v>569702.302677664</v>
       </c>
       <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
         <v>44411126.02987757</v>
       </c>
-      <c r="L87" t="n">
+      <c r="M87" t="n">
         <v>42640056.02019542</v>
       </c>
-      <c r="M87" t="n">
-        <v>1832707.909344014</v>
-      </c>
       <c r="N87" t="n">
-        <v>569701.96514899</v>
+        <v>677564.6060848581</v>
+      </c>
+      <c r="O87" t="n">
+        <v>569701.9651489252</v>
       </c>
     </row>
     <row r="88">
@@ -4483,28 +4746,31 @@
         <v>42605844.42041666</v>
       </c>
       <c r="G88" t="n">
-        <v>1825804.078568909</v>
+        <v>677549.8011107892</v>
       </c>
       <c r="H88" t="n">
-        <v>1826342.391153836</v>
+        <v>677556.1790230152</v>
       </c>
       <c r="I88" t="n">
-        <v>569401.7827125608</v>
+        <v>569401.7827124959</v>
       </c>
       <c r="J88" t="n">
-        <v>569402.120149109</v>
+        <v>569402.1201490441</v>
       </c>
       <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
         <v>44375016.74368616</v>
       </c>
-      <c r="L88" t="n">
+      <c r="M88" t="n">
         <v>42605823.9629457</v>
       </c>
-      <c r="M88" t="n">
-        <v>1825804.078568909</v>
-      </c>
       <c r="N88" t="n">
-        <v>569401.7827125608</v>
+        <v>677549.8011107892</v>
+      </c>
+      <c r="O88" t="n">
+        <v>569401.7827124959</v>
       </c>
     </row>
     <row r="89">
@@ -4529,28 +4795,31 @@
         <v>42681327.64522918</v>
       </c>
       <c r="G89" t="n">
-        <v>1748355.882931883</v>
+        <v>708616.4811254833</v>
       </c>
       <c r="H89" t="n">
-        <v>1748781.366684095</v>
+        <v>708609.3756127555</v>
       </c>
       <c r="I89" t="n">
-        <v>570661.9761249917</v>
+        <v>570661.9761249266</v>
       </c>
       <c r="J89" t="n">
-        <v>570662.3164591957</v>
+        <v>570662.3164591307</v>
       </c>
       <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
         <v>44235569.00916822</v>
       </c>
-      <c r="L89" t="n">
+      <c r="M89" t="n">
         <v>42681307.1693216</v>
       </c>
-      <c r="M89" t="n">
-        <v>1748355.882931883</v>
-      </c>
       <c r="N89" t="n">
-        <v>570661.9761249917</v>
+        <v>708616.4811254833</v>
+      </c>
+      <c r="O89" t="n">
+        <v>570661.9761249266</v>
       </c>
     </row>
     <row r="90">
@@ -4575,28 +4844,31 @@
         <v>42630243.20356826</v>
       </c>
       <c r="G90" t="n">
-        <v>1593839.184921903</v>
+        <v>783557.5448390882</v>
       </c>
       <c r="H90" t="n">
-        <v>1593002.128775127</v>
+        <v>783504.2198318033</v>
       </c>
       <c r="I90" t="n">
-        <v>578380.9183473738</v>
+        <v>578380.9183473079</v>
       </c>
       <c r="J90" t="n">
-        <v>578381.2887541876</v>
+        <v>578381.2887541216</v>
       </c>
       <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
         <v>44820375.5497009</v>
       </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
         <v>42630222.70471633</v>
       </c>
-      <c r="M90" t="n">
-        <v>1593839.184921903</v>
-      </c>
       <c r="N90" t="n">
-        <v>578380.9183473738</v>
+        <v>783557.5448390882</v>
+      </c>
+      <c r="O90" t="n">
+        <v>578380.9183473079</v>
       </c>
     </row>
     <row r="91">
@@ -4621,28 +4893,31 @@
         <v>42604246.02587202</v>
       </c>
       <c r="G91" t="n">
-        <v>1727279.268983572</v>
+        <v>713028.7051322855</v>
       </c>
       <c r="H91" t="n">
-        <v>1725913.992382677</v>
+        <v>713011.2956778923</v>
       </c>
       <c r="I91" t="n">
-        <v>578740.6038918262</v>
+        <v>578740.6038917601</v>
       </c>
       <c r="J91" t="n">
-        <v>578740.9763079789</v>
+        <v>578740.976307913</v>
       </c>
       <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
         <v>44211559.5180662</v>
       </c>
-      <c r="L91" t="n">
+      <c r="M91" t="n">
         <v>42604225.54207341</v>
       </c>
-      <c r="M91" t="n">
-        <v>1727279.268983572</v>
-      </c>
       <c r="N91" t="n">
-        <v>578740.6038918262</v>
+        <v>713028.7051322855</v>
+      </c>
+      <c r="O91" t="n">
+        <v>578740.6038917601</v>
       </c>
     </row>
     <row r="92">
@@ -4667,28 +4942,31 @@
         <v>42621033.82714722</v>
       </c>
       <c r="G92" t="n">
-        <v>1683776.496880388</v>
+        <v>749890.1171606531</v>
       </c>
       <c r="H92" t="n">
-        <v>1683105.138723764</v>
+        <v>749853.6964708806</v>
       </c>
       <c r="I92" t="n">
-        <v>578714.7900103247</v>
+        <v>578714.7900102588</v>
       </c>
       <c r="J92" t="n">
-        <v>578715.1619577151</v>
+        <v>578715.161957649</v>
       </c>
       <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
         <v>44323110.90552974</v>
       </c>
-      <c r="L92" t="n">
+      <c r="M92" t="n">
         <v>42621013.33985513</v>
       </c>
-      <c r="M92" t="n">
-        <v>1683776.496880388</v>
-      </c>
       <c r="N92" t="n">
-        <v>578714.7900103247</v>
+        <v>749890.1171606531</v>
+      </c>
+      <c r="O92" t="n">
+        <v>578714.7900102588</v>
       </c>
     </row>
     <row r="93">
@@ -4713,28 +4991,31 @@
         <v>42654982.49866974</v>
       </c>
       <c r="G93" t="n">
-        <v>1683885.641495381</v>
+        <v>750343.9869009268</v>
       </c>
       <c r="H93" t="n">
-        <v>1683214.479876481</v>
+        <v>750307.5674277791</v>
       </c>
       <c r="I93" t="n">
-        <v>579052.0555008774</v>
+        <v>579052.0555008114</v>
       </c>
       <c r="J93" t="n">
-        <v>579052.4278664008</v>
+        <v>579052.4278663349</v>
       </c>
       <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
         <v>44350113.57668316</v>
       </c>
-      <c r="L93" t="n">
+      <c r="M93" t="n">
         <v>42654962.00225195</v>
       </c>
-      <c r="M93" t="n">
-        <v>1683885.641495381</v>
-      </c>
       <c r="N93" t="n">
-        <v>579052.0555008774</v>
+        <v>750343.9869009268</v>
+      </c>
+      <c r="O93" t="n">
+        <v>579052.0555008114</v>
       </c>
     </row>
     <row r="94">
@@ -4759,28 +5040,31 @@
         <v>42641782.46612024</v>
       </c>
       <c r="G94" t="n">
-        <v>1674785.899576352</v>
+        <v>749947.0522053367</v>
       </c>
       <c r="H94" t="n">
-        <v>1673935.346530005</v>
+        <v>749909.4431825409</v>
       </c>
       <c r="I94" t="n">
-        <v>579036.7926769296</v>
+        <v>579036.7926768635</v>
       </c>
       <c r="J94" t="n">
-        <v>579037.1652597378</v>
+        <v>579037.1652596716</v>
       </c>
       <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
         <v>44327715.78628024</v>
       </c>
-      <c r="L94" t="n">
+      <c r="M94" t="n">
         <v>42641761.97122048</v>
       </c>
-      <c r="M94" t="n">
-        <v>1674785.899576352</v>
-      </c>
       <c r="N94" t="n">
-        <v>579036.7926769296</v>
+        <v>749947.0522053367</v>
+      </c>
+      <c r="O94" t="n">
+        <v>579036.7926768635</v>
       </c>
     </row>
     <row r="95">
@@ -4805,28 +5089,31 @@
         <v>42682224.14561183</v>
       </c>
       <c r="G95" t="n">
-        <v>1674915.435663815</v>
+        <v>750326.0380363476</v>
       </c>
       <c r="H95" t="n">
-        <v>1674064.599286195</v>
+        <v>750288.4293225855</v>
       </c>
       <c r="I95" t="n">
-        <v>579642.5270274971</v>
+        <v>579642.5270274309</v>
       </c>
       <c r="J95" t="n">
-        <v>579642.9004292988</v>
+        <v>579642.9004292326</v>
       </c>
       <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
         <v>44352944.6336908</v>
       </c>
-      <c r="L95" t="n">
+      <c r="M95" t="n">
         <v>42682203.62697849</v>
       </c>
-      <c r="M95" t="n">
-        <v>1674915.435663815</v>
-      </c>
       <c r="N95" t="n">
-        <v>579642.5270274971</v>
+        <v>750326.0380363476</v>
+      </c>
+      <c r="O95" t="n">
+        <v>579642.5270274309</v>
       </c>
     </row>
     <row r="96">
@@ -4851,28 +5138,31 @@
         <v>42678628.78304012</v>
       </c>
       <c r="G96" t="n">
-        <v>1727517.949686029</v>
+        <v>713861.56070357</v>
       </c>
       <c r="H96" t="n">
-        <v>1726152.586291585</v>
+        <v>713844.1527748352</v>
       </c>
       <c r="I96" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504605433</v>
       </c>
       <c r="J96" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241052371</v>
       </c>
       <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
         <v>44263791.03663018</v>
       </c>
-      <c r="L96" t="n">
+      <c r="M96" t="n">
         <v>42678608.2663215</v>
       </c>
-      <c r="M96" t="n">
-        <v>1727517.949686029</v>
-      </c>
       <c r="N96" t="n">
-        <v>579683.0504606094</v>
+        <v>713861.56070357</v>
+      </c>
+      <c r="O96" t="n">
+        <v>579683.0504605433</v>
       </c>
     </row>
     <row r="97">
@@ -4897,28 +5187,31 @@
         <v>42678628.78304012</v>
       </c>
       <c r="G97" t="n">
-        <v>1727517.949686029</v>
+        <v>713861.56070357</v>
       </c>
       <c r="H97" t="n">
-        <v>1726152.586291585</v>
+        <v>713844.1527748352</v>
       </c>
       <c r="I97" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504605433</v>
       </c>
       <c r="J97" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241052371</v>
       </c>
       <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
         <v>44263791.03663018</v>
       </c>
-      <c r="L97" t="n">
+      <c r="M97" t="n">
         <v>42678608.2663215</v>
       </c>
-      <c r="M97" t="n">
-        <v>1727517.949686029</v>
-      </c>
       <c r="N97" t="n">
-        <v>579683.0504606094</v>
+        <v>713861.56070357</v>
+      </c>
+      <c r="O97" t="n">
+        <v>579683.0504605433</v>
       </c>
     </row>
     <row r="98">
@@ -4943,28 +5236,31 @@
         <v>42673757.1628022</v>
       </c>
       <c r="G98" t="n">
-        <v>1720897.013443617</v>
+        <v>714869.5852159534</v>
       </c>
       <c r="H98" t="n">
-        <v>1719370.33007597</v>
+        <v>714852.0967354294</v>
       </c>
       <c r="I98" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441745974</v>
       </c>
       <c r="J98" t="n">
-        <v>579828.2184958491</v>
+        <v>579828.2184957829</v>
       </c>
       <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
         <v>44255238.86784417</v>
       </c>
-      <c r="L98" t="n">
+      <c r="M98" t="n">
         <v>42673736.65047541</v>
       </c>
-      <c r="M98" t="n">
-        <v>1720897.013443617</v>
-      </c>
       <c r="N98" t="n">
-        <v>579827.8441746635</v>
+        <v>714869.5852159534</v>
+      </c>
+      <c r="O98" t="n">
+        <v>579827.8441745974</v>
       </c>
     </row>
     <row r="99">
@@ -4989,28 +5285,31 @@
         <v>42678628.78304012</v>
       </c>
       <c r="G99" t="n">
-        <v>1727517.949686029</v>
+        <v>713861.56070357</v>
       </c>
       <c r="H99" t="n">
-        <v>1726152.586291585</v>
+        <v>713844.1527748352</v>
       </c>
       <c r="I99" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504605433</v>
       </c>
       <c r="J99" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241052371</v>
       </c>
       <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
         <v>44263791.03663018</v>
       </c>
-      <c r="L99" t="n">
+      <c r="M99" t="n">
         <v>42678608.2663215</v>
       </c>
-      <c r="M99" t="n">
-        <v>1727517.949686029</v>
-      </c>
       <c r="N99" t="n">
-        <v>579683.0504606094</v>
+        <v>713861.56070357</v>
+      </c>
+      <c r="O99" t="n">
+        <v>579683.0504605433</v>
       </c>
     </row>
     <row r="100">
@@ -5035,28 +5334,31 @@
         <v>42678628.78304012</v>
       </c>
       <c r="G100" t="n">
-        <v>1727517.949686029</v>
+        <v>713861.56070357</v>
       </c>
       <c r="H100" t="n">
-        <v>1726152.586291585</v>
+        <v>713844.1527748352</v>
       </c>
       <c r="I100" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504605433</v>
       </c>
       <c r="J100" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241052371</v>
       </c>
       <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
         <v>44263791.03663018</v>
       </c>
-      <c r="L100" t="n">
+      <c r="M100" t="n">
         <v>42678608.2663215</v>
       </c>
-      <c r="M100" t="n">
-        <v>1727517.949686029</v>
-      </c>
       <c r="N100" t="n">
-        <v>579683.0504606094</v>
+        <v>713861.56070357</v>
+      </c>
+      <c r="O100" t="n">
+        <v>579683.0504605433</v>
       </c>
     </row>
     <row r="101">
@@ -5081,28 +5383,31 @@
         <v>42678628.78304012</v>
       </c>
       <c r="G101" t="n">
-        <v>1727517.949686029</v>
+        <v>713861.56070357</v>
       </c>
       <c r="H101" t="n">
-        <v>1726152.586291585</v>
+        <v>713844.1527748352</v>
       </c>
       <c r="I101" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504605433</v>
       </c>
       <c r="J101" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241052371</v>
       </c>
       <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
         <v>44263791.03663018</v>
       </c>
-      <c r="L101" t="n">
+      <c r="M101" t="n">
         <v>42678608.2663215</v>
       </c>
-      <c r="M101" t="n">
-        <v>1727517.949686029</v>
-      </c>
       <c r="N101" t="n">
-        <v>579683.0504606094</v>
+        <v>713861.56070357</v>
+      </c>
+      <c r="O101" t="n">
+        <v>579683.0504605433</v>
       </c>
     </row>
     <row r="102">
@@ -5127,28 +5432,31 @@
         <v>42678628.78304012</v>
       </c>
       <c r="G102" t="n">
-        <v>1727517.949686029</v>
+        <v>713861.56070357</v>
       </c>
       <c r="H102" t="n">
-        <v>1726152.586291585</v>
+        <v>713844.1527748352</v>
       </c>
       <c r="I102" t="n">
-        <v>579683.0504606094</v>
+        <v>579683.0504605433</v>
       </c>
       <c r="J102" t="n">
-        <v>579683.4241053031</v>
+        <v>579683.4241052371</v>
       </c>
       <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
         <v>44263791.03663018</v>
       </c>
-      <c r="L102" t="n">
+      <c r="M102" t="n">
         <v>42678608.2663215</v>
       </c>
-      <c r="M102" t="n">
-        <v>1727517.949686029</v>
-      </c>
       <c r="N102" t="n">
-        <v>579683.0504606094</v>
+        <v>713861.56070357</v>
+      </c>
+      <c r="O102" t="n">
+        <v>579683.0504605433</v>
       </c>
     </row>
     <row r="103">
@@ -5173,28 +5481,31 @@
         <v>42673757.1628022</v>
       </c>
       <c r="G103" t="n">
-        <v>1720897.013443617</v>
+        <v>714869.5852159534</v>
       </c>
       <c r="H103" t="n">
-        <v>1719370.33007597</v>
+        <v>714852.0967354294</v>
       </c>
       <c r="I103" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441745974</v>
       </c>
       <c r="J103" t="n">
-        <v>579828.2184958491</v>
+        <v>579828.2184957829</v>
       </c>
       <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
         <v>44255238.86784417</v>
       </c>
-      <c r="L103" t="n">
+      <c r="M103" t="n">
         <v>42673736.65047541</v>
       </c>
-      <c r="M103" t="n">
-        <v>1720897.013443617</v>
-      </c>
       <c r="N103" t="n">
-        <v>579827.8441746635</v>
+        <v>714869.5852159534</v>
+      </c>
+      <c r="O103" t="n">
+        <v>579827.8441745974</v>
       </c>
     </row>
     <row r="104">
@@ -5219,28 +5530,31 @@
         <v>42639833.15292501</v>
       </c>
       <c r="G104" t="n">
-        <v>1720787.868828623</v>
+        <v>714415.7154756796</v>
       </c>
       <c r="H104" t="n">
-        <v>1719260.988923253</v>
+        <v>714398.2257785309</v>
       </c>
       <c r="I104" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604509753</v>
       </c>
       <c r="J104" t="n">
-        <v>579492.8343713903</v>
+        <v>579492.8343713239</v>
       </c>
       <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
         <v>44228236.19669075</v>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>42639812.64979225</v>
       </c>
-      <c r="M104" t="n">
-        <v>1720787.868828623</v>
-      </c>
       <c r="N104" t="n">
-        <v>579492.4604510416</v>
+        <v>714415.7154756796</v>
+      </c>
+      <c r="O104" t="n">
+        <v>579492.4604509753</v>
       </c>
     </row>
     <row r="105">
@@ -5265,28 +5579,31 @@
         <v>42673757.1628022</v>
       </c>
       <c r="G105" t="n">
-        <v>1720897.013443617</v>
+        <v>714869.5852159534</v>
       </c>
       <c r="H105" t="n">
-        <v>1719370.33007597</v>
+        <v>714852.0967354294</v>
       </c>
       <c r="I105" t="n">
-        <v>579827.8441746635</v>
+        <v>579827.8441745974</v>
       </c>
       <c r="J105" t="n">
-        <v>579828.2184958491</v>
+        <v>579828.2184957829</v>
       </c>
       <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
         <v>44255238.86784417</v>
       </c>
-      <c r="L105" t="n">
+      <c r="M105" t="n">
         <v>42673736.65047541</v>
       </c>
-      <c r="M105" t="n">
-        <v>1720897.013443617</v>
-      </c>
       <c r="N105" t="n">
-        <v>579827.8441746635</v>
+        <v>714869.5852159534</v>
+      </c>
+      <c r="O105" t="n">
+        <v>579827.8441745974</v>
       </c>
     </row>
     <row r="106">
@@ -5311,28 +5628,31 @@
         <v>42639833.15292501</v>
       </c>
       <c r="G106" t="n">
-        <v>1720787.868828623</v>
+        <v>714415.7154756796</v>
       </c>
       <c r="H106" t="n">
-        <v>1719260.988923253</v>
+        <v>714398.2257785309</v>
       </c>
       <c r="I106" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604509753</v>
       </c>
       <c r="J106" t="n">
-        <v>579492.8343713903</v>
+        <v>579492.8343713239</v>
       </c>
       <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
         <v>44228236.19669075</v>
       </c>
-      <c r="L106" t="n">
+      <c r="M106" t="n">
         <v>42639812.64979225</v>
       </c>
-      <c r="M106" t="n">
-        <v>1720787.868828623</v>
-      </c>
       <c r="N106" t="n">
-        <v>579492.4604510416</v>
+        <v>714415.7154756796</v>
+      </c>
+      <c r="O106" t="n">
+        <v>579492.4604509753</v>
       </c>
     </row>
     <row r="107">
@@ -5357,28 +5677,31 @@
         <v>42644645.53724574</v>
       </c>
       <c r="G107" t="n">
-        <v>1727408.805071035</v>
+        <v>713407.6909632963</v>
       </c>
       <c r="H107" t="n">
-        <v>1726043.245138868</v>
+        <v>713390.2818179368</v>
       </c>
       <c r="I107" t="n">
-        <v>579347.0990067094</v>
+        <v>579347.0990066433</v>
       </c>
       <c r="J107" t="n">
-        <v>579347.4722519736</v>
+        <v>579347.4722519076</v>
       </c>
       <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
         <v>44236788.36547676</v>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>42644625.02979143</v>
       </c>
-      <c r="M107" t="n">
-        <v>1727408.805071035</v>
-      </c>
       <c r="N107" t="n">
-        <v>579347.0990067094</v>
+        <v>713407.6909632963</v>
+      </c>
+      <c r="O107" t="n">
+        <v>579347.0990066433</v>
       </c>
     </row>
     <row r="108">
@@ -5403,28 +5726,31 @@
         <v>42645472.929233</v>
       </c>
       <c r="G108" t="n">
-        <v>1583272.829104913</v>
+        <v>697287.969390331</v>
       </c>
       <c r="H108" t="n">
-        <v>1583117.451312867</v>
+        <v>697287.3408971184</v>
       </c>
       <c r="I108" t="n">
-        <v>579699.7013230528</v>
+        <v>579699.7013229867</v>
       </c>
       <c r="J108" t="n">
-        <v>579700.0759444402</v>
+        <v>579700.0759443741</v>
       </c>
       <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
         <v>44039180.61146123</v>
       </c>
-      <c r="L108" t="n">
+      <c r="M108" t="n">
         <v>42645452.43107866</v>
       </c>
-      <c r="M108" t="n">
-        <v>1583272.829104913</v>
-      </c>
       <c r="N108" t="n">
-        <v>579699.7013230528</v>
+        <v>697287.969390331</v>
+      </c>
+      <c r="O108" t="n">
+        <v>579699.7013229867</v>
       </c>
     </row>
     <row r="109">
@@ -5449,28 +5775,31 @@
         <v>42653857.29220781</v>
       </c>
       <c r="G109" t="n">
-        <v>1703098.434425497</v>
+        <v>705114.6519700625</v>
       </c>
       <c r="H109" t="n">
-        <v>1701844.104980985</v>
+        <v>705100.2110948624</v>
       </c>
       <c r="I109" t="n">
-        <v>579693.9548989035</v>
+        <v>579693.9548988375</v>
       </c>
       <c r="J109" t="n">
-        <v>579694.3293725281</v>
+        <v>579694.329372462</v>
       </c>
       <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
         <v>44210137.64349665</v>
       </c>
-      <c r="L109" t="n">
+      <c r="M109" t="n">
         <v>42653836.79615556</v>
       </c>
-      <c r="M109" t="n">
-        <v>1703098.434425497</v>
-      </c>
       <c r="N109" t="n">
-        <v>579693.9548989035</v>
+        <v>705114.6519700625</v>
+      </c>
+      <c r="O109" t="n">
+        <v>579693.9548988375</v>
       </c>
     </row>
     <row r="110">
@@ -5495,28 +5824,31 @@
         <v>42639833.15292501</v>
       </c>
       <c r="G110" t="n">
-        <v>1720787.868828623</v>
+        <v>714415.7154756796</v>
       </c>
       <c r="H110" t="n">
-        <v>1719260.988923253</v>
+        <v>714398.2257785309</v>
       </c>
       <c r="I110" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604509753</v>
       </c>
       <c r="J110" t="n">
-        <v>579492.8343713903</v>
+        <v>579492.8343713239</v>
       </c>
       <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
         <v>44228236.19669075</v>
       </c>
-      <c r="L110" t="n">
+      <c r="M110" t="n">
         <v>42639812.64979225</v>
       </c>
-      <c r="M110" t="n">
-        <v>1720787.868828623</v>
-      </c>
       <c r="N110" t="n">
-        <v>579492.4604510416</v>
+        <v>714415.7154756796</v>
+      </c>
+      <c r="O110" t="n">
+        <v>579492.4604509753</v>
       </c>
     </row>
     <row r="111">
@@ -5541,28 +5873,31 @@
         <v>42639833.15292501</v>
       </c>
       <c r="G111" t="n">
-        <v>1720787.868828623</v>
+        <v>714415.7154756796</v>
       </c>
       <c r="H111" t="n">
-        <v>1719260.988923253</v>
+        <v>714398.2257785309</v>
       </c>
       <c r="I111" t="n">
-        <v>579492.4604510416</v>
+        <v>579492.4604509753</v>
       </c>
       <c r="J111" t="n">
-        <v>579492.8343713903</v>
+        <v>579492.8343713239</v>
       </c>
       <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
         <v>44228236.19669075</v>
       </c>
-      <c r="L111" t="n">
+      <c r="M111" t="n">
         <v>42639812.64979225</v>
       </c>
-      <c r="M111" t="n">
-        <v>1720787.868828623</v>
-      </c>
       <c r="N111" t="n">
-        <v>579492.4604510416</v>
+        <v>714415.7154756796</v>
+      </c>
+      <c r="O111" t="n">
+        <v>579492.4604509753</v>
       </c>
     </row>
     <row r="112">
@@ -5587,28 +5922,31 @@
         <v>42620227.2853965</v>
       </c>
       <c r="G112" t="n">
-        <v>1583142.892808005</v>
+        <v>697079.8522209005</v>
       </c>
       <c r="H112" t="n">
-        <v>1582987.226705493</v>
+        <v>697079.6388558717</v>
       </c>
       <c r="I112" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387460745</v>
       </c>
       <c r="J112" t="n">
-        <v>579577.1135115623</v>
+        <v>579577.1135114962</v>
       </c>
       <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
         <v>44013509.15272382</v>
       </c>
-      <c r="L112" t="n">
+      <c r="M112" t="n">
         <v>42620206.79353427</v>
       </c>
-      <c r="M112" t="n">
-        <v>1583142.892808005</v>
-      </c>
       <c r="N112" t="n">
-        <v>579576.7387461406</v>
+        <v>697079.8522209005</v>
+      </c>
+      <c r="O112" t="n">
+        <v>579576.7387460745</v>
       </c>
     </row>
     <row r="113">
@@ -5633,28 +5971,31 @@
         <v>42614596.97750365</v>
       </c>
       <c r="G113" t="n">
-        <v>1720657.932531715</v>
+        <v>714207.5983062491</v>
       </c>
       <c r="H113" t="n">
-        <v>1719130.76431588</v>
+        <v>714190.5237372842</v>
       </c>
       <c r="I113" t="n">
-        <v>579370.6441334076</v>
+        <v>579370.6441333415</v>
       </c>
       <c r="J113" t="n">
-        <v>579371.0182124078</v>
+        <v>579371.0182123418</v>
       </c>
       <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
         <v>44202564.73795334</v>
       </c>
-      <c r="L113" t="n">
+      <c r="M113" t="n">
         <v>42614576.48083655</v>
       </c>
-      <c r="M113" t="n">
-        <v>1720657.932531715</v>
-      </c>
       <c r="N113" t="n">
-        <v>579370.6441334076</v>
+        <v>714207.5983062491</v>
+      </c>
+      <c r="O113" t="n">
+        <v>579370.6441333415</v>
       </c>
     </row>
     <row r="114">
@@ -5679,28 +6020,31 @@
         <v>42620227.2853965</v>
       </c>
       <c r="G114" t="n">
-        <v>1583142.892808005</v>
+        <v>697079.8522209005</v>
       </c>
       <c r="H114" t="n">
-        <v>1582987.226705493</v>
+        <v>697079.6388558717</v>
       </c>
       <c r="I114" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387460745</v>
       </c>
       <c r="J114" t="n">
-        <v>579577.1135115623</v>
+        <v>579577.1135114962</v>
       </c>
       <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
         <v>44013509.15272382</v>
       </c>
-      <c r="L114" t="n">
+      <c r="M114" t="n">
         <v>42620206.79353427</v>
       </c>
-      <c r="M114" t="n">
-        <v>1583142.892808005</v>
-      </c>
       <c r="N114" t="n">
-        <v>579576.7387461406</v>
+        <v>697079.8522209005</v>
+      </c>
+      <c r="O114" t="n">
+        <v>579576.7387460745</v>
       </c>
     </row>
     <row r="115">
@@ -5725,28 +6069,31 @@
         <v>42614596.97750365</v>
       </c>
       <c r="G115" t="n">
-        <v>1720657.932531715</v>
+        <v>714207.5983062491</v>
       </c>
       <c r="H115" t="n">
-        <v>1719130.76431588</v>
+        <v>714190.5237372842</v>
       </c>
       <c r="I115" t="n">
-        <v>579370.6441334076</v>
+        <v>579370.6441333415</v>
       </c>
       <c r="J115" t="n">
-        <v>579371.0182124078</v>
+        <v>579371.0182123418</v>
       </c>
       <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
         <v>44202564.73795334</v>
       </c>
-      <c r="L115" t="n">
+      <c r="M115" t="n">
         <v>42614576.48083655</v>
       </c>
-      <c r="M115" t="n">
-        <v>1720657.932531715</v>
-      </c>
       <c r="N115" t="n">
-        <v>579370.6441334076</v>
+        <v>714207.5983062491</v>
+      </c>
+      <c r="O115" t="n">
+        <v>579370.6441333415</v>
       </c>
     </row>
     <row r="116">
@@ -5771,28 +6118,31 @@
         <v>42628487.12080841</v>
       </c>
       <c r="G116" t="n">
-        <v>1702968.498128589</v>
+        <v>704906.534800632</v>
       </c>
       <c r="H116" t="n">
-        <v>1701713.880373612</v>
+        <v>704892.5090536157</v>
       </c>
       <c r="I116" t="n">
-        <v>579568.7455024377</v>
+        <v>579568.7455023716</v>
       </c>
       <c r="J116" t="n">
-        <v>579569.1201038336</v>
+        <v>579569.1201037675</v>
       </c>
       <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
         <v>44184466.18475924</v>
       </c>
-      <c r="L116" t="n">
+      <c r="M116" t="n">
         <v>42628466.63089977</v>
       </c>
-      <c r="M116" t="n">
-        <v>1702968.498128589</v>
-      </c>
       <c r="N116" t="n">
-        <v>579568.7455024377</v>
+        <v>704906.534800632</v>
+      </c>
+      <c r="O116" t="n">
+        <v>579568.7455023716</v>
       </c>
     </row>
     <row r="117">
@@ -5817,28 +6167,31 @@
         <v>42620227.2853965</v>
       </c>
       <c r="G117" t="n">
-        <v>1583142.892808005</v>
+        <v>697079.8522209005</v>
       </c>
       <c r="H117" t="n">
-        <v>1582987.226705493</v>
+        <v>697079.6388558717</v>
       </c>
       <c r="I117" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387460745</v>
       </c>
       <c r="J117" t="n">
-        <v>579577.1135115623</v>
+        <v>579577.1135114962</v>
       </c>
       <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
         <v>44013509.15272382</v>
       </c>
-      <c r="L117" t="n">
+      <c r="M117" t="n">
         <v>42620206.79353427</v>
       </c>
-      <c r="M117" t="n">
-        <v>1583142.892808005</v>
-      </c>
       <c r="N117" t="n">
-        <v>579576.7387461406</v>
+        <v>697079.8522209005</v>
+      </c>
+      <c r="O117" t="n">
+        <v>579576.7387460745</v>
       </c>
     </row>
     <row r="118">
@@ -5863,28 +6216,31 @@
         <v>42620227.2853965</v>
       </c>
       <c r="G118" t="n">
-        <v>1583142.892808005</v>
+        <v>697079.8522209005</v>
       </c>
       <c r="H118" t="n">
-        <v>1582987.226705493</v>
+        <v>697079.6388558717</v>
       </c>
       <c r="I118" t="n">
-        <v>579576.7387461406</v>
+        <v>579576.7387460745</v>
       </c>
       <c r="J118" t="n">
-        <v>579577.1135115623</v>
+        <v>579577.1135114962</v>
       </c>
       <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
         <v>44013509.15272382</v>
       </c>
-      <c r="L118" t="n">
+      <c r="M118" t="n">
         <v>42620206.79353427</v>
       </c>
-      <c r="M118" t="n">
-        <v>1583142.892808005</v>
-      </c>
       <c r="N118" t="n">
-        <v>579576.7387461406</v>
+        <v>697079.8522209005</v>
+      </c>
+      <c r="O118" t="n">
+        <v>579576.7387460745</v>
       </c>
     </row>
     <row r="119">
@@ -5909,28 +6265,31 @@
         <v>42583532.55837379</v>
       </c>
       <c r="G119" t="n">
-        <v>1583035.779974252</v>
+        <v>696918.9793602598</v>
       </c>
       <c r="H119" t="n">
-        <v>1582880.097786328</v>
+        <v>696918.7700821947</v>
       </c>
       <c r="I119" t="n">
-        <v>579068.7007636433</v>
+        <v>579068.7007635771</v>
       </c>
       <c r="J119" t="n">
-        <v>579069.0746130999</v>
+        <v>579069.0746130338</v>
       </c>
       <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
         <v>43985624.69423348</v>
       </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
         <v>42583512.07849634</v>
       </c>
-      <c r="M119" t="n">
-        <v>1583035.779974252</v>
-      </c>
       <c r="N119" t="n">
-        <v>579068.7007636433</v>
+        <v>696918.9793602598</v>
+      </c>
+      <c r="O119" t="n">
+        <v>579068.7007635771</v>
       </c>
     </row>
     <row r="120">
@@ -5955,28 +6314,31 @@
         <v>42597519.79681315</v>
       </c>
       <c r="G120" t="n">
-        <v>1565346.345571125</v>
+        <v>693855.7914013348</v>
       </c>
       <c r="H120" t="n">
-        <v>1565463.21384406</v>
+        <v>693853.6984229047</v>
       </c>
       <c r="I120" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453189</v>
       </c>
       <c r="J120" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832369477</v>
       </c>
       <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
         <v>43967526.14103937</v>
       </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
         <v>42597499.32410115</v>
       </c>
-      <c r="M120" t="n">
-        <v>1565346.345571125</v>
-      </c>
       <c r="N120" t="n">
-        <v>579267.4088453851</v>
+        <v>693855.7914013348</v>
+      </c>
+      <c r="O120" t="n">
+        <v>579267.4088453189</v>
       </c>
     </row>
     <row r="121">
@@ -6001,28 +6363,31 @@
         <v>42567790.44326751</v>
       </c>
       <c r="G121" t="n">
-        <v>1650007.385850326</v>
+        <v>748730.6919499922</v>
       </c>
       <c r="H121" t="n">
-        <v>1649921.694799062</v>
+        <v>748698.7521425944</v>
       </c>
       <c r="I121" t="n">
-        <v>579069.8535882158</v>
+        <v>579069.8535881495</v>
       </c>
       <c r="J121" t="n">
-        <v>579070.2278838839</v>
+        <v>579070.2278838176</v>
       </c>
       <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
         <v>44381520.91916738</v>
       </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
         <v>42567769.97303949</v>
       </c>
-      <c r="M121" t="n">
-        <v>1650007.385850326</v>
-      </c>
       <c r="N121" t="n">
-        <v>579069.8535882158</v>
+        <v>748730.6919499922</v>
+      </c>
+      <c r="O121" t="n">
+        <v>579069.8535881495</v>
       </c>
     </row>
     <row r="122">
@@ -6047,28 +6412,31 @@
         <v>42597519.79681315</v>
       </c>
       <c r="G122" t="n">
-        <v>1565346.345571125</v>
+        <v>693855.7914013348</v>
       </c>
       <c r="H122" t="n">
-        <v>1565463.21384406</v>
+        <v>693853.6984229047</v>
       </c>
       <c r="I122" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453189</v>
       </c>
       <c r="J122" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832369477</v>
       </c>
       <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
         <v>43967526.14103937</v>
       </c>
-      <c r="L122" t="n">
+      <c r="M122" t="n">
         <v>42597499.32410115</v>
       </c>
-      <c r="M122" t="n">
-        <v>1565346.345571125</v>
-      </c>
       <c r="N122" t="n">
-        <v>579267.4088453851</v>
+        <v>693855.7914013348</v>
+      </c>
+      <c r="O122" t="n">
+        <v>579267.4088453189</v>
       </c>
     </row>
     <row r="123">
@@ -6093,28 +6461,31 @@
         <v>42597519.79681315</v>
       </c>
       <c r="G123" t="n">
-        <v>1565346.345571125</v>
+        <v>693855.7914013348</v>
       </c>
       <c r="H123" t="n">
-        <v>1565463.21384406</v>
+        <v>693853.6984229047</v>
       </c>
       <c r="I123" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453189</v>
       </c>
       <c r="J123" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832369477</v>
       </c>
       <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
         <v>43967526.14103937</v>
       </c>
-      <c r="L123" t="n">
+      <c r="M123" t="n">
         <v>42597499.32410115</v>
       </c>
-      <c r="M123" t="n">
-        <v>1565346.345571125</v>
-      </c>
       <c r="N123" t="n">
-        <v>579267.4088453851</v>
+        <v>693855.7914013348</v>
+      </c>
+      <c r="O123" t="n">
+        <v>579267.4088453189</v>
       </c>
     </row>
     <row r="124">
@@ -6139,28 +6510,31 @@
         <v>42597519.79681315</v>
       </c>
       <c r="G124" t="n">
-        <v>1565346.345571125</v>
+        <v>693855.7914013348</v>
       </c>
       <c r="H124" t="n">
-        <v>1565463.21384406</v>
+        <v>693853.6984229047</v>
       </c>
       <c r="I124" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453189</v>
       </c>
       <c r="J124" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832369477</v>
       </c>
       <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
         <v>43967526.14103937</v>
       </c>
-      <c r="L124" t="n">
+      <c r="M124" t="n">
         <v>42597499.32410115</v>
       </c>
-      <c r="M124" t="n">
-        <v>1565346.345571125</v>
-      </c>
       <c r="N124" t="n">
-        <v>579267.4088453851</v>
+        <v>693855.7914013348</v>
+      </c>
+      <c r="O124" t="n">
+        <v>579267.4088453189</v>
       </c>
     </row>
     <row r="125">
@@ -6185,28 +6559,31 @@
         <v>42597519.79681315</v>
       </c>
       <c r="G125" t="n">
-        <v>1565346.345571125</v>
+        <v>693855.7914013348</v>
       </c>
       <c r="H125" t="n">
-        <v>1565463.21384406</v>
+        <v>693853.6984229047</v>
       </c>
       <c r="I125" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453189</v>
       </c>
       <c r="J125" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832369477</v>
       </c>
       <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
         <v>43967526.14103937</v>
       </c>
-      <c r="L125" t="n">
+      <c r="M125" t="n">
         <v>42597499.32410115</v>
       </c>
-      <c r="M125" t="n">
-        <v>1565346.345571125</v>
-      </c>
       <c r="N125" t="n">
-        <v>579267.4088453851</v>
+        <v>693855.7914013348</v>
+      </c>
+      <c r="O125" t="n">
+        <v>579267.4088453189</v>
       </c>
     </row>
     <row r="126">
@@ -6231,28 +6608,31 @@
         <v>42597519.79681315</v>
       </c>
       <c r="G126" t="n">
-        <v>1565346.345571125</v>
+        <v>693855.7914013348</v>
       </c>
       <c r="H126" t="n">
-        <v>1565463.21384406</v>
+        <v>693853.6984229047</v>
       </c>
       <c r="I126" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453189</v>
       </c>
       <c r="J126" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832369477</v>
       </c>
       <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
         <v>43967526.14103937</v>
       </c>
-      <c r="L126" t="n">
+      <c r="M126" t="n">
         <v>42597499.32410115</v>
       </c>
-      <c r="M126" t="n">
-        <v>1565346.345571125</v>
-      </c>
       <c r="N126" t="n">
-        <v>579267.4088453851</v>
+        <v>693855.7914013348</v>
+      </c>
+      <c r="O126" t="n">
+        <v>579267.4088453189</v>
       </c>
     </row>
     <row r="127">
@@ -6277,28 +6657,31 @@
         <v>42597519.79681315</v>
       </c>
       <c r="G127" t="n">
-        <v>1565346.345571125</v>
+        <v>693855.7914013348</v>
       </c>
       <c r="H127" t="n">
-        <v>1565463.21384406</v>
+        <v>693853.6984229047</v>
       </c>
       <c r="I127" t="n">
-        <v>579267.4088453851</v>
+        <v>579267.4088453189</v>
       </c>
       <c r="J127" t="n">
-        <v>579267.7832370138</v>
+        <v>579267.7832369477</v>
       </c>
       <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
         <v>43967526.14103937</v>
       </c>
-      <c r="L127" t="n">
+      <c r="M127" t="n">
         <v>42597499.32410115</v>
       </c>
-      <c r="M127" t="n">
-        <v>1565346.345571125</v>
-      </c>
       <c r="N127" t="n">
-        <v>579267.4088453851</v>
+        <v>693855.7914013348</v>
+      </c>
+      <c r="O127" t="n">
+        <v>579267.4088453189</v>
       </c>
     </row>
   </sheetData>
